--- a/Data Entry - 5th World Psoriasis & Psoriatic Arthritis Conference 2018 - Case format (2).xlsx
+++ b/Data Entry - 5th World Psoriasis & Psoriatic Arthritis Conference 2018 - Case format (2).xlsx
@@ -185,7 +185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -208,9 +208,6 @@
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -583,7 +580,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16"/>
@@ -603,15 +600,15 @@
           <t>About the person</t>
         </is>
       </c>
-      <c r="B1" s="9" t="n"/>
-      <c r="C1" s="10" t="n"/>
+      <c r="B1" s="8" t="n"/>
+      <c r="C1" s="9" t="n"/>
       <c r="D1" s="2" t="inlineStr">
         <is>
           <t>About the session/topic</t>
         </is>
       </c>
-      <c r="E1" s="9" t="n"/>
-      <c r="F1" s="10" t="n"/>
+      <c r="E1" s="8" t="n"/>
+      <c r="F1" s="9" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -645,7 +642,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="16" customHeight="1" s="11">
+    <row r="3" ht="16" customHeight="1" s="10">
       <c r="A3" s="5" t="inlineStr">
         <is>
           <t>Florence Abdallah</t>
@@ -681,7 +678,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="11">
+    <row r="4" ht="15" customHeight="1" s="10">
       <c r="A4" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Nermina Ovčina-Kurtović </t>
@@ -765,7 +762,7 @@
       </c>
       <c r="B6" s="5" t="inlineStr">
         <is>
-          <t>Institute of Dermatology and Venereology,</t>
+          <t>Institute of Dermatology and Venereology, Sichuan Academy of Medical Sciences &amp; Sichuan Provincial People’s Hospital</t>
         </is>
       </c>
       <c r="C6" s="5" t="inlineStr">
@@ -785,7 +782,7 @@
       </c>
       <c r="F6" s="5" t="inlineStr">
         <is>
-          <t>Introduction: Psoriasis usually recurs in previously affected areas, so a pathogenic memory has been proposed, but the nature of such site-specific	recurrent	memory	is	not	completely	known.	Tissue-resident memory T (TRM) cells are non-recirculating memory T cells that persist long-term in epithelial tissues, including the skin. Because they can localize in the skin for many months, we spe-culate that TRM may contribute to recurrent pathology of psoriasis.Objectives: The aim of the present study is to compare the dif-ferences of quantity proportion and secretion ability of cytokines of  the  TRM  cells  between  recurrent  and  nonrecurrent  lesions following remission, as well as to explicit the possible survival signal for these TRM cells in psoriatic lesion.Methods: RNA-Seq, Gene Ontology and KEGG analysis, real-time PCR,	flow	cytometer	analysis/sorting,	cell	stimulation	assay,	and	western blot were used to explore the immunological memory.Results: Compared with normal skin, there are common shared genes	significantly	upregulated	( &gt; 2 folds, p &lt; 0.001) by recurrent and nonrecurrent lesions, including CD69. CD69 mRNA transcrip-tion level in nonrecurrent lesions after remission remains as high as in neighboring recurrent lesions. CD8+CD69+ TRM cells exist in both lesions, and they can secret almost same amount of IL-17A and IL-22 after stimulation. Levels of IL-15, secreted by kerati-nocytes in psoriasis epidermis, in nonrecurrent lesions remain as high as in neighboring recurrent lesions, and recombinant human IL-15 can induce CD69 on TRM cells.Conclusions:  Our  preliminary  study  shows  that  CD8+CD69+ TRM cells persist in clinically resolved psoriatic lesions whether it recurs or not, and they can produce IL-17A and IL-22 with critical effect on psoriatic recurrence and development. Furthermore, we have indicated the IL-15 may play crucial role in the survival of CD8+CD69+ TRM cells in psoriatic lesions.1. Mueller SN, Mackay LK.Tissue-resident memory T cells: local spe-cialists in immune defence. Nat Rev Immunol. 2016 Feb;16(2):79-89.2. Clark RA. Resident memory T cells in human health and disease. Sci Transl Med. 2015 Jan 7;7(269):269rv1.3. Park CO, KupperTS. The emerging role of resident memory T cells in  protective  immunity  and  inflammatory  disease.  Nat  Med.  2015 Jul;21(7):688-97.4. Cheuk S, Wikén M, Blomqvist L, Nylén S, Talme T, Ståhle M, Eids-moL. Epidermal Th22 and Tc17 cells form a localized disease memory in clinically healed psoriasis. J Immunol. 2014 Apr 1;192(7):3111-20.</t>
+          <t>Introduction: Psoriasis usually recurs in previously affected areas, so a pathogenic memory has been proposed, but the nature of such site-specific	recurrent	memory	is	not	completely	known.	Tissueresident memory T (TRM) cells are non-recirculating memory T cells that persist long-term in epithelial tissues, including the skin. Because they can localize in the skin for many months, we speculate that TRM may contribute to recurrent pathology of psoriasis.Objectives: The aim of the present study is to compare the differences of quantity proportion and secretion ability of cytokines of  the  TRM  cells  between  recurrent  and  nonrecurrent  lesions following remission, as well as to explicit the possible survival signal for these TRM cells in psoriatic lesion.Methods: RNA-Seq, Gene Ontology and KEGG analysis, real-time PCR,	flow	cytometer	analysis/sorting,	cell	stimulation	assay,	and	western blot were used to explore the immunological memory.Results: Compared with normal skin, there are common shared genes	significantly	upregulated	( &gt; 2 folds, p &lt; 0.001) by recurrent and nonrecurrent lesions, including CD69. CD69 mRNA transcription level in nonrecurrent lesions after remission remains as high as in neighboring recurrent lesions. CD8+CD69+ TRM cells exist in both lesions, and they can secret almost same amount of IL-17A and IL-22 after stimulation. Levels of IL-15, secreted by keratinocytes in psoriasis epidermis, in nonrecurrent lesions remain as high as in neighboring recurrent lesions, and recombinant human IL-15 can induce CD69 on TRM cells.Conclusions:  Our  preliminary  study  shows  that  CD8+CD69+ TRM cells persist in clinically resolved psoriatic lesions whether it recurs or not, and they can produce IL-17A and IL-22 with critical effect on psoriatic recurrence and development. Furthermore, we have indicated the IL-15 may play crucial role in the survival of CD8+CD69+ TRM cells in psoriatic lesions.1. Mueller SN, Mackay LK.Tissue-resident memory T cells: local specialists in immune defence. Nat Rev Immunol. 2016 Feb;16(2):79-89.2. Clark RA. Resident memory T cells in human health and disease. Sci Transl Med. 2015 Jan 7;7(269):269rv1.3. Park CO, KupperTS. The emerging role of resident memory T cells in  protective  immunity  and  inflammatory  disease.  Nat  Med.  2015 Jul;21(7):688-97.4. Cheuk S, Wikén M, Blomqvist L, Nylén S, Talme T, Ståhle M, EidsmoL. Epidermal Th22 and Tc17 cells form a localized disease memory in clinically healed psoriasis. J Immunol. 2014 Apr 1;192(7):3111-20.</t>
         </is>
       </c>
     </row>
@@ -797,7 +794,7 @@
       </c>
       <c r="B7" s="6" t="inlineStr">
         <is>
-          <t>University of Michigan,</t>
+          <t>University of Michigan, MI State</t>
         </is>
       </c>
       <c r="C7" s="6" t="inlineStr">
@@ -817,7 +814,7 @@
       </c>
       <c r="F7" s="7" t="inlineStr">
         <is>
-          <t>Introduction: Psychosocial factors are important in the onset and/or  exacerbation  of  psoriasis  in  40%  to  80%  of  cases.  Psoriasis has been associated with suicide, and an increased prevalence of alcoholism and a range of personality characteristics.A recent systematic meta-analysis of 98 eligible studies with a total of 401,703 psoriasis patients showed that patients with psoriasis were approximately one and a half times more likely to exhibit signs of depression compared with healthy controls. [1].Emerging  evidence  suggests  that  depression,  like  psoriasis,  is associated	with	systemic	inflammation,	and	the	systemic	inflam-matory	profile	of	the	two	conditions	show	similar	traits.	Depression	is	considered	to	have	a	strong	inflammatory	component,	similar	to	psoriasis, e.g. interleukin (IL)-2, IL-6, IL-12, and tumour necrosis factor	(TNF)-α	[2–5].US Veteran population has increased incidence of mental health issue as compared to general population. making Veteran group a unique population that warrants investigation.Objectives: Hypotheses - 1/ Veterans with concomitant depres-sion	and	psoriasis/PsA	may	have	elevated	inflammatory	markers	like CRP, ESR, and SPEP. 2/ Depression may improve with the treatment of psoriasis/psoriatic arthritis without antidepressant use. Methods: A 36-month retrospective chart review of 100 veterans with  diagnosis  of  depression  and  psoriasis/psoriatic  arthritis. Elevated	 inflammatory	 markers,	 including	 sedimentation	 rate,	C-reactive  protein  (CRP)  and  serum  protein  electrophoresis (SPEP),  as  well  as  longitudinal  disease  course  of  depression (PHQ-8)	and	psoriasis/psoriatic	arthritis	(HAQ-DI);	specifically	disease activity, and depression symptoms will be assessed. We then aim to draw a correlation between disease activity and active depressive symptoms.Results: to be availableConclusions: to be available1. Dowlatshahi EA, et al. The prevalence and odds of depressive symptoms and clinical depression in psoriasis patients: a systematic review and meta-analysis. J Invest Dermatol 2014; 134: 1542–1551.2.	Allison	DJ,	Ditor	DS.	The	common	inflammatory	etiology	of	depres-sion	and	cognitive	impairment:	a	therapeutic	target.	J	Neuroinflammation	2014; 11: 151.3.	Dantzer	R,	et	al.	From	inflammation	to	sickness	and	depression:	when	the immune system subjugates the brain. Nat Rev Neurosci 2008; 9: 46–56.4.	Han	Q-Q,	Yu	J.	Inflammation:	a	mechanism	of	depression?	Neurosci	Bull 2014; 30: 515–523.5. Dowlati Y, et al. A meta-analysis of cytokines in major depression. Biol Psychiatry [Internet] 2010; 67: 446–457.</t>
+          <t>Introduction: Psychosocial factors are important in the onset and/or  exacerbation  of  psoriasis  in  40%  to  80%  of  cases.  Psoriasis has been associated with suicide, and an increased prevalence of alcoholism and a range of personality characteristics.A recent systematic meta-analysis of 98 eligible studies with a total of 401,703 psoriasis patients showed that patients with psoriasis were approximately one and a half times more likely to exhibit signs of depression compared with healthy controls. [1].Emerging  evidence  suggests  that  depression,  like  psoriasis,  is associated	with	systemic	inflammation,	and	the	systemic	inflammatory	profile	of	the	two	conditions	show	similar	traits.	Depression	is	considered	to	have	a	strong	inflammatory	component,	similar	to	psoriasis, e.g. interleukin (IL)-2, IL-6, IL-12, and tumour necrosis factor	(TNF)-α	[2–5].US Veteran population has increased incidence of mental health issue as compared to general population. making Veteran group a unique population that warrants investigation.Objectives: Hypotheses - 1/ Veterans with concomitant depression	and	psoriasis/PsA	may	have	elevated	inflammatory	markers	like CRP, ESR, and SPEP. 2/ Depression may improve with the treatment of psoriasis/psoriatic arthritis without antidepressant use. Methods: A 36-month retrospective chart review of 100 veterans with  diagnosis  of  depression  and  psoriasis/psoriatic  arthritis. Elevated	 inflammatory	 markers,	 including	 sedimentation	 rate,	C-reactive  protein  (CRP)  and  serum  protein  electrophoresis (SPEP),  as  well  as  longitudinal  disease  course  of  depression (PHQ-8)	and	psoriasis/psoriatic	arthritis	(HAQ-DI);	specifically	disease activity, and depression symptoms will be assessed. We then aim to draw a correlation between disease activity and active depressive symptoms.Results: to be availableConclusions: to be available1. Dowlatshahi EA, et al. The prevalence and odds of depressive symptoms and clinical depression in psoriasis patients: a systematic review and metaanalysis. J Invest Dermatol 2014; 134: 1542–1551.2.	Allison	DJ,	Ditor	DS.	The	common	inflammatory	etiology	of	depression	and	cognitive	impairment:	a	therapeutic	target.	J	Neuroinflammation	2014; 11: 151.3.	Dantzer	R,	et	al.	From	inflammation	to	sickness	and	depression:	when	the immune system subjugates the brain. Nat Rev Neurosci 2008; 9: 46–56.4.	Han	Q-Q,	Yu	J.	Inflammation:	a	mechanism	of	depression?	Neurosci	Bull 2014; 30: 515–523.5. Dowlati Y, et al. A meta-analysis of cytokines in major depression. Biol Psychiatry [Internet] 2010; 67: 446–457.</t>
         </is>
       </c>
     </row>
@@ -829,7 +826,7 @@
       </c>
       <c r="B8" s="6" t="inlineStr">
         <is>
-          <t>University of Michigan,</t>
+          <t>University of Michigan, MI State</t>
         </is>
       </c>
       <c r="C8" s="6" t="inlineStr">
@@ -849,7 +846,7 @@
       </c>
       <c r="F8" s="6" t="inlineStr">
         <is>
-          <t>Introduction: Psychosocial factors are important in the onset and/or  exacerbation  of  psoriasis  in  40%  to  80%  of  cases.  Psoriasis has been associated with suicide, and an increased prevalence of alcoholism and a range of personality characteristics.A recent systematic meta-analysis of 98 eligible studies with a total of 401,703 psoriasis patients showed that patients with psoriasis were approximately one and a half times more likely to exhibit signs of depression compared with healthy controls. [1].Emerging  evidence  suggests  that  depression,  like  psoriasis,  is associated	with	systemic	inflammation,	and	the	systemic	inflam-matory	profile	of	the	two	conditions	show	similar	traits.	Depression	is	considered	to	have	a	strong	inflammatory	component,	similar	to	psoriasis, e.g. interleukin (IL)-2, IL-6, IL-12, and tumour necrosis factor	(TNF)-α	[2–5].US Veteran population has increased incidence of mental health issue as compared to general population. making Veteran group a unique population that warrants investigation.Objectives: Hypotheses - 1/ Veterans with concomitant depres-sion	and	psoriasis/PsA	may	have	elevated	inflammatory	markers	like CRP, ESR, and SPEP. 2/ Depression may improve with the treatment of psoriasis/psoriatic arthritis without antidepressant use. Methods: A 36-month retrospective chart review of 100 veterans with  diagnosis  of  depression  and  psoriasis/psoriatic  arthritis. Elevated	 inflammatory	 markers,	 including	 sedimentation	 rate,	C-reactive  protein  (CRP)  and  serum  protein  electrophoresis (SPEP),  as  well  as  longitudinal  disease  course  of  depression (PHQ-8)	and	psoriasis/psoriatic	arthritis	(HAQ-DI);	specifically	disease activity, and depression symptoms will be assessed. We then aim to draw a correlation between disease activity and active depressive symptoms.Results: to be availableConclusions: to be available1. Dowlatshahi EA, et al. The prevalence and odds of depressive symptoms and clinical depression in psoriasis patients: a systematic review and meta-analysis. J Invest Dermatol 2014; 134: 1542–1551.2.	Allison	DJ,	Ditor	DS.	The	common	inflammatory	etiology	of	depres-sion	and	cognitive	impairment:	a	therapeutic	target.	J	Neuroinflammation	2014; 11: 151.3.	Dantzer	R,	et	al.	From	inflammation	to	sickness	and	depression:	when	the immune system subjugates the brain. Nat Rev Neurosci 2008; 9: 46–56.4.	Han	Q-Q,	Yu	J.	Inflammation:	a	mechanism	of	depression?	Neurosci	Bull 2014; 30: 515–523.5. Dowlati Y, et al. A meta-analysis of cytokines in major depression. Biol Psychiatry [Internet] 2010; 67: 446–457.</t>
+          <t>Introduction: Psychosocial factors are important in the onset and/or  exacerbation  of  psoriasis  in  40%  to  80%  of  cases.  Psoriasis has been associated with suicide, and an increased prevalence of alcoholism and a range of personality characteristics.A recent systematic meta-analysis of 98 eligible studies with a total of 401,703 psoriasis patients showed that patients with psoriasis were approximately one and a half times more likely to exhibit signs of depression compared with healthy controls. [1].Emerging  evidence  suggests  that  depression,  like  psoriasis,  is associated	with	systemic	inflammation,	and	the	systemic	inflammatory	profile	of	the	two	conditions	show	similar	traits.	Depression	is	considered	to	have	a	strong	inflammatory	component,	similar	to	psoriasis, e.g. interleukin (IL)-2, IL-6, IL-12, and tumour necrosis factor	(TNF)-α	[2–5].US Veteran population has increased incidence of mental health issue as compared to general population. making Veteran group a unique population that warrants investigation.Objectives: Hypotheses - 1/ Veterans with concomitant depression	and	psoriasis/PsA	may	have	elevated	inflammatory	markers	like CRP, ESR, and SPEP. 2/ Depression may improve with the treatment of psoriasis/psoriatic arthritis without antidepressant use. Methods: A 36-month retrospective chart review of 100 veterans with  diagnosis  of  depression  and  psoriasis/psoriatic  arthritis. Elevated	 inflammatory	 markers,	 including	 sedimentation	 rate,	C-reactive  protein  (CRP)  and  serum  protein  electrophoresis (SPEP),  as  well  as  longitudinal  disease  course  of  depression (PHQ-8)	and	psoriasis/psoriatic	arthritis	(HAQ-DI);	specifically	disease activity, and depression symptoms will be assessed. We then aim to draw a correlation between disease activity and active depressive symptoms.Results: to be availableConclusions: to be available1. Dowlatshahi EA, et al. The prevalence and odds of depressive symptoms and clinical depression in psoriasis patients: a systematic review and metaanalysis. J Invest Dermatol 2014; 134: 1542–1551.2.	Allison	DJ,	Ditor	DS.	The	common	inflammatory	etiology	of	depression	and	cognitive	impairment:	a	therapeutic	target.	J	Neuroinflammation	2014; 11: 151.3.	Dantzer	R,	et	al.	From	inflammation	to	sickness	and	depression:	when	the immune system subjugates the brain. Nat Rev Neurosci 2008; 9: 46–56.4.	Han	Q-Q,	Yu	J.	Inflammation:	a	mechanism	of	depression?	Neurosci	Bull 2014; 30: 515–523.5. Dowlati Y, et al. A meta-analysis of cytokines in major depression. Biol Psychiatry [Internet] 2010; 67: 446–457.</t>
         </is>
       </c>
     </row>
@@ -861,7 +858,7 @@
       </c>
       <c r="B9" s="6" t="inlineStr">
         <is>
-          <t>Department of Undergraduate Medical Program, Faculty of Medicine, Department of Dermatology, and Skin Science and Department of Pat-hology and Laboratory Medicine, University of British Columbia, Depart-ment of Dermatology,</t>
+          <t>Department of Undergraduate Medical Program, Faculty of Medicine, Department of Dermatology, and Skin Science and Department of Pat-hology and Laboratory Medicine, University of British Columbia, Depart-ment of Dermatology, Pontifical Catholic University of Chile</t>
         </is>
       </c>
       <c r="C9" s="6" t="inlineStr">
@@ -881,7 +878,7 @@
       </c>
       <c r="F9" s="6" t="inlineStr">
         <is>
-          <t>Introduction: Small plaque psoriasis (SPP) is a subtype of pso-riasis	first	described	by	Griffiths	et	al	(2007).	It	resembles	guttate	psoriasis but lesions are larger, are chronic, and are not associated with streptococcal infection. We have observed SPP develop in four	different	population	groups;	patients	under	TNFα-inhibitor	therapy, patients under immune checkpoint inhibitor (ICI) th-erapy, and patients with concurrent SLE or ANA positivity and psoriasis. Subtypes of psoriasis develop on a spectrum between autoimmune	and	auto-inflammatory	responses	and	an	interplay	between three signalling pathways are involved in their distinct pathogenesis. Chronic plaque psoriasis lesions are on the autoim-mune	spectrum,	dominated	by	a	T-cell	mediated	TNFα/IL-23/IL-17/IL-22	axis.	Pustular	psoriasis	is	a	neutrophilic	infiltrative	inflammatory	skin	disease	resulting	from	dysregulation	of	the	IL-36/IL-1	axis.	Lastly,	TNFα-inhibitor	(TNFi)	induced	lesions	have a SPP morphology and demonstrate increased expression of LL37 by keratinocytes, activated plasmacytoid dendritic cells and upregulated type-1 interferons (IFN). These lesions express fewer epidermal CD8 T cells.Objectives:  Our  aim  is  to  characterize  the  immune-phenotype of SPP in multiple clinical scenarios. We hypothesize that SPP develops  as  a  result  of  increased  expression  of  cytokines  and antimicrobial peptides involved in the type-1 IFN pathway.Methods: Skin biopsies were obtained from three patients with TNFi-induced  psoriasis,  three  patients  with  SLE  and  psoriasis, three patients with positive ANA and psoriasis, two patients with ICI-induced psoriasis and two patients with chronic plaque psoria-sis as control. Immunohistochemistry was performed using anti-bodies against type-1 IFN induced MXA, LL37, IL-36 and CD8 T cells. The intensity and the area of positively stained samples were each	graded	from	0–4	and	then	multiplied	to	provide	a	final	score.	Results: Small plaque lesions in various clinical scenarios had his-tologic changes consistent with psoriasis.. Immunohistochemical evaluation revealed an increased expression of MXA (TNFi = 14, SLE = 13.3, ANA = 11.3, ICI = 16 vs. control = 6, t-test p &lt; 0.05), LL37 (TNFi = 10.8, SLE = 6, ANA = 9.7, ICI = 12 vs. control = 2, t-test  p &lt; 0.05)  and  IL-36  (TNFi = 10.5,  SLE = 13.3, ANA = 11, ICI = 7,  control = 0.25,  t-test  p &lt; 0.05)  in  the  keratinocytes  of SPP patients. There was decreased CD8 T cell migration to the epidermis in SPP compared to control.Conclusion:  This  is  the  first  study  to  describe  the  immune-phenotype of SPP and to extend the phenotype observed in TNFi induced  psoriasis  to  varying  clinical  scenarios.  There  was  an increased expression of MXA, LL-37 and IL-36 as well as fewer epidermal CD8 T cells than in chronic plaque psoriasis consis-tent with the type-1 IFN pathway of psoriasis pathogenesis. This immune-phenotypic  analysis  may  suggest  tailored  therapy  for this form of psoriasis.</t>
+          <t>Introduction: Small plaque psoriasis (SPP) is a subtype of psoriasis	first	described	by	Griffiths	et	al	(2007).	It	resembles	guttate	psoriasis but lesions are larger, are chronic, and are not associated with streptococcal infection. We have observed SPP develop in four	different	population	groups;	patients	under	TNFα-inhibitor	therapy, patients under immune checkpoint inhibitor (ICI) therapy, and patients with concurrent SLE or ANA positivity and psoriasis. Subtypes of psoriasis develop on a spectrum between autoimmune	and	auto-inflammatory	responses	and	an	interplay	between three signalling pathways are involved in their distinct pathogenesis. Chronic plaque psoriasis lesions are on the autoimmune	spectrum,	dominated	by	a	T-cell	mediated	TNFα/IL-23/IL-17/IL-22	axis.	Pustular	psoriasis	is	a	neutrophilic	infiltrative	inflammatory	skin	disease	resulting	from	dysregulation	of	the	IL-36/IL-1	axis.	Lastly,	TNFα-inhibitor	(TNFi)	induced	lesions	have a SPP morphology and demonstrate increased expression of LL37 by keratinocytes, activated plasmacytoid dendritic cells and upregulated type-1 interferons (IFN). These lesions express fewer epidermal CD8 T cells.Objectives:  Our  aim  is  to  characterize  the  immune-phenotype of SPP in multiple clinical scenarios. We hypothesize that SPP develops  as  a  result  of  increased  expression  of  cytokines  and antimicrobial peptides involved in the type-1 IFN pathway.Methods: Skin biopsies were obtained from three patients with TNFi-induced  psoriasis,  three  patients  with  SLE  and  psoriasis, three patients with positive ANA and psoriasis, two patients with ICI-induced psoriasis and two patients with chronic plaque psoriasis as control. Immunohistochemistry was performed using antibodies against type-1 IFN induced MXA, LL37, IL-36 and CD8 T cells. The intensity and the area of positively stained samples were each	graded	from	0–4	and	then	multiplied	to	provide	a	final	score.	Results: Small plaque lesions in various clinical scenarios had histologic changes consistent with psoriasis.. Immunohistochemical evaluation revealed an increased expression of MXA (TNFi = 14, SLE = 13.3, ANA = 11.3, ICI = 16 vs. control = 6, t-test p &lt; 0.05), LL37 (TNFi = 10.8, SLE = 6, ANA = 9.7, ICI = 12 vs. control = 2, t-test  p &lt; 0.05)  and  IL-36  (TNFi = 10.5,  SLE = 13.3, ANA = 11, ICI = 7,  control = 0.25,  t-test  p &lt; 0.05)  in  the  keratinocytes  of SPP patients. There was decreased CD8 T cell migration to the epidermis in SPP compared to control.Conclusion:  This  is  the  first  study  to  describe  the  immunephenotype of SPP and to extend the phenotype observed in TNFi induced  psoriasis  to  varying  clinical  scenarios.  There  was  an increased expression of MXA, LL-37 and IL-36 as well as fewer epidermal CD8 T cells than in chronic plaque psoriasis consistent with the type-1 IFN pathway of psoriasis pathogenesis. This immune-phenotypic  analysis  may  suggest  tailored  therapy  for this form of psoriasis.</t>
         </is>
       </c>
     </row>
@@ -893,7 +890,7 @@
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>Department of Undergraduate Medical Program, Faculty of Medicine, Department of Dermatology, and Skin Science and Department of Pat-hology and Laboratory Medicine, University of British Columbia, Depart-ment of Dermatology,</t>
+          <t>Department of Undergraduate Medical Program, Faculty of Medicine, Department of Dermatology, and Skin Science and Department of Pat-hology and Laboratory Medicine, University of British Columbia, Depart-ment of Dermatology, Pontifical Catholic University of Chile</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr">
@@ -913,7 +910,7 @@
       </c>
       <c r="F10" s="7" t="inlineStr">
         <is>
-          <t>Introduction: Small plaque psoriasis (SPP) is a subtype of pso-riasis	first	described	by	Griffiths	et	al	(2007).	It	resembles	guttate	psoriasis but lesions are larger, are chronic, and are not associated with streptococcal infection. We have observed SPP develop in four	different	population	groups;	patients	under	TNFα-inhibitor	therapy, patients under immune checkpoint inhibitor (ICI) th-erapy, and patients with concurrent SLE or ANA positivity and psoriasis. Subtypes of psoriasis develop on a spectrum between autoimmune	and	auto-inflammatory	responses	and	an	interplay	between three signalling pathways are involved in their distinct pathogenesis. Chronic plaque psoriasis lesions are on the autoim-mune	spectrum,	dominated	by	a	T-cell	mediated	TNFα/IL-23/IL-17/IL-22	axis.	Pustular	psoriasis	is	a	neutrophilic	infiltrative	inflammatory	skin	disease	resulting	from	dysregulation	of	the	IL-36/IL-1	axis.	Lastly,	TNFα-inhibitor	(TNFi)	induced	lesions	have a SPP morphology and demonstrate increased expression of LL37 by keratinocytes, activated plasmacytoid dendritic cells and upregulated type-1 interferons (IFN). These lesions express fewer epidermal CD8 T cells.Objectives:  Our  aim  is  to  characterize  the  immune-phenotype of SPP in multiple clinical scenarios. We hypothesize that SPP develops  as  a  result  of  increased  expression  of  cytokines  and antimicrobial peptides involved in the type-1 IFN pathway.Methods: Skin biopsies were obtained from three patients with TNFi-induced  psoriasis,  three  patients  with  SLE  and  psoriasis, three patients with positive ANA and psoriasis, two patients with ICI-induced psoriasis and two patients with chronic plaque psoria-sis as control. Immunohistochemistry was performed using anti-bodies against type-1 IFN induced MXA, LL37, IL-36 and CD8 T cells. The intensity and the area of positively stained samples were each	graded	from	0–4	and	then	multiplied	to	provide	a	final	score.	Results: Small plaque lesions in various clinical scenarios had his-tologic changes consistent with psoriasis.. Immunohistochemical evaluation revealed an increased expression of MXA (TNFi = 14, SLE = 13.3, ANA = 11.3, ICI = 16 vs. control = 6, t-test p &lt; 0.05), LL37 (TNFi = 10.8, SLE = 6, ANA = 9.7, ICI = 12 vs. control = 2, t-test  p &lt; 0.05)  and  IL-36  (TNFi = 10.5,  SLE = 13.3, ANA = 11, ICI = 7,  control = 0.25,  t-test  p &lt; 0.05)  in  the  keratinocytes  of SPP patients. There was decreased CD8 T cell migration to the epidermis in SPP compared to control.Conclusion:  This  is  the  first  study  to  describe  the  immune-phenotype of SPP and to extend the phenotype observed in TNFi induced  psoriasis  to  varying  clinical  scenarios.  There  was  an increased expression of MXA, LL-37 and IL-36 as well as fewer epidermal CD8 T cells than in chronic plaque psoriasis consis-tent with the type-1 IFN pathway of psoriasis pathogenesis. This immune-phenotypic  analysis  may  suggest  tailored  therapy  for this form of psoriasis.</t>
+          <t>Introduction: Small plaque psoriasis (SPP) is a subtype of psoriasis	first	described	by	Griffiths	et	al	(2007).	It	resembles	guttate	psoriasis but lesions are larger, are chronic, and are not associated with streptococcal infection. We have observed SPP develop in four	different	population	groups;	patients	under	TNFα-inhibitor	therapy, patients under immune checkpoint inhibitor (ICI) therapy, and patients with concurrent SLE or ANA positivity and psoriasis. Subtypes of psoriasis develop on a spectrum between autoimmune	and	auto-inflammatory	responses	and	an	interplay	between three signalling pathways are involved in their distinct pathogenesis. Chronic plaque psoriasis lesions are on the autoimmune	spectrum,	dominated	by	a	T-cell	mediated	TNFα/IL-23/IL-17/IL-22	axis.	Pustular	psoriasis	is	a	neutrophilic	infiltrative	inflammatory	skin	disease	resulting	from	dysregulation	of	the	IL-36/IL-1	axis.	Lastly,	TNFα-inhibitor	(TNFi)	induced	lesions	have a SPP morphology and demonstrate increased expression of LL37 by keratinocytes, activated plasmacytoid dendritic cells and upregulated type-1 interferons (IFN). These lesions express fewer epidermal CD8 T cells.Objectives:  Our  aim  is  to  characterize  the  immune-phenotype of SPP in multiple clinical scenarios. We hypothesize that SPP develops  as  a  result  of  increased  expression  of  cytokines  and antimicrobial peptides involved in the type-1 IFN pathway.Methods: Skin biopsies were obtained from three patients with TNFi-induced  psoriasis,  three  patients  with  SLE  and  psoriasis, three patients with positive ANA and psoriasis, two patients with ICI-induced psoriasis and two patients with chronic plaque psoriasis as control. Immunohistochemistry was performed using antibodies against type-1 IFN induced MXA, LL37, IL-36 and CD8 T cells. The intensity and the area of positively stained samples were each	graded	from	0–4	and	then	multiplied	to	provide	a	final	score.	Results: Small plaque lesions in various clinical scenarios had histologic changes consistent with psoriasis.. Immunohistochemical evaluation revealed an increased expression of MXA (TNFi = 14, SLE = 13.3, ANA = 11.3, ICI = 16 vs. control = 6, t-test p &lt; 0.05), LL37 (TNFi = 10.8, SLE = 6, ANA = 9.7, ICI = 12 vs. control = 2, t-test  p &lt; 0.05)  and  IL-36  (TNFi = 10.5,  SLE = 13.3, ANA = 11, ICI = 7,  control = 0.25,  t-test  p &lt; 0.05)  in  the  keratinocytes  of SPP patients. There was decreased CD8 T cell migration to the epidermis in SPP compared to control.Conclusion:  This  is  the  first  study  to  describe  the  immunephenotype of SPP and to extend the phenotype observed in TNFi induced  psoriasis  to  varying  clinical  scenarios.  There  was  an increased expression of MXA, LL-37 and IL-36 as well as fewer epidermal CD8 T cells than in chronic plaque psoriasis consistent with the type-1 IFN pathway of psoriasis pathogenesis. This immune-phenotypic  analysis  may  suggest  tailored  therapy  for this form of psoriasis.</t>
         </is>
       </c>
     </row>
@@ -925,7 +922,7 @@
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>Department of Undergraduate Medical Program, Faculty of Medicine, Department of Dermatology, and Skin Science and Department of Pat-hology and Laboratory Medicine, University of British Columbia, Depart-ment of Dermatology,</t>
+          <t>Department of Undergraduate Medical Program, Faculty of Medicine, Department of Dermatology, and Skin Science and Department of Pat-hology and Laboratory Medicine, University of British Columbia, Depart-ment of Dermatology, Pontifical Catholic University of Chile</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr">
@@ -945,7 +942,7 @@
       </c>
       <c r="F11" s="7" t="inlineStr">
         <is>
-          <t>Introduction: Small plaque psoriasis (SPP) is a subtype of pso-riasis	first	described	by	Griffiths	et	al	(2007).	It	resembles	guttate	psoriasis but lesions are larger, are chronic, and are not associated with streptococcal infection. We have observed SPP develop in four	different	population	groups;	patients	under	TNFα-inhibitor	therapy, patients under immune checkpoint inhibitor (ICI) th-erapy, and patients with concurrent SLE or ANA positivity and psoriasis. Subtypes of psoriasis develop on a spectrum between autoimmune	and	auto-inflammatory	responses	and	an	interplay	between three signalling pathways are involved in their distinct pathogenesis. Chronic plaque psoriasis lesions are on the autoim-mune	spectrum,	dominated	by	a	T-cell	mediated	TNFα/IL-23/IL-17/IL-22	axis.	Pustular	psoriasis	is	a	neutrophilic	infiltrative	inflammatory	skin	disease	resulting	from	dysregulation	of	the	IL-36/IL-1	axis.	Lastly,	TNFα-inhibitor	(TNFi)	induced	lesions	have a SPP morphology and demonstrate increased expression of LL37 by keratinocytes, activated plasmacytoid dendritic cells and upregulated type-1 interferons (IFN). These lesions express fewer epidermal CD8 T cells.Objectives:  Our  aim  is  to  characterize  the  immune-phenotype of SPP in multiple clinical scenarios. We hypothesize that SPP develops  as  a  result  of  increased  expression  of  cytokines  and antimicrobial peptides involved in the type-1 IFN pathway.Methods: Skin biopsies were obtained from three patients with TNFi-induced  psoriasis,  three  patients  with  SLE  and  psoriasis, three patients with positive ANA and psoriasis, two patients with ICI-induced psoriasis and two patients with chronic plaque psoria-sis as control. Immunohistochemistry was performed using anti-bodies against type-1 IFN induced MXA, LL37, IL-36 and CD8 T cells. The intensity and the area of positively stained samples were each	graded	from	0–4	and	then	multiplied	to	provide	a	final	score.	Results: Small plaque lesions in various clinical scenarios had his-tologic changes consistent with psoriasis.. Immunohistochemical evaluation revealed an increased expression of MXA (TNFi = 14, SLE = 13.3, ANA = 11.3, ICI = 16 vs. control = 6, t-test p &lt; 0.05), LL37 (TNFi = 10.8, SLE = 6, ANA = 9.7, ICI = 12 vs. control = 2, t-test  p &lt; 0.05)  and  IL-36  (TNFi = 10.5,  SLE = 13.3, ANA = 11, ICI = 7,  control = 0.25,  t-test  p &lt; 0.05)  in  the  keratinocytes  of SPP patients. There was decreased CD8 T cell migration to the epidermis in SPP compared to control.Conclusion:  This  is  the  first  study  to  describe  the  immune-phenotype of SPP and to extend the phenotype observed in TNFi induced  psoriasis  to  varying  clinical  scenarios.  There  was  an increased expression of MXA, LL-37 and IL-36 as well as fewer epidermal CD8 T cells than in chronic plaque psoriasis consis-tent with the type-1 IFN pathway of psoriasis pathogenesis. This immune-phenotypic  analysis  may  suggest  tailored  therapy  for this form of psoriasis.</t>
+          <t>Introduction: Small plaque psoriasis (SPP) is a subtype of psoriasis	first	described	by	Griffiths	et	al	(2007).	It	resembles	guttate	psoriasis but lesions are larger, are chronic, and are not associated with streptococcal infection. We have observed SPP develop in four	different	population	groups;	patients	under	TNFα-inhibitor	therapy, patients under immune checkpoint inhibitor (ICI) therapy, and patients with concurrent SLE or ANA positivity and psoriasis. Subtypes of psoriasis develop on a spectrum between autoimmune	and	auto-inflammatory	responses	and	an	interplay	between three signalling pathways are involved in their distinct pathogenesis. Chronic plaque psoriasis lesions are on the autoimmune	spectrum,	dominated	by	a	T-cell	mediated	TNFα/IL-23/IL-17/IL-22	axis.	Pustular	psoriasis	is	a	neutrophilic	infiltrative	inflammatory	skin	disease	resulting	from	dysregulation	of	the	IL-36/IL-1	axis.	Lastly,	TNFα-inhibitor	(TNFi)	induced	lesions	have a SPP morphology and demonstrate increased expression of LL37 by keratinocytes, activated plasmacytoid dendritic cells and upregulated type-1 interferons (IFN). These lesions express fewer epidermal CD8 T cells.Objectives:  Our  aim  is  to  characterize  the  immune-phenotype of SPP in multiple clinical scenarios. We hypothesize that SPP develops  as  a  result  of  increased  expression  of  cytokines  and antimicrobial peptides involved in the type-1 IFN pathway.Methods: Skin biopsies were obtained from three patients with TNFi-induced  psoriasis,  three  patients  with  SLE  and  psoriasis, three patients with positive ANA and psoriasis, two patients with ICI-induced psoriasis and two patients with chronic plaque psoriasis as control. Immunohistochemistry was performed using antibodies against type-1 IFN induced MXA, LL37, IL-36 and CD8 T cells. The intensity and the area of positively stained samples were each	graded	from	0–4	and	then	multiplied	to	provide	a	final	score.	Results: Small plaque lesions in various clinical scenarios had histologic changes consistent with psoriasis.. Immunohistochemical evaluation revealed an increased expression of MXA (TNFi = 14, SLE = 13.3, ANA = 11.3, ICI = 16 vs. control = 6, t-test p &lt; 0.05), LL37 (TNFi = 10.8, SLE = 6, ANA = 9.7, ICI = 12 vs. control = 2, t-test  p &lt; 0.05)  and  IL-36  (TNFi = 10.5,  SLE = 13.3, ANA = 11, ICI = 7,  control = 0.25,  t-test  p &lt; 0.05)  in  the  keratinocytes  of SPP patients. There was decreased CD8 T cell migration to the epidermis in SPP compared to control.Conclusion:  This  is  the  first  study  to  describe  the  immunephenotype of SPP and to extend the phenotype observed in TNFi induced  psoriasis  to  varying  clinical  scenarios.  There  was  an increased expression of MXA, LL-37 and IL-36 as well as fewer epidermal CD8 T cells than in chronic plaque psoriasis consistent with the type-1 IFN pathway of psoriasis pathogenesis. This immune-phenotypic  analysis  may  suggest  tailored  therapy  for this form of psoriasis.</t>
         </is>
       </c>
     </row>
@@ -957,7 +954,7 @@
       </c>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>Department of Undergraduate Medical Program, Faculty of Medicine, Department of Dermatology, and Skin Science and Department of Pat-hology and Laboratory Medicine, University of British Columbia, Depart-ment of Dermatology,</t>
+          <t>Department of Undergraduate Medical Program, Faculty of Medicine, Department of Dermatology, and Skin Science and Department of Pat-hology and Laboratory Medicine, University of British Columbia, Depart-ment of Dermatology, Pontifical Catholic University of Chile</t>
         </is>
       </c>
       <c r="C12" s="7" t="inlineStr">
@@ -977,167 +974,167 @@
       </c>
       <c r="F12" s="7" t="inlineStr">
         <is>
-          <t>Introduction: Small plaque psoriasis (SPP) is a subtype of pso-riasis	first	described	by	Griffiths	et	al	(2007).	It	resembles	guttate	psoriasis but lesions are larger, are chronic, and are not associated with streptococcal infection. We have observed SPP develop in four	different	population	groups;	patients	under	TNFα-inhibitor	therapy, patients under immune checkpoint inhibitor (ICI) th-erapy, and patients with concurrent SLE or ANA positivity and psoriasis. Subtypes of psoriasis develop on a spectrum between autoimmune	and	auto-inflammatory	responses	and	an	interplay	between three signalling pathways are involved in their distinct pathogenesis. Chronic plaque psoriasis lesions are on the autoim-mune	spectrum,	dominated	by	a	T-cell	mediated	TNFα/IL-23/IL-17/IL-22	axis.	Pustular	psoriasis	is	a	neutrophilic	infiltrative	inflammatory	skin	disease	resulting	from	dysregulation	of	the	IL-36/IL-1	axis.	Lastly,	TNFα-inhibitor	(TNFi)	induced	lesions	have a SPP morphology and demonstrate increased expression of LL37 by keratinocytes, activated plasmacytoid dendritic cells and upregulated type-1 interferons (IFN). These lesions express fewer epidermal CD8 T cells.Objectives:  Our  aim  is  to  characterize  the  immune-phenotype of SPP in multiple clinical scenarios. We hypothesize that SPP develops  as  a  result  of  increased  expression  of  cytokines  and antimicrobial peptides involved in the type-1 IFN pathway.Methods: Skin biopsies were obtained from three patients with TNFi-induced  psoriasis,  three  patients  with  SLE  and  psoriasis, three patients with positive ANA and psoriasis, two patients with ICI-induced psoriasis and two patients with chronic plaque psoria-sis as control. Immunohistochemistry was performed using anti-bodies against type-1 IFN induced MXA, LL37, IL-36 and CD8 T cells. The intensity and the area of positively stained samples were each	graded	from	0–4	and	then	multiplied	to	provide	a	final	score.	Results: Small plaque lesions in various clinical scenarios had his-tologic changes consistent with psoriasis.. Immunohistochemical evaluation revealed an increased expression of MXA (TNFi = 14, SLE = 13.3, ANA = 11.3, ICI = 16 vs. control = 6, t-test p &lt; 0.05), LL37 (TNFi = 10.8, SLE = 6, ANA = 9.7, ICI = 12 vs. control = 2, t-test  p &lt; 0.05)  and  IL-36  (TNFi = 10.5,  SLE = 13.3, ANA = 11, ICI = 7,  control = 0.25,  t-test  p &lt; 0.05)  in  the  keratinocytes  of SPP patients. There was decreased CD8 T cell migration to the epidermis in SPP compared to control.Conclusion:  This  is  the  first  study  to  describe  the  immune-phenotype of SPP and to extend the phenotype observed in TNFi induced  psoriasis  to  varying  clinical  scenarios.  There  was  an increased expression of MXA, LL-37 and IL-36 as well as fewer epidermal CD8 T cells than in chronic plaque psoriasis consis-tent with the type-1 IFN pathway of psoriasis pathogenesis. This immune-phenotypic  analysis  may  suggest  tailored  therapy  for this form of psoriasis.</t>
+          <t>Introduction: Small plaque psoriasis (SPP) is a subtype of psoriasis	first	described	by	Griffiths	et	al	(2007).	It	resembles	guttate	psoriasis but lesions are larger, are chronic, and are not associated with streptococcal infection. We have observed SPP develop in four	different	population	groups;	patients	under	TNFα-inhibitor	therapy, patients under immune checkpoint inhibitor (ICI) therapy, and patients with concurrent SLE or ANA positivity and psoriasis. Subtypes of psoriasis develop on a spectrum between autoimmune	and	auto-inflammatory	responses	and	an	interplay	between three signalling pathways are involved in their distinct pathogenesis. Chronic plaque psoriasis lesions are on the autoimmune	spectrum,	dominated	by	a	T-cell	mediated	TNFα/IL-23/IL-17/IL-22	axis.	Pustular	psoriasis	is	a	neutrophilic	infiltrative	inflammatory	skin	disease	resulting	from	dysregulation	of	the	IL-36/IL-1	axis.	Lastly,	TNFα-inhibitor	(TNFi)	induced	lesions	have a SPP morphology and demonstrate increased expression of LL37 by keratinocytes, activated plasmacytoid dendritic cells and upregulated type-1 interferons (IFN). These lesions express fewer epidermal CD8 T cells.Objectives:  Our  aim  is  to  characterize  the  immune-phenotype of SPP in multiple clinical scenarios. We hypothesize that SPP develops  as  a  result  of  increased  expression  of  cytokines  and antimicrobial peptides involved in the type-1 IFN pathway.Methods: Skin biopsies were obtained from three patients with TNFi-induced  psoriasis,  three  patients  with  SLE  and  psoriasis, three patients with positive ANA and psoriasis, two patients with ICI-induced psoriasis and two patients with chronic plaque psoriasis as control. Immunohistochemistry was performed using antibodies against type-1 IFN induced MXA, LL37, IL-36 and CD8 T cells. The intensity and the area of positively stained samples were each	graded	from	0–4	and	then	multiplied	to	provide	a	final	score.	Results: Small plaque lesions in various clinical scenarios had histologic changes consistent with psoriasis.. Immunohistochemical evaluation revealed an increased expression of MXA (TNFi = 14, SLE = 13.3, ANA = 11.3, ICI = 16 vs. control = 6, t-test p &lt; 0.05), LL37 (TNFi = 10.8, SLE = 6, ANA = 9.7, ICI = 12 vs. control = 2, t-test  p &lt; 0.05)  and  IL-36  (TNFi = 10.5,  SLE = 13.3, ANA = 11, ICI = 7,  control = 0.25,  t-test  p &lt; 0.05)  in  the  keratinocytes  of SPP patients. There was decreased CD8 T cell migration to the epidermis in SPP compared to control.Conclusion:  This  is  the  first  study  to  describe  the  immunephenotype of SPP and to extend the phenotype observed in TNFi induced  psoriasis  to  varying  clinical  scenarios.  There  was  an increased expression of MXA, LL-37 and IL-36 as well as fewer epidermal CD8 T cells than in chronic plaque psoriasis consistent with the type-1 IFN pathway of psoriasis pathogenesis. This immune-phenotypic  analysis  may  suggest  tailored  therapy  for this form of psoriasis.</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="8" t="inlineStr">
+      <c r="A13" s="7" t="inlineStr">
         <is>
           <t>Jan Dutz</t>
         </is>
       </c>
-      <c r="B13" s="8" t="inlineStr">
-        <is>
-          <t>Department of Undergraduate Medical Program, Faculty of Medicine, Department of Dermatology, and Skin Science and Department of Pat-hology and Laboratory Medicine, University of British Columbia, Depart-ment of Dermatology,</t>
-        </is>
-      </c>
-      <c r="C13" s="8" t="inlineStr">
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>Department of Undergraduate Medical Program, Faculty of Medicine, Department of Dermatology, and Skin Science and Department of Pat-hology and Laboratory Medicine, University of British Columbia, Depart-ment of Dermatology, Pontifical Catholic University of Chile</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve"> Pontifical Catholic University of Chile</t>
         </is>
       </c>
-      <c r="D13" s="8" t="inlineStr">
+      <c r="D13" s="7" t="inlineStr">
         <is>
           <t>P102</t>
         </is>
       </c>
-      <c r="E13" s="8" t="inlineStr">
+      <c r="E13" s="7" t="inlineStr">
         <is>
           <t>THE IMMUNE­PHENOTYPE OF SMALL PLAQUE PSORIASIS</t>
         </is>
       </c>
-      <c r="F13" s="8" t="inlineStr">
-        <is>
-          <t>Introduction: Small plaque psoriasis (SPP) is a subtype of pso-riasis	first	described	by	Griffiths	et	al	(2007).	It	resembles	guttate	psoriasis but lesions are larger, are chronic, and are not associated with streptococcal infection. We have observed SPP develop in four	different	population	groups;	patients	under	TNFα-inhibitor	therapy, patients under immune checkpoint inhibitor (ICI) th-erapy, and patients with concurrent SLE or ANA positivity and psoriasis. Subtypes of psoriasis develop on a spectrum between autoimmune	and	auto-inflammatory	responses	and	an	interplay	between three signalling pathways are involved in their distinct pathogenesis. Chronic plaque psoriasis lesions are on the autoim-mune	spectrum,	dominated	by	a	T-cell	mediated	TNFα/IL-23/IL-17/IL-22	axis.	Pustular	psoriasis	is	a	neutrophilic	infiltrative	inflammatory	skin	disease	resulting	from	dysregulation	of	the	IL-36/IL-1	axis.	Lastly,	TNFα-inhibitor	(TNFi)	induced	lesions	have a SPP morphology and demonstrate increased expression of LL37 by keratinocytes, activated plasmacytoid dendritic cells and upregulated type-1 interferons (IFN). These lesions express fewer epidermal CD8 T cells.Objectives:  Our  aim  is  to  characterize  the  immune-phenotype of SPP in multiple clinical scenarios. We hypothesize that SPP develops  as  a  result  of  increased  expression  of  cytokines  and antimicrobial peptides involved in the type-1 IFN pathway.Methods: Skin biopsies were obtained from three patients with TNFi-induced  psoriasis,  three  patients  with  SLE  and  psoriasis, three patients with positive ANA and psoriasis, two patients with ICI-induced psoriasis and two patients with chronic plaque psoria-sis as control. Immunohistochemistry was performed using anti-bodies against type-1 IFN induced MXA, LL37, IL-36 and CD8 T cells. The intensity and the area of positively stained samples were each	graded	from	0–4	and	then	multiplied	to	provide	a	final	score.	Results: Small plaque lesions in various clinical scenarios had his-tologic changes consistent with psoriasis.. Immunohistochemical evaluation revealed an increased expression of MXA (TNFi = 14, SLE = 13.3, ANA = 11.3, ICI = 16 vs. control = 6, t-test p &lt; 0.05), LL37 (TNFi = 10.8, SLE = 6, ANA = 9.7, ICI = 12 vs. control = 2, t-test  p &lt; 0.05)  and  IL-36  (TNFi = 10.5,  SLE = 13.3, ANA = 11, ICI = 7,  control = 0.25,  t-test  p &lt; 0.05)  in  the  keratinocytes  of SPP patients. There was decreased CD8 T cell migration to the epidermis in SPP compared to control.Conclusion:  This  is  the  first  study  to  describe  the  immune-phenotype of SPP and to extend the phenotype observed in TNFi induced  psoriasis  to  varying  clinical  scenarios.  There  was  an increased expression of MXA, LL-37 and IL-36 as well as fewer epidermal CD8 T cells than in chronic plaque psoriasis consis-tent with the type-1 IFN pathway of psoriasis pathogenesis. This immune-phenotypic  analysis  may  suggest  tailored  therapy  for this form of psoriasis.</t>
+      <c r="F13" s="7" t="inlineStr">
+        <is>
+          <t>Introduction: Small plaque psoriasis (SPP) is a subtype of psoriasis	first	described	by	Griffiths	et	al	(2007).	It	resembles	guttate	psoriasis but lesions are larger, are chronic, and are not associated with streptococcal infection. We have observed SPP develop in four	different	population	groups;	patients	under	TNFα-inhibitor	therapy, patients under immune checkpoint inhibitor (ICI) therapy, and patients with concurrent SLE or ANA positivity and psoriasis. Subtypes of psoriasis develop on a spectrum between autoimmune	and	auto-inflammatory	responses	and	an	interplay	between three signalling pathways are involved in their distinct pathogenesis. Chronic plaque psoriasis lesions are on the autoimmune	spectrum,	dominated	by	a	T-cell	mediated	TNFα/IL-23/IL-17/IL-22	axis.	Pustular	psoriasis	is	a	neutrophilic	infiltrative	inflammatory	skin	disease	resulting	from	dysregulation	of	the	IL-36/IL-1	axis.	Lastly,	TNFα-inhibitor	(TNFi)	induced	lesions	have a SPP morphology and demonstrate increased expression of LL37 by keratinocytes, activated plasmacytoid dendritic cells and upregulated type-1 interferons (IFN). These lesions express fewer epidermal CD8 T cells.Objectives:  Our  aim  is  to  characterize  the  immune-phenotype of SPP in multiple clinical scenarios. We hypothesize that SPP develops  as  a  result  of  increased  expression  of  cytokines  and antimicrobial peptides involved in the type-1 IFN pathway.Methods: Skin biopsies were obtained from three patients with TNFi-induced  psoriasis,  three  patients  with  SLE  and  psoriasis, three patients with positive ANA and psoriasis, two patients with ICI-induced psoriasis and two patients with chronic plaque psoriasis as control. Immunohistochemistry was performed using antibodies against type-1 IFN induced MXA, LL37, IL-36 and CD8 T cells. The intensity and the area of positively stained samples were each	graded	from	0–4	and	then	multiplied	to	provide	a	final	score.	Results: Small plaque lesions in various clinical scenarios had histologic changes consistent with psoriasis.. Immunohistochemical evaluation revealed an increased expression of MXA (TNFi = 14, SLE = 13.3, ANA = 11.3, ICI = 16 vs. control = 6, t-test p &lt; 0.05), LL37 (TNFi = 10.8, SLE = 6, ANA = 9.7, ICI = 12 vs. control = 2, t-test  p &lt; 0.05)  and  IL-36  (TNFi = 10.5,  SLE = 13.3, ANA = 11, ICI = 7,  control = 0.25,  t-test  p &lt; 0.05)  in  the  keratinocytes  of SPP patients. There was decreased CD8 T cell migration to the epidermis in SPP compared to control.Conclusion:  This  is  the  first  study  to  describe  the  immunephenotype of SPP and to extend the phenotype observed in TNFi induced  psoriasis  to  varying  clinical  scenarios.  There  was  an increased expression of MXA, LL-37 and IL-36 as well as fewer epidermal CD8 T cells than in chronic plaque psoriasis consistent with the type-1 IFN pathway of psoriasis pathogenesis. This immune-phenotypic  analysis  may  suggest  tailored  therapy  for this form of psoriasis.</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="8" t="inlineStr">
+      <c r="A14" s="7" t="inlineStr">
         <is>
           <t>Goksal Keskin</t>
         </is>
       </c>
-      <c r="B14" s="8" t="inlineStr">
-        <is>
-          <t>Department of Immunology, Medical School of Ankara University, De-partment of Immunology, Medical School of Baskent University, Depart-ment of FTR,</t>
-        </is>
-      </c>
-      <c r="C14" s="8" t="inlineStr">
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>Department of Immunology, Medical School of Ankara University, De-partment of Immunology, Medical School of Baskent University, Depart-ment of FTR, Medical School of Kırıkkale University</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve"> Medical School of Kırıkkale University</t>
         </is>
       </c>
-      <c r="D14" s="8" t="inlineStr">
+      <c r="D14" s="7" t="inlineStr">
         <is>
           <t>P104</t>
         </is>
       </c>
-      <c r="E14" s="8" t="inlineStr">
+      <c r="E14" s="7" t="inlineStr">
         <is>
           <t>SERUM GLUCOCORTICOID­INDUCIBLE KINASE­1(SGK1) LEVELS IN PATIENTS WITH PSORIATIC ARTHRITIS</t>
         </is>
       </c>
-      <c r="F14" s="8" t="inlineStr">
-        <is>
-          <t>Introduction: Psoriatic	arthritis	(PsA)	is	an	inflammatory	rheuma-tic disorder that occurs in patients with psoriasis. The etiology of PsA is not well understood but evidence supports an interplay of genetic, immunologic, and environmental factors which promote pathological  bone  remodeling  and  joint  damage  in  PsA.  The glucocorticoid-inducible  kinase-1(SGK1)  is  genomically  upre-gulated by cell stress. However, excessive SGK1 expression and activity participates in the pathophysiology of several disorders, such	as	inflammation,	autoimmune	disease,	fibrosis,	hypertension,	thrombosis and tumor growth. Objectives: In this study, we analyzed the possible role of serum SGK-1 levels in the pathogenesis of psoriatic arthritis.Methods:  56  patients  with  psoriasis  (40  patients  with  psoriatic arthritis; 16 female, 24 male, mean age; 46.7 ± 6.5 years, mean disease duration 17.7 ± 4.3 years and 16 patients without arthritis; 8 female, 8 male, mean age; 43.2 ± 1.9 years, mean disease duration; 14.1 ± 3.9 years) and 19 healthy controls (11 female, 8 male; mean age 41.3 ± 4.7 years) were enrolled in this study. Oligoarthritis was the commonest clinical presentation (76.4 %). Dactylitis (73.4%) and  enthesitis  (48.1%)  were  frequent  extra-articular  features. All patients were negative for rheumatoid factor. HLA-B27 was negative  in  14  patients.  Serum  SGK-1  levels  were  determined by ELISA.Results: The mean serum SGK-1 levels were 58.4 ± 18.1 pg/ml in healthy controls, 163.7 ± 27.8 pg/ml in patients without arthritis and 443.9 ± 32.1 pg/ml in patients with arthritis. Serum SGK-1 levels	were	significantly	high	in	patients	with	psoriasis	compared	with healthy controls (p &lt; 0.001). Serum SGK-1 levels were sig-nificantly	high	in	patients	with	psoriatic	arthritis	compared	with	in patients without psoriatic arthritis (p &lt; 0.001).Conclusions: The evidence is strong that immunological mecha-nisms are involved in the pathogenesis of psoriasis. In this study, we	 demonstrated	 that	 serum	 SGK-1	 levels	 were	 significantly	elevated in patients with psoriasis and psoriatic arthritis.43</t>
+      <c r="F14" s="7" t="inlineStr">
+        <is>
+          <t>Introduction: Psoriatic	arthritis	(PsA)	is	an	inflammatory	rheumatic disorder that occurs in patients with psoriasis. The etiology of PsA is not well understood but evidence supports an interplay of genetic, immunologic, and environmental factors which promote pathological  bone  remodeling  and  joint  damage  in  PsA.  The glucocorticoid-inducible  kinase-1(SGK1)  is  genomically  upregulated by cell stress. However, excessive SGK1 expression and activity participates in the pathophysiology of several disorders, such	as	inflammation,	autoimmune	disease,	fibrosis,	hypertension,	thrombosis and tumor growth. Objectives: In this study, we analyzed the possible role of serum SGK-1 levels in the pathogenesis of psoriatic arthritis.Methods:  56  patients  with  psoriasis  (40  patients  with  psoriatic arthritis; 16 female, 24 male, mean age; 46.7 ± 6.5 years, mean disease duration 17.7 ± 4.3 years and 16 patients without arthritis; 8 female, 8 male, mean age; 43.2 ± 1.9 years, mean disease duration; 14.1 ± 3.9 years) and 19 healthy controls (11 female, 8 male; mean age 41.3 ± 4.7 years) were enrolled in this study. Oligoarthritis was the commonest clinical presentation (76.4 %). Dactylitis (73.4%) and  enthesitis  (48.1%)  were  frequent  extra-articular  features. All patients were negative for rheumatoid factor. HLA-B27 was negative  in  14  patients.  Serum  SGK-1  levels  were  determined by ELISA.Results: The mean serum SGK-1 levels were 58.4 ± 18.1 pg/ml in healthy controls, 163.7 ± 27.8 pg/ml in patients without arthritis and 443.9 ± 32.1 pg/ml in patients with arthritis. Serum SGK-1 levels	were	significantly	high	in	patients	with	psoriasis	compared	with healthy controls (p &lt; 0.001). Serum SGK-1 levels were significantly	high	in	patients	with	psoriatic	arthritis	compared	with	in patients without psoriatic arthritis (p &lt; 0.001).Conclusions: The evidence is strong that immunological mechanisms are involved in the pathogenesis of psoriasis. In this study, we	 demonstrated	 that	 serum	 SGK-1	 levels	 were	 significantly	elevated in patients with psoriasis and psoriatic arthritis.43</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="8" t="inlineStr">
+      <c r="A15" s="7" t="inlineStr">
         <is>
           <t>Ali Inal</t>
         </is>
       </c>
-      <c r="B15" s="8" t="inlineStr">
-        <is>
-          <t>Department of Immunology, Medical School of Ankara University, De-partment of Immunology, Medical School of Baskent University, Depart-ment of FTR,</t>
-        </is>
-      </c>
-      <c r="C15" s="8" t="inlineStr">
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>Department of Immunology, Medical School of Ankara University, De-partment of Immunology, Medical School of Baskent University, Depart-ment of FTR, Medical School of Kırıkkale University</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve"> Medical School of Kırıkkale University</t>
         </is>
       </c>
-      <c r="D15" s="8" t="inlineStr">
+      <c r="D15" s="7" t="inlineStr">
         <is>
           <t>P104</t>
         </is>
       </c>
-      <c r="E15" s="8" t="inlineStr">
+      <c r="E15" s="7" t="inlineStr">
         <is>
           <t>SERUM GLUCOCORTICOID­INDUCIBLE KINASE­1(SGK1) LEVELS IN PATIENTS WITH PSORIATIC ARTHRITIS</t>
         </is>
       </c>
-      <c r="F15" s="8" t="inlineStr">
-        <is>
-          <t>Introduction: Psoriatic	arthritis	(PsA)	is	an	inflammatory	rheuma-tic disorder that occurs in patients with psoriasis. The etiology of PsA is not well understood but evidence supports an interplay of genetic, immunologic, and environmental factors which promote pathological  bone  remodeling  and  joint  damage  in  PsA.  The glucocorticoid-inducible  kinase-1(SGK1)  is  genomically  upre-gulated by cell stress. However, excessive SGK1 expression and activity participates in the pathophysiology of several disorders, such	as	inflammation,	autoimmune	disease,	fibrosis,	hypertension,	thrombosis and tumor growth. Objectives: In this study, we analyzed the possible role of serum SGK-1 levels in the pathogenesis of psoriatic arthritis.Methods:  56  patients  with  psoriasis  (40  patients  with  psoriatic arthritis; 16 female, 24 male, mean age; 46.7 ± 6.5 years, mean disease duration 17.7 ± 4.3 years and 16 patients without arthritis; 8 female, 8 male, mean age; 43.2 ± 1.9 years, mean disease duration; 14.1 ± 3.9 years) and 19 healthy controls (11 female, 8 male; mean age 41.3 ± 4.7 years) were enrolled in this study. Oligoarthritis was the commonest clinical presentation (76.4 %). Dactylitis (73.4%) and  enthesitis  (48.1%)  were  frequent  extra-articular  features. All patients were negative for rheumatoid factor. HLA-B27 was negative  in  14  patients.  Serum  SGK-1  levels  were  determined by ELISA.Results: The mean serum SGK-1 levels were 58.4 ± 18.1 pg/ml in healthy controls, 163.7 ± 27.8 pg/ml in patients without arthritis and 443.9 ± 32.1 pg/ml in patients with arthritis. Serum SGK-1 levels	were	significantly	high	in	patients	with	psoriasis	compared	with healthy controls (p &lt; 0.001). Serum SGK-1 levels were sig-nificantly	high	in	patients	with	psoriatic	arthritis	compared	with	in patients without psoriatic arthritis (p &lt; 0.001).Conclusions: The evidence is strong that immunological mecha-nisms are involved in the pathogenesis of psoriasis. In this study, we	 demonstrated	 that	 serum	 SGK-1	 levels	 were	 significantly	elevated in patients with psoriasis and psoriatic arthritis.43</t>
+      <c r="F15" s="7" t="inlineStr">
+        <is>
+          <t>Introduction: Psoriatic	arthritis	(PsA)	is	an	inflammatory	rheumatic disorder that occurs in patients with psoriasis. The etiology of PsA is not well understood but evidence supports an interplay of genetic, immunologic, and environmental factors which promote pathological  bone  remodeling  and  joint  damage  in  PsA.  The glucocorticoid-inducible  kinase-1(SGK1)  is  genomically  upregulated by cell stress. However, excessive SGK1 expression and activity participates in the pathophysiology of several disorders, such	as	inflammation,	autoimmune	disease,	fibrosis,	hypertension,	thrombosis and tumor growth. Objectives: In this study, we analyzed the possible role of serum SGK-1 levels in the pathogenesis of psoriatic arthritis.Methods:  56  patients  with  psoriasis  (40  patients  with  psoriatic arthritis; 16 female, 24 male, mean age; 46.7 ± 6.5 years, mean disease duration 17.7 ± 4.3 years and 16 patients without arthritis; 8 female, 8 male, mean age; 43.2 ± 1.9 years, mean disease duration; 14.1 ± 3.9 years) and 19 healthy controls (11 female, 8 male; mean age 41.3 ± 4.7 years) were enrolled in this study. Oligoarthritis was the commonest clinical presentation (76.4 %). Dactylitis (73.4%) and  enthesitis  (48.1%)  were  frequent  extra-articular  features. All patients were negative for rheumatoid factor. HLA-B27 was negative  in  14  patients.  Serum  SGK-1  levels  were  determined by ELISA.Results: The mean serum SGK-1 levels were 58.4 ± 18.1 pg/ml in healthy controls, 163.7 ± 27.8 pg/ml in patients without arthritis and 443.9 ± 32.1 pg/ml in patients with arthritis. Serum SGK-1 levels	were	significantly	high	in	patients	with	psoriasis	compared	with healthy controls (p &lt; 0.001). Serum SGK-1 levels were significantly	high	in	patients	with	psoriatic	arthritis	compared	with	in patients without psoriatic arthritis (p &lt; 0.001).Conclusions: The evidence is strong that immunological mechanisms are involved in the pathogenesis of psoriasis. In this study, we	 demonstrated	 that	 serum	 SGK-1	 levels	 were	 significantly	elevated in patients with psoriasis and psoriatic arthritis.43</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="8" t="inlineStr">
+      <c r="A16" s="7" t="inlineStr">
         <is>
           <t>Esra Dilek Keskin</t>
         </is>
       </c>
-      <c r="B16" s="8" t="inlineStr">
-        <is>
-          <t>Department of Immunology, Medical School of Ankara University, De-partment of Immunology, Medical School of Baskent University, Depart-ment of FTR,</t>
-        </is>
-      </c>
-      <c r="C16" s="8" t="inlineStr">
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>Department of Immunology, Medical School of Ankara University, De-partment of Immunology, Medical School of Baskent University, Depart-ment of FTR, Medical School of Kırıkkale University</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve"> Medical School of Kırıkkale University</t>
         </is>
       </c>
-      <c r="D16" s="8" t="inlineStr">
+      <c r="D16" s="7" t="inlineStr">
         <is>
           <t>P104</t>
         </is>
       </c>
-      <c r="E16" s="8" t="inlineStr">
+      <c r="E16" s="7" t="inlineStr">
         <is>
           <t>SERUM GLUCOCORTICOID­INDUCIBLE KINASE­1(SGK1) LEVELS IN PATIENTS WITH PSORIATIC ARTHRITIS</t>
         </is>
       </c>
-      <c r="F16" s="8" t="inlineStr">
-        <is>
-          <t>Introduction: Psoriatic	arthritis	(PsA)	is	an	inflammatory	rheuma-tic disorder that occurs in patients with psoriasis. The etiology of PsA is not well understood but evidence supports an interplay of genetic, immunologic, and environmental factors which promote pathological  bone  remodeling  and  joint  damage  in  PsA.  The glucocorticoid-inducible  kinase-1(SGK1)  is  genomically  upre-gulated by cell stress. However, excessive SGK1 expression and activity participates in the pathophysiology of several disorders, such	as	inflammation,	autoimmune	disease,	fibrosis,	hypertension,	thrombosis and tumor growth. Objectives: In this study, we analyzed the possible role of serum SGK-1 levels in the pathogenesis of psoriatic arthritis.Methods:  56  patients  with  psoriasis  (40  patients  with  psoriatic arthritis; 16 female, 24 male, mean age; 46.7 ± 6.5 years, mean disease duration 17.7 ± 4.3 years and 16 patients without arthritis; 8 female, 8 male, mean age; 43.2 ± 1.9 years, mean disease duration; 14.1 ± 3.9 years) and 19 healthy controls (11 female, 8 male; mean age 41.3 ± 4.7 years) were enrolled in this study. Oligoarthritis was the commonest clinical presentation (76.4 %). Dactylitis (73.4%) and  enthesitis  (48.1%)  were  frequent  extra-articular  features. All patients were negative for rheumatoid factor. HLA-B27 was negative  in  14  patients.  Serum  SGK-1  levels  were  determined by ELISA.Results: The mean serum SGK-1 levels were 58.4 ± 18.1 pg/ml in healthy controls, 163.7 ± 27.8 pg/ml in patients without arthritis and 443.9 ± 32.1 pg/ml in patients with arthritis. Serum SGK-1 levels	were	significantly	high	in	patients	with	psoriasis	compared	with healthy controls (p &lt; 0.001). Serum SGK-1 levels were sig-nificantly	high	in	patients	with	psoriatic	arthritis	compared	with	in patients without psoriatic arthritis (p &lt; 0.001).Conclusions: The evidence is strong that immunological mecha-nisms are involved in the pathogenesis of psoriasis. In this study, we	 demonstrated	 that	 serum	 SGK-1	 levels	 were	 significantly	elevated in patients with psoriasis and psoriatic arthritis.43</t>
+      <c r="F16" s="7" t="inlineStr">
+        <is>
+          <t>Introduction: Psoriatic	arthritis	(PsA)	is	an	inflammatory	rheumatic disorder that occurs in patients with psoriasis. The etiology of PsA is not well understood but evidence supports an interplay of genetic, immunologic, and environmental factors which promote pathological  bone  remodeling  and  joint  damage  in  PsA.  The glucocorticoid-inducible  kinase-1(SGK1)  is  genomically  upregulated by cell stress. However, excessive SGK1 expression and activity participates in the pathophysiology of several disorders, such	as	inflammation,	autoimmune	disease,	fibrosis,	hypertension,	thrombosis and tumor growth. Objectives: In this study, we analyzed the possible role of serum SGK-1 levels in the pathogenesis of psoriatic arthritis.Methods:  56  patients  with  psoriasis  (40  patients  with  psoriatic arthritis; 16 female, 24 male, mean age; 46.7 ± 6.5 years, mean disease duration 17.7 ± 4.3 years and 16 patients without arthritis; 8 female, 8 male, mean age; 43.2 ± 1.9 years, mean disease duration; 14.1 ± 3.9 years) and 19 healthy controls (11 female, 8 male; mean age 41.3 ± 4.7 years) were enrolled in this study. Oligoarthritis was the commonest clinical presentation (76.4 %). Dactylitis (73.4%) and  enthesitis  (48.1%)  were  frequent  extra-articular  features. All patients were negative for rheumatoid factor. HLA-B27 was negative  in  14  patients.  Serum  SGK-1  levels  were  determined by ELISA.Results: The mean serum SGK-1 levels were 58.4 ± 18.1 pg/ml in healthy controls, 163.7 ± 27.8 pg/ml in patients without arthritis and 443.9 ± 32.1 pg/ml in patients with arthritis. Serum SGK-1 levels	were	significantly	high	in	patients	with	psoriasis	compared	with healthy controls (p &lt; 0.001). Serum SGK-1 levels were significantly	high	in	patients	with	psoriatic	arthritis	compared	with	in patients without psoriatic arthritis (p &lt; 0.001).Conclusions: The evidence is strong that immunological mechanisms are involved in the pathogenesis of psoriasis. In this study, we	 demonstrated	 that	 serum	 SGK-1	 levels	 were	 significantly	elevated in patients with psoriasis and psoriatic arthritis.43</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="8" t="inlineStr">
+      <c r="A17" s="7" t="inlineStr">
         <is>
           <t>Umit Olmez</t>
         </is>
       </c>
-      <c r="B17" s="8" t="inlineStr">
-        <is>
-          <t>Department of Immunology, Medical School of Ankara University, De-partment of Immunology, Medical School of Baskent University, Depart-ment of FTR,</t>
-        </is>
-      </c>
-      <c r="C17" s="8" t="inlineStr">
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>Department of Immunology, Medical School of Ankara University, De-partment of Immunology, Medical School of Baskent University, Depart-ment of FTR, Medical School of Kırıkkale University</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve"> Medical School of Kırıkkale University</t>
         </is>
       </c>
-      <c r="D17" s="8" t="inlineStr">
+      <c r="D17" s="7" t="inlineStr">
         <is>
           <t>P104</t>
         </is>
       </c>
-      <c r="E17" s="8" t="inlineStr">
+      <c r="E17" s="7" t="inlineStr">
         <is>
           <t>SERUM GLUCOCORTICOID­INDUCIBLE KINASE­1(SGK1) LEVELS IN PATIENTS WITH PSORIATIC ARTHRITIS</t>
         </is>
       </c>
-      <c r="F17" s="8" t="inlineStr">
-        <is>
-          <t>Introduction: Psoriatic	arthritis	(PsA)	is	an	inflammatory	rheuma-tic disorder that occurs in patients with psoriasis. The etiology of PsA is not well understood but evidence supports an interplay of genetic, immunologic, and environmental factors which promote pathological  bone  remodeling  and  joint  damage  in  PsA.  The glucocorticoid-inducible  kinase-1(SGK1)  is  genomically  upre-gulated by cell stress. However, excessive SGK1 expression and activity participates in the pathophysiology of several disorders, such	as	inflammation,	autoimmune	disease,	fibrosis,	hypertension,	thrombosis and tumor growth. Objectives: In this study, we analyzed the possible role of serum SGK-1 levels in the pathogenesis of psoriatic arthritis.Methods:  56  patients  with  psoriasis  (40  patients  with  psoriatic arthritis; 16 female, 24 male, mean age; 46.7 ± 6.5 years, mean disease duration 17.7 ± 4.3 years and 16 patients without arthritis; 8 female, 8 male, mean age; 43.2 ± 1.9 years, mean disease duration; 14.1 ± 3.9 years) and 19 healthy controls (11 female, 8 male; mean age 41.3 ± 4.7 years) were enrolled in this study. Oligoarthritis was the commonest clinical presentation (76.4 %). Dactylitis (73.4%) and  enthesitis  (48.1%)  were  frequent  extra-articular  features. All patients were negative for rheumatoid factor. HLA-B27 was negative  in  14  patients.  Serum  SGK-1  levels  were  determined by ELISA.Results: The mean serum SGK-1 levels were 58.4 ± 18.1 pg/ml in healthy controls, 163.7 ± 27.8 pg/ml in patients without arthritis and 443.9 ± 32.1 pg/ml in patients with arthritis. Serum SGK-1 levels	were	significantly	high	in	patients	with	psoriasis	compared	with healthy controls (p &lt; 0.001). Serum SGK-1 levels were sig-nificantly	high	in	patients	with	psoriatic	arthritis	compared	with	in patients without psoriatic arthritis (p &lt; 0.001).Conclusions: The evidence is strong that immunological mecha-nisms are involved in the pathogenesis of psoriasis. In this study, we	 demonstrated	 that	 serum	 SGK-1	 levels	 were	 significantly	elevated in patients with psoriasis and psoriatic arthritis.43</t>
+      <c r="F17" s="7" t="inlineStr">
+        <is>
+          <t>Introduction: Psoriatic	arthritis	(PsA)	is	an	inflammatory	rheumatic disorder that occurs in patients with psoriasis. The etiology of PsA is not well understood but evidence supports an interplay of genetic, immunologic, and environmental factors which promote pathological  bone  remodeling  and  joint  damage  in  PsA.  The glucocorticoid-inducible  kinase-1(SGK1)  is  genomically  upregulated by cell stress. However, excessive SGK1 expression and activity participates in the pathophysiology of several disorders, such	as	inflammation,	autoimmune	disease,	fibrosis,	hypertension,	thrombosis and tumor growth. Objectives: In this study, we analyzed the possible role of serum SGK-1 levels in the pathogenesis of psoriatic arthritis.Methods:  56  patients  with  psoriasis  (40  patients  with  psoriatic arthritis; 16 female, 24 male, mean age; 46.7 ± 6.5 years, mean disease duration 17.7 ± 4.3 years and 16 patients without arthritis; 8 female, 8 male, mean age; 43.2 ± 1.9 years, mean disease duration; 14.1 ± 3.9 years) and 19 healthy controls (11 female, 8 male; mean age 41.3 ± 4.7 years) were enrolled in this study. Oligoarthritis was the commonest clinical presentation (76.4 %). Dactylitis (73.4%) and  enthesitis  (48.1%)  were  frequent  extra-articular  features. All patients were negative for rheumatoid factor. HLA-B27 was negative  in  14  patients.  Serum  SGK-1  levels  were  determined by ELISA.Results: The mean serum SGK-1 levels were 58.4 ± 18.1 pg/ml in healthy controls, 163.7 ± 27.8 pg/ml in patients without arthritis and 443.9 ± 32.1 pg/ml in patients with arthritis. Serum SGK-1 levels	were	significantly	high	in	patients	with	psoriasis	compared	with healthy controls (p &lt; 0.001). Serum SGK-1 levels were significantly	high	in	patients	with	psoriatic	arthritis	compared	with	in patients without psoriatic arthritis (p &lt; 0.001).Conclusions: The evidence is strong that immunological mechanisms are involved in the pathogenesis of psoriasis. In this study, we	 demonstrated	 that	 serum	 SGK-1	 levels	 were	 significantly	elevated in patients with psoriasis and psoriatic arthritis.43</t>
         </is>
       </c>
     </row>

--- a/Data Entry - 5th World Psoriasis & Psoriatic Arthritis Conference 2018 - Case format (2).xlsx
+++ b/Data Entry - 5th World Psoriasis & Psoriatic Arthritis Conference 2018 - Case format (2).xlsx
@@ -3,58 +3,20 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="18480" windowHeight="8080" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="9940" yWindow="460" windowWidth="23660" windowHeight="18420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm.Sheet_Title" localSheetId="0">"Sheet1"</definedName>
-  </definedNames>
-  <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="1" iterate="1" iterateCount="100" iterateDelta="0.001"/>
+  <definedNames/>
+  <calcPr calcId="181029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="6">
-    <font>
-      <name val="Sans"/>
-      <strike val="0"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
-      <vertAlign val="baseline"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <strike val="0"/>
-      <color rgb="FF000000"/>
-      <sz val="12"/>
-      <vertAlign val="baseline"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <b val="1"/>
-      <strike val="0"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
-      <vertAlign val="baseline"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <strike val="0"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
-      <vertAlign val="baseline"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <strike val="0"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
-      <vertAlign val="baseline"/>
-    </font>
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -62,8 +24,24 @@
       <sz val="12"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <sz val="10"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
@@ -72,80 +50,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF9FC5E8"/>
         <bgColor rgb="FF9FC5E8"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="7">
-    <border>
-      <left>
-        <color rgb="FFC7C7C7"/>
-      </left>
-      <right>
-        <color rgb="FFC7C7C7"/>
-      </right>
-      <top>
-        <color rgb="FFC7C7C7"/>
-      </top>
-      <bottom>
-        <color rgb="FFC7C7C7"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color rgb="FFC7C7C7"/>
-      </left>
-      <right>
-        <color rgb="FFC7C7C7"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFC7C7C7"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFC7C7C7"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color rgb="FFC7C7C7"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFC7C7C7"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFC7C7C7"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFC7C7C7"/>
-      </bottom>
-    </border>
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -154,69 +64,87 @@
       <diagonal/>
     </border>
     <border>
-      <left>
-        <color rgb="FFC7C7C7"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
-      <right>
-        <color rgb="FFC7C7C7"/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FFC7C7C7"/>
+        <color indexed="64"/>
       </top>
-      <bottom>
-        <color rgb="FFC7C7C7"/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
-      <left>
-        <color rgb="FFC7C7C7"/>
-      </left>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
-        <color rgb="FFC7C7C7"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FFC7C7C7"/>
+        <color indexed="64"/>
       </top>
-      <bottom>
-        <color rgb="FFC7C7C7"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -299,44 +227,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -363,14 +291,32 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -397,6 +343,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -408,166 +372,142 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
@@ -575,100 +515,99 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col width="35.83203125" customWidth="1" style="1" min="1" max="1"/>
-    <col width="33.1640625" customWidth="1" style="1" min="2" max="2"/>
-    <col width="23.5" customWidth="1" style="1" min="3" max="3"/>
-    <col width="22.1640625" customWidth="1" style="1" min="4" max="4"/>
-    <col width="17.1640625" customWidth="1" style="1" min="5" max="5"/>
-    <col width="18.5" customWidth="1" style="1" min="6" max="6"/>
-    <col width="9.142307692307693" customWidth="1" style="1" min="7" max="16384"/>
+    <col width="35.83203125" customWidth="1" style="4" min="1" max="1"/>
+    <col width="33.1640625" customWidth="1" style="4" min="2" max="2"/>
+    <col width="23.5" customWidth="1" style="4" min="3" max="3"/>
+    <col width="22.1640625" customWidth="1" style="4" min="4" max="4"/>
+    <col width="17.1640625" customWidth="1" style="4" min="5" max="5"/>
+    <col width="18.5" customWidth="1" style="4" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>About the person</t>
         </is>
       </c>
-      <c r="B1" s="8" t="n"/>
-      <c r="C1" s="9" t="n"/>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="7" t="n"/>
+      <c r="C1" s="8" t="n"/>
+      <c r="D1" s="5" t="inlineStr">
         <is>
           <t>About the session/topic</t>
         </is>
       </c>
-      <c r="E1" s="8" t="n"/>
-      <c r="F1" s="9" t="n"/>
+      <c r="E1" s="7" t="n"/>
+      <c r="F1" s="8" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="5" t="inlineStr">
         <is>
           <t>Name (incl. titles if any mentioned)</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>Affiliation(s) Name(s)</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>Person's Location</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" s="5" t="inlineStr">
         <is>
           <t>Session Name</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E2" s="5" t="inlineStr">
         <is>
           <t>Topic Title</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>Presentation Abstract</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="16" customHeight="1" s="10">
-      <c r="A3" s="5" t="inlineStr">
+    <row r="3" ht="16" customHeight="1" s="4">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>Florence Abdallah</t>
         </is>
       </c>
-      <c r="B3" s="5" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Centre de Biophysique Moléculaire, CNRS UPR4301 </t>
         </is>
       </c>
-      <c r="C3" s="5" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Orléans, France </t>
         </is>
       </c>
-      <c r="D3" s="5" t="inlineStr">
+      <c r="D3" s="2" t="inlineStr">
         <is>
           <t>P098</t>
         </is>
       </c>
-      <c r="E3" s="5" t="inlineStr">
+      <c r="E3" s="2" t="inlineStr">
         <is>
           <t>IL­22 INDUCES KERATINOCYTES HYPERPROLIFERATION IN PSORIASIS VIA MIR­21 AND MIR­31 UPREGULATION</t>
         </is>
       </c>
-      <c r="F3" s="5" t="inlineStr">
+      <c r="F3" s="2" t="inlineStr">
         <is>
           <t>Psoriasis is a chronic inflammatory skin disease that affects people of all ages with an estimated 3% prevalence worldwide. It manifests as thick red irritated skin lesions due to imbalanced keratinocytes hyperproliferation and differentiation caused mainly by increased activation of IL-22 pathway in keratinocytes. Emer- ging studies showed a specific psoriatic miRs signature where miR-21 and miR-31 are one of the most upregulated miRs. The latters act by favoring cellular proliferation and inflammation. Hence, re-conciliating the microRNAs and the immunopathogenic occasions responsible for psoriasis development can be a new approach for developing effective mechanism and target-based agents to treat psoriasis.
 The common hyper-proliferation effect of IL-22, miR-21 and miR-31 prompted us to look after a potential interaction between these actors. The expression levels of those 2 microRNAs and that of their targets were evaluated both in vitro and in vivo studies in presence or absence of IL-22.
@@ -678,33 +617,33 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="10">
-      <c r="A4" s="5" t="inlineStr">
+    <row r="4" ht="15" customHeight="1" s="4">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nermina Ovčina-Kurtović </t>
         </is>
       </c>
-      <c r="B4" s="5" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dermatovenerology Department Clinical center University of Sarajevo </t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr">
+      <c r="C4" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bosnia and Herzegovina </t>
         </is>
       </c>
-      <c r="D4" s="5" t="inlineStr">
+      <c r="D4" s="2" t="inlineStr">
         <is>
           <t>P099</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>SERUM CONCENTRACION OF IFN­GAMMA IN PATIENTS WITH PSORIASIS: CORRELATION WITH CLINICAL TYPE AND SEVERITY OF DISEASE</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>Introduction: Psoriasis is a multifactorial chronic inflammatory disease. The etiopathogenesis of the disease is still unclear but there is evidence that many of cytokines released by keratinocytes and inflammatory leukocytes may contribute to the induction or persistence of the inflammatory process in psoriasis.
 Objectives: The aim of the study was to evaluate serum concen- trations of INF-gamma in patients with psoriasis and the healthy subjects and also to assess a possible association between IFN- gamma, clinical type and severity of disease.
@@ -717,32 +656,32 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="inlineStr">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Emina Kasumagić-Halilović </t>
         </is>
       </c>
-      <c r="B5" s="5" t="inlineStr">
+      <c r="B5" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dermatovenerology Department Clinical center University of Sarajevo </t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr">
+      <c r="C5" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bosnia and Herzegovina </t>
         </is>
       </c>
-      <c r="D5" s="5" t="inlineStr">
+      <c r="D5" s="2" t="inlineStr">
         <is>
           <t>P099</t>
         </is>
       </c>
-      <c r="E5" s="5" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
         <is>
           <t>SERUM CONCENTRACION OF IFN­GAMMA IN PATIENTS WITH PSORIASIS: CORRELATION WITH CLINICAL TYPE AND SEVERITY OF DISEASE</t>
         </is>
       </c>
-      <c r="F5" s="5" t="inlineStr">
+      <c r="F5" s="2" t="inlineStr">
         <is>
           <t>Introduction: Psoriasis is a multifactorial chronic inflammatory disease. The etiopathogenesis of the disease is still unclear but there is evidence that many of cytokines released by keratinocytes and inflammatory leukocytes may contribute to the induction or persistence of the inflammatory process in psoriasis.
 Objectives: The aim of the study was to evaluate serum concen- trations of INF-gamma in patients with psoriasis and the healthy subjects and also to assess a possible association between IFN- gamma, clinical type and severity of disease.
@@ -755,384 +694,386 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="inlineStr">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jasmina Muhović </t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dermatovenerology Department Clinical center University of Sarajevo </t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bosnia and Herzegovina </t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>P099</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>SERUM CONCENTRACION OF IFN­GAMMA IN PATIENTS WITH PSORIASIS: CORRELATION WITH CLINICAL TYPE AND SEVERITY OF DISEASE</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>Introduction: Psoriasis is a multifactorial chronic inflammatory disease. The etiopathogenesis of the disease is still unclear but there is evidence that many of cytokines released by keratinocytes and inflammatory leukocytes may contribute to the induction or persistence of the inflammatory process in psoriasis.
+Objectives: The aim of the study was to evaluate serum concen- trations of INF-gamma in patients with psoriasis and the healthy subjects and also to assess a possible association between IFN- gamma, clinical type and severity of disease.
+Methods: The study included a total of 60 patients with psoriasis, both genders and all of ages. There were 20 healthy subjects in the control group. According to the clinical type of disease, patients with psoriasis were divided into four groups: psoriasis vulgaris, psoriasis pustulosa, psoriasis erythrodermica and psoriasis arth- ropatica. Blood samples were collected from all psoriasis patients and from healthy control subjects. Serum IFN-gamma levels were measured by an enzyme-linked immunosorbent assay (ELISA) technique. The severity of psoriasis vulgaris was assessed by Psoriasis Area and Severity Index (PASI) score.
+Results: Of the total number of patients suffering from psoriasis 42 (70%) had psoriasis vulgaris. The second most frequent was psoriasis erythrodermica 9 (15%), while 6 (10%) patients had psoriasis pustulosa and 3 (5%) psoriasis arthropatica. The serum concentartion of IFN-gamma in patients with psoriasis was sig- nificialy higher than that in the control group (1.91+1.79 pg/ml vs 0.91+0.38 pg/ml, respectively). Significantly elevated serum IFN-gamma concentrations were noticed in patients with psoriasis vulgaris (2.15+0.30 pg/ml), compared with patients suffering from psoriasis erythrodermica (1.57+0.68 pg/ml), psoriasis arthropa- tica (1.33+0.53 pg/ml), and in particular patients suffering from psoriasis pustulosa (1.08+0.21 pg/ml) who had the lowest mean serum concentration of IFN-gamma. There was no statistically significant difference between the mean values of IFN-gamma compared to the clinical type of psoriasis (p &gt; 0.05). In the group of patients with psoriasis vulgaris 36 (85.71%) patients had mild form of disease with PASI &lt;50, and 6 (14.29%) patients had severe disease with PASI &gt; 50. It was not found statistically significant correlation between IFN-gamma and PASI score.
+Conclusions: The results of this study showed that psoriasis is associated with significant changes in serum concentracion of IFN- gamma. There was no statistically significant correlation between serum IFN-gamma concentracions, clinical type of psoriasis, and also severity of psoriasis vulgaris evaluated by PASI score. References:
+Baliwag J, Barnes DH, Johnston A. Cytokines in psoriasis. Cytokine 2015; 73 (2):342-350.
+Takahashi H, Tsuji H, Hashimoto Y, Ishida-Yamamoto A, Iizuka H Serum cytokines and growth factor levels in Japanese patients with psoriasis, Clin Exp Dermatol 2010; 35:645-649.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
         <is>
           <t>Zhu Shen</t>
         </is>
       </c>
-      <c r="B6" s="5" t="inlineStr">
-        <is>
-          <t>Institute of Dermatology and Venereology, Sichuan Academy of Medical Sciences &amp; Sichuan Provincial People’s Hospital</t>
-        </is>
-      </c>
-      <c r="C6" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Sichuan Academy of Medical Sciences &amp; Sichuan Provincial People’s Hospital</t>
-        </is>
-      </c>
-      <c r="D6" s="5" t="inlineStr">
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>Institute of Dermatology and Venereology</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>Sichuan Academy of Medical Sciences &amp; Sichuan Provincial People’s Hospital</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
         <is>
           <t>P100</t>
         </is>
       </c>
-      <c r="E6" s="5" t="inlineStr">
+      <c r="E7" s="2" t="inlineStr">
         <is>
           <t>IMMUNOLOGICAL MEMORY EXISTS IN THE RECURRENT LESION AND NONRECURRENT SKIN AFTER REMISSION IN PSORIATIC PATIENTS</t>
         </is>
       </c>
-      <c r="F6" s="5" t="inlineStr">
+      <c r="F7" s="2" t="inlineStr">
         <is>
           <t>Introduction: Psoriasis usually recurs in previously affected areas, so a pathogenic memory has been proposed, but the nature of such site-specific	recurrent	memory	is	not	completely	known.	Tissueresident memory T (TRM) cells are non-recirculating memory T cells that persist long-term in epithelial tissues, including the skin. Because they can localize in the skin for many months, we speculate that TRM may contribute to recurrent pathology of psoriasis.Objectives: The aim of the present study is to compare the differences of quantity proportion and secretion ability of cytokines of  the  TRM  cells  between  recurrent  and  nonrecurrent  lesions following remission, as well as to explicit the possible survival signal for these TRM cells in psoriatic lesion.Methods: RNA-Seq, Gene Ontology and KEGG analysis, real-time PCR,	flow	cytometer	analysis/sorting,	cell	stimulation	assay,	and	western blot were used to explore the immunological memory.Results: Compared with normal skin, there are common shared genes	significantly	upregulated	( &gt; 2 folds, p &lt; 0.001) by recurrent and nonrecurrent lesions, including CD69. CD69 mRNA transcription level in nonrecurrent lesions after remission remains as high as in neighboring recurrent lesions. CD8+CD69+ TRM cells exist in both lesions, and they can secret almost same amount of IL-17A and IL-22 after stimulation. Levels of IL-15, secreted by keratinocytes in psoriasis epidermis, in nonrecurrent lesions remain as high as in neighboring recurrent lesions, and recombinant human IL-15 can induce CD69 on TRM cells.Conclusions:  Our  preliminary  study  shows  that  CD8+CD69+ TRM cells persist in clinically resolved psoriatic lesions whether it recurs or not, and they can produce IL-17A and IL-22 with critical effect on psoriatic recurrence and development. Furthermore, we have indicated the IL-15 may play crucial role in the survival of CD8+CD69+ TRM cells in psoriatic lesions.1. Mueller SN, Mackay LK.Tissue-resident memory T cells: local specialists in immune defence. Nat Rev Immunol. 2016 Feb;16(2):79-89.2. Clark RA. Resident memory T cells in human health and disease. Sci Transl Med. 2015 Jan 7;7(269):269rv1.3. Park CO, KupperTS. The emerging role of resident memory T cells in  protective  immunity  and  inflammatory  disease.  Nat  Med.  2015 Jul;21(7):688-97.4. Cheuk S, Wikén M, Blomqvist L, Nylén S, Talme T, Ståhle M, EidsmoL. Epidermal Th22 and Tc17 cells form a localized disease memory in clinically healed psoriasis. J Immunol. 2014 Apr 1;192(7):3111-20.</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
         <is>
           <t>Samar Gupta</t>
         </is>
       </c>
-      <c r="B7" s="6" t="inlineStr">
-        <is>
-          <t>University of Michigan, MI State</t>
-        </is>
-      </c>
-      <c r="C7" s="6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> MI State</t>
-        </is>
-      </c>
-      <c r="D7" s="6" t="inlineStr">
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>University of Michigan</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>MI State</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
         <is>
           <t>P101</t>
         </is>
       </c>
-      <c r="E7" s="7" t="inlineStr">
+      <c r="E8" s="2" t="inlineStr">
         <is>
           <t>INVESTIGATING SYSTEMIC INFLAMMATION AS THE COMMON LINK BETWEEN DEPRESSION, PSORIASIS, AND PSORIATIC ARTHRITIS IN US VETERANS</t>
         </is>
       </c>
-      <c r="F7" s="7" t="inlineStr">
+      <c r="F8" s="2" t="inlineStr">
         <is>
           <t>Introduction: Psychosocial factors are important in the onset and/or  exacerbation  of  psoriasis  in  40%  to  80%  of  cases.  Psoriasis has been associated with suicide, and an increased prevalence of alcoholism and a range of personality characteristics.A recent systematic meta-analysis of 98 eligible studies with a total of 401,703 psoriasis patients showed that patients with psoriasis were approximately one and a half times more likely to exhibit signs of depression compared with healthy controls. [1].Emerging  evidence  suggests  that  depression,  like  psoriasis,  is associated	with	systemic	inflammation,	and	the	systemic	inflammatory	profile	of	the	two	conditions	show	similar	traits.	Depression	is	considered	to	have	a	strong	inflammatory	component,	similar	to	psoriasis, e.g. interleukin (IL)-2, IL-6, IL-12, and tumour necrosis factor	(TNF)-α	[2–5].US Veteran population has increased incidence of mental health issue as compared to general population. making Veteran group a unique population that warrants investigation.Objectives: Hypotheses - 1/ Veterans with concomitant depression	and	psoriasis/PsA	may	have	elevated	inflammatory	markers	like CRP, ESR, and SPEP. 2/ Depression may improve with the treatment of psoriasis/psoriatic arthritis without antidepressant use. Methods: A 36-month retrospective chart review of 100 veterans with  diagnosis  of  depression  and  psoriasis/psoriatic  arthritis. Elevated	 inflammatory	 markers,	 including	 sedimentation	 rate,	C-reactive  protein  (CRP)  and  serum  protein  electrophoresis (SPEP),  as  well  as  longitudinal  disease  course  of  depression (PHQ-8)	and	psoriasis/psoriatic	arthritis	(HAQ-DI);	specifically	disease activity, and depression symptoms will be assessed. We then aim to draw a correlation between disease activity and active depressive symptoms.Results: to be availableConclusions: to be available1. Dowlatshahi EA, et al. The prevalence and odds of depressive symptoms and clinical depression in psoriasis patients: a systematic review and metaanalysis. J Invest Dermatol 2014; 134: 1542–1551.2.	Allison	DJ,	Ditor	DS.	The	common	inflammatory	etiology	of	depression	and	cognitive	impairment:	a	therapeutic	target.	J	Neuroinflammation	2014; 11: 151.3.	Dantzer	R,	et	al.	From	inflammation	to	sickness	and	depression:	when	the immune system subjugates the brain. Nat Rev Neurosci 2008; 9: 46–56.4.	Han	Q-Q,	Yu	J.	Inflammation:	a	mechanism	of	depression?	Neurosci	Bull 2014; 30: 515–523.5. Dowlati Y, et al. A meta-analysis of cytokines in major depression. Biol Psychiatry [Internet] 2010; 67: 446–457.</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
         <is>
           <t>Alicja Wasilewski</t>
         </is>
       </c>
-      <c r="B8" s="6" t="inlineStr">
-        <is>
-          <t>University of Michigan, MI State</t>
-        </is>
-      </c>
-      <c r="C8" s="6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> MI State</t>
-        </is>
-      </c>
-      <c r="D8" s="6" t="inlineStr">
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>University of Michigan</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>MI State</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
         <is>
           <t>P101</t>
         </is>
       </c>
-      <c r="E8" s="6" t="inlineStr">
+      <c r="E9" s="2" t="inlineStr">
         <is>
           <t>INVESTIGATING SYSTEMIC INFLAMMATION AS THE COMMON LINK BETWEEN DEPRESSION, PSORIASIS, AND PSORIATIC ARTHRITIS IN US VETERANS</t>
         </is>
       </c>
-      <c r="F8" s="6" t="inlineStr">
+      <c r="F9" s="2" t="inlineStr">
         <is>
           <t>Introduction: Psychosocial factors are important in the onset and/or  exacerbation  of  psoriasis  in  40%  to  80%  of  cases.  Psoriasis has been associated with suicide, and an increased prevalence of alcoholism and a range of personality characteristics.A recent systematic meta-analysis of 98 eligible studies with a total of 401,703 psoriasis patients showed that patients with psoriasis were approximately one and a half times more likely to exhibit signs of depression compared with healthy controls. [1].Emerging  evidence  suggests  that  depression,  like  psoriasis,  is associated	with	systemic	inflammation,	and	the	systemic	inflammatory	profile	of	the	two	conditions	show	similar	traits.	Depression	is	considered	to	have	a	strong	inflammatory	component,	similar	to	psoriasis, e.g. interleukin (IL)-2, IL-6, IL-12, and tumour necrosis factor	(TNF)-α	[2–5].US Veteran population has increased incidence of mental health issue as compared to general population. making Veteran group a unique population that warrants investigation.Objectives: Hypotheses - 1/ Veterans with concomitant depression	and	psoriasis/PsA	may	have	elevated	inflammatory	markers	like CRP, ESR, and SPEP. 2/ Depression may improve with the treatment of psoriasis/psoriatic arthritis without antidepressant use. Methods: A 36-month retrospective chart review of 100 veterans with  diagnosis  of  depression  and  psoriasis/psoriatic  arthritis. Elevated	 inflammatory	 markers,	 including	 sedimentation	 rate,	C-reactive  protein  (CRP)  and  serum  protein  electrophoresis (SPEP),  as  well  as  longitudinal  disease  course  of  depression (PHQ-8)	and	psoriasis/psoriatic	arthritis	(HAQ-DI);	specifically	disease activity, and depression symptoms will be assessed. We then aim to draw a correlation between disease activity and active depressive symptoms.Results: to be availableConclusions: to be available1. Dowlatshahi EA, et al. The prevalence and odds of depressive symptoms and clinical depression in psoriasis patients: a systematic review and metaanalysis. J Invest Dermatol 2014; 134: 1542–1551.2.	Allison	DJ,	Ditor	DS.	The	common	inflammatory	etiology	of	depression	and	cognitive	impairment:	a	therapeutic	target.	J	Neuroinflammation	2014; 11: 151.3.	Dantzer	R,	et	al.	From	inflammation	to	sickness	and	depression:	when	the immune system subjugates the brain. Nat Rev Neurosci 2008; 9: 46–56.4.	Han	Q-Q,	Yu	J.	Inflammation:	a	mechanism	of	depression?	Neurosci	Bull 2014; 30: 515–523.5. Dowlati Y, et al. A meta-analysis of cytokines in major depression. Biol Psychiatry [Internet] 2010; 67: 446–457.</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="7" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
         <is>
           <t>Touraj Khosravi-Hafshejani</t>
         </is>
       </c>
-      <c r="B9" s="6" t="inlineStr">
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>Department of Undergraduate Medical Program, Faculty of Medicine, Department of Dermatology, and Skin Science and Department of Pat-hology and Laboratory Medicine, University of British Columbia, Depart-ment of Dermatology, Pontifical Catholic University of Chile</t>
         </is>
       </c>
-      <c r="C9" s="6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Pontifical Catholic University of Chile</t>
-        </is>
-      </c>
-      <c r="D9" s="6" t="inlineStr">
+      <c r="C10" s="2" t="inlineStr"/>
+      <c r="D10" s="2" t="inlineStr">
         <is>
           <t>P102</t>
         </is>
       </c>
-      <c r="E9" s="6" t="inlineStr">
+      <c r="E10" s="2" t="inlineStr">
         <is>
           <t>THE IMMUNE­PHENOTYPE OF SMALL PLAQUE PSORIASIS</t>
         </is>
       </c>
-      <c r="F9" s="6" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr">
         <is>
           <t>Introduction: Small plaque psoriasis (SPP) is a subtype of psoriasis	first	described	by	Griffiths	et	al	(2007).	It	resembles	guttate	psoriasis but lesions are larger, are chronic, and are not associated with streptococcal infection. We have observed SPP develop in four	different	population	groups;	patients	under	TNFα-inhibitor	therapy, patients under immune checkpoint inhibitor (ICI) therapy, and patients with concurrent SLE or ANA positivity and psoriasis. Subtypes of psoriasis develop on a spectrum between autoimmune	and	auto-inflammatory	responses	and	an	interplay	between three signalling pathways are involved in their distinct pathogenesis. Chronic plaque psoriasis lesions are on the autoimmune	spectrum,	dominated	by	a	T-cell	mediated	TNFα/IL-23/IL-17/IL-22	axis.	Pustular	psoriasis	is	a	neutrophilic	infiltrative	inflammatory	skin	disease	resulting	from	dysregulation	of	the	IL-36/IL-1	axis.	Lastly,	TNFα-inhibitor	(TNFi)	induced	lesions	have a SPP morphology and demonstrate increased expression of LL37 by keratinocytes, activated plasmacytoid dendritic cells and upregulated type-1 interferons (IFN). These lesions express fewer epidermal CD8 T cells.Objectives:  Our  aim  is  to  characterize  the  immune-phenotype of SPP in multiple clinical scenarios. We hypothesize that SPP develops  as  a  result  of  increased  expression  of  cytokines  and antimicrobial peptides involved in the type-1 IFN pathway.Methods: Skin biopsies were obtained from three patients with TNFi-induced  psoriasis,  three  patients  with  SLE  and  psoriasis, three patients with positive ANA and psoriasis, two patients with ICI-induced psoriasis and two patients with chronic plaque psoriasis as control. Immunohistochemistry was performed using antibodies against type-1 IFN induced MXA, LL37, IL-36 and CD8 T cells. The intensity and the area of positively stained samples were each	graded	from	0–4	and	then	multiplied	to	provide	a	final	score.	Results: Small plaque lesions in various clinical scenarios had histologic changes consistent with psoriasis.. Immunohistochemical evaluation revealed an increased expression of MXA (TNFi = 14, SLE = 13.3, ANA = 11.3, ICI = 16 vs. control = 6, t-test p &lt; 0.05), LL37 (TNFi = 10.8, SLE = 6, ANA = 9.7, ICI = 12 vs. control = 2, t-test  p &lt; 0.05)  and  IL-36  (TNFi = 10.5,  SLE = 13.3, ANA = 11, ICI = 7,  control = 0.25,  t-test  p &lt; 0.05)  in  the  keratinocytes  of SPP patients. There was decreased CD8 T cell migration to the epidermis in SPP compared to control.Conclusion:  This  is  the  first  study  to  describe  the  immunephenotype of SPP and to extend the phenotype observed in TNFi induced  psoriasis  to  varying  clinical  scenarios.  There  was  an increased expression of MXA, LL-37 and IL-36 as well as fewer epidermal CD8 T cells than in chronic plaque psoriasis consistent with the type-1 IFN pathway of psoriasis pathogenesis. This immune-phenotypic  analysis  may  suggest  tailored  therapy  for this form of psoriasis.</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="7" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
         <is>
           <t>Mehran Ghoreishi</t>
         </is>
       </c>
-      <c r="B10" s="7" t="inlineStr">
+      <c r="B11" s="2" t="inlineStr">
         <is>
           <t>Department of Undergraduate Medical Program, Faculty of Medicine, Department of Dermatology, and Skin Science and Department of Pat-hology and Laboratory Medicine, University of British Columbia, Depart-ment of Dermatology, Pontifical Catholic University of Chile</t>
         </is>
       </c>
-      <c r="C10" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Pontifical Catholic University of Chile</t>
-        </is>
-      </c>
-      <c r="D10" s="7" t="inlineStr">
+      <c r="C11" s="2" t="inlineStr"/>
+      <c r="D11" s="2" t="inlineStr">
         <is>
           <t>P102</t>
         </is>
       </c>
-      <c r="E10" s="7" t="inlineStr">
+      <c r="E11" s="2" t="inlineStr">
         <is>
           <t>THE IMMUNE­PHENOTYPE OF SMALL PLAQUE PSORIASIS</t>
         </is>
       </c>
-      <c r="F10" s="7" t="inlineStr">
+      <c r="F11" s="2" t="inlineStr">
         <is>
           <t>Introduction: Small plaque psoriasis (SPP) is a subtype of psoriasis	first	described	by	Griffiths	et	al	(2007).	It	resembles	guttate	psoriasis but lesions are larger, are chronic, and are not associated with streptococcal infection. We have observed SPP develop in four	different	population	groups;	patients	under	TNFα-inhibitor	therapy, patients under immune checkpoint inhibitor (ICI) therapy, and patients with concurrent SLE or ANA positivity and psoriasis. Subtypes of psoriasis develop on a spectrum between autoimmune	and	auto-inflammatory	responses	and	an	interplay	between three signalling pathways are involved in their distinct pathogenesis. Chronic plaque psoriasis lesions are on the autoimmune	spectrum,	dominated	by	a	T-cell	mediated	TNFα/IL-23/IL-17/IL-22	axis.	Pustular	psoriasis	is	a	neutrophilic	infiltrative	inflammatory	skin	disease	resulting	from	dysregulation	of	the	IL-36/IL-1	axis.	Lastly,	TNFα-inhibitor	(TNFi)	induced	lesions	have a SPP morphology and demonstrate increased expression of LL37 by keratinocytes, activated plasmacytoid dendritic cells and upregulated type-1 interferons (IFN). These lesions express fewer epidermal CD8 T cells.Objectives:  Our  aim  is  to  characterize  the  immune-phenotype of SPP in multiple clinical scenarios. We hypothesize that SPP develops  as  a  result  of  increased  expression  of  cytokines  and antimicrobial peptides involved in the type-1 IFN pathway.Methods: Skin biopsies were obtained from three patients with TNFi-induced  psoriasis,  three  patients  with  SLE  and  psoriasis, three patients with positive ANA and psoriasis, two patients with ICI-induced psoriasis and two patients with chronic plaque psoriasis as control. Immunohistochemistry was performed using antibodies against type-1 IFN induced MXA, LL37, IL-36 and CD8 T cells. The intensity and the area of positively stained samples were each	graded	from	0–4	and	then	multiplied	to	provide	a	final	score.	Results: Small plaque lesions in various clinical scenarios had histologic changes consistent with psoriasis.. Immunohistochemical evaluation revealed an increased expression of MXA (TNFi = 14, SLE = 13.3, ANA = 11.3, ICI = 16 vs. control = 6, t-test p &lt; 0.05), LL37 (TNFi = 10.8, SLE = 6, ANA = 9.7, ICI = 12 vs. control = 2, t-test  p &lt; 0.05)  and  IL-36  (TNFi = 10.5,  SLE = 13.3, ANA = 11, ICI = 7,  control = 0.25,  t-test  p &lt; 0.05)  in  the  keratinocytes  of SPP patients. There was decreased CD8 T cell migration to the epidermis in SPP compared to control.Conclusion:  This  is  the  first  study  to  describe  the  immunephenotype of SPP and to extend the phenotype observed in TNFi induced  psoriasis  to  varying  clinical  scenarios.  There  was  an increased expression of MXA, LL-37 and IL-36 as well as fewer epidermal CD8 T cells than in chronic plaque psoriasis consistent with the type-1 IFN pathway of psoriasis pathogenesis. This immune-phenotypic  analysis  may  suggest  tailored  therapy  for this form of psoriasis.</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="7" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
         <is>
           <t>Cristian Vera Kellet</t>
         </is>
       </c>
-      <c r="B11" s="7" t="inlineStr">
+      <c r="B12" s="2" t="inlineStr">
         <is>
           <t>Department of Undergraduate Medical Program, Faculty of Medicine, Department of Dermatology, and Skin Science and Department of Pat-hology and Laboratory Medicine, University of British Columbia, Depart-ment of Dermatology, Pontifical Catholic University of Chile</t>
         </is>
       </c>
-      <c r="C11" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Pontifical Catholic University of Chile</t>
-        </is>
-      </c>
-      <c r="D11" s="7" t="inlineStr">
+      <c r="C12" s="2" t="inlineStr"/>
+      <c r="D12" s="2" t="inlineStr">
         <is>
           <t>P102</t>
         </is>
       </c>
-      <c r="E11" s="7" t="inlineStr">
+      <c r="E12" s="2" t="inlineStr">
         <is>
           <t>THE IMMUNE­PHENOTYPE OF SMALL PLAQUE PSORIASIS</t>
         </is>
       </c>
-      <c r="F11" s="7" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
         <is>
           <t>Introduction: Small plaque psoriasis (SPP) is a subtype of psoriasis	first	described	by	Griffiths	et	al	(2007).	It	resembles	guttate	psoriasis but lesions are larger, are chronic, and are not associated with streptococcal infection. We have observed SPP develop in four	different	population	groups;	patients	under	TNFα-inhibitor	therapy, patients under immune checkpoint inhibitor (ICI) therapy, and patients with concurrent SLE or ANA positivity and psoriasis. Subtypes of psoriasis develop on a spectrum between autoimmune	and	auto-inflammatory	responses	and	an	interplay	between three signalling pathways are involved in their distinct pathogenesis. Chronic plaque psoriasis lesions are on the autoimmune	spectrum,	dominated	by	a	T-cell	mediated	TNFα/IL-23/IL-17/IL-22	axis.	Pustular	psoriasis	is	a	neutrophilic	infiltrative	inflammatory	skin	disease	resulting	from	dysregulation	of	the	IL-36/IL-1	axis.	Lastly,	TNFα-inhibitor	(TNFi)	induced	lesions	have a SPP morphology and demonstrate increased expression of LL37 by keratinocytes, activated plasmacytoid dendritic cells and upregulated type-1 interferons (IFN). These lesions express fewer epidermal CD8 T cells.Objectives:  Our  aim  is  to  characterize  the  immune-phenotype of SPP in multiple clinical scenarios. We hypothesize that SPP develops  as  a  result  of  increased  expression  of  cytokines  and antimicrobial peptides involved in the type-1 IFN pathway.Methods: Skin biopsies were obtained from three patients with TNFi-induced  psoriasis,  three  patients  with  SLE  and  psoriasis, three patients with positive ANA and psoriasis, two patients with ICI-induced psoriasis and two patients with chronic plaque psoriasis as control. Immunohistochemistry was performed using antibodies against type-1 IFN induced MXA, LL37, IL-36 and CD8 T cells. The intensity and the area of positively stained samples were each	graded	from	0–4	and	then	multiplied	to	provide	a	final	score.	Results: Small plaque lesions in various clinical scenarios had histologic changes consistent with psoriasis.. Immunohistochemical evaluation revealed an increased expression of MXA (TNFi = 14, SLE = 13.3, ANA = 11.3, ICI = 16 vs. control = 6, t-test p &lt; 0.05), LL37 (TNFi = 10.8, SLE = 6, ANA = 9.7, ICI = 12 vs. control = 2, t-test  p &lt; 0.05)  and  IL-36  (TNFi = 10.5,  SLE = 13.3, ANA = 11, ICI = 7,  control = 0.25,  t-test  p &lt; 0.05)  in  the  keratinocytes  of SPP patients. There was decreased CD8 T cell migration to the epidermis in SPP compared to control.Conclusion:  This  is  the  first  study  to  describe  the  immunephenotype of SPP and to extend the phenotype observed in TNFi induced  psoriasis  to  varying  clinical  scenarios.  There  was  an increased expression of MXA, LL-37 and IL-36 as well as fewer epidermal CD8 T cells than in chronic plaque psoriasis consistent with the type-1 IFN pathway of psoriasis pathogenesis. This immune-phenotypic  analysis  may  suggest  tailored  therapy  for this form of psoriasis.</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="7" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
         <is>
           <t>Magdalena Martinka</t>
         </is>
       </c>
-      <c r="B12" s="7" t="inlineStr">
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>Department of Undergraduate Medical Program, Faculty of Medicine, Department of Dermatology, and Skin Science and Department of Pat-hology and Laboratory Medicine, University of British Columbia, Depart-ment of Dermatology, Pontifical Catholic University of Chile</t>
         </is>
       </c>
-      <c r="C12" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Pontifical Catholic University of Chile</t>
-        </is>
-      </c>
-      <c r="D12" s="7" t="inlineStr">
+      <c r="C13" s="2" t="inlineStr"/>
+      <c r="D13" s="2" t="inlineStr">
         <is>
           <t>P102</t>
         </is>
       </c>
-      <c r="E12" s="7" t="inlineStr">
+      <c r="E13" s="2" t="inlineStr">
         <is>
           <t>THE IMMUNE­PHENOTYPE OF SMALL PLAQUE PSORIASIS</t>
         </is>
       </c>
-      <c r="F12" s="7" t="inlineStr">
+      <c r="F13" s="2" t="inlineStr">
         <is>
           <t>Introduction: Small plaque psoriasis (SPP) is a subtype of psoriasis	first	described	by	Griffiths	et	al	(2007).	It	resembles	guttate	psoriasis but lesions are larger, are chronic, and are not associated with streptococcal infection. We have observed SPP develop in four	different	population	groups;	patients	under	TNFα-inhibitor	therapy, patients under immune checkpoint inhibitor (ICI) therapy, and patients with concurrent SLE or ANA positivity and psoriasis. Subtypes of psoriasis develop on a spectrum between autoimmune	and	auto-inflammatory	responses	and	an	interplay	between three signalling pathways are involved in their distinct pathogenesis. Chronic plaque psoriasis lesions are on the autoimmune	spectrum,	dominated	by	a	T-cell	mediated	TNFα/IL-23/IL-17/IL-22	axis.	Pustular	psoriasis	is	a	neutrophilic	infiltrative	inflammatory	skin	disease	resulting	from	dysregulation	of	the	IL-36/IL-1	axis.	Lastly,	TNFα-inhibitor	(TNFi)	induced	lesions	have a SPP morphology and demonstrate increased expression of LL37 by keratinocytes, activated plasmacytoid dendritic cells and upregulated type-1 interferons (IFN). These lesions express fewer epidermal CD8 T cells.Objectives:  Our  aim  is  to  characterize  the  immune-phenotype of SPP in multiple clinical scenarios. We hypothesize that SPP develops  as  a  result  of  increased  expression  of  cytokines  and antimicrobial peptides involved in the type-1 IFN pathway.Methods: Skin biopsies were obtained from three patients with TNFi-induced  psoriasis,  three  patients  with  SLE  and  psoriasis, three patients with positive ANA and psoriasis, two patients with ICI-induced psoriasis and two patients with chronic plaque psoriasis as control. Immunohistochemistry was performed using antibodies against type-1 IFN induced MXA, LL37, IL-36 and CD8 T cells. The intensity and the area of positively stained samples were each	graded	from	0–4	and	then	multiplied	to	provide	a	final	score.	Results: Small plaque lesions in various clinical scenarios had histologic changes consistent with psoriasis.. Immunohistochemical evaluation revealed an increased expression of MXA (TNFi = 14, SLE = 13.3, ANA = 11.3, ICI = 16 vs. control = 6, t-test p &lt; 0.05), LL37 (TNFi = 10.8, SLE = 6, ANA = 9.7, ICI = 12 vs. control = 2, t-test  p &lt; 0.05)  and  IL-36  (TNFi = 10.5,  SLE = 13.3, ANA = 11, ICI = 7,  control = 0.25,  t-test  p &lt; 0.05)  in  the  keratinocytes  of SPP patients. There was decreased CD8 T cell migration to the epidermis in SPP compared to control.Conclusion:  This  is  the  first  study  to  describe  the  immunephenotype of SPP and to extend the phenotype observed in TNFi induced  psoriasis  to  varying  clinical  scenarios.  There  was  an increased expression of MXA, LL-37 and IL-36 as well as fewer epidermal CD8 T cells than in chronic plaque psoriasis consistent with the type-1 IFN pathway of psoriasis pathogenesis. This immune-phenotypic  analysis  may  suggest  tailored  therapy  for this form of psoriasis.</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="7" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
         <is>
           <t>Jan Dutz</t>
         </is>
       </c>
-      <c r="B13" s="7" t="inlineStr">
+      <c r="B14" s="2" t="inlineStr">
         <is>
           <t>Department of Undergraduate Medical Program, Faculty of Medicine, Department of Dermatology, and Skin Science and Department of Pat-hology and Laboratory Medicine, University of British Columbia, Depart-ment of Dermatology, Pontifical Catholic University of Chile</t>
         </is>
       </c>
-      <c r="C13" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Pontifical Catholic University of Chile</t>
-        </is>
-      </c>
-      <c r="D13" s="7" t="inlineStr">
+      <c r="C14" s="2" t="inlineStr"/>
+      <c r="D14" s="2" t="inlineStr">
         <is>
           <t>P102</t>
         </is>
       </c>
-      <c r="E13" s="7" t="inlineStr">
+      <c r="E14" s="2" t="inlineStr">
         <is>
           <t>THE IMMUNE­PHENOTYPE OF SMALL PLAQUE PSORIASIS</t>
         </is>
       </c>
-      <c r="F13" s="7" t="inlineStr">
+      <c r="F14" s="2" t="inlineStr">
         <is>
           <t>Introduction: Small plaque psoriasis (SPP) is a subtype of psoriasis	first	described	by	Griffiths	et	al	(2007).	It	resembles	guttate	psoriasis but lesions are larger, are chronic, and are not associated with streptococcal infection. We have observed SPP develop in four	different	population	groups;	patients	under	TNFα-inhibitor	therapy, patients under immune checkpoint inhibitor (ICI) therapy, and patients with concurrent SLE or ANA positivity and psoriasis. Subtypes of psoriasis develop on a spectrum between autoimmune	and	auto-inflammatory	responses	and	an	interplay	between three signalling pathways are involved in their distinct pathogenesis. Chronic plaque psoriasis lesions are on the autoimmune	spectrum,	dominated	by	a	T-cell	mediated	TNFα/IL-23/IL-17/IL-22	axis.	Pustular	psoriasis	is	a	neutrophilic	infiltrative	inflammatory	skin	disease	resulting	from	dysregulation	of	the	IL-36/IL-1	axis.	Lastly,	TNFα-inhibitor	(TNFi)	induced	lesions	have a SPP morphology and demonstrate increased expression of LL37 by keratinocytes, activated plasmacytoid dendritic cells and upregulated type-1 interferons (IFN). These lesions express fewer epidermal CD8 T cells.Objectives:  Our  aim  is  to  characterize  the  immune-phenotype of SPP in multiple clinical scenarios. We hypothesize that SPP develops  as  a  result  of  increased  expression  of  cytokines  and antimicrobial peptides involved in the type-1 IFN pathway.Methods: Skin biopsies were obtained from three patients with TNFi-induced  psoriasis,  three  patients  with  SLE  and  psoriasis, three patients with positive ANA and psoriasis, two patients with ICI-induced psoriasis and two patients with chronic plaque psoriasis as control. Immunohistochemistry was performed using antibodies against type-1 IFN induced MXA, LL37, IL-36 and CD8 T cells. The intensity and the area of positively stained samples were each	graded	from	0–4	and	then	multiplied	to	provide	a	final	score.	Results: Small plaque lesions in various clinical scenarios had histologic changes consistent with psoriasis.. Immunohistochemical evaluation revealed an increased expression of MXA (TNFi = 14, SLE = 13.3, ANA = 11.3, ICI = 16 vs. control = 6, t-test p &lt; 0.05), LL37 (TNFi = 10.8, SLE = 6, ANA = 9.7, ICI = 12 vs. control = 2, t-test  p &lt; 0.05)  and  IL-36  (TNFi = 10.5,  SLE = 13.3, ANA = 11, ICI = 7,  control = 0.25,  t-test  p &lt; 0.05)  in  the  keratinocytes  of SPP patients. There was decreased CD8 T cell migration to the epidermis in SPP compared to control.Conclusion:  This  is  the  first  study  to  describe  the  immunephenotype of SPP and to extend the phenotype observed in TNFi induced  psoriasis  to  varying  clinical  scenarios.  There  was  an increased expression of MXA, LL-37 and IL-36 as well as fewer epidermal CD8 T cells than in chronic plaque psoriasis consistent with the type-1 IFN pathway of psoriasis pathogenesis. This immune-phenotypic  analysis  may  suggest  tailored  therapy  for this form of psoriasis.</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="7" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
         <is>
           <t>Goksal Keskin</t>
         </is>
       </c>
-      <c r="B14" s="7" t="inlineStr">
+      <c r="B15" s="2" t="inlineStr">
         <is>
           <t>Department of Immunology, Medical School of Ankara University, De-partment of Immunology, Medical School of Baskent University, Depart-ment of FTR, Medical School of Kırıkkale University</t>
         </is>
       </c>
-      <c r="C14" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Medical School of Kırıkkale University</t>
-        </is>
-      </c>
-      <c r="D14" s="7" t="inlineStr">
+      <c r="C15" s="2" t="inlineStr"/>
+      <c r="D15" s="2" t="inlineStr">
         <is>
           <t>P104</t>
         </is>
       </c>
-      <c r="E14" s="7" t="inlineStr">
+      <c r="E15" s="2" t="inlineStr">
         <is>
           <t>SERUM GLUCOCORTICOID­INDUCIBLE KINASE­1(SGK1) LEVELS IN PATIENTS WITH PSORIATIC ARTHRITIS</t>
         </is>
       </c>
-      <c r="F14" s="7" t="inlineStr">
+      <c r="F15" s="2" t="inlineStr">
         <is>
           <t>Introduction: Psoriatic	arthritis	(PsA)	is	an	inflammatory	rheumatic disorder that occurs in patients with psoriasis. The etiology of PsA is not well understood but evidence supports an interplay of genetic, immunologic, and environmental factors which promote pathological  bone  remodeling  and  joint  damage  in  PsA.  The glucocorticoid-inducible  kinase-1(SGK1)  is  genomically  upregulated by cell stress. However, excessive SGK1 expression and activity participates in the pathophysiology of several disorders, such	as	inflammation,	autoimmune	disease,	fibrosis,	hypertension,	thrombosis and tumor growth. Objectives: In this study, we analyzed the possible role of serum SGK-1 levels in the pathogenesis of psoriatic arthritis.Methods:  56  patients  with  psoriasis  (40  patients  with  psoriatic arthritis; 16 female, 24 male, mean age; 46.7 ± 6.5 years, mean disease duration 17.7 ± 4.3 years and 16 patients without arthritis; 8 female, 8 male, mean age; 43.2 ± 1.9 years, mean disease duration; 14.1 ± 3.9 years) and 19 healthy controls (11 female, 8 male; mean age 41.3 ± 4.7 years) were enrolled in this study. Oligoarthritis was the commonest clinical presentation (76.4 %). Dactylitis (73.4%) and  enthesitis  (48.1%)  were  frequent  extra-articular  features. All patients were negative for rheumatoid factor. HLA-B27 was negative  in  14  patients.  Serum  SGK-1  levels  were  determined by ELISA.Results: The mean serum SGK-1 levels were 58.4 ± 18.1 pg/ml in healthy controls, 163.7 ± 27.8 pg/ml in patients without arthritis and 443.9 ± 32.1 pg/ml in patients with arthritis. Serum SGK-1 levels	were	significantly	high	in	patients	with	psoriasis	compared	with healthy controls (p &lt; 0.001). Serum SGK-1 levels were significantly	high	in	patients	with	psoriatic	arthritis	compared	with	in patients without psoriatic arthritis (p &lt; 0.001).Conclusions: The evidence is strong that immunological mechanisms are involved in the pathogenesis of psoriasis. In this study, we	 demonstrated	 that	 serum	 SGK-1	 levels	 were	 significantly	elevated in patients with psoriasis and psoriatic arthritis.43</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="7" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
         <is>
           <t>Ali Inal</t>
         </is>
       </c>
-      <c r="B15" s="7" t="inlineStr">
+      <c r="B16" s="2" t="inlineStr">
         <is>
           <t>Department of Immunology, Medical School of Ankara University, De-partment of Immunology, Medical School of Baskent University, Depart-ment of FTR, Medical School of Kırıkkale University</t>
         </is>
       </c>
-      <c r="C15" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Medical School of Kırıkkale University</t>
-        </is>
-      </c>
-      <c r="D15" s="7" t="inlineStr">
+      <c r="C16" s="2" t="inlineStr"/>
+      <c r="D16" s="2" t="inlineStr">
         <is>
           <t>P104</t>
         </is>
       </c>
-      <c r="E15" s="7" t="inlineStr">
+      <c r="E16" s="2" t="inlineStr">
         <is>
           <t>SERUM GLUCOCORTICOID­INDUCIBLE KINASE­1(SGK1) LEVELS IN PATIENTS WITH PSORIATIC ARTHRITIS</t>
         </is>
       </c>
-      <c r="F15" s="7" t="inlineStr">
+      <c r="F16" s="2" t="inlineStr">
         <is>
           <t>Introduction: Psoriatic	arthritis	(PsA)	is	an	inflammatory	rheumatic disorder that occurs in patients with psoriasis. The etiology of PsA is not well understood but evidence supports an interplay of genetic, immunologic, and environmental factors which promote pathological  bone  remodeling  and  joint  damage  in  PsA.  The glucocorticoid-inducible  kinase-1(SGK1)  is  genomically  upregulated by cell stress. However, excessive SGK1 expression and activity participates in the pathophysiology of several disorders, such	as	inflammation,	autoimmune	disease,	fibrosis,	hypertension,	thrombosis and tumor growth. Objectives: In this study, we analyzed the possible role of serum SGK-1 levels in the pathogenesis of psoriatic arthritis.Methods:  56  patients  with  psoriasis  (40  patients  with  psoriatic arthritis; 16 female, 24 male, mean age; 46.7 ± 6.5 years, mean disease duration 17.7 ± 4.3 years and 16 patients without arthritis; 8 female, 8 male, mean age; 43.2 ± 1.9 years, mean disease duration; 14.1 ± 3.9 years) and 19 healthy controls (11 female, 8 male; mean age 41.3 ± 4.7 years) were enrolled in this study. Oligoarthritis was the commonest clinical presentation (76.4 %). Dactylitis (73.4%) and  enthesitis  (48.1%)  were  frequent  extra-articular  features. All patients were negative for rheumatoid factor. HLA-B27 was negative  in  14  patients.  Serum  SGK-1  levels  were  determined by ELISA.Results: The mean serum SGK-1 levels were 58.4 ± 18.1 pg/ml in healthy controls, 163.7 ± 27.8 pg/ml in patients without arthritis and 443.9 ± 32.1 pg/ml in patients with arthritis. Serum SGK-1 levels	were	significantly	high	in	patients	with	psoriasis	compared	with healthy controls (p &lt; 0.001). Serum SGK-1 levels were significantly	high	in	patients	with	psoriatic	arthritis	compared	with	in patients without psoriatic arthritis (p &lt; 0.001).Conclusions: The evidence is strong that immunological mechanisms are involved in the pathogenesis of psoriasis. In this study, we	 demonstrated	 that	 serum	 SGK-1	 levels	 were	 significantly	elevated in patients with psoriasis and psoriatic arthritis.43</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="7" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
         <is>
           <t>Esra Dilek Keskin</t>
         </is>
       </c>
-      <c r="B16" s="7" t="inlineStr">
+      <c r="B17" s="2" t="inlineStr">
         <is>
           <t>Department of Immunology, Medical School of Ankara University, De-partment of Immunology, Medical School of Baskent University, Depart-ment of FTR, Medical School of Kırıkkale University</t>
         </is>
       </c>
-      <c r="C16" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Medical School of Kırıkkale University</t>
-        </is>
-      </c>
-      <c r="D16" s="7" t="inlineStr">
+      <c r="C17" s="2" t="inlineStr"/>
+      <c r="D17" s="2" t="inlineStr">
         <is>
           <t>P104</t>
         </is>
       </c>
-      <c r="E16" s="7" t="inlineStr">
+      <c r="E17" s="2" t="inlineStr">
         <is>
           <t>SERUM GLUCOCORTICOID­INDUCIBLE KINASE­1(SGK1) LEVELS IN PATIENTS WITH PSORIATIC ARTHRITIS</t>
         </is>
       </c>
-      <c r="F16" s="7" t="inlineStr">
+      <c r="F17" s="2" t="inlineStr">
         <is>
           <t>Introduction: Psoriatic	arthritis	(PsA)	is	an	inflammatory	rheumatic disorder that occurs in patients with psoriasis. The etiology of PsA is not well understood but evidence supports an interplay of genetic, immunologic, and environmental factors which promote pathological  bone  remodeling  and  joint  damage  in  PsA.  The glucocorticoid-inducible  kinase-1(SGK1)  is  genomically  upregulated by cell stress. However, excessive SGK1 expression and activity participates in the pathophysiology of several disorders, such	as	inflammation,	autoimmune	disease,	fibrosis,	hypertension,	thrombosis and tumor growth. Objectives: In this study, we analyzed the possible role of serum SGK-1 levels in the pathogenesis of psoriatic arthritis.Methods:  56  patients  with  psoriasis  (40  patients  with  psoriatic arthritis; 16 female, 24 male, mean age; 46.7 ± 6.5 years, mean disease duration 17.7 ± 4.3 years and 16 patients without arthritis; 8 female, 8 male, mean age; 43.2 ± 1.9 years, mean disease duration; 14.1 ± 3.9 years) and 19 healthy controls (11 female, 8 male; mean age 41.3 ± 4.7 years) were enrolled in this study. Oligoarthritis was the commonest clinical presentation (76.4 %). Dactylitis (73.4%) and  enthesitis  (48.1%)  were  frequent  extra-articular  features. All patients were negative for rheumatoid factor. HLA-B27 was negative  in  14  patients.  Serum  SGK-1  levels  were  determined by ELISA.Results: The mean serum SGK-1 levels were 58.4 ± 18.1 pg/ml in healthy controls, 163.7 ± 27.8 pg/ml in patients without arthritis and 443.9 ± 32.1 pg/ml in patients with arthritis. Serum SGK-1 levels	were	significantly	high	in	patients	with	psoriasis	compared	with healthy controls (p &lt; 0.001). Serum SGK-1 levels were significantly	high	in	patients	with	psoriatic	arthritis	compared	with	in patients without psoriatic arthritis (p &lt; 0.001).Conclusions: The evidence is strong that immunological mechanisms are involved in the pathogenesis of psoriasis. In this study, we	 demonstrated	 that	 serum	 SGK-1	 levels	 were	 significantly	elevated in patients with psoriasis and psoriatic arthritis.43</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="7" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
         <is>
           <t>Umit Olmez</t>
         </is>
       </c>
-      <c r="B17" s="7" t="inlineStr">
+      <c r="B18" s="2" t="inlineStr">
         <is>
           <t>Department of Immunology, Medical School of Ankara University, De-partment of Immunology, Medical School of Baskent University, Depart-ment of FTR, Medical School of Kırıkkale University</t>
         </is>
       </c>
-      <c r="C17" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Medical School of Kırıkkale University</t>
-        </is>
-      </c>
-      <c r="D17" s="7" t="inlineStr">
+      <c r="C18" s="2" t="inlineStr"/>
+      <c r="D18" s="2" t="inlineStr">
         <is>
           <t>P104</t>
         </is>
       </c>
-      <c r="E17" s="7" t="inlineStr">
+      <c r="E18" s="2" t="inlineStr">
         <is>
           <t>SERUM GLUCOCORTICOID­INDUCIBLE KINASE­1(SGK1) LEVELS IN PATIENTS WITH PSORIATIC ARTHRITIS</t>
         </is>
       </c>
-      <c r="F17" s="7" t="inlineStr">
+      <c r="F18" s="2" t="inlineStr">
         <is>
           <t>Introduction: Psoriatic	arthritis	(PsA)	is	an	inflammatory	rheumatic disorder that occurs in patients with psoriasis. The etiology of PsA is not well understood but evidence supports an interplay of genetic, immunologic, and environmental factors which promote pathological  bone  remodeling  and  joint  damage  in  PsA.  The glucocorticoid-inducible  kinase-1(SGK1)  is  genomically  upregulated by cell stress. However, excessive SGK1 expression and activity participates in the pathophysiology of several disorders, such	as	inflammation,	autoimmune	disease,	fibrosis,	hypertension,	thrombosis and tumor growth. Objectives: In this study, we analyzed the possible role of serum SGK-1 levels in the pathogenesis of psoriatic arthritis.Methods:  56  patients  with  psoriasis  (40  patients  with  psoriatic arthritis; 16 female, 24 male, mean age; 46.7 ± 6.5 years, mean disease duration 17.7 ± 4.3 years and 16 patients without arthritis; 8 female, 8 male, mean age; 43.2 ± 1.9 years, mean disease duration; 14.1 ± 3.9 years) and 19 healthy controls (11 female, 8 male; mean age 41.3 ± 4.7 years) were enrolled in this study. Oligoarthritis was the commonest clinical presentation (76.4 %). Dactylitis (73.4%) and  enthesitis  (48.1%)  were  frequent  extra-articular  features. All patients were negative for rheumatoid factor. HLA-B27 was negative  in  14  patients.  Serum  SGK-1  levels  were  determined by ELISA.Results: The mean serum SGK-1 levels were 58.4 ± 18.1 pg/ml in healthy controls, 163.7 ± 27.8 pg/ml in patients without arthritis and 443.9 ± 32.1 pg/ml in patients with arthritis. Serum SGK-1 levels	were	significantly	high	in	patients	with	psoriasis	compared	with healthy controls (p &lt; 0.001). Serum SGK-1 levels were significantly	high	in	patients	with	psoriatic	arthritis	compared	with	in patients without psoriatic arthritis (p &lt; 0.001).Conclusions: The evidence is strong that immunological mechanisms are involved in the pathogenesis of psoriasis. In this study, we	 demonstrated	 that	 serum	 SGK-1	 levels	 were	 significantly	elevated in patients with psoriasis and psoriatic arthritis.43</t>
         </is>
@@ -1144,6 +1085,5 @@
     <mergeCell ref="D1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="0" fitToWidth="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" cellComments="asDisplayed" errors="displayed"/>
 </worksheet>
 </file>
--- a/Data Entry - 5th World Psoriasis & Psoriatic Arthritis Conference 2018 - Case format (2).xlsx
+++ b/Data Entry - 5th World Psoriasis & Psoriatic Arthritis Conference 2018 - Case format (2).xlsx
@@ -517,7 +517,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F259"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -739,12 +739,12 @@
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>Institute of Dermatology and Venereology</t>
+          <t>Institute of Dermatology and Venereology, Sichuan Academy of Medical Sciences &amp; Sichuan Provincial People’s Hospital</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>Sichuan Academy of Medical Sciences &amp; Sichuan Provincial People’s Hospital</t>
+          <t>Institute of Dermatology and Venereology, Sichuan Academy of Medical Sciences &amp; Sichuan Provincial People’s Hospital</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -771,14 +771,10 @@
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>University of Michigan</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>MI State</t>
-        </is>
-      </c>
+          <t>University of Michigan, MI State</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr"/>
       <c r="D8" s="2" t="inlineStr">
         <is>
           <t>P101</t>
@@ -803,14 +799,10 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>University of Michigan</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>MI State</t>
-        </is>
-      </c>
+          <t>University of Michigan, MI State</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr"/>
       <c r="D9" s="2" t="inlineStr">
         <is>
           <t>P101</t>
@@ -1076,6 +1068,7502 @@
       <c r="F18" s="2" t="inlineStr">
         <is>
           <t>Introduction: Psoriatic	arthritis	(PsA)	is	an	inflammatory	rheumatic disorder that occurs in patients with psoriasis. The etiology of PsA is not well understood but evidence supports an interplay of genetic, immunologic, and environmental factors which promote pathological  bone  remodeling  and  joint  damage  in  PsA.  The glucocorticoid-inducible  kinase-1(SGK1)  is  genomically  upregulated by cell stress. However, excessive SGK1 expression and activity participates in the pathophysiology of several disorders, such	as	inflammation,	autoimmune	disease,	fibrosis,	hypertension,	thrombosis and tumor growth. Objectives: In this study, we analyzed the possible role of serum SGK-1 levels in the pathogenesis of psoriatic arthritis.Methods:  56  patients  with  psoriasis  (40  patients  with  psoriatic arthritis; 16 female, 24 male, mean age; 46.7 ± 6.5 years, mean disease duration 17.7 ± 4.3 years and 16 patients without arthritis; 8 female, 8 male, mean age; 43.2 ± 1.9 years, mean disease duration; 14.1 ± 3.9 years) and 19 healthy controls (11 female, 8 male; mean age 41.3 ± 4.7 years) were enrolled in this study. Oligoarthritis was the commonest clinical presentation (76.4 %). Dactylitis (73.4%) and  enthesitis  (48.1%)  were  frequent  extra-articular  features. All patients were negative for rheumatoid factor. HLA-B27 was negative  in  14  patients.  Serum  SGK-1  levels  were  determined by ELISA.Results: The mean serum SGK-1 levels were 58.4 ± 18.1 pg/ml in healthy controls, 163.7 ± 27.8 pg/ml in patients without arthritis and 443.9 ± 32.1 pg/ml in patients with arthritis. Serum SGK-1 levels	were	significantly	high	in	patients	with	psoriasis	compared	with healthy controls (p &lt; 0.001). Serum SGK-1 levels were significantly	high	in	patients	with	psoriatic	arthritis	compared	with	in patients without psoriatic arthritis (p &lt; 0.001).Conclusions: The evidence is strong that immunological mechanisms are involved in the pathogenesis of psoriasis. In this study, we	 demonstrated	 that	 serum	 SGK-1	 levels	 were	 significantly	elevated in patients with psoriasis and psoriatic arthritis.43</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>Akiko Arakawa</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>Ludwig-Maximilian-University, Southampton General Hospital Ludwig Maximilian University</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr"/>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>P105</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>DIFFERENTIAL NH2­TERMINAL AUTOANTIGEN TRIMMING MAY EXPLAIN EPISTASIS BETWEEN HLA­C*06:02 AND ERAP1 VARIANTS IN PSORIASIS RISK ENVIRONMENTAL TRIGGERS OF AN HLA­C*06:02­RESTRICTED AUTOIMMUNE RESPONSE IN PSORIASIS</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>Introduction: NH2-terminal trimming by endoplasmic reticulum aminopeptidase 1 (ERAP1) generates the appropriate length of antigenic peptides for binding to and presentation by HLA-class I  molecules.  Genetic  interaction  between  ERAP1  variants  and HLA-class I alleles determines the genetic risk for various HLAclass	I-associated	inflammatory	diseases.	Epistasis	between	HLAC*06:02 and ERAP1 variants affects also psoriasis risk but the mechanisms of these gene interactions remained unknown. Using a	pathogenic	Vα3S1/Vβ13S1-TCR	from	a	psoriatic	CD8+	T-cell	clone we had shown that in psoriasis, HLA-C*06:02 mediates an autoimmune response against melanocytes through autoantigen presentation	and	we	had	identified	a	peptide	from	ADAMTS-like	protein 5 (ADAMTSL5) as HLA-C*06:02-presented melanocyte autoantigen.Objectives: To determine the role of ERAP1 variants in psoriasis pathogenesis. Methods: We established ERAP1 knockout cells using CRISPR/Cas9 system. ERAP1 knockout cells transfected with plasmids coding for HLA-C*06:02, ERAP1 variants, and antigenic peptides  were  co-cultured  with  the  TCR  hybridoma  to  determine the	 levels	 of	 TCR	 ligation	 which	 reflect	 the	 generation	 of	 the	antigenic	ADAMTSL5	peptide	and	other	Vα3S1/Vβ13S1-TCR	ligands from precursors.Results: Our data show that NH2-terminal trimming by ERPA1 is required to generate the actual antigenic ADAMTSL5 peptide from  NH2-terminally  elongated  precursors. An  ERAP1  variant protecting  from  psoriasis  reduced  the  immunogenicity  of  the antigenic ADAMTSL5 peptide presumably through overtrimming and peptide destruction, whereas a psoriasis risk variant of ERAP1 highly kept the antigenicity of the autoantigen. This effect was specific	 for	ADAMTSL5.	 Precursors	 of	 other	 Vα3S1/Vβ13S1TCR self-ligands were not substrates of ERAP1. Conclusions: Using a proven psoriatic autoantigen and a cognate psoriatic  TCR,  these  experiments  provide  direct  evidence  that gene-gene interaction between ERAP1 and HLA-C*06:02 affects the  risk  for  psoriasis  through  differential  autoantigen  trimming from precursors. These data furthermore propose a model where ERAP1 function essentially controls the autoantigenic potential of self-peptides in HLA-class I associated CD8+ T-cell mediated autoimmune diseases.P106Introduction: Psoriasis vulgaris is a multifactorial disease. While the major psoriasis risk gene HLA-C*06:02 accounts for up to 50%  of  disease  onset,  environmental  factors  are  considered  to contribute to approximately 30% of disease risk. Psoriatic skin inflammation	is	driven	by	an	HLA-C*06:02-mediated	autoimmune	response	against	melanocytes.	A	pathogenic	Vα3S1/Vβ13S1	T-cell	receptor (TCR), which we had reconstituted from a lesional epidermal CD8+ T-cell clone of an HLA-C*06:02–positive psoriasis patient	in	a	mouse	reporter	hybridoma	cell	line,	specifically	reacts	against melanocytes through HLA-C*06:02 restricted recognition of a psoriatic melanocyte autoantigen, ADAMTS-like protein 5 (ADAMTSL5). However, it is unknown whether and how environ44mental factors may contribute to autoimmunity in psoriasis. TCRs are	known	to	be	polyspecific,	recognizing	multiple	peptide	ligands	which	share	a	conserved	amino	acid	pattern	specific	for	each	TCR.Objectives: To examine the potential role of environmental factors in the psoriatic autoimmune response.Methods:	 We	 first	 determined	 the	 particular	 amino	 acid	 motif	which	 is	 recognized	 by	 the	 psoriatic	 Vα3S1/Vβ13S1	 TCR	 in	the context of HLA-C*06:02. By homology searches using this conserved  amino  acid  pattern,  we  selected  57  peptides  from food, bacterial, fungal and viral pathogens and from the skin and intestinal microbiomes as candidate environmental antigens that may trigger the psoriatic autoimmune response. We cloned the peptides into expression plasmids, co-transfected them with HLAC*06:02	into	Cos7	cells	and	used	them	to	stimulate	the	Vα3S1/Vβ13S1	TCR.	TCR	ligation	was	determined	by	GFP	induction	of TCR hybridoma in FACS analysis. We then stimulated blood lymphocytes  with  the  candidate  peptides  that  had  ligated  the Vα3S1/Vβ13S1	TCR.	 Lymphocyte	 activation	 was	 assessed	 by	induction  of  activation  markers  and  proliferation  assays  using thymidine incorporation.Results: We	identified	a	variety	of	peptides	contained	in	proteins	from food (wheat, coffee, apple, and spinach), microbiota of human skin or gut, and infectious pathogens including Chlamydia trachomatis,	 which	 ligated	 the	 psoriatic	TCR	 in	 a	 polyspecific	manner. Stimulation of blood lymphocytes with particular candidate	antigens	resulted	in	significant	activation	in	psoriasis	patients,	as  compared  to  healthy  individuals.  Interindividual-correlation analyses demonstrated cross-reactive immune responses between environmental antigens and the melanocyte autoantigen presented by HLA-C*06:02 in psoriasis patients. Among the candidate antigens, wheat peptides induced most robust lymphocyte activations	in	psoriasis	patients.	Moreover,	psoriasis	was	significantly	improved by wheat-free diet in several patients with lymphocytes responding to wheat, indicating potential pathogenic contribution of wheat antigens in psoriasis.Conclusions: Our results provide unbiased evidence that several environmental  antigens  may  trigger  the  melanocyte-specific autoimmune response in psoriasis. By identifying and avoiding those triggers at the molecular level which translate the genetic predisposition into disease manifestation, we may develop strategies to prevent disease onset and exacerbation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>Emma Reeves</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>Ludwig-Maximilian-University, Southampton General Hospital Ludwig Maximilian University</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr"/>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>P105</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>DIFFERENTIAL NH2­TERMINAL AUTOANTIGEN TRIMMING MAY EXPLAIN EPISTASIS BETWEEN HLA­C*06:02 AND ERAP1 VARIANTS IN PSORIASIS RISK ENVIRONMENTAL TRIGGERS OF AN HLA­C*06:02­RESTRICTED AUTOIMMUNE RESPONSE IN PSORIASIS</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>Introduction: NH2-terminal trimming by endoplasmic reticulum aminopeptidase 1 (ERAP1) generates the appropriate length of antigenic peptides for binding to and presentation by HLA-class I  molecules.  Genetic  interaction  between  ERAP1  variants  and HLA-class I alleles determines the genetic risk for various HLAclass	I-associated	inflammatory	diseases.	Epistasis	between	HLAC*06:02 and ERAP1 variants affects also psoriasis risk but the mechanisms of these gene interactions remained unknown. Using a	pathogenic	Vα3S1/Vβ13S1-TCR	from	a	psoriatic	CD8+	T-cell	clone we had shown that in psoriasis, HLA-C*06:02 mediates an autoimmune response against melanocytes through autoantigen presentation	and	we	had	identified	a	peptide	from	ADAMTS-like	protein 5 (ADAMTSL5) as HLA-C*06:02-presented melanocyte autoantigen.Objectives: To determine the role of ERAP1 variants in psoriasis pathogenesis. Methods: We established ERAP1 knockout cells using CRISPR/Cas9 system. ERAP1 knockout cells transfected with plasmids coding for HLA-C*06:02, ERAP1 variants, and antigenic peptides  were  co-cultured  with  the  TCR  hybridoma  to  determine the	 levels	 of	 TCR	 ligation	 which	 reflect	 the	 generation	 of	 the	antigenic	ADAMTSL5	peptide	and	other	Vα3S1/Vβ13S1-TCR	ligands from precursors.Results: Our data show that NH2-terminal trimming by ERPA1 is required to generate the actual antigenic ADAMTSL5 peptide from  NH2-terminally  elongated  precursors. An  ERAP1  variant protecting  from  psoriasis  reduced  the  immunogenicity  of  the antigenic ADAMTSL5 peptide presumably through overtrimming and peptide destruction, whereas a psoriasis risk variant of ERAP1 highly kept the antigenicity of the autoantigen. This effect was specific	 for	ADAMTSL5.	 Precursors	 of	 other	 Vα3S1/Vβ13S1TCR self-ligands were not substrates of ERAP1. Conclusions: Using a proven psoriatic autoantigen and a cognate psoriatic  TCR,  these  experiments  provide  direct  evidence  that gene-gene interaction between ERAP1 and HLA-C*06:02 affects the  risk  for  psoriasis  through  differential  autoantigen  trimming from precursors. These data furthermore propose a model where ERAP1 function essentially controls the autoantigenic potential of self-peptides in HLA-class I associated CD8+ T-cell mediated autoimmune diseases.P106Introduction: Psoriasis vulgaris is a multifactorial disease. While the major psoriasis risk gene HLA-C*06:02 accounts for up to 50%  of  disease  onset,  environmental  factors  are  considered  to contribute to approximately 30% of disease risk. Psoriatic skin inflammation	is	driven	by	an	HLA-C*06:02-mediated	autoimmune	response	against	melanocytes.	A	pathogenic	Vα3S1/Vβ13S1	T-cell	receptor (TCR), which we had reconstituted from a lesional epidermal CD8+ T-cell clone of an HLA-C*06:02–positive psoriasis patient	in	a	mouse	reporter	hybridoma	cell	line,	specifically	reacts	against melanocytes through HLA-C*06:02 restricted recognition of a psoriatic melanocyte autoantigen, ADAMTS-like protein 5 (ADAMTSL5). However, it is unknown whether and how environ44mental factors may contribute to autoimmunity in psoriasis. TCRs are	known	to	be	polyspecific,	recognizing	multiple	peptide	ligands	which	share	a	conserved	amino	acid	pattern	specific	for	each	TCR.Objectives: To examine the potential role of environmental factors in the psoriatic autoimmune response.Methods:	 We	 first	 determined	 the	 particular	 amino	 acid	 motif	which	 is	 recognized	 by	 the	 psoriatic	 Vα3S1/Vβ13S1	 TCR	 in	the context of HLA-C*06:02. By homology searches using this conserved  amino  acid  pattern,  we  selected  57  peptides  from food, bacterial, fungal and viral pathogens and from the skin and intestinal microbiomes as candidate environmental antigens that may trigger the psoriatic autoimmune response. We cloned the peptides into expression plasmids, co-transfected them with HLAC*06:02	into	Cos7	cells	and	used	them	to	stimulate	the	Vα3S1/Vβ13S1	TCR.	TCR	ligation	was	determined	by	GFP	induction	of TCR hybridoma in FACS analysis. We then stimulated blood lymphocytes  with  the  candidate  peptides  that  had  ligated  the Vα3S1/Vβ13S1	TCR.	 Lymphocyte	 activation	 was	 assessed	 by	induction  of  activation  markers  and  proliferation  assays  using thymidine incorporation.Results: We	identified	a	variety	of	peptides	contained	in	proteins	from food (wheat, coffee, apple, and spinach), microbiota of human skin or gut, and infectious pathogens including Chlamydia trachomatis,	 which	 ligated	 the	 psoriatic	TCR	 in	 a	 polyspecific	manner. Stimulation of blood lymphocytes with particular candidate	antigens	resulted	in	significant	activation	in	psoriasis	patients,	as  compared  to  healthy  individuals.  Interindividual-correlation analyses demonstrated cross-reactive immune responses between environmental antigens and the melanocyte autoantigen presented by HLA-C*06:02 in psoriasis patients. Among the candidate antigens, wheat peptides induced most robust lymphocyte activations	in	psoriasis	patients.	Moreover,	psoriasis	was	significantly	improved by wheat-free diet in several patients with lymphocytes responding to wheat, indicating potential pathogenic contribution of wheat antigens in psoriasis.Conclusions: Our results provide unbiased evidence that several environmental  antigens  may  trigger  the  melanocyte-specific autoimmune response in psoriasis. By identifying and avoiding those triggers at the molecular level which translate the genetic predisposition into disease manifestation, we may develop strategies to prevent disease onset and exacerbation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>Sigrid Vollmer</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>Ludwig-Maximilian-University, Southampton General Hospital Ludwig Maximilian University</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr"/>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>P105</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>DIFFERENTIAL NH2­TERMINAL AUTOANTIGEN TRIMMING MAY EXPLAIN EPISTASIS BETWEEN HLA­C*06:02 AND ERAP1 VARIANTS IN PSORIASIS RISK ENVIRONMENTAL TRIGGERS OF AN HLA­C*06:02­RESTRICTED AUTOIMMUNE RESPONSE IN PSORIASIS</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>Introduction: NH2-terminal trimming by endoplasmic reticulum aminopeptidase 1 (ERAP1) generates the appropriate length of antigenic peptides for binding to and presentation by HLA-class I  molecules.  Genetic  interaction  between  ERAP1  variants  and HLA-class I alleles determines the genetic risk for various HLAclass	I-associated	inflammatory	diseases.	Epistasis	between	HLAC*06:02 and ERAP1 variants affects also psoriasis risk but the mechanisms of these gene interactions remained unknown. Using a	pathogenic	Vα3S1/Vβ13S1-TCR	from	a	psoriatic	CD8+	T-cell	clone we had shown that in psoriasis, HLA-C*06:02 mediates an autoimmune response against melanocytes through autoantigen presentation	and	we	had	identified	a	peptide	from	ADAMTS-like	protein 5 (ADAMTSL5) as HLA-C*06:02-presented melanocyte autoantigen.Objectives: To determine the role of ERAP1 variants in psoriasis pathogenesis. Methods: We established ERAP1 knockout cells using CRISPR/Cas9 system. ERAP1 knockout cells transfected with plasmids coding for HLA-C*06:02, ERAP1 variants, and antigenic peptides  were  co-cultured  with  the  TCR  hybridoma  to  determine the	 levels	 of	 TCR	 ligation	 which	 reflect	 the	 generation	 of	 the	antigenic	ADAMTSL5	peptide	and	other	Vα3S1/Vβ13S1-TCR	ligands from precursors.Results: Our data show that NH2-terminal trimming by ERPA1 is required to generate the actual antigenic ADAMTSL5 peptide from  NH2-terminally  elongated  precursors. An  ERAP1  variant protecting  from  psoriasis  reduced  the  immunogenicity  of  the antigenic ADAMTSL5 peptide presumably through overtrimming and peptide destruction, whereas a psoriasis risk variant of ERAP1 highly kept the antigenicity of the autoantigen. This effect was specific	 for	ADAMTSL5.	 Precursors	 of	 other	 Vα3S1/Vβ13S1TCR self-ligands were not substrates of ERAP1. Conclusions: Using a proven psoriatic autoantigen and a cognate psoriatic  TCR,  these  experiments  provide  direct  evidence  that gene-gene interaction between ERAP1 and HLA-C*06:02 affects the  risk  for  psoriasis  through  differential  autoantigen  trimming from precursors. These data furthermore propose a model where ERAP1 function essentially controls the autoantigenic potential of self-peptides in HLA-class I associated CD8+ T-cell mediated autoimmune diseases.P106Introduction: Psoriasis vulgaris is a multifactorial disease. While the major psoriasis risk gene HLA-C*06:02 accounts for up to 50%  of  disease  onset,  environmental  factors  are  considered  to contribute to approximately 30% of disease risk. Psoriatic skin inflammation	is	driven	by	an	HLA-C*06:02-mediated	autoimmune	response	against	melanocytes.	A	pathogenic	Vα3S1/Vβ13S1	T-cell	receptor (TCR), which we had reconstituted from a lesional epidermal CD8+ T-cell clone of an HLA-C*06:02–positive psoriasis patient	in	a	mouse	reporter	hybridoma	cell	line,	specifically	reacts	against melanocytes through HLA-C*06:02 restricted recognition of a psoriatic melanocyte autoantigen, ADAMTS-like protein 5 (ADAMTSL5). However, it is unknown whether and how environ44mental factors may contribute to autoimmunity in psoriasis. TCRs are	known	to	be	polyspecific,	recognizing	multiple	peptide	ligands	which	share	a	conserved	amino	acid	pattern	specific	for	each	TCR.Objectives: To examine the potential role of environmental factors in the psoriatic autoimmune response.Methods:	 We	 first	 determined	 the	 particular	 amino	 acid	 motif	which	 is	 recognized	 by	 the	 psoriatic	 Vα3S1/Vβ13S1	 TCR	 in	the context of HLA-C*06:02. By homology searches using this conserved  amino  acid  pattern,  we  selected  57  peptides  from food, bacterial, fungal and viral pathogens and from the skin and intestinal microbiomes as candidate environmental antigens that may trigger the psoriatic autoimmune response. We cloned the peptides into expression plasmids, co-transfected them with HLAC*06:02	into	Cos7	cells	and	used	them	to	stimulate	the	Vα3S1/Vβ13S1	TCR.	TCR	ligation	was	determined	by	GFP	induction	of TCR hybridoma in FACS analysis. We then stimulated blood lymphocytes  with  the  candidate  peptides  that  had  ligated  the Vα3S1/Vβ13S1	TCR.	 Lymphocyte	 activation	 was	 assessed	 by	induction  of  activation  markers  and  proliferation  assays  using thymidine incorporation.Results: We	identified	a	variety	of	peptides	contained	in	proteins	from food (wheat, coffee, apple, and spinach), microbiota of human skin or gut, and infectious pathogens including Chlamydia trachomatis,	 which	 ligated	 the	 psoriatic	TCR	 in	 a	 polyspecific	manner. Stimulation of blood lymphocytes with particular candidate	antigens	resulted	in	significant	activation	in	psoriasis	patients,	as  compared  to  healthy  individuals.  Interindividual-correlation analyses demonstrated cross-reactive immune responses between environmental antigens and the melanocyte autoantigen presented by HLA-C*06:02 in psoriasis patients. Among the candidate antigens, wheat peptides induced most robust lymphocyte activations	in	psoriasis	patients.	Moreover,	psoriasis	was	significantly	improved by wheat-free diet in several patients with lymphocytes responding to wheat, indicating potential pathogenic contribution of wheat antigens in psoriasis.Conclusions: Our results provide unbiased evidence that several environmental  antigens  may  trigger  the  melanocyte-specific autoimmune response in psoriasis. By identifying and avoiding those triggers at the molecular level which translate the genetic predisposition into disease manifestation, we may develop strategies to prevent disease onset and exacerbation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>Yukiyasu Ara-kawa</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>Ludwig-Maximilian-University, Southampton General Hospital Ludwig Maximilian University</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr"/>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>P105</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>DIFFERENTIAL NH2­TERMINAL AUTOANTIGEN TRIMMING MAY EXPLAIN EPISTASIS BETWEEN HLA­C*06:02 AND ERAP1 VARIANTS IN PSORIASIS RISK ENVIRONMENTAL TRIGGERS OF AN HLA­C*06:02­RESTRICTED AUTOIMMUNE RESPONSE IN PSORIASIS</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>Introduction: NH2-terminal trimming by endoplasmic reticulum aminopeptidase 1 (ERAP1) generates the appropriate length of antigenic peptides for binding to and presentation by HLA-class I  molecules.  Genetic  interaction  between  ERAP1  variants  and HLA-class I alleles determines the genetic risk for various HLAclass	I-associated	inflammatory	diseases.	Epistasis	between	HLAC*06:02 and ERAP1 variants affects also psoriasis risk but the mechanisms of these gene interactions remained unknown. Using a	pathogenic	Vα3S1/Vβ13S1-TCR	from	a	psoriatic	CD8+	T-cell	clone we had shown that in psoriasis, HLA-C*06:02 mediates an autoimmune response against melanocytes through autoantigen presentation	and	we	had	identified	a	peptide	from	ADAMTS-like	protein 5 (ADAMTSL5) as HLA-C*06:02-presented melanocyte autoantigen.Objectives: To determine the role of ERAP1 variants in psoriasis pathogenesis. Methods: We established ERAP1 knockout cells using CRISPR/Cas9 system. ERAP1 knockout cells transfected with plasmids coding for HLA-C*06:02, ERAP1 variants, and antigenic peptides  were  co-cultured  with  the  TCR  hybridoma  to  determine the	 levels	 of	 TCR	 ligation	 which	 reflect	 the	 generation	 of	 the	antigenic	ADAMTSL5	peptide	and	other	Vα3S1/Vβ13S1-TCR	ligands from precursors.Results: Our data show that NH2-terminal trimming by ERPA1 is required to generate the actual antigenic ADAMTSL5 peptide from  NH2-terminally  elongated  precursors. An  ERAP1  variant protecting  from  psoriasis  reduced  the  immunogenicity  of  the antigenic ADAMTSL5 peptide presumably through overtrimming and peptide destruction, whereas a psoriasis risk variant of ERAP1 highly kept the antigenicity of the autoantigen. This effect was specific	 for	ADAMTSL5.	 Precursors	 of	 other	 Vα3S1/Vβ13S1TCR self-ligands were not substrates of ERAP1. Conclusions: Using a proven psoriatic autoantigen and a cognate psoriatic  TCR,  these  experiments  provide  direct  evidence  that gene-gene interaction between ERAP1 and HLA-C*06:02 affects the  risk  for  psoriasis  through  differential  autoantigen  trimming from precursors. These data furthermore propose a model where ERAP1 function essentially controls the autoantigenic potential of self-peptides in HLA-class I associated CD8+ T-cell mediated autoimmune diseases.P106Introduction: Psoriasis vulgaris is a multifactorial disease. While the major psoriasis risk gene HLA-C*06:02 accounts for up to 50%  of  disease  onset,  environmental  factors  are  considered  to contribute to approximately 30% of disease risk. Psoriatic skin inflammation	is	driven	by	an	HLA-C*06:02-mediated	autoimmune	response	against	melanocytes.	A	pathogenic	Vα3S1/Vβ13S1	T-cell	receptor (TCR), which we had reconstituted from a lesional epidermal CD8+ T-cell clone of an HLA-C*06:02–positive psoriasis patient	in	a	mouse	reporter	hybridoma	cell	line,	specifically	reacts	against melanocytes through HLA-C*06:02 restricted recognition of a psoriatic melanocyte autoantigen, ADAMTS-like protein 5 (ADAMTSL5). However, it is unknown whether and how environ44mental factors may contribute to autoimmunity in psoriasis. TCRs are	known	to	be	polyspecific,	recognizing	multiple	peptide	ligands	which	share	a	conserved	amino	acid	pattern	specific	for	each	TCR.Objectives: To examine the potential role of environmental factors in the psoriatic autoimmune response.Methods:	 We	 first	 determined	 the	 particular	 amino	 acid	 motif	which	 is	 recognized	 by	 the	 psoriatic	 Vα3S1/Vβ13S1	 TCR	 in	the context of HLA-C*06:02. By homology searches using this conserved  amino  acid  pattern,  we  selected  57  peptides  from food, bacterial, fungal and viral pathogens and from the skin and intestinal microbiomes as candidate environmental antigens that may trigger the psoriatic autoimmune response. We cloned the peptides into expression plasmids, co-transfected them with HLAC*06:02	into	Cos7	cells	and	used	them	to	stimulate	the	Vα3S1/Vβ13S1	TCR.	TCR	ligation	was	determined	by	GFP	induction	of TCR hybridoma in FACS analysis. We then stimulated blood lymphocytes  with  the  candidate  peptides  that  had  ligated  the Vα3S1/Vβ13S1	TCR.	 Lymphocyte	 activation	 was	 assessed	 by	induction  of  activation  markers  and  proliferation  assays  using thymidine incorporation.Results: We	identified	a	variety	of	peptides	contained	in	proteins	from food (wheat, coffee, apple, and spinach), microbiota of human skin or gut, and infectious pathogens including Chlamydia trachomatis,	 which	 ligated	 the	 psoriatic	TCR	 in	 a	 polyspecific	manner. Stimulation of blood lymphocytes with particular candidate	antigens	resulted	in	significant	activation	in	psoriasis	patients,	as  compared  to  healthy  individuals.  Interindividual-correlation analyses demonstrated cross-reactive immune responses between environmental antigens and the melanocyte autoantigen presented by HLA-C*06:02 in psoriasis patients. Among the candidate antigens, wheat peptides induced most robust lymphocyte activations	in	psoriasis	patients.	Moreover,	psoriasis	was	significantly	improved by wheat-free diet in several patients with lymphocytes responding to wheat, indicating potential pathogenic contribution of wheat antigens in psoriasis.Conclusions: Our results provide unbiased evidence that several environmental  antigens  may  trigger  the  melanocyte-specific autoimmune response in psoriasis. By identifying and avoiding those triggers at the molecular level which translate the genetic predisposition into disease manifestation, we may develop strategies to prevent disease onset and exacerbation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>Edd James</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>Ludwig-Maximilian-University, Southampton General Hospital Ludwig Maximilian University</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr"/>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>P105</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>DIFFERENTIAL NH2­TERMINAL AUTOANTIGEN TRIMMING MAY EXPLAIN EPISTASIS BETWEEN HLA­C*06:02 AND ERAP1 VARIANTS IN PSORIASIS RISK ENVIRONMENTAL TRIGGERS OF AN HLA­C*06:02­RESTRICTED AUTOIMMUNE RESPONSE IN PSORIASIS</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>Introduction: NH2-terminal trimming by endoplasmic reticulum aminopeptidase 1 (ERAP1) generates the appropriate length of antigenic peptides for binding to and presentation by HLA-class I  molecules.  Genetic  interaction  between  ERAP1  variants  and HLA-class I alleles determines the genetic risk for various HLAclass	I-associated	inflammatory	diseases.	Epistasis	between	HLAC*06:02 and ERAP1 variants affects also psoriasis risk but the mechanisms of these gene interactions remained unknown. Using a	pathogenic	Vα3S1/Vβ13S1-TCR	from	a	psoriatic	CD8+	T-cell	clone we had shown that in psoriasis, HLA-C*06:02 mediates an autoimmune response against melanocytes through autoantigen presentation	and	we	had	identified	a	peptide	from	ADAMTS-like	protein 5 (ADAMTSL5) as HLA-C*06:02-presented melanocyte autoantigen.Objectives: To determine the role of ERAP1 variants in psoriasis pathogenesis. Methods: We established ERAP1 knockout cells using CRISPR/Cas9 system. ERAP1 knockout cells transfected with plasmids coding for HLA-C*06:02, ERAP1 variants, and antigenic peptides  were  co-cultured  with  the  TCR  hybridoma  to  determine the	 levels	 of	 TCR	 ligation	 which	 reflect	 the	 generation	 of	 the	antigenic	ADAMTSL5	peptide	and	other	Vα3S1/Vβ13S1-TCR	ligands from precursors.Results: Our data show that NH2-terminal trimming by ERPA1 is required to generate the actual antigenic ADAMTSL5 peptide from  NH2-terminally  elongated  precursors. An  ERAP1  variant protecting  from  psoriasis  reduced  the  immunogenicity  of  the antigenic ADAMTSL5 peptide presumably through overtrimming and peptide destruction, whereas a psoriasis risk variant of ERAP1 highly kept the antigenicity of the autoantigen. This effect was specific	 for	ADAMTSL5.	 Precursors	 of	 other	 Vα3S1/Vβ13S1TCR self-ligands were not substrates of ERAP1. Conclusions: Using a proven psoriatic autoantigen and a cognate psoriatic  TCR,  these  experiments  provide  direct  evidence  that gene-gene interaction between ERAP1 and HLA-C*06:02 affects the  risk  for  psoriasis  through  differential  autoantigen  trimming from precursors. These data furthermore propose a model where ERAP1 function essentially controls the autoantigenic potential of self-peptides in HLA-class I associated CD8+ T-cell mediated autoimmune diseases.P106Introduction: Psoriasis vulgaris is a multifactorial disease. While the major psoriasis risk gene HLA-C*06:02 accounts for up to 50%  of  disease  onset,  environmental  factors  are  considered  to contribute to approximately 30% of disease risk. Psoriatic skin inflammation	is	driven	by	an	HLA-C*06:02-mediated	autoimmune	response	against	melanocytes.	A	pathogenic	Vα3S1/Vβ13S1	T-cell	receptor (TCR), which we had reconstituted from a lesional epidermal CD8+ T-cell clone of an HLA-C*06:02–positive psoriasis patient	in	a	mouse	reporter	hybridoma	cell	line,	specifically	reacts	against melanocytes through HLA-C*06:02 restricted recognition of a psoriatic melanocyte autoantigen, ADAMTS-like protein 5 (ADAMTSL5). However, it is unknown whether and how environ44mental factors may contribute to autoimmunity in psoriasis. TCRs are	known	to	be	polyspecific,	recognizing	multiple	peptide	ligands	which	share	a	conserved	amino	acid	pattern	specific	for	each	TCR.Objectives: To examine the potential role of environmental factors in the psoriatic autoimmune response.Methods:	 We	 first	 determined	 the	 particular	 amino	 acid	 motif	which	 is	 recognized	 by	 the	 psoriatic	 Vα3S1/Vβ13S1	 TCR	 in	the context of HLA-C*06:02. By homology searches using this conserved  amino  acid  pattern,  we  selected  57  peptides  from food, bacterial, fungal and viral pathogens and from the skin and intestinal microbiomes as candidate environmental antigens that may trigger the psoriatic autoimmune response. We cloned the peptides into expression plasmids, co-transfected them with HLAC*06:02	into	Cos7	cells	and	used	them	to	stimulate	the	Vα3S1/Vβ13S1	TCR.	TCR	ligation	was	determined	by	GFP	induction	of TCR hybridoma in FACS analysis. We then stimulated blood lymphocytes  with  the  candidate  peptides  that  had  ligated  the Vα3S1/Vβ13S1	TCR.	 Lymphocyte	 activation	 was	 assessed	 by	induction  of  activation  markers  and  proliferation  assays  using thymidine incorporation.Results: We	identified	a	variety	of	peptides	contained	in	proteins	from food (wheat, coffee, apple, and spinach), microbiota of human skin or gut, and infectious pathogens including Chlamydia trachomatis,	 which	 ligated	 the	 psoriatic	TCR	 in	 a	 polyspecific	manner. Stimulation of blood lymphocytes with particular candidate	antigens	resulted	in	significant	activation	in	psoriasis	patients,	as  compared  to  healthy  individuals.  Interindividual-correlation analyses demonstrated cross-reactive immune responses between environmental antigens and the melanocyte autoantigen presented by HLA-C*06:02 in psoriasis patients. Among the candidate antigens, wheat peptides induced most robust lymphocyte activations	in	psoriasis	patients.	Moreover,	psoriasis	was	significantly	improved by wheat-free diet in several patients with lymphocytes responding to wheat, indicating potential pathogenic contribution of wheat antigens in psoriasis.Conclusions: Our results provide unbiased evidence that several environmental  antigens  may  trigger  the  melanocyte-specific autoimmune response in psoriasis. By identifying and avoiding those triggers at the molecular level which translate the genetic predisposition into disease manifestation, we may develop strategies to prevent disease onset and exacerbation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>Jörg PrinzSecil Vural</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>Ludwig-Maximilian-University, Southampton General Hospital Ludwig Maximilian University</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr"/>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>P105</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>DIFFERENTIAL NH2­TERMINAL AUTOANTIGEN TRIMMING MAY EXPLAIN EPISTASIS BETWEEN HLA­C*06:02 AND ERAP1 VARIANTS IN PSORIASIS RISK ENVIRONMENTAL TRIGGERS OF AN HLA­C*06:02­RESTRICTED AUTOIMMUNE RESPONSE IN PSORIASIS</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>Introduction: NH2-terminal trimming by endoplasmic reticulum aminopeptidase 1 (ERAP1) generates the appropriate length of antigenic peptides for binding to and presentation by HLA-class I  molecules.  Genetic  interaction  between  ERAP1  variants  and HLA-class I alleles determines the genetic risk for various HLAclass	I-associated	inflammatory	diseases.	Epistasis	between	HLAC*06:02 and ERAP1 variants affects also psoriasis risk but the mechanisms of these gene interactions remained unknown. Using a	pathogenic	Vα3S1/Vβ13S1-TCR	from	a	psoriatic	CD8+	T-cell	clone we had shown that in psoriasis, HLA-C*06:02 mediates an autoimmune response against melanocytes through autoantigen presentation	and	we	had	identified	a	peptide	from	ADAMTS-like	protein 5 (ADAMTSL5) as HLA-C*06:02-presented melanocyte autoantigen.Objectives: To determine the role of ERAP1 variants in psoriasis pathogenesis. Methods: We established ERAP1 knockout cells using CRISPR/Cas9 system. ERAP1 knockout cells transfected with plasmids coding for HLA-C*06:02, ERAP1 variants, and antigenic peptides  were  co-cultured  with  the  TCR  hybridoma  to  determine the	 levels	 of	 TCR	 ligation	 which	 reflect	 the	 generation	 of	 the	antigenic	ADAMTSL5	peptide	and	other	Vα3S1/Vβ13S1-TCR	ligands from precursors.Results: Our data show that NH2-terminal trimming by ERPA1 is required to generate the actual antigenic ADAMTSL5 peptide from  NH2-terminally  elongated  precursors. An  ERAP1  variant protecting  from  psoriasis  reduced  the  immunogenicity  of  the antigenic ADAMTSL5 peptide presumably through overtrimming and peptide destruction, whereas a psoriasis risk variant of ERAP1 highly kept the antigenicity of the autoantigen. This effect was specific	 for	ADAMTSL5.	 Precursors	 of	 other	 Vα3S1/Vβ13S1TCR self-ligands were not substrates of ERAP1. Conclusions: Using a proven psoriatic autoantigen and a cognate psoriatic  TCR,  these  experiments  provide  direct  evidence  that gene-gene interaction between ERAP1 and HLA-C*06:02 affects the  risk  for  psoriasis  through  differential  autoantigen  trimming from precursors. These data furthermore propose a model where ERAP1 function essentially controls the autoantigenic potential of self-peptides in HLA-class I associated CD8+ T-cell mediated autoimmune diseases.P106Introduction: Psoriasis vulgaris is a multifactorial disease. While the major psoriasis risk gene HLA-C*06:02 accounts for up to 50%  of  disease  onset,  environmental  factors  are  considered  to contribute to approximately 30% of disease risk. Psoriatic skin inflammation	is	driven	by	an	HLA-C*06:02-mediated	autoimmune	response	against	melanocytes.	A	pathogenic	Vα3S1/Vβ13S1	T-cell	receptor (TCR), which we had reconstituted from a lesional epidermal CD8+ T-cell clone of an HLA-C*06:02–positive psoriasis patient	in	a	mouse	reporter	hybridoma	cell	line,	specifically	reacts	against melanocytes through HLA-C*06:02 restricted recognition of a psoriatic melanocyte autoantigen, ADAMTS-like protein 5 (ADAMTSL5). However, it is unknown whether and how environ44mental factors may contribute to autoimmunity in psoriasis. TCRs are	known	to	be	polyspecific,	recognizing	multiple	peptide	ligands	which	share	a	conserved	amino	acid	pattern	specific	for	each	TCR.Objectives: To examine the potential role of environmental factors in the psoriatic autoimmune response.Methods:	 We	 first	 determined	 the	 particular	 amino	 acid	 motif	which	 is	 recognized	 by	 the	 psoriatic	 Vα3S1/Vβ13S1	 TCR	 in	the context of HLA-C*06:02. By homology searches using this conserved  amino  acid  pattern,  we  selected  57  peptides  from food, bacterial, fungal and viral pathogens and from the skin and intestinal microbiomes as candidate environmental antigens that may trigger the psoriatic autoimmune response. We cloned the peptides into expression plasmids, co-transfected them with HLAC*06:02	into	Cos7	cells	and	used	them	to	stimulate	the	Vα3S1/Vβ13S1	TCR.	TCR	ligation	was	determined	by	GFP	induction	of TCR hybridoma in FACS analysis. We then stimulated blood lymphocytes  with  the  candidate  peptides  that  had  ligated  the Vα3S1/Vβ13S1	TCR.	 Lymphocyte	 activation	 was	 assessed	 by	induction  of  activation  markers  and  proliferation  assays  using thymidine incorporation.Results: We	identified	a	variety	of	peptides	contained	in	proteins	from food (wheat, coffee, apple, and spinach), microbiota of human skin or gut, and infectious pathogens including Chlamydia trachomatis,	 which	 ligated	 the	 psoriatic	TCR	 in	 a	 polyspecific	manner. Stimulation of blood lymphocytes with particular candidate	antigens	resulted	in	significant	activation	in	psoriasis	patients,	as  compared  to  healthy  individuals.  Interindividual-correlation analyses demonstrated cross-reactive immune responses between environmental antigens and the melanocyte autoantigen presented by HLA-C*06:02 in psoriasis patients. Among the candidate antigens, wheat peptides induced most robust lymphocyte activations	in	psoriasis	patients.	Moreover,	psoriasis	was	significantly	improved by wheat-free diet in several patients with lymphocytes responding to wheat, indicating potential pathogenic contribution of wheat antigens in psoriasis.Conclusions: Our results provide unbiased evidence that several environmental  antigens  may  trigger  the  melanocyte-specific autoimmune response in psoriasis. By identifying and avoiding those triggers at the molecular level which translate the genetic predisposition into disease manifestation, we may develop strategies to prevent disease onset and exacerbation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>Yukiyasu Arakawa</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>Ludwig-Maximilian-University, Southampton General Hospital Ludwig Maximilian University</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr"/>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>P105</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>DIFFERENTIAL NH2­TERMINAL AUTOANTIGEN TRIMMING MAY EXPLAIN EPISTASIS BETWEEN HLA­C*06:02 AND ERAP1 VARIANTS IN PSORIASIS RISK ENVIRONMENTAL TRIGGERS OF AN HLA­C*06:02­RESTRICTED AUTOIMMUNE RESPONSE IN PSORIASIS</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>Introduction: NH2-terminal trimming by endoplasmic reticulum aminopeptidase 1 (ERAP1) generates the appropriate length of antigenic peptides for binding to and presentation by HLA-class I  molecules.  Genetic  interaction  between  ERAP1  variants  and HLA-class I alleles determines the genetic risk for various HLAclass	I-associated	inflammatory	diseases.	Epistasis	between	HLAC*06:02 and ERAP1 variants affects also psoriasis risk but the mechanisms of these gene interactions remained unknown. Using a	pathogenic	Vα3S1/Vβ13S1-TCR	from	a	psoriatic	CD8+	T-cell	clone we had shown that in psoriasis, HLA-C*06:02 mediates an autoimmune response against melanocytes through autoantigen presentation	and	we	had	identified	a	peptide	from	ADAMTS-like	protein 5 (ADAMTSL5) as HLA-C*06:02-presented melanocyte autoantigen.Objectives: To determine the role of ERAP1 variants in psoriasis pathogenesis. Methods: We established ERAP1 knockout cells using CRISPR/Cas9 system. ERAP1 knockout cells transfected with plasmids coding for HLA-C*06:02, ERAP1 variants, and antigenic peptides  were  co-cultured  with  the  TCR  hybridoma  to  determine the	 levels	 of	 TCR	 ligation	 which	 reflect	 the	 generation	 of	 the	antigenic	ADAMTSL5	peptide	and	other	Vα3S1/Vβ13S1-TCR	ligands from precursors.Results: Our data show that NH2-terminal trimming by ERPA1 is required to generate the actual antigenic ADAMTSL5 peptide from  NH2-terminally  elongated  precursors. An  ERAP1  variant protecting  from  psoriasis  reduced  the  immunogenicity  of  the antigenic ADAMTSL5 peptide presumably through overtrimming and peptide destruction, whereas a psoriasis risk variant of ERAP1 highly kept the antigenicity of the autoantigen. This effect was specific	 for	ADAMTSL5.	 Precursors	 of	 other	 Vα3S1/Vβ13S1TCR self-ligands were not substrates of ERAP1. Conclusions: Using a proven psoriatic autoantigen and a cognate psoriatic  TCR,  these  experiments  provide  direct  evidence  that gene-gene interaction between ERAP1 and HLA-C*06:02 affects the  risk  for  psoriasis  through  differential  autoantigen  trimming from precursors. These data furthermore propose a model where ERAP1 function essentially controls the autoantigenic potential of self-peptides in HLA-class I associated CD8+ T-cell mediated autoimmune diseases.P106Introduction: Psoriasis vulgaris is a multifactorial disease. While the major psoriasis risk gene HLA-C*06:02 accounts for up to 50%  of  disease  onset,  environmental  factors  are  considered  to contribute to approximately 30% of disease risk. Psoriatic skin inflammation	is	driven	by	an	HLA-C*06:02-mediated	autoimmune	response	against	melanocytes.	A	pathogenic	Vα3S1/Vβ13S1	T-cell	receptor (TCR), which we had reconstituted from a lesional epidermal CD8+ T-cell clone of an HLA-C*06:02–positive psoriasis patient	in	a	mouse	reporter	hybridoma	cell	line,	specifically	reacts	against melanocytes through HLA-C*06:02 restricted recognition of a psoriatic melanocyte autoantigen, ADAMTS-like protein 5 (ADAMTSL5). However, it is unknown whether and how environ44mental factors may contribute to autoimmunity in psoriasis. TCRs are	known	to	be	polyspecific,	recognizing	multiple	peptide	ligands	which	share	a	conserved	amino	acid	pattern	specific	for	each	TCR.Objectives: To examine the potential role of environmental factors in the psoriatic autoimmune response.Methods:	 We	 first	 determined	 the	 particular	 amino	 acid	 motif	which	 is	 recognized	 by	 the	 psoriatic	 Vα3S1/Vβ13S1	 TCR	 in	the context of HLA-C*06:02. By homology searches using this conserved  amino  acid  pattern,  we  selected  57  peptides  from food, bacterial, fungal and viral pathogens and from the skin and intestinal microbiomes as candidate environmental antigens that may trigger the psoriatic autoimmune response. We cloned the peptides into expression plasmids, co-transfected them with HLAC*06:02	into	Cos7	cells	and	used	them	to	stimulate	the	Vα3S1/Vβ13S1	TCR.	TCR	ligation	was	determined	by	GFP	induction	of TCR hybridoma in FACS analysis. We then stimulated blood lymphocytes  with  the  candidate  peptides  that  had  ligated  the Vα3S1/Vβ13S1	TCR.	 Lymphocyte	 activation	 was	 assessed	 by	induction  of  activation  markers  and  proliferation  assays  using thymidine incorporation.Results: We	identified	a	variety	of	peptides	contained	in	proteins	from food (wheat, coffee, apple, and spinach), microbiota of human skin or gut, and infectious pathogens including Chlamydia trachomatis,	 which	 ligated	 the	 psoriatic	TCR	 in	 a	 polyspecific	manner. Stimulation of blood lymphocytes with particular candidate	antigens	resulted	in	significant	activation	in	psoriasis	patients,	as  compared  to  healthy  individuals.  Interindividual-correlation analyses demonstrated cross-reactive immune responses between environmental antigens and the melanocyte autoantigen presented by HLA-C*06:02 in psoriasis patients. Among the candidate antigens, wheat peptides induced most robust lymphocyte activations	in	psoriasis	patients.	Moreover,	psoriasis	was	significantly	improved by wheat-free diet in several patients with lymphocytes responding to wheat, indicating potential pathogenic contribution of wheat antigens in psoriasis.Conclusions: Our results provide unbiased evidence that several environmental  antigens  may  trigger  the  melanocyte-specific autoimmune response in psoriasis. By identifying and avoiding those triggers at the molecular level which translate the genetic predisposition into disease manifestation, we may develop strategies to prevent disease onset and exacerbation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>Adrian Galinski</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>Ludwig-Maximilian-University, Southampton General Hospital Ludwig Maximilian University</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr"/>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>P105</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>DIFFERENTIAL NH2­TERMINAL AUTOANTIGEN TRIMMING MAY EXPLAIN EPISTASIS BETWEEN HLA­C*06:02 AND ERAP1 VARIANTS IN PSORIASIS RISK ENVIRONMENTAL TRIGGERS OF AN HLA­C*06:02­RESTRICTED AUTOIMMUNE RESPONSE IN PSORIASIS</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>Introduction: NH2-terminal trimming by endoplasmic reticulum aminopeptidase 1 (ERAP1) generates the appropriate length of antigenic peptides for binding to and presentation by HLA-class I  molecules.  Genetic  interaction  between  ERAP1  variants  and HLA-class I alleles determines the genetic risk for various HLAclass	I-associated	inflammatory	diseases.	Epistasis	between	HLAC*06:02 and ERAP1 variants affects also psoriasis risk but the mechanisms of these gene interactions remained unknown. Using a	pathogenic	Vα3S1/Vβ13S1-TCR	from	a	psoriatic	CD8+	T-cell	clone we had shown that in psoriasis, HLA-C*06:02 mediates an autoimmune response against melanocytes through autoantigen presentation	and	we	had	identified	a	peptide	from	ADAMTS-like	protein 5 (ADAMTSL5) as HLA-C*06:02-presented melanocyte autoantigen.Objectives: To determine the role of ERAP1 variants in psoriasis pathogenesis. Methods: We established ERAP1 knockout cells using CRISPR/Cas9 system. ERAP1 knockout cells transfected with plasmids coding for HLA-C*06:02, ERAP1 variants, and antigenic peptides  were  co-cultured  with  the  TCR  hybridoma  to  determine the	 levels	 of	 TCR	 ligation	 which	 reflect	 the	 generation	 of	 the	antigenic	ADAMTSL5	peptide	and	other	Vα3S1/Vβ13S1-TCR	ligands from precursors.Results: Our data show that NH2-terminal trimming by ERPA1 is required to generate the actual antigenic ADAMTSL5 peptide from  NH2-terminally  elongated  precursors. An  ERAP1  variant protecting  from  psoriasis  reduced  the  immunogenicity  of  the antigenic ADAMTSL5 peptide presumably through overtrimming and peptide destruction, whereas a psoriasis risk variant of ERAP1 highly kept the antigenicity of the autoantigen. This effect was specific	 for	ADAMTSL5.	 Precursors	 of	 other	 Vα3S1/Vβ13S1TCR self-ligands were not substrates of ERAP1. Conclusions: Using a proven psoriatic autoantigen and a cognate psoriatic  TCR,  these  experiments  provide  direct  evidence  that gene-gene interaction between ERAP1 and HLA-C*06:02 affects the  risk  for  psoriasis  through  differential  autoantigen  trimming from precursors. These data furthermore propose a model where ERAP1 function essentially controls the autoantigenic potential of self-peptides in HLA-class I associated CD8+ T-cell mediated autoimmune diseases.P106Introduction: Psoriasis vulgaris is a multifactorial disease. While the major psoriasis risk gene HLA-C*06:02 accounts for up to 50%  of  disease  onset,  environmental  factors  are  considered  to contribute to approximately 30% of disease risk. Psoriatic skin inflammation	is	driven	by	an	HLA-C*06:02-mediated	autoimmune	response	against	melanocytes.	A	pathogenic	Vα3S1/Vβ13S1	T-cell	receptor (TCR), which we had reconstituted from a lesional epidermal CD8+ T-cell clone of an HLA-C*06:02–positive psoriasis patient	in	a	mouse	reporter	hybridoma	cell	line,	specifically	reacts	against melanocytes through HLA-C*06:02 restricted recognition of a psoriatic melanocyte autoantigen, ADAMTS-like protein 5 (ADAMTSL5). However, it is unknown whether and how environ44mental factors may contribute to autoimmunity in psoriasis. TCRs are	known	to	be	polyspecific,	recognizing	multiple	peptide	ligands	which	share	a	conserved	amino	acid	pattern	specific	for	each	TCR.Objectives: To examine the potential role of environmental factors in the psoriatic autoimmune response.Methods:	 We	 first	 determined	 the	 particular	 amino	 acid	 motif	which	 is	 recognized	 by	 the	 psoriatic	 Vα3S1/Vβ13S1	 TCR	 in	the context of HLA-C*06:02. By homology searches using this conserved  amino  acid  pattern,  we  selected  57  peptides  from food, bacterial, fungal and viral pathogens and from the skin and intestinal microbiomes as candidate environmental antigens that may trigger the psoriatic autoimmune response. We cloned the peptides into expression plasmids, co-transfected them with HLAC*06:02	into	Cos7	cells	and	used	them	to	stimulate	the	Vα3S1/Vβ13S1	TCR.	TCR	ligation	was	determined	by	GFP	induction	of TCR hybridoma in FACS analysis. We then stimulated blood lymphocytes  with  the  candidate  peptides  that  had  ligated  the Vα3S1/Vβ13S1	TCR.	 Lymphocyte	 activation	 was	 assessed	 by	induction  of  activation  markers  and  proliferation  assays  using thymidine incorporation.Results: We	identified	a	variety	of	peptides	contained	in	proteins	from food (wheat, coffee, apple, and spinach), microbiota of human skin or gut, and infectious pathogens including Chlamydia trachomatis,	 which	 ligated	 the	 psoriatic	TCR	 in	 a	 polyspecific	manner. Stimulation of blood lymphocytes with particular candidate	antigens	resulted	in	significant	activation	in	psoriasis	patients,	as  compared  to  healthy  individuals.  Interindividual-correlation analyses demonstrated cross-reactive immune responses between environmental antigens and the melanocyte autoantigen presented by HLA-C*06:02 in psoriasis patients. Among the candidate antigens, wheat peptides induced most robust lymphocyte activations	in	psoriasis	patients.	Moreover,	psoriasis	was	significantly	improved by wheat-free diet in several patients with lymphocytes responding to wheat, indicating potential pathogenic contribution of wheat antigens in psoriasis.Conclusions: Our results provide unbiased evidence that several environmental  antigens  may  trigger  the  melanocyte-specific autoimmune response in psoriasis. By identifying and avoiding those triggers at the molecular level which translate the genetic predisposition into disease manifestation, we may develop strategies to prevent disease onset and exacerbation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>Sigrid Vollmer</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>Ludwig-Maximilian-University, Southampton General Hospital Ludwig Maximilian University</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr"/>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>P105</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>DIFFERENTIAL NH2­TERMINAL AUTOANTIGEN TRIMMING MAY EXPLAIN EPISTASIS BETWEEN HLA­C*06:02 AND ERAP1 VARIANTS IN PSORIASIS RISK ENVIRONMENTAL TRIGGERS OF AN HLA­C*06:02­RESTRICTED AUTOIMMUNE RESPONSE IN PSORIASIS</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>Introduction: NH2-terminal trimming by endoplasmic reticulum aminopeptidase 1 (ERAP1) generates the appropriate length of antigenic peptides for binding to and presentation by HLA-class I  molecules.  Genetic  interaction  between  ERAP1  variants  and HLA-class I alleles determines the genetic risk for various HLAclass	I-associated	inflammatory	diseases.	Epistasis	between	HLAC*06:02 and ERAP1 variants affects also psoriasis risk but the mechanisms of these gene interactions remained unknown. Using a	pathogenic	Vα3S1/Vβ13S1-TCR	from	a	psoriatic	CD8+	T-cell	clone we had shown that in psoriasis, HLA-C*06:02 mediates an autoimmune response against melanocytes through autoantigen presentation	and	we	had	identified	a	peptide	from	ADAMTS-like	protein 5 (ADAMTSL5) as HLA-C*06:02-presented melanocyte autoantigen.Objectives: To determine the role of ERAP1 variants in psoriasis pathogenesis. Methods: We established ERAP1 knockout cells using CRISPR/Cas9 system. ERAP1 knockout cells transfected with plasmids coding for HLA-C*06:02, ERAP1 variants, and antigenic peptides  were  co-cultured  with  the  TCR  hybridoma  to  determine the	 levels	 of	 TCR	 ligation	 which	 reflect	 the	 generation	 of	 the	antigenic	ADAMTSL5	peptide	and	other	Vα3S1/Vβ13S1-TCR	ligands from precursors.Results: Our data show that NH2-terminal trimming by ERPA1 is required to generate the actual antigenic ADAMTSL5 peptide from  NH2-terminally  elongated  precursors. An  ERAP1  variant protecting  from  psoriasis  reduced  the  immunogenicity  of  the antigenic ADAMTSL5 peptide presumably through overtrimming and peptide destruction, whereas a psoriasis risk variant of ERAP1 highly kept the antigenicity of the autoantigen. This effect was specific	 for	ADAMTSL5.	 Precursors	 of	 other	 Vα3S1/Vβ13S1TCR self-ligands were not substrates of ERAP1. Conclusions: Using a proven psoriatic autoantigen and a cognate psoriatic  TCR,  these  experiments  provide  direct  evidence  that gene-gene interaction between ERAP1 and HLA-C*06:02 affects the  risk  for  psoriasis  through  differential  autoantigen  trimming from precursors. These data furthermore propose a model where ERAP1 function essentially controls the autoantigenic potential of self-peptides in HLA-class I associated CD8+ T-cell mediated autoimmune diseases.P106Introduction: Psoriasis vulgaris is a multifactorial disease. While the major psoriasis risk gene HLA-C*06:02 accounts for up to 50%  of  disease  onset,  environmental  factors  are  considered  to contribute to approximately 30% of disease risk. Psoriatic skin inflammation	is	driven	by	an	HLA-C*06:02-mediated	autoimmune	response	against	melanocytes.	A	pathogenic	Vα3S1/Vβ13S1	T-cell	receptor (TCR), which we had reconstituted from a lesional epidermal CD8+ T-cell clone of an HLA-C*06:02–positive psoriasis patient	in	a	mouse	reporter	hybridoma	cell	line,	specifically	reacts	against melanocytes through HLA-C*06:02 restricted recognition of a psoriatic melanocyte autoantigen, ADAMTS-like protein 5 (ADAMTSL5). However, it is unknown whether and how environ44mental factors may contribute to autoimmunity in psoriasis. TCRs are	known	to	be	polyspecific,	recognizing	multiple	peptide	ligands	which	share	a	conserved	amino	acid	pattern	specific	for	each	TCR.Objectives: To examine the potential role of environmental factors in the psoriatic autoimmune response.Methods:	 We	 first	 determined	 the	 particular	 amino	 acid	 motif	which	 is	 recognized	 by	 the	 psoriatic	 Vα3S1/Vβ13S1	 TCR	 in	the context of HLA-C*06:02. By homology searches using this conserved  amino  acid  pattern,  we  selected  57  peptides  from food, bacterial, fungal and viral pathogens and from the skin and intestinal microbiomes as candidate environmental antigens that may trigger the psoriatic autoimmune response. We cloned the peptides into expression plasmids, co-transfected them with HLAC*06:02	into	Cos7	cells	and	used	them	to	stimulate	the	Vα3S1/Vβ13S1	TCR.	TCR	ligation	was	determined	by	GFP	induction	of TCR hybridoma in FACS analysis. We then stimulated blood lymphocytes  with  the  candidate  peptides  that  had  ligated  the Vα3S1/Vβ13S1	TCR.	 Lymphocyte	 activation	 was	 assessed	 by	induction  of  activation  markers  and  proliferation  assays  using thymidine incorporation.Results: We	identified	a	variety	of	peptides	contained	in	proteins	from food (wheat, coffee, apple, and spinach), microbiota of human skin or gut, and infectious pathogens including Chlamydia trachomatis,	 which	 ligated	 the	 psoriatic	TCR	 in	 a	 polyspecific	manner. Stimulation of blood lymphocytes with particular candidate	antigens	resulted	in	significant	activation	in	psoriasis	patients,	as  compared  to  healthy  individuals.  Interindividual-correlation analyses demonstrated cross-reactive immune responses between environmental antigens and the melanocyte autoantigen presented by HLA-C*06:02 in psoriasis patients. Among the candidate antigens, wheat peptides induced most robust lymphocyte activations	in	psoriasis	patients.	Moreover,	psoriasis	was	significantly	improved by wheat-free diet in several patients with lymphocytes responding to wheat, indicating potential pathogenic contribution of wheat antigens in psoriasis.Conclusions: Our results provide unbiased evidence that several environmental  antigens  may  trigger  the  melanocyte-specific autoimmune response in psoriasis. By identifying and avoiding those triggers at the molecular level which translate the genetic predisposition into disease manifestation, we may develop strategies to prevent disease onset and exacerbation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>Akiko Arakawa</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>Ludwig-Maximilian-University, Southampton General Hospital Ludwig Maximilian University</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr"/>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>P105</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>DIFFERENTIAL NH2­TERMINAL AUTOANTIGEN TRIMMING MAY EXPLAIN EPISTASIS BETWEEN HLA­C*06:02 AND ERAP1 VARIANTS IN PSORIASIS RISK ENVIRONMENTAL TRIGGERS OF AN HLA­C*06:02­RESTRICTED AUTOIMMUNE RESPONSE IN PSORIASIS</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>Introduction: NH2-terminal trimming by endoplasmic reticulum aminopeptidase 1 (ERAP1) generates the appropriate length of antigenic peptides for binding to and presentation by HLA-class I  molecules.  Genetic  interaction  between  ERAP1  variants  and HLA-class I alleles determines the genetic risk for various HLAclass	I-associated	inflammatory	diseases.	Epistasis	between	HLAC*06:02 and ERAP1 variants affects also psoriasis risk but the mechanisms of these gene interactions remained unknown. Using a	pathogenic	Vα3S1/Vβ13S1-TCR	from	a	psoriatic	CD8+	T-cell	clone we had shown that in psoriasis, HLA-C*06:02 mediates an autoimmune response against melanocytes through autoantigen presentation	and	we	had	identified	a	peptide	from	ADAMTS-like	protein 5 (ADAMTSL5) as HLA-C*06:02-presented melanocyte autoantigen.Objectives: To determine the role of ERAP1 variants in psoriasis pathogenesis. Methods: We established ERAP1 knockout cells using CRISPR/Cas9 system. ERAP1 knockout cells transfected with plasmids coding for HLA-C*06:02, ERAP1 variants, and antigenic peptides  were  co-cultured  with  the  TCR  hybridoma  to  determine the	 levels	 of	 TCR	 ligation	 which	 reflect	 the	 generation	 of	 the	antigenic	ADAMTSL5	peptide	and	other	Vα3S1/Vβ13S1-TCR	ligands from precursors.Results: Our data show that NH2-terminal trimming by ERPA1 is required to generate the actual antigenic ADAMTSL5 peptide from  NH2-terminally  elongated  precursors. An  ERAP1  variant protecting  from  psoriasis  reduced  the  immunogenicity  of  the antigenic ADAMTSL5 peptide presumably through overtrimming and peptide destruction, whereas a psoriasis risk variant of ERAP1 highly kept the antigenicity of the autoantigen. This effect was specific	 for	ADAMTSL5.	 Precursors	 of	 other	 Vα3S1/Vβ13S1TCR self-ligands were not substrates of ERAP1. Conclusions: Using a proven psoriatic autoantigen and a cognate psoriatic  TCR,  these  experiments  provide  direct  evidence  that gene-gene interaction between ERAP1 and HLA-C*06:02 affects the  risk  for  psoriasis  through  differential  autoantigen  trimming from precursors. These data furthermore propose a model where ERAP1 function essentially controls the autoantigenic potential of self-peptides in HLA-class I associated CD8+ T-cell mediated autoimmune diseases.P106Introduction: Psoriasis vulgaris is a multifactorial disease. While the major psoriasis risk gene HLA-C*06:02 accounts for up to 50%  of  disease  onset,  environmental  factors  are  considered  to contribute to approximately 30% of disease risk. Psoriatic skin inflammation	is	driven	by	an	HLA-C*06:02-mediated	autoimmune	response	against	melanocytes.	A	pathogenic	Vα3S1/Vβ13S1	T-cell	receptor (TCR), which we had reconstituted from a lesional epidermal CD8+ T-cell clone of an HLA-C*06:02–positive psoriasis patient	in	a	mouse	reporter	hybridoma	cell	line,	specifically	reacts	against melanocytes through HLA-C*06:02 restricted recognition of a psoriatic melanocyte autoantigen, ADAMTS-like protein 5 (ADAMTSL5). However, it is unknown whether and how environ44mental factors may contribute to autoimmunity in psoriasis. TCRs are	known	to	be	polyspecific,	recognizing	multiple	peptide	ligands	which	share	a	conserved	amino	acid	pattern	specific	for	each	TCR.Objectives: To examine the potential role of environmental factors in the psoriatic autoimmune response.Methods:	 We	 first	 determined	 the	 particular	 amino	 acid	 motif	which	 is	 recognized	 by	 the	 psoriatic	 Vα3S1/Vβ13S1	 TCR	 in	the context of HLA-C*06:02. By homology searches using this conserved  amino  acid  pattern,  we  selected  57  peptides  from food, bacterial, fungal and viral pathogens and from the skin and intestinal microbiomes as candidate environmental antigens that may trigger the psoriatic autoimmune response. We cloned the peptides into expression plasmids, co-transfected them with HLAC*06:02	into	Cos7	cells	and	used	them	to	stimulate	the	Vα3S1/Vβ13S1	TCR.	TCR	ligation	was	determined	by	GFP	induction	of TCR hybridoma in FACS analysis. We then stimulated blood lymphocytes  with  the  candidate  peptides  that  had  ligated  the Vα3S1/Vβ13S1	TCR.	 Lymphocyte	 activation	 was	 assessed	 by	induction  of  activation  markers  and  proliferation  assays  using thymidine incorporation.Results: We	identified	a	variety	of	peptides	contained	in	proteins	from food (wheat, coffee, apple, and spinach), microbiota of human skin or gut, and infectious pathogens including Chlamydia trachomatis,	 which	 ligated	 the	 psoriatic	TCR	 in	 a	 polyspecific	manner. Stimulation of blood lymphocytes with particular candidate	antigens	resulted	in	significant	activation	in	psoriasis	patients,	as  compared  to  healthy  individuals.  Interindividual-correlation analyses demonstrated cross-reactive immune responses between environmental antigens and the melanocyte autoantigen presented by HLA-C*06:02 in psoriasis patients. Among the candidate antigens, wheat peptides induced most robust lymphocyte activations	in	psoriasis	patients.	Moreover,	psoriasis	was	significantly	improved by wheat-free diet in several patients with lymphocytes responding to wheat, indicating potential pathogenic contribution of wheat antigens in psoriasis.Conclusions: Our results provide unbiased evidence that several environmental  antigens  may  trigger  the  melanocyte-specific autoimmune response in psoriasis. By identifying and avoiding those triggers at the molecular level which translate the genetic predisposition into disease manifestation, we may develop strategies to prevent disease onset and exacerbation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>Jörg Prinz</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="inlineStr">
+        <is>
+          <t>Ludwig-Maximilian-University, Southampton General Hospital Ludwig Maximilian University</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr"/>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>P105</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>DIFFERENTIAL NH2­TERMINAL AUTOANTIGEN TRIMMING MAY EXPLAIN EPISTASIS BETWEEN HLA­C*06:02 AND ERAP1 VARIANTS IN PSORIASIS RISK ENVIRONMENTAL TRIGGERS OF AN HLA­C*06:02­RESTRICTED AUTOIMMUNE RESPONSE IN PSORIASIS</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>Introduction: NH2-terminal trimming by endoplasmic reticulum aminopeptidase 1 (ERAP1) generates the appropriate length of antigenic peptides for binding to and presentation by HLA-class I  molecules.  Genetic  interaction  between  ERAP1  variants  and HLA-class I alleles determines the genetic risk for various HLAclass	I-associated	inflammatory	diseases.	Epistasis	between	HLAC*06:02 and ERAP1 variants affects also psoriasis risk but the mechanisms of these gene interactions remained unknown. Using a	pathogenic	Vα3S1/Vβ13S1-TCR	from	a	psoriatic	CD8+	T-cell	clone we had shown that in psoriasis, HLA-C*06:02 mediates an autoimmune response against melanocytes through autoantigen presentation	and	we	had	identified	a	peptide	from	ADAMTS-like	protein 5 (ADAMTSL5) as HLA-C*06:02-presented melanocyte autoantigen.Objectives: To determine the role of ERAP1 variants in psoriasis pathogenesis. Methods: We established ERAP1 knockout cells using CRISPR/Cas9 system. ERAP1 knockout cells transfected with plasmids coding for HLA-C*06:02, ERAP1 variants, and antigenic peptides  were  co-cultured  with  the  TCR  hybridoma  to  determine the	 levels	 of	 TCR	 ligation	 which	 reflect	 the	 generation	 of	 the	antigenic	ADAMTSL5	peptide	and	other	Vα3S1/Vβ13S1-TCR	ligands from precursors.Results: Our data show that NH2-terminal trimming by ERPA1 is required to generate the actual antigenic ADAMTSL5 peptide from  NH2-terminally  elongated  precursors. An  ERAP1  variant protecting  from  psoriasis  reduced  the  immunogenicity  of  the antigenic ADAMTSL5 peptide presumably through overtrimming and peptide destruction, whereas a psoriasis risk variant of ERAP1 highly kept the antigenicity of the autoantigen. This effect was specific	 for	ADAMTSL5.	 Precursors	 of	 other	 Vα3S1/Vβ13S1TCR self-ligands were not substrates of ERAP1. Conclusions: Using a proven psoriatic autoantigen and a cognate psoriatic  TCR,  these  experiments  provide  direct  evidence  that gene-gene interaction between ERAP1 and HLA-C*06:02 affects the  risk  for  psoriasis  through  differential  autoantigen  trimming from precursors. These data furthermore propose a model where ERAP1 function essentially controls the autoantigenic potential of self-peptides in HLA-class I associated CD8+ T-cell mediated autoimmune diseases.P106Introduction: Psoriasis vulgaris is a multifactorial disease. While the major psoriasis risk gene HLA-C*06:02 accounts for up to 50%  of  disease  onset,  environmental  factors  are  considered  to contribute to approximately 30% of disease risk. Psoriatic skin inflammation	is	driven	by	an	HLA-C*06:02-mediated	autoimmune	response	against	melanocytes.	A	pathogenic	Vα3S1/Vβ13S1	T-cell	receptor (TCR), which we had reconstituted from a lesional epidermal CD8+ T-cell clone of an HLA-C*06:02–positive psoriasis patient	in	a	mouse	reporter	hybridoma	cell	line,	specifically	reacts	against melanocytes through HLA-C*06:02 restricted recognition of a psoriatic melanocyte autoantigen, ADAMTS-like protein 5 (ADAMTSL5). However, it is unknown whether and how environ44mental factors may contribute to autoimmunity in psoriasis. TCRs are	known	to	be	polyspecific,	recognizing	multiple	peptide	ligands	which	share	a	conserved	amino	acid	pattern	specific	for	each	TCR.Objectives: To examine the potential role of environmental factors in the psoriatic autoimmune response.Methods:	 We	 first	 determined	 the	 particular	 amino	 acid	 motif	which	 is	 recognized	 by	 the	 psoriatic	 Vα3S1/Vβ13S1	 TCR	 in	the context of HLA-C*06:02. By homology searches using this conserved  amino  acid  pattern,  we  selected  57  peptides  from food, bacterial, fungal and viral pathogens and from the skin and intestinal microbiomes as candidate environmental antigens that may trigger the psoriatic autoimmune response. We cloned the peptides into expression plasmids, co-transfected them with HLAC*06:02	into	Cos7	cells	and	used	them	to	stimulate	the	Vα3S1/Vβ13S1	TCR.	TCR	ligation	was	determined	by	GFP	induction	of TCR hybridoma in FACS analysis. We then stimulated blood lymphocytes  with  the  candidate  peptides  that  had  ligated  the Vα3S1/Vβ13S1	TCR.	 Lymphocyte	 activation	 was	 assessed	 by	induction  of  activation  markers  and  proliferation  assays  using thymidine incorporation.Results: We	identified	a	variety	of	peptides	contained	in	proteins	from food (wheat, coffee, apple, and spinach), microbiota of human skin or gut, and infectious pathogens including Chlamydia trachomatis,	 which	 ligated	 the	 psoriatic	TCR	 in	 a	 polyspecific	manner. Stimulation of blood lymphocytes with particular candidate	antigens	resulted	in	significant	activation	in	psoriasis	patients,	as  compared  to  healthy  individuals.  Interindividual-correlation analyses demonstrated cross-reactive immune responses between environmental antigens and the melanocyte autoantigen presented by HLA-C*06:02 in psoriasis patients. Among the candidate antigens, wheat peptides induced most robust lymphocyte activations	in	psoriasis	patients.	Moreover,	psoriasis	was	significantly	improved by wheat-free diet in several patients with lymphocytes responding to wheat, indicating potential pathogenic contribution of wheat antigens in psoriasis.Conclusions: Our results provide unbiased evidence that several environmental  antigens  may  trigger  the  melanocyte-specific autoimmune response in psoriasis. By identifying and avoiding those triggers at the molecular level which translate the genetic predisposition into disease manifestation, we may develop strategies to prevent disease onset and exacerbation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>Irène Gallais Sérézal</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>Department of Medicine Solna, Karolinska Institutet, Centre for Haema-tology and Regenerative Medicine, Department of Medicine, Karolinska Institutet, Karolinska University Hospital Huddinge, Department of Re-constructive Plastic Surgery, Karolinska University Hospital Solna</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>Stock-holm, Sweden</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>P107</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>A SKEWED POOL OF RESIDENT T CELLS TRIGGERS DISEASE­ASSOCIATED TISSUE RESPONSES IN NEVER­ LESIONAL PSORIASIS</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>Background: Psoriasis lesions evolve as a result of cytokine driven interactions between intralesional immune cells and keratinocytes in genetically predisposed individuals. Skin resident T cells are implicated  in  maintenance  and  recurrence  of  psoriasis  plaques but  their  composition  and  function  in  never-lesional  psoriasis skin is less known. Objective:Characterisation of T cell driven tissue responses and subsets of resident T cells in never-lesional psoriasis. Methods: T cell driven tissue responses were assessed in explanted skin biopsies using Nanostring and Multiplex analysis. Epidermal and	dermal	T	cells	were	characterised	using	flow	cytometry	in	never-lesional skin from patients with mild disease.Results:  T  cell  activation  induced  epidermal  psoriasiform-  and type-1  interferon  tissue  responses  in  explants  from  never-lesional  skin.  Skin  resident  T  cells  were  skewed  with  enrichment of  epidermal  IL-17  and  IL-22  producing  CD4+CCR6+  and CD8+CD103+CD49a-	T	cells	and	IFN-γ	producing	CD4	T	cells	in  never-lesional  skin  compared  to  healthy  skin.  Keratinocytes from	never-lesional	psoriasis	responded	to	IFN-γ	activation	with	IFN-α	secretion	and	MX1	upregulation	and	skin	explants	exposed	to common fungal antigens produced the CCR6-attractant CCL20.Conclusion: Resident T cells poised to induce psoriasiform tissue responses	accumulate	in	never-lesional	skin	of	psoriasis-afflicted	individuals. Additionally our data suggest that microbial interplay with genetically predisposed keratinocytes may shape the local pool of resident T cells.Verma, D., Ekman, A.-K., Bivik Eding, C. &amp; Enerbäck, C. Genome-Wide DNA	Methylation	Profiling	Identifies	Differential	Methylation	in	Uninvolved  Psoriatic  Epidermis.  J.  Invest.  Dermatol.  (2017).  doi:10.1016/j.jid.2017.11.036Gudjonsson, J. E. et al. Global gene expression analysis reveals evidence for decreased lipid biosynthesis and increased innate immunity in uninvolved psoriatic skin. J. Invest. Dermatol. 129, 2795–2804 (2009).Cheuk, S. et al. Epidermal Th22 and Tc17 Cells Form a Localized Disease Memory  in  Clinically  Healed  Psoriasis.  J.  Immunol.  192,  3111–3120 (2014).</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>Elena Hoffer</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>Department of Medicine Solna, Karolinska Institutet, Centre for Haema-tology and Regenerative Medicine, Department of Medicine, Karolinska Institutet, Karolinska University Hospital Huddinge, Department of Re-constructive Plastic Surgery, Karolinska University Hospital Solna</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>Stock-holm, Sweden</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>P107</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>A SKEWED POOL OF RESIDENT T CELLS TRIGGERS DISEASE­ASSOCIATED TISSUE RESPONSES IN NEVER­ LESIONAL PSORIASIS</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>Background: Psoriasis lesions evolve as a result of cytokine driven interactions between intralesional immune cells and keratinocytes in genetically predisposed individuals. Skin resident T cells are implicated  in  maintenance  and  recurrence  of  psoriasis  plaques but  their  composition  and  function  in  never-lesional  psoriasis skin is less known. Objective:Characterisation of T cell driven tissue responses and subsets of resident T cells in never-lesional psoriasis. Methods: T cell driven tissue responses were assessed in explanted skin biopsies using Nanostring and Multiplex analysis. Epidermal and	dermal	T	cells	were	characterised	using	flow	cytometry	in	never-lesional skin from patients with mild disease.Results:  T  cell  activation  induced  epidermal  psoriasiform-  and type-1  interferon  tissue  responses  in  explants  from  never-lesional  skin.  Skin  resident  T  cells  were  skewed  with  enrichment of  epidermal  IL-17  and  IL-22  producing  CD4+CCR6+  and CD8+CD103+CD49a-	T	cells	and	IFN-γ	producing	CD4	T	cells	in  never-lesional  skin  compared  to  healthy  skin.  Keratinocytes from	never-lesional	psoriasis	responded	to	IFN-γ	activation	with	IFN-α	secretion	and	MX1	upregulation	and	skin	explants	exposed	to common fungal antigens produced the CCR6-attractant CCL20.Conclusion: Resident T cells poised to induce psoriasiform tissue responses	accumulate	in	never-lesional	skin	of	psoriasis-afflicted	individuals. Additionally our data suggest that microbial interplay with genetically predisposed keratinocytes may shape the local pool of resident T cells.Verma, D., Ekman, A.-K., Bivik Eding, C. &amp; Enerbäck, C. Genome-Wide DNA	Methylation	Profiling	Identifies	Differential	Methylation	in	Uninvolved  Psoriatic  Epidermis.  J.  Invest.  Dermatol.  (2017).  doi:10.1016/j.jid.2017.11.036Gudjonsson, J. E. et al. Global gene expression analysis reveals evidence for decreased lipid biosynthesis and increased innate immunity in uninvolved psoriatic skin. J. Invest. Dermatol. 129, 2795–2804 (2009).Cheuk, S. et al. Epidermal Th22 and Tc17 Cells Form a Localized Disease Memory  in  Clinically  Healed  Psoriasis.  J.  Immunol.  192,  3111–3120 (2014).</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>Borislav Ignatov</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>Department of Medicine Solna, Karolinska Institutet, Centre for Haema-tology and Regenerative Medicine, Department of Medicine, Karolinska Institutet, Karolinska University Hospital Huddinge, Department of Re-constructive Plastic Surgery, Karolinska University Hospital Solna</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>Stock-holm, Sweden</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>P107</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>A SKEWED POOL OF RESIDENT T CELLS TRIGGERS DISEASE­ASSOCIATED TISSUE RESPONSES IN NEVER­ LESIONAL PSORIASIS</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>Background: Psoriasis lesions evolve as a result of cytokine driven interactions between intralesional immune cells and keratinocytes in genetically predisposed individuals. Skin resident T cells are implicated  in  maintenance  and  recurrence  of  psoriasis  plaques but  their  composition  and  function  in  never-lesional  psoriasis skin is less known. Objective:Characterisation of T cell driven tissue responses and subsets of resident T cells in never-lesional psoriasis. Methods: T cell driven tissue responses were assessed in explanted skin biopsies using Nanostring and Multiplex analysis. Epidermal and	dermal	T	cells	were	characterised	using	flow	cytometry	in	never-lesional skin from patients with mild disease.Results:  T  cell  activation  induced  epidermal  psoriasiform-  and type-1  interferon  tissue  responses  in  explants  from  never-lesional  skin.  Skin  resident  T  cells  were  skewed  with  enrichment of  epidermal  IL-17  and  IL-22  producing  CD4+CCR6+  and CD8+CD103+CD49a-	T	cells	and	IFN-γ	producing	CD4	T	cells	in  never-lesional  skin  compared  to  healthy  skin.  Keratinocytes from	never-lesional	psoriasis	responded	to	IFN-γ	activation	with	IFN-α	secretion	and	MX1	upregulation	and	skin	explants	exposed	to common fungal antigens produced the CCR6-attractant CCL20.Conclusion: Resident T cells poised to induce psoriasiform tissue responses	accumulate	in	never-lesional	skin	of	psoriasis-afflicted	individuals. Additionally our data suggest that microbial interplay with genetically predisposed keratinocytes may shape the local pool of resident T cells.Verma, D., Ekman, A.-K., Bivik Eding, C. &amp; Enerbäck, C. Genome-Wide DNA	Methylation	Profiling	Identifies	Differential	Methylation	in	Uninvolved  Psoriatic  Epidermis.  J.  Invest.  Dermatol.  (2017).  doi:10.1016/j.jid.2017.11.036Gudjonsson, J. E. et al. Global gene expression analysis reveals evidence for decreased lipid biosynthesis and increased innate immunity in uninvolved psoriatic skin. J. Invest. Dermatol. 129, 2795–2804 (2009).Cheuk, S. et al. Epidermal Th22 and Tc17 Cells Form a Localized Disease Memory  in  Clinically  Healed  Psoriasis.  J.  Immunol.  192,  3111–3120 (2014).</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>Elisa Martini</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>Department of Medicine Solna, Karolinska Institutet, Centre for Haema-tology and Regenerative Medicine, Department of Medicine, Karolinska Institutet, Karolinska University Hospital Huddinge, Department of Re-constructive Plastic Surgery, Karolinska University Hospital Solna</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>Stock-holm, Sweden</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>P107</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>A SKEWED POOL OF RESIDENT T CELLS TRIGGERS DISEASE­ASSOCIATED TISSUE RESPONSES IN NEVER­ LESIONAL PSORIASIS</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>Background: Psoriasis lesions evolve as a result of cytokine driven interactions between intralesional immune cells and keratinocytes in genetically predisposed individuals. Skin resident T cells are implicated  in  maintenance  and  recurrence  of  psoriasis  plaques but  their  composition  and  function  in  never-lesional  psoriasis skin is less known. Objective:Characterisation of T cell driven tissue responses and subsets of resident T cells in never-lesional psoriasis. Methods: T cell driven tissue responses were assessed in explanted skin biopsies using Nanostring and Multiplex analysis. Epidermal and	dermal	T	cells	were	characterised	using	flow	cytometry	in	never-lesional skin from patients with mild disease.Results:  T  cell  activation  induced  epidermal  psoriasiform-  and type-1  interferon  tissue  responses  in  explants  from  never-lesional  skin.  Skin  resident  T  cells  were  skewed  with  enrichment of  epidermal  IL-17  and  IL-22  producing  CD4+CCR6+  and CD8+CD103+CD49a-	T	cells	and	IFN-γ	producing	CD4	T	cells	in  never-lesional  skin  compared  to  healthy  skin.  Keratinocytes from	never-lesional	psoriasis	responded	to	IFN-γ	activation	with	IFN-α	secretion	and	MX1	upregulation	and	skin	explants	exposed	to common fungal antigens produced the CCR6-attractant CCL20.Conclusion: Resident T cells poised to induce psoriasiform tissue responses	accumulate	in	never-lesional	skin	of	psoriasis-afflicted	individuals. Additionally our data suggest that microbial interplay with genetically predisposed keratinocytes may shape the local pool of resident T cells.Verma, D., Ekman, A.-K., Bivik Eding, C. &amp; Enerbäck, C. Genome-Wide DNA	Methylation	Profiling	Identifies	Differential	Methylation	in	Uninvolved  Psoriatic  Epidermis.  J.  Invest.  Dermatol.  (2017).  doi:10.1016/j.jid.2017.11.036Gudjonsson, J. E. et al. Global gene expression analysis reveals evidence for decreased lipid biosynthesis and increased innate immunity in uninvolved psoriatic skin. J. Invest. Dermatol. 129, 2795–2804 (2009).Cheuk, S. et al. Epidermal Th22 and Tc17 Cells Form a Localized Disease Memory  in  Clinically  Healed  Psoriasis.  J.  Immunol.  192,  3111–3120 (2014).</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>Beatrice Zitti</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>Department of Medicine Solna, Karolinska Institutet, Centre for Haema-tology and Regenerative Medicine, Department of Medicine, Karolinska Institutet, Karolinska University Hospital Huddinge, Department of Re-constructive Plastic Surgery, Karolinska University Hospital Solna</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>Stock-holm, Sweden</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>P107</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>A SKEWED POOL OF RESIDENT T CELLS TRIGGERS DISEASE­ASSOCIATED TISSUE RESPONSES IN NEVER­ LESIONAL PSORIASIS</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>Background: Psoriasis lesions evolve as a result of cytokine driven interactions between intralesional immune cells and keratinocytes in genetically predisposed individuals. Skin resident T cells are implicated  in  maintenance  and  recurrence  of  psoriasis  plaques but  their  composition  and  function  in  never-lesional  psoriasis skin is less known. Objective:Characterisation of T cell driven tissue responses and subsets of resident T cells in never-lesional psoriasis. Methods: T cell driven tissue responses were assessed in explanted skin biopsies using Nanostring and Multiplex analysis. Epidermal and	dermal	T	cells	were	characterised	using	flow	cytometry	in	never-lesional skin from patients with mild disease.Results:  T  cell  activation  induced  epidermal  psoriasiform-  and type-1  interferon  tissue  responses  in  explants  from  never-lesional  skin.  Skin  resident  T  cells  were  skewed  with  enrichment of  epidermal  IL-17  and  IL-22  producing  CD4+CCR6+  and CD8+CD103+CD49a-	T	cells	and	IFN-γ	producing	CD4	T	cells	in  never-lesional  skin  compared  to  healthy  skin.  Keratinocytes from	never-lesional	psoriasis	responded	to	IFN-γ	activation	with	IFN-α	secretion	and	MX1	upregulation	and	skin	explants	exposed	to common fungal antigens produced the CCR6-attractant CCL20.Conclusion: Resident T cells poised to induce psoriasiform tissue responses	accumulate	in	never-lesional	skin	of	psoriasis-afflicted	individuals. Additionally our data suggest that microbial interplay with genetically predisposed keratinocytes may shape the local pool of resident T cells.Verma, D., Ekman, A.-K., Bivik Eding, C. &amp; Enerbäck, C. Genome-Wide DNA	Methylation	Profiling	Identifies	Differential	Methylation	in	Uninvolved  Psoriatic  Epidermis.  J.  Invest.  Dermatol.  (2017).  doi:10.1016/j.jid.2017.11.036Gudjonsson, J. E. et al. Global gene expression analysis reveals evidence for decreased lipid biosynthesis and increased innate immunity in uninvolved psoriatic skin. J. Invest. Dermatol. 129, 2795–2804 (2009).Cheuk, S. et al. Epidermal Th22 and Tc17 Cells Form a Localized Disease Memory  in  Clinically  Healed  Psoriasis.  J.  Immunol.  192,  3111–3120 (2014).</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>Marcus Ehrström</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t>Department of Medicine Solna, Karolinska Institutet, Centre for Haema-tology and Regenerative Medicine, Department of Medicine, Karolinska Institutet, Karolinska University Hospital Huddinge, Department of Re-constructive Plastic Surgery, Karolinska University Hospital Solna</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>Stock-holm, Sweden</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>P107</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>A SKEWED POOL OF RESIDENT T CELLS TRIGGERS DISEASE­ASSOCIATED TISSUE RESPONSES IN NEVER­ LESIONAL PSORIASIS</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>Background: Psoriasis lesions evolve as a result of cytokine driven interactions between intralesional immune cells and keratinocytes in genetically predisposed individuals. Skin resident T cells are implicated  in  maintenance  and  recurrence  of  psoriasis  plaques but  their  composition  and  function  in  never-lesional  psoriasis skin is less known. Objective:Characterisation of T cell driven tissue responses and subsets of resident T cells in never-lesional psoriasis. Methods: T cell driven tissue responses were assessed in explanted skin biopsies using Nanostring and Multiplex analysis. Epidermal and	dermal	T	cells	were	characterised	using	flow	cytometry	in	never-lesional skin from patients with mild disease.Results:  T  cell  activation  induced  epidermal  psoriasiform-  and type-1  interferon  tissue  responses  in  explants  from  never-lesional  skin.  Skin  resident  T  cells  were  skewed  with  enrichment of  epidermal  IL-17  and  IL-22  producing  CD4+CCR6+  and CD8+CD103+CD49a-	T	cells	and	IFN-γ	producing	CD4	T	cells	in  never-lesional  skin  compared  to  healthy  skin.  Keratinocytes from	never-lesional	psoriasis	responded	to	IFN-γ	activation	with	IFN-α	secretion	and	MX1	upregulation	and	skin	explants	exposed	to common fungal antigens produced the CCR6-attractant CCL20.Conclusion: Resident T cells poised to induce psoriasiform tissue responses	accumulate	in	never-lesional	skin	of	psoriasis-afflicted	individuals. Additionally our data suggest that microbial interplay with genetically predisposed keratinocytes may shape the local pool of resident T cells.Verma, D., Ekman, A.-K., Bivik Eding, C. &amp; Enerbäck, C. Genome-Wide DNA	Methylation	Profiling	Identifies	Differential	Methylation	in	Uninvolved  Psoriatic  Epidermis.  J.  Invest.  Dermatol.  (2017).  doi:10.1016/j.jid.2017.11.036Gudjonsson, J. E. et al. Global gene expression analysis reveals evidence for decreased lipid biosynthesis and increased innate immunity in uninvolved psoriatic skin. J. Invest. Dermatol. 129, 2795–2804 (2009).Cheuk, S. et al. Epidermal Th22 and Tc17 Cells Form a Localized Disease Memory  in  Clinically  Healed  Psoriasis.  J.  Immunol.  192,  3111–3120 (2014).</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>Liv Eidsmo</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>Department of Medicine Solna, Karolinska Institutet, Centre for Haema-tology and Regenerative Medicine, Department of Medicine, Karolinska Institutet, Karolinska University Hospital Huddinge, Department of Re-constructive Plastic Surgery, Karolinska University Hospital Solna</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>Stock-holm, Sweden</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>P107</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>A SKEWED POOL OF RESIDENT T CELLS TRIGGERS DISEASE­ASSOCIATED TISSUE RESPONSES IN NEVER­ LESIONAL PSORIASIS</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>Background: Psoriasis lesions evolve as a result of cytokine driven interactions between intralesional immune cells and keratinocytes in genetically predisposed individuals. Skin resident T cells are implicated  in  maintenance  and  recurrence  of  psoriasis  plaques but  their  composition  and  function  in  never-lesional  psoriasis skin is less known. Objective:Characterisation of T cell driven tissue responses and subsets of resident T cells in never-lesional psoriasis. Methods: T cell driven tissue responses were assessed in explanted skin biopsies using Nanostring and Multiplex analysis. Epidermal and	dermal	T	cells	were	characterised	using	flow	cytometry	in	never-lesional skin from patients with mild disease.Results:  T  cell  activation  induced  epidermal  psoriasiform-  and type-1  interferon  tissue  responses  in  explants  from  never-lesional  skin.  Skin  resident  T  cells  were  skewed  with  enrichment of  epidermal  IL-17  and  IL-22  producing  CD4+CCR6+  and CD8+CD103+CD49a-	T	cells	and	IFN-γ	producing	CD4	T	cells	in  never-lesional  skin  compared  to  healthy  skin.  Keratinocytes from	never-lesional	psoriasis	responded	to	IFN-γ	activation	with	IFN-α	secretion	and	MX1	upregulation	and	skin	explants	exposed	to common fungal antigens produced the CCR6-attractant CCL20.Conclusion: Resident T cells poised to induce psoriasiform tissue responses	accumulate	in	never-lesional	skin	of	psoriasis-afflicted	individuals. Additionally our data suggest that microbial interplay with genetically predisposed keratinocytes may shape the local pool of resident T cells.Verma, D., Ekman, A.-K., Bivik Eding, C. &amp; Enerbäck, C. Genome-Wide DNA	Methylation	Profiling	Identifies	Differential	Methylation	in	Uninvolved  Psoriatic  Epidermis.  J.  Invest.  Dermatol.  (2017).  doi:10.1016/j.jid.2017.11.036Gudjonsson, J. E. et al. Global gene expression analysis reveals evidence for decreased lipid biosynthesis and increased innate immunity in uninvolved psoriatic skin. J. Invest. Dermatol. 129, 2795–2804 (2009).Cheuk, S. et al. Epidermal Th22 and Tc17 Cells Form a Localized Disease Memory  in  Clinically  Healed  Psoriasis.  J.  Immunol.  192,  3111–3120 (2014).</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="inlineStr">
+        <is>
+          <t>Omid Zargari</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="inlineStr">
+        <is>
+          <t>Department of Dermatology, Skin Research Center, Shahid Beheshti Uni-versity of Medical Sciences, Tehran, Department of Biostatistics, Depart-ment of Dermatology, Guilan University of Medical Sciences</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>Rasht, Iran</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>P108</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>NAIL INVOLVEMENT IN PSORIASIS; IS IT A PREDICTOR OF PSORIATIC ARTHRITIS?</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>Introduction: Psoriatic Arthritis (PsA) arises in an increased burden of psoriasis and impairments in both quality of life and functional capacity. The relationship between nail involvement and PsA in psoriasis is not fully characterized. Objective:To  evaluate  the  frequency  and  characteristics  of  nail involvement  in  psoriatic  patients  and  to  assess  the  relationship with joint involvement.Methods: A total of 197 patients with moderate-to-severe psoriasis, were consecutively selected to participate in this cross-sectional study.  The  patients  divided  into  two  groups;  with  and  without psoriatic arthritis. Results: 69.5% of psoriatic (137 out of 197) patients had nail involvement. The most common nail abnormality was onycholysis, followed by pitting and oil drop. Nail changes were more common in patients with psoriatic arthritis (82.1% vs. 57.8%).Limitations: Our study had certain limitations. One of them was lack of information about the subtypes of PsA. Also, we have not recorded the severity of nail involvements. Furthermore, previous medications may have interfered with the degree of nail changes in our patients.Conclusion: Nail involvement is associated with PsA. Onycholysis,	splinter	hemorrhage,	and	oil	drop	were	significantly	more	common in PsA group. In general, psoriatic patients with arthritis had the more severe disease. 1. Klaassen KM, van de Kerkhof PC, Pasch MC. Nail psoriasis: a questionnaire-based survey. Br J Dermatol. 2013;169(2):314–319.2. Langenbruch A, Radtke MA, Krensel M, Jacobi A, Reich K, Augustin M. Nail involvement as a predictor of concomitant psoriatic arthritis in patients with psoriasis. Br J Dermatol. 2014;171(5):1123–1128.</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>Ehsan Kazemnejad</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>Department of Dermatology, Skin Research Center, Shahid Beheshti Uni-versity of Medical Sciences, Tehran, Department of Biostatistics, Depart-ment of Dermatology, Guilan University of Medical Sciences</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>Rasht, Iran</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>P108</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>NAIL INVOLVEMENT IN PSORIASIS; IS IT A PREDICTOR OF PSORIATIC ARTHRITIS?</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>Introduction: Psoriatic Arthritis (PsA) arises in an increased burden of psoriasis and impairments in both quality of life and functional capacity. The relationship between nail involvement and PsA in psoriasis is not fully characterized. Objective:To  evaluate  the  frequency  and  characteristics  of  nail involvement  in  psoriatic  patients  and  to  assess  the  relationship with joint involvement.Methods: A total of 197 patients with moderate-to-severe psoriasis, were consecutively selected to participate in this cross-sectional study.  The  patients  divided  into  two  groups;  with  and  without psoriatic arthritis. Results: 69.5% of psoriatic (137 out of 197) patients had nail involvement. The most common nail abnormality was onycholysis, followed by pitting and oil drop. Nail changes were more common in patients with psoriatic arthritis (82.1% vs. 57.8%).Limitations: Our study had certain limitations. One of them was lack of information about the subtypes of PsA. Also, we have not recorded the severity of nail involvements. Furthermore, previous medications may have interfered with the degree of nail changes in our patients.Conclusion: Nail involvement is associated with PsA. Onycholysis,	splinter	hemorrhage,	and	oil	drop	were	significantly	more	common in PsA group. In general, psoriatic patients with arthritis had the more severe disease. 1. Klaassen KM, van de Kerkhof PC, Pasch MC. Nail psoriasis: a questionnaire-based survey. Br J Dermatol. 2013;169(2):314–319.2. Langenbruch A, Radtke MA, Krensel M, Jacobi A, Reich K, Augustin M. Nail involvement as a predictor of concomitant psoriatic arthritis in patients with psoriasis. Br J Dermatol. 2014;171(5):1123–1128.</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="inlineStr">
+        <is>
+          <t>Seyyede Zeinab Azimi</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="inlineStr">
+        <is>
+          <t>Department of Dermatology, Skin Research Center, Shahid Beheshti Uni-versity of Medical Sciences, Tehran, Department of Biostatistics, Depart-ment of Dermatology, Guilan University of Medical Sciences</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>Rasht, Iran</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>P108</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>NAIL INVOLVEMENT IN PSORIASIS; IS IT A PREDICTOR OF PSORIATIC ARTHRITIS?</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>Introduction: Psoriatic Arthritis (PsA) arises in an increased burden of psoriasis and impairments in both quality of life and functional capacity. The relationship between nail involvement and PsA in psoriasis is not fully characterized. Objective:To  evaluate  the  frequency  and  characteristics  of  nail involvement  in  psoriatic  patients  and  to  assess  the  relationship with joint involvement.Methods: A total of 197 patients with moderate-to-severe psoriasis, were consecutively selected to participate in this cross-sectional study.  The  patients  divided  into  two  groups;  with  and  without psoriatic arthritis. Results: 69.5% of psoriatic (137 out of 197) patients had nail involvement. The most common nail abnormality was onycholysis, followed by pitting and oil drop. Nail changes were more common in patients with psoriatic arthritis (82.1% vs. 57.8%).Limitations: Our study had certain limitations. One of them was lack of information about the subtypes of PsA. Also, we have not recorded the severity of nail involvements. Furthermore, previous medications may have interfered with the degree of nail changes in our patients.Conclusion: Nail involvement is associated with PsA. Onycholysis,	splinter	hemorrhage,	and	oil	drop	were	significantly	more	common in PsA group. In general, psoriatic patients with arthritis had the more severe disease. 1. Klaassen KM, van de Kerkhof PC, Pasch MC. Nail psoriasis: a questionnaire-based survey. Br J Dermatol. 2013;169(2):314–319.2. Langenbruch A, Radtke MA, Krensel M, Jacobi A, Reich K, Augustin M. Nail involvement as a predictor of concomitant psoriatic arthritis in patients with psoriasis. Br J Dermatol. 2014;171(5):1123–1128.</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>Kim Papp</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="inlineStr">
+        <is>
+          <t>Probity Medical Research, Waterloo, Ontario, Canada, Human Physio-logy, Iuliu Hatieganu University of Medicine and Pharmacy, Romania, Eli Lilly and Company, Indianapolis, Indiana, USA, Department of Derma-tology, University Medical Centre Schleswig-Holstein</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>Campus Kiel, Ger-many</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>P109</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>ABSOLUTE AND RELATIVE PASI IMPROVEMENTS WITH IXEKIZUMAB TREATMENT: RESULTS AT WEEK 12 FROM IXORA­P</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Introduction and Objectives: Ixekizumab (IXE), an interleukin17A	antagonist,	has	shown	superior	efficacy	in	psoriasis	compared  to  placebo,1  etanercept,1  and  ustekinumab.2 This  post  hoc analysis intended to evaluate absolute and relative Psoriasis Area and Severity Index (PASI) improvements with IXE treatment in a phase 3 trial (IXORAP).Methods: In IXORA-P, patients with moderate-to-severe psoriasis were randomized (2:1:1) to receive any of the 3 dosing regimens of  IXE  80  mg:  every  2  weeks  (Q2W;  n = 611),  every  4  weeks (Q4W; n = 310), or Q4W/Q2W step-up (n = 306), for 52 weeks. Randomization	was	stratified	by	country	and	weight	( &lt; 80	kg,	≥80	to  &lt; 100	kg,	or	≥100	kg).	The	percentage	of	patients	achieving	a	75%, 90% or 100% improvement from baseline in PASI (PASI 75,  90,  and  100)  was  evaluated  using  logistic  regression  with dosing regimen, country, and baseline weight as factors. Fisher’s exact test with nonresponder imputation was used to compare the response rates between treatment groups. Here, we present results at 12 weeks for Q2W (label dose) and Q4W groups; results from Q4W/Q2W group will be discussed separately.Results: Mean (standard deviation) PASI score at baseline was 20.3	(8.25).	Response	rates	were	significantly	higher	(p &lt; 0.001) for Q2W group compared to Q4W group across all cut-off points for absolute PASI: absolute PASI ≤ 1, 2, 3, and 5 response rates at Week 12 were 61.4%, 76.1%, 84.5%, and 89.4%, respectively, for Q2W group, and 49.7%, 64.5%, 72.6%, and 83.9%, respectively, for Q4W group. At Week 12, PASI 75 response rates in Q2W and Q4W  groups  were  89.2%  and  83.2%,  respectively  (p = 0.012). For Q2W and Q4W groups, PASI 90 response rates were 75.3% and 63.2%, respectively (p &lt; 0.001), and PASI 100 response rates were 46.0% and 32.6%, respectively (p &lt; 0.001).Conclusion: As reported in psoriasis registration trials, induction with IXE Q2W, the labeled dosing regimen, provides better clinical outcomes at Week 12.[1]	Griffiths	CE,	Reich	K,	Lebwohl	M,	et	al.	Lancet	2015;386:541-51.[2] Reich K, Pinter A, Lacour JP, et al. Br J Dermatol 2017;177(4):1014-23. </t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="inlineStr">
+        <is>
+          <t>Remus Ioan Orasan</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="inlineStr">
+        <is>
+          <t>Probity Medical Research, Waterloo, Ontario, Canada, Human Physio-logy, Iuliu Hatieganu University of Medicine and Pharmacy, Romania, Eli Lilly and Company, Indianapolis, Indiana, USA, Department of Derma-tology, University Medical Centre Schleswig-Holstein</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>Campus Kiel, Ger-many</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>P109</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>ABSOLUTE AND RELATIVE PASI IMPROVEMENTS WITH IXEKIZUMAB TREATMENT: RESULTS AT WEEK 12 FROM IXORA­P</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Introduction and Objectives: Ixekizumab (IXE), an interleukin17A	antagonist,	has	shown	superior	efficacy	in	psoriasis	compared  to  placebo,1  etanercept,1  and  ustekinumab.2 This  post  hoc analysis intended to evaluate absolute and relative Psoriasis Area and Severity Index (PASI) improvements with IXE treatment in a phase 3 trial (IXORAP).Methods: In IXORA-P, patients with moderate-to-severe psoriasis were randomized (2:1:1) to receive any of the 3 dosing regimens of  IXE  80  mg:  every  2  weeks  (Q2W;  n = 611),  every  4  weeks (Q4W; n = 310), or Q4W/Q2W step-up (n = 306), for 52 weeks. Randomization	was	stratified	by	country	and	weight	( &lt; 80	kg,	≥80	to  &lt; 100	kg,	or	≥100	kg).	The	percentage	of	patients	achieving	a	75%, 90% or 100% improvement from baseline in PASI (PASI 75,  90,  and  100)  was  evaluated  using  logistic  regression  with dosing regimen, country, and baseline weight as factors. Fisher’s exact test with nonresponder imputation was used to compare the response rates between treatment groups. Here, we present results at 12 weeks for Q2W (label dose) and Q4W groups; results from Q4W/Q2W group will be discussed separately.Results: Mean (standard deviation) PASI score at baseline was 20.3	(8.25).	Response	rates	were	significantly	higher	(p &lt; 0.001) for Q2W group compared to Q4W group across all cut-off points for absolute PASI: absolute PASI ≤ 1, 2, 3, and 5 response rates at Week 12 were 61.4%, 76.1%, 84.5%, and 89.4%, respectively, for Q2W group, and 49.7%, 64.5%, 72.6%, and 83.9%, respectively, for Q4W group. At Week 12, PASI 75 response rates in Q2W and Q4W  groups  were  89.2%  and  83.2%,  respectively  (p = 0.012). For Q2W and Q4W groups, PASI 90 response rates were 75.3% and 63.2%, respectively (p &lt; 0.001), and PASI 100 response rates were 46.0% and 32.6%, respectively (p &lt; 0.001).Conclusion: As reported in psoriasis registration trials, induction with IXE Q2W, the labeled dosing regimen, provides better clinical outcomes at Week 12.[1]	Griffiths	CE,	Reich	K,	Lebwohl	M,	et	al.	Lancet	2015;386:541-51.[2] Reich K, Pinter A, Lacour JP, et al. Br J Dermatol 2017;177(4):1014-23. </t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>Paula Polzer</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>Probity Medical Research, Waterloo, Ontario, Canada, Human Physio-logy, Iuliu Hatieganu University of Medicine and Pharmacy, Romania, Eli Lilly and Company, Indianapolis, Indiana, USA, Department of Derma-tology, University Medical Centre Schleswig-Holstein</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>Campus Kiel, Ger-many</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>P109</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>ABSOLUTE AND RELATIVE PASI IMPROVEMENTS WITH IXEKIZUMAB TREATMENT: RESULTS AT WEEK 12 FROM IXORA­P</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Introduction and Objectives: Ixekizumab (IXE), an interleukin17A	antagonist,	has	shown	superior	efficacy	in	psoriasis	compared  to  placebo,1  etanercept,1  and  ustekinumab.2 This  post  hoc analysis intended to evaluate absolute and relative Psoriasis Area and Severity Index (PASI) improvements with IXE treatment in a phase 3 trial (IXORAP).Methods: In IXORA-P, patients with moderate-to-severe psoriasis were randomized (2:1:1) to receive any of the 3 dosing regimens of  IXE  80  mg:  every  2  weeks  (Q2W;  n = 611),  every  4  weeks (Q4W; n = 310), or Q4W/Q2W step-up (n = 306), for 52 weeks. Randomization	was	stratified	by	country	and	weight	( &lt; 80	kg,	≥80	to  &lt; 100	kg,	or	≥100	kg).	The	percentage	of	patients	achieving	a	75%, 90% or 100% improvement from baseline in PASI (PASI 75,  90,  and  100)  was  evaluated  using  logistic  regression  with dosing regimen, country, and baseline weight as factors. Fisher’s exact test with nonresponder imputation was used to compare the response rates between treatment groups. Here, we present results at 12 weeks for Q2W (label dose) and Q4W groups; results from Q4W/Q2W group will be discussed separately.Results: Mean (standard deviation) PASI score at baseline was 20.3	(8.25).	Response	rates	were	significantly	higher	(p &lt; 0.001) for Q2W group compared to Q4W group across all cut-off points for absolute PASI: absolute PASI ≤ 1, 2, 3, and 5 response rates at Week 12 were 61.4%, 76.1%, 84.5%, and 89.4%, respectively, for Q2W group, and 49.7%, 64.5%, 72.6%, and 83.9%, respectively, for Q4W group. At Week 12, PASI 75 response rates in Q2W and Q4W  groups  were  89.2%  and  83.2%,  respectively  (p = 0.012). For Q2W and Q4W groups, PASI 90 response rates were 75.3% and 63.2%, respectively (p &lt; 0.001), and PASI 100 response rates were 46.0% and 32.6%, respectively (p &lt; 0.001).Conclusion: As reported in psoriasis registration trials, induction with IXE Q2W, the labeled dosing regimen, provides better clinical outcomes at Week 12.[1]	Griffiths	CE,	Reich	K,	Lebwohl	M,	et	al.	Lancet	2015;386:541-51.[2] Reich K, Pinter A, Lacour JP, et al. Br J Dermatol 2017;177(4):1014-23. </t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="inlineStr">
+        <is>
+          <t>Carsten Henne-ge</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="inlineStr">
+        <is>
+          <t>Probity Medical Research, Waterloo, Ontario, Canada, Human Physio-logy, Iuliu Hatieganu University of Medicine and Pharmacy, Romania, Eli Lilly and Company, Indianapolis, Indiana, USA, Department of Derma-tology, University Medical Centre Schleswig-Holstein</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>Campus Kiel, Ger-many</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>P109</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>ABSOLUTE AND RELATIVE PASI IMPROVEMENTS WITH IXEKIZUMAB TREATMENT: RESULTS AT WEEK 12 FROM IXORA­P</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Introduction and Objectives: Ixekizumab (IXE), an interleukin17A	antagonist,	has	shown	superior	efficacy	in	psoriasis	compared  to  placebo,1  etanercept,1  and  ustekinumab.2 This  post  hoc analysis intended to evaluate absolute and relative Psoriasis Area and Severity Index (PASI) improvements with IXE treatment in a phase 3 trial (IXORAP).Methods: In IXORA-P, patients with moderate-to-severe psoriasis were randomized (2:1:1) to receive any of the 3 dosing regimens of  IXE  80  mg:  every  2  weeks  (Q2W;  n = 611),  every  4  weeks (Q4W; n = 310), or Q4W/Q2W step-up (n = 306), for 52 weeks. Randomization	was	stratified	by	country	and	weight	( &lt; 80	kg,	≥80	to  &lt; 100	kg,	or	≥100	kg).	The	percentage	of	patients	achieving	a	75%, 90% or 100% improvement from baseline in PASI (PASI 75,  90,  and  100)  was  evaluated  using  logistic  regression  with dosing regimen, country, and baseline weight as factors. Fisher’s exact test with nonresponder imputation was used to compare the response rates between treatment groups. Here, we present results at 12 weeks for Q2W (label dose) and Q4W groups; results from Q4W/Q2W group will be discussed separately.Results: Mean (standard deviation) PASI score at baseline was 20.3	(8.25).	Response	rates	were	significantly	higher	(p &lt; 0.001) for Q2W group compared to Q4W group across all cut-off points for absolute PASI: absolute PASI ≤ 1, 2, 3, and 5 response rates at Week 12 were 61.4%, 76.1%, 84.5%, and 89.4%, respectively, for Q2W group, and 49.7%, 64.5%, 72.6%, and 83.9%, respectively, for Q4W group. At Week 12, PASI 75 response rates in Q2W and Q4W  groups  were  89.2%  and  83.2%,  respectively  (p = 0.012). For Q2W and Q4W groups, PASI 90 response rates were 75.3% and 63.2%, respectively (p &lt; 0.001), and PASI 100 response rates were 46.0% and 32.6%, respectively (p &lt; 0.001).Conclusion: As reported in psoriasis registration trials, induction with IXE Q2W, the labeled dosing regimen, provides better clinical outcomes at Week 12.[1]	Griffiths	CE,	Reich	K,	Lebwohl	M,	et	al.	Lancet	2015;386:541-51.[2] Reich K, Pinter A, Lacour JP, et al. Br J Dermatol 2017;177(4):1014-23. </t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="inlineStr">
+        <is>
+          <t>Radu Dumitru Nica</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="inlineStr">
+        <is>
+          <t>Probity Medical Research, Waterloo, Ontario, Canada, Human Physio-logy, Iuliu Hatieganu University of Medicine and Pharmacy, Romania, Eli Lilly and Company, Indianapolis, Indiana, USA, Department of Derma-tology, University Medical Centre Schleswig-Holstein</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="inlineStr">
+        <is>
+          <t>Campus Kiel, Ger-many</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="inlineStr">
+        <is>
+          <t>P109</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="inlineStr">
+        <is>
+          <t>ABSOLUTE AND RELATIVE PASI IMPROVEMENTS WITH IXEKIZUMAB TREATMENT: RESULTS AT WEEK 12 FROM IXORA­P</t>
+        </is>
+      </c>
+      <c r="F44" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Introduction and Objectives: Ixekizumab (IXE), an interleukin17A	antagonist,	has	shown	superior	efficacy	in	psoriasis	compared  to  placebo,1  etanercept,1  and  ustekinumab.2 This  post  hoc analysis intended to evaluate absolute and relative Psoriasis Area and Severity Index (PASI) improvements with IXE treatment in a phase 3 trial (IXORAP).Methods: In IXORA-P, patients with moderate-to-severe psoriasis were randomized (2:1:1) to receive any of the 3 dosing regimens of  IXE  80  mg:  every  2  weeks  (Q2W;  n = 611),  every  4  weeks (Q4W; n = 310), or Q4W/Q2W step-up (n = 306), for 52 weeks. Randomization	was	stratified	by	country	and	weight	( &lt; 80	kg,	≥80	to  &lt; 100	kg,	or	≥100	kg).	The	percentage	of	patients	achieving	a	75%, 90% or 100% improvement from baseline in PASI (PASI 75,  90,  and  100)  was  evaluated  using  logistic  regression  with dosing regimen, country, and baseline weight as factors. Fisher’s exact test with nonresponder imputation was used to compare the response rates between treatment groups. Here, we present results at 12 weeks for Q2W (label dose) and Q4W groups; results from Q4W/Q2W group will be discussed separately.Results: Mean (standard deviation) PASI score at baseline was 20.3	(8.25).	Response	rates	were	significantly	higher	(p &lt; 0.001) for Q2W group compared to Q4W group across all cut-off points for absolute PASI: absolute PASI ≤ 1, 2, 3, and 5 response rates at Week 12 were 61.4%, 76.1%, 84.5%, and 89.4%, respectively, for Q2W group, and 49.7%, 64.5%, 72.6%, and 83.9%, respectively, for Q4W group. At Week 12, PASI 75 response rates in Q2W and Q4W  groups  were  89.2%  and  83.2%,  respectively  (p = 0.012). For Q2W and Q4W groups, PASI 90 response rates were 75.3% and 63.2%, respectively (p &lt; 0.001), and PASI 100 response rates were 46.0% and 32.6%, respectively (p &lt; 0.001).Conclusion: As reported in psoriasis registration trials, induction with IXE Q2W, the labeled dosing regimen, provides better clinical outcomes at Week 12.[1]	Griffiths	CE,	Reich	K,	Lebwohl	M,	et	al.	Lancet	2015;386:541-51.[2] Reich K, Pinter A, Lacour JP, et al. Br J Dermatol 2017;177(4):1014-23. </t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="inlineStr">
+        <is>
+          <t>Stefan Wilhelm</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="inlineStr">
+        <is>
+          <t>Probity Medical Research, Waterloo, Ontario, Canada, Human Physio-logy, Iuliu Hatieganu University of Medicine and Pharmacy, Romania, Eli Lilly and Company, Indianapolis, Indiana, USA, Department of Derma-tology, University Medical Centre Schleswig-Holstein</t>
+        </is>
+      </c>
+      <c r="C45" s="2" t="inlineStr">
+        <is>
+          <t>Campus Kiel, Ger-many</t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="inlineStr">
+        <is>
+          <t>P109</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="inlineStr">
+        <is>
+          <t>ABSOLUTE AND RELATIVE PASI IMPROVEMENTS WITH IXEKIZUMAB TREATMENT: RESULTS AT WEEK 12 FROM IXORA­P</t>
+        </is>
+      </c>
+      <c r="F45" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Introduction and Objectives: Ixekizumab (IXE), an interleukin17A	antagonist,	has	shown	superior	efficacy	in	psoriasis	compared  to  placebo,1  etanercept,1  and  ustekinumab.2 This  post  hoc analysis intended to evaluate absolute and relative Psoriasis Area and Severity Index (PASI) improvements with IXE treatment in a phase 3 trial (IXORAP).Methods: In IXORA-P, patients with moderate-to-severe psoriasis were randomized (2:1:1) to receive any of the 3 dosing regimens of  IXE  80  mg:  every  2  weeks  (Q2W;  n = 611),  every  4  weeks (Q4W; n = 310), or Q4W/Q2W step-up (n = 306), for 52 weeks. Randomization	was	stratified	by	country	and	weight	( &lt; 80	kg,	≥80	to  &lt; 100	kg,	or	≥100	kg).	The	percentage	of	patients	achieving	a	75%, 90% or 100% improvement from baseline in PASI (PASI 75,  90,  and  100)  was  evaluated  using  logistic  regression  with dosing regimen, country, and baseline weight as factors. Fisher’s exact test with nonresponder imputation was used to compare the response rates between treatment groups. Here, we present results at 12 weeks for Q2W (label dose) and Q4W groups; results from Q4W/Q2W group will be discussed separately.Results: Mean (standard deviation) PASI score at baseline was 20.3	(8.25).	Response	rates	were	significantly	higher	(p &lt; 0.001) for Q2W group compared to Q4W group across all cut-off points for absolute PASI: absolute PASI ≤ 1, 2, 3, and 5 response rates at Week 12 were 61.4%, 76.1%, 84.5%, and 89.4%, respectively, for Q2W group, and 49.7%, 64.5%, 72.6%, and 83.9%, respectively, for Q4W group. At Week 12, PASI 75 response rates in Q2W and Q4W  groups  were  89.2%  and  83.2%,  respectively  (p = 0.012). For Q2W and Q4W groups, PASI 90 response rates were 75.3% and 63.2%, respectively (p &lt; 0.001), and PASI 100 response rates were 46.0% and 32.6%, respectively (p &lt; 0.001).Conclusion: As reported in psoriasis registration trials, induction with IXE Q2W, the labeled dosing regimen, provides better clinical outcomes at Week 12.[1]	Griffiths	CE,	Reich	K,	Lebwohl	M,	et	al.	Lancet	2015;386:541-51.[2] Reich K, Pinter A, Lacour JP, et al. Br J Dermatol 2017;177(4):1014-23. </t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>Ulrich Mrowietz</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>Probity Medical Research, Waterloo, Ontario, Canada, Human Physio-logy, Iuliu Hatieganu University of Medicine and Pharmacy, Romania, Eli Lilly and Company, Indianapolis, Indiana, USA, Department of Derma-tology, University Medical Centre Schleswig-Holstein</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>Campus Kiel, Ger-many</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>P109</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>ABSOLUTE AND RELATIVE PASI IMPROVEMENTS WITH IXEKIZUMAB TREATMENT: RESULTS AT WEEK 12 FROM IXORA­P</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Introduction and Objectives: Ixekizumab (IXE), an interleukin17A	antagonist,	has	shown	superior	efficacy	in	psoriasis	compared  to  placebo,1  etanercept,1  and  ustekinumab.2 This  post  hoc analysis intended to evaluate absolute and relative Psoriasis Area and Severity Index (PASI) improvements with IXE treatment in a phase 3 trial (IXORAP).Methods: In IXORA-P, patients with moderate-to-severe psoriasis were randomized (2:1:1) to receive any of the 3 dosing regimens of  IXE  80  mg:  every  2  weeks  (Q2W;  n = 611),  every  4  weeks (Q4W; n = 310), or Q4W/Q2W step-up (n = 306), for 52 weeks. Randomization	was	stratified	by	country	and	weight	( &lt; 80	kg,	≥80	to  &lt; 100	kg,	or	≥100	kg).	The	percentage	of	patients	achieving	a	75%, 90% or 100% improvement from baseline in PASI (PASI 75,  90,  and  100)  was  evaluated  using  logistic  regression  with dosing regimen, country, and baseline weight as factors. Fisher’s exact test with nonresponder imputation was used to compare the response rates between treatment groups. Here, we present results at 12 weeks for Q2W (label dose) and Q4W groups; results from Q4W/Q2W group will be discussed separately.Results: Mean (standard deviation) PASI score at baseline was 20.3	(8.25).	Response	rates	were	significantly	higher	(p &lt; 0.001) for Q2W group compared to Q4W group across all cut-off points for absolute PASI: absolute PASI ≤ 1, 2, 3, and 5 response rates at Week 12 were 61.4%, 76.1%, 84.5%, and 89.4%, respectively, for Q2W group, and 49.7%, 64.5%, 72.6%, and 83.9%, respectively, for Q4W group. At Week 12, PASI 75 response rates in Q2W and Q4W  groups  were  89.2%  and  83.2%,  respectively  (p = 0.012). For Q2W and Q4W groups, PASI 90 response rates were 75.3% and 63.2%, respectively (p &lt; 0.001), and PASI 100 response rates were 46.0% and 32.6%, respectively (p &lt; 0.001).Conclusion: As reported in psoriasis registration trials, induction with IXE Q2W, the labeled dosing regimen, provides better clinical outcomes at Week 12.[1]	Griffiths	CE,	Reich	K,	Lebwohl	M,	et	al.	Lancet	2015;386:541-51.[2] Reich K, Pinter A, Lacour JP, et al. Br J Dermatol 2017;177(4):1014-23. </t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="inlineStr">
+        <is>
+          <t>Nadezhda Batkaeva</t>
+        </is>
+      </c>
+      <c r="B47" s="2" t="inlineStr">
+        <is>
+          <t>Peoples’ Friendship University of Russia (RUDN University), Research Institute of Rheumatology n. a. V. A. Nasonova</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr"/>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>P110</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PREVALENCE AND SEX DIFFERENCES OF PSORIATIC ARTHRITIS IN PATIENTS WITH SEVERE PLAQUE PSORIASIS. </t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>Background:  Prevalence  of  psoriatic  arthritis  in  patients  with psoriasis	 has	 conflicting	 data	 in	 different	 population.	 But	 no	study  has  been  performed  in  Russian  population  of  prevalence and sex differences of psoriatic arthritis in patients with severe plaque psoriasis.Objectives: to evaluate the prevalence PsA in patients (pts) with PsO in a dermatological hospital cohort.Methods:  890  pts  (Male-516/Female-374)  with  severy  plaque PsO, mean age 50.4±17.6 years, mean PsO duration 21.5±14.7, mean PASI 49.4±0.5 were included. 374 female were divided into groups by age. 113 young F. pts with age less than 49 years (mean age 36.1±11.0 years), 261 old F. pts with age more than 50 years (mean age 63.7±9.6 years). 516 male were divided into groups by age. 304 young M. pts with age less than 54 years (mean age 38.5±11.3  years),  212  old  M.  pts  with  age  more  than  55  years (mean age 38.5±11.3 years) were included. PsO and PsA pts were identify in hospital Database reporting and coding by International 45Statistical	Classification	of	Disease	and	Related	Health	Problems	(ICD-10) between 2010 - 2015 years. PSA was diagnosed after appointment  with  a  rheumatologist  and  an  X-ray  examination. Diagnosis was carried out according to the criteria of CASPAR. M±m, t-test, x2, (%) were calculated. All p &lt; 0.05 were considered to	indicate	statistical	significance.Results: 303 out of 890 pts (34.0%) had psoriatic arthritis (PsA). PsA pts were older then PsO pts without arthritis – 55.3±13.7 years and 50.4±17.6 years accordingly (p &lt; 0.001). PsA was found significantly	often	in	F.	pts	compare	to	M.	pts	–	in	143	out	of	374	pts	(38.2%) and in 129 out of 516 pts (25.0%) accordingly (p &lt; 0.05). PsA	was	found	significantly	often	in	F.	pts	over	50	years	old	(y.o.)	compare to F. pts under 50 y.o. – in 134 out of 261 pts (51.3%) and in 9 out of 113 pts (7.9%) accordingly (p &lt; 0.05). In old M. and young M. PsA was found in the same cases - in 58 out of 212 pts (27.3%) and in 71 out of 304 pts (23.3%) accordingly (p &gt; 0.05).Conclusions: PsA was detected in more than a third of patients with severe plaque psoriasis. PSA was found predominantly often in F. pts over 50 years of age with severe plaque psoriasis. Future investigation	in	this	field	is	needed	to	determine	the	causes	of	high	risks PSA in this age group.</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>Tatiana Korotaeva</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="inlineStr">
+        <is>
+          <t>Peoples’ Friendship University of Russia (RUDN University), Research Institute of Rheumatology n. a. V. A. Nasonova</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr"/>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>P110</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PREVALENCE AND SEX DIFFERENCES OF PSORIATIC ARTHRITIS IN PATIENTS WITH SEVERE PLAQUE PSORIASIS. </t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>Background:  Prevalence  of  psoriatic  arthritis  in  patients  with psoriasis	 has	 conflicting	 data	 in	 different	 population.	 But	 no	study  has  been  performed  in  Russian  population  of  prevalence and sex differences of psoriatic arthritis in patients with severe plaque psoriasis.Objectives: to evaluate the prevalence PsA in patients (pts) with PsO in a dermatological hospital cohort.Methods:  890  pts  (Male-516/Female-374)  with  severy  plaque PsO, mean age 50.4±17.6 years, mean PsO duration 21.5±14.7, mean PASI 49.4±0.5 were included. 374 female were divided into groups by age. 113 young F. pts with age less than 49 years (mean age 36.1±11.0 years), 261 old F. pts with age more than 50 years (mean age 63.7±9.6 years). 516 male were divided into groups by age. 304 young M. pts with age less than 54 years (mean age 38.5±11.3  years),  212  old  M.  pts  with  age  more  than  55  years (mean age 38.5±11.3 years) were included. PsO and PsA pts were identify in hospital Database reporting and coding by International 45Statistical	Classification	of	Disease	and	Related	Health	Problems	(ICD-10) between 2010 - 2015 years. PSA was diagnosed after appointment  with  a  rheumatologist  and  an  X-ray  examination. Diagnosis was carried out according to the criteria of CASPAR. M±m, t-test, x2, (%) were calculated. All p &lt; 0.05 were considered to	indicate	statistical	significance.Results: 303 out of 890 pts (34.0%) had psoriatic arthritis (PsA). PsA pts were older then PsO pts without arthritis – 55.3±13.7 years and 50.4±17.6 years accordingly (p &lt; 0.001). PsA was found significantly	often	in	F.	pts	compare	to	M.	pts	–	in	143	out	of	374	pts	(38.2%) and in 129 out of 516 pts (25.0%) accordingly (p &lt; 0.05). PsA	was	found	significantly	often	in	F.	pts	over	50	years	old	(y.o.)	compare to F. pts under 50 y.o. – in 134 out of 261 pts (51.3%) and in 9 out of 113 pts (7.9%) accordingly (p &lt; 0.05). In old M. and young M. PsA was found in the same cases - in 58 out of 212 pts (27.3%) and in 71 out of 304 pts (23.3%) accordingly (p &gt; 0.05).Conclusions: PsA was detected in more than a third of patients with severe plaque psoriasis. PSA was found predominantly often in F. pts over 50 years of age with severe plaque psoriasis. Future investigation	in	this	field	is	needed	to	determine	the	causes	of	high	risks PSA in this age group.</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="inlineStr">
+        <is>
+          <t>Edgem Batkaev</t>
+        </is>
+      </c>
+      <c r="B49" s="2" t="inlineStr">
+        <is>
+          <t>Peoples’ Friendship University of Russia (RUDN University), Research Institute of Rheumatology n. a. V. A. Nasonova</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr"/>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>P110</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PREVALENCE AND SEX DIFFERENCES OF PSORIATIC ARTHRITIS IN PATIENTS WITH SEVERE PLAQUE PSORIASIS. </t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>Background:  Prevalence  of  psoriatic  arthritis  in  patients  with psoriasis	 has	 conflicting	 data	 in	 different	 population.	 But	 no	study  has  been  performed  in  Russian  population  of  prevalence and sex differences of psoriatic arthritis in patients with severe plaque psoriasis.Objectives: to evaluate the prevalence PsA in patients (pts) with PsO in a dermatological hospital cohort.Methods:  890  pts  (Male-516/Female-374)  with  severy  plaque PsO, mean age 50.4±17.6 years, mean PsO duration 21.5±14.7, mean PASI 49.4±0.5 were included. 374 female were divided into groups by age. 113 young F. pts with age less than 49 years (mean age 36.1±11.0 years), 261 old F. pts with age more than 50 years (mean age 63.7±9.6 years). 516 male were divided into groups by age. 304 young M. pts with age less than 54 years (mean age 38.5±11.3  years),  212  old  M.  pts  with  age  more  than  55  years (mean age 38.5±11.3 years) were included. PsO and PsA pts were identify in hospital Database reporting and coding by International 45Statistical	Classification	of	Disease	and	Related	Health	Problems	(ICD-10) between 2010 - 2015 years. PSA was diagnosed after appointment  with  a  rheumatologist  and  an  X-ray  examination. Diagnosis was carried out according to the criteria of CASPAR. M±m, t-test, x2, (%) were calculated. All p &lt; 0.05 were considered to	indicate	statistical	significance.Results: 303 out of 890 pts (34.0%) had psoriatic arthritis (PsA). PsA pts were older then PsO pts without arthritis – 55.3±13.7 years and 50.4±17.6 years accordingly (p &lt; 0.001). PsA was found significantly	often	in	F.	pts	compare	to	M.	pts	–	in	143	out	of	374	pts	(38.2%) and in 129 out of 516 pts (25.0%) accordingly (p &lt; 0.05). PsA	was	found	significantly	often	in	F.	pts	over	50	years	old	(y.o.)	compare to F. pts under 50 y.o. – in 134 out of 261 pts (51.3%) and in 9 out of 113 pts (7.9%) accordingly (p &lt; 0.05). In old M. and young M. PsA was found in the same cases - in 58 out of 212 pts (27.3%) and in 71 out of 304 pts (23.3%) accordingly (p &gt; 0.05).Conclusions: PsA was detected in more than a third of patients with severe plaque psoriasis. PSA was found predominantly often in F. pts over 50 years of age with severe plaque psoriasis. Future investigation	in	this	field	is	needed	to	determine	the	causes	of	high	risks PSA in this age group.</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>Elena Gubar</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="inlineStr">
+        <is>
+          <t>Nasonova Research Institute of Rheumatology, Moscow</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>Nasonova Research Institute of Rheumatology, Moscow</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>P111</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>SKIN LESION SEVERITY IN EARLY AXIAL AND PERIPHERAL PSORIATIC ARTHRITIS PATIENTS</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>Introduction: Comparative analysis of skin lesion severity in early PsA patients with and without axial involvement hadn’t been sufficiently	studied.Objective:to compare skin lesion severity of two early peripheral PsA patient populations – with and without axial involvement.Methods: 95 patients (pts) (M/F–47 /48) with early PsA according to CASPAR criteria were included; all pts had peripheral arthritis for ≤ 2	years;	no	inflammatory	back	pain	(IBP)	pts	were	specially	selected.  Mean  age  36.5±10.7  yrs,  disease  duration  12.2±10.3 mo, disease activity indexes DAS = 4.0±1.4, DAS28 = 4.2± 1.1, BASDAI = 4.5±1.6. Skin lesion severity was evaluated in terms of body surface area (BSA) affected and Psoriasis Area Severity Index	(PASI).	When	BSA	was	≥3%,	PASI	was	calculated.	PASI	≥11	indicates	moderate	and	severe	psoriasis.All	pts	were	evaluated	for	the	presence	of	inflammatory	back	pain	(IBP) by ASAS criteria. IBP was observed in 63 (66.3%) cases. Magnetic resonance imaging (MRI) of SIJs was performed in 79 pts, regardless of the presence of IBP, on Signa Ovation 0,35T. MRI results were evaluated by an independent reader. Bone marrow edema on MRI (STIR) was considered as active MRI sacroiliitis (MRI-SI). MRI-SI was detected in 28 of 79 (35.4%) examined cases. The examination also included X-ray of sacroiliac joints (SIJs) (pelvic radiographs). Radiographic sacroiliitis (R-SI) was considered	according	to	New	York	criteria	(unilateral	grade≥3	or	bilateral	grade≥2).	R-SI	was	found	in	29	(30.5%)	cases.	Pts	were	split into two groups: those with axial involvement (axPsA), that is with IBP and/or MRI-SI and/or R-SI; and those without axial involvement  (having  only  peripheral  PsA  [pPsA]).  The  axPsA group included 65 (68.4%) cases, the pPsA one 30 (31.6%) cases. Results: skin lesions’ severity was higher in the axPsA group than in the pPsA group: in axPsA pts BSA median was 3.0 [1.0 – 9.0] and	in	pPsA	pts	it	was	1.0	[0.2	–	3.0]	(р = 0.007); in the axPsA group PASI median was 15.6 [6.6 – 55.2] and in the pPsA group it	was	6.0	[0.0	–	7.2]	(р = 0.006).Conclusion: Axial involvement in early PsA patients is associated with	skin	lesions’	severity.	These	findings	may	have	a	positive	impact on the selection of the best therapeutic strategy. 46</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="inlineStr">
+        <is>
+          <t>Elena Loginova</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="inlineStr">
+        <is>
+          <t>Nasonova Research Institute of Rheumatology, Moscow</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>Nasonova Research Institute of Rheumatology, Moscow</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>P111</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>SKIN LESION SEVERITY IN EARLY AXIAL AND PERIPHERAL PSORIATIC ARTHRITIS PATIENTS</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>Introduction: Comparative analysis of skin lesion severity in early PsA patients with and without axial involvement hadn’t been sufficiently	studied.Objective:to compare skin lesion severity of two early peripheral PsA patient populations – with and without axial involvement.Methods: 95 patients (pts) (M/F–47 /48) with early PsA according to CASPAR criteria were included; all pts had peripheral arthritis for ≤ 2	years;	no	inflammatory	back	pain	(IBP)	pts	were	specially	selected.  Mean  age  36.5±10.7  yrs,  disease  duration  12.2±10.3 mo, disease activity indexes DAS = 4.0±1.4, DAS28 = 4.2± 1.1, BASDAI = 4.5±1.6. Skin lesion severity was evaluated in terms of body surface area (BSA) affected and Psoriasis Area Severity Index	(PASI).	When	BSA	was	≥3%,	PASI	was	calculated.	PASI	≥11	indicates	moderate	and	severe	psoriasis.All	pts	were	evaluated	for	the	presence	of	inflammatory	back	pain	(IBP) by ASAS criteria. IBP was observed in 63 (66.3%) cases. Magnetic resonance imaging (MRI) of SIJs was performed in 79 pts, regardless of the presence of IBP, on Signa Ovation 0,35T. MRI results were evaluated by an independent reader. Bone marrow edema on MRI (STIR) was considered as active MRI sacroiliitis (MRI-SI). MRI-SI was detected in 28 of 79 (35.4%) examined cases. The examination also included X-ray of sacroiliac joints (SIJs) (pelvic radiographs). Radiographic sacroiliitis (R-SI) was considered	according	to	New	York	criteria	(unilateral	grade≥3	or	bilateral	grade≥2).	R-SI	was	found	in	29	(30.5%)	cases.	Pts	were	split into two groups: those with axial involvement (axPsA), that is with IBP and/or MRI-SI and/or R-SI; and those without axial involvement  (having  only  peripheral  PsA  [pPsA]).  The  axPsA group included 65 (68.4%) cases, the pPsA one 30 (31.6%) cases. Results: skin lesions’ severity was higher in the axPsA group than in the pPsA group: in axPsA pts BSA median was 3.0 [1.0 – 9.0] and	in	pPsA	pts	it	was	1.0	[0.2	–	3.0]	(р = 0.007); in the axPsA group PASI median was 15.6 [6.6 – 55.2] and in the pPsA group it	was	6.0	[0.0	–	7.2]	(р = 0.006).Conclusion: Axial involvement in early PsA patients is associated with	skin	lesions’	severity.	These	findings	may	have	a	positive	impact on the selection of the best therapeutic strategy. 46</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>Svetlana Glukhova</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="inlineStr">
+        <is>
+          <t>Nasonova Research Institute of Rheumatology, Moscow</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>Nasonova Research Institute of Rheumatology, Moscow</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>P111</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>SKIN LESION SEVERITY IN EARLY AXIAL AND PERIPHERAL PSORIATIC ARTHRITIS PATIENTS</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>Introduction: Comparative analysis of skin lesion severity in early PsA patients with and without axial involvement hadn’t been sufficiently	studied.Objective:to compare skin lesion severity of two early peripheral PsA patient populations – with and without axial involvement.Methods: 95 patients (pts) (M/F–47 /48) with early PsA according to CASPAR criteria were included; all pts had peripheral arthritis for ≤ 2	years;	no	inflammatory	back	pain	(IBP)	pts	were	specially	selected.  Mean  age  36.5±10.7  yrs,  disease  duration  12.2±10.3 mo, disease activity indexes DAS = 4.0±1.4, DAS28 = 4.2± 1.1, BASDAI = 4.5±1.6. Skin lesion severity was evaluated in terms of body surface area (BSA) affected and Psoriasis Area Severity Index	(PASI).	When	BSA	was	≥3%,	PASI	was	calculated.	PASI	≥11	indicates	moderate	and	severe	psoriasis.All	pts	were	evaluated	for	the	presence	of	inflammatory	back	pain	(IBP) by ASAS criteria. IBP was observed in 63 (66.3%) cases. Magnetic resonance imaging (MRI) of SIJs was performed in 79 pts, regardless of the presence of IBP, on Signa Ovation 0,35T. MRI results were evaluated by an independent reader. Bone marrow edema on MRI (STIR) was considered as active MRI sacroiliitis (MRI-SI). MRI-SI was detected in 28 of 79 (35.4%) examined cases. The examination also included X-ray of sacroiliac joints (SIJs) (pelvic radiographs). Radiographic sacroiliitis (R-SI) was considered	according	to	New	York	criteria	(unilateral	grade≥3	or	bilateral	grade≥2).	R-SI	was	found	in	29	(30.5%)	cases.	Pts	were	split into two groups: those with axial involvement (axPsA), that is with IBP and/or MRI-SI and/or R-SI; and those without axial involvement  (having  only  peripheral  PsA  [pPsA]).  The  axPsA group included 65 (68.4%) cases, the pPsA one 30 (31.6%) cases. Results: skin lesions’ severity was higher in the axPsA group than in the pPsA group: in axPsA pts BSA median was 3.0 [1.0 – 9.0] and	in	pPsA	pts	it	was	1.0	[0.2	–	3.0]	(р = 0.007); in the axPsA group PASI median was 15.6 [6.6 – 55.2] and in the pPsA group it	was	6.0	[0.0	–	7.2]	(р = 0.006).Conclusion: Axial involvement in early PsA patients is associated with	skin	lesions’	severity.	These	findings	may	have	a	positive	impact on the selection of the best therapeutic strategy. 46</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="inlineStr">
+        <is>
+          <t>Tatiana Koro-taeva</t>
+        </is>
+      </c>
+      <c r="B53" s="2" t="inlineStr">
+        <is>
+          <t>Nasonova Research Institute of Rheumatology, Moscow</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>Nasonova Research Institute of Rheumatology, Moscow</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>P111</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>SKIN LESION SEVERITY IN EARLY AXIAL AND PERIPHERAL PSORIATIC ARTHRITIS PATIENTS</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>Introduction: Comparative analysis of skin lesion severity in early PsA patients with and without axial involvement hadn’t been sufficiently	studied.Objective:to compare skin lesion severity of two early peripheral PsA patient populations – with and without axial involvement.Methods: 95 patients (pts) (M/F–47 /48) with early PsA according to CASPAR criteria were included; all pts had peripheral arthritis for ≤ 2	years;	no	inflammatory	back	pain	(IBP)	pts	were	specially	selected.  Mean  age  36.5±10.7  yrs,  disease  duration  12.2±10.3 mo, disease activity indexes DAS = 4.0±1.4, DAS28 = 4.2± 1.1, BASDAI = 4.5±1.6. Skin lesion severity was evaluated in terms of body surface area (BSA) affected and Psoriasis Area Severity Index	(PASI).	When	BSA	was	≥3%,	PASI	was	calculated.	PASI	≥11	indicates	moderate	and	severe	psoriasis.All	pts	were	evaluated	for	the	presence	of	inflammatory	back	pain	(IBP) by ASAS criteria. IBP was observed in 63 (66.3%) cases. Magnetic resonance imaging (MRI) of SIJs was performed in 79 pts, regardless of the presence of IBP, on Signa Ovation 0,35T. MRI results were evaluated by an independent reader. Bone marrow edema on MRI (STIR) was considered as active MRI sacroiliitis (MRI-SI). MRI-SI was detected in 28 of 79 (35.4%) examined cases. The examination also included X-ray of sacroiliac joints (SIJs) (pelvic radiographs). Radiographic sacroiliitis (R-SI) was considered	according	to	New	York	criteria	(unilateral	grade≥3	or	bilateral	grade≥2).	R-SI	was	found	in	29	(30.5%)	cases.	Pts	were	split into two groups: those with axial involvement (axPsA), that is with IBP and/or MRI-SI and/or R-SI; and those without axial involvement  (having  only  peripheral  PsA  [pPsA]).  The  axPsA group included 65 (68.4%) cases, the pPsA one 30 (31.6%) cases. Results: skin lesions’ severity was higher in the axPsA group than in the pPsA group: in axPsA pts BSA median was 3.0 [1.0 – 9.0] and	in	pPsA	pts	it	was	1.0	[0.2	–	3.0]	(р = 0.007); in the axPsA group PASI median was 15.6 [6.6 – 55.2] and in the pPsA group it	was	6.0	[0.0	–	7.2]	(р = 0.006).Conclusion: Axial involvement in early PsA patients is associated with	skin	lesions’	severity.	These	findings	may	have	a	positive	impact on the selection of the best therapeutic strategy. 46</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="inlineStr">
+        <is>
+          <t>Steven Feldman</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="inlineStr">
+        <is>
+          <t>Wake Forest School of Medicine, Winston-Salem, NC, Janssen Scientific Affairs, LLC, Horsham PA, HealthiVibe, LLC, Arlington, VA, University of North Carolina, Chapel Hill</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>NC, USA</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>P112</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GASTROINTESTINAL SYMPTOMS ARE COMMON IN U.S. PATIENTS WITH MODERATE­SEVERE PSORIASIS </t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Background/Objective:Patients  with  moderate-to-severe  plaque psoriasis	(PsO)	are	at	increased	risk	of	developing	inflammatory	bowel  disease  (IBD). A  survey  was  conducted  to  evaluate  the prevalence of gastrointestinal symptoms in PsO patients.Methods: An electronic survey was available to U.S. PsO patients with data collected from Jan-Feb. 2017. Patients with moderateto-severe plaque PsO and healthy controls (HC), with common co-morbidities	allowed	in	both	groups	qualified	for	inclusion	in	the  survey.  Psoriasis  patients  were  further  categorized  as  those without recent exposure to biologic therapy (PsO-) vs those with recent (within 4 months) biologic exposure (PsO+). GI symptoms and signs, including frequency and severity, were compared across groups. CalproQuest (CPQ) scores, which have recently been proposed as a tool to identify patients with elevated fecal calprotectin levels and increased risk for IBD, were also calculated. Patients with	 inflammatory	 bowel	 disease	 (IBD),	 inflammatory	 bowel	syndrome  (IBS),  or  other  gastrointestinal  (GI)  diagnoses  with symptoms that overlap with IBD were excluded.Results: Overall, 915 patients with self-reported moderate-severe PsO and 1,411 healthy controls participated. Demographics were generally comparable between groups. GI symptoms and signs were	significantly	more	prevalent	in	the	PsO-	and	PsO+	groups	vs the HC group, respectively: pain- 20.6% and 36.9% vs 10.5%; fullness/bloating- 37.2% and 48.4% vs 25.3%; and diarrhea (16.3% and  29.3%  vs  12.2%  (all  p-values = 0.002  except  diarrhea  for PsO- vs HC, p = 0.023). Mucous and blood in the stool followed a	similar	pattern.	A	significantly	greater	percentage	of	PsO-	and	PsO+ patients had positive CPQ scores vs HCs, with the greatest percentage of positive CPQ scores in the PsO+ group. Conclusion: GI symptoms and signs are common in patients with moderate-to-severe PsO, more so than in healthy controls. This suggests that physicians caring for patients with PsO may consider assessing for GI symptoms and signs, and monitoring for their progression with treatment of PsO to identify patients potentially at risk for developing IBD. </t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="inlineStr">
+        <is>
+          <t>Steve Fakharzadeh</t>
+        </is>
+      </c>
+      <c r="B55" s="2" t="inlineStr">
+        <is>
+          <t>Wake Forest School of Medicine, Winston-Salem, NC, Janssen Scientific Affairs, LLC, Horsham PA, HealthiVibe, LLC, Arlington, VA, University of North Carolina, Chapel Hill</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>NC, USA</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>P112</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GASTROINTESTINAL SYMPTOMS ARE COMMON IN U.S. PATIENTS WITH MODERATE­SEVERE PSORIASIS </t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Background/Objective:Patients  with  moderate-to-severe  plaque psoriasis	(PsO)	are	at	increased	risk	of	developing	inflammatory	bowel  disease  (IBD). A  survey  was  conducted  to  evaluate  the prevalence of gastrointestinal symptoms in PsO patients.Methods: An electronic survey was available to U.S. PsO patients with data collected from Jan-Feb. 2017. Patients with moderateto-severe plaque PsO and healthy controls (HC), with common co-morbidities	allowed	in	both	groups	qualified	for	inclusion	in	the  survey.  Psoriasis  patients  were  further  categorized  as  those without recent exposure to biologic therapy (PsO-) vs those with recent (within 4 months) biologic exposure (PsO+). GI symptoms and signs, including frequency and severity, were compared across groups. CalproQuest (CPQ) scores, which have recently been proposed as a tool to identify patients with elevated fecal calprotectin levels and increased risk for IBD, were also calculated. Patients with	 inflammatory	 bowel	 disease	 (IBD),	 inflammatory	 bowel	syndrome  (IBS),  or  other  gastrointestinal  (GI)  diagnoses  with symptoms that overlap with IBD were excluded.Results: Overall, 915 patients with self-reported moderate-severe PsO and 1,411 healthy controls participated. Demographics were generally comparable between groups. GI symptoms and signs were	significantly	more	prevalent	in	the	PsO-	and	PsO+	groups	vs the HC group, respectively: pain- 20.6% and 36.9% vs 10.5%; fullness/bloating- 37.2% and 48.4% vs 25.3%; and diarrhea (16.3% and  29.3%  vs  12.2%  (all  p-values = 0.002  except  diarrhea  for PsO- vs HC, p = 0.023). Mucous and blood in the stool followed a	similar	pattern.	A	significantly	greater	percentage	of	PsO-	and	PsO+ patients had positive CPQ scores vs HCs, with the greatest percentage of positive CPQ scores in the PsO+ group. Conclusion: GI symptoms and signs are common in patients with moderate-to-severe PsO, more so than in healthy controls. This suggests that physicians caring for patients with PsO may consider assessing for GI symptoms and signs, and monitoring for their progression with treatment of PsO to identify patients potentially at risk for developing IBD. </t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="inlineStr">
+        <is>
+          <t>Jill Abell</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="inlineStr">
+        <is>
+          <t>Wake Forest School of Medicine, Winston-Salem, NC, Janssen Scientific Affairs, LLC, Horsham PA, HealthiVibe, LLC, Arlington, VA, University of North Carolina, Chapel Hill</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>NC, USA</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>P112</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GASTROINTESTINAL SYMPTOMS ARE COMMON IN U.S. PATIENTS WITH MODERATE­SEVERE PSORIASIS </t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Background/Objective:Patients  with  moderate-to-severe  plaque psoriasis	(PsO)	are	at	increased	risk	of	developing	inflammatory	bowel  disease  (IBD). A  survey  was  conducted  to  evaluate  the prevalence of gastrointestinal symptoms in PsO patients.Methods: An electronic survey was available to U.S. PsO patients with data collected from Jan-Feb. 2017. Patients with moderateto-severe plaque PsO and healthy controls (HC), with common co-morbidities	allowed	in	both	groups	qualified	for	inclusion	in	the  survey.  Psoriasis  patients  were  further  categorized  as  those without recent exposure to biologic therapy (PsO-) vs those with recent (within 4 months) biologic exposure (PsO+). GI symptoms and signs, including frequency and severity, were compared across groups. CalproQuest (CPQ) scores, which have recently been proposed as a tool to identify patients with elevated fecal calprotectin levels and increased risk for IBD, were also calculated. Patients with	 inflammatory	 bowel	 disease	 (IBD),	 inflammatory	 bowel	syndrome  (IBS),  or  other  gastrointestinal  (GI)  diagnoses  with symptoms that overlap with IBD were excluded.Results: Overall, 915 patients with self-reported moderate-severe PsO and 1,411 healthy controls participated. Demographics were generally comparable between groups. GI symptoms and signs were	significantly	more	prevalent	in	the	PsO-	and	PsO+	groups	vs the HC group, respectively: pain- 20.6% and 36.9% vs 10.5%; fullness/bloating- 37.2% and 48.4% vs 25.3%; and diarrhea (16.3% and  29.3%  vs  12.2%  (all  p-values = 0.002  except  diarrhea  for PsO- vs HC, p = 0.023). Mucous and blood in the stool followed a	similar	pattern.	A	significantly	greater	percentage	of	PsO-	and	PsO+ patients had positive CPQ scores vs HCs, with the greatest percentage of positive CPQ scores in the PsO+ group. Conclusion: GI symptoms and signs are common in patients with moderate-to-severe PsO, more so than in healthy controls. This suggests that physicians caring for patients with PsO may consider assessing for GI symptoms and signs, and monitoring for their progression with treatment of PsO to identify patients potentially at risk for developing IBD. </t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="inlineStr">
+        <is>
+          <t>Timothy Hoops</t>
+        </is>
+      </c>
+      <c r="B57" s="2" t="inlineStr">
+        <is>
+          <t>Wake Forest School of Medicine, Winston-Salem, NC, Janssen Scientific Affairs, LLC, Horsham PA, HealthiVibe, LLC, Arlington, VA, University of North Carolina, Chapel Hill</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>NC, USA</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>P112</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GASTROINTESTINAL SYMPTOMS ARE COMMON IN U.S. PATIENTS WITH MODERATE­SEVERE PSORIASIS </t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Background/Objective:Patients  with  moderate-to-severe  plaque psoriasis	(PsO)	are	at	increased	risk	of	developing	inflammatory	bowel  disease  (IBD). A  survey  was  conducted  to  evaluate  the prevalence of gastrointestinal symptoms in PsO patients.Methods: An electronic survey was available to U.S. PsO patients with data collected from Jan-Feb. 2017. Patients with moderateto-severe plaque PsO and healthy controls (HC), with common co-morbidities	allowed	in	both	groups	qualified	for	inclusion	in	the  survey.  Psoriasis  patients  were  further  categorized  as  those without recent exposure to biologic therapy (PsO-) vs those with recent (within 4 months) biologic exposure (PsO+). GI symptoms and signs, including frequency and severity, were compared across groups. CalproQuest (CPQ) scores, which have recently been proposed as a tool to identify patients with elevated fecal calprotectin levels and increased risk for IBD, were also calculated. Patients with	 inflammatory	 bowel	 disease	 (IBD),	 inflammatory	 bowel	syndrome  (IBS),  or  other  gastrointestinal  (GI)  diagnoses  with symptoms that overlap with IBD were excluded.Results: Overall, 915 patients with self-reported moderate-severe PsO and 1,411 healthy controls participated. Demographics were generally comparable between groups. GI symptoms and signs were	significantly	more	prevalent	in	the	PsO-	and	PsO+	groups	vs the HC group, respectively: pain- 20.6% and 36.9% vs 10.5%; fullness/bloating- 37.2% and 48.4% vs 25.3%; and diarrhea (16.3% and  29.3%  vs  12.2%  (all  p-values = 0.002  except  diarrhea  for PsO- vs HC, p = 0.023). Mucous and blood in the stool followed a	similar	pattern.	A	significantly	greater	percentage	of	PsO-	and	PsO+ patients had positive CPQ scores vs HCs, with the greatest percentage of positive CPQ scores in the PsO+ group. Conclusion: GI symptoms and signs are common in patients with moderate-to-severe PsO, more so than in healthy controls. This suggests that physicians caring for patients with PsO may consider assessing for GI symptoms and signs, and monitoring for their progression with treatment of PsO to identify patients potentially at risk for developing IBD. </t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>Bhaskar Srivastava</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="inlineStr">
+        <is>
+          <t>Wake Forest School of Medicine, Winston-Salem, NC, Janssen Scientific Affairs, LLC, Horsham PA, HealthiVibe, LLC, Arlington, VA, University of North Carolina, Chapel Hill</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>NC, USA</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>P112</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GASTROINTESTINAL SYMPTOMS ARE COMMON IN U.S. PATIENTS WITH MODERATE­SEVERE PSORIASIS </t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Background/Objective:Patients  with  moderate-to-severe  plaque psoriasis	(PsO)	are	at	increased	risk	of	developing	inflammatory	bowel  disease  (IBD). A  survey  was  conducted  to  evaluate  the prevalence of gastrointestinal symptoms in PsO patients.Methods: An electronic survey was available to U.S. PsO patients with data collected from Jan-Feb. 2017. Patients with moderateto-severe plaque PsO and healthy controls (HC), with common co-morbidities	allowed	in	both	groups	qualified	for	inclusion	in	the  survey.  Psoriasis  patients  were  further  categorized  as  those without recent exposure to biologic therapy (PsO-) vs those with recent (within 4 months) biologic exposure (PsO+). GI symptoms and signs, including frequency and severity, were compared across groups. CalproQuest (CPQ) scores, which have recently been proposed as a tool to identify patients with elevated fecal calprotectin levels and increased risk for IBD, were also calculated. Patients with	 inflammatory	 bowel	 disease	 (IBD),	 inflammatory	 bowel	syndrome  (IBS),  or  other  gastrointestinal  (GI)  diagnoses  with symptoms that overlap with IBD were excluded.Results: Overall, 915 patients with self-reported moderate-severe PsO and 1,411 healthy controls participated. Demographics were generally comparable between groups. GI symptoms and signs were	significantly	more	prevalent	in	the	PsO-	and	PsO+	groups	vs the HC group, respectively: pain- 20.6% and 36.9% vs 10.5%; fullness/bloating- 37.2% and 48.4% vs 25.3%; and diarrhea (16.3% and  29.3%  vs  12.2%  (all  p-values = 0.002  except  diarrhea  for PsO- vs HC, p = 0.023). Mucous and blood in the stool followed a	similar	pattern.	A	significantly	greater	percentage	of	PsO-	and	PsO+ patients had positive CPQ scores vs HCs, with the greatest percentage of positive CPQ scores in the PsO+ group. Conclusion: GI symptoms and signs are common in patients with moderate-to-severe PsO, more so than in healthy controls. This suggests that physicians caring for patients with PsO may consider assessing for GI symptoms and signs, and monitoring for their progression with treatment of PsO to identify patients potentially at risk for developing IBD. </t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="inlineStr">
+        <is>
+          <t>Erik Muser</t>
+        </is>
+      </c>
+      <c r="B59" s="2" t="inlineStr">
+        <is>
+          <t>Wake Forest School of Medicine, Winston-Salem, NC, Janssen Scientific Affairs, LLC, Horsham PA, HealthiVibe, LLC, Arlington, VA, University of North Carolina, Chapel Hill</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>NC, USA</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>P112</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GASTROINTESTINAL SYMPTOMS ARE COMMON IN U.S. PATIENTS WITH MODERATE­SEVERE PSORIASIS </t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Background/Objective:Patients  with  moderate-to-severe  plaque psoriasis	(PsO)	are	at	increased	risk	of	developing	inflammatory	bowel  disease  (IBD). A  survey  was  conducted  to  evaluate  the prevalence of gastrointestinal symptoms in PsO patients.Methods: An electronic survey was available to U.S. PsO patients with data collected from Jan-Feb. 2017. Patients with moderateto-severe plaque PsO and healthy controls (HC), with common co-morbidities	allowed	in	both	groups	qualified	for	inclusion	in	the  survey.  Psoriasis  patients  were  further  categorized  as  those without recent exposure to biologic therapy (PsO-) vs those with recent (within 4 months) biologic exposure (PsO+). GI symptoms and signs, including frequency and severity, were compared across groups. CalproQuest (CPQ) scores, which have recently been proposed as a tool to identify patients with elevated fecal calprotectin levels and increased risk for IBD, were also calculated. Patients with	 inflammatory	 bowel	 disease	 (IBD),	 inflammatory	 bowel	syndrome  (IBS),  or  other  gastrointestinal  (GI)  diagnoses  with symptoms that overlap with IBD were excluded.Results: Overall, 915 patients with self-reported moderate-severe PsO and 1,411 healthy controls participated. Demographics were generally comparable between groups. GI symptoms and signs were	significantly	more	prevalent	in	the	PsO-	and	PsO+	groups	vs the HC group, respectively: pain- 20.6% and 36.9% vs 10.5%; fullness/bloating- 37.2% and 48.4% vs 25.3%; and diarrhea (16.3% and  29.3%  vs  12.2%  (all  p-values = 0.002  except  diarrhea  for PsO- vs HC, p = 0.023). Mucous and blood in the stool followed a	similar	pattern.	A	significantly	greater	percentage	of	PsO-	and	PsO+ patients had positive CPQ scores vs HCs, with the greatest percentage of positive CPQ scores in the PsO+ group. Conclusion: GI symptoms and signs are common in patients with moderate-to-severe PsO, more so than in healthy controls. This suggests that physicians caring for patients with PsO may consider assessing for GI symptoms and signs, and monitoring for their progression with treatment of PsO to identify patients potentially at risk for developing IBD. </t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="inlineStr">
+        <is>
+          <t>Danielle Dungee</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="inlineStr">
+        <is>
+          <t>Wake Forest School of Medicine, Winston-Salem, NC, Janssen Scientific Affairs, LLC, Horsham PA, HealthiVibe, LLC, Arlington, VA, University of North Carolina, Chapel Hill</t>
+        </is>
+      </c>
+      <c r="C60" s="2" t="inlineStr">
+        <is>
+          <t>NC, USA</t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="inlineStr">
+        <is>
+          <t>P112</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GASTROINTESTINAL SYMPTOMS ARE COMMON IN U.S. PATIENTS WITH MODERATE­SEVERE PSORIASIS </t>
+        </is>
+      </c>
+      <c r="F60" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Background/Objective:Patients  with  moderate-to-severe  plaque psoriasis	(PsO)	are	at	increased	risk	of	developing	inflammatory	bowel  disease  (IBD). A  survey  was  conducted  to  evaluate  the prevalence of gastrointestinal symptoms in PsO patients.Methods: An electronic survey was available to U.S. PsO patients with data collected from Jan-Feb. 2017. Patients with moderateto-severe plaque PsO and healthy controls (HC), with common co-morbidities	allowed	in	both	groups	qualified	for	inclusion	in	the  survey.  Psoriasis  patients  were  further  categorized  as  those without recent exposure to biologic therapy (PsO-) vs those with recent (within 4 months) biologic exposure (PsO+). GI symptoms and signs, including frequency and severity, were compared across groups. CalproQuest (CPQ) scores, which have recently been proposed as a tool to identify patients with elevated fecal calprotectin levels and increased risk for IBD, were also calculated. Patients with	 inflammatory	 bowel	 disease	 (IBD),	 inflammatory	 bowel	syndrome  (IBS),  or  other  gastrointestinal  (GI)  diagnoses  with symptoms that overlap with IBD were excluded.Results: Overall, 915 patients with self-reported moderate-severe PsO and 1,411 healthy controls participated. Demographics were generally comparable between groups. GI symptoms and signs were	significantly	more	prevalent	in	the	PsO-	and	PsO+	groups	vs the HC group, respectively: pain- 20.6% and 36.9% vs 10.5%; fullness/bloating- 37.2% and 48.4% vs 25.3%; and diarrhea (16.3% and  29.3%  vs  12.2%  (all  p-values = 0.002  except  diarrhea  for PsO- vs HC, p = 0.023). Mucous and blood in the stool followed a	similar	pattern.	A	significantly	greater	percentage	of	PsO-	and	PsO+ patients had positive CPQ scores vs HCs, with the greatest percentage of positive CPQ scores in the PsO+ group. Conclusion: GI symptoms and signs are common in patients with moderate-to-severe PsO, more so than in healthy controls. This suggests that physicians caring for patients with PsO may consider assessing for GI symptoms and signs, and monitoring for their progression with treatment of PsO to identify patients potentially at risk for developing IBD. </t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="inlineStr">
+        <is>
+          <t>Sean Quinn</t>
+        </is>
+      </c>
+      <c r="B61" s="2" t="inlineStr">
+        <is>
+          <t>Wake Forest School of Medicine, Winston-Salem, NC, Janssen Scientific Affairs, LLC, Horsham PA, HealthiVibe, LLC, Arlington, VA, University of North Carolina, Chapel Hill</t>
+        </is>
+      </c>
+      <c r="C61" s="2" t="inlineStr">
+        <is>
+          <t>NC, USA</t>
+        </is>
+      </c>
+      <c r="D61" s="2" t="inlineStr">
+        <is>
+          <t>P112</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GASTROINTESTINAL SYMPTOMS ARE COMMON IN U.S. PATIENTS WITH MODERATE­SEVERE PSORIASIS </t>
+        </is>
+      </c>
+      <c r="F61" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Background/Objective:Patients  with  moderate-to-severe  plaque psoriasis	(PsO)	are	at	increased	risk	of	developing	inflammatory	bowel  disease  (IBD). A  survey  was  conducted  to  evaluate  the prevalence of gastrointestinal symptoms in PsO patients.Methods: An electronic survey was available to U.S. PsO patients with data collected from Jan-Feb. 2017. Patients with moderateto-severe plaque PsO and healthy controls (HC), with common co-morbidities	allowed	in	both	groups	qualified	for	inclusion	in	the  survey.  Psoriasis  patients  were  further  categorized  as  those without recent exposure to biologic therapy (PsO-) vs those with recent (within 4 months) biologic exposure (PsO+). GI symptoms and signs, including frequency and severity, were compared across groups. CalproQuest (CPQ) scores, which have recently been proposed as a tool to identify patients with elevated fecal calprotectin levels and increased risk for IBD, were also calculated. Patients with	 inflammatory	 bowel	 disease	 (IBD),	 inflammatory	 bowel	syndrome  (IBS),  or  other  gastrointestinal  (GI)  diagnoses  with symptoms that overlap with IBD were excluded.Results: Overall, 915 patients with self-reported moderate-severe PsO and 1,411 healthy controls participated. Demographics were generally comparable between groups. GI symptoms and signs were	significantly	more	prevalent	in	the	PsO-	and	PsO+	groups	vs the HC group, respectively: pain- 20.6% and 36.9% vs 10.5%; fullness/bloating- 37.2% and 48.4% vs 25.3%; and diarrhea (16.3% and  29.3%  vs  12.2%  (all  p-values = 0.002  except  diarrhea  for PsO- vs HC, p = 0.023). Mucous and blood in the stool followed a	similar	pattern.	A	significantly	greater	percentage	of	PsO-	and	PsO+ patients had positive CPQ scores vs HCs, with the greatest percentage of positive CPQ scores in the PsO+ group. Conclusion: GI symptoms and signs are common in patients with moderate-to-severe PsO, more so than in healthy controls. This suggests that physicians caring for patients with PsO may consider assessing for GI symptoms and signs, and monitoring for their progression with treatment of PsO to identify patients potentially at risk for developing IBD. </t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>Megan Leone Perkins</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="inlineStr">
+        <is>
+          <t>Wake Forest School of Medicine, Winston-Salem, NC, Janssen Scientific Affairs, LLC, Horsham PA, HealthiVibe, LLC, Arlington, VA, University of North Carolina, Chapel Hill</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="inlineStr">
+        <is>
+          <t>NC, USA</t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="inlineStr">
+        <is>
+          <t>P112</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GASTROINTESTINAL SYMPTOMS ARE COMMON IN U.S. PATIENTS WITH MODERATE­SEVERE PSORIASIS </t>
+        </is>
+      </c>
+      <c r="F62" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Background/Objective:Patients  with  moderate-to-severe  plaque psoriasis	(PsO)	are	at	increased	risk	of	developing	inflammatory	bowel  disease  (IBD). A  survey  was  conducted  to  evaluate  the prevalence of gastrointestinal symptoms in PsO patients.Methods: An electronic survey was available to U.S. PsO patients with data collected from Jan-Feb. 2017. Patients with moderateto-severe plaque PsO and healthy controls (HC), with common co-morbidities	allowed	in	both	groups	qualified	for	inclusion	in	the  survey.  Psoriasis  patients  were  further  categorized  as  those without recent exposure to biologic therapy (PsO-) vs those with recent (within 4 months) biologic exposure (PsO+). GI symptoms and signs, including frequency and severity, were compared across groups. CalproQuest (CPQ) scores, which have recently been proposed as a tool to identify patients with elevated fecal calprotectin levels and increased risk for IBD, were also calculated. Patients with	 inflammatory	 bowel	 disease	 (IBD),	 inflammatory	 bowel	syndrome  (IBS),  or  other  gastrointestinal  (GI)  diagnoses  with symptoms that overlap with IBD were excluded.Results: Overall, 915 patients with self-reported moderate-severe PsO and 1,411 healthy controls participated. Demographics were generally comparable between groups. GI symptoms and signs were	significantly	more	prevalent	in	the	PsO-	and	PsO+	groups	vs the HC group, respectively: pain- 20.6% and 36.9% vs 10.5%; fullness/bloating- 37.2% and 48.4% vs 25.3%; and diarrhea (16.3% and  29.3%  vs  12.2%  (all  p-values = 0.002  except  diarrhea  for PsO- vs HC, p = 0.023). Mucous and blood in the stool followed a	similar	pattern.	A	significantly	greater	percentage	of	PsO-	and	PsO+ patients had positive CPQ scores vs HCs, with the greatest percentage of positive CPQ scores in the PsO+ group. Conclusion: GI symptoms and signs are common in patients with moderate-to-severe PsO, more so than in healthy controls. This suggests that physicians caring for patients with PsO may consider assessing for GI symptoms and signs, and monitoring for their progression with treatment of PsO to identify patients potentially at risk for developing IBD. </t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="inlineStr">
+        <is>
+          <t>Michael Kappelman</t>
+        </is>
+      </c>
+      <c r="B63" s="2" t="inlineStr">
+        <is>
+          <t>Wake Forest School of Medicine, Winston-Salem, NC, Janssen Scientific Affairs, LLC, Horsham PA, HealthiVibe, LLC, Arlington, VA, University of North Carolina, Chapel Hill</t>
+        </is>
+      </c>
+      <c r="C63" s="2" t="inlineStr">
+        <is>
+          <t>NC, USA</t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="inlineStr">
+        <is>
+          <t>P112</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GASTROINTESTINAL SYMPTOMS ARE COMMON IN U.S. PATIENTS WITH MODERATE­SEVERE PSORIASIS </t>
+        </is>
+      </c>
+      <c r="F63" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Background/Objective:Patients  with  moderate-to-severe  plaque psoriasis	(PsO)	are	at	increased	risk	of	developing	inflammatory	bowel  disease  (IBD). A  survey  was  conducted  to  evaluate  the prevalence of gastrointestinal symptoms in PsO patients.Methods: An electronic survey was available to U.S. PsO patients with data collected from Jan-Feb. 2017. Patients with moderateto-severe plaque PsO and healthy controls (HC), with common co-morbidities	allowed	in	both	groups	qualified	for	inclusion	in	the  survey.  Psoriasis  patients  were  further  categorized  as  those without recent exposure to biologic therapy (PsO-) vs those with recent (within 4 months) biologic exposure (PsO+). GI symptoms and signs, including frequency and severity, were compared across groups. CalproQuest (CPQ) scores, which have recently been proposed as a tool to identify patients with elevated fecal calprotectin levels and increased risk for IBD, were also calculated. Patients with	 inflammatory	 bowel	 disease	 (IBD),	 inflammatory	 bowel	syndrome  (IBS),  or  other  gastrointestinal  (GI)  diagnoses  with symptoms that overlap with IBD were excluded.Results: Overall, 915 patients with self-reported moderate-severe PsO and 1,411 healthy controls participated. Demographics were generally comparable between groups. GI symptoms and signs were	significantly	more	prevalent	in	the	PsO-	and	PsO+	groups	vs the HC group, respectively: pain- 20.6% and 36.9% vs 10.5%; fullness/bloating- 37.2% and 48.4% vs 25.3%; and diarrhea (16.3% and  29.3%  vs  12.2%  (all  p-values = 0.002  except  diarrhea  for PsO- vs HC, p = 0.023). Mucous and blood in the stool followed a	similar	pattern.	A	significantly	greater	percentage	of	PsO-	and	PsO+ patients had positive CPQ scores vs HCs, with the greatest percentage of positive CPQ scores in the PsO+ group. Conclusion: GI symptoms and signs are common in patients with moderate-to-severe PsO, more so than in healthy controls. This suggests that physicians caring for patients with PsO may consider assessing for GI symptoms and signs, and monitoring for their progression with treatment of PsO to identify patients potentially at risk for developing IBD. </t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="inlineStr">
+        <is>
+          <t>Christopher Griffiths</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="inlineStr">
+        <is>
+          <t>Dermatology Centre, Salford Royal Hospital, University of Manchester, Manchester Academic Health Science Centre, Manchester, UK, Oregon Medical Research Center, Portland, Oregon, USA, Dermatologikum Ber-lin and Georg-August-University, Göttingen, Germany, Saint Louis Uni-versity Health Sciences Center, St. Louis, Missouri, National Heart, Lung, and Blood Institute, Bethesda, Maryland, USA, National Taiwan Univer-sity Hospital, National Taiwan University College of Medicine, Taipei, Tai-wan, China Novartis Institutes for BioMedical Research, Shanghai, China, Novartis Pharma AG, Basel, Switzerland, Department of Dermatology, Radboud University Nijmegen Medical Centre</t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="inlineStr">
+        <is>
+          <t>Nijmegen, The Netherlands</t>
+        </is>
+      </c>
+      <c r="D64" s="2" t="inlineStr">
+        <is>
+          <t>P113</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SECUKINUMAB’S LONG­TERM SAFETY REMAINS </t>
+        </is>
+      </c>
+      <c r="F64" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FAVORABLE UP TO 5 YEARS OF TREATMENTIntroduction  and  Objectives:  Psoriasis  is  a  condition  typically requiring long-term treatment, thus longitudinal data establishing the safety of approved therapies are required. We report exposure adjusted incidence rates (IRs per 100 patient years) for treatmentemergent adverse events (AEs) per year of treatment from a pooled analysis of all secukinumab psoriasis trials to date (19 studies, 4,674  patients,  10,061  patient-years  exposure;  secukinumab exposure up to 5 years).Methods: AE IRs were examined per year for subjects receiving secukinumab, and for 52 weeks only for those receiving etanercept (ETN), ustekinumab (UST), or placebo (PBO).Results: Duration of exposure through 52 weeks of secukinumab treatment  300  mg,  ETN  50  mg,  UST  45/90  mg,  and  PBO  was 1467.4, 296.9, 318.1, and 301 patient-years, respectively. Exposure duration through 2, 3, 4, and 5 years of secukinumab 300 mg treatment was 859.6, 423, 377.5, and 90 patient-years. Over 52 weeks for secukinumab, ETN, UST, and PBO, respectively, exposure adjusted IRs were overall comparable across treatments: total AEs (275.6, 245.7, 252.2, 355.8); nasopharyngitis (28.4, 35.9, 31.2,  35.9);  headache  (12.6,  15,  14.6,  23.7);  upper  respiratory infections [URI] (9.1, 5.9, 9.9, 8.8); opportunistic infections (0.2, 0.3, 0.3, 0.3); Candida infections (4.7, 1.4, 1.6, 1.7); neutropenia (0.5, 1.4, 0, 0); major adverse cardiovascular events [MACE] (0.5, 0.3, 0.3, 1.3); Crohn’s disease (0.1, 0, 0, 0); ulcerative colitis (0.1, 0.3,	0,	0);	and	malignant	or	unspecified	tumors	[excluding	nonmelanoma skin cancer [NMSC]] (0.4, 0.3, 0.3, 0.3).Secukinumab 300 mg pooled safety remained favorable over time with no increases in AEs (exposure adjusted IRs for up to Year 1 to Year 5, respectively): total AEs (275.6, 168.1, 160.2, 111.9, 13.9);  nasopharyngitis  (28.4,  21.2,  24.1,  11.8,  3.4);  headache (12.6, 5.4, 4.3, 4.9, 0); URI (9.1, 7.3, 6.1, 5.5, 0); opportunistic infections (0.2, 0.1, 0, 0, 0); Candida infections (4.7, 3.6, 1.9, 1.3, 1.1); neutropenia (0.5, 0.1, 0, 0, 0); MACE (0.5, 0.1, 0.5, 0, 0); Crohn’s disease (0.1, 0, 0, 0, 0); ulcerative colitis (0.1, 0.4, 0.2, 0.3,	0);	and	malignant	or	unspecified	tumors	[excluding	NMSC]	(0.4, 0.4, 0.2, 0, 0).Conclusions: This comprehensive pooled analysis supports the favorable	long-term	safety	profile	of	secukinumab	in	patients	with	psoriasis;	no	new	safety	signals	were	identified	for	up	to	5	years	of	treatment	and	secukinumab’s	safety	profile	was	consistent	with	that established in a large phase 3 program. Findings  previously  published  at  the AAD Annual  Meeting,  February 16–20, 2018, San-Diego, California. </t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="inlineStr">
+        <is>
+          <t>A. Blauvelt</t>
+        </is>
+      </c>
+      <c r="B65" s="2" t="inlineStr">
+        <is>
+          <t>Dermatology Centre, Salford Royal Hospital, University of Manchester, Manchester Academic Health Science Centre, Manchester, UK, Oregon Medical Research Center, Portland, Oregon, USA, Dermatologikum Ber-lin and Georg-August-University, Göttingen, Germany, Saint Louis Uni-versity Health Sciences Center, St. Louis, Missouri, National Heart, Lung, and Blood Institute, Bethesda, Maryland, USA, National Taiwan Univer-sity Hospital, National Taiwan University College of Medicine, Taipei, Tai-wan, China Novartis Institutes for BioMedical Research, Shanghai, China, Novartis Pharma AG, Basel, Switzerland, Department of Dermatology, Radboud University Nijmegen Medical Centre</t>
+        </is>
+      </c>
+      <c r="C65" s="2" t="inlineStr">
+        <is>
+          <t>Nijmegen, The Netherlands</t>
+        </is>
+      </c>
+      <c r="D65" s="2" t="inlineStr">
+        <is>
+          <t>P113</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SECUKINUMAB’S LONG­TERM SAFETY REMAINS </t>
+        </is>
+      </c>
+      <c r="F65" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FAVORABLE UP TO 5 YEARS OF TREATMENTIntroduction  and  Objectives:  Psoriasis  is  a  condition  typically requiring long-term treatment, thus longitudinal data establishing the safety of approved therapies are required. We report exposure adjusted incidence rates (IRs per 100 patient years) for treatmentemergent adverse events (AEs) per year of treatment from a pooled analysis of all secukinumab psoriasis trials to date (19 studies, 4,674  patients,  10,061  patient-years  exposure;  secukinumab exposure up to 5 years).Methods: AE IRs were examined per year for subjects receiving secukinumab, and for 52 weeks only for those receiving etanercept (ETN), ustekinumab (UST), or placebo (PBO).Results: Duration of exposure through 52 weeks of secukinumab treatment  300  mg,  ETN  50  mg,  UST  45/90  mg,  and  PBO  was 1467.4, 296.9, 318.1, and 301 patient-years, respectively. Exposure duration through 2, 3, 4, and 5 years of secukinumab 300 mg treatment was 859.6, 423, 377.5, and 90 patient-years. Over 52 weeks for secukinumab, ETN, UST, and PBO, respectively, exposure adjusted IRs were overall comparable across treatments: total AEs (275.6, 245.7, 252.2, 355.8); nasopharyngitis (28.4, 35.9, 31.2,  35.9);  headache  (12.6,  15,  14.6,  23.7);  upper  respiratory infections [URI] (9.1, 5.9, 9.9, 8.8); opportunistic infections (0.2, 0.3, 0.3, 0.3); Candida infections (4.7, 1.4, 1.6, 1.7); neutropenia (0.5, 1.4, 0, 0); major adverse cardiovascular events [MACE] (0.5, 0.3, 0.3, 1.3); Crohn’s disease (0.1, 0, 0, 0); ulcerative colitis (0.1, 0.3,	0,	0);	and	malignant	or	unspecified	tumors	[excluding	nonmelanoma skin cancer [NMSC]] (0.4, 0.3, 0.3, 0.3).Secukinumab 300 mg pooled safety remained favorable over time with no increases in AEs (exposure adjusted IRs for up to Year 1 to Year 5, respectively): total AEs (275.6, 168.1, 160.2, 111.9, 13.9);  nasopharyngitis  (28.4,  21.2,  24.1,  11.8,  3.4);  headache (12.6, 5.4, 4.3, 4.9, 0); URI (9.1, 7.3, 6.1, 5.5, 0); opportunistic infections (0.2, 0.1, 0, 0, 0); Candida infections (4.7, 3.6, 1.9, 1.3, 1.1); neutropenia (0.5, 0.1, 0, 0, 0); MACE (0.5, 0.1, 0.5, 0, 0); Crohn’s disease (0.1, 0, 0, 0, 0); ulcerative colitis (0.1, 0.4, 0.2, 0.3,	0);	and	malignant	or	unspecified	tumors	[excluding	NMSC]	(0.4, 0.4, 0.2, 0, 0).Conclusions: This comprehensive pooled analysis supports the favorable	long-term	safety	profile	of	secukinumab	in	patients	with	psoriasis;	no	new	safety	signals	were	identified	for	up	to	5	years	of	treatment	and	secukinumab’s	safety	profile	was	consistent	with	that established in a large phase 3 program. Findings  previously  published  at  the AAD Annual  Meeting,  February 16–20, 2018, San-Diego, California. </t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="inlineStr">
+        <is>
+          <t>K. Reich</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="inlineStr">
+        <is>
+          <t>Dermatology Centre, Salford Royal Hospital, University of Manchester, Manchester Academic Health Science Centre, Manchester, UK, Oregon Medical Research Center, Portland, Oregon, USA, Dermatologikum Ber-lin and Georg-August-University, Göttingen, Germany, Saint Louis Uni-versity Health Sciences Center, St. Louis, Missouri, National Heart, Lung, and Blood Institute, Bethesda, Maryland, USA, National Taiwan Univer-sity Hospital, National Taiwan University College of Medicine, Taipei, Tai-wan, China Novartis Institutes for BioMedical Research, Shanghai, China, Novartis Pharma AG, Basel, Switzerland, Department of Dermatology, Radboud University Nijmegen Medical Centre</t>
+        </is>
+      </c>
+      <c r="C66" s="2" t="inlineStr">
+        <is>
+          <t>Nijmegen, The Netherlands</t>
+        </is>
+      </c>
+      <c r="D66" s="2" t="inlineStr">
+        <is>
+          <t>P113</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SECUKINUMAB’S LONG­TERM SAFETY REMAINS </t>
+        </is>
+      </c>
+      <c r="F66" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FAVORABLE UP TO 5 YEARS OF TREATMENTIntroduction  and  Objectives:  Psoriasis  is  a  condition  typically requiring long-term treatment, thus longitudinal data establishing the safety of approved therapies are required. We report exposure adjusted incidence rates (IRs per 100 patient years) for treatmentemergent adverse events (AEs) per year of treatment from a pooled analysis of all secukinumab psoriasis trials to date (19 studies, 4,674  patients,  10,061  patient-years  exposure;  secukinumab exposure up to 5 years).Methods: AE IRs were examined per year for subjects receiving secukinumab, and for 52 weeks only for those receiving etanercept (ETN), ustekinumab (UST), or placebo (PBO).Results: Duration of exposure through 52 weeks of secukinumab treatment  300  mg,  ETN  50  mg,  UST  45/90  mg,  and  PBO  was 1467.4, 296.9, 318.1, and 301 patient-years, respectively. Exposure duration through 2, 3, 4, and 5 years of secukinumab 300 mg treatment was 859.6, 423, 377.5, and 90 patient-years. Over 52 weeks for secukinumab, ETN, UST, and PBO, respectively, exposure adjusted IRs were overall comparable across treatments: total AEs (275.6, 245.7, 252.2, 355.8); nasopharyngitis (28.4, 35.9, 31.2,  35.9);  headache  (12.6,  15,  14.6,  23.7);  upper  respiratory infections [URI] (9.1, 5.9, 9.9, 8.8); opportunistic infections (0.2, 0.3, 0.3, 0.3); Candida infections (4.7, 1.4, 1.6, 1.7); neutropenia (0.5, 1.4, 0, 0); major adverse cardiovascular events [MACE] (0.5, 0.3, 0.3, 1.3); Crohn’s disease (0.1, 0, 0, 0); ulcerative colitis (0.1, 0.3,	0,	0);	and	malignant	or	unspecified	tumors	[excluding	nonmelanoma skin cancer [NMSC]] (0.4, 0.3, 0.3, 0.3).Secukinumab 300 mg pooled safety remained favorable over time with no increases in AEs (exposure adjusted IRs for up to Year 1 to Year 5, respectively): total AEs (275.6, 168.1, 160.2, 111.9, 13.9);  nasopharyngitis  (28.4,  21.2,  24.1,  11.8,  3.4);  headache (12.6, 5.4, 4.3, 4.9, 0); URI (9.1, 7.3, 6.1, 5.5, 0); opportunistic infections (0.2, 0.1, 0, 0, 0); Candida infections (4.7, 3.6, 1.9, 1.3, 1.1); neutropenia (0.5, 0.1, 0, 0, 0); MACE (0.5, 0.1, 0.5, 0, 0); Crohn’s disease (0.1, 0, 0, 0, 0); ulcerative colitis (0.1, 0.4, 0.2, 0.3,	0);	and	malignant	or	unspecified	tumors	[excluding	NMSC]	(0.4, 0.4, 0.2, 0, 0).Conclusions: This comprehensive pooled analysis supports the favorable	long-term	safety	profile	of	secukinumab	in	patients	with	psoriasis;	no	new	safety	signals	were	identified	for	up	to	5	years	of	treatment	and	secukinumab’s	safety	profile	was	consistent	with	that established in a large phase 3 program. Findings  previously  published  at  the AAD Annual  Meeting,  February 16–20, 2018, San-Diego, California. </t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="inlineStr">
+        <is>
+          <t>C. Leonardi</t>
+        </is>
+      </c>
+      <c r="B67" s="2" t="inlineStr">
+        <is>
+          <t>Dermatology Centre, Salford Royal Hospital, University of Manchester, Manchester Academic Health Science Centre, Manchester, UK, Oregon Medical Research Center, Portland, Oregon, USA, Dermatologikum Ber-lin and Georg-August-University, Göttingen, Germany, Saint Louis Uni-versity Health Sciences Center, St. Louis, Missouri, National Heart, Lung, and Blood Institute, Bethesda, Maryland, USA, National Taiwan Univer-sity Hospital, National Taiwan University College of Medicine, Taipei, Tai-wan, China Novartis Institutes for BioMedical Research, Shanghai, China, Novartis Pharma AG, Basel, Switzerland, Department of Dermatology, Radboud University Nijmegen Medical Centre</t>
+        </is>
+      </c>
+      <c r="C67" s="2" t="inlineStr">
+        <is>
+          <t>Nijmegen, The Netherlands</t>
+        </is>
+      </c>
+      <c r="D67" s="2" t="inlineStr">
+        <is>
+          <t>P113</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SECUKINUMAB’S LONG­TERM SAFETY REMAINS </t>
+        </is>
+      </c>
+      <c r="F67" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FAVORABLE UP TO 5 YEARS OF TREATMENTIntroduction  and  Objectives:  Psoriasis  is  a  condition  typically requiring long-term treatment, thus longitudinal data establishing the safety of approved therapies are required. We report exposure adjusted incidence rates (IRs per 100 patient years) for treatmentemergent adverse events (AEs) per year of treatment from a pooled analysis of all secukinumab psoriasis trials to date (19 studies, 4,674  patients,  10,061  patient-years  exposure;  secukinumab exposure up to 5 years).Methods: AE IRs were examined per year for subjects receiving secukinumab, and for 52 weeks only for those receiving etanercept (ETN), ustekinumab (UST), or placebo (PBO).Results: Duration of exposure through 52 weeks of secukinumab treatment  300  mg,  ETN  50  mg,  UST  45/90  mg,  and  PBO  was 1467.4, 296.9, 318.1, and 301 patient-years, respectively. Exposure duration through 2, 3, 4, and 5 years of secukinumab 300 mg treatment was 859.6, 423, 377.5, and 90 patient-years. Over 52 weeks for secukinumab, ETN, UST, and PBO, respectively, exposure adjusted IRs were overall comparable across treatments: total AEs (275.6, 245.7, 252.2, 355.8); nasopharyngitis (28.4, 35.9, 31.2,  35.9);  headache  (12.6,  15,  14.6,  23.7);  upper  respiratory infections [URI] (9.1, 5.9, 9.9, 8.8); opportunistic infections (0.2, 0.3, 0.3, 0.3); Candida infections (4.7, 1.4, 1.6, 1.7); neutropenia (0.5, 1.4, 0, 0); major adverse cardiovascular events [MACE] (0.5, 0.3, 0.3, 1.3); Crohn’s disease (0.1, 0, 0, 0); ulcerative colitis (0.1, 0.3,	0,	0);	and	malignant	or	unspecified	tumors	[excluding	nonmelanoma skin cancer [NMSC]] (0.4, 0.3, 0.3, 0.3).Secukinumab 300 mg pooled safety remained favorable over time with no increases in AEs (exposure adjusted IRs for up to Year 1 to Year 5, respectively): total AEs (275.6, 168.1, 160.2, 111.9, 13.9);  nasopharyngitis  (28.4,  21.2,  24.1,  11.8,  3.4);  headache (12.6, 5.4, 4.3, 4.9, 0); URI (9.1, 7.3, 6.1, 5.5, 0); opportunistic infections (0.2, 0.1, 0, 0, 0); Candida infections (4.7, 3.6, 1.9, 1.3, 1.1); neutropenia (0.5, 0.1, 0, 0, 0); MACE (0.5, 0.1, 0.5, 0, 0); Crohn’s disease (0.1, 0, 0, 0, 0); ulcerative colitis (0.1, 0.4, 0.2, 0.3,	0);	and	malignant	or	unspecified	tumors	[excluding	NMSC]	(0.4, 0.4, 0.2, 0, 0).Conclusions: This comprehensive pooled analysis supports the favorable	long-term	safety	profile	of	secukinumab	in	patients	with	psoriasis;	no	new	safety	signals	were	identified	for	up	to	5	years	of	treatment	and	secukinumab’s	safety	profile	was	consistent	with	that established in a large phase 3 program. Findings  previously  published  at  the AAD Annual  Meeting,  February 16–20, 2018, San-Diego, California. </t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="inlineStr">
+        <is>
+          <t>N. Mehta</t>
+        </is>
+      </c>
+      <c r="B68" s="2" t="inlineStr">
+        <is>
+          <t>Dermatology Centre, Salford Royal Hospital, University of Manchester, Manchester Academic Health Science Centre, Manchester, UK, Oregon Medical Research Center, Portland, Oregon, USA, Dermatologikum Ber-lin and Georg-August-University, Göttingen, Germany, Saint Louis Uni-versity Health Sciences Center, St. Louis, Missouri, National Heart, Lung, and Blood Institute, Bethesda, Maryland, USA, National Taiwan Univer-sity Hospital, National Taiwan University College of Medicine, Taipei, Tai-wan, China Novartis Institutes for BioMedical Research, Shanghai, China, Novartis Pharma AG, Basel, Switzerland, Department of Dermatology, Radboud University Nijmegen Medical Centre</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="inlineStr">
+        <is>
+          <t>Nijmegen, The Netherlands</t>
+        </is>
+      </c>
+      <c r="D68" s="2" t="inlineStr">
+        <is>
+          <t>P113</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SECUKINUMAB’S LONG­TERM SAFETY REMAINS </t>
+        </is>
+      </c>
+      <c r="F68" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FAVORABLE UP TO 5 YEARS OF TREATMENTIntroduction  and  Objectives:  Psoriasis  is  a  condition  typically requiring long-term treatment, thus longitudinal data establishing the safety of approved therapies are required. We report exposure adjusted incidence rates (IRs per 100 patient years) for treatmentemergent adverse events (AEs) per year of treatment from a pooled analysis of all secukinumab psoriasis trials to date (19 studies, 4,674  patients,  10,061  patient-years  exposure;  secukinumab exposure up to 5 years).Methods: AE IRs were examined per year for subjects receiving secukinumab, and for 52 weeks only for those receiving etanercept (ETN), ustekinumab (UST), or placebo (PBO).Results: Duration of exposure through 52 weeks of secukinumab treatment  300  mg,  ETN  50  mg,  UST  45/90  mg,  and  PBO  was 1467.4, 296.9, 318.1, and 301 patient-years, respectively. Exposure duration through 2, 3, 4, and 5 years of secukinumab 300 mg treatment was 859.6, 423, 377.5, and 90 patient-years. Over 52 weeks for secukinumab, ETN, UST, and PBO, respectively, exposure adjusted IRs were overall comparable across treatments: total AEs (275.6, 245.7, 252.2, 355.8); nasopharyngitis (28.4, 35.9, 31.2,  35.9);  headache  (12.6,  15,  14.6,  23.7);  upper  respiratory infections [URI] (9.1, 5.9, 9.9, 8.8); opportunistic infections (0.2, 0.3, 0.3, 0.3); Candida infections (4.7, 1.4, 1.6, 1.7); neutropenia (0.5, 1.4, 0, 0); major adverse cardiovascular events [MACE] (0.5, 0.3, 0.3, 1.3); Crohn’s disease (0.1, 0, 0, 0); ulcerative colitis (0.1, 0.3,	0,	0);	and	malignant	or	unspecified	tumors	[excluding	nonmelanoma skin cancer [NMSC]] (0.4, 0.3, 0.3, 0.3).Secukinumab 300 mg pooled safety remained favorable over time with no increases in AEs (exposure adjusted IRs for up to Year 1 to Year 5, respectively): total AEs (275.6, 168.1, 160.2, 111.9, 13.9);  nasopharyngitis  (28.4,  21.2,  24.1,  11.8,  3.4);  headache (12.6, 5.4, 4.3, 4.9, 0); URI (9.1, 7.3, 6.1, 5.5, 0); opportunistic infections (0.2, 0.1, 0, 0, 0); Candida infections (4.7, 3.6, 1.9, 1.3, 1.1); neutropenia (0.5, 0.1, 0, 0, 0); MACE (0.5, 0.1, 0.5, 0, 0); Crohn’s disease (0.1, 0, 0, 0, 0); ulcerative colitis (0.1, 0.4, 0.2, 0.3,	0);	and	malignant	or	unspecified	tumors	[excluding	NMSC]	(0.4, 0.4, 0.2, 0, 0).Conclusions: This comprehensive pooled analysis supports the favorable	long-term	safety	profile	of	secukinumab	in	patients	with	psoriasis;	no	new	safety	signals	were	identified	for	up	to	5	years	of	treatment	and	secukinumab’s	safety	profile	was	consistent	with	that established in a large phase 3 program. Findings  previously  published  at  the AAD Annual  Meeting,  February 16–20, 2018, San-Diego, California. </t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="inlineStr">
+        <is>
+          <t>T. Tsai</t>
+        </is>
+      </c>
+      <c r="B69" s="2" t="inlineStr">
+        <is>
+          <t>Dermatology Centre, Salford Royal Hospital, University of Manchester, Manchester Academic Health Science Centre, Manchester, UK, Oregon Medical Research Center, Portland, Oregon, USA, Dermatologikum Ber-lin and Georg-August-University, Göttingen, Germany, Saint Louis Uni-versity Health Sciences Center, St. Louis, Missouri, National Heart, Lung, and Blood Institute, Bethesda, Maryland, USA, National Taiwan Univer-sity Hospital, National Taiwan University College of Medicine, Taipei, Tai-wan, China Novartis Institutes for BioMedical Research, Shanghai, China, Novartis Pharma AG, Basel, Switzerland, Department of Dermatology, Radboud University Nijmegen Medical Centre</t>
+        </is>
+      </c>
+      <c r="C69" s="2" t="inlineStr">
+        <is>
+          <t>Nijmegen, The Netherlands</t>
+        </is>
+      </c>
+      <c r="D69" s="2" t="inlineStr">
+        <is>
+          <t>P113</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SECUKINUMAB’S LONG­TERM SAFETY REMAINS </t>
+        </is>
+      </c>
+      <c r="F69" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FAVORABLE UP TO 5 YEARS OF TREATMENTIntroduction  and  Objectives:  Psoriasis  is  a  condition  typically requiring long-term treatment, thus longitudinal data establishing the safety of approved therapies are required. We report exposure adjusted incidence rates (IRs per 100 patient years) for treatmentemergent adverse events (AEs) per year of treatment from a pooled analysis of all secukinumab psoriasis trials to date (19 studies, 4,674  patients,  10,061  patient-years  exposure;  secukinumab exposure up to 5 years).Methods: AE IRs were examined per year for subjects receiving secukinumab, and for 52 weeks only for those receiving etanercept (ETN), ustekinumab (UST), or placebo (PBO).Results: Duration of exposure through 52 weeks of secukinumab treatment  300  mg,  ETN  50  mg,  UST  45/90  mg,  and  PBO  was 1467.4, 296.9, 318.1, and 301 patient-years, respectively. Exposure duration through 2, 3, 4, and 5 years of secukinumab 300 mg treatment was 859.6, 423, 377.5, and 90 patient-years. Over 52 weeks for secukinumab, ETN, UST, and PBO, respectively, exposure adjusted IRs were overall comparable across treatments: total AEs (275.6, 245.7, 252.2, 355.8); nasopharyngitis (28.4, 35.9, 31.2,  35.9);  headache  (12.6,  15,  14.6,  23.7);  upper  respiratory infections [URI] (9.1, 5.9, 9.9, 8.8); opportunistic infections (0.2, 0.3, 0.3, 0.3); Candida infections (4.7, 1.4, 1.6, 1.7); neutropenia (0.5, 1.4, 0, 0); major adverse cardiovascular events [MACE] (0.5, 0.3, 0.3, 1.3); Crohn’s disease (0.1, 0, 0, 0); ulcerative colitis (0.1, 0.3,	0,	0);	and	malignant	or	unspecified	tumors	[excluding	nonmelanoma skin cancer [NMSC]] (0.4, 0.3, 0.3, 0.3).Secukinumab 300 mg pooled safety remained favorable over time with no increases in AEs (exposure adjusted IRs for up to Year 1 to Year 5, respectively): total AEs (275.6, 168.1, 160.2, 111.9, 13.9);  nasopharyngitis  (28.4,  21.2,  24.1,  11.8,  3.4);  headache (12.6, 5.4, 4.3, 4.9, 0); URI (9.1, 7.3, 6.1, 5.5, 0); opportunistic infections (0.2, 0.1, 0, 0, 0); Candida infections (4.7, 3.6, 1.9, 1.3, 1.1); neutropenia (0.5, 0.1, 0, 0, 0); MACE (0.5, 0.1, 0.5, 0, 0); Crohn’s disease (0.1, 0, 0, 0, 0); ulcerative colitis (0.1, 0.4, 0.2, 0.3,	0);	and	malignant	or	unspecified	tumors	[excluding	NMSC]	(0.4, 0.4, 0.2, 0, 0).Conclusions: This comprehensive pooled analysis supports the favorable	long-term	safety	profile	of	secukinumab	in	patients	with	psoriasis;	no	new	safety	signals	were	identified	for	up	to	5	years	of	treatment	and	secukinumab’s	safety	profile	was	consistent	with	that established in a large phase 3 program. Findings  previously  published  at  the AAD Annual  Meeting,  February 16–20, 2018, San-Diego, California. </t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="inlineStr">
+        <is>
+          <t>R. You</t>
+        </is>
+      </c>
+      <c r="B70" s="2" t="inlineStr">
+        <is>
+          <t>Dermatology Centre, Salford Royal Hospital, University of Manchester, Manchester Academic Health Science Centre, Manchester, UK, Oregon Medical Research Center, Portland, Oregon, USA, Dermatologikum Ber-lin and Georg-August-University, Göttingen, Germany, Saint Louis Uni-versity Health Sciences Center, St. Louis, Missouri, National Heart, Lung, and Blood Institute, Bethesda, Maryland, USA, National Taiwan Univer-sity Hospital, National Taiwan University College of Medicine, Taipei, Tai-wan, China Novartis Institutes for BioMedical Research, Shanghai, China, Novartis Pharma AG, Basel, Switzerland, Department of Dermatology, Radboud University Nijmegen Medical Centre</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="inlineStr">
+        <is>
+          <t>Nijmegen, The Netherlands</t>
+        </is>
+      </c>
+      <c r="D70" s="2" t="inlineStr">
+        <is>
+          <t>P113</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SECUKINUMAB’S LONG­TERM SAFETY REMAINS </t>
+        </is>
+      </c>
+      <c r="F70" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FAVORABLE UP TO 5 YEARS OF TREATMENTIntroduction  and  Objectives:  Psoriasis  is  a  condition  typically requiring long-term treatment, thus longitudinal data establishing the safety of approved therapies are required. We report exposure adjusted incidence rates (IRs per 100 patient years) for treatmentemergent adverse events (AEs) per year of treatment from a pooled analysis of all secukinumab psoriasis trials to date (19 studies, 4,674  patients,  10,061  patient-years  exposure;  secukinumab exposure up to 5 years).Methods: AE IRs were examined per year for subjects receiving secukinumab, and for 52 weeks only for those receiving etanercept (ETN), ustekinumab (UST), or placebo (PBO).Results: Duration of exposure through 52 weeks of secukinumab treatment  300  mg,  ETN  50  mg,  UST  45/90  mg,  and  PBO  was 1467.4, 296.9, 318.1, and 301 patient-years, respectively. Exposure duration through 2, 3, 4, and 5 years of secukinumab 300 mg treatment was 859.6, 423, 377.5, and 90 patient-years. Over 52 weeks for secukinumab, ETN, UST, and PBO, respectively, exposure adjusted IRs were overall comparable across treatments: total AEs (275.6, 245.7, 252.2, 355.8); nasopharyngitis (28.4, 35.9, 31.2,  35.9);  headache  (12.6,  15,  14.6,  23.7);  upper  respiratory infections [URI] (9.1, 5.9, 9.9, 8.8); opportunistic infections (0.2, 0.3, 0.3, 0.3); Candida infections (4.7, 1.4, 1.6, 1.7); neutropenia (0.5, 1.4, 0, 0); major adverse cardiovascular events [MACE] (0.5, 0.3, 0.3, 1.3); Crohn’s disease (0.1, 0, 0, 0); ulcerative colitis (0.1, 0.3,	0,	0);	and	malignant	or	unspecified	tumors	[excluding	nonmelanoma skin cancer [NMSC]] (0.4, 0.3, 0.3, 0.3).Secukinumab 300 mg pooled safety remained favorable over time with no increases in AEs (exposure adjusted IRs for up to Year 1 to Year 5, respectively): total AEs (275.6, 168.1, 160.2, 111.9, 13.9);  nasopharyngitis  (28.4,  21.2,  24.1,  11.8,  3.4);  headache (12.6, 5.4, 4.3, 4.9, 0); URI (9.1, 7.3, 6.1, 5.5, 0); opportunistic infections (0.2, 0.1, 0, 0, 0); Candida infections (4.7, 3.6, 1.9, 1.3, 1.1); neutropenia (0.5, 0.1, 0, 0, 0); MACE (0.5, 0.1, 0.5, 0, 0); Crohn’s disease (0.1, 0, 0, 0, 0); ulcerative colitis (0.1, 0.4, 0.2, 0.3,	0);	and	malignant	or	unspecified	tumors	[excluding	NMSC]	(0.4, 0.4, 0.2, 0, 0).Conclusions: This comprehensive pooled analysis supports the favorable	long-term	safety	profile	of	secukinumab	in	patients	with	psoriasis;	no	new	safety	signals	were	identified	for	up	to	5	years	of	treatment	and	secukinumab’s	safety	profile	was	consistent	with	that established in a large phase 3 program. Findings  previously  published  at  the AAD Annual  Meeting,  February 16–20, 2018, San-Diego, California. </t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="inlineStr">
+        <is>
+          <t>P. Papanastasiou</t>
+        </is>
+      </c>
+      <c r="B71" s="2" t="inlineStr">
+        <is>
+          <t>Dermatology Centre, Salford Royal Hospital, University of Manchester, Manchester Academic Health Science Centre, Manchester, UK, Oregon Medical Research Center, Portland, Oregon, USA, Dermatologikum Ber-lin and Georg-August-University, Göttingen, Germany, Saint Louis Uni-versity Health Sciences Center, St. Louis, Missouri, National Heart, Lung, and Blood Institute, Bethesda, Maryland, USA, National Taiwan Univer-sity Hospital, National Taiwan University College of Medicine, Taipei, Tai-wan, China Novartis Institutes for BioMedical Research, Shanghai, China, Novartis Pharma AG, Basel, Switzerland, Department of Dermatology, Radboud University Nijmegen Medical Centre</t>
+        </is>
+      </c>
+      <c r="C71" s="2" t="inlineStr">
+        <is>
+          <t>Nijmegen, The Netherlands</t>
+        </is>
+      </c>
+      <c r="D71" s="2" t="inlineStr">
+        <is>
+          <t>P113</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SECUKINUMAB’S LONG­TERM SAFETY REMAINS </t>
+        </is>
+      </c>
+      <c r="F71" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FAVORABLE UP TO 5 YEARS OF TREATMENTIntroduction  and  Objectives:  Psoriasis  is  a  condition  typically requiring long-term treatment, thus longitudinal data establishing the safety of approved therapies are required. We report exposure adjusted incidence rates (IRs per 100 patient years) for treatmentemergent adverse events (AEs) per year of treatment from a pooled analysis of all secukinumab psoriasis trials to date (19 studies, 4,674  patients,  10,061  patient-years  exposure;  secukinumab exposure up to 5 years).Methods: AE IRs were examined per year for subjects receiving secukinumab, and for 52 weeks only for those receiving etanercept (ETN), ustekinumab (UST), or placebo (PBO).Results: Duration of exposure through 52 weeks of secukinumab treatment  300  mg,  ETN  50  mg,  UST  45/90  mg,  and  PBO  was 1467.4, 296.9, 318.1, and 301 patient-years, respectively. Exposure duration through 2, 3, 4, and 5 years of secukinumab 300 mg treatment was 859.6, 423, 377.5, and 90 patient-years. Over 52 weeks for secukinumab, ETN, UST, and PBO, respectively, exposure adjusted IRs were overall comparable across treatments: total AEs (275.6, 245.7, 252.2, 355.8); nasopharyngitis (28.4, 35.9, 31.2,  35.9);  headache  (12.6,  15,  14.6,  23.7);  upper  respiratory infections [URI] (9.1, 5.9, 9.9, 8.8); opportunistic infections (0.2, 0.3, 0.3, 0.3); Candida infections (4.7, 1.4, 1.6, 1.7); neutropenia (0.5, 1.4, 0, 0); major adverse cardiovascular events [MACE] (0.5, 0.3, 0.3, 1.3); Crohn’s disease (0.1, 0, 0, 0); ulcerative colitis (0.1, 0.3,	0,	0);	and	malignant	or	unspecified	tumors	[excluding	nonmelanoma skin cancer [NMSC]] (0.4, 0.3, 0.3, 0.3).Secukinumab 300 mg pooled safety remained favorable over time with no increases in AEs (exposure adjusted IRs for up to Year 1 to Year 5, respectively): total AEs (275.6, 168.1, 160.2, 111.9, 13.9);  nasopharyngitis  (28.4,  21.2,  24.1,  11.8,  3.4);  headache (12.6, 5.4, 4.3, 4.9, 0); URI (9.1, 7.3, 6.1, 5.5, 0); opportunistic infections (0.2, 0.1, 0, 0, 0); Candida infections (4.7, 3.6, 1.9, 1.3, 1.1); neutropenia (0.5, 0.1, 0, 0, 0); MACE (0.5, 0.1, 0.5, 0, 0); Crohn’s disease (0.1, 0, 0, 0, 0); ulcerative colitis (0.1, 0.4, 0.2, 0.3,	0);	and	malignant	or	unspecified	tumors	[excluding	NMSC]	(0.4, 0.4, 0.2, 0, 0).Conclusions: This comprehensive pooled analysis supports the favorable	long-term	safety	profile	of	secukinumab	in	patients	with	psoriasis;	no	new	safety	signals	were	identified	for	up	to	5	years	of	treatment	and	secukinumab’s	safety	profile	was	consistent	with	that established in a large phase 3 program. Findings  previously  published  at  the AAD Annual  Meeting,  February 16–20, 2018, San-Diego, California. </t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="inlineStr">
+        <is>
+          <t>M. Milutinovic</t>
+        </is>
+      </c>
+      <c r="B72" s="2" t="inlineStr">
+        <is>
+          <t>Dermatology Centre, Salford Royal Hospital, University of Manchester, Manchester Academic Health Science Centre, Manchester, UK, Oregon Medical Research Center, Portland, Oregon, USA, Dermatologikum Ber-lin and Georg-August-University, Göttingen, Germany, Saint Louis Uni-versity Health Sciences Center, St. Louis, Missouri, National Heart, Lung, and Blood Institute, Bethesda, Maryland, USA, National Taiwan Univer-sity Hospital, National Taiwan University College of Medicine, Taipei, Tai-wan, China Novartis Institutes for BioMedical Research, Shanghai, China, Novartis Pharma AG, Basel, Switzerland, Department of Dermatology, Radboud University Nijmegen Medical Centre</t>
+        </is>
+      </c>
+      <c r="C72" s="2" t="inlineStr">
+        <is>
+          <t>Nijmegen, The Netherlands</t>
+        </is>
+      </c>
+      <c r="D72" s="2" t="inlineStr">
+        <is>
+          <t>P113</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SECUKINUMAB’S LONG­TERM SAFETY REMAINS </t>
+        </is>
+      </c>
+      <c r="F72" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FAVORABLE UP TO 5 YEARS OF TREATMENTIntroduction  and  Objectives:  Psoriasis  is  a  condition  typically requiring long-term treatment, thus longitudinal data establishing the safety of approved therapies are required. We report exposure adjusted incidence rates (IRs per 100 patient years) for treatmentemergent adverse events (AEs) per year of treatment from a pooled analysis of all secukinumab psoriasis trials to date (19 studies, 4,674  patients,  10,061  patient-years  exposure;  secukinumab exposure up to 5 years).Methods: AE IRs were examined per year for subjects receiving secukinumab, and for 52 weeks only for those receiving etanercept (ETN), ustekinumab (UST), or placebo (PBO).Results: Duration of exposure through 52 weeks of secukinumab treatment  300  mg,  ETN  50  mg,  UST  45/90  mg,  and  PBO  was 1467.4, 296.9, 318.1, and 301 patient-years, respectively. Exposure duration through 2, 3, 4, and 5 years of secukinumab 300 mg treatment was 859.6, 423, 377.5, and 90 patient-years. Over 52 weeks for secukinumab, ETN, UST, and PBO, respectively, exposure adjusted IRs were overall comparable across treatments: total AEs (275.6, 245.7, 252.2, 355.8); nasopharyngitis (28.4, 35.9, 31.2,  35.9);  headache  (12.6,  15,  14.6,  23.7);  upper  respiratory infections [URI] (9.1, 5.9, 9.9, 8.8); opportunistic infections (0.2, 0.3, 0.3, 0.3); Candida infections (4.7, 1.4, 1.6, 1.7); neutropenia (0.5, 1.4, 0, 0); major adverse cardiovascular events [MACE] (0.5, 0.3, 0.3, 1.3); Crohn’s disease (0.1, 0, 0, 0); ulcerative colitis (0.1, 0.3,	0,	0);	and	malignant	or	unspecified	tumors	[excluding	nonmelanoma skin cancer [NMSC]] (0.4, 0.3, 0.3, 0.3).Secukinumab 300 mg pooled safety remained favorable over time with no increases in AEs (exposure adjusted IRs for up to Year 1 to Year 5, respectively): total AEs (275.6, 168.1, 160.2, 111.9, 13.9);  nasopharyngitis  (28.4,  21.2,  24.1,  11.8,  3.4);  headache (12.6, 5.4, 4.3, 4.9, 0); URI (9.1, 7.3, 6.1, 5.5, 0); opportunistic infections (0.2, 0.1, 0, 0, 0); Candida infections (4.7, 3.6, 1.9, 1.3, 1.1); neutropenia (0.5, 0.1, 0, 0, 0); MACE (0.5, 0.1, 0.5, 0, 0); Crohn’s disease (0.1, 0, 0, 0, 0); ulcerative colitis (0.1, 0.4, 0.2, 0.3,	0);	and	malignant	or	unspecified	tumors	[excluding	NMSC]	(0.4, 0.4, 0.2, 0, 0).Conclusions: This comprehensive pooled analysis supports the favorable	long-term	safety	profile	of	secukinumab	in	patients	with	psoriasis;	no	new	safety	signals	were	identified	for	up	to	5	years	of	treatment	and	secukinumab’s	safety	profile	was	consistent	with	that established in a large phase 3 program. Findings  previously  published  at  the AAD Annual  Meeting,  February 16–20, 2018, San-Diego, California. </t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="inlineStr">
+        <is>
+          <t>P. van de Kerkhof</t>
+        </is>
+      </c>
+      <c r="B73" s="2" t="inlineStr">
+        <is>
+          <t>Dermatology Centre, Salford Royal Hospital, University of Manchester, Manchester Academic Health Science Centre, Manchester, UK, Oregon Medical Research Center, Portland, Oregon, USA, Dermatologikum Ber-lin and Georg-August-University, Göttingen, Germany, Saint Louis Uni-versity Health Sciences Center, St. Louis, Missouri, National Heart, Lung, and Blood Institute, Bethesda, Maryland, USA, National Taiwan Univer-sity Hospital, National Taiwan University College of Medicine, Taipei, Tai-wan, China Novartis Institutes for BioMedical Research, Shanghai, China, Novartis Pharma AG, Basel, Switzerland, Department of Dermatology, Radboud University Nijmegen Medical Centre</t>
+        </is>
+      </c>
+      <c r="C73" s="2" t="inlineStr">
+        <is>
+          <t>Nijmegen, The Netherlands</t>
+        </is>
+      </c>
+      <c r="D73" s="2" t="inlineStr">
+        <is>
+          <t>P113</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SECUKINUMAB’S LONG­TERM SAFETY REMAINS </t>
+        </is>
+      </c>
+      <c r="F73" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FAVORABLE UP TO 5 YEARS OF TREATMENTIntroduction  and  Objectives:  Psoriasis  is  a  condition  typically requiring long-term treatment, thus longitudinal data establishing the safety of approved therapies are required. We report exposure adjusted incidence rates (IRs per 100 patient years) for treatmentemergent adverse events (AEs) per year of treatment from a pooled analysis of all secukinumab psoriasis trials to date (19 studies, 4,674  patients,  10,061  patient-years  exposure;  secukinumab exposure up to 5 years).Methods: AE IRs were examined per year for subjects receiving secukinumab, and for 52 weeks only for those receiving etanercept (ETN), ustekinumab (UST), or placebo (PBO).Results: Duration of exposure through 52 weeks of secukinumab treatment  300  mg,  ETN  50  mg,  UST  45/90  mg,  and  PBO  was 1467.4, 296.9, 318.1, and 301 patient-years, respectively. Exposure duration through 2, 3, 4, and 5 years of secukinumab 300 mg treatment was 859.6, 423, 377.5, and 90 patient-years. Over 52 weeks for secukinumab, ETN, UST, and PBO, respectively, exposure adjusted IRs were overall comparable across treatments: total AEs (275.6, 245.7, 252.2, 355.8); nasopharyngitis (28.4, 35.9, 31.2,  35.9);  headache  (12.6,  15,  14.6,  23.7);  upper  respiratory infections [URI] (9.1, 5.9, 9.9, 8.8); opportunistic infections (0.2, 0.3, 0.3, 0.3); Candida infections (4.7, 1.4, 1.6, 1.7); neutropenia (0.5, 1.4, 0, 0); major adverse cardiovascular events [MACE] (0.5, 0.3, 0.3, 1.3); Crohn’s disease (0.1, 0, 0, 0); ulcerative colitis (0.1, 0.3,	0,	0);	and	malignant	or	unspecified	tumors	[excluding	nonmelanoma skin cancer [NMSC]] (0.4, 0.3, 0.3, 0.3).Secukinumab 300 mg pooled safety remained favorable over time with no increases in AEs (exposure adjusted IRs for up to Year 1 to Year 5, respectively): total AEs (275.6, 168.1, 160.2, 111.9, 13.9);  nasopharyngitis  (28.4,  21.2,  24.1,  11.8,  3.4);  headache (12.6, 5.4, 4.3, 4.9, 0); URI (9.1, 7.3, 6.1, 5.5, 0); opportunistic infections (0.2, 0.1, 0, 0, 0); Candida infections (4.7, 3.6, 1.9, 1.3, 1.1); neutropenia (0.5, 0.1, 0, 0, 0); MACE (0.5, 0.1, 0.5, 0, 0); Crohn’s disease (0.1, 0, 0, 0, 0); ulcerative colitis (0.1, 0.4, 0.2, 0.3,	0);	and	malignant	or	unspecified	tumors	[excluding	NMSC]	(0.4, 0.4, 0.2, 0, 0).Conclusions: This comprehensive pooled analysis supports the favorable	long-term	safety	profile	of	secukinumab	in	patients	with	psoriasis;	no	new	safety	signals	were	identified	for	up	to	5	years	of	treatment	and	secukinumab’s	safety	profile	was	consistent	with	that established in a large phase 3 program. Findings  previously  published  at  the AAD Annual  Meeting,  February 16–20, 2018, San-Diego, California. </t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="inlineStr">
+        <is>
+          <t>Arthur Kavanaugh</t>
+        </is>
+      </c>
+      <c r="B74" s="2" t="inlineStr">
+        <is>
+          <t>University of California, San Diego, CA, Department of Dermatology, New York Medical College at Metropolitan Hospital, New York, NY, USA, Nagoya City University Medical School, Nagoya, Japan, Harvard Medi-Company, Indianapolis, IN, USA, University Hospital Schleswig Holstein Campus Luebeck</t>
+        </is>
+      </c>
+      <c r="C74" s="2" t="inlineStr">
+        <is>
+          <t>Ratzeburger Allee, Germany</t>
+        </is>
+      </c>
+      <c r="D74" s="2" t="inlineStr">
+        <is>
+          <t>P114</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="inlineStr">
+        <is>
+          <t>IMPACT OF IMPROVEMENT IN SKIN AND JOINT ON QUALITY OF LIFE IN ACTIVE PSORIATIC ARTHRITIS PATIENTS</t>
+        </is>
+      </c>
+      <c r="F74" s="2" t="inlineStr">
+        <is>
+          <t>cal  School,  Brigham  and  Women’s  Hospital,  Boston,  MA,  5Eli  Lilly  and Introduction:  Psoriatic  arthritis  (PsA)  is  a  chronic  immunemediated	 inflammatory	 disease	 affecting	 peripheral	 and	 axial	joints. For patients with active psoriasis, the added burden of skin disease can further reduce health-related quality of life (HRQoL) of patients with joint disease.Objective:To determine the contribution of joint and skin improvements in HRQoL of patients with active PsA during Phase 3 clinical trials investigating ixekizumab (IXE) treatment.Methods: The double-blind Phase 3 trials (SPIRIT) investigated the	treatment	of	IXE,	a	high-affinity	monoclonal	antibody	selectively  targeting  interleukin-17A,  for  patients  with  active  PsA. The integrated database of 2 SPIRIT trials consisted of biologic disease-modifying	antirheumatic	drug	(DMARD)-naïve	patients	(SPIRIT-P1, NCT01695239) or inadequate responders to tumor necrosis  factor  (TNF)-inhibitors  (SPIRIT-P2,  NCT02349295). Patients  were  randomized  to  80mg  IXE  every  4  weeks  (Q4W, n = 229) or 2 weeks (Q2W, n = 226) after a 160mg starting dose or placebo (PBO, n = 224). At baseline and Week 24, joint and skin diseases were measured by the Disease Activity index for PSoriatic Arthritis (DAPSA; calculated post-hoc) and Psoriasis Area and Severity Index (PASI), respectively. HRQoL was measured by EuroQoL 5 Dimensions Visual Analog Scale (EQ-5D VAS), Short  Form-36  Health  Survey  (SF-36),  and  Work  Productivity and	Activity	Impairment-Specific	Health	Problem	(WPAI).	The	synergistic contribution of skin and joint improvements to HRQoL was modeled using smoothing spline method and depicted with response surface. Missing data were imputed using last observation carried forward.Results:  Of  679  PBO-  and  IXE-treated  patients  in  the  SPIRIT trials,	402	(65%)	and	224	(36%)	patients	had	≥3%	body	surface	area	(BSA)	and	≥10%	BSA	psoriasis	at	baseline,	respectively.	In	these patients, we applied response surface modeling to investigate the relationship among DAPSA, PASI, and change from baseline in EQ-5D VAS at Week 24. The greatest improvement in EQ-5D VAS  was  associated  with  the  largest  percent  improvements  in both  DAPSA  and  PASI  together,  rather  than  DAPSA  or  PASI alone.	Similar	observations,	regardless	of	≥3%	or	≥10%	BSA	baseline psoriasis, were made in domains of SF-36 (General Health, Physical Functioning, Social Functioning, and Vitality; data not shown) and WPAI (Activity Impairment; data not shown).Conclusion:  For  PsA  patients  with  psoriasis,  optimal  improvements  in  patients’  HRQoL,  as  measured  by  select  domains  of patient-reported outcomes, were dependent on successful treatment of both joint and skin symptoms.Kavanaugh A, Gottlieb A, Morita A, Merola J, Birt J, Lin C-Y, Shuler CL, Thaci D. The Contribution of Skin and Joint Improvements to the Health-Related Quality of Life of Patients with Active Psoriatic Arthritis. Arthritis Rheumatol. 2017;69(Suppl 10).</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="inlineStr">
+        <is>
+          <t>Alice Gottlieb</t>
+        </is>
+      </c>
+      <c r="B75" s="2" t="inlineStr">
+        <is>
+          <t>University of California, San Diego, CA, Department of Dermatology, New York Medical College at Metropolitan Hospital, New York, NY, USA, Nagoya City University Medical School, Nagoya, Japan, Harvard Medi-Company, Indianapolis, IN, USA, University Hospital Schleswig Holstein Campus Luebeck</t>
+        </is>
+      </c>
+      <c r="C75" s="2" t="inlineStr">
+        <is>
+          <t>Ratzeburger Allee, Germany</t>
+        </is>
+      </c>
+      <c r="D75" s="2" t="inlineStr">
+        <is>
+          <t>P114</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="inlineStr">
+        <is>
+          <t>IMPACT OF IMPROVEMENT IN SKIN AND JOINT ON QUALITY OF LIFE IN ACTIVE PSORIATIC ARTHRITIS PATIENTS</t>
+        </is>
+      </c>
+      <c r="F75" s="2" t="inlineStr">
+        <is>
+          <t>cal  School,  Brigham  and  Women’s  Hospital,  Boston,  MA,  5Eli  Lilly  and Introduction:  Psoriatic  arthritis  (PsA)  is  a  chronic  immunemediated	 inflammatory	 disease	 affecting	 peripheral	 and	 axial	joints. For patients with active psoriasis, the added burden of skin disease can further reduce health-related quality of life (HRQoL) of patients with joint disease.Objective:To determine the contribution of joint and skin improvements in HRQoL of patients with active PsA during Phase 3 clinical trials investigating ixekizumab (IXE) treatment.Methods: The double-blind Phase 3 trials (SPIRIT) investigated the	treatment	of	IXE,	a	high-affinity	monoclonal	antibody	selectively  targeting  interleukin-17A,  for  patients  with  active  PsA. The integrated database of 2 SPIRIT trials consisted of biologic disease-modifying	antirheumatic	drug	(DMARD)-naïve	patients	(SPIRIT-P1, NCT01695239) or inadequate responders to tumor necrosis  factor  (TNF)-inhibitors  (SPIRIT-P2,  NCT02349295). Patients  were  randomized  to  80mg  IXE  every  4  weeks  (Q4W, n = 229) or 2 weeks (Q2W, n = 226) after a 160mg starting dose or placebo (PBO, n = 224). At baseline and Week 24, joint and skin diseases were measured by the Disease Activity index for PSoriatic Arthritis (DAPSA; calculated post-hoc) and Psoriasis Area and Severity Index (PASI), respectively. HRQoL was measured by EuroQoL 5 Dimensions Visual Analog Scale (EQ-5D VAS), Short  Form-36  Health  Survey  (SF-36),  and  Work  Productivity and	Activity	Impairment-Specific	Health	Problem	(WPAI).	The	synergistic contribution of skin and joint improvements to HRQoL was modeled using smoothing spline method and depicted with response surface. Missing data were imputed using last observation carried forward.Results:  Of  679  PBO-  and  IXE-treated  patients  in  the  SPIRIT trials,	402	(65%)	and	224	(36%)	patients	had	≥3%	body	surface	area	(BSA)	and	≥10%	BSA	psoriasis	at	baseline,	respectively.	In	these patients, we applied response surface modeling to investigate the relationship among DAPSA, PASI, and change from baseline in EQ-5D VAS at Week 24. The greatest improvement in EQ-5D VAS  was  associated  with  the  largest  percent  improvements  in both  DAPSA  and  PASI  together,  rather  than  DAPSA  or  PASI alone.	Similar	observations,	regardless	of	≥3%	or	≥10%	BSA	baseline psoriasis, were made in domains of SF-36 (General Health, Physical Functioning, Social Functioning, and Vitality; data not shown) and WPAI (Activity Impairment; data not shown).Conclusion:  For  PsA  patients  with  psoriasis,  optimal  improvements  in  patients’  HRQoL,  as  measured  by  select  domains  of patient-reported outcomes, were dependent on successful treatment of both joint and skin symptoms.Kavanaugh A, Gottlieb A, Morita A, Merola J, Birt J, Lin C-Y, Shuler CL, Thaci D. The Contribution of Skin and Joint Improvements to the Health-Related Quality of Life of Patients with Active Psoriatic Arthritis. Arthritis Rheumatol. 2017;69(Suppl 10).</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="inlineStr">
+        <is>
+          <t>Akimichi Morita</t>
+        </is>
+      </c>
+      <c r="B76" s="2" t="inlineStr">
+        <is>
+          <t>University of California, San Diego, CA, Department of Dermatology, New York Medical College at Metropolitan Hospital, New York, NY, USA, Nagoya City University Medical School, Nagoya, Japan, Harvard Medi-Company, Indianapolis, IN, USA, University Hospital Schleswig Holstein Campus Luebeck</t>
+        </is>
+      </c>
+      <c r="C76" s="2" t="inlineStr">
+        <is>
+          <t>Ratzeburger Allee, Germany</t>
+        </is>
+      </c>
+      <c r="D76" s="2" t="inlineStr">
+        <is>
+          <t>P114</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="inlineStr">
+        <is>
+          <t>IMPACT OF IMPROVEMENT IN SKIN AND JOINT ON QUALITY OF LIFE IN ACTIVE PSORIATIC ARTHRITIS PATIENTS</t>
+        </is>
+      </c>
+      <c r="F76" s="2" t="inlineStr">
+        <is>
+          <t>cal  School,  Brigham  and  Women’s  Hospital,  Boston,  MA,  5Eli  Lilly  and Introduction:  Psoriatic  arthritis  (PsA)  is  a  chronic  immunemediated	 inflammatory	 disease	 affecting	 peripheral	 and	 axial	joints. For patients with active psoriasis, the added burden of skin disease can further reduce health-related quality of life (HRQoL) of patients with joint disease.Objective:To determine the contribution of joint and skin improvements in HRQoL of patients with active PsA during Phase 3 clinical trials investigating ixekizumab (IXE) treatment.Methods: The double-blind Phase 3 trials (SPIRIT) investigated the	treatment	of	IXE,	a	high-affinity	monoclonal	antibody	selectively  targeting  interleukin-17A,  for  patients  with  active  PsA. The integrated database of 2 SPIRIT trials consisted of biologic disease-modifying	antirheumatic	drug	(DMARD)-naïve	patients	(SPIRIT-P1, NCT01695239) or inadequate responders to tumor necrosis  factor  (TNF)-inhibitors  (SPIRIT-P2,  NCT02349295). Patients  were  randomized  to  80mg  IXE  every  4  weeks  (Q4W, n = 229) or 2 weeks (Q2W, n = 226) after a 160mg starting dose or placebo (PBO, n = 224). At baseline and Week 24, joint and skin diseases were measured by the Disease Activity index for PSoriatic Arthritis (DAPSA; calculated post-hoc) and Psoriasis Area and Severity Index (PASI), respectively. HRQoL was measured by EuroQoL 5 Dimensions Visual Analog Scale (EQ-5D VAS), Short  Form-36  Health  Survey  (SF-36),  and  Work  Productivity and	Activity	Impairment-Specific	Health	Problem	(WPAI).	The	synergistic contribution of skin and joint improvements to HRQoL was modeled using smoothing spline method and depicted with response surface. Missing data were imputed using last observation carried forward.Results:  Of  679  PBO-  and  IXE-treated  patients  in  the  SPIRIT trials,	402	(65%)	and	224	(36%)	patients	had	≥3%	body	surface	area	(BSA)	and	≥10%	BSA	psoriasis	at	baseline,	respectively.	In	these patients, we applied response surface modeling to investigate the relationship among DAPSA, PASI, and change from baseline in EQ-5D VAS at Week 24. The greatest improvement in EQ-5D VAS  was  associated  with  the  largest  percent  improvements  in both  DAPSA  and  PASI  together,  rather  than  DAPSA  or  PASI alone.	Similar	observations,	regardless	of	≥3%	or	≥10%	BSA	baseline psoriasis, were made in domains of SF-36 (General Health, Physical Functioning, Social Functioning, and Vitality; data not shown) and WPAI (Activity Impairment; data not shown).Conclusion:  For  PsA  patients  with  psoriasis,  optimal  improvements  in  patients’  HRQoL,  as  measured  by  select  domains  of patient-reported outcomes, were dependent on successful treatment of both joint and skin symptoms.Kavanaugh A, Gottlieb A, Morita A, Merola J, Birt J, Lin C-Y, Shuler CL, Thaci D. The Contribution of Skin and Joint Improvements to the Health-Related Quality of Life of Patients with Active Psoriatic Arthritis. Arthritis Rheumatol. 2017;69(Suppl 10).</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="inlineStr">
+        <is>
+          <t>Joseph F Merola</t>
+        </is>
+      </c>
+      <c r="B77" s="2" t="inlineStr">
+        <is>
+          <t>University of California, San Diego, CA, Department of Dermatology, New York Medical College at Metropolitan Hospital, New York, NY, USA, Nagoya City University Medical School, Nagoya, Japan, Harvard Medi-Company, Indianapolis, IN, USA, University Hospital Schleswig Holstein Campus Luebeck</t>
+        </is>
+      </c>
+      <c r="C77" s="2" t="inlineStr">
+        <is>
+          <t>Ratzeburger Allee, Germany</t>
+        </is>
+      </c>
+      <c r="D77" s="2" t="inlineStr">
+        <is>
+          <t>P114</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="inlineStr">
+        <is>
+          <t>IMPACT OF IMPROVEMENT IN SKIN AND JOINT ON QUALITY OF LIFE IN ACTIVE PSORIATIC ARTHRITIS PATIENTS</t>
+        </is>
+      </c>
+      <c r="F77" s="2" t="inlineStr">
+        <is>
+          <t>cal  School,  Brigham  and  Women’s  Hospital,  Boston,  MA,  5Eli  Lilly  and Introduction:  Psoriatic  arthritis  (PsA)  is  a  chronic  immunemediated	 inflammatory	 disease	 affecting	 peripheral	 and	 axial	joints. For patients with active psoriasis, the added burden of skin disease can further reduce health-related quality of life (HRQoL) of patients with joint disease.Objective:To determine the contribution of joint and skin improvements in HRQoL of patients with active PsA during Phase 3 clinical trials investigating ixekizumab (IXE) treatment.Methods: The double-blind Phase 3 trials (SPIRIT) investigated the	treatment	of	IXE,	a	high-affinity	monoclonal	antibody	selectively  targeting  interleukin-17A,  for  patients  with  active  PsA. The integrated database of 2 SPIRIT trials consisted of biologic disease-modifying	antirheumatic	drug	(DMARD)-naïve	patients	(SPIRIT-P1, NCT01695239) or inadequate responders to tumor necrosis  factor  (TNF)-inhibitors  (SPIRIT-P2,  NCT02349295). Patients  were  randomized  to  80mg  IXE  every  4  weeks  (Q4W, n = 229) or 2 weeks (Q2W, n = 226) after a 160mg starting dose or placebo (PBO, n = 224). At baseline and Week 24, joint and skin diseases were measured by the Disease Activity index for PSoriatic Arthritis (DAPSA; calculated post-hoc) and Psoriasis Area and Severity Index (PASI), respectively. HRQoL was measured by EuroQoL 5 Dimensions Visual Analog Scale (EQ-5D VAS), Short  Form-36  Health  Survey  (SF-36),  and  Work  Productivity and	Activity	Impairment-Specific	Health	Problem	(WPAI).	The	synergistic contribution of skin and joint improvements to HRQoL was modeled using smoothing spline method and depicted with response surface. Missing data were imputed using last observation carried forward.Results:  Of  679  PBO-  and  IXE-treated  patients  in  the  SPIRIT trials,	402	(65%)	and	224	(36%)	patients	had	≥3%	body	surface	area	(BSA)	and	≥10%	BSA	psoriasis	at	baseline,	respectively.	In	these patients, we applied response surface modeling to investigate the relationship among DAPSA, PASI, and change from baseline in EQ-5D VAS at Week 24. The greatest improvement in EQ-5D VAS  was  associated  with  the  largest  percent  improvements  in both  DAPSA  and  PASI  together,  rather  than  DAPSA  or  PASI alone.	Similar	observations,	regardless	of	≥3%	or	≥10%	BSA	baseline psoriasis, were made in domains of SF-36 (General Health, Physical Functioning, Social Functioning, and Vitality; data not shown) and WPAI (Activity Impairment; data not shown).Conclusion:  For  PsA  patients  with  psoriasis,  optimal  improvements  in  patients’  HRQoL,  as  measured  by  select  domains  of patient-reported outcomes, were dependent on successful treatment of both joint and skin symptoms.Kavanaugh A, Gottlieb A, Morita A, Merola J, Birt J, Lin C-Y, Shuler CL, Thaci D. The Contribution of Skin and Joint Improvements to the Health-Related Quality of Life of Patients with Active Psoriatic Arthritis. Arthritis Rheumatol. 2017;69(Suppl 10).</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="inlineStr">
+        <is>
+          <t>Julie Birt</t>
+        </is>
+      </c>
+      <c r="B78" s="2" t="inlineStr">
+        <is>
+          <t>University of California, San Diego, CA, Department of Dermatology, New York Medical College at Metropolitan Hospital, New York, NY, USA, Nagoya City University Medical School, Nagoya, Japan, Harvard Medi-Company, Indianapolis, IN, USA, University Hospital Schleswig Holstein Campus Luebeck</t>
+        </is>
+      </c>
+      <c r="C78" s="2" t="inlineStr">
+        <is>
+          <t>Ratzeburger Allee, Germany</t>
+        </is>
+      </c>
+      <c r="D78" s="2" t="inlineStr">
+        <is>
+          <t>P114</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="inlineStr">
+        <is>
+          <t>IMPACT OF IMPROVEMENT IN SKIN AND JOINT ON QUALITY OF LIFE IN ACTIVE PSORIATIC ARTHRITIS PATIENTS</t>
+        </is>
+      </c>
+      <c r="F78" s="2" t="inlineStr">
+        <is>
+          <t>cal  School,  Brigham  and  Women’s  Hospital,  Boston,  MA,  5Eli  Lilly  and Introduction:  Psoriatic  arthritis  (PsA)  is  a  chronic  immunemediated	 inflammatory	 disease	 affecting	 peripheral	 and	 axial	joints. For patients with active psoriasis, the added burden of skin disease can further reduce health-related quality of life (HRQoL) of patients with joint disease.Objective:To determine the contribution of joint and skin improvements in HRQoL of patients with active PsA during Phase 3 clinical trials investigating ixekizumab (IXE) treatment.Methods: The double-blind Phase 3 trials (SPIRIT) investigated the	treatment	of	IXE,	a	high-affinity	monoclonal	antibody	selectively  targeting  interleukin-17A,  for  patients  with  active  PsA. The integrated database of 2 SPIRIT trials consisted of biologic disease-modifying	antirheumatic	drug	(DMARD)-naïve	patients	(SPIRIT-P1, NCT01695239) or inadequate responders to tumor necrosis  factor  (TNF)-inhibitors  (SPIRIT-P2,  NCT02349295). Patients  were  randomized  to  80mg  IXE  every  4  weeks  (Q4W, n = 229) or 2 weeks (Q2W, n = 226) after a 160mg starting dose or placebo (PBO, n = 224). At baseline and Week 24, joint and skin diseases were measured by the Disease Activity index for PSoriatic Arthritis (DAPSA; calculated post-hoc) and Psoriasis Area and Severity Index (PASI), respectively. HRQoL was measured by EuroQoL 5 Dimensions Visual Analog Scale (EQ-5D VAS), Short  Form-36  Health  Survey  (SF-36),  and  Work  Productivity and	Activity	Impairment-Specific	Health	Problem	(WPAI).	The	synergistic contribution of skin and joint improvements to HRQoL was modeled using smoothing spline method and depicted with response surface. Missing data were imputed using last observation carried forward.Results:  Of  679  PBO-  and  IXE-treated  patients  in  the  SPIRIT trials,	402	(65%)	and	224	(36%)	patients	had	≥3%	body	surface	area	(BSA)	and	≥10%	BSA	psoriasis	at	baseline,	respectively.	In	these patients, we applied response surface modeling to investigate the relationship among DAPSA, PASI, and change from baseline in EQ-5D VAS at Week 24. The greatest improvement in EQ-5D VAS  was  associated  with  the  largest  percent  improvements  in both  DAPSA  and  PASI  together,  rather  than  DAPSA  or  PASI alone.	Similar	observations,	regardless	of	≥3%	or	≥10%	BSA	baseline psoriasis, were made in domains of SF-36 (General Health, Physical Functioning, Social Functioning, and Vitality; data not shown) and WPAI (Activity Impairment; data not shown).Conclusion:  For  PsA  patients  with  psoriasis,  optimal  improvements  in  patients’  HRQoL,  as  measured  by  select  domains  of patient-reported outcomes, were dependent on successful treatment of both joint and skin symptoms.Kavanaugh A, Gottlieb A, Morita A, Merola J, Birt J, Lin C-Y, Shuler CL, Thaci D. The Contribution of Skin and Joint Improvements to the Health-Related Quality of Life of Patients with Active Psoriatic Arthritis. Arthritis Rheumatol. 2017;69(Suppl 10).</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="inlineStr">
+        <is>
+          <t>Chen-Yen Lin</t>
+        </is>
+      </c>
+      <c r="B79" s="2" t="inlineStr">
+        <is>
+          <t>University of California, San Diego, CA, Department of Dermatology, New York Medical College at Metropolitan Hospital, New York, NY, USA, Nagoya City University Medical School, Nagoya, Japan, Harvard Medi-Company, Indianapolis, IN, USA, University Hospital Schleswig Holstein Campus Luebeck</t>
+        </is>
+      </c>
+      <c r="C79" s="2" t="inlineStr">
+        <is>
+          <t>Ratzeburger Allee, Germany</t>
+        </is>
+      </c>
+      <c r="D79" s="2" t="inlineStr">
+        <is>
+          <t>P114</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="inlineStr">
+        <is>
+          <t>IMPACT OF IMPROVEMENT IN SKIN AND JOINT ON QUALITY OF LIFE IN ACTIVE PSORIATIC ARTHRITIS PATIENTS</t>
+        </is>
+      </c>
+      <c r="F79" s="2" t="inlineStr">
+        <is>
+          <t>cal  School,  Brigham  and  Women’s  Hospital,  Boston,  MA,  5Eli  Lilly  and Introduction:  Psoriatic  arthritis  (PsA)  is  a  chronic  immunemediated	 inflammatory	 disease	 affecting	 peripheral	 and	 axial	joints. For patients with active psoriasis, the added burden of skin disease can further reduce health-related quality of life (HRQoL) of patients with joint disease.Objective:To determine the contribution of joint and skin improvements in HRQoL of patients with active PsA during Phase 3 clinical trials investigating ixekizumab (IXE) treatment.Methods: The double-blind Phase 3 trials (SPIRIT) investigated the	treatment	of	IXE,	a	high-affinity	monoclonal	antibody	selectively  targeting  interleukin-17A,  for  patients  with  active  PsA. The integrated database of 2 SPIRIT trials consisted of biologic disease-modifying	antirheumatic	drug	(DMARD)-naïve	patients	(SPIRIT-P1, NCT01695239) or inadequate responders to tumor necrosis  factor  (TNF)-inhibitors  (SPIRIT-P2,  NCT02349295). Patients  were  randomized  to  80mg  IXE  every  4  weeks  (Q4W, n = 229) or 2 weeks (Q2W, n = 226) after a 160mg starting dose or placebo (PBO, n = 224). At baseline and Week 24, joint and skin diseases were measured by the Disease Activity index for PSoriatic Arthritis (DAPSA; calculated post-hoc) and Psoriasis Area and Severity Index (PASI), respectively. HRQoL was measured by EuroQoL 5 Dimensions Visual Analog Scale (EQ-5D VAS), Short  Form-36  Health  Survey  (SF-36),  and  Work  Productivity and	Activity	Impairment-Specific	Health	Problem	(WPAI).	The	synergistic contribution of skin and joint improvements to HRQoL was modeled using smoothing spline method and depicted with response surface. Missing data were imputed using last observation carried forward.Results:  Of  679  PBO-  and  IXE-treated  patients  in  the  SPIRIT trials,	402	(65%)	and	224	(36%)	patients	had	≥3%	body	surface	area	(BSA)	and	≥10%	BSA	psoriasis	at	baseline,	respectively.	In	these patients, we applied response surface modeling to investigate the relationship among DAPSA, PASI, and change from baseline in EQ-5D VAS at Week 24. The greatest improvement in EQ-5D VAS  was  associated  with  the  largest  percent  improvements  in both  DAPSA  and  PASI  together,  rather  than  DAPSA  or  PASI alone.	Similar	observations,	regardless	of	≥3%	or	≥10%	BSA	baseline psoriasis, were made in domains of SF-36 (General Health, Physical Functioning, Social Functioning, and Vitality; data not shown) and WPAI (Activity Impairment; data not shown).Conclusion:  For  PsA  patients  with  psoriasis,  optimal  improvements  in  patients’  HRQoL,  as  measured  by  select  domains  of patient-reported outcomes, were dependent on successful treatment of both joint and skin symptoms.Kavanaugh A, Gottlieb A, Morita A, Merola J, Birt J, Lin C-Y, Shuler CL, Thaci D. The Contribution of Skin and Joint Improvements to the Health-Related Quality of Life of Patients with Active Psoriatic Arthritis. Arthritis Rheumatol. 2017;69(Suppl 10).</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="inlineStr">
+        <is>
+          <t>Catherine L Shuler</t>
+        </is>
+      </c>
+      <c r="B80" s="2" t="inlineStr">
+        <is>
+          <t>University of California, San Diego, CA, Department of Dermatology, New York Medical College at Metropolitan Hospital, New York, NY, USA, Nagoya City University Medical School, Nagoya, Japan, Harvard Medi-Company, Indianapolis, IN, USA, University Hospital Schleswig Holstein Campus Luebeck</t>
+        </is>
+      </c>
+      <c r="C80" s="2" t="inlineStr">
+        <is>
+          <t>Ratzeburger Allee, Germany</t>
+        </is>
+      </c>
+      <c r="D80" s="2" t="inlineStr">
+        <is>
+          <t>P114</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="inlineStr">
+        <is>
+          <t>IMPACT OF IMPROVEMENT IN SKIN AND JOINT ON QUALITY OF LIFE IN ACTIVE PSORIATIC ARTHRITIS PATIENTS</t>
+        </is>
+      </c>
+      <c r="F80" s="2" t="inlineStr">
+        <is>
+          <t>cal  School,  Brigham  and  Women’s  Hospital,  Boston,  MA,  5Eli  Lilly  and Introduction:  Psoriatic  arthritis  (PsA)  is  a  chronic  immunemediated	 inflammatory	 disease	 affecting	 peripheral	 and	 axial	joints. For patients with active psoriasis, the added burden of skin disease can further reduce health-related quality of life (HRQoL) of patients with joint disease.Objective:To determine the contribution of joint and skin improvements in HRQoL of patients with active PsA during Phase 3 clinical trials investigating ixekizumab (IXE) treatment.Methods: The double-blind Phase 3 trials (SPIRIT) investigated the	treatment	of	IXE,	a	high-affinity	monoclonal	antibody	selectively  targeting  interleukin-17A,  for  patients  with  active  PsA. The integrated database of 2 SPIRIT trials consisted of biologic disease-modifying	antirheumatic	drug	(DMARD)-naïve	patients	(SPIRIT-P1, NCT01695239) or inadequate responders to tumor necrosis  factor  (TNF)-inhibitors  (SPIRIT-P2,  NCT02349295). Patients  were  randomized  to  80mg  IXE  every  4  weeks  (Q4W, n = 229) or 2 weeks (Q2W, n = 226) after a 160mg starting dose or placebo (PBO, n = 224). At baseline and Week 24, joint and skin diseases were measured by the Disease Activity index for PSoriatic Arthritis (DAPSA; calculated post-hoc) and Psoriasis Area and Severity Index (PASI), respectively. HRQoL was measured by EuroQoL 5 Dimensions Visual Analog Scale (EQ-5D VAS), Short  Form-36  Health  Survey  (SF-36),  and  Work  Productivity and	Activity	Impairment-Specific	Health	Problem	(WPAI).	The	synergistic contribution of skin and joint improvements to HRQoL was modeled using smoothing spline method and depicted with response surface. Missing data were imputed using last observation carried forward.Results:  Of  679  PBO-  and  IXE-treated  patients  in  the  SPIRIT trials,	402	(65%)	and	224	(36%)	patients	had	≥3%	body	surface	area	(BSA)	and	≥10%	BSA	psoriasis	at	baseline,	respectively.	In	these patients, we applied response surface modeling to investigate the relationship among DAPSA, PASI, and change from baseline in EQ-5D VAS at Week 24. The greatest improvement in EQ-5D VAS  was  associated  with  the  largest  percent  improvements  in both  DAPSA  and  PASI  together,  rather  than  DAPSA  or  PASI alone.	Similar	observations,	regardless	of	≥3%	or	≥10%	BSA	baseline psoriasis, were made in domains of SF-36 (General Health, Physical Functioning, Social Functioning, and Vitality; data not shown) and WPAI (Activity Impairment; data not shown).Conclusion:  For  PsA  patients  with  psoriasis,  optimal  improvements  in  patients’  HRQoL,  as  measured  by  select  domains  of patient-reported outcomes, were dependent on successful treatment of both joint and skin symptoms.Kavanaugh A, Gottlieb A, Morita A, Merola J, Birt J, Lin C-Y, Shuler CL, Thaci D. The Contribution of Skin and Joint Improvements to the Health-Related Quality of Life of Patients with Active Psoriatic Arthritis. Arthritis Rheumatol. 2017;69(Suppl 10).</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="inlineStr">
+        <is>
+          <t>Diamant Thaçi</t>
+        </is>
+      </c>
+      <c r="B81" s="2" t="inlineStr">
+        <is>
+          <t>University of California, San Diego, CA, Department of Dermatology, New York Medical College at Metropolitan Hospital, New York, NY, USA, Nagoya City University Medical School, Nagoya, Japan, Harvard Medi-Company, Indianapolis, IN, USA, University Hospital Schleswig Holstein Campus Luebeck</t>
+        </is>
+      </c>
+      <c r="C81" s="2" t="inlineStr">
+        <is>
+          <t>Ratzeburger Allee, Germany</t>
+        </is>
+      </c>
+      <c r="D81" s="2" t="inlineStr">
+        <is>
+          <t>P114</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="inlineStr">
+        <is>
+          <t>IMPACT OF IMPROVEMENT IN SKIN AND JOINT ON QUALITY OF LIFE IN ACTIVE PSORIATIC ARTHRITIS PATIENTS</t>
+        </is>
+      </c>
+      <c r="F81" s="2" t="inlineStr">
+        <is>
+          <t>cal  School,  Brigham  and  Women’s  Hospital,  Boston,  MA,  5Eli  Lilly  and Introduction:  Psoriatic  arthritis  (PsA)  is  a  chronic  immunemediated	 inflammatory	 disease	 affecting	 peripheral	 and	 axial	joints. For patients with active psoriasis, the added burden of skin disease can further reduce health-related quality of life (HRQoL) of patients with joint disease.Objective:To determine the contribution of joint and skin improvements in HRQoL of patients with active PsA during Phase 3 clinical trials investigating ixekizumab (IXE) treatment.Methods: The double-blind Phase 3 trials (SPIRIT) investigated the	treatment	of	IXE,	a	high-affinity	monoclonal	antibody	selectively  targeting  interleukin-17A,  for  patients  with  active  PsA. The integrated database of 2 SPIRIT trials consisted of biologic disease-modifying	antirheumatic	drug	(DMARD)-naïve	patients	(SPIRIT-P1, NCT01695239) or inadequate responders to tumor necrosis  factor  (TNF)-inhibitors  (SPIRIT-P2,  NCT02349295). Patients  were  randomized  to  80mg  IXE  every  4  weeks  (Q4W, n = 229) or 2 weeks (Q2W, n = 226) after a 160mg starting dose or placebo (PBO, n = 224). At baseline and Week 24, joint and skin diseases were measured by the Disease Activity index for PSoriatic Arthritis (DAPSA; calculated post-hoc) and Psoriasis Area and Severity Index (PASI), respectively. HRQoL was measured by EuroQoL 5 Dimensions Visual Analog Scale (EQ-5D VAS), Short  Form-36  Health  Survey  (SF-36),  and  Work  Productivity and	Activity	Impairment-Specific	Health	Problem	(WPAI).	The	synergistic contribution of skin and joint improvements to HRQoL was modeled using smoothing spline method and depicted with response surface. Missing data were imputed using last observation carried forward.Results:  Of  679  PBO-  and  IXE-treated  patients  in  the  SPIRIT trials,	402	(65%)	and	224	(36%)	patients	had	≥3%	body	surface	area	(BSA)	and	≥10%	BSA	psoriasis	at	baseline,	respectively.	In	these patients, we applied response surface modeling to investigate the relationship among DAPSA, PASI, and change from baseline in EQ-5D VAS at Week 24. The greatest improvement in EQ-5D VAS  was  associated  with  the  largest  percent  improvements  in both  DAPSA  and  PASI  together,  rather  than  DAPSA  or  PASI alone.	Similar	observations,	regardless	of	≥3%	or	≥10%	BSA	baseline psoriasis, were made in domains of SF-36 (General Health, Physical Functioning, Social Functioning, and Vitality; data not shown) and WPAI (Activity Impairment; data not shown).Conclusion:  For  PsA  patients  with  psoriasis,  optimal  improvements  in  patients’  HRQoL,  as  measured  by  select  domains  of patient-reported outcomes, were dependent on successful treatment of both joint and skin symptoms.Kavanaugh A, Gottlieb A, Morita A, Merola J, Birt J, Lin C-Y, Shuler CL, Thaci D. The Contribution of Skin and Joint Improvements to the Health-Related Quality of Life of Patients with Active Psoriatic Arthritis. Arthritis Rheumatol. 2017;69(Suppl 10).</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="inlineStr">
+        <is>
+          <t>Alice B Gottlieb</t>
+        </is>
+      </c>
+      <c r="B82" s="2" t="inlineStr">
+        <is>
+          <t>Department of Dermatology, New York Medical College, Metropolitan Hospital, NY, USA, Holdsworth House Medical Practice, Darlinghurst, Australia, State Scientific Center of Dermatology, Venereology and Cos-metology, Moscow, Russia, China Novartis Institutes for BioMedical Re-search, Shanghai, China, Novartis Pharma AG</t>
+        </is>
+      </c>
+      <c r="C82" s="2" t="inlineStr">
+        <is>
+          <t>Basel, Switzerland</t>
+        </is>
+      </c>
+      <c r="D82" s="2" t="inlineStr">
+        <is>
+          <t>P115</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="inlineStr">
+        <is>
+          <t>SECUKINUMAB SHOWS HIGH AND SUSTAINED EFFICACY IN SUBJECTS WITH MODERATE TO SEVERE PALMOPLANTAR PSORIASIS: 2.5­YEAR RESULTS FROM THE GESTURE STUDY</t>
+        </is>
+      </c>
+      <c r="F82" s="2" t="inlineStr">
+        <is>
+          <t>Introduction: Palmoplantar psoriasis (ppPsO) occurs in up to 40% of plaque psoriasis subjects and is often resistant to treatment. It is associated with pain, functional limitations, and greater impairment of health related quality of life compared with plaque psoriasis on other parts of the body (1). Secukinumab, a fully human monoclonal antibody which selectively neutralises IL-17A, has shown	long	lasting	efficacy	and	safety	in	the	complete	spectrum	of psoriasis manifestations, including nails, scalp, palms and soles and psoriatic arthritis.Objectives: Here	we	report,	the	long-term	follow-up	efficacy	and	safety	results	from	the	GESTURE	study,	the	first	robust	(2.5-year)	data reported in subjects with moderate to severe ppPsO treated with secukinumab.Methods: GESTURE is a double blind, randomised, placebo-controlled, parallel-group, multicentre phase 3b study to investigate safety	and	efficacy	of	secukinumab	150	and	300	mg	s.c.	in	205	subjects with moderate to severe ppPsO.Results: As previously reported, after 16 weeks placebo-controlled treatment, the primary endpoint palmoplantar Investigator’s Global Assessment (ppIGA) 0/1 and all secondary endpoints of this study were met, demonstrating superiority of secukinumab to placebo at week 16 (2). An interim analysis at week 80 established the 47continuation	 improvement	 of	 palmoplantar	 disease	 for	 all	 efficacy parameters. The effect was sustained through 2.5 years with 59.2% and 52.5% of subjects in secukinumab 300 and 150 mg groups, respectively [multiple imputation (MI)] achieving clear or almost clear palms and soles (ppIGA 0/1). Consistent with this observation, the mean palmoplantar Psoriasis Area and Severity Index % change from baseline reached –74.7% and –61.6% for secukinumab  300  and  150  mg,  respectively,  at  2.5  years  (MI). The Dermatology Life Quality Index 0/1 response, was achieved in  45.5%  vs.  23.9%  of  subjects  for  secukinumab  300  and  150 mg groups respectively (LOCF). Pain and function of palms and soles	was	markedly	improved	with	secukinumab;	as	reflected	by	the Palmoplantar Quality of Life Instrument overall scores with 16.7%	and	17.9%	subjects	experiencing	no	difficulty	in	hand	and	feet  functionality  in  secukinumab  300  mg  and  150  mg  groups respectively	(LOCF).	The	safety	profile	was	consistent	with	that	seen in secukinumab phase 3 trials. The most common adverse events  across  all  treatment  arms  were  nasopharyngitis,  upper respiratory tract infection and headache.Conclusions: GESTURE, the largest and longest duration randomised controlled trial to date, revealed that secukinumab provides a  novel  treatment  option  for  the  challenging  and  infrequently studied  ppPsO  population  by  providing  a  strong  and  sustained response through 2.5 years.1. Kumar B, et al. Acta Dermatol Venereol. 2002; 82:192–5.2. Gottlieb A, et al. J Am Acad Dermatol. 2017; 76:70–80.This investigation was sponsored by Novartis Pharma AG, Basel, Switzerland.</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="inlineStr">
+        <is>
+          <t>John Sullivan</t>
+        </is>
+      </c>
+      <c r="B83" s="2" t="inlineStr">
+        <is>
+          <t>Department of Dermatology, New York Medical College, Metropolitan Hospital, NY, USA, Holdsworth House Medical Practice, Darlinghurst, Australia, State Scientific Center of Dermatology, Venereology and Cos-metology, Moscow, Russia, China Novartis Institutes for BioMedical Re-search, Shanghai, China, Novartis Pharma AG</t>
+        </is>
+      </c>
+      <c r="C83" s="2" t="inlineStr">
+        <is>
+          <t>Basel, Switzerland</t>
+        </is>
+      </c>
+      <c r="D83" s="2" t="inlineStr">
+        <is>
+          <t>P115</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="inlineStr">
+        <is>
+          <t>SECUKINUMAB SHOWS HIGH AND SUSTAINED EFFICACY IN SUBJECTS WITH MODERATE TO SEVERE PALMOPLANTAR PSORIASIS: 2.5­YEAR RESULTS FROM THE GESTURE STUDY</t>
+        </is>
+      </c>
+      <c r="F83" s="2" t="inlineStr">
+        <is>
+          <t>Introduction: Palmoplantar psoriasis (ppPsO) occurs in up to 40% of plaque psoriasis subjects and is often resistant to treatment. It is associated with pain, functional limitations, and greater impairment of health related quality of life compared with plaque psoriasis on other parts of the body (1). Secukinumab, a fully human monoclonal antibody which selectively neutralises IL-17A, has shown	long	lasting	efficacy	and	safety	in	the	complete	spectrum	of psoriasis manifestations, including nails, scalp, palms and soles and psoriatic arthritis.Objectives: Here	we	report,	the	long-term	follow-up	efficacy	and	safety	results	from	the	GESTURE	study,	the	first	robust	(2.5-year)	data reported in subjects with moderate to severe ppPsO treated with secukinumab.Methods: GESTURE is a double blind, randomised, placebo-controlled, parallel-group, multicentre phase 3b study to investigate safety	and	efficacy	of	secukinumab	150	and	300	mg	s.c.	in	205	subjects with moderate to severe ppPsO.Results: As previously reported, after 16 weeks placebo-controlled treatment, the primary endpoint palmoplantar Investigator’s Global Assessment (ppIGA) 0/1 and all secondary endpoints of this study were met, demonstrating superiority of secukinumab to placebo at week 16 (2). An interim analysis at week 80 established the 47continuation	 improvement	 of	 palmoplantar	 disease	 for	 all	 efficacy parameters. The effect was sustained through 2.5 years with 59.2% and 52.5% of subjects in secukinumab 300 and 150 mg groups, respectively [multiple imputation (MI)] achieving clear or almost clear palms and soles (ppIGA 0/1). Consistent with this observation, the mean palmoplantar Psoriasis Area and Severity Index % change from baseline reached –74.7% and –61.6% for secukinumab  300  and  150  mg,  respectively,  at  2.5  years  (MI). The Dermatology Life Quality Index 0/1 response, was achieved in  45.5%  vs.  23.9%  of  subjects  for  secukinumab  300  and  150 mg groups respectively (LOCF). Pain and function of palms and soles	was	markedly	improved	with	secukinumab;	as	reflected	by	the Palmoplantar Quality of Life Instrument overall scores with 16.7%	and	17.9%	subjects	experiencing	no	difficulty	in	hand	and	feet  functionality  in  secukinumab  300  mg  and  150  mg  groups respectively	(LOCF).	The	safety	profile	was	consistent	with	that	seen in secukinumab phase 3 trials. The most common adverse events  across  all  treatment  arms  were  nasopharyngitis,  upper respiratory tract infection and headache.Conclusions: GESTURE, the largest and longest duration randomised controlled trial to date, revealed that secukinumab provides a  novel  treatment  option  for  the  challenging  and  infrequently studied  ppPsO  population  by  providing  a  strong  and  sustained response through 2.5 years.1. Kumar B, et al. Acta Dermatol Venereol. 2002; 82:192–5.2. Gottlieb A, et al. J Am Acad Dermatol. 2017; 76:70–80.This investigation was sponsored by Novartis Pharma AG, Basel, Switzerland.</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="inlineStr">
+        <is>
+          <t>Alexey Kubanov</t>
+        </is>
+      </c>
+      <c r="B84" s="2" t="inlineStr">
+        <is>
+          <t>Department of Dermatology, New York Medical College, Metropolitan Hospital, NY, USA, Holdsworth House Medical Practice, Darlinghurst, Australia, State Scientific Center of Dermatology, Venereology and Cos-metology, Moscow, Russia, China Novartis Institutes for BioMedical Re-search, Shanghai, China, Novartis Pharma AG</t>
+        </is>
+      </c>
+      <c r="C84" s="2" t="inlineStr">
+        <is>
+          <t>Basel, Switzerland</t>
+        </is>
+      </c>
+      <c r="D84" s="2" t="inlineStr">
+        <is>
+          <t>P115</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="inlineStr">
+        <is>
+          <t>SECUKINUMAB SHOWS HIGH AND SUSTAINED EFFICACY IN SUBJECTS WITH MODERATE TO SEVERE PALMOPLANTAR PSORIASIS: 2.5­YEAR RESULTS FROM THE GESTURE STUDY</t>
+        </is>
+      </c>
+      <c r="F84" s="2" t="inlineStr">
+        <is>
+          <t>Introduction: Palmoplantar psoriasis (ppPsO) occurs in up to 40% of plaque psoriasis subjects and is often resistant to treatment. It is associated with pain, functional limitations, and greater impairment of health related quality of life compared with plaque psoriasis on other parts of the body (1). Secukinumab, a fully human monoclonal antibody which selectively neutralises IL-17A, has shown	long	lasting	efficacy	and	safety	in	the	complete	spectrum	of psoriasis manifestations, including nails, scalp, palms and soles and psoriatic arthritis.Objectives: Here	we	report,	the	long-term	follow-up	efficacy	and	safety	results	from	the	GESTURE	study,	the	first	robust	(2.5-year)	data reported in subjects with moderate to severe ppPsO treated with secukinumab.Methods: GESTURE is a double blind, randomised, placebo-controlled, parallel-group, multicentre phase 3b study to investigate safety	and	efficacy	of	secukinumab	150	and	300	mg	s.c.	in	205	subjects with moderate to severe ppPsO.Results: As previously reported, after 16 weeks placebo-controlled treatment, the primary endpoint palmoplantar Investigator’s Global Assessment (ppIGA) 0/1 and all secondary endpoints of this study were met, demonstrating superiority of secukinumab to placebo at week 16 (2). An interim analysis at week 80 established the 47continuation	 improvement	 of	 palmoplantar	 disease	 for	 all	 efficacy parameters. The effect was sustained through 2.5 years with 59.2% and 52.5% of subjects in secukinumab 300 and 150 mg groups, respectively [multiple imputation (MI)] achieving clear or almost clear palms and soles (ppIGA 0/1). Consistent with this observation, the mean palmoplantar Psoriasis Area and Severity Index % change from baseline reached –74.7% and –61.6% for secukinumab  300  and  150  mg,  respectively,  at  2.5  years  (MI). The Dermatology Life Quality Index 0/1 response, was achieved in  45.5%  vs.  23.9%  of  subjects  for  secukinumab  300  and  150 mg groups respectively (LOCF). Pain and function of palms and soles	was	markedly	improved	with	secukinumab;	as	reflected	by	the Palmoplantar Quality of Life Instrument overall scores with 16.7%	and	17.9%	subjects	experiencing	no	difficulty	in	hand	and	feet  functionality  in  secukinumab  300  mg  and  150  mg  groups respectively	(LOCF).	The	safety	profile	was	consistent	with	that	seen in secukinumab phase 3 trials. The most common adverse events  across  all  treatment  arms  were  nasopharyngitis,  upper respiratory tract infection and headache.Conclusions: GESTURE, the largest and longest duration randomised controlled trial to date, revealed that secukinumab provides a  novel  treatment  option  for  the  challenging  and  infrequently studied  ppPsO  population  by  providing  a  strong  and  sustained response through 2.5 years.1. Kumar B, et al. Acta Dermatol Venereol. 2002; 82:192–5.2. Gottlieb A, et al. J Am Acad Dermatol. 2017; 76:70–80.This investigation was sponsored by Novartis Pharma AG, Basel, Switzerland.</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="inlineStr">
+        <is>
+          <t>Ruquan You</t>
+        </is>
+      </c>
+      <c r="B85" s="2" t="inlineStr">
+        <is>
+          <t>Department of Dermatology, New York Medical College, Metropolitan Hospital, NY, USA, Holdsworth House Medical Practice, Darlinghurst, Australia, State Scientific Center of Dermatology, Venereology and Cos-metology, Moscow, Russia, China Novartis Institutes for BioMedical Re-search, Shanghai, China, Novartis Pharma AG</t>
+        </is>
+      </c>
+      <c r="C85" s="2" t="inlineStr">
+        <is>
+          <t>Basel, Switzerland</t>
+        </is>
+      </c>
+      <c r="D85" s="2" t="inlineStr">
+        <is>
+          <t>P115</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="inlineStr">
+        <is>
+          <t>SECUKINUMAB SHOWS HIGH AND SUSTAINED EFFICACY IN SUBJECTS WITH MODERATE TO SEVERE PALMOPLANTAR PSORIASIS: 2.5­YEAR RESULTS FROM THE GESTURE STUDY</t>
+        </is>
+      </c>
+      <c r="F85" s="2" t="inlineStr">
+        <is>
+          <t>Introduction: Palmoplantar psoriasis (ppPsO) occurs in up to 40% of plaque psoriasis subjects and is often resistant to treatment. It is associated with pain, functional limitations, and greater impairment of health related quality of life compared with plaque psoriasis on other parts of the body (1). Secukinumab, a fully human monoclonal antibody which selectively neutralises IL-17A, has shown	long	lasting	efficacy	and	safety	in	the	complete	spectrum	of psoriasis manifestations, including nails, scalp, palms and soles and psoriatic arthritis.Objectives: Here	we	report,	the	long-term	follow-up	efficacy	and	safety	results	from	the	GESTURE	study,	the	first	robust	(2.5-year)	data reported in subjects with moderate to severe ppPsO treated with secukinumab.Methods: GESTURE is a double blind, randomised, placebo-controlled, parallel-group, multicentre phase 3b study to investigate safety	and	efficacy	of	secukinumab	150	and	300	mg	s.c.	in	205	subjects with moderate to severe ppPsO.Results: As previously reported, after 16 weeks placebo-controlled treatment, the primary endpoint palmoplantar Investigator’s Global Assessment (ppIGA) 0/1 and all secondary endpoints of this study were met, demonstrating superiority of secukinumab to placebo at week 16 (2). An interim analysis at week 80 established the 47continuation	 improvement	 of	 palmoplantar	 disease	 for	 all	 efficacy parameters. The effect was sustained through 2.5 years with 59.2% and 52.5% of subjects in secukinumab 300 and 150 mg groups, respectively [multiple imputation (MI)] achieving clear or almost clear palms and soles (ppIGA 0/1). Consistent with this observation, the mean palmoplantar Psoriasis Area and Severity Index % change from baseline reached –74.7% and –61.6% for secukinumab  300  and  150  mg,  respectively,  at  2.5  years  (MI). The Dermatology Life Quality Index 0/1 response, was achieved in  45.5%  vs.  23.9%  of  subjects  for  secukinumab  300  and  150 mg groups respectively (LOCF). Pain and function of palms and soles	was	markedly	improved	with	secukinumab;	as	reflected	by	the Palmoplantar Quality of Life Instrument overall scores with 16.7%	and	17.9%	subjects	experiencing	no	difficulty	in	hand	and	feet  functionality  in  secukinumab  300  mg  and  150  mg  groups respectively	(LOCF).	The	safety	profile	was	consistent	with	that	seen in secukinumab phase 3 trials. The most common adverse events  across  all  treatment  arms  were  nasopharyngitis,  upper respiratory tract infection and headache.Conclusions: GESTURE, the largest and longest duration randomised controlled trial to date, revealed that secukinumab provides a  novel  treatment  option  for  the  challenging  and  infrequently studied  ppPsO  population  by  providing  a  strong  and  sustained response through 2.5 years.1. Kumar B, et al. Acta Dermatol Venereol. 2002; 82:192–5.2. Gottlieb A, et al. J Am Acad Dermatol. 2017; 76:70–80.This investigation was sponsored by Novartis Pharma AG, Basel, Switzerland.</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="inlineStr">
+        <is>
+          <t>Pascaline Regnault</t>
+        </is>
+      </c>
+      <c r="B86" s="2" t="inlineStr">
+        <is>
+          <t>Department of Dermatology, New York Medical College, Metropolitan Hospital, NY, USA, Holdsworth House Medical Practice, Darlinghurst, Australia, State Scientific Center of Dermatology, Venereology and Cos-metology, Moscow, Russia, China Novartis Institutes for BioMedical Re-search, Shanghai, China, Novartis Pharma AG</t>
+        </is>
+      </c>
+      <c r="C86" s="2" t="inlineStr">
+        <is>
+          <t>Basel, Switzerland</t>
+        </is>
+      </c>
+      <c r="D86" s="2" t="inlineStr">
+        <is>
+          <t>P115</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="inlineStr">
+        <is>
+          <t>SECUKINUMAB SHOWS HIGH AND SUSTAINED EFFICACY IN SUBJECTS WITH MODERATE TO SEVERE PALMOPLANTAR PSORIASIS: 2.5­YEAR RESULTS FROM THE GESTURE STUDY</t>
+        </is>
+      </c>
+      <c r="F86" s="2" t="inlineStr">
+        <is>
+          <t>Introduction: Palmoplantar psoriasis (ppPsO) occurs in up to 40% of plaque psoriasis subjects and is often resistant to treatment. It is associated with pain, functional limitations, and greater impairment of health related quality of life compared with plaque psoriasis on other parts of the body (1). Secukinumab, a fully human monoclonal antibody which selectively neutralises IL-17A, has shown	long	lasting	efficacy	and	safety	in	the	complete	spectrum	of psoriasis manifestations, including nails, scalp, palms and soles and psoriatic arthritis.Objectives: Here	we	report,	the	long-term	follow-up	efficacy	and	safety	results	from	the	GESTURE	study,	the	first	robust	(2.5-year)	data reported in subjects with moderate to severe ppPsO treated with secukinumab.Methods: GESTURE is a double blind, randomised, placebo-controlled, parallel-group, multicentre phase 3b study to investigate safety	and	efficacy	of	secukinumab	150	and	300	mg	s.c.	in	205	subjects with moderate to severe ppPsO.Results: As previously reported, after 16 weeks placebo-controlled treatment, the primary endpoint palmoplantar Investigator’s Global Assessment (ppIGA) 0/1 and all secondary endpoints of this study were met, demonstrating superiority of secukinumab to placebo at week 16 (2). An interim analysis at week 80 established the 47continuation	 improvement	 of	 palmoplantar	 disease	 for	 all	 efficacy parameters. The effect was sustained through 2.5 years with 59.2% and 52.5% of subjects in secukinumab 300 and 150 mg groups, respectively [multiple imputation (MI)] achieving clear or almost clear palms and soles (ppIGA 0/1). Consistent with this observation, the mean palmoplantar Psoriasis Area and Severity Index % change from baseline reached –74.7% and –61.6% for secukinumab  300  and  150  mg,  respectively,  at  2.5  years  (MI). The Dermatology Life Quality Index 0/1 response, was achieved in  45.5%  vs.  23.9%  of  subjects  for  secukinumab  300  and  150 mg groups respectively (LOCF). Pain and function of palms and soles	was	markedly	improved	with	secukinumab;	as	reflected	by	the Palmoplantar Quality of Life Instrument overall scores with 16.7%	and	17.9%	subjects	experiencing	no	difficulty	in	hand	and	feet  functionality  in  secukinumab  300  mg  and  150  mg  groups respectively	(LOCF).	The	safety	profile	was	consistent	with	that	seen in secukinumab phase 3 trials. The most common adverse events  across  all  treatment  arms  were  nasopharyngitis,  upper respiratory tract infection and headache.Conclusions: GESTURE, the largest and longest duration randomised controlled trial to date, revealed that secukinumab provides a  novel  treatment  option  for  the  challenging  and  infrequently studied  ppPsO  population  by  providing  a  strong  and  sustained response through 2.5 years.1. Kumar B, et al. Acta Dermatol Venereol. 2002; 82:192–5.2. Gottlieb A, et al. J Am Acad Dermatol. 2017; 76:70–80.This investigation was sponsored by Novartis Pharma AG, Basel, Switzerland.</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="inlineStr">
+        <is>
+          <t>Jennifer Frueh</t>
+        </is>
+      </c>
+      <c r="B87" s="2" t="inlineStr">
+        <is>
+          <t>Department of Dermatology, New York Medical College, Metropolitan Hospital, NY, USA, Holdsworth House Medical Practice, Darlinghurst, Australia, State Scientific Center of Dermatology, Venereology and Cos-metology, Moscow, Russia, China Novartis Institutes for BioMedical Re-search, Shanghai, China, Novartis Pharma AG</t>
+        </is>
+      </c>
+      <c r="C87" s="2" t="inlineStr">
+        <is>
+          <t>Basel, Switzerland</t>
+        </is>
+      </c>
+      <c r="D87" s="2" t="inlineStr">
+        <is>
+          <t>P115</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="inlineStr">
+        <is>
+          <t>SECUKINUMAB SHOWS HIGH AND SUSTAINED EFFICACY IN SUBJECTS WITH MODERATE TO SEVERE PALMOPLANTAR PSORIASIS: 2.5­YEAR RESULTS FROM THE GESTURE STUDY</t>
+        </is>
+      </c>
+      <c r="F87" s="2" t="inlineStr">
+        <is>
+          <t>Introduction: Palmoplantar psoriasis (ppPsO) occurs in up to 40% of plaque psoriasis subjects and is often resistant to treatment. It is associated with pain, functional limitations, and greater impairment of health related quality of life compared with plaque psoriasis on other parts of the body (1). Secukinumab, a fully human monoclonal antibody which selectively neutralises IL-17A, has shown	long	lasting	efficacy	and	safety	in	the	complete	spectrum	of psoriasis manifestations, including nails, scalp, palms and soles and psoriatic arthritis.Objectives: Here	we	report,	the	long-term	follow-up	efficacy	and	safety	results	from	the	GESTURE	study,	the	first	robust	(2.5-year)	data reported in subjects with moderate to severe ppPsO treated with secukinumab.Methods: GESTURE is a double blind, randomised, placebo-controlled, parallel-group, multicentre phase 3b study to investigate safety	and	efficacy	of	secukinumab	150	and	300	mg	s.c.	in	205	subjects with moderate to severe ppPsO.Results: As previously reported, after 16 weeks placebo-controlled treatment, the primary endpoint palmoplantar Investigator’s Global Assessment (ppIGA) 0/1 and all secondary endpoints of this study were met, demonstrating superiority of secukinumab to placebo at week 16 (2). An interim analysis at week 80 established the 47continuation	 improvement	 of	 palmoplantar	 disease	 for	 all	 efficacy parameters. The effect was sustained through 2.5 years with 59.2% and 52.5% of subjects in secukinumab 300 and 150 mg groups, respectively [multiple imputation (MI)] achieving clear or almost clear palms and soles (ppIGA 0/1). Consistent with this observation, the mean palmoplantar Psoriasis Area and Severity Index % change from baseline reached –74.7% and –61.6% for secukinumab  300  and  150  mg,  respectively,  at  2.5  years  (MI). The Dermatology Life Quality Index 0/1 response, was achieved in  45.5%  vs.  23.9%  of  subjects  for  secukinumab  300  and  150 mg groups respectively (LOCF). Pain and function of palms and soles	was	markedly	improved	with	secukinumab;	as	reflected	by	the Palmoplantar Quality of Life Instrument overall scores with 16.7%	and	17.9%	subjects	experiencing	no	difficulty	in	hand	and	feet  functionality  in  secukinumab  300  mg  and  150  mg  groups respectively	(LOCF).	The	safety	profile	was	consistent	with	that	seen in secukinumab phase 3 trials. The most common adverse events  across  all  treatment  arms  were  nasopharyngitis,  upper respiratory tract infection and headache.Conclusions: GESTURE, the largest and longest duration randomised controlled trial to date, revealed that secukinumab provides a  novel  treatment  option  for  the  challenging  and  infrequently studied  ppPsO  population  by  providing  a  strong  and  sustained response through 2.5 years.1. Kumar B, et al. Acta Dermatol Venereol. 2002; 82:192–5.2. Gottlieb A, et al. J Am Acad Dermatol. 2017; 76:70–80.This investigation was sponsored by Novartis Pharma AG, Basel, Switzerland.</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="inlineStr"/>
+      <c r="B88" s="2" t="inlineStr">
+        <is>
+          <t>Kristian Reich, Petr Arenberger, Ulrich Mrowietz, Sasha Jazayeri, Mat-thias Augustin, Anne Parneix-Spake, Pascaline Regnault, Ruquan You, Jennifer FruehDermatologikum Berlin and SCIderm Research Institute, Hamburg, Ger-many, Department of Dermatology, Charles University, 3rd Faculty of Medicine, Prague, Czech Republic, Psoriasis Center at the Department of Dermatology, University Medical Center Schleswig-Holstein, Kiel, Ger-many, Alliance Dermatology and MOHS Center, Phoenix, USA, Univer-sität Hamburg, Hamburg, Germany, Novartis Pharmaceuticals Corpora-tion, East Hanover, USA, Novartis Pharma AG, Basel, Switzerland, China Novartis Institutes for BioMedical Research</t>
+        </is>
+      </c>
+      <c r="C88" s="2" t="inlineStr">
+        <is>
+          <t>Shanghai, China</t>
+        </is>
+      </c>
+      <c r="D88" s="2" t="inlineStr">
+        <is>
+          <t>P116</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="inlineStr">
+        <is>
+          <t>SECUKINUMAB SHOWS HIGH AND SUSTAINED EFFICACY IN NAIL PSORIASIS: 2.5­YEAR TRANSFIGURE STUDY RESULTS</t>
+        </is>
+      </c>
+      <c r="F88" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Introduction: Nail	psoriasis	is	associated	with	decreased	finger	mobility, functional impairment, pain and reduced quality of life (QoL) and is often challenging to treat. It correlates with more severe psoriatic disease and is an important predictor of psoriatic arthritis (PsA). Nails are affected in up to 50% of psoriasis patients, with a lifetime incidence as high as 90%1. Secukinumab, a fully human monoclonal antibody that selectively neutralises IL-17A, has	shown	long	lasting	efficacy	and	safety	in	the	complete	spectrum of psoriasis manifestations, including nails, scalp, palms and soles and psoriatic arthritis.Objectives: Here,	we	report	the	long-term	follow-up	efficacy	and	safety	 results	 from	 the	 TRANSFIGURE	 study,	 the	 first	 robust	(2.5-year)  data  reported  in  subjects  with  nail  psoriasis  treated with secukinumab.Methods:  TRANSFIGURE  is  a  double  blind,  randomised, placebo-controlled, parallel group, multi-centre phase 3b study, to	investigate	safety	and	efficacy	of	secukinumab	150	and	300	mg	s.c. in moderate to severe nail psoriasis, involving 198 subjects.Results:  As  previously  reported,  at  week  16  the  primary  endpoint NAPSI (NAil Psoriasis Severity Index) and all secondary endpoints  of  this  study  was  met,  demonstrating  superiority  of secukinumab to placebo after 16 weeks placebo-controlled treat48ment2. An interim analysis at week 80 demonstrated the continuation	of	improvement	in	nail	psoriasis	for	all	efficacy	parameters.	The  effect  was  sustained  through  2.5  years  with  a  large  mean NAPSI	improvement	from	baseline	(BL)	of	−73.3%	and	−63.6%	with secukinumab 300 and 150 mg, respectively (as observed). Secukinumab demonstrated sustained reductions (improvements) in total mean NAPPA (Nail Assessment in Psoriasis and Psoriatic	Arthritis)	 QoL	 scores	 from	 BL	 to	 2.5	 years	 by	 −52.4%	 and	−18.1%,	and	70.2%	and	71.0%	of	subjects	achieved	a	weighted	NAPPA-PBI	(Patient	Benefit	Index)	global	score	of	≥2	(at	least	moderate	benefits)	with	secukinumab	300	and	150	mg,	respectively (LOCF). Subjects showed considerable improvements in EQ-5D  (EuroQOL  5-Dimension  Health  Status  Questionnaire) compared with BL reporting decreased pain and discomfort. The safety	profile	was	consistent	with	that	observed	in	previous	phase	3 trials of psoriasis and PsA.Conclusions: TRANSFIGURE	is	the	first	large,	randomised	controlled trial to report long-term results in subjects with nail psoriasis. Secukinumab demonstrated strong sustainability of clinically meaningful	 efficacy,	 large	 QoL	 improvement	 and	 a	 favourable	safety	profile	up	to	2.5	years	in	this	challenging	form	of	psoriasis.This investigation was sponsored by Novartis Pharma AG, Basel, Switzerland.Baran R. Dermatology. 2010; 221 Suppl 1:1–5.Reich K. Ann Rheum Dis. 2016;75:603. </t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="inlineStr">
+        <is>
+          <t>Maria Chamurlieva</t>
+        </is>
+      </c>
+      <c r="B89" s="2" t="inlineStr">
+        <is>
+          <t>N.A.Nasonova Research Institute of RheumatologyK Papp Clinical Research and Probity Medical Research, Waterloo, ON, SKiN Center for Dermatology, Queen’s University and Probity Medical Research, Peterborough, ON, University of Ottawa, Division of Dermato-logy, Ottawa, ON, Lynde Institute for Dermatology, University of Toronto and Probity Medical Research, Markham, ON, Dr. Isabelle Delorm Inc, Drummondville, Facultad de Medicina de la Universidad de Buenos Aires, Buenos Aires, Argentina, JSS Medical, Saint-Laurent, QC, Novartis Pharmaceuticals Canada Inc., Dorval</t>
+        </is>
+      </c>
+      <c r="C89" s="2" t="inlineStr">
+        <is>
+          <t>QC, Canada</t>
+        </is>
+      </c>
+      <c r="D89" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">P117 </t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="inlineStr">
+        <is>
+          <t>THE OBESITY AND PREVALENCE PSORIATIC ARTHRITIS IN PATIENTS WITH PLAQUE PSORIA SIS: DERMATOLOGICAL REAL­SETTING DATA</t>
+        </is>
+      </c>
+      <c r="F89" s="2" t="inlineStr">
+        <is>
+          <t>Background: Psoriasis	(PsO)	is	a	chronic	inflammatory	disease,	which can be associated with the obesity. A link between body mass index (BMI) and psoriatic arthritis (PsA) has been found recently. But there is limited data about this association in Russian population and from real-world data.Objective:To  study  the  incidence  of  PsA  in  PsO  patients  (pts) with/without obesity.Methods:  103  pts  (male-47/female-56)  with  different  forms  of plaque PsO, mean age 44±13.69 years (yrs.), mean PsO duration 10.7±10.2 yrs., mean PASI 15.39±12.51 were included. 61 out of 103 pts with PsO (59.2%) had psoriatic arthritis (PsA) by CASPAR criteria. In all pts BMI was calculated. If the BMI was more than 30 it was regarded as obesity. M±m, %, t-test were peformed. All p &lt; 0.05	were	considered	to	indicate	statistical	significance.Results: The overweight in both groups of pts with PsO and PsA was	not	significantly	different:	in	30	pts	without	PsA	and	in	48	with PsA, 71.4% and 78.7% respectively. However, there was a significant	difference	in	the	frequency	of	PsA	in	the	group	of	pts	with a BMI  =  30–35 (obesity 1 degree). Thus, it was more than 4 times higher the pts with PsA, compared with pts without PsA - 19 and 4 pts (31.2% vs. 9.5%) respectively (p = 0.06).Conclusion: There is a higher incidence of PsA in PsO pts with obesity. It should be taken into account during choice of treatment and	evaluation	of	efficiency	of	therapy	in	real-world	dermatological setting. Russian population – based studies are needed. P118DIAGNOSIS OF PSORIATIC ARTHRITIS IN PATIENTS WITH MODERATE TO SEVERE CHRONIC PLAQUE PSORIASIS TREATED WITH SECUKINUMAB VS. OTHER TREATMENTS IN THE PURE REGISTRY: INDICATION OF SELECTION PREFERENCES AND UNDERDIAGNOSISIntroduction: Secukinumab (SEC) is a fully human monoclonal antibody  that  selectively  neutralizes  IL-17A,  a  key  cytokine involved in the development of psoriasis (PsO). SEC has shown long	lasting	efficacy	and	safety	in	the	complete	spectrum	of	PsO	manifestations, including nails, scalp, palms and soles and psoriatic arthritis (PsA). PURE is an international registry of adult patients (pts) from Canada and Latin America with moderate to severe PsO treated with SEC vs other approved therapies (other Tx).Objectives: To describe and compare the baseline demographic, disease,	and	clinical	characteristics	–	specifically,	the	history	of	a PsA diagnosis among PsO pts treated with SEC vs other Tx. Methods: Approximately 2,500 adult pts (1:1 ratio, SEC: other Tx) will be recruited. A decision regarding treatment must have been reached prior to enrollment. The independent-samples and Chisquare tests were used for continuous and categorical variables, respectively, for treatment group comparison. Results: As of Nov 27, 2017, 1032 pts (397 SEC vs 635 other Tx) had been enrolled. Mean age (50.5 vs 49.4 years), time since diagnosis (18.5 vs 16.9 years), duration since symptom onset (20.5 vs 19 years), and race (78.6% vs 83.8% Caucasian) were comparable between groups. The percentage of females was lower in the SEC group (38.0%) vs other Tx (45.5%; p = 0.037). At baseline, the majority of SEC-treated pts (66.2%) were employed, and 23.7% vs 34.8% vs 34.3% had public vs private vs combined coverage, respectively. There was no difference between cohorts. A higher proportion  of  SEC  pts  had  a  history  of  PsA  (23.2%  vs  15.0%; p = 0.001) or diabetes (18.1% vs 13.4%; p = 0.072) compared to pts on other Tx. About 87.9% pts with PsA history and 34.1% pts without had a Psoriasis Epidemiology Screening Tool (PEST) score ≥3	at	baseline;	however,	the	diagnosis	of	PsA	in	these	pts	needs	to	be	confirmed.	In	terms	of	prior	PsO	treatments,	52.4%	vs	29.9%	(p &lt; 0.001) of SEC vs other Tx pts had been previously treated with methotrexate, and 50.6% vs 18.0% (p &lt; 0.001) with a biologic. Prior to enrollment, 4.7%, 13.2% and 4.7% pts in the other Tx	group	received	anti-IL-12/23,	anti-TNF-α,	and	anti-IL-17A,	respectively. Pts treated with SEC had a higher historical Psoriasis Area and Severity Index (PASI) score (16.5 vs 14.2; p = 0.005), baseline PASI (13.6 vs 12.0; p = 0.001) and Investigator’s Global Assessment score (severe disease [score = 4]: 25.4% vs 20.1%) at enrollment compared to pts on other Tx. Conclusions: Pts with moderate to severe PsO selected for treatment with SEC were more likely to have been previously exposed to  another  biologic,  have  comorbid  PsA  and  had  more  severe skin	disease,	compared	to	pts	treated	with	other	Tx.	A	significant	proportion of PsO pts may have their PsA undiagnosed in routine clinical care. Langley R, et al. NEJM 2014;371:326.Armstrong AW, et al. J Clin Aesthet Dermatol 2016; S12-S16McInnes IB, et al. Lancet 2015;386:1137 Mease PJ, et a</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="inlineStr">
+        <is>
+          <t>Tatiana KorotaevaKim Papp</t>
+        </is>
+      </c>
+      <c r="B90" s="2" t="inlineStr">
+        <is>
+          <t>N.A.Nasonova Research Institute of RheumatologyK Papp Clinical Research and Probity Medical Research, Waterloo, ON, SKiN Center for Dermatology, Queen’s University and Probity Medical Research, Peterborough, ON, University of Ottawa, Division of Dermato-logy, Ottawa, ON, Lynde Institute for Dermatology, University of Toronto and Probity Medical Research, Markham, ON, Dr. Isabelle Delorm Inc, Drummondville, Facultad de Medicina de la Universidad de Buenos Aires, Buenos Aires, Argentina, JSS Medical, Saint-Laurent, QC, Novartis Pharmaceuticals Canada Inc., Dorval</t>
+        </is>
+      </c>
+      <c r="C90" s="2" t="inlineStr">
+        <is>
+          <t>QC, Canada</t>
+        </is>
+      </c>
+      <c r="D90" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">P117 </t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="inlineStr">
+        <is>
+          <t>THE OBESITY AND PREVALENCE PSORIATIC ARTHRITIS IN PATIENTS WITH PLAQUE PSORIA SIS: DERMATOLOGICAL REAL­SETTING DATA</t>
+        </is>
+      </c>
+      <c r="F90" s="2" t="inlineStr">
+        <is>
+          <t>Background: Psoriasis	(PsO)	is	a	chronic	inflammatory	disease,	which can be associated with the obesity. A link between body mass index (BMI) and psoriatic arthritis (PsA) has been found recently. But there is limited data about this association in Russian population and from real-world data.Objective:To  study  the  incidence  of  PsA  in  PsO  patients  (pts) with/without obesity.Methods:  103  pts  (male-47/female-56)  with  different  forms  of plaque PsO, mean age 44±13.69 years (yrs.), mean PsO duration 10.7±10.2 yrs., mean PASI 15.39±12.51 were included. 61 out of 103 pts with PsO (59.2%) had psoriatic arthritis (PsA) by CASPAR criteria. In all pts BMI was calculated. If the BMI was more than 30 it was regarded as obesity. M±m, %, t-test were peformed. All p &lt; 0.05	were	considered	to	indicate	statistical	significance.Results: The overweight in both groups of pts with PsO and PsA was	not	significantly	different:	in	30	pts	without	PsA	and	in	48	with PsA, 71.4% and 78.7% respectively. However, there was a significant	difference	in	the	frequency	of	PsA	in	the	group	of	pts	with a BMI  =  30–35 (obesity 1 degree). Thus, it was more than 4 times higher the pts with PsA, compared with pts without PsA - 19 and 4 pts (31.2% vs. 9.5%) respectively (p = 0.06).Conclusion: There is a higher incidence of PsA in PsO pts with obesity. It should be taken into account during choice of treatment and	evaluation	of	efficiency	of	therapy	in	real-world	dermatological setting. Russian population – based studies are needed. P118DIAGNOSIS OF PSORIATIC ARTHRITIS IN PATIENTS WITH MODERATE TO SEVERE CHRONIC PLAQUE PSORIASIS TREATED WITH SECUKINUMAB VS. OTHER TREATMENTS IN THE PURE REGISTRY: INDICATION OF SELECTION PREFERENCES AND UNDERDIAGNOSISIntroduction: Secukinumab (SEC) is a fully human monoclonal antibody  that  selectively  neutralizes  IL-17A,  a  key  cytokine involved in the development of psoriasis (PsO). SEC has shown long	lasting	efficacy	and	safety	in	the	complete	spectrum	of	PsO	manifestations, including nails, scalp, palms and soles and psoriatic arthritis (PsA). PURE is an international registry of adult patients (pts) from Canada and Latin America with moderate to severe PsO treated with SEC vs other approved therapies (other Tx).Objectives: To describe and compare the baseline demographic, disease,	and	clinical	characteristics	–	specifically,	the	history	of	a PsA diagnosis among PsO pts treated with SEC vs other Tx. Methods: Approximately 2,500 adult pts (1:1 ratio, SEC: other Tx) will be recruited. A decision regarding treatment must have been reached prior to enrollment. The independent-samples and Chisquare tests were used for continuous and categorical variables, respectively, for treatment group comparison. Results: As of Nov 27, 2017, 1032 pts (397 SEC vs 635 other Tx) had been enrolled. Mean age (50.5 vs 49.4 years), time since diagnosis (18.5 vs 16.9 years), duration since symptom onset (20.5 vs 19 years), and race (78.6% vs 83.8% Caucasian) were comparable between groups. The percentage of females was lower in the SEC group (38.0%) vs other Tx (45.5%; p = 0.037). At baseline, the majority of SEC-treated pts (66.2%) were employed, and 23.7% vs 34.8% vs 34.3% had public vs private vs combined coverage, respectively. There was no difference between cohorts. A higher proportion  of  SEC  pts  had  a  history  of  PsA  (23.2%  vs  15.0%; p = 0.001) or diabetes (18.1% vs 13.4%; p = 0.072) compared to pts on other Tx. About 87.9% pts with PsA history and 34.1% pts without had a Psoriasis Epidemiology Screening Tool (PEST) score ≥3	at	baseline;	however,	the	diagnosis	of	PsA	in	these	pts	needs	to	be	confirmed.	In	terms	of	prior	PsO	treatments,	52.4%	vs	29.9%	(p &lt; 0.001) of SEC vs other Tx pts had been previously treated with methotrexate, and 50.6% vs 18.0% (p &lt; 0.001) with a biologic. Prior to enrollment, 4.7%, 13.2% and 4.7% pts in the other Tx	group	received	anti-IL-12/23,	anti-TNF-α,	and	anti-IL-17A,	respectively. Pts treated with SEC had a higher historical Psoriasis Area and Severity Index (PASI) score (16.5 vs 14.2; p = 0.005), baseline PASI (13.6 vs 12.0; p = 0.001) and Investigator’s Global Assessment score (severe disease [score = 4]: 25.4% vs 20.1%) at enrollment compared to pts on other Tx. Conclusions: Pts with moderate to severe PsO selected for treatment with SEC were more likely to have been previously exposed to  another  biologic,  have  comorbid  PsA  and  had  more  severe skin	disease,	compared	to	pts	treated	with	other	Tx.	A	significant	proportion of PsO pts may have their PsA undiagnosed in routine clinical care. Langley R, et al. NEJM 2014;371:326.Armstrong AW, et al. J Clin Aesthet Dermatol 2016; S12-S16McInnes IB, et al. Lancet 2015;386:1137 Mease PJ, et a</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="inlineStr">
+        <is>
+          <t>Melinda Gooderham</t>
+        </is>
+      </c>
+      <c r="B91" s="2" t="inlineStr">
+        <is>
+          <t>N.A.Nasonova Research Institute of RheumatologyK Papp Clinical Research and Probity Medical Research, Waterloo, ON, SKiN Center for Dermatology, Queen’s University and Probity Medical Research, Peterborough, ON, University of Ottawa, Division of Dermato-logy, Ottawa, ON, Lynde Institute for Dermatology, University of Toronto and Probity Medical Research, Markham, ON, Dr. Isabelle Delorm Inc, Drummondville, Facultad de Medicina de la Universidad de Buenos Aires, Buenos Aires, Argentina, JSS Medical, Saint-Laurent, QC, Novartis Pharmaceuticals Canada Inc., Dorval</t>
+        </is>
+      </c>
+      <c r="C91" s="2" t="inlineStr">
+        <is>
+          <t>QC, Canada</t>
+        </is>
+      </c>
+      <c r="D91" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">P117 </t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="inlineStr">
+        <is>
+          <t>THE OBESITY AND PREVALENCE PSORIATIC ARTHRITIS IN PATIENTS WITH PLAQUE PSORIA SIS: DERMATOLOGICAL REAL­SETTING DATA</t>
+        </is>
+      </c>
+      <c r="F91" s="2" t="inlineStr">
+        <is>
+          <t>Background: Psoriasis	(PsO)	is	a	chronic	inflammatory	disease,	which can be associated with the obesity. A link between body mass index (BMI) and psoriatic arthritis (PsA) has been found recently. But there is limited data about this association in Russian population and from real-world data.Objective:To  study  the  incidence  of  PsA  in  PsO  patients  (pts) with/without obesity.Methods:  103  pts  (male-47/female-56)  with  different  forms  of plaque PsO, mean age 44±13.69 years (yrs.), mean PsO duration 10.7±10.2 yrs., mean PASI 15.39±12.51 were included. 61 out of 103 pts with PsO (59.2%) had psoriatic arthritis (PsA) by CASPAR criteria. In all pts BMI was calculated. If the BMI was more than 30 it was regarded as obesity. M±m, %, t-test were peformed. All p &lt; 0.05	were	considered	to	indicate	statistical	significance.Results: The overweight in both groups of pts with PsO and PsA was	not	significantly	different:	in	30	pts	without	PsA	and	in	48	with PsA, 71.4% and 78.7% respectively. However, there was a significant	difference	in	the	frequency	of	PsA	in	the	group	of	pts	with a BMI  =  30–35 (obesity 1 degree). Thus, it was more than 4 times higher the pts with PsA, compared with pts without PsA - 19 and 4 pts (31.2% vs. 9.5%) respectively (p = 0.06).Conclusion: There is a higher incidence of PsA in PsO pts with obesity. It should be taken into account during choice of treatment and	evaluation	of	efficiency	of	therapy	in	real-world	dermatological setting. Russian population – based studies are needed. P118DIAGNOSIS OF PSORIATIC ARTHRITIS IN PATIENTS WITH MODERATE TO SEVERE CHRONIC PLAQUE PSORIASIS TREATED WITH SECUKINUMAB VS. OTHER TREATMENTS IN THE PURE REGISTRY: INDICATION OF SELECTION PREFERENCES AND UNDERDIAGNOSISIntroduction: Secukinumab (SEC) is a fully human monoclonal antibody  that  selectively  neutralizes  IL-17A,  a  key  cytokine involved in the development of psoriasis (PsO). SEC has shown long	lasting	efficacy	and	safety	in	the	complete	spectrum	of	PsO	manifestations, including nails, scalp, palms and soles and psoriatic arthritis (PsA). PURE is an international registry of adult patients (pts) from Canada and Latin America with moderate to severe PsO treated with SEC vs other approved therapies (other Tx).Objectives: To describe and compare the baseline demographic, disease,	and	clinical	characteristics	–	specifically,	the	history	of	a PsA diagnosis among PsO pts treated with SEC vs other Tx. Methods: Approximately 2,500 adult pts (1:1 ratio, SEC: other Tx) will be recruited. A decision regarding treatment must have been reached prior to enrollment. The independent-samples and Chisquare tests were used for continuous and categorical variables, respectively, for treatment group comparison. Results: As of Nov 27, 2017, 1032 pts (397 SEC vs 635 other Tx) had been enrolled. Mean age (50.5 vs 49.4 years), time since diagnosis (18.5 vs 16.9 years), duration since symptom onset (20.5 vs 19 years), and race (78.6% vs 83.8% Caucasian) were comparable between groups. The percentage of females was lower in the SEC group (38.0%) vs other Tx (45.5%; p = 0.037). At baseline, the majority of SEC-treated pts (66.2%) were employed, and 23.7% vs 34.8% vs 34.3% had public vs private vs combined coverage, respectively. There was no difference between cohorts. A higher proportion  of  SEC  pts  had  a  history  of  PsA  (23.2%  vs  15.0%; p = 0.001) or diabetes (18.1% vs 13.4%; p = 0.072) compared to pts on other Tx. About 87.9% pts with PsA history and 34.1% pts without had a Psoriasis Epidemiology Screening Tool (PEST) score ≥3	at	baseline;	however,	the	diagnosis	of	PsA	in	these	pts	needs	to	be	confirmed.	In	terms	of	prior	PsO	treatments,	52.4%	vs	29.9%	(p &lt; 0.001) of SEC vs other Tx pts had been previously treated with methotrexate, and 50.6% vs 18.0% (p &lt; 0.001) with a biologic. Prior to enrollment, 4.7%, 13.2% and 4.7% pts in the other Tx	group	received	anti-IL-12/23,	anti-TNF-α,	and	anti-IL-17A,	respectively. Pts treated with SEC had a higher historical Psoriasis Area and Severity Index (PASI) score (16.5 vs 14.2; p = 0.005), baseline PASI (13.6 vs 12.0; p = 0.001) and Investigator’s Global Assessment score (severe disease [score = 4]: 25.4% vs 20.1%) at enrollment compared to pts on other Tx. Conclusions: Pts with moderate to severe PsO selected for treatment with SEC were more likely to have been previously exposed to  another  biologic,  have  comorbid  PsA  and  had  more  severe skin	disease,	compared	to	pts	treated	with	other	Tx.	A	significant	proportion of PsO pts may have their PsA undiagnosed in routine clinical care. Langley R, et al. NEJM 2014;371:326.Armstrong AW, et al. J Clin Aesthet Dermatol 2016; S12-S16McInnes IB, et al. Lancet 2015;386:1137 Mease PJ, et a</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="inlineStr">
+        <is>
+          <t>Jennifer Beecker</t>
+        </is>
+      </c>
+      <c r="B92" s="2" t="inlineStr">
+        <is>
+          <t>N.A.Nasonova Research Institute of RheumatologyK Papp Clinical Research and Probity Medical Research, Waterloo, ON, SKiN Center for Dermatology, Queen’s University and Probity Medical Research, Peterborough, ON, University of Ottawa, Division of Dermato-logy, Ottawa, ON, Lynde Institute for Dermatology, University of Toronto and Probity Medical Research, Markham, ON, Dr. Isabelle Delorm Inc, Drummondville, Facultad de Medicina de la Universidad de Buenos Aires, Buenos Aires, Argentina, JSS Medical, Saint-Laurent, QC, Novartis Pharmaceuticals Canada Inc., Dorval</t>
+        </is>
+      </c>
+      <c r="C92" s="2" t="inlineStr">
+        <is>
+          <t>QC, Canada</t>
+        </is>
+      </c>
+      <c r="D92" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">P117 </t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="inlineStr">
+        <is>
+          <t>THE OBESITY AND PREVALENCE PSORIATIC ARTHRITIS IN PATIENTS WITH PLAQUE PSORIA SIS: DERMATOLOGICAL REAL­SETTING DATA</t>
+        </is>
+      </c>
+      <c r="F92" s="2" t="inlineStr">
+        <is>
+          <t>Background: Psoriasis	(PsO)	is	a	chronic	inflammatory	disease,	which can be associated with the obesity. A link between body mass index (BMI) and psoriatic arthritis (PsA) has been found recently. But there is limited data about this association in Russian population and from real-world data.Objective:To  study  the  incidence  of  PsA  in  PsO  patients  (pts) with/without obesity.Methods:  103  pts  (male-47/female-56)  with  different  forms  of plaque PsO, mean age 44±13.69 years (yrs.), mean PsO duration 10.7±10.2 yrs., mean PASI 15.39±12.51 were included. 61 out of 103 pts with PsO (59.2%) had psoriatic arthritis (PsA) by CASPAR criteria. In all pts BMI was calculated. If the BMI was more than 30 it was regarded as obesity. M±m, %, t-test were peformed. All p &lt; 0.05	were	considered	to	indicate	statistical	significance.Results: The overweight in both groups of pts with PsO and PsA was	not	significantly	different:	in	30	pts	without	PsA	and	in	48	with PsA, 71.4% and 78.7% respectively. However, there was a significant	difference	in	the	frequency	of	PsA	in	the	group	of	pts	with a BMI  =  30–35 (obesity 1 degree). Thus, it was more than 4 times higher the pts with PsA, compared with pts without PsA - 19 and 4 pts (31.2% vs. 9.5%) respectively (p = 0.06).Conclusion: There is a higher incidence of PsA in PsO pts with obesity. It should be taken into account during choice of treatment and	evaluation	of	efficiency	of	therapy	in	real-world	dermatological setting. Russian population – based studies are needed. P118DIAGNOSIS OF PSORIATIC ARTHRITIS IN PATIENTS WITH MODERATE TO SEVERE CHRONIC PLAQUE PSORIASIS TREATED WITH SECUKINUMAB VS. OTHER TREATMENTS IN THE PURE REGISTRY: INDICATION OF SELECTION PREFERENCES AND UNDERDIAGNOSISIntroduction: Secukinumab (SEC) is a fully human monoclonal antibody  that  selectively  neutralizes  IL-17A,  a  key  cytokine involved in the development of psoriasis (PsO). SEC has shown long	lasting	efficacy	and	safety	in	the	complete	spectrum	of	PsO	manifestations, including nails, scalp, palms and soles and psoriatic arthritis (PsA). PURE is an international registry of adult patients (pts) from Canada and Latin America with moderate to severe PsO treated with SEC vs other approved therapies (other Tx).Objectives: To describe and compare the baseline demographic, disease,	and	clinical	characteristics	–	specifically,	the	history	of	a PsA diagnosis among PsO pts treated with SEC vs other Tx. Methods: Approximately 2,500 adult pts (1:1 ratio, SEC: other Tx) will be recruited. A decision regarding treatment must have been reached prior to enrollment. The independent-samples and Chisquare tests were used for continuous and categorical variables, respectively, for treatment group comparison. Results: As of Nov 27, 2017, 1032 pts (397 SEC vs 635 other Tx) had been enrolled. Mean age (50.5 vs 49.4 years), time since diagnosis (18.5 vs 16.9 years), duration since symptom onset (20.5 vs 19 years), and race (78.6% vs 83.8% Caucasian) were comparable between groups. The percentage of females was lower in the SEC group (38.0%) vs other Tx (45.5%; p = 0.037). At baseline, the majority of SEC-treated pts (66.2%) were employed, and 23.7% vs 34.8% vs 34.3% had public vs private vs combined coverage, respectively. There was no difference between cohorts. A higher proportion  of  SEC  pts  had  a  history  of  PsA  (23.2%  vs  15.0%; p = 0.001) or diabetes (18.1% vs 13.4%; p = 0.072) compared to pts on other Tx. About 87.9% pts with PsA history and 34.1% pts without had a Psoriasis Epidemiology Screening Tool (PEST) score ≥3	at	baseline;	however,	the	diagnosis	of	PsA	in	these	pts	needs	to	be	confirmed.	In	terms	of	prior	PsO	treatments,	52.4%	vs	29.9%	(p &lt; 0.001) of SEC vs other Tx pts had been previously treated with methotrexate, and 50.6% vs 18.0% (p &lt; 0.001) with a biologic. Prior to enrollment, 4.7%, 13.2% and 4.7% pts in the other Tx	group	received	anti-IL-12/23,	anti-TNF-α,	and	anti-IL-17A,	respectively. Pts treated with SEC had a higher historical Psoriasis Area and Severity Index (PASI) score (16.5 vs 14.2; p = 0.005), baseline PASI (13.6 vs 12.0; p = 0.001) and Investigator’s Global Assessment score (severe disease [score = 4]: 25.4% vs 20.1%) at enrollment compared to pts on other Tx. Conclusions: Pts with moderate to severe PsO selected for treatment with SEC were more likely to have been previously exposed to  another  biologic,  have  comorbid  PsA  and  had  more  severe skin	disease,	compared	to	pts	treated	with	other	Tx.	A	significant	proportion of PsO pts may have their PsA undiagnosed in routine clinical care. Langley R, et al. NEJM 2014;371:326.Armstrong AW, et al. J Clin Aesthet Dermatol 2016; S12-S16McInnes IB, et al. Lancet 2015;386:1137 Mease PJ, et a</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="inlineStr">
+        <is>
+          <t>Charles Lyn-de</t>
+        </is>
+      </c>
+      <c r="B93" s="2" t="inlineStr">
+        <is>
+          <t>N.A.Nasonova Research Institute of RheumatologyK Papp Clinical Research and Probity Medical Research, Waterloo, ON, SKiN Center for Dermatology, Queen’s University and Probity Medical Research, Peterborough, ON, University of Ottawa, Division of Dermato-logy, Ottawa, ON, Lynde Institute for Dermatology, University of Toronto and Probity Medical Research, Markham, ON, Dr. Isabelle Delorm Inc, Drummondville, Facultad de Medicina de la Universidad de Buenos Aires, Buenos Aires, Argentina, JSS Medical, Saint-Laurent, QC, Novartis Pharmaceuticals Canada Inc., Dorval</t>
+        </is>
+      </c>
+      <c r="C93" s="2" t="inlineStr">
+        <is>
+          <t>QC, Canada</t>
+        </is>
+      </c>
+      <c r="D93" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">P117 </t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="inlineStr">
+        <is>
+          <t>THE OBESITY AND PREVALENCE PSORIATIC ARTHRITIS IN PATIENTS WITH PLAQUE PSORIA SIS: DERMATOLOGICAL REAL­SETTING DATA</t>
+        </is>
+      </c>
+      <c r="F93" s="2" t="inlineStr">
+        <is>
+          <t>Background: Psoriasis	(PsO)	is	a	chronic	inflammatory	disease,	which can be associated with the obesity. A link between body mass index (BMI) and psoriatic arthritis (PsA) has been found recently. But there is limited data about this association in Russian population and from real-world data.Objective:To  study  the  incidence  of  PsA  in  PsO  patients  (pts) with/without obesity.Methods:  103  pts  (male-47/female-56)  with  different  forms  of plaque PsO, mean age 44±13.69 years (yrs.), mean PsO duration 10.7±10.2 yrs., mean PASI 15.39±12.51 were included. 61 out of 103 pts with PsO (59.2%) had psoriatic arthritis (PsA) by CASPAR criteria. In all pts BMI was calculated. If the BMI was more than 30 it was regarded as obesity. M±m, %, t-test were peformed. All p &lt; 0.05	were	considered	to	indicate	statistical	significance.Results: The overweight in both groups of pts with PsO and PsA was	not	significantly	different:	in	30	pts	without	PsA	and	in	48	with PsA, 71.4% and 78.7% respectively. However, there was a significant	difference	in	the	frequency	of	PsA	in	the	group	of	pts	with a BMI  =  30–35 (obesity 1 degree). Thus, it was more than 4 times higher the pts with PsA, compared with pts without PsA - 19 and 4 pts (31.2% vs. 9.5%) respectively (p = 0.06).Conclusion: There is a higher incidence of PsA in PsO pts with obesity. It should be taken into account during choice of treatment and	evaluation	of	efficiency	of	therapy	in	real-world	dermatological setting. Russian population – based studies are needed. P118DIAGNOSIS OF PSORIATIC ARTHRITIS IN PATIENTS WITH MODERATE TO SEVERE CHRONIC PLAQUE PSORIASIS TREATED WITH SECUKINUMAB VS. OTHER TREATMENTS IN THE PURE REGISTRY: INDICATION OF SELECTION PREFERENCES AND UNDERDIAGNOSISIntroduction: Secukinumab (SEC) is a fully human monoclonal antibody  that  selectively  neutralizes  IL-17A,  a  key  cytokine involved in the development of psoriasis (PsO). SEC has shown long	lasting	efficacy	and	safety	in	the	complete	spectrum	of	PsO	manifestations, including nails, scalp, palms and soles and psoriatic arthritis (PsA). PURE is an international registry of adult patients (pts) from Canada and Latin America with moderate to severe PsO treated with SEC vs other approved therapies (other Tx).Objectives: To describe and compare the baseline demographic, disease,	and	clinical	characteristics	–	specifically,	the	history	of	a PsA diagnosis among PsO pts treated with SEC vs other Tx. Methods: Approximately 2,500 adult pts (1:1 ratio, SEC: other Tx) will be recruited. A decision regarding treatment must have been reached prior to enrollment. The independent-samples and Chisquare tests were used for continuous and categorical variables, respectively, for treatment group comparison. Results: As of Nov 27, 2017, 1032 pts (397 SEC vs 635 other Tx) had been enrolled. Mean age (50.5 vs 49.4 years), time since diagnosis (18.5 vs 16.9 years), duration since symptom onset (20.5 vs 19 years), and race (78.6% vs 83.8% Caucasian) were comparable between groups. The percentage of females was lower in the SEC group (38.0%) vs other Tx (45.5%; p = 0.037). At baseline, the majority of SEC-treated pts (66.2%) were employed, and 23.7% vs 34.8% vs 34.3% had public vs private vs combined coverage, respectively. There was no difference between cohorts. A higher proportion  of  SEC  pts  had  a  history  of  PsA  (23.2%  vs  15.0%; p = 0.001) or diabetes (18.1% vs 13.4%; p = 0.072) compared to pts on other Tx. About 87.9% pts with PsA history and 34.1% pts without had a Psoriasis Epidemiology Screening Tool (PEST) score ≥3	at	baseline;	however,	the	diagnosis	of	PsA	in	these	pts	needs	to	be	confirmed.	In	terms	of	prior	PsO	treatments,	52.4%	vs	29.9%	(p &lt; 0.001) of SEC vs other Tx pts had been previously treated with methotrexate, and 50.6% vs 18.0% (p &lt; 0.001) with a biologic. Prior to enrollment, 4.7%, 13.2% and 4.7% pts in the other Tx	group	received	anti-IL-12/23,	anti-TNF-α,	and	anti-IL-17A,	respectively. Pts treated with SEC had a higher historical Psoriasis Area and Severity Index (PASI) score (16.5 vs 14.2; p = 0.005), baseline PASI (13.6 vs 12.0; p = 0.001) and Investigator’s Global Assessment score (severe disease [score = 4]: 25.4% vs 20.1%) at enrollment compared to pts on other Tx. Conclusions: Pts with moderate to severe PsO selected for treatment with SEC were more likely to have been previously exposed to  another  biologic,  have  comorbid  PsA  and  had  more  severe skin	disease,	compared	to	pts	treated	with	other	Tx.	A	significant	proportion of PsO pts may have their PsA undiagnosed in routine clinical care. Langley R, et al. NEJM 2014;371:326.Armstrong AW, et al. J Clin Aesthet Dermatol 2016; S12-S16McInnes IB, et al. Lancet 2015;386:1137 Mease PJ, et a</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="inlineStr">
+        <is>
+          <t>Isabelle Delorme</t>
+        </is>
+      </c>
+      <c r="B94" s="2" t="inlineStr">
+        <is>
+          <t>N.A.Nasonova Research Institute of RheumatologyK Papp Clinical Research and Probity Medical Research, Waterloo, ON, SKiN Center for Dermatology, Queen’s University and Probity Medical Research, Peterborough, ON, University of Ottawa, Division of Dermato-logy, Ottawa, ON, Lynde Institute for Dermatology, University of Toronto and Probity Medical Research, Markham, ON, Dr. Isabelle Delorm Inc, Drummondville, Facultad de Medicina de la Universidad de Buenos Aires, Buenos Aires, Argentina, JSS Medical, Saint-Laurent, QC, Novartis Pharmaceuticals Canada Inc., Dorval</t>
+        </is>
+      </c>
+      <c r="C94" s="2" t="inlineStr">
+        <is>
+          <t>QC, Canada</t>
+        </is>
+      </c>
+      <c r="D94" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">P117 </t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="inlineStr">
+        <is>
+          <t>THE OBESITY AND PREVALENCE PSORIATIC ARTHRITIS IN PATIENTS WITH PLAQUE PSORIA SIS: DERMATOLOGICAL REAL­SETTING DATA</t>
+        </is>
+      </c>
+      <c r="F94" s="2" t="inlineStr">
+        <is>
+          <t>Background: Psoriasis	(PsO)	is	a	chronic	inflammatory	disease,	which can be associated with the obesity. A link between body mass index (BMI) and psoriatic arthritis (PsA) has been found recently. But there is limited data about this association in Russian population and from real-world data.Objective:To  study  the  incidence  of  PsA  in  PsO  patients  (pts) with/without obesity.Methods:  103  pts  (male-47/female-56)  with  different  forms  of plaque PsO, mean age 44±13.69 years (yrs.), mean PsO duration 10.7±10.2 yrs., mean PASI 15.39±12.51 were included. 61 out of 103 pts with PsO (59.2%) had psoriatic arthritis (PsA) by CASPAR criteria. In all pts BMI was calculated. If the BMI was more than 30 it was regarded as obesity. M±m, %, t-test were peformed. All p &lt; 0.05	were	considered	to	indicate	statistical	significance.Results: The overweight in both groups of pts with PsO and PsA was	not	significantly	different:	in	30	pts	without	PsA	and	in	48	with PsA, 71.4% and 78.7% respectively. However, there was a significant	difference	in	the	frequency	of	PsA	in	the	group	of	pts	with a BMI  =  30–35 (obesity 1 degree). Thus, it was more than 4 times higher the pts with PsA, compared with pts without PsA - 19 and 4 pts (31.2% vs. 9.5%) respectively (p = 0.06).Conclusion: There is a higher incidence of PsA in PsO pts with obesity. It should be taken into account during choice of treatment and	evaluation	of	efficiency	of	therapy	in	real-world	dermatological setting. Russian population – based studies are needed. P118DIAGNOSIS OF PSORIATIC ARTHRITIS IN PATIENTS WITH MODERATE TO SEVERE CHRONIC PLAQUE PSORIASIS TREATED WITH SECUKINUMAB VS. OTHER TREATMENTS IN THE PURE REGISTRY: INDICATION OF SELECTION PREFERENCES AND UNDERDIAGNOSISIntroduction: Secukinumab (SEC) is a fully human monoclonal antibody  that  selectively  neutralizes  IL-17A,  a  key  cytokine involved in the development of psoriasis (PsO). SEC has shown long	lasting	efficacy	and	safety	in	the	complete	spectrum	of	PsO	manifestations, including nails, scalp, palms and soles and psoriatic arthritis (PsA). PURE is an international registry of adult patients (pts) from Canada and Latin America with moderate to severe PsO treated with SEC vs other approved therapies (other Tx).Objectives: To describe and compare the baseline demographic, disease,	and	clinical	characteristics	–	specifically,	the	history	of	a PsA diagnosis among PsO pts treated with SEC vs other Tx. Methods: Approximately 2,500 adult pts (1:1 ratio, SEC: other Tx) will be recruited. A decision regarding treatment must have been reached prior to enrollment. The independent-samples and Chisquare tests were used for continuous and categorical variables, respectively, for treatment group comparison. Results: As of Nov 27, 2017, 1032 pts (397 SEC vs 635 other Tx) had been enrolled. Mean age (50.5 vs 49.4 years), time since diagnosis (18.5 vs 16.9 years), duration since symptom onset (20.5 vs 19 years), and race (78.6% vs 83.8% Caucasian) were comparable between groups. The percentage of females was lower in the SEC group (38.0%) vs other Tx (45.5%; p = 0.037). At baseline, the majority of SEC-treated pts (66.2%) were employed, and 23.7% vs 34.8% vs 34.3% had public vs private vs combined coverage, respectively. There was no difference between cohorts. A higher proportion  of  SEC  pts  had  a  history  of  PsA  (23.2%  vs  15.0%; p = 0.001) or diabetes (18.1% vs 13.4%; p = 0.072) compared to pts on other Tx. About 87.9% pts with PsA history and 34.1% pts without had a Psoriasis Epidemiology Screening Tool (PEST) score ≥3	at	baseline;	however,	the	diagnosis	of	PsA	in	these	pts	needs	to	be	confirmed.	In	terms	of	prior	PsO	treatments,	52.4%	vs	29.9%	(p &lt; 0.001) of SEC vs other Tx pts had been previously treated with methotrexate, and 50.6% vs 18.0% (p &lt; 0.001) with a biologic. Prior to enrollment, 4.7%, 13.2% and 4.7% pts in the other Tx	group	received	anti-IL-12/23,	anti-TNF-α,	and	anti-IL-17A,	respectively. Pts treated with SEC had a higher historical Psoriasis Area and Severity Index (PASI) score (16.5 vs 14.2; p = 0.005), baseline PASI (13.6 vs 12.0; p = 0.001) and Investigator’s Global Assessment score (severe disease [score = 4]: 25.4% vs 20.1%) at enrollment compared to pts on other Tx. Conclusions: Pts with moderate to severe PsO selected for treatment with SEC were more likely to have been previously exposed to  another  biologic,  have  comorbid  PsA  and  had  more  severe skin	disease,	compared	to	pts	treated	with	other	Tx.	A	significant	proportion of PsO pts may have their PsA undiagnosed in routine clinical care. Langley R, et al. NEJM 2014;371:326.Armstrong AW, et al. J Clin Aesthet Dermatol 2016; S12-S16McInnes IB, et al. Lancet 2015;386:1137 Mease PJ, et a</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="inlineStr">
+        <is>
+          <t>Ignacio Dei-Cas</t>
+        </is>
+      </c>
+      <c r="B95" s="2" t="inlineStr">
+        <is>
+          <t>N.A.Nasonova Research Institute of RheumatologyK Papp Clinical Research and Probity Medical Research, Waterloo, ON, SKiN Center for Dermatology, Queen’s University and Probity Medical Research, Peterborough, ON, University of Ottawa, Division of Dermato-logy, Ottawa, ON, Lynde Institute for Dermatology, University of Toronto and Probity Medical Research, Markham, ON, Dr. Isabelle Delorm Inc, Drummondville, Facultad de Medicina de la Universidad de Buenos Aires, Buenos Aires, Argentina, JSS Medical, Saint-Laurent, QC, Novartis Pharmaceuticals Canada Inc., Dorval</t>
+        </is>
+      </c>
+      <c r="C95" s="2" t="inlineStr">
+        <is>
+          <t>QC, Canada</t>
+        </is>
+      </c>
+      <c r="D95" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">P117 </t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="inlineStr">
+        <is>
+          <t>THE OBESITY AND PREVALENCE PSORIATIC ARTHRITIS IN PATIENTS WITH PLAQUE PSORIA SIS: DERMATOLOGICAL REAL­SETTING DATA</t>
+        </is>
+      </c>
+      <c r="F95" s="2" t="inlineStr">
+        <is>
+          <t>Background: Psoriasis	(PsO)	is	a	chronic	inflammatory	disease,	which can be associated with the obesity. A link between body mass index (BMI) and psoriatic arthritis (PsA) has been found recently. But there is limited data about this association in Russian population and from real-world data.Objective:To  study  the  incidence  of  PsA  in  PsO  patients  (pts) with/without obesity.Methods:  103  pts  (male-47/female-56)  with  different  forms  of plaque PsO, mean age 44±13.69 years (yrs.), mean PsO duration 10.7±10.2 yrs., mean PASI 15.39±12.51 were included. 61 out of 103 pts with PsO (59.2%) had psoriatic arthritis (PsA) by CASPAR criteria. In all pts BMI was calculated. If the BMI was more than 30 it was regarded as obesity. M±m, %, t-test were peformed. All p &lt; 0.05	were	considered	to	indicate	statistical	significance.Results: The overweight in both groups of pts with PsO and PsA was	not	significantly	different:	in	30	pts	without	PsA	and	in	48	with PsA, 71.4% and 78.7% respectively. However, there was a significant	difference	in	the	frequency	of	PsA	in	the	group	of	pts	with a BMI  =  30–35 (obesity 1 degree). Thus, it was more than 4 times higher the pts with PsA, compared with pts without PsA - 19 and 4 pts (31.2% vs. 9.5%) respectively (p = 0.06).Conclusion: There is a higher incidence of PsA in PsO pts with obesity. It should be taken into account during choice of treatment and	evaluation	of	efficiency	of	therapy	in	real-world	dermatological setting. Russian population – based studies are needed. P118DIAGNOSIS OF PSORIATIC ARTHRITIS IN PATIENTS WITH MODERATE TO SEVERE CHRONIC PLAQUE PSORIASIS TREATED WITH SECUKINUMAB VS. OTHER TREATMENTS IN THE PURE REGISTRY: INDICATION OF SELECTION PREFERENCES AND UNDERDIAGNOSISIntroduction: Secukinumab (SEC) is a fully human monoclonal antibody  that  selectively  neutralizes  IL-17A,  a  key  cytokine involved in the development of psoriasis (PsO). SEC has shown long	lasting	efficacy	and	safety	in	the	complete	spectrum	of	PsO	manifestations, including nails, scalp, palms and soles and psoriatic arthritis (PsA). PURE is an international registry of adult patients (pts) from Canada and Latin America with moderate to severe PsO treated with SEC vs other approved therapies (other Tx).Objectives: To describe and compare the baseline demographic, disease,	and	clinical	characteristics	–	specifically,	the	history	of	a PsA diagnosis among PsO pts treated with SEC vs other Tx. Methods: Approximately 2,500 adult pts (1:1 ratio, SEC: other Tx) will be recruited. A decision regarding treatment must have been reached prior to enrollment. The independent-samples and Chisquare tests were used for continuous and categorical variables, respectively, for treatment group comparison. Results: As of Nov 27, 2017, 1032 pts (397 SEC vs 635 other Tx) had been enrolled. Mean age (50.5 vs 49.4 years), time since diagnosis (18.5 vs 16.9 years), duration since symptom onset (20.5 vs 19 years), and race (78.6% vs 83.8% Caucasian) were comparable between groups. The percentage of females was lower in the SEC group (38.0%) vs other Tx (45.5%; p = 0.037). At baseline, the majority of SEC-treated pts (66.2%) were employed, and 23.7% vs 34.8% vs 34.3% had public vs private vs combined coverage, respectively. There was no difference between cohorts. A higher proportion  of  SEC  pts  had  a  history  of  PsA  (23.2%  vs  15.0%; p = 0.001) or diabetes (18.1% vs 13.4%; p = 0.072) compared to pts on other Tx. About 87.9% pts with PsA history and 34.1% pts without had a Psoriasis Epidemiology Screening Tool (PEST) score ≥3	at	baseline;	however,	the	diagnosis	of	PsA	in	these	pts	needs	to	be	confirmed.	In	terms	of	prior	PsO	treatments,	52.4%	vs	29.9%	(p &lt; 0.001) of SEC vs other Tx pts had been previously treated with methotrexate, and 50.6% vs 18.0% (p &lt; 0.001) with a biologic. Prior to enrollment, 4.7%, 13.2% and 4.7% pts in the other Tx	group	received	anti-IL-12/23,	anti-TNF-α,	and	anti-IL-17A,	respectively. Pts treated with SEC had a higher historical Psoriasis Area and Severity Index (PASI) score (16.5 vs 14.2; p = 0.005), baseline PASI (13.6 vs 12.0; p = 0.001) and Investigator’s Global Assessment score (severe disease [score = 4]: 25.4% vs 20.1%) at enrollment compared to pts on other Tx. Conclusions: Pts with moderate to severe PsO selected for treatment with SEC were more likely to have been previously exposed to  another  biologic,  have  comorbid  PsA  and  had  more  severe skin	disease,	compared	to	pts	treated	with	other	Tx.	A	significant	proportion of PsO pts may have their PsA undiagnosed in routine clinical care. Langley R, et al. NEJM 2014;371:326.Armstrong AW, et al. J Clin Aesthet Dermatol 2016; S12-S16McInnes IB, et al. Lancet 2015;386:1137 Mease PJ, et a</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="inlineStr">
+        <is>
+          <t>Emmanouil Rampaka-kis</t>
+        </is>
+      </c>
+      <c r="B96" s="2" t="inlineStr">
+        <is>
+          <t>N.A.Nasonova Research Institute of RheumatologyK Papp Clinical Research and Probity Medical Research, Waterloo, ON, SKiN Center for Dermatology, Queen’s University and Probity Medical Research, Peterborough, ON, University of Ottawa, Division of Dermato-logy, Ottawa, ON, Lynde Institute for Dermatology, University of Toronto and Probity Medical Research, Markham, ON, Dr. Isabelle Delorm Inc, Drummondville, Facultad de Medicina de la Universidad de Buenos Aires, Buenos Aires, Argentina, JSS Medical, Saint-Laurent, QC, Novartis Pharmaceuticals Canada Inc., Dorval</t>
+        </is>
+      </c>
+      <c r="C96" s="2" t="inlineStr">
+        <is>
+          <t>QC, Canada</t>
+        </is>
+      </c>
+      <c r="D96" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">P117 </t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="inlineStr">
+        <is>
+          <t>THE OBESITY AND PREVALENCE PSORIATIC ARTHRITIS IN PATIENTS WITH PLAQUE PSORIA SIS: DERMATOLOGICAL REAL­SETTING DATA</t>
+        </is>
+      </c>
+      <c r="F96" s="2" t="inlineStr">
+        <is>
+          <t>Background: Psoriasis	(PsO)	is	a	chronic	inflammatory	disease,	which can be associated with the obesity. A link between body mass index (BMI) and psoriatic arthritis (PsA) has been found recently. But there is limited data about this association in Russian population and from real-world data.Objective:To  study  the  incidence  of  PsA  in  PsO  patients  (pts) with/without obesity.Methods:  103  pts  (male-47/female-56)  with  different  forms  of plaque PsO, mean age 44±13.69 years (yrs.), mean PsO duration 10.7±10.2 yrs., mean PASI 15.39±12.51 were included. 61 out of 103 pts with PsO (59.2%) had psoriatic arthritis (PsA) by CASPAR criteria. In all pts BMI was calculated. If the BMI was more than 30 it was regarded as obesity. M±m, %, t-test were peformed. All p &lt; 0.05	were	considered	to	indicate	statistical	significance.Results: The overweight in both groups of pts with PsO and PsA was	not	significantly	different:	in	30	pts	without	PsA	and	in	48	with PsA, 71.4% and 78.7% respectively. However, there was a significant	difference	in	the	frequency	of	PsA	in	the	group	of	pts	with a BMI  =  30–35 (obesity 1 degree). Thus, it was more than 4 times higher the pts with PsA, compared with pts without PsA - 19 and 4 pts (31.2% vs. 9.5%) respectively (p = 0.06).Conclusion: There is a higher incidence of PsA in PsO pts with obesity. It should be taken into account during choice of treatment and	evaluation	of	efficiency	of	therapy	in	real-world	dermatological setting. Russian population – based studies are needed. P118DIAGNOSIS OF PSORIATIC ARTHRITIS IN PATIENTS WITH MODERATE TO SEVERE CHRONIC PLAQUE PSORIASIS TREATED WITH SECUKINUMAB VS. OTHER TREATMENTS IN THE PURE REGISTRY: INDICATION OF SELECTION PREFERENCES AND UNDERDIAGNOSISIntroduction: Secukinumab (SEC) is a fully human monoclonal antibody  that  selectively  neutralizes  IL-17A,  a  key  cytokine involved in the development of psoriasis (PsO). SEC has shown long	lasting	efficacy	and	safety	in	the	complete	spectrum	of	PsO	manifestations, including nails, scalp, palms and soles and psoriatic arthritis (PsA). PURE is an international registry of adult patients (pts) from Canada and Latin America with moderate to severe PsO treated with SEC vs other approved therapies (other Tx).Objectives: To describe and compare the baseline demographic, disease,	and	clinical	characteristics	–	specifically,	the	history	of	a PsA diagnosis among PsO pts treated with SEC vs other Tx. Methods: Approximately 2,500 adult pts (1:1 ratio, SEC: other Tx) will be recruited. A decision regarding treatment must have been reached prior to enrollment. The independent-samples and Chisquare tests were used for continuous and categorical variables, respectively, for treatment group comparison. Results: As of Nov 27, 2017, 1032 pts (397 SEC vs 635 other Tx) had been enrolled. Mean age (50.5 vs 49.4 years), time since diagnosis (18.5 vs 16.9 years), duration since symptom onset (20.5 vs 19 years), and race (78.6% vs 83.8% Caucasian) were comparable between groups. The percentage of females was lower in the SEC group (38.0%) vs other Tx (45.5%; p = 0.037). At baseline, the majority of SEC-treated pts (66.2%) were employed, and 23.7% vs 34.8% vs 34.3% had public vs private vs combined coverage, respectively. There was no difference between cohorts. A higher proportion  of  SEC  pts  had  a  history  of  PsA  (23.2%  vs  15.0%; p = 0.001) or diabetes (18.1% vs 13.4%; p = 0.072) compared to pts on other Tx. About 87.9% pts with PsA history and 34.1% pts without had a Psoriasis Epidemiology Screening Tool (PEST) score ≥3	at	baseline;	however,	the	diagnosis	of	PsA	in	these	pts	needs	to	be	confirmed.	In	terms	of	prior	PsO	treatments,	52.4%	vs	29.9%	(p &lt; 0.001) of SEC vs other Tx pts had been previously treated with methotrexate, and 50.6% vs 18.0% (p &lt; 0.001) with a biologic. Prior to enrollment, 4.7%, 13.2% and 4.7% pts in the other Tx	group	received	anti-IL-12/23,	anti-TNF-α,	and	anti-IL-17A,	respectively. Pts treated with SEC had a higher historical Psoriasis Area and Severity Index (PASI) score (16.5 vs 14.2; p = 0.005), baseline PASI (13.6 vs 12.0; p = 0.001) and Investigator’s Global Assessment score (severe disease [score = 4]: 25.4% vs 20.1%) at enrollment compared to pts on other Tx. Conclusions: Pts with moderate to severe PsO selected for treatment with SEC were more likely to have been previously exposed to  another  biologic,  have  comorbid  PsA  and  had  more  severe skin	disease,	compared	to	pts	treated	with	other	Tx.	A	significant	proportion of PsO pts may have their PsA undiagnosed in routine clinical care. Langley R, et al. NEJM 2014;371:326.Armstrong AW, et al. J Clin Aesthet Dermatol 2016; S12-S16McInnes IB, et al. Lancet 2015;386:1137 Mease PJ, et a</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="inlineStr">
+        <is>
+          <t>Lenka Rihakova</t>
+        </is>
+      </c>
+      <c r="B97" s="2" t="inlineStr">
+        <is>
+          <t>N.A.Nasonova Research Institute of RheumatologyK Papp Clinical Research and Probity Medical Research, Waterloo, ON, SKiN Center for Dermatology, Queen’s University and Probity Medical Research, Peterborough, ON, University of Ottawa, Division of Dermato-logy, Ottawa, ON, Lynde Institute for Dermatology, University of Toronto and Probity Medical Research, Markham, ON, Dr. Isabelle Delorm Inc, Drummondville, Facultad de Medicina de la Universidad de Buenos Aires, Buenos Aires, Argentina, JSS Medical, Saint-Laurent, QC, Novartis Pharmaceuticals Canada Inc., Dorval</t>
+        </is>
+      </c>
+      <c r="C97" s="2" t="inlineStr">
+        <is>
+          <t>QC, Canada</t>
+        </is>
+      </c>
+      <c r="D97" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">P117 </t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="inlineStr">
+        <is>
+          <t>THE OBESITY AND PREVALENCE PSORIATIC ARTHRITIS IN PATIENTS WITH PLAQUE PSORIA SIS: DERMATOLOGICAL REAL­SETTING DATA</t>
+        </is>
+      </c>
+      <c r="F97" s="2" t="inlineStr">
+        <is>
+          <t>Background: Psoriasis	(PsO)	is	a	chronic	inflammatory	disease,	which can be associated with the obesity. A link between body mass index (BMI) and psoriatic arthritis (PsA) has been found recently. But there is limited data about this association in Russian population and from real-world data.Objective:To  study  the  incidence  of  PsA  in  PsO  patients  (pts) with/without obesity.Methods:  103  pts  (male-47/female-56)  with  different  forms  of plaque PsO, mean age 44±13.69 years (yrs.), mean PsO duration 10.7±10.2 yrs., mean PASI 15.39±12.51 were included. 61 out of 103 pts with PsO (59.2%) had psoriatic arthritis (PsA) by CASPAR criteria. In all pts BMI was calculated. If the BMI was more than 30 it was regarded as obesity. M±m, %, t-test were peformed. All p &lt; 0.05	were	considered	to	indicate	statistical	significance.Results: The overweight in both groups of pts with PsO and PsA was	not	significantly	different:	in	30	pts	without	PsA	and	in	48	with PsA, 71.4% and 78.7% respectively. However, there was a significant	difference	in	the	frequency	of	PsA	in	the	group	of	pts	with a BMI  =  30–35 (obesity 1 degree). Thus, it was more than 4 times higher the pts with PsA, compared with pts without PsA - 19 and 4 pts (31.2% vs. 9.5%) respectively (p = 0.06).Conclusion: There is a higher incidence of PsA in PsO pts with obesity. It should be taken into account during choice of treatment and	evaluation	of	efficiency	of	therapy	in	real-world	dermatological setting. Russian population – based studies are needed. P118DIAGNOSIS OF PSORIATIC ARTHRITIS IN PATIENTS WITH MODERATE TO SEVERE CHRONIC PLAQUE PSORIASIS TREATED WITH SECUKINUMAB VS. OTHER TREATMENTS IN THE PURE REGISTRY: INDICATION OF SELECTION PREFERENCES AND UNDERDIAGNOSISIntroduction: Secukinumab (SEC) is a fully human monoclonal antibody  that  selectively  neutralizes  IL-17A,  a  key  cytokine involved in the development of psoriasis (PsO). SEC has shown long	lasting	efficacy	and	safety	in	the	complete	spectrum	of	PsO	manifestations, including nails, scalp, palms and soles and psoriatic arthritis (PsA). PURE is an international registry of adult patients (pts) from Canada and Latin America with moderate to severe PsO treated with SEC vs other approved therapies (other Tx).Objectives: To describe and compare the baseline demographic, disease,	and	clinical	characteristics	–	specifically,	the	history	of	a PsA diagnosis among PsO pts treated with SEC vs other Tx. Methods: Approximately 2,500 adult pts (1:1 ratio, SEC: other Tx) will be recruited. A decision regarding treatment must have been reached prior to enrollment. The independent-samples and Chisquare tests were used for continuous and categorical variables, respectively, for treatment group comparison. Results: As of Nov 27, 2017, 1032 pts (397 SEC vs 635 other Tx) had been enrolled. Mean age (50.5 vs 49.4 years), time since diagnosis (18.5 vs 16.9 years), duration since symptom onset (20.5 vs 19 years), and race (78.6% vs 83.8% Caucasian) were comparable between groups. The percentage of females was lower in the SEC group (38.0%) vs other Tx (45.5%; p = 0.037). At baseline, the majority of SEC-treated pts (66.2%) were employed, and 23.7% vs 34.8% vs 34.3% had public vs private vs combined coverage, respectively. There was no difference between cohorts. A higher proportion  of  SEC  pts  had  a  history  of  PsA  (23.2%  vs  15.0%; p = 0.001) or diabetes (18.1% vs 13.4%; p = 0.072) compared to pts on other Tx. About 87.9% pts with PsA history and 34.1% pts without had a Psoriasis Epidemiology Screening Tool (PEST) score ≥3	at	baseline;	however,	the	diagnosis	of	PsA	in	these	pts	needs	to	be	confirmed.	In	terms	of	prior	PsO	treatments,	52.4%	vs	29.9%	(p &lt; 0.001) of SEC vs other Tx pts had been previously treated with methotrexate, and 50.6% vs 18.0% (p &lt; 0.001) with a biologic. Prior to enrollment, 4.7%, 13.2% and 4.7% pts in the other Tx	group	received	anti-IL-12/23,	anti-TNF-α,	and	anti-IL-17A,	respectively. Pts treated with SEC had a higher historical Psoriasis Area and Severity Index (PASI) score (16.5 vs 14.2; p = 0.005), baseline PASI (13.6 vs 12.0; p = 0.001) and Investigator’s Global Assessment score (severe disease [score = 4]: 25.4% vs 20.1%) at enrollment compared to pts on other Tx. Conclusions: Pts with moderate to severe PsO selected for treatment with SEC were more likely to have been previously exposed to  another  biologic,  have  comorbid  PsA  and  had  more  severe skin	disease,	compared	to	pts	treated	with	other	Tx.	A	significant	proportion of PsO pts may have their PsA undiagnosed in routine clinical care. Langley R, et al. NEJM 2014;371:326.Armstrong AW, et al. J Clin Aesthet Dermatol 2016; S12-S16McInnes IB, et al. Lancet 2015;386:1137 Mease PJ, et a</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="inlineStr">
+        <is>
+          <t>Shamiza Hussein</t>
+        </is>
+      </c>
+      <c r="B98" s="2" t="inlineStr">
+        <is>
+          <t>N.A.Nasonova Research Institute of RheumatologyK Papp Clinical Research and Probity Medical Research, Waterloo, ON, SKiN Center for Dermatology, Queen’s University and Probity Medical Research, Peterborough, ON, University of Ottawa, Division of Dermato-logy, Ottawa, ON, Lynde Institute for Dermatology, University of Toronto and Probity Medical Research, Markham, ON, Dr. Isabelle Delorm Inc, Drummondville, Facultad de Medicina de la Universidad de Buenos Aires, Buenos Aires, Argentina, JSS Medical, Saint-Laurent, QC, Novartis Pharmaceuticals Canada Inc., Dorval</t>
+        </is>
+      </c>
+      <c r="C98" s="2" t="inlineStr">
+        <is>
+          <t>QC, Canada</t>
+        </is>
+      </c>
+      <c r="D98" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">P117 </t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="inlineStr">
+        <is>
+          <t>THE OBESITY AND PREVALENCE PSORIATIC ARTHRITIS IN PATIENTS WITH PLAQUE PSORIA SIS: DERMATOLOGICAL REAL­SETTING DATA</t>
+        </is>
+      </c>
+      <c r="F98" s="2" t="inlineStr">
+        <is>
+          <t>Background: Psoriasis	(PsO)	is	a	chronic	inflammatory	disease,	which can be associated with the obesity. A link between body mass index (BMI) and psoriatic arthritis (PsA) has been found recently. But there is limited data about this association in Russian population and from real-world data.Objective:To  study  the  incidence  of  PsA  in  PsO  patients  (pts) with/without obesity.Methods:  103  pts  (male-47/female-56)  with  different  forms  of plaque PsO, mean age 44±13.69 years (yrs.), mean PsO duration 10.7±10.2 yrs., mean PASI 15.39±12.51 were included. 61 out of 103 pts with PsO (59.2%) had psoriatic arthritis (PsA) by CASPAR criteria. In all pts BMI was calculated. If the BMI was more than 30 it was regarded as obesity. M±m, %, t-test were peformed. All p &lt; 0.05	were	considered	to	indicate	statistical	significance.Results: The overweight in both groups of pts with PsO and PsA was	not	significantly	different:	in	30	pts	without	PsA	and	in	48	with PsA, 71.4% and 78.7% respectively. However, there was a significant	difference	in	the	frequency	of	PsA	in	the	group	of	pts	with a BMI  =  30–35 (obesity 1 degree). Thus, it was more than 4 times higher the pts with PsA, compared with pts without PsA - 19 and 4 pts (31.2% vs. 9.5%) respectively (p = 0.06).Conclusion: There is a higher incidence of PsA in PsO pts with obesity. It should be taken into account during choice of treatment and	evaluation	of	efficiency	of	therapy	in	real-world	dermatological setting. Russian population – based studies are needed. P118DIAGNOSIS OF PSORIATIC ARTHRITIS IN PATIENTS WITH MODERATE TO SEVERE CHRONIC PLAQUE PSORIASIS TREATED WITH SECUKINUMAB VS. OTHER TREATMENTS IN THE PURE REGISTRY: INDICATION OF SELECTION PREFERENCES AND UNDERDIAGNOSISIntroduction: Secukinumab (SEC) is a fully human monoclonal antibody  that  selectively  neutralizes  IL-17A,  a  key  cytokine involved in the development of psoriasis (PsO). SEC has shown long	lasting	efficacy	and	safety	in	the	complete	spectrum	of	PsO	manifestations, including nails, scalp, palms and soles and psoriatic arthritis (PsA). PURE is an international registry of adult patients (pts) from Canada and Latin America with moderate to severe PsO treated with SEC vs other approved therapies (other Tx).Objectives: To describe and compare the baseline demographic, disease,	and	clinical	characteristics	–	specifically,	the	history	of	a PsA diagnosis among PsO pts treated with SEC vs other Tx. Methods: Approximately 2,500 adult pts (1:1 ratio, SEC: other Tx) will be recruited. A decision regarding treatment must have been reached prior to enrollment. The independent-samples and Chisquare tests were used for continuous and categorical variables, respectively, for treatment group comparison. Results: As of Nov 27, 2017, 1032 pts (397 SEC vs 635 other Tx) had been enrolled. Mean age (50.5 vs 49.4 years), time since diagnosis (18.5 vs 16.9 years), duration since symptom onset (20.5 vs 19 years), and race (78.6% vs 83.8% Caucasian) were comparable between groups. The percentage of females was lower in the SEC group (38.0%) vs other Tx (45.5%; p = 0.037). At baseline, the majority of SEC-treated pts (66.2%) were employed, and 23.7% vs 34.8% vs 34.3% had public vs private vs combined coverage, respectively. There was no difference between cohorts. A higher proportion  of  SEC  pts  had  a  history  of  PsA  (23.2%  vs  15.0%; p = 0.001) or diabetes (18.1% vs 13.4%; p = 0.072) compared to pts on other Tx. About 87.9% pts with PsA history and 34.1% pts without had a Psoriasis Epidemiology Screening Tool (PEST) score ≥3	at	baseline;	however,	the	diagnosis	of	PsA	in	these	pts	needs	to	be	confirmed.	In	terms	of	prior	PsO	treatments,	52.4%	vs	29.9%	(p &lt; 0.001) of SEC vs other Tx pts had been previously treated with methotrexate, and 50.6% vs 18.0% (p &lt; 0.001) with a biologic. Prior to enrollment, 4.7%, 13.2% and 4.7% pts in the other Tx	group	received	anti-IL-12/23,	anti-TNF-α,	and	anti-IL-17A,	respectively. Pts treated with SEC had a higher historical Psoriasis Area and Severity Index (PASI) score (16.5 vs 14.2; p = 0.005), baseline PASI (13.6 vs 12.0; p = 0.001) and Investigator’s Global Assessment score (severe disease [score = 4]: 25.4% vs 20.1%) at enrollment compared to pts on other Tx. Conclusions: Pts with moderate to severe PsO selected for treatment with SEC were more likely to have been previously exposed to  another  biologic,  have  comorbid  PsA  and  had  more  severe skin	disease,	compared	to	pts	treated	with	other	Tx.	A	significant	proportion of PsO pts may have their PsA undiagnosed in routine clinical care. Langley R, et al. NEJM 2014;371:326.Armstrong AW, et al. J Clin Aesthet Dermatol 2016; S12-S16McInnes IB, et al. Lancet 2015;386:1137 Mease PJ, et a</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="inlineStr">
+        <is>
+          <t>Antonio Vieira</t>
+        </is>
+      </c>
+      <c r="B99" s="2" t="inlineStr">
+        <is>
+          <t>N.A.Nasonova Research Institute of RheumatologyK Papp Clinical Research and Probity Medical Research, Waterloo, ON, SKiN Center for Dermatology, Queen’s University and Probity Medical Research, Peterborough, ON, University of Ottawa, Division of Dermato-logy, Ottawa, ON, Lynde Institute for Dermatology, University of Toronto and Probity Medical Research, Markham, ON, Dr. Isabelle Delorm Inc, Drummondville, Facultad de Medicina de la Universidad de Buenos Aires, Buenos Aires, Argentina, JSS Medical, Saint-Laurent, QC, Novartis Pharmaceuticals Canada Inc., Dorval</t>
+        </is>
+      </c>
+      <c r="C99" s="2" t="inlineStr">
+        <is>
+          <t>QC, Canada</t>
+        </is>
+      </c>
+      <c r="D99" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">P117 </t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="inlineStr">
+        <is>
+          <t>THE OBESITY AND PREVALENCE PSORIATIC ARTHRITIS IN PATIENTS WITH PLAQUE PSORIA SIS: DERMATOLOGICAL REAL­SETTING DATA</t>
+        </is>
+      </c>
+      <c r="F99" s="2" t="inlineStr">
+        <is>
+          <t>Background: Psoriasis	(PsO)	is	a	chronic	inflammatory	disease,	which can be associated with the obesity. A link between body mass index (BMI) and psoriatic arthritis (PsA) has been found recently. But there is limited data about this association in Russian population and from real-world data.Objective:To  study  the  incidence  of  PsA  in  PsO  patients  (pts) with/without obesity.Methods:  103  pts  (male-47/female-56)  with  different  forms  of plaque PsO, mean age 44±13.69 years (yrs.), mean PsO duration 10.7±10.2 yrs., mean PASI 15.39±12.51 were included. 61 out of 103 pts with PsO (59.2%) had psoriatic arthritis (PsA) by CASPAR criteria. In all pts BMI was calculated. If the BMI was more than 30 it was regarded as obesity. M±m, %, t-test were peformed. All p &lt; 0.05	were	considered	to	indicate	statistical	significance.Results: The overweight in both groups of pts with PsO and PsA was	not	significantly	different:	in	30	pts	without	PsA	and	in	48	with PsA, 71.4% and 78.7% respectively. However, there was a significant	difference	in	the	frequency	of	PsA	in	the	group	of	pts	with a BMI  =  30–35 (obesity 1 degree). Thus, it was more than 4 times higher the pts with PsA, compared with pts without PsA - 19 and 4 pts (31.2% vs. 9.5%) respectively (p = 0.06).Conclusion: There is a higher incidence of PsA in PsO pts with obesity. It should be taken into account during choice of treatment and	evaluation	of	efficiency	of	therapy	in	real-world	dermatological setting. Russian population – based studies are needed. P118DIAGNOSIS OF PSORIATIC ARTHRITIS IN PATIENTS WITH MODERATE TO SEVERE CHRONIC PLAQUE PSORIASIS TREATED WITH SECUKINUMAB VS. OTHER TREATMENTS IN THE PURE REGISTRY: INDICATION OF SELECTION PREFERENCES AND UNDERDIAGNOSISIntroduction: Secukinumab (SEC) is a fully human monoclonal antibody  that  selectively  neutralizes  IL-17A,  a  key  cytokine involved in the development of psoriasis (PsO). SEC has shown long	lasting	efficacy	and	safety	in	the	complete	spectrum	of	PsO	manifestations, including nails, scalp, palms and soles and psoriatic arthritis (PsA). PURE is an international registry of adult patients (pts) from Canada and Latin America with moderate to severe PsO treated with SEC vs other approved therapies (other Tx).Objectives: To describe and compare the baseline demographic, disease,	and	clinical	characteristics	–	specifically,	the	history	of	a PsA diagnosis among PsO pts treated with SEC vs other Tx. Methods: Approximately 2,500 adult pts (1:1 ratio, SEC: other Tx) will be recruited. A decision regarding treatment must have been reached prior to enrollment. The independent-samples and Chisquare tests were used for continuous and categorical variables, respectively, for treatment group comparison. Results: As of Nov 27, 2017, 1032 pts (397 SEC vs 635 other Tx) had been enrolled. Mean age (50.5 vs 49.4 years), time since diagnosis (18.5 vs 16.9 years), duration since symptom onset (20.5 vs 19 years), and race (78.6% vs 83.8% Caucasian) were comparable between groups. The percentage of females was lower in the SEC group (38.0%) vs other Tx (45.5%; p = 0.037). At baseline, the majority of SEC-treated pts (66.2%) were employed, and 23.7% vs 34.8% vs 34.3% had public vs private vs combined coverage, respectively. There was no difference between cohorts. A higher proportion  of  SEC  pts  had  a  history  of  PsA  (23.2%  vs  15.0%; p = 0.001) or diabetes (18.1% vs 13.4%; p = 0.072) compared to pts on other Tx. About 87.9% pts with PsA history and 34.1% pts without had a Psoriasis Epidemiology Screening Tool (PEST) score ≥3	at	baseline;	however,	the	diagnosis	of	PsA	in	these	pts	needs	to	be	confirmed.	In	terms	of	prior	PsO	treatments,	52.4%	vs	29.9%	(p &lt; 0.001) of SEC vs other Tx pts had been previously treated with methotrexate, and 50.6% vs 18.0% (p &lt; 0.001) with a biologic. Prior to enrollment, 4.7%, 13.2% and 4.7% pts in the other Tx	group	received	anti-IL-12/23,	anti-TNF-α,	and	anti-IL-17A,	respectively. Pts treated with SEC had a higher historical Psoriasis Area and Severity Index (PASI) score (16.5 vs 14.2; p = 0.005), baseline PASI (13.6 vs 12.0; p = 0.001) and Investigator’s Global Assessment score (severe disease [score = 4]: 25.4% vs 20.1%) at enrollment compared to pts on other Tx. Conclusions: Pts with moderate to severe PsO selected for treatment with SEC were more likely to have been previously exposed to  another  biologic,  have  comorbid  PsA  and  had  more  severe skin	disease,	compared	to	pts	treated	with	other	Tx.	A	significant	proportion of PsO pts may have their PsA undiagnosed in routine clinical care. Langley R, et al. NEJM 2014;371:326.Armstrong AW, et al. J Clin Aesthet Dermatol 2016; S12-S16McInnes IB, et al. Lancet 2015;386:1137 Mease PJ, et a</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="inlineStr">
+        <is>
+          <t>Wolf Henning Boehncke</t>
+        </is>
+      </c>
+      <c r="B100" s="2" t="inlineStr">
+        <is>
+          <t>Division of Dermatology and Venereology, Geneva University Hospital, and Department of Pathology and Immunology, University of Geneva, Ge-neva, Switzerland, Department of Dermatology, New York Medical Col-lege at Metropolitan Hospital, New York, NY, Oregon Health &amp; Science University, Portland, OR, Janssen Research &amp; Development, LLC, Spring House, PA, Janssen Research &amp; Development, LLC, San Diego, CA, USAOregon Medical Research Center, Portland, OR, Department of Medicine (Dermatology) UCLA, Los Angeles, CA, USA, Probity Medical Research, Waterloo, ON, Skin Centre for Dermatology, Peterborough, ON, Canada, Sun Pharmaceuticals, Princeton, NJ, Merck &amp; Co., Inc., Kenilworth, NJ, USA, SCIderm Research Institute and Dermatologikum Hamburg, Ham-burg, GermanySpherix Global InsightsSpherix Global InsightsHospital de la Santa Creu i Sant Pau and Universitat Autònoma de Bar-celona Medical School, Barcelona, Spain, Janssen Research &amp; Develop-ment, LLC, Spring House, PA, USA, McMaster University, Hamilton, ON, Canada, University of Melbourne, St. Vincent’s Hospital, Melbourne and Skin &amp; Cancer Foundation Inc., Carlton</t>
+        </is>
+      </c>
+      <c r="C100" s="2" t="inlineStr">
+        <is>
+          <t>Victoria, Australia</t>
+        </is>
+      </c>
+      <c r="D100" s="2" t="inlineStr">
+        <is>
+          <t>P119</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="inlineStr">
+        <is>
+          <t>EFFICACY AND SAFETY RESULTS OF GUSELKUMAB IN PATIENTS WITH ACTIVE PSORIATIC ARTHRITIS OVER 56 WEEKSTILDRAKIZUMAB EFFICACY OVER TIME BY WEEK 28 RESPONSE LEVELS IN TWO PHASE 3 CLINICAL TRIALS IN PATIENTS WITH CHRONIC PLAQUE PSORIASISPOTENTIAL DISCONNECT: CO­MANAGEMENT OF PATIENTS WITH PSORIATIC ARTHRITIS BETWEEN THE USE OF TUMOR NECROSIS FACTOR INHIBITORS (TNF) IN THE SECOND­LINE BIOLOGIC/SMALL MOLECULE SETTING: A CROSS­SPECIALTY COMPARISONIMPACT OF GUSELKUMAB VERSUS PLACEBO AND ADALIMUMAB ON PATIENT REPORTED OUTCOMES IN PATIENTS WITH AND WITHOUT PSORIATIC ARTHRITIS IN VOYAGE 2</t>
+        </is>
+      </c>
+      <c r="F100" s="2" t="inlineStr">
+        <is>
+          <t>Introduction/Objective:To	evaluate	the	efficacy,	safety	&amp;	tolerability of guselkumab (GUS) in patients (pts) w/ PsA.Methods: In this double-blind, PBO-controlled study, pts w/active PsA	&amp;	≥3%	BSA	of	PsO	despite	treatment	were	randomized	2:1	to SC GUS 100mg or PBO at wks0, 4, &amp; q8w thereafter through wk44. At  wk16,  pts  w/ &lt; 5%  improvement  from  baseline  (BL) in swollen &amp; tender joint counts were eligible for early escape (EE) to open-label ustekinumab. At wk24, PBO pts crossed-over to GUS 100mg (PBO to GUS). The primary endpoint was ACR 20 at wk24. Major secondary endpoints were PASI 75 &amp; ACR 50 responses, change from BL in HAQ-DI, &amp; improvement in enthesitis  (Leeds  enthesitis  index  [LEI])  &amp;  dactylitis  score  (by a  0–3  scoring  system)  at  wk24;  &amp; ACR  20  response  at  wk16. Through	wk24,	efficacy	analyses	were	performed	in	a	modified	Intent-to-Treat (mITT) population. Pts who met treatment failure criteria, EE or had missing data at wk24 were considered nonresponders	for	ACR/MDA	endpoints	at	wk24.	Efficacy	post	wk24	was evaluated in pts who did not EE &amp; continued treatment at wk24 based on observed data.Results: Of 149 pts (PBO:49, GUS:100), BL demographics &amp; ACR component measures were generally similar between the 2 groups. 4	PBO	&amp;	9	GUS	pts	were	previously	exposed	to	anti-TNFα	agents.	At	wk24,	significantly	more	GUS	pts	achieved	ACR	20	(58.0%	vs	18.4%, p &lt; 0.001), PASI 75 (78.6% vs 12.5%, p &lt; 0.001), &amp; ACR 50 (34.0% vs 10.2%, p = 0.002) responses vs PBO. At wk24, mean decrease in HAQ-DI score from BL (-0.42 vs. -0.06, p &lt; 0.001), &amp; median percent improvement in enthesitis (100% vs 33.33%, p = 0.009) &amp; dactylitis (100% vs 33.33%, p &lt; 0.001) scores (among pts	w/	BL	enthesitis	and	dactylitis)	were	significantly	greater	in	GUS	group	vs.	PBO.	Significantly	more	GUS	pts	achieved	ACR	20 at wk16 (60.0% vs 16.3%, p &lt; 0.001) and MDA at wk24 (23.0% vs. 2.0%, p = 0.001)	vs.	PBO.	Post	wk24,	efficacy	improved	in	PBO to GUS crossover pts as expected and were well-maintained in GUS pts through wk56.Through wk24, the frequencies of AEs &amp; infections were comparable (AEs: PBO 32.7%; GUS 36.0%; infections: PBO: 20.4%; GUS: 16.0%). Post wk24, there was no disproportional increase in AE frequency or infections among GUS pts w/ longer exposure. Through wk56, there was 1 malignancy (basal cell carcinoma), 6 SAEs (myocardial infarction, osteoarthritis, pupils unequal, radius fracture, pneumonia, ulcerative keratitis), 2 pts discontinued treatment due to AEs, 1 grade 3 neutropenia, &amp; 6 pts were positive for antibodies to GUS. No deaths occurred through wk56.Conclusions: GUS	demonstrated	significant	improvement	on	joint	symptoms, physical function, PsO, enthesitis, dactylitis &amp; quality of	life;	efficacy	was	well-maintained	through	wk56.	GUS	was	well	tolerated in this population after ~1 year of exposure.Data has been previously presented at EULAR 2017 &amp; ACR 2017P12049Introduction: Tildrakizumab	(TIL),	a	humanized,	IgG1/κ	monoclonal	antibody	for	IL-23p19,	recently	demonstrated	its	efficacy	in subjects with chronic plaque psoriasis in two, phase 3 clinical studies1.Objective:In	this	analysis,	we	examined	efficacy	from	baseline	to week 52 among TIL patients achieving various Psoriasis Area and Severity Index (PASI) responses at week 28.Methods:  ReSURFACE  1  (NCT01722331)  and  reSURFACE  2 (NCT01729754) were double-blind, randomized controlled studies in subjects with moderate-to-severe chronic plaque psoriasis. Part 1  (0–12  weeks)  was  placebo  controlled;  Part  2  (12–28  weeks) re-randomized  placebo  patients  to  TIL;  Part  3  (28–64  weeks, reSURFACE 1; 28–52 weeks, reSURFACE 2) re-randomized patients	with	≥PASI	50	to	continue	or	increase	TIL	dose	or	to	placebo	based on their PASI response at week 28. In this post-hoc pooled analysis, patients consistently on TIL 100 mg and 200 mg from baseline	to	week	52	were	classified	in	5	mutually	exclusive	groups	based on their week-28 PASI response: PASI  &lt; 50, PASI 50–74, PASI 75–89, PASI 90–99, and PASI 100. Baseline characteristics and % PASI improvement from baseline up to week 52 (observed data) were examined for each group.Results: This analysis included 575 (TIL 100 mg) and 581 (TIL 200 mg) patients; the proportions of patients with week-28 PASI 75/90/100  responses  were  77%/54%/23%  (TIL  100  mg)  and 78%/58%/29%  (TIL  200  mg). At  week  28,  133  (23.1%),  175 (30.4%), 137 (23.8%), 82 (14.3%), and 48 (8.3%) TIL 100 mg patients and 170 (29.3%), 169 (29.1%), 114 (19.6%), 105 (18.1%), and 23 (4.0%) TIL 200mg achieved PASI 100, PASI 90–99, PASI 75–89,  PASI  50–74,  and  PASI   &lt; 50,  respectively.  On  average, PASI 100 patients were younger, lighter, and had shorter disease duration at baseline compared to other response groups. For TIL 100 mg, % PASI improvement was highest for PASI 100 and least for PASI &lt; 50 patients on all visits up to week 28 (week 4: 53%, 46%, 38%, 30%, and 16%; week 28: 100%, 95%, 83%, 64%, and 33% for PASI 100, PASI 90–99, PASI 75–89, PASI 50–74, and PASI   &lt; 50 categories, respectively). Among patients achieving PASI  &gt; 50 at week 28 and continued up to 52 weeks, % PASI improvement maintained or improved from week 28 to week 52. Similar results were observed for TIL 200 mg as well as a subgroup analysis with bio-naive and bio-experienced patients respectively.Conclusions: The majority of TIL 100 and 200 mg patients achieved PASI &gt; 50 response at week 28, and PASI improvement was maintained from week 28 to week 52. Among patients achieving PASI  &gt; 90 at week 28, TIL 100 and 200 mg were associated with a rapid PASI improvement by week 4.1. Reich K, Papp KA, Blauvelt A, et al. Tildrakizumab versus placebo or  etanercept  for  chronic  plaque  psoriasis  (reSURFACE  1  and  reSURFACE 2): results from two randomised controlled, phase 3 trials. Lancet. 2017;390(10091):276-288.This abstract was presented at 2018 Annual Meeting of American Academy of Dermatology.Note: This abstract was presented at 2018 Annual Meeting of American Academy of Dermatology. P122RHEUMATOLOGISTS AND DERMATOLOGISTSIntroduction: On average, the majority of psoriasis (PSO) patients are diagnosed a year prior to a psoriatic arthritis (PsA) diagnosis, making the referral patterns and co-management between derma50tologists and rheumatologists an important aspect to understanding the management of these diseases. Dermatologists represent an important referral-base for rheumatologists, accounting for over one-quarter of all new PsA patients. However, there are discrepancies between the specialists regarding the timing in which these referrals take place.Objectives: One objective of the study was to gain further insight into rheumatologist and dermatologist co-management of patients with PsA.Methods: An	independent	market	analytics	firm	collaborated	with	US rheumatologists (n = 101) and US dermatologists (n = 101) to conduct analysis of both the PsA and PSO markets. Data were collected	 via	 an	 online	 survey	 fielded	 in	 November/December	2017  and  included  patient  demographics,  as  well  as  physician demographics, and attitudinal survey responses.Results: Rheumatologists indicate that 51 percent of referrals result from primary care physicians, 28 percent result from a dermatologist,  and  13  percent  are  self-referred. The  majority  (73%)  of PsA patients under the care of collaborating rheumatologists had previously been diagnosed with PSO prior to PsA. Dermatologists state that one-quarter of their patients with severe PSO also have PsA, with more than one-third of severe PSO patients also being co-managed with a rheumatologist. The majority of rheumatologists	believe	that	dermatologists	refer	patients	at	the	first	sign	of	joint involvement and do not attempt to treat joint pain; however, 31 percent of dermatologists report they do not refer PSO patients to rheumatologists until patients have failed biologics or are not improving on their current systemic regimen, while an additional 35  percent  report  they  refer  only  severe  arthritis/patients  with worsening disease. Furthermore, only 35 percent of dermatologists agree that they refer their PSO patients to a rheumatologists at the first	sign	of	joint	involvement. At the time of dermatologist referral, rheumatologists state that two-thirds	of	referred	patients	are	biologic/apremilast	naïve,	with	only 6 percent having controlled PSO and joint pain. However, dermatologists state that 40 percent the patients that they referred to rheumatologists were treated with biologics and 15 percent of said  referred  patients  were  treated  with  apremilast.  Indeed,  76 percent of dermatologists agree with the statement, “I believe that the disease (PsA),” while 57 percent of dermatologists agree “I Conclusion: With many patients diagnosed with both PSO and PsA,  co-management  between  dermatologists  and  rheumatologists is common. While rheumatologists appear to be under the impression that they are receiving the majority of dermatologisttreated	patients	with	PsA	at	the	first	sign	of	joint	involvement,	dermatologists largely report that they are managing and treating PsA patients. Furthermore, most dermatologists believe early aggressive use of biologic treatments will mitigate the development and/or progression of joint involvement, implying their willingness to manage their patients with PsA, particularly at early stages. P123TNF  therapy  has  been  the  standard  of  care  for  adult  patients diagnosed with autoimmune conditions, resulting in familiarity, comfort, and satisfaction among physicians. TNFs are typically used	 as	 a	 first-line	 biologic/small	 molecule	 in	 the	 treatment	 of	psoriasis (PSO) and psoriatic arthritis (PsA). However, the adoption of agents with alternate mechanisms of action (AMOA) has increased in recent years across indications and the practice of sequential TNF prescribing after an initial TNF is less common. Though	TNFs	are	still	the	preferred	first-line	agent,	there	are	discrepancies between specialists on the use of AMOA agents in the second-line setting. This research sought to understand the extent to which AMOA agents are prescribed after an initial TNF, and how this varies across PSO and PsA.An	independent	market	analytics	firm	collaborated	with	US	dermatologists (n = 201) and US rheumatologists (n = 200) to conduct a retrospective chart review of patients diagnosed with PSO (n = 950) and PsA (n = 1,008) who had switched from one biologic/apremilast to another agent in the prior 12 weeks. Physicians were able to submit up to 7 patient charts. PSO data was collected in September 2017 and PsA data was collected in April 2017.Analysis  of  patients  recently  switched  from  one  biologic/apremilast to a different brand revealed the majority of patients were treated	with	a	TNF	in	the	first-line	biologic/small	molecule	setting, though this varies by indication. Rheumatologists prescribe first-line	 TNFs	 significantly	 more	 than	 dermatologists.	 83%	 of	PsA	patients	are	prescribed	TNFs	first-line	compared	to	just	69%	of	PSO	patients.	Furthermore,	rheumatologists	are	significantly	more  likely  to  practice  TNF-sequencing  than  dermatologists. Indeed,	44%	of	PsA	patients	treated	with	a	first-line	TNF	were	prescribed a second TNF, compared to 6% of PSO patients. Additionally, certain TNF brands have experienced recent declines in	first	line	use,	though	this	varies	by	indication	as	well.	For	rheumatologists,	use	of	first-line	etanercept	has	declined,	38%	of	PsA	patients were initiated on etanercept at least 24 months prior to the study, compared to just 28% initiated on etanercept within 12 months	of	the	study.	For	dermatologists,	there	were	significantly	more	PSO	patients	initiated	on	etanercept	in	the	first-line	setting	24 months or more prior to the study compared to those initiated within 12 months of the study, (45% vs 31%.) This pattern also held	true	for	adalimumab,	where	42%	of	first-line	PSO	patients	initiated more than 24 months prior to the study were prescribed adalimumab,	a	figure	that	drops	to	just	27%	for	patients	initiated	within 12 months.Though	the	position	of	TNFs	as	first-line	agents	remains	dominant,	the	treating	specialist	and	indication	influence	how	widespread	and	continuous	TNF	use	is.	Specifically,	dermatologists	are	less	likely	to	prescribe	TNFs	as	first-line	agents	and	are	also	significantly	less	likely	to	partake	in	the	sequencing	of	TNFs	in	the	first-	and	second-line  setting  than  rheumatologists.  The  introduction  of several agents in PSO reporting substantially higher rates of skin clearance compared to TNFs could potentially be the source of increased  switching  to AMOAs  compared  to  other  specialties; whereas	 superior	 efficacy	 of	AMOA	 agents	 over	TNFs	 in	 PsA	may be less apparent. P124Introduction/Objective:VOYAGE  2  is  a  phase  3  double-blind, placebo/active comparator-controlled trial comparing guselkumab (GUS) with placebo (PBO) and adalimumab (ADA) in patients (pts) with moderate-to-severe PsO. The impact of treatment on patient-reported outcomes (PROs) was evaluated.Methods: Pts were randomized to GUS 100mg (wks 0 &amp; 4, then q8wks), ADA (80 mg wk 0, 40 mg wk 1, then 40 mg q2 wks), or PBO (wks 0, 4, &amp; 12, then GUS 100 mg wks 16 &amp; 20). We evaluated PROs using the Work Limitations Questionnaire [WLQ; work  productivity],  the  Hospital Anxiety  &amp;  Depression  Scale [HADS], and the Medical Outcomes Study 36-Item Short Form (SF-36; health related quality of life) at wk16 (GUS vs PBO) and wk24 (GUS vs ADA) in pts with and without PsA.Results: In all, 18% of pts reported a history of PsA. At wk16, GUS pts had numerically greater improvements vs PBO in work productivity,  anxiety  and  depression,  and  SF-36  PCS  &amp;  MCS scores regardless of PsA status. The least square (LS) mean differences (95% CI; adjusted for baseline value) for GUS vs PBO for all PROs were generally similar between pts with and without PsA. At wk24, GUS pts had numerically greater improvements vs ADA in all PROs regardless of PsA status. The LS mean differences for GUS vs ADA were generally greater for pts with PsA vs pts without PsA (Table).Conclusions: GUS showed better improvements in all PROs vs PBO at wk16 and vs ADA at wk24. Improvements vs PBO were similar  regardless  of  PsA  status,  while  improvements  vs ADA were greater for pts with PsA.Table: Summary of Change from Baseline in WLQ, HADS and SF-36 Scores from VOYAGE 20.13260.2913p-value0.0249WLQ Time ManagementWLQ MentalInterpersonalWLQ Physical Demandsw/out PSAN, LSMean Diff (95% CI)446, -7.7(-10.56, -4.88)419, -7.0(-10.31, -3.79)439, -4.9(-7.54, -2.35)440, -3.5(-6.11, -0.88)608, -1.6(-2.05, -1.07)608, -1.5 (-1.96, -0.98)Week 16 GUS vs PBOw/ PSAN, LSMean Diff (95% CI)86, -7.1(-13.21, -0.92)85, -6.6(-15.35, 2.06)83, -3.8(-11.03, 3.35)84, -7.9(-14.51, -1.21)135, -1.2(-2.45, 0.04)135, -1.2(-2.55, 0.06)135, 5.7(2.94, 8.43)135, 4.5(1.61, 7.48)N is the sample size across two groups.(3.31, 5.39)607, 4.8 (3.53, 6.15)SF-36 Physical ScoreSF-36 Mental ScoreWLQ Ouput DemandsDepression ScoreAnxiety Score&lt; 0.0001 607, 4.4 0.00260.05840.02110.0611Week 24 GUS vs ADAw/ PSAN, LSMean Diff (95% CI)w/out PSAN, LSMean Diff p(95% CI)value0.7152 445, -2.6pvalue0.0769p-value&lt; 0.0001 79, -1.6 (-10.58, 7.29)0.0002&lt; 0.0001 79, -4.3 (-14.40, 5.81)78, -11.4 (-19.37, -3.34)79, -14.7 (-24.29, -5.17)0.0089&lt; 0.0001 133, -2.1 0.3996 420, -0.60.69310.0061 436, -1.50.25690.0030 437, -1.20.41360.0012 608, -0.80.0025&lt; 0.0001 133, -1.5 0.0374 608, -0.40.1158&lt; 0.0001 132, 2.9&lt; 0.0001 132, 3.2 0.0346 608, 1.0(-0.10, 2.04)0.0591 608, 1.80.07530.0092(-3.33, -0.83)(-2.85, -0.09)(0.21, 5.57)(-0.12, 6.53)(-5.39, 0.28)(-3.46, 2.30)(-4.16, 1.11)(-3.94, 1.62)(-1.29, -0.28)(-0.91, 0.10)(0.45, 3.15)</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="inlineStr">
+        <is>
+          <t>Alice Gottlieb Atul Deodhar</t>
+        </is>
+      </c>
+      <c r="B101" s="2" t="inlineStr">
+        <is>
+          <t>Division of Dermatology and Venereology, Geneva University Hospital, and Department of Pathology and Immunology, University of Geneva, Ge-neva, Switzerland, Department of Dermatology, New York Medical Col-lege at Metropolitan Hospital, New York, NY, Oregon Health &amp; Science University, Portland, OR, Janssen Research &amp; Development, LLC, Spring House, PA, Janssen Research &amp; Development, LLC, San Diego, CA, USAOregon Medical Research Center, Portland, OR, Department of Medicine (Dermatology) UCLA, Los Angeles, CA, USA, Probity Medical Research, Waterloo, ON, Skin Centre for Dermatology, Peterborough, ON, Canada, Sun Pharmaceuticals, Princeton, NJ, Merck &amp; Co., Inc., Kenilworth, NJ, USA, SCIderm Research Institute and Dermatologikum Hamburg, Ham-burg, GermanySpherix Global InsightsSpherix Global InsightsHospital de la Santa Creu i Sant Pau and Universitat Autònoma de Bar-celona Medical School, Barcelona, Spain, Janssen Research &amp; Develop-ment, LLC, Spring House, PA, USA, McMaster University, Hamilton, ON, Canada, University of Melbourne, St. Vincent’s Hospital, Melbourne and Skin &amp; Cancer Foundation Inc., Carlton</t>
+        </is>
+      </c>
+      <c r="C101" s="2" t="inlineStr">
+        <is>
+          <t>Victoria, Australia</t>
+        </is>
+      </c>
+      <c r="D101" s="2" t="inlineStr">
+        <is>
+          <t>P119</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="inlineStr">
+        <is>
+          <t>EFFICACY AND SAFETY RESULTS OF GUSELKUMAB IN PATIENTS WITH ACTIVE PSORIATIC ARTHRITIS OVER 56 WEEKSTILDRAKIZUMAB EFFICACY OVER TIME BY WEEK 28 RESPONSE LEVELS IN TWO PHASE 3 CLINICAL TRIALS IN PATIENTS WITH CHRONIC PLAQUE PSORIASISPOTENTIAL DISCONNECT: CO­MANAGEMENT OF PATIENTS WITH PSORIATIC ARTHRITIS BETWEEN THE USE OF TUMOR NECROSIS FACTOR INHIBITORS (TNF) IN THE SECOND­LINE BIOLOGIC/SMALL MOLECULE SETTING: A CROSS­SPECIALTY COMPARISONIMPACT OF GUSELKUMAB VERSUS PLACEBO AND ADALIMUMAB ON PATIENT REPORTED OUTCOMES IN PATIENTS WITH AND WITHOUT PSORIATIC ARTHRITIS IN VOYAGE 2</t>
+        </is>
+      </c>
+      <c r="F101" s="2" t="inlineStr">
+        <is>
+          <t>Introduction/Objective:To	evaluate	the	efficacy,	safety	&amp;	tolerability of guselkumab (GUS) in patients (pts) w/ PsA.Methods: In this double-blind, PBO-controlled study, pts w/active PsA	&amp;	≥3%	BSA	of	PsO	despite	treatment	were	randomized	2:1	to SC GUS 100mg or PBO at wks0, 4, &amp; q8w thereafter through wk44. At  wk16,  pts  w/ &lt; 5%  improvement  from  baseline  (BL) in swollen &amp; tender joint counts were eligible for early escape (EE) to open-label ustekinumab. At wk24, PBO pts crossed-over to GUS 100mg (PBO to GUS). The primary endpoint was ACR 20 at wk24. Major secondary endpoints were PASI 75 &amp; ACR 50 responses, change from BL in HAQ-DI, &amp; improvement in enthesitis  (Leeds  enthesitis  index  [LEI])  &amp;  dactylitis  score  (by a  0–3  scoring  system)  at  wk24;  &amp; ACR  20  response  at  wk16. Through	wk24,	efficacy	analyses	were	performed	in	a	modified	Intent-to-Treat (mITT) population. Pts who met treatment failure criteria, EE or had missing data at wk24 were considered nonresponders	for	ACR/MDA	endpoints	at	wk24.	Efficacy	post	wk24	was evaluated in pts who did not EE &amp; continued treatment at wk24 based on observed data.Results: Of 149 pts (PBO:49, GUS:100), BL demographics &amp; ACR component measures were generally similar between the 2 groups. 4	PBO	&amp;	9	GUS	pts	were	previously	exposed	to	anti-TNFα	agents.	At	wk24,	significantly	more	GUS	pts	achieved	ACR	20	(58.0%	vs	18.4%, p &lt; 0.001), PASI 75 (78.6% vs 12.5%, p &lt; 0.001), &amp; ACR 50 (34.0% vs 10.2%, p = 0.002) responses vs PBO. At wk24, mean decrease in HAQ-DI score from BL (-0.42 vs. -0.06, p &lt; 0.001), &amp; median percent improvement in enthesitis (100% vs 33.33%, p = 0.009) &amp; dactylitis (100% vs 33.33%, p &lt; 0.001) scores (among pts	w/	BL	enthesitis	and	dactylitis)	were	significantly	greater	in	GUS	group	vs.	PBO.	Significantly	more	GUS	pts	achieved	ACR	20 at wk16 (60.0% vs 16.3%, p &lt; 0.001) and MDA at wk24 (23.0% vs. 2.0%, p = 0.001)	vs.	PBO.	Post	wk24,	efficacy	improved	in	PBO to GUS crossover pts as expected and were well-maintained in GUS pts through wk56.Through wk24, the frequencies of AEs &amp; infections were comparable (AEs: PBO 32.7%; GUS 36.0%; infections: PBO: 20.4%; GUS: 16.0%). Post wk24, there was no disproportional increase in AE frequency or infections among GUS pts w/ longer exposure. Through wk56, there was 1 malignancy (basal cell carcinoma), 6 SAEs (myocardial infarction, osteoarthritis, pupils unequal, radius fracture, pneumonia, ulcerative keratitis), 2 pts discontinued treatment due to AEs, 1 grade 3 neutropenia, &amp; 6 pts were positive for antibodies to GUS. No deaths occurred through wk56.Conclusions: GUS	demonstrated	significant	improvement	on	joint	symptoms, physical function, PsO, enthesitis, dactylitis &amp; quality of	life;	efficacy	was	well-maintained	through	wk56.	GUS	was	well	tolerated in this population after ~1 year of exposure.Data has been previously presented at EULAR 2017 &amp; ACR 2017P12049Introduction: Tildrakizumab	(TIL),	a	humanized,	IgG1/κ	monoclonal	antibody	for	IL-23p19,	recently	demonstrated	its	efficacy	in subjects with chronic plaque psoriasis in two, phase 3 clinical studies1.Objective:In	this	analysis,	we	examined	efficacy	from	baseline	to week 52 among TIL patients achieving various Psoriasis Area and Severity Index (PASI) responses at week 28.Methods:  ReSURFACE  1  (NCT01722331)  and  reSURFACE  2 (NCT01729754) were double-blind, randomized controlled studies in subjects with moderate-to-severe chronic plaque psoriasis. Part 1  (0–12  weeks)  was  placebo  controlled;  Part  2  (12–28  weeks) re-randomized  placebo  patients  to  TIL;  Part  3  (28–64  weeks, reSURFACE 1; 28–52 weeks, reSURFACE 2) re-randomized patients	with	≥PASI	50	to	continue	or	increase	TIL	dose	or	to	placebo	based on their PASI response at week 28. In this post-hoc pooled analysis, patients consistently on TIL 100 mg and 200 mg from baseline	to	week	52	were	classified	in	5	mutually	exclusive	groups	based on their week-28 PASI response: PASI  &lt; 50, PASI 50–74, PASI 75–89, PASI 90–99, and PASI 100. Baseline characteristics and % PASI improvement from baseline up to week 52 (observed data) were examined for each group.Results: This analysis included 575 (TIL 100 mg) and 581 (TIL 200 mg) patients; the proportions of patients with week-28 PASI 75/90/100  responses  were  77%/54%/23%  (TIL  100  mg)  and 78%/58%/29%  (TIL  200  mg). At  week  28,  133  (23.1%),  175 (30.4%), 137 (23.8%), 82 (14.3%), and 48 (8.3%) TIL 100 mg patients and 170 (29.3%), 169 (29.1%), 114 (19.6%), 105 (18.1%), and 23 (4.0%) TIL 200mg achieved PASI 100, PASI 90–99, PASI 75–89,  PASI  50–74,  and  PASI   &lt; 50,  respectively.  On  average, PASI 100 patients were younger, lighter, and had shorter disease duration at baseline compared to other response groups. For TIL 100 mg, % PASI improvement was highest for PASI 100 and least for PASI &lt; 50 patients on all visits up to week 28 (week 4: 53%, 46%, 38%, 30%, and 16%; week 28: 100%, 95%, 83%, 64%, and 33% for PASI 100, PASI 90–99, PASI 75–89, PASI 50–74, and PASI   &lt; 50 categories, respectively). Among patients achieving PASI  &gt; 50 at week 28 and continued up to 52 weeks, % PASI improvement maintained or improved from week 28 to week 52. Similar results were observed for TIL 200 mg as well as a subgroup analysis with bio-naive and bio-experienced patients respectively.Conclusions: The majority of TIL 100 and 200 mg patients achieved PASI &gt; 50 response at week 28, and PASI improvement was maintained from week 28 to week 52. Among patients achieving PASI  &gt; 90 at week 28, TIL 100 and 200 mg were associated with a rapid PASI improvement by week 4.1. Reich K, Papp KA, Blauvelt A, et al. Tildrakizumab versus placebo or  etanercept  for  chronic  plaque  psoriasis  (reSURFACE  1  and  reSURFACE 2): results from two randomised controlled, phase 3 trials. Lancet. 2017;390(10091):276-288.This abstract was presented at 2018 Annual Meeting of American Academy of Dermatology.Note: This abstract was presented at 2018 Annual Meeting of American Academy of Dermatology. P122RHEUMATOLOGISTS AND DERMATOLOGISTSIntroduction: On average, the majority of psoriasis (PSO) patients are diagnosed a year prior to a psoriatic arthritis (PsA) diagnosis, making the referral patterns and co-management between derma50tologists and rheumatologists an important aspect to understanding the management of these diseases. Dermatologists represent an important referral-base for rheumatologists, accounting for over one-quarter of all new PsA patients. However, there are discrepancies between the specialists regarding the timing in which these referrals take place.Objectives: One objective of the study was to gain further insight into rheumatologist and dermatologist co-management of patients with PsA.Methods: An	independent	market	analytics	firm	collaborated	with	US rheumatologists (n = 101) and US dermatologists (n = 101) to conduct analysis of both the PsA and PSO markets. Data were collected	 via	 an	 online	 survey	 fielded	 in	 November/December	2017  and  included  patient  demographics,  as  well  as  physician demographics, and attitudinal survey responses.Results: Rheumatologists indicate that 51 percent of referrals result from primary care physicians, 28 percent result from a dermatologist,  and  13  percent  are  self-referred. The  majority  (73%)  of PsA patients under the care of collaborating rheumatologists had previously been diagnosed with PSO prior to PsA. Dermatologists state that one-quarter of their patients with severe PSO also have PsA, with more than one-third of severe PSO patients also being co-managed with a rheumatologist. The majority of rheumatologists	believe	that	dermatologists	refer	patients	at	the	first	sign	of	joint involvement and do not attempt to treat joint pain; however, 31 percent of dermatologists report they do not refer PSO patients to rheumatologists until patients have failed biologics or are not improving on their current systemic regimen, while an additional 35  percent  report  they  refer  only  severe  arthritis/patients  with worsening disease. Furthermore, only 35 percent of dermatologists agree that they refer their PSO patients to a rheumatologists at the first	sign	of	joint	involvement. At the time of dermatologist referral, rheumatologists state that two-thirds	of	referred	patients	are	biologic/apremilast	naïve,	with	only 6 percent having controlled PSO and joint pain. However, dermatologists state that 40 percent the patients that they referred to rheumatologists were treated with biologics and 15 percent of said  referred  patients  were  treated  with  apremilast.  Indeed,  76 percent of dermatologists agree with the statement, “I believe that the disease (PsA),” while 57 percent of dermatologists agree “I Conclusion: With many patients diagnosed with both PSO and PsA,  co-management  between  dermatologists  and  rheumatologists is common. While rheumatologists appear to be under the impression that they are receiving the majority of dermatologisttreated	patients	with	PsA	at	the	first	sign	of	joint	involvement,	dermatologists largely report that they are managing and treating PsA patients. Furthermore, most dermatologists believe early aggressive use of biologic treatments will mitigate the development and/or progression of joint involvement, implying their willingness to manage their patients with PsA, particularly at early stages. P123TNF  therapy  has  been  the  standard  of  care  for  adult  patients diagnosed with autoimmune conditions, resulting in familiarity, comfort, and satisfaction among physicians. TNFs are typically used	 as	 a	 first-line	 biologic/small	 molecule	 in	 the	 treatment	 of	psoriasis (PSO) and psoriatic arthritis (PsA). However, the adoption of agents with alternate mechanisms of action (AMOA) has increased in recent years across indications and the practice of sequential TNF prescribing after an initial TNF is less common. Though	TNFs	are	still	the	preferred	first-line	agent,	there	are	discrepancies between specialists on the use of AMOA agents in the second-line setting. This research sought to understand the extent to which AMOA agents are prescribed after an initial TNF, and how this varies across PSO and PsA.An	independent	market	analytics	firm	collaborated	with	US	dermatologists (n = 201) and US rheumatologists (n = 200) to conduct a retrospective chart review of patients diagnosed with PSO (n = 950) and PsA (n = 1,008) who had switched from one biologic/apremilast to another agent in the prior 12 weeks. Physicians were able to submit up to 7 patient charts. PSO data was collected in September 2017 and PsA data was collected in April 2017.Analysis  of  patients  recently  switched  from  one  biologic/apremilast to a different brand revealed the majority of patients were treated	with	a	TNF	in	the	first-line	biologic/small	molecule	setting, though this varies by indication. Rheumatologists prescribe first-line	 TNFs	 significantly	 more	 than	 dermatologists.	 83%	 of	PsA	patients	are	prescribed	TNFs	first-line	compared	to	just	69%	of	PSO	patients.	Furthermore,	rheumatologists	are	significantly	more  likely  to  practice  TNF-sequencing  than  dermatologists. Indeed,	44%	of	PsA	patients	treated	with	a	first-line	TNF	were	prescribed a second TNF, compared to 6% of PSO patients. Additionally, certain TNF brands have experienced recent declines in	first	line	use,	though	this	varies	by	indication	as	well.	For	rheumatologists,	use	of	first-line	etanercept	has	declined,	38%	of	PsA	patients were initiated on etanercept at least 24 months prior to the study, compared to just 28% initiated on etanercept within 12 months	of	the	study.	For	dermatologists,	there	were	significantly	more	PSO	patients	initiated	on	etanercept	in	the	first-line	setting	24 months or more prior to the study compared to those initiated within 12 months of the study, (45% vs 31%.) This pattern also held	true	for	adalimumab,	where	42%	of	first-line	PSO	patients	initiated more than 24 months prior to the study were prescribed adalimumab,	a	figure	that	drops	to	just	27%	for	patients	initiated	within 12 months.Though	the	position	of	TNFs	as	first-line	agents	remains	dominant,	the	treating	specialist	and	indication	influence	how	widespread	and	continuous	TNF	use	is.	Specifically,	dermatologists	are	less	likely	to	prescribe	TNFs	as	first-line	agents	and	are	also	significantly	less	likely	to	partake	in	the	sequencing	of	TNFs	in	the	first-	and	second-line  setting  than  rheumatologists.  The  introduction  of several agents in PSO reporting substantially higher rates of skin clearance compared to TNFs could potentially be the source of increased  switching  to AMOAs  compared  to  other  specialties; whereas	 superior	 efficacy	 of	AMOA	 agents	 over	TNFs	 in	 PsA	may be less apparent. P124Introduction/Objective:VOYAGE  2  is  a  phase  3  double-blind, placebo/active comparator-controlled trial comparing guselkumab (GUS) with placebo (PBO) and adalimumab (ADA) in patients (pts) with moderate-to-severe PsO. The impact of treatment on patient-reported outcomes (PROs) was evaluated.Methods: Pts were randomized to GUS 100mg (wks 0 &amp; 4, then q8wks), ADA (80 mg wk 0, 40 mg wk 1, then 40 mg q2 wks), or PBO (wks 0, 4, &amp; 12, then GUS 100 mg wks 16 &amp; 20). We evaluated PROs using the Work Limitations Questionnaire [WLQ; work  productivity],  the  Hospital Anxiety  &amp;  Depression  Scale [HADS], and the Medical Outcomes Study 36-Item Short Form (SF-36; health related quality of life) at wk16 (GUS vs PBO) and wk24 (GUS vs ADA) in pts with and without PsA.Results: In all, 18% of pts reported a history of PsA. At wk16, GUS pts had numerically greater improvements vs PBO in work productivity,  anxiety  and  depression,  and  SF-36  PCS  &amp;  MCS scores regardless of PsA status. The least square (LS) mean differences (95% CI; adjusted for baseline value) for GUS vs PBO for all PROs were generally similar between pts with and without PsA. At wk24, GUS pts had numerically greater improvements vs ADA in all PROs regardless of PsA status. The LS mean differences for GUS vs ADA were generally greater for pts with PsA vs pts without PsA (Table).Conclusions: GUS showed better improvements in all PROs vs PBO at wk16 and vs ADA at wk24. Improvements vs PBO were similar  regardless  of  PsA  status,  while  improvements  vs ADA were greater for pts with PsA.Table: Summary of Change from Baseline in WLQ, HADS and SF-36 Scores from VOYAGE 20.13260.2913p-value0.0249WLQ Time ManagementWLQ MentalInterpersonalWLQ Physical Demandsw/out PSAN, LSMean Diff (95% CI)446, -7.7(-10.56, -4.88)419, -7.0(-10.31, -3.79)439, -4.9(-7.54, -2.35)440, -3.5(-6.11, -0.88)608, -1.6(-2.05, -1.07)608, -1.5 (-1.96, -0.98)Week 16 GUS vs PBOw/ PSAN, LSMean Diff (95% CI)86, -7.1(-13.21, -0.92)85, -6.6(-15.35, 2.06)83, -3.8(-11.03, 3.35)84, -7.9(-14.51, -1.21)135, -1.2(-2.45, 0.04)135, -1.2(-2.55, 0.06)135, 5.7(2.94, 8.43)135, 4.5(1.61, 7.48)N is the sample size across two groups.(3.31, 5.39)607, 4.8 (3.53, 6.15)SF-36 Physical ScoreSF-36 Mental ScoreWLQ Ouput DemandsDepression ScoreAnxiety Score&lt; 0.0001 607, 4.4 0.00260.05840.02110.0611Week 24 GUS vs ADAw/ PSAN, LSMean Diff (95% CI)w/out PSAN, LSMean Diff p(95% CI)value0.7152 445, -2.6pvalue0.0769p-value&lt; 0.0001 79, -1.6 (-10.58, 7.29)0.0002&lt; 0.0001 79, -4.3 (-14.40, 5.81)78, -11.4 (-19.37, -3.34)79, -14.7 (-24.29, -5.17)0.0089&lt; 0.0001 133, -2.1 0.3996 420, -0.60.69310.0061 436, -1.50.25690.0030 437, -1.20.41360.0012 608, -0.80.0025&lt; 0.0001 133, -1.5 0.0374 608, -0.40.1158&lt; 0.0001 132, 2.9&lt; 0.0001 132, 3.2 0.0346 608, 1.0(-0.10, 2.04)0.0591 608, 1.80.07530.0092(-3.33, -0.83)(-2.85, -0.09)(0.21, 5.57)(-0.12, 6.53)(-5.39, 0.28)(-3.46, 2.30)(-4.16, 1.11)(-3.94, 1.62)(-1.29, -0.28)(-0.91, 0.10)(0.45, 3.15)</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="inlineStr">
+        <is>
+          <t>Bin Dong</t>
+        </is>
+      </c>
+      <c r="B102" s="2" t="inlineStr">
+        <is>
+          <t>Division of Dermatology and Venereology, Geneva University Hospital, and Department of Pathology and Immunology, University of Geneva, Ge-neva, Switzerland, Department of Dermatology, New York Medical Col-lege at Metropolitan Hospital, New York, NY, Oregon Health &amp; Science University, Portland, OR, Janssen Research &amp; Development, LLC, Spring House, PA, Janssen Research &amp; Development, LLC, San Diego, CA, USAOregon Medical Research Center, Portland, OR, Department of Medicine (Dermatology) UCLA, Los Angeles, CA, USA, Probity Medical Research, Waterloo, ON, Skin Centre for Dermatology, Peterborough, ON, Canada, Sun Pharmaceuticals, Princeton, NJ, Merck &amp; Co., Inc., Kenilworth, NJ, USA, SCIderm Research Institute and Dermatologikum Hamburg, Ham-burg, GermanySpherix Global InsightsSpherix Global InsightsHospital de la Santa Creu i Sant Pau and Universitat Autònoma de Bar-celona Medical School, Barcelona, Spain, Janssen Research &amp; Develop-ment, LLC, Spring House, PA, USA, McMaster University, Hamilton, ON, Canada, University of Melbourne, St. Vincent’s Hospital, Melbourne and Skin &amp; Cancer Foundation Inc., Carlton</t>
+        </is>
+      </c>
+      <c r="C102" s="2" t="inlineStr">
+        <is>
+          <t>Victoria, Australia</t>
+        </is>
+      </c>
+      <c r="D102" s="2" t="inlineStr">
+        <is>
+          <t>P119</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="inlineStr">
+        <is>
+          <t>EFFICACY AND SAFETY RESULTS OF GUSELKUMAB IN PATIENTS WITH ACTIVE PSORIATIC ARTHRITIS OVER 56 WEEKSTILDRAKIZUMAB EFFICACY OVER TIME BY WEEK 28 RESPONSE LEVELS IN TWO PHASE 3 CLINICAL TRIALS IN PATIENTS WITH CHRONIC PLAQUE PSORIASISPOTENTIAL DISCONNECT: CO­MANAGEMENT OF PATIENTS WITH PSORIATIC ARTHRITIS BETWEEN THE USE OF TUMOR NECROSIS FACTOR INHIBITORS (TNF) IN THE SECOND­LINE BIOLOGIC/SMALL MOLECULE SETTING: A CROSS­SPECIALTY COMPARISONIMPACT OF GUSELKUMAB VERSUS PLACEBO AND ADALIMUMAB ON PATIENT REPORTED OUTCOMES IN PATIENTS WITH AND WITHOUT PSORIATIC ARTHRITIS IN VOYAGE 2</t>
+        </is>
+      </c>
+      <c r="F102" s="2" t="inlineStr">
+        <is>
+          <t>Introduction/Objective:To	evaluate	the	efficacy,	safety	&amp;	tolerability of guselkumab (GUS) in patients (pts) w/ PsA.Methods: In this double-blind, PBO-controlled study, pts w/active PsA	&amp;	≥3%	BSA	of	PsO	despite	treatment	were	randomized	2:1	to SC GUS 100mg or PBO at wks0, 4, &amp; q8w thereafter through wk44. At  wk16,  pts  w/ &lt; 5%  improvement  from  baseline  (BL) in swollen &amp; tender joint counts were eligible for early escape (EE) to open-label ustekinumab. At wk24, PBO pts crossed-over to GUS 100mg (PBO to GUS). The primary endpoint was ACR 20 at wk24. Major secondary endpoints were PASI 75 &amp; ACR 50 responses, change from BL in HAQ-DI, &amp; improvement in enthesitis  (Leeds  enthesitis  index  [LEI])  &amp;  dactylitis  score  (by a  0–3  scoring  system)  at  wk24;  &amp; ACR  20  response  at  wk16. Through	wk24,	efficacy	analyses	were	performed	in	a	modified	Intent-to-Treat (mITT) population. Pts who met treatment failure criteria, EE or had missing data at wk24 were considered nonresponders	for	ACR/MDA	endpoints	at	wk24.	Efficacy	post	wk24	was evaluated in pts who did not EE &amp; continued treatment at wk24 based on observed data.Results: Of 149 pts (PBO:49, GUS:100), BL demographics &amp; ACR component measures were generally similar between the 2 groups. 4	PBO	&amp;	9	GUS	pts	were	previously	exposed	to	anti-TNFα	agents.	At	wk24,	significantly	more	GUS	pts	achieved	ACR	20	(58.0%	vs	18.4%, p &lt; 0.001), PASI 75 (78.6% vs 12.5%, p &lt; 0.001), &amp; ACR 50 (34.0% vs 10.2%, p = 0.002) responses vs PBO. At wk24, mean decrease in HAQ-DI score from BL (-0.42 vs. -0.06, p &lt; 0.001), &amp; median percent improvement in enthesitis (100% vs 33.33%, p = 0.009) &amp; dactylitis (100% vs 33.33%, p &lt; 0.001) scores (among pts	w/	BL	enthesitis	and	dactylitis)	were	significantly	greater	in	GUS	group	vs.	PBO.	Significantly	more	GUS	pts	achieved	ACR	20 at wk16 (60.0% vs 16.3%, p &lt; 0.001) and MDA at wk24 (23.0% vs. 2.0%, p = 0.001)	vs.	PBO.	Post	wk24,	efficacy	improved	in	PBO to GUS crossover pts as expected and were well-maintained in GUS pts through wk56.Through wk24, the frequencies of AEs &amp; infections were comparable (AEs: PBO 32.7%; GUS 36.0%; infections: PBO: 20.4%; GUS: 16.0%). Post wk24, there was no disproportional increase in AE frequency or infections among GUS pts w/ longer exposure. Through wk56, there was 1 malignancy (basal cell carcinoma), 6 SAEs (myocardial infarction, osteoarthritis, pupils unequal, radius fracture, pneumonia, ulcerative keratitis), 2 pts discontinued treatment due to AEs, 1 grade 3 neutropenia, &amp; 6 pts were positive for antibodies to GUS. No deaths occurred through wk56.Conclusions: GUS	demonstrated	significant	improvement	on	joint	symptoms, physical function, PsO, enthesitis, dactylitis &amp; quality of	life;	efficacy	was	well-maintained	through	wk56.	GUS	was	well	tolerated in this population after ~1 year of exposure.Data has been previously presented at EULAR 2017 &amp; ACR 2017P12049Introduction: Tildrakizumab	(TIL),	a	humanized,	IgG1/κ	monoclonal	antibody	for	IL-23p19,	recently	demonstrated	its	efficacy	in subjects with chronic plaque psoriasis in two, phase 3 clinical studies1.Objective:In	this	analysis,	we	examined	efficacy	from	baseline	to week 52 among TIL patients achieving various Psoriasis Area and Severity Index (PASI) responses at week 28.Methods:  ReSURFACE  1  (NCT01722331)  and  reSURFACE  2 (NCT01729754) were double-blind, randomized controlled studies in subjects with moderate-to-severe chronic plaque psoriasis. Part 1  (0–12  weeks)  was  placebo  controlled;  Part  2  (12–28  weeks) re-randomized  placebo  patients  to  TIL;  Part  3  (28–64  weeks, reSURFACE 1; 28–52 weeks, reSURFACE 2) re-randomized patients	with	≥PASI	50	to	continue	or	increase	TIL	dose	or	to	placebo	based on their PASI response at week 28. In this post-hoc pooled analysis, patients consistently on TIL 100 mg and 200 mg from baseline	to	week	52	were	classified	in	5	mutually	exclusive	groups	based on their week-28 PASI response: PASI  &lt; 50, PASI 50–74, PASI 75–89, PASI 90–99, and PASI 100. Baseline characteristics and % PASI improvement from baseline up to week 52 (observed data) were examined for each group.Results: This analysis included 575 (TIL 100 mg) and 581 (TIL 200 mg) patients; the proportions of patients with week-28 PASI 75/90/100  responses  were  77%/54%/23%  (TIL  100  mg)  and 78%/58%/29%  (TIL  200  mg). At  week  28,  133  (23.1%),  175 (30.4%), 137 (23.8%), 82 (14.3%), and 48 (8.3%) TIL 100 mg patients and 170 (29.3%), 169 (29.1%), 114 (19.6%), 105 (18.1%), and 23 (4.0%) TIL 200mg achieved PASI 100, PASI 90–99, PASI 75–89,  PASI  50–74,  and  PASI   &lt; 50,  respectively.  On  average, PASI 100 patients were younger, lighter, and had shorter disease duration at baseline compared to other response groups. For TIL 100 mg, % PASI improvement was highest for PASI 100 and least for PASI &lt; 50 patients on all visits up to week 28 (week 4: 53%, 46%, 38%, 30%, and 16%; week 28: 100%, 95%, 83%, 64%, and 33% for PASI 100, PASI 90–99, PASI 75–89, PASI 50–74, and PASI   &lt; 50 categories, respectively). Among patients achieving PASI  &gt; 50 at week 28 and continued up to 52 weeks, % PASI improvement maintained or improved from week 28 to week 52. Similar results were observed for TIL 200 mg as well as a subgroup analysis with bio-naive and bio-experienced patients respectively.Conclusions: The majority of TIL 100 and 200 mg patients achieved PASI &gt; 50 response at week 28, and PASI improvement was maintained from week 28 to week 52. Among patients achieving PASI  &gt; 90 at week 28, TIL 100 and 200 mg were associated with a rapid PASI improvement by week 4.1. Reich K, Papp KA, Blauvelt A, et al. Tildrakizumab versus placebo or  etanercept  for  chronic  plaque  psoriasis  (reSURFACE  1  and  reSURFACE 2): results from two randomised controlled, phase 3 trials. Lancet. 2017;390(10091):276-288.This abstract was presented at 2018 Annual Meeting of American Academy of Dermatology.Note: This abstract was presented at 2018 Annual Meeting of American Academy of Dermatology. P122RHEUMATOLOGISTS AND DERMATOLOGISTSIntroduction: On average, the majority of psoriasis (PSO) patients are diagnosed a year prior to a psoriatic arthritis (PsA) diagnosis, making the referral patterns and co-management between derma50tologists and rheumatologists an important aspect to understanding the management of these diseases. Dermatologists represent an important referral-base for rheumatologists, accounting for over one-quarter of all new PsA patients. However, there are discrepancies between the specialists regarding the timing in which these referrals take place.Objectives: One objective of the study was to gain further insight into rheumatologist and dermatologist co-management of patients with PsA.Methods: An	independent	market	analytics	firm	collaborated	with	US rheumatologists (n = 101) and US dermatologists (n = 101) to conduct analysis of both the PsA and PSO markets. Data were collected	 via	 an	 online	 survey	 fielded	 in	 November/December	2017  and  included  patient  demographics,  as  well  as  physician demographics, and attitudinal survey responses.Results: Rheumatologists indicate that 51 percent of referrals result from primary care physicians, 28 percent result from a dermatologist,  and  13  percent  are  self-referred. The  majority  (73%)  of PsA patients under the care of collaborating rheumatologists had previously been diagnosed with PSO prior to PsA. Dermatologists state that one-quarter of their patients with severe PSO also have PsA, with more than one-third of severe PSO patients also being co-managed with a rheumatologist. The majority of rheumatologists	believe	that	dermatologists	refer	patients	at	the	first	sign	of	joint involvement and do not attempt to treat joint pain; however, 31 percent of dermatologists report they do not refer PSO patients to rheumatologists until patients have failed biologics or are not improving on their current systemic regimen, while an additional 35  percent  report  they  refer  only  severe  arthritis/patients  with worsening disease. Furthermore, only 35 percent of dermatologists agree that they refer their PSO patients to a rheumatologists at the first	sign	of	joint	involvement. At the time of dermatologist referral, rheumatologists state that two-thirds	of	referred	patients	are	biologic/apremilast	naïve,	with	only 6 percent having controlled PSO and joint pain. However, dermatologists state that 40 percent the patients that they referred to rheumatologists were treated with biologics and 15 percent of said  referred  patients  were  treated  with  apremilast.  Indeed,  76 percent of dermatologists agree with the statement, “I believe that the disease (PsA),” while 57 percent of dermatologists agree “I Conclusion: With many patients diagnosed with both PSO and PsA,  co-management  between  dermatologists  and  rheumatologists is common. While rheumatologists appear to be under the impression that they are receiving the majority of dermatologisttreated	patients	with	PsA	at	the	first	sign	of	joint	involvement,	dermatologists largely report that they are managing and treating PsA patients. Furthermore, most dermatologists believe early aggressive use of biologic treatments will mitigate the development and/or progression of joint involvement, implying their willingness to manage their patients with PsA, particularly at early stages. P123TNF  therapy  has  been  the  standard  of  care  for  adult  patients diagnosed with autoimmune conditions, resulting in familiarity, comfort, and satisfaction among physicians. TNFs are typically used	 as	 a	 first-line	 biologic/small	 molecule	 in	 the	 treatment	 of	psoriasis (PSO) and psoriatic arthritis (PsA). However, the adoption of agents with alternate mechanisms of action (AMOA) has increased in recent years across indications and the practice of sequential TNF prescribing after an initial TNF is less common. Though	TNFs	are	still	the	preferred	first-line	agent,	there	are	discrepancies between specialists on the use of AMOA agents in the second-line setting. This research sought to understand the extent to which AMOA agents are prescribed after an initial TNF, and how this varies across PSO and PsA.An	independent	market	analytics	firm	collaborated	with	US	dermatologists (n = 201) and US rheumatologists (n = 200) to conduct a retrospective chart review of patients diagnosed with PSO (n = 950) and PsA (n = 1,008) who had switched from one biologic/apremilast to another agent in the prior 12 weeks. Physicians were able to submit up to 7 patient charts. PSO data was collected in September 2017 and PsA data was collected in April 2017.Analysis  of  patients  recently  switched  from  one  biologic/apremilast to a different brand revealed the majority of patients were treated	with	a	TNF	in	the	first-line	biologic/small	molecule	setting, though this varies by indication. Rheumatologists prescribe first-line	 TNFs	 significantly	 more	 than	 dermatologists.	 83%	 of	PsA	patients	are	prescribed	TNFs	first-line	compared	to	just	69%	of	PSO	patients.	Furthermore,	rheumatologists	are	significantly	more  likely  to  practice  TNF-sequencing  than  dermatologists. Indeed,	44%	of	PsA	patients	treated	with	a	first-line	TNF	were	prescribed a second TNF, compared to 6% of PSO patients. Additionally, certain TNF brands have experienced recent declines in	first	line	use,	though	this	varies	by	indication	as	well.	For	rheumatologists,	use	of	first-line	etanercept	has	declined,	38%	of	PsA	patients were initiated on etanercept at least 24 months prior to the study, compared to just 28% initiated on etanercept within 12 months	of	the	study.	For	dermatologists,	there	were	significantly	more	PSO	patients	initiated	on	etanercept	in	the	first-line	setting	24 months or more prior to the study compared to those initiated within 12 months of the study, (45% vs 31%.) This pattern also held	true	for	adalimumab,	where	42%	of	first-line	PSO	patients	initiated more than 24 months prior to the study were prescribed adalimumab,	a	figure	that	drops	to	just	27%	for	patients	initiated	within 12 months.Though	the	position	of	TNFs	as	first-line	agents	remains	dominant,	the	treating	specialist	and	indication	influence	how	widespread	and	continuous	TNF	use	is.	Specifically,	dermatologists	are	less	likely	to	prescribe	TNFs	as	first-line	agents	and	are	also	significantly	less	likely	to	partake	in	the	sequencing	of	TNFs	in	the	first-	and	second-line  setting  than  rheumatologists.  The  introduction  of several agents in PSO reporting substantially higher rates of skin clearance compared to TNFs could potentially be the source of increased  switching  to AMOAs  compared  to  other  specialties; whereas	 superior	 efficacy	 of	AMOA	 agents	 over	TNFs	 in	 PsA	may be less apparent. P124Introduction/Objective:VOYAGE  2  is  a  phase  3  double-blind, placebo/active comparator-controlled trial comparing guselkumab (GUS) with placebo (PBO) and adalimumab (ADA) in patients (pts) with moderate-to-severe PsO. The impact of treatment on patient-reported outcomes (PROs) was evaluated.Methods: Pts were randomized to GUS 100mg (wks 0 &amp; 4, then q8wks), ADA (80 mg wk 0, 40 mg wk 1, then 40 mg q2 wks), or PBO (wks 0, 4, &amp; 12, then GUS 100 mg wks 16 &amp; 20). We evaluated PROs using the Work Limitations Questionnaire [WLQ; work  productivity],  the  Hospital Anxiety  &amp;  Depression  Scale [HADS], and the Medical Outcomes Study 36-Item Short Form (SF-36; health related quality of life) at wk16 (GUS vs PBO) and wk24 (GUS vs ADA) in pts with and without PsA.Results: In all, 18% of pts reported a history of PsA. At wk16, GUS pts had numerically greater improvements vs PBO in work productivity,  anxiety  and  depression,  and  SF-36  PCS  &amp;  MCS scores regardless of PsA status. The least square (LS) mean differences (95% CI; adjusted for baseline value) for GUS vs PBO for all PROs were generally similar between pts with and without PsA. At wk24, GUS pts had numerically greater improvements vs ADA in all PROs regardless of PsA status. The LS mean differences for GUS vs ADA were generally greater for pts with PsA vs pts without PsA (Table).Conclusions: GUS showed better improvements in all PROs vs PBO at wk16 and vs ADA at wk24. Improvements vs PBO were similar  regardless  of  PsA  status,  while  improvements  vs ADA were greater for pts with PsA.Table: Summary of Change from Baseline in WLQ, HADS and SF-36 Scores from VOYAGE 20.13260.2913p-value0.0249WLQ Time ManagementWLQ MentalInterpersonalWLQ Physical Demandsw/out PSAN, LSMean Diff (95% CI)446, -7.7(-10.56, -4.88)419, -7.0(-10.31, -3.79)439, -4.9(-7.54, -2.35)440, -3.5(-6.11, -0.88)608, -1.6(-2.05, -1.07)608, -1.5 (-1.96, -0.98)Week 16 GUS vs PBOw/ PSAN, LSMean Diff (95% CI)86, -7.1(-13.21, -0.92)85, -6.6(-15.35, 2.06)83, -3.8(-11.03, 3.35)84, -7.9(-14.51, -1.21)135, -1.2(-2.45, 0.04)135, -1.2(-2.55, 0.06)135, 5.7(2.94, 8.43)135, 4.5(1.61, 7.48)N is the sample size across two groups.(3.31, 5.39)607, 4.8 (3.53, 6.15)SF-36 Physical ScoreSF-36 Mental ScoreWLQ Ouput DemandsDepression ScoreAnxiety Score&lt; 0.0001 607, 4.4 0.00260.05840.02110.0611Week 24 GUS vs ADAw/ PSAN, LSMean Diff (95% CI)w/out PSAN, LSMean Diff p(95% CI)value0.7152 445, -2.6pvalue0.0769p-value&lt; 0.0001 79, -1.6 (-10.58, 7.29)0.0002&lt; 0.0001 79, -4.3 (-14.40, 5.81)78, -11.4 (-19.37, -3.34)79, -14.7 (-24.29, -5.17)0.0089&lt; 0.0001 133, -2.1 0.3996 420, -0.60.69310.0061 436, -1.50.25690.0030 437, -1.20.41360.0012 608, -0.80.0025&lt; 0.0001 133, -1.5 0.0374 608, -0.40.1158&lt; 0.0001 132, 2.9&lt; 0.0001 132, 3.2 0.0346 608, 1.0(-0.10, 2.04)0.0591 608, 1.80.07530.0092(-3.33, -0.83)(-2.85, -0.09)(0.21, 5.57)(-0.12, 6.53)(-5.39, 0.28)(-3.46, 2.30)(-4.16, 1.11)(-3.94, 1.62)(-1.29, -0.28)(-0.91, 0.10)(0.45, 3.15)</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="inlineStr">
+        <is>
+          <t>Yuhua Wang</t>
+        </is>
+      </c>
+      <c r="B103" s="2" t="inlineStr">
+        <is>
+          <t>Division of Dermatology and Venereology, Geneva University Hospital, and Department of Pathology and Immunology, University of Geneva, Ge-neva, Switzerland, Department of Dermatology, New York Medical Col-lege at Metropolitan Hospital, New York, NY, Oregon Health &amp; Science University, Portland, OR, Janssen Research &amp; Development, LLC, Spring House, PA, Janssen Research &amp; Development, LLC, San Diego, CA, USAOregon Medical Research Center, Portland, OR, Department of Medicine (Dermatology) UCLA, Los Angeles, CA, USA, Probity Medical Research, Waterloo, ON, Skin Centre for Dermatology, Peterborough, ON, Canada, Sun Pharmaceuticals, Princeton, NJ, Merck &amp; Co., Inc., Kenilworth, NJ, USA, SCIderm Research Institute and Dermatologikum Hamburg, Ham-burg, GermanySpherix Global InsightsSpherix Global InsightsHospital de la Santa Creu i Sant Pau and Universitat Autònoma de Bar-celona Medical School, Barcelona, Spain, Janssen Research &amp; Develop-ment, LLC, Spring House, PA, USA, McMaster University, Hamilton, ON, Canada, University of Melbourne, St. Vincent’s Hospital, Melbourne and Skin &amp; Cancer Foundation Inc., Carlton</t>
+        </is>
+      </c>
+      <c r="C103" s="2" t="inlineStr">
+        <is>
+          <t>Victoria, Australia</t>
+        </is>
+      </c>
+      <c r="D103" s="2" t="inlineStr">
+        <is>
+          <t>P119</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="inlineStr">
+        <is>
+          <t>EFFICACY AND SAFETY RESULTS OF GUSELKUMAB IN PATIENTS WITH ACTIVE PSORIATIC ARTHRITIS OVER 56 WEEKSTILDRAKIZUMAB EFFICACY OVER TIME BY WEEK 28 RESPONSE LEVELS IN TWO PHASE 3 CLINICAL TRIALS IN PATIENTS WITH CHRONIC PLAQUE PSORIASISPOTENTIAL DISCONNECT: CO­MANAGEMENT OF PATIENTS WITH PSORIATIC ARTHRITIS BETWEEN THE USE OF TUMOR NECROSIS FACTOR INHIBITORS (TNF) IN THE SECOND­LINE BIOLOGIC/SMALL MOLECULE SETTING: A CROSS­SPECIALTY COMPARISONIMPACT OF GUSELKUMAB VERSUS PLACEBO AND ADALIMUMAB ON PATIENT REPORTED OUTCOMES IN PATIENTS WITH AND WITHOUT PSORIATIC ARTHRITIS IN VOYAGE 2</t>
+        </is>
+      </c>
+      <c r="F103" s="2" t="inlineStr">
+        <is>
+          <t>Introduction/Objective:To	evaluate	the	efficacy,	safety	&amp;	tolerability of guselkumab (GUS) in patients (pts) w/ PsA.Methods: In this double-blind, PBO-controlled study, pts w/active PsA	&amp;	≥3%	BSA	of	PsO	despite	treatment	were	randomized	2:1	to SC GUS 100mg or PBO at wks0, 4, &amp; q8w thereafter through wk44. At  wk16,  pts  w/ &lt; 5%  improvement  from  baseline  (BL) in swollen &amp; tender joint counts were eligible for early escape (EE) to open-label ustekinumab. At wk24, PBO pts crossed-over to GUS 100mg (PBO to GUS). The primary endpoint was ACR 20 at wk24. Major secondary endpoints were PASI 75 &amp; ACR 50 responses, change from BL in HAQ-DI, &amp; improvement in enthesitis  (Leeds  enthesitis  index  [LEI])  &amp;  dactylitis  score  (by a  0–3  scoring  system)  at  wk24;  &amp; ACR  20  response  at  wk16. Through	wk24,	efficacy	analyses	were	performed	in	a	modified	Intent-to-Treat (mITT) population. Pts who met treatment failure criteria, EE or had missing data at wk24 were considered nonresponders	for	ACR/MDA	endpoints	at	wk24.	Efficacy	post	wk24	was evaluated in pts who did not EE &amp; continued treatment at wk24 based on observed data.Results: Of 149 pts (PBO:49, GUS:100), BL demographics &amp; ACR component measures were generally similar between the 2 groups. 4	PBO	&amp;	9	GUS	pts	were	previously	exposed	to	anti-TNFα	agents.	At	wk24,	significantly	more	GUS	pts	achieved	ACR	20	(58.0%	vs	18.4%, p &lt; 0.001), PASI 75 (78.6% vs 12.5%, p &lt; 0.001), &amp; ACR 50 (34.0% vs 10.2%, p = 0.002) responses vs PBO. At wk24, mean decrease in HAQ-DI score from BL (-0.42 vs. -0.06, p &lt; 0.001), &amp; median percent improvement in enthesitis (100% vs 33.33%, p = 0.009) &amp; dactylitis (100% vs 33.33%, p &lt; 0.001) scores (among pts	w/	BL	enthesitis	and	dactylitis)	were	significantly	greater	in	GUS	group	vs.	PBO.	Significantly	more	GUS	pts	achieved	ACR	20 at wk16 (60.0% vs 16.3%, p &lt; 0.001) and MDA at wk24 (23.0% vs. 2.0%, p = 0.001)	vs.	PBO.	Post	wk24,	efficacy	improved	in	PBO to GUS crossover pts as expected and were well-maintained in GUS pts through wk56.Through wk24, the frequencies of AEs &amp; infections were comparable (AEs: PBO 32.7%; GUS 36.0%; infections: PBO: 20.4%; GUS: 16.0%). Post wk24, there was no disproportional increase in AE frequency or infections among GUS pts w/ longer exposure. Through wk56, there was 1 malignancy (basal cell carcinoma), 6 SAEs (myocardial infarction, osteoarthritis, pupils unequal, radius fracture, pneumonia, ulcerative keratitis), 2 pts discontinued treatment due to AEs, 1 grade 3 neutropenia, &amp; 6 pts were positive for antibodies to GUS. No deaths occurred through wk56.Conclusions: GUS	demonstrated	significant	improvement	on	joint	symptoms, physical function, PsO, enthesitis, dactylitis &amp; quality of	life;	efficacy	was	well-maintained	through	wk56.	GUS	was	well	tolerated in this population after ~1 year of exposure.Data has been previously presented at EULAR 2017 &amp; ACR 2017P12049Introduction: Tildrakizumab	(TIL),	a	humanized,	IgG1/κ	monoclonal	antibody	for	IL-23p19,	recently	demonstrated	its	efficacy	in subjects with chronic plaque psoriasis in two, phase 3 clinical studies1.Objective:In	this	analysis,	we	examined	efficacy	from	baseline	to week 52 among TIL patients achieving various Psoriasis Area and Severity Index (PASI) responses at week 28.Methods:  ReSURFACE  1  (NCT01722331)  and  reSURFACE  2 (NCT01729754) were double-blind, randomized controlled studies in subjects with moderate-to-severe chronic plaque psoriasis. Part 1  (0–12  weeks)  was  placebo  controlled;  Part  2  (12–28  weeks) re-randomized  placebo  patients  to  TIL;  Part  3  (28–64  weeks, reSURFACE 1; 28–52 weeks, reSURFACE 2) re-randomized patients	with	≥PASI	50	to	continue	or	increase	TIL	dose	or	to	placebo	based on their PASI response at week 28. In this post-hoc pooled analysis, patients consistently on TIL 100 mg and 200 mg from baseline	to	week	52	were	classified	in	5	mutually	exclusive	groups	based on their week-28 PASI response: PASI  &lt; 50, PASI 50–74, PASI 75–89, PASI 90–99, and PASI 100. Baseline characteristics and % PASI improvement from baseline up to week 52 (observed data) were examined for each group.Results: This analysis included 575 (TIL 100 mg) and 581 (TIL 200 mg) patients; the proportions of patients with week-28 PASI 75/90/100  responses  were  77%/54%/23%  (TIL  100  mg)  and 78%/58%/29%  (TIL  200  mg). At  week  28,  133  (23.1%),  175 (30.4%), 137 (23.8%), 82 (14.3%), and 48 (8.3%) TIL 100 mg patients and 170 (29.3%), 169 (29.1%), 114 (19.6%), 105 (18.1%), and 23 (4.0%) TIL 200mg achieved PASI 100, PASI 90–99, PASI 75–89,  PASI  50–74,  and  PASI   &lt; 50,  respectively.  On  average, PASI 100 patients were younger, lighter, and had shorter disease duration at baseline compared to other response groups. For TIL 100 mg, % PASI improvement was highest for PASI 100 and least for PASI &lt; 50 patients on all visits up to week 28 (week 4: 53%, 46%, 38%, 30%, and 16%; week 28: 100%, 95%, 83%, 64%, and 33% for PASI 100, PASI 90–99, PASI 75–89, PASI 50–74, and PASI   &lt; 50 categories, respectively). Among patients achieving PASI  &gt; 50 at week 28 and continued up to 52 weeks, % PASI improvement maintained or improved from week 28 to week 52. Similar results were observed for TIL 200 mg as well as a subgroup analysis with bio-naive and bio-experienced patients respectively.Conclusions: The majority of TIL 100 and 200 mg patients achieved PASI &gt; 50 response at week 28, and PASI improvement was maintained from week 28 to week 52. Among patients achieving PASI  &gt; 90 at week 28, TIL 100 and 200 mg were associated with a rapid PASI improvement by week 4.1. Reich K, Papp KA, Blauvelt A, et al. Tildrakizumab versus placebo or  etanercept  for  chronic  plaque  psoriasis  (reSURFACE  1  and  reSURFACE 2): results from two randomised controlled, phase 3 trials. Lancet. 2017;390(10091):276-288.This abstract was presented at 2018 Annual Meeting of American Academy of Dermatology.Note: This abstract was presented at 2018 Annual Meeting of American Academy of Dermatology. P122RHEUMATOLOGISTS AND DERMATOLOGISTSIntroduction: On average, the majority of psoriasis (PSO) patients are diagnosed a year prior to a psoriatic arthritis (PsA) diagnosis, making the referral patterns and co-management between derma50tologists and rheumatologists an important aspect to understanding the management of these diseases. Dermatologists represent an important referral-base for rheumatologists, accounting for over one-quarter of all new PsA patients. However, there are discrepancies between the specialists regarding the timing in which these referrals take place.Objectives: One objective of the study was to gain further insight into rheumatologist and dermatologist co-management of patients with PsA.Methods: An	independent	market	analytics	firm	collaborated	with	US rheumatologists (n = 101) and US dermatologists (n = 101) to conduct analysis of both the PsA and PSO markets. Data were collected	 via	 an	 online	 survey	 fielded	 in	 November/December	2017  and  included  patient  demographics,  as  well  as  physician demographics, and attitudinal survey responses.Results: Rheumatologists indicate that 51 percent of referrals result from primary care physicians, 28 percent result from a dermatologist,  and  13  percent  are  self-referred. The  majority  (73%)  of PsA patients under the care of collaborating rheumatologists had previously been diagnosed with PSO prior to PsA. Dermatologists state that one-quarter of their patients with severe PSO also have PsA, with more than one-third of severe PSO patients also being co-managed with a rheumatologist. The majority of rheumatologists	believe	that	dermatologists	refer	patients	at	the	first	sign	of	joint involvement and do not attempt to treat joint pain; however, 31 percent of dermatologists report they do not refer PSO patients to rheumatologists until patients have failed biologics or are not improving on their current systemic regimen, while an additional 35  percent  report  they  refer  only  severe  arthritis/patients  with worsening disease. Furthermore, only 35 percent of dermatologists agree that they refer their PSO patients to a rheumatologists at the first	sign	of	joint	involvement. At the time of dermatologist referral, rheumatologists state that two-thirds	of	referred	patients	are	biologic/apremilast	naïve,	with	only 6 percent having controlled PSO and joint pain. However, dermatologists state that 40 percent the patients that they referred to rheumatologists were treated with biologics and 15 percent of said  referred  patients  were  treated  with  apremilast.  Indeed,  76 percent of dermatologists agree with the statement, “I believe that the disease (PsA),” while 57 percent of dermatologists agree “I Conclusion: With many patients diagnosed with both PSO and PsA,  co-management  between  dermatologists  and  rheumatologists is common. While rheumatologists appear to be under the impression that they are receiving the majority of dermatologisttreated	patients	with	PsA	at	the	first	sign	of	joint	involvement,	dermatologists largely report that they are managing and treating PsA patients. Furthermore, most dermatologists believe early aggressive use of biologic treatments will mitigate the development and/or progression of joint involvement, implying their willingness to manage their patients with PsA, particularly at early stages. P123TNF  therapy  has  been  the  standard  of  care  for  adult  patients diagnosed with autoimmune conditions, resulting in familiarity, comfort, and satisfaction among physicians. TNFs are typically used	 as	 a	 first-line	 biologic/small	 molecule	 in	 the	 treatment	 of	psoriasis (PSO) and psoriatic arthritis (PsA). However, the adoption of agents with alternate mechanisms of action (AMOA) has increased in recent years across indications and the practice of sequential TNF prescribing after an initial TNF is less common. Though	TNFs	are	still	the	preferred	first-line	agent,	there	are	discrepancies between specialists on the use of AMOA agents in the second-line setting. This research sought to understand the extent to which AMOA agents are prescribed after an initial TNF, and how this varies across PSO and PsA.An	independent	market	analytics	firm	collaborated	with	US	dermatologists (n = 201) and US rheumatologists (n = 200) to conduct a retrospective chart review of patients diagnosed with PSO (n = 950) and PsA (n = 1,008) who had switched from one biologic/apremilast to another agent in the prior 12 weeks. Physicians were able to submit up to 7 patient charts. PSO data was collected in September 2017 and PsA data was collected in April 2017.Analysis  of  patients  recently  switched  from  one  biologic/apremilast to a different brand revealed the majority of patients were treated	with	a	TNF	in	the	first-line	biologic/small	molecule	setting, though this varies by indication. Rheumatologists prescribe first-line	 TNFs	 significantly	 more	 than	 dermatologists.	 83%	 of	PsA	patients	are	prescribed	TNFs	first-line	compared	to	just	69%	of	PSO	patients.	Furthermore,	rheumatologists	are	significantly	more  likely  to  practice  TNF-sequencing  than  dermatologists. Indeed,	44%	of	PsA	patients	treated	with	a	first-line	TNF	were	prescribed a second TNF, compared to 6% of PSO patients. Additionally, certain TNF brands have experienced recent declines in	first	line	use,	though	this	varies	by	indication	as	well.	For	rheumatologists,	use	of	first-line	etanercept	has	declined,	38%	of	PsA	patients were initiated on etanercept at least 24 months prior to the study, compared to just 28% initiated on etanercept within 12 months	of	the	study.	For	dermatologists,	there	were	significantly	more	PSO	patients	initiated	on	etanercept	in	the	first-line	setting	24 months or more prior to the study compared to those initiated within 12 months of the study, (45% vs 31%.) This pattern also held	true	for	adalimumab,	where	42%	of	first-line	PSO	patients	initiated more than 24 months prior to the study were prescribed adalimumab,	a	figure	that	drops	to	just	27%	for	patients	initiated	within 12 months.Though	the	position	of	TNFs	as	first-line	agents	remains	dominant,	the	treating	specialist	and	indication	influence	how	widespread	and	continuous	TNF	use	is.	Specifically,	dermatologists	are	less	likely	to	prescribe	TNFs	as	first-line	agents	and	are	also	significantly	less	likely	to	partake	in	the	sequencing	of	TNFs	in	the	first-	and	second-line  setting  than  rheumatologists.  The  introduction  of several agents in PSO reporting substantially higher rates of skin clearance compared to TNFs could potentially be the source of increased  switching  to AMOAs  compared  to  other  specialties; whereas	 superior	 efficacy	 of	AMOA	 agents	 over	TNFs	 in	 PsA	may be less apparent. P124Introduction/Objective:VOYAGE  2  is  a  phase  3  double-blind, placebo/active comparator-controlled trial comparing guselkumab (GUS) with placebo (PBO) and adalimumab (ADA) in patients (pts) with moderate-to-severe PsO. The impact of treatment on patient-reported outcomes (PROs) was evaluated.Methods: Pts were randomized to GUS 100mg (wks 0 &amp; 4, then q8wks), ADA (80 mg wk 0, 40 mg wk 1, then 40 mg q2 wks), or PBO (wks 0, 4, &amp; 12, then GUS 100 mg wks 16 &amp; 20). We evaluated PROs using the Work Limitations Questionnaire [WLQ; work  productivity],  the  Hospital Anxiety  &amp;  Depression  Scale [HADS], and the Medical Outcomes Study 36-Item Short Form (SF-36; health related quality of life) at wk16 (GUS vs PBO) and wk24 (GUS vs ADA) in pts with and without PsA.Results: In all, 18% of pts reported a history of PsA. At wk16, GUS pts had numerically greater improvements vs PBO in work productivity,  anxiety  and  depression,  and  SF-36  PCS  &amp;  MCS scores regardless of PsA status. The least square (LS) mean differences (95% CI; adjusted for baseline value) for GUS vs PBO for all PROs were generally similar between pts with and without PsA. At wk24, GUS pts had numerically greater improvements vs ADA in all PROs regardless of PsA status. The LS mean differences for GUS vs ADA were generally greater for pts with PsA vs pts without PsA (Table).Conclusions: GUS showed better improvements in all PROs vs PBO at wk16 and vs ADA at wk24. Improvements vs PBO were similar  regardless  of  PsA  status,  while  improvements  vs ADA were greater for pts with PsA.Table: Summary of Change from Baseline in WLQ, HADS and SF-36 Scores from VOYAGE 20.13260.2913p-value0.0249WLQ Time ManagementWLQ MentalInterpersonalWLQ Physical Demandsw/out PSAN, LSMean Diff (95% CI)446, -7.7(-10.56, -4.88)419, -7.0(-10.31, -3.79)439, -4.9(-7.54, -2.35)440, -3.5(-6.11, -0.88)608, -1.6(-2.05, -1.07)608, -1.5 (-1.96, -0.98)Week 16 GUS vs PBOw/ PSAN, LSMean Diff (95% CI)86, -7.1(-13.21, -0.92)85, -6.6(-15.35, 2.06)83, -3.8(-11.03, 3.35)84, -7.9(-14.51, -1.21)135, -1.2(-2.45, 0.04)135, -1.2(-2.55, 0.06)135, 5.7(2.94, 8.43)135, 4.5(1.61, 7.48)N is the sample size across two groups.(3.31, 5.39)607, 4.8 (3.53, 6.15)SF-36 Physical ScoreSF-36 Mental ScoreWLQ Ouput DemandsDepression ScoreAnxiety Score&lt; 0.0001 607, 4.4 0.00260.05840.02110.0611Week 24 GUS vs ADAw/ PSAN, LSMean Diff (95% CI)w/out PSAN, LSMean Diff p(95% CI)value0.7152 445, -2.6pvalue0.0769p-value&lt; 0.0001 79, -1.6 (-10.58, 7.29)0.0002&lt; 0.0001 79, -4.3 (-14.40, 5.81)78, -11.4 (-19.37, -3.34)79, -14.7 (-24.29, -5.17)0.0089&lt; 0.0001 133, -2.1 0.3996 420, -0.60.69310.0061 436, -1.50.25690.0030 437, -1.20.41360.0012 608, -0.80.0025&lt; 0.0001 133, -1.5 0.0374 608, -0.40.1158&lt; 0.0001 132, 2.9&lt; 0.0001 132, 3.2 0.0346 608, 1.0(-0.10, 2.04)0.0591 608, 1.80.07530.0092(-3.33, -0.83)(-2.85, -0.09)(0.21, 5.57)(-0.12, 6.53)(-5.39, 0.28)(-3.46, 2.30)(-4.16, 1.11)(-3.94, 1.62)(-1.29, -0.28)(-0.91, 0.10)(0.45, 3.15)</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="inlineStr">
+        <is>
+          <t>Yanli Zhuang</t>
+        </is>
+      </c>
+      <c r="B104" s="2" t="inlineStr">
+        <is>
+          <t>Division of Dermatology and Venereology, Geneva University Hospital, and Department of Pathology and Immunology, University of Geneva, Ge-neva, Switzerland, Department of Dermatology, New York Medical Col-lege at Metropolitan Hospital, New York, NY, Oregon Health &amp; Science University, Portland, OR, Janssen Research &amp; Development, LLC, Spring House, PA, Janssen Research &amp; Development, LLC, San Diego, CA, USAOregon Medical Research Center, Portland, OR, Department of Medicine (Dermatology) UCLA, Los Angeles, CA, USA, Probity Medical Research, Waterloo, ON, Skin Centre for Dermatology, Peterborough, ON, Canada, Sun Pharmaceuticals, Princeton, NJ, Merck &amp; Co., Inc., Kenilworth, NJ, USA, SCIderm Research Institute and Dermatologikum Hamburg, Ham-burg, GermanySpherix Global InsightsSpherix Global InsightsHospital de la Santa Creu i Sant Pau and Universitat Autònoma de Bar-celona Medical School, Barcelona, Spain, Janssen Research &amp; Develop-ment, LLC, Spring House, PA, USA, McMaster University, Hamilton, ON, Canada, University of Melbourne, St. Vincent’s Hospital, Melbourne and Skin &amp; Cancer Foundation Inc., Carlton</t>
+        </is>
+      </c>
+      <c r="C104" s="2" t="inlineStr">
+        <is>
+          <t>Victoria, Australia</t>
+        </is>
+      </c>
+      <c r="D104" s="2" t="inlineStr">
+        <is>
+          <t>P119</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="inlineStr">
+        <is>
+          <t>EFFICACY AND SAFETY RESULTS OF GUSELKUMAB IN PATIENTS WITH ACTIVE PSORIATIC ARTHRITIS OVER 56 WEEKSTILDRAKIZUMAB EFFICACY OVER TIME BY WEEK 28 RESPONSE LEVELS IN TWO PHASE 3 CLINICAL TRIALS IN PATIENTS WITH CHRONIC PLAQUE PSORIASISPOTENTIAL DISCONNECT: CO­MANAGEMENT OF PATIENTS WITH PSORIATIC ARTHRITIS BETWEEN THE USE OF TUMOR NECROSIS FACTOR INHIBITORS (TNF) IN THE SECOND­LINE BIOLOGIC/SMALL MOLECULE SETTING: A CROSS­SPECIALTY COMPARISONIMPACT OF GUSELKUMAB VERSUS PLACEBO AND ADALIMUMAB ON PATIENT REPORTED OUTCOMES IN PATIENTS WITH AND WITHOUT PSORIATIC ARTHRITIS IN VOYAGE 2</t>
+        </is>
+      </c>
+      <c r="F104" s="2" t="inlineStr">
+        <is>
+          <t>Introduction/Objective:To	evaluate	the	efficacy,	safety	&amp;	tolerability of guselkumab (GUS) in patients (pts) w/ PsA.Methods: In this double-blind, PBO-controlled study, pts w/active PsA	&amp;	≥3%	BSA	of	PsO	despite	treatment	were	randomized	2:1	to SC GUS 100mg or PBO at wks0, 4, &amp; q8w thereafter through wk44. At  wk16,  pts  w/ &lt; 5%  improvement  from  baseline  (BL) in swollen &amp; tender joint counts were eligible for early escape (EE) to open-label ustekinumab. At wk24, PBO pts crossed-over to GUS 100mg (PBO to GUS). The primary endpoint was ACR 20 at wk24. Major secondary endpoints were PASI 75 &amp; ACR 50 responses, change from BL in HAQ-DI, &amp; improvement in enthesitis  (Leeds  enthesitis  index  [LEI])  &amp;  dactylitis  score  (by a  0–3  scoring  system)  at  wk24;  &amp; ACR  20  response  at  wk16. Through	wk24,	efficacy	analyses	were	performed	in	a	modified	Intent-to-Treat (mITT) population. Pts who met treatment failure criteria, EE or had missing data at wk24 were considered nonresponders	for	ACR/MDA	endpoints	at	wk24.	Efficacy	post	wk24	was evaluated in pts who did not EE &amp; continued treatment at wk24 based on observed data.Results: Of 149 pts (PBO:49, GUS:100), BL demographics &amp; ACR component measures were generally similar between the 2 groups. 4	PBO	&amp;	9	GUS	pts	were	previously	exposed	to	anti-TNFα	agents.	At	wk24,	significantly	more	GUS	pts	achieved	ACR	20	(58.0%	vs	18.4%, p &lt; 0.001), PASI 75 (78.6% vs 12.5%, p &lt; 0.001), &amp; ACR 50 (34.0% vs 10.2%, p = 0.002) responses vs PBO. At wk24, mean decrease in HAQ-DI score from BL (-0.42 vs. -0.06, p &lt; 0.001), &amp; median percent improvement in enthesitis (100% vs 33.33%, p = 0.009) &amp; dactylitis (100% vs 33.33%, p &lt; 0.001) scores (among pts	w/	BL	enthesitis	and	dactylitis)	were	significantly	greater	in	GUS	group	vs.	PBO.	Significantly	more	GUS	pts	achieved	ACR	20 at wk16 (60.0% vs 16.3%, p &lt; 0.001) and MDA at wk24 (23.0% vs. 2.0%, p = 0.001)	vs.	PBO.	Post	wk24,	efficacy	improved	in	PBO to GUS crossover pts as expected and were well-maintained in GUS pts through wk56.Through wk24, the frequencies of AEs &amp; infections were comparable (AEs: PBO 32.7%; GUS 36.0%; infections: PBO: 20.4%; GUS: 16.0%). Post wk24, there was no disproportional increase in AE frequency or infections among GUS pts w/ longer exposure. Through wk56, there was 1 malignancy (basal cell carcinoma), 6 SAEs (myocardial infarction, osteoarthritis, pupils unequal, radius fracture, pneumonia, ulcerative keratitis), 2 pts discontinued treatment due to AEs, 1 grade 3 neutropenia, &amp; 6 pts were positive for antibodies to GUS. No deaths occurred through wk56.Conclusions: GUS	demonstrated	significant	improvement	on	joint	symptoms, physical function, PsO, enthesitis, dactylitis &amp; quality of	life;	efficacy	was	well-maintained	through	wk56.	GUS	was	well	tolerated in this population after ~1 year of exposure.Data has been previously presented at EULAR 2017 &amp; ACR 2017P12049Introduction: Tildrakizumab	(TIL),	a	humanized,	IgG1/κ	monoclonal	antibody	for	IL-23p19,	recently	demonstrated	its	efficacy	in subjects with chronic plaque psoriasis in two, phase 3 clinical studies1.Objective:In	this	analysis,	we	examined	efficacy	from	baseline	to week 52 among TIL patients achieving various Psoriasis Area and Severity Index (PASI) responses at week 28.Methods:  ReSURFACE  1  (NCT01722331)  and  reSURFACE  2 (NCT01729754) were double-blind, randomized controlled studies in subjects with moderate-to-severe chronic plaque psoriasis. Part 1  (0–12  weeks)  was  placebo  controlled;  Part  2  (12–28  weeks) re-randomized  placebo  patients  to  TIL;  Part  3  (28–64  weeks, reSURFACE 1; 28–52 weeks, reSURFACE 2) re-randomized patients	with	≥PASI	50	to	continue	or	increase	TIL	dose	or	to	placebo	based on their PASI response at week 28. In this post-hoc pooled analysis, patients consistently on TIL 100 mg and 200 mg from baseline	to	week	52	were	classified	in	5	mutually	exclusive	groups	based on their week-28 PASI response: PASI  &lt; 50, PASI 50–74, PASI 75–89, PASI 90–99, and PASI 100. Baseline characteristics and % PASI improvement from baseline up to week 52 (observed data) were examined for each group.Results: This analysis included 575 (TIL 100 mg) and 581 (TIL 200 mg) patients; the proportions of patients with week-28 PASI 75/90/100  responses  were  77%/54%/23%  (TIL  100  mg)  and 78%/58%/29%  (TIL  200  mg). At  week  28,  133  (23.1%),  175 (30.4%), 137 (23.8%), 82 (14.3%), and 48 (8.3%) TIL 100 mg patients and 170 (29.3%), 169 (29.1%), 114 (19.6%), 105 (18.1%), and 23 (4.0%) TIL 200mg achieved PASI 100, PASI 90–99, PASI 75–89,  PASI  50–74,  and  PASI   &lt; 50,  respectively.  On  average, PASI 100 patients were younger, lighter, and had shorter disease duration at baseline compared to other response groups. For TIL 100 mg, % PASI improvement was highest for PASI 100 and least for PASI &lt; 50 patients on all visits up to week 28 (week 4: 53%, 46%, 38%, 30%, and 16%; week 28: 100%, 95%, 83%, 64%, and 33% for PASI 100, PASI 90–99, PASI 75–89, PASI 50–74, and PASI   &lt; 50 categories, respectively). Among patients achieving PASI  &gt; 50 at week 28 and continued up to 52 weeks, % PASI improvement maintained or improved from week 28 to week 52. Similar results were observed for TIL 200 mg as well as a subgroup analysis with bio-naive and bio-experienced patients respectively.Conclusions: The majority of TIL 100 and 200 mg patients achieved PASI &gt; 50 response at week 28, and PASI improvement was maintained from week 28 to week 52. Among patients achieving PASI  &gt; 90 at week 28, TIL 100 and 200 mg were associated with a rapid PASI improvement by week 4.1. Reich K, Papp KA, Blauvelt A, et al. Tildrakizumab versus placebo or  etanercept  for  chronic  plaque  psoriasis  (reSURFACE  1  and  reSURFACE 2): results from two randomised controlled, phase 3 trials. Lancet. 2017;390(10091):276-288.This abstract was presented at 2018 Annual Meeting of American Academy of Dermatology.Note: This abstract was presented at 2018 Annual Meeting of American Academy of Dermatology. P122RHEUMATOLOGISTS AND DERMATOLOGISTSIntroduction: On average, the majority of psoriasis (PSO) patients are diagnosed a year prior to a psoriatic arthritis (PsA) diagnosis, making the referral patterns and co-management between derma50tologists and rheumatologists an important aspect to understanding the management of these diseases. Dermatologists represent an important referral-base for rheumatologists, accounting for over one-quarter of all new PsA patients. However, there are discrepancies between the specialists regarding the timing in which these referrals take place.Objectives: One objective of the study was to gain further insight into rheumatologist and dermatologist co-management of patients with PsA.Methods: An	independent	market	analytics	firm	collaborated	with	US rheumatologists (n = 101) and US dermatologists (n = 101) to conduct analysis of both the PsA and PSO markets. Data were collected	 via	 an	 online	 survey	 fielded	 in	 November/December	2017  and  included  patient  demographics,  as  well  as  physician demographics, and attitudinal survey responses.Results: Rheumatologists indicate that 51 percent of referrals result from primary care physicians, 28 percent result from a dermatologist,  and  13  percent  are  self-referred. The  majority  (73%)  of PsA patients under the care of collaborating rheumatologists had previously been diagnosed with PSO prior to PsA. Dermatologists state that one-quarter of their patients with severe PSO also have PsA, with more than one-third of severe PSO patients also being co-managed with a rheumatologist. The majority of rheumatologists	believe	that	dermatologists	refer	patients	at	the	first	sign	of	joint involvement and do not attempt to treat joint pain; however, 31 percent of dermatologists report they do not refer PSO patients to rheumatologists until patients have failed biologics or are not improving on their current systemic regimen, while an additional 35  percent  report  they  refer  only  severe  arthritis/patients  with worsening disease. Furthermore, only 35 percent of dermatologists agree that they refer their PSO patients to a rheumatologists at the first	sign	of	joint	involvement. At the time of dermatologist referral, rheumatologists state that two-thirds	of	referred	patients	are	biologic/apremilast	naïve,	with	only 6 percent having controlled PSO and joint pain. However, dermatologists state that 40 percent the patients that they referred to rheumatologists were treated with biologics and 15 percent of said  referred  patients  were  treated  with  apremilast.  Indeed,  76 percent of dermatologists agree with the statement, “I believe that the disease (PsA),” while 57 percent of dermatologists agree “I Conclusion: With many patients diagnosed with both PSO and PsA,  co-management  between  dermatologists  and  rheumatologists is common. While rheumatologists appear to be under the impression that they are receiving the majority of dermatologisttreated	patients	with	PsA	at	the	first	sign	of	joint	involvement,	dermatologists largely report that they are managing and treating PsA patients. Furthermore, most dermatologists believe early aggressive use of biologic treatments will mitigate the development and/or progression of joint involvement, implying their willingness to manage their patients with PsA, particularly at early stages. P123TNF  therapy  has  been  the  standard  of  care  for  adult  patients diagnosed with autoimmune conditions, resulting in familiarity, comfort, and satisfaction among physicians. TNFs are typically used	 as	 a	 first-line	 biologic/small	 molecule	 in	 the	 treatment	 of	psoriasis (PSO) and psoriatic arthritis (PsA). However, the adoption of agents with alternate mechanisms of action (AMOA) has increased in recent years across indications and the practice of sequential TNF prescribing after an initial TNF is less common. Though	TNFs	are	still	the	preferred	first-line	agent,	there	are	discrepancies between specialists on the use of AMOA agents in the second-line setting. This research sought to understand the extent to which AMOA agents are prescribed after an initial TNF, and how this varies across PSO and PsA.An	independent	market	analytics	firm	collaborated	with	US	dermatologists (n = 201) and US rheumatologists (n = 200) to conduct a retrospective chart review of patients diagnosed with PSO (n = 950) and PsA (n = 1,008) who had switched from one biologic/apremilast to another agent in the prior 12 weeks. Physicians were able to submit up to 7 patient charts. PSO data was collected in September 2017 and PsA data was collected in April 2017.Analysis  of  patients  recently  switched  from  one  biologic/apremilast to a different brand revealed the majority of patients were treated	with	a	TNF	in	the	first-line	biologic/small	molecule	setting, though this varies by indication. Rheumatologists prescribe first-line	 TNFs	 significantly	 more	 than	 dermatologists.	 83%	 of	PsA	patients	are	prescribed	TNFs	first-line	compared	to	just	69%	of	PSO	patients.	Furthermore,	rheumatologists	are	significantly	more  likely  to  practice  TNF-sequencing  than  dermatologists. Indeed,	44%	of	PsA	patients	treated	with	a	first-line	TNF	were	prescribed a second TNF, compared to 6% of PSO patients. Additionally, certain TNF brands have experienced recent declines in	first	line	use,	though	this	varies	by	indication	as	well.	For	rheumatologists,	use	of	first-line	etanercept	has	declined,	38%	of	PsA	patients were initiated on etanercept at least 24 months prior to the study, compared to just 28% initiated on etanercept within 12 months	of	the	study.	For	dermatologists,	there	were	significantly	more	PSO	patients	initiated	on	etanercept	in	the	first-line	setting	24 months or more prior to the study compared to those initiated within 12 months of the study, (45% vs 31%.) This pattern also held	true	for	adalimumab,	where	42%	of	first-line	PSO	patients	initiated more than 24 months prior to the study were prescribed adalimumab,	a	figure	that	drops	to	just	27%	for	patients	initiated	within 12 months.Though	the	position	of	TNFs	as	first-line	agents	remains	dominant,	the	treating	specialist	and	indication	influence	how	widespread	and	continuous	TNF	use	is.	Specifically,	dermatologists	are	less	likely	to	prescribe	TNFs	as	first-line	agents	and	are	also	significantly	less	likely	to	partake	in	the	sequencing	of	TNFs	in	the	first-	and	second-line  setting  than  rheumatologists.  The  introduction  of several agents in PSO reporting substantially higher rates of skin clearance compared to TNFs could potentially be the source of increased  switching  to AMOAs  compared  to  other  specialties; whereas	 superior	 efficacy	 of	AMOA	 agents	 over	TNFs	 in	 PsA	may be less apparent. P124Introduction/Objective:VOYAGE  2  is  a  phase  3  double-blind, placebo/active comparator-controlled trial comparing guselkumab (GUS) with placebo (PBO) and adalimumab (ADA) in patients (pts) with moderate-to-severe PsO. The impact of treatment on patient-reported outcomes (PROs) was evaluated.Methods: Pts were randomized to GUS 100mg (wks 0 &amp; 4, then q8wks), ADA (80 mg wk 0, 40 mg wk 1, then 40 mg q2 wks), or PBO (wks 0, 4, &amp; 12, then GUS 100 mg wks 16 &amp; 20). We evaluated PROs using the Work Limitations Questionnaire [WLQ; work  productivity],  the  Hospital Anxiety  &amp;  Depression  Scale [HADS], and the Medical Outcomes Study 36-Item Short Form (SF-36; health related quality of life) at wk16 (GUS vs PBO) and wk24 (GUS vs ADA) in pts with and without PsA.Results: In all, 18% of pts reported a history of PsA. At wk16, GUS pts had numerically greater improvements vs PBO in work productivity,  anxiety  and  depression,  and  SF-36  PCS  &amp;  MCS scores regardless of PsA status. The least square (LS) mean differences (95% CI; adjusted for baseline value) for GUS vs PBO for all PROs were generally similar between pts with and without PsA. At wk24, GUS pts had numerically greater improvements vs ADA in all PROs regardless of PsA status. The LS mean differences for GUS vs ADA were generally greater for pts with PsA vs pts without PsA (Table).Conclusions: GUS showed better improvements in all PROs vs PBO at wk16 and vs ADA at wk24. Improvements vs PBO were similar  regardless  of  PsA  status,  while  improvements  vs ADA were greater for pts with PsA.Table: Summary of Change from Baseline in WLQ, HADS and SF-36 Scores from VOYAGE 20.13260.2913p-value0.0249WLQ Time ManagementWLQ MentalInterpersonalWLQ Physical Demandsw/out PSAN, LSMean Diff (95% CI)446, -7.7(-10.56, -4.88)419, -7.0(-10.31, -3.79)439, -4.9(-7.54, -2.35)440, -3.5(-6.11, -0.88)608, -1.6(-2.05, -1.07)608, -1.5 (-1.96, -0.98)Week 16 GUS vs PBOw/ PSAN, LSMean Diff (95% CI)86, -7.1(-13.21, -0.92)85, -6.6(-15.35, 2.06)83, -3.8(-11.03, 3.35)84, -7.9(-14.51, -1.21)135, -1.2(-2.45, 0.04)135, -1.2(-2.55, 0.06)135, 5.7(2.94, 8.43)135, 4.5(1.61, 7.48)N is the sample size across two groups.(3.31, 5.39)607, 4.8 (3.53, 6.15)SF-36 Physical ScoreSF-36 Mental ScoreWLQ Ouput DemandsDepression ScoreAnxiety Score&lt; 0.0001 607, 4.4 0.00260.05840.02110.0611Week 24 GUS vs ADAw/ PSAN, LSMean Diff (95% CI)w/out PSAN, LSMean Diff p(95% CI)value0.7152 445, -2.6pvalue0.0769p-value&lt; 0.0001 79, -1.6 (-10.58, 7.29)0.0002&lt; 0.0001 79, -4.3 (-14.40, 5.81)78, -11.4 (-19.37, -3.34)79, -14.7 (-24.29, -5.17)0.0089&lt; 0.0001 133, -2.1 0.3996 420, -0.60.69310.0061 436, -1.50.25690.0030 437, -1.20.41360.0012 608, -0.80.0025&lt; 0.0001 133, -1.5 0.0374 608, -0.40.1158&lt; 0.0001 132, 2.9&lt; 0.0001 132, 3.2 0.0346 608, 1.0(-0.10, 2.04)0.0591 608, 1.80.07530.0092(-3.33, -0.83)(-2.85, -0.09)(0.21, 5.57)(-0.12, 6.53)(-5.39, 0.28)(-3.46, 2.30)(-4.16, 1.11)(-3.94, 1.62)(-1.29, -0.28)(-0.91, 0.10)(0.45, 3.15)</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="inlineStr">
+        <is>
+          <t>William Barchuk</t>
+        </is>
+      </c>
+      <c r="B105" s="2" t="inlineStr">
+        <is>
+          <t>Division of Dermatology and Venereology, Geneva University Hospital, and Department of Pathology and Immunology, University of Geneva, Ge-neva, Switzerland, Department of Dermatology, New York Medical Col-lege at Metropolitan Hospital, New York, NY, Oregon Health &amp; Science University, Portland, OR, Janssen Research &amp; Development, LLC, Spring House, PA, Janssen Research &amp; Development, LLC, San Diego, CA, USAOregon Medical Research Center, Portland, OR, Department of Medicine (Dermatology) UCLA, Los Angeles, CA, USA, Probity Medical Research, Waterloo, ON, Skin Centre for Dermatology, Peterborough, ON, Canada, Sun Pharmaceuticals, Princeton, NJ, Merck &amp; Co., Inc., Kenilworth, NJ, USA, SCIderm Research Institute and Dermatologikum Hamburg, Ham-burg, GermanySpherix Global InsightsSpherix Global InsightsHospital de la Santa Creu i Sant Pau and Universitat Autònoma de Bar-celona Medical School, Barcelona, Spain, Janssen Research &amp; Develop-ment, LLC, Spring House, PA, USA, McMaster University, Hamilton, ON, Canada, University of Melbourne, St. Vincent’s Hospital, Melbourne and Skin &amp; Cancer Foundation Inc., Carlton</t>
+        </is>
+      </c>
+      <c r="C105" s="2" t="inlineStr">
+        <is>
+          <t>Victoria, Australia</t>
+        </is>
+      </c>
+      <c r="D105" s="2" t="inlineStr">
+        <is>
+          <t>P119</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="inlineStr">
+        <is>
+          <t>EFFICACY AND SAFETY RESULTS OF GUSELKUMAB IN PATIENTS WITH ACTIVE PSORIATIC ARTHRITIS OVER 56 WEEKSTILDRAKIZUMAB EFFICACY OVER TIME BY WEEK 28 RESPONSE LEVELS IN TWO PHASE 3 CLINICAL TRIALS IN PATIENTS WITH CHRONIC PLAQUE PSORIASISPOTENTIAL DISCONNECT: CO­MANAGEMENT OF PATIENTS WITH PSORIATIC ARTHRITIS BETWEEN THE USE OF TUMOR NECROSIS FACTOR INHIBITORS (TNF) IN THE SECOND­LINE BIOLOGIC/SMALL MOLECULE SETTING: A CROSS­SPECIALTY COMPARISONIMPACT OF GUSELKUMAB VERSUS PLACEBO AND ADALIMUMAB ON PATIENT REPORTED OUTCOMES IN PATIENTS WITH AND WITHOUT PSORIATIC ARTHRITIS IN VOYAGE 2</t>
+        </is>
+      </c>
+      <c r="F105" s="2" t="inlineStr">
+        <is>
+          <t>Introduction/Objective:To	evaluate	the	efficacy,	safety	&amp;	tolerability of guselkumab (GUS) in patients (pts) w/ PsA.Methods: In this double-blind, PBO-controlled study, pts w/active PsA	&amp;	≥3%	BSA	of	PsO	despite	treatment	were	randomized	2:1	to SC GUS 100mg or PBO at wks0, 4, &amp; q8w thereafter through wk44. At  wk16,  pts  w/ &lt; 5%  improvement  from  baseline  (BL) in swollen &amp; tender joint counts were eligible for early escape (EE) to open-label ustekinumab. At wk24, PBO pts crossed-over to GUS 100mg (PBO to GUS). The primary endpoint was ACR 20 at wk24. Major secondary endpoints were PASI 75 &amp; ACR 50 responses, change from BL in HAQ-DI, &amp; improvement in enthesitis  (Leeds  enthesitis  index  [LEI])  &amp;  dactylitis  score  (by a  0–3  scoring  system)  at  wk24;  &amp; ACR  20  response  at  wk16. Through	wk24,	efficacy	analyses	were	performed	in	a	modified	Intent-to-Treat (mITT) population. Pts who met treatment failure criteria, EE or had missing data at wk24 were considered nonresponders	for	ACR/MDA	endpoints	at	wk24.	Efficacy	post	wk24	was evaluated in pts who did not EE &amp; continued treatment at wk24 based on observed data.Results: Of 149 pts (PBO:49, GUS:100), BL demographics &amp; ACR component measures were generally similar between the 2 groups. 4	PBO	&amp;	9	GUS	pts	were	previously	exposed	to	anti-TNFα	agents.	At	wk24,	significantly	more	GUS	pts	achieved	ACR	20	(58.0%	vs	18.4%, p &lt; 0.001), PASI 75 (78.6% vs 12.5%, p &lt; 0.001), &amp; ACR 50 (34.0% vs 10.2%, p = 0.002) responses vs PBO. At wk24, mean decrease in HAQ-DI score from BL (-0.42 vs. -0.06, p &lt; 0.001), &amp; median percent improvement in enthesitis (100% vs 33.33%, p = 0.009) &amp; dactylitis (100% vs 33.33%, p &lt; 0.001) scores (among pts	w/	BL	enthesitis	and	dactylitis)	were	significantly	greater	in	GUS	group	vs.	PBO.	Significantly	more	GUS	pts	achieved	ACR	20 at wk16 (60.0% vs 16.3%, p &lt; 0.001) and MDA at wk24 (23.0% vs. 2.0%, p = 0.001)	vs.	PBO.	Post	wk24,	efficacy	improved	in	PBO to GUS crossover pts as expected and were well-maintained in GUS pts through wk56.Through wk24, the frequencies of AEs &amp; infections were comparable (AEs: PBO 32.7%; GUS 36.0%; infections: PBO: 20.4%; GUS: 16.0%). Post wk24, there was no disproportional increase in AE frequency or infections among GUS pts w/ longer exposure. Through wk56, there was 1 malignancy (basal cell carcinoma), 6 SAEs (myocardial infarction, osteoarthritis, pupils unequal, radius fracture, pneumonia, ulcerative keratitis), 2 pts discontinued treatment due to AEs, 1 grade 3 neutropenia, &amp; 6 pts were positive for antibodies to GUS. No deaths occurred through wk56.Conclusions: GUS	demonstrated	significant	improvement	on	joint	symptoms, physical function, PsO, enthesitis, dactylitis &amp; quality of	life;	efficacy	was	well-maintained	through	wk56.	GUS	was	well	tolerated in this population after ~1 year of exposure.Data has been previously presented at EULAR 2017 &amp; ACR 2017P12049Introduction: Tildrakizumab	(TIL),	a	humanized,	IgG1/κ	monoclonal	antibody	for	IL-23p19,	recently	demonstrated	its	efficacy	in subjects with chronic plaque psoriasis in two, phase 3 clinical studies1.Objective:In	this	analysis,	we	examined	efficacy	from	baseline	to week 52 among TIL patients achieving various Psoriasis Area and Severity Index (PASI) responses at week 28.Methods:  ReSURFACE  1  (NCT01722331)  and  reSURFACE  2 (NCT01729754) were double-blind, randomized controlled studies in subjects with moderate-to-severe chronic plaque psoriasis. Part 1  (0–12  weeks)  was  placebo  controlled;  Part  2  (12–28  weeks) re-randomized  placebo  patients  to  TIL;  Part  3  (28–64  weeks, reSURFACE 1; 28–52 weeks, reSURFACE 2) re-randomized patients	with	≥PASI	50	to	continue	or	increase	TIL	dose	or	to	placebo	based on their PASI response at week 28. In this post-hoc pooled analysis, patients consistently on TIL 100 mg and 200 mg from baseline	to	week	52	were	classified	in	5	mutually	exclusive	groups	based on their week-28 PASI response: PASI  &lt; 50, PASI 50–74, PASI 75–89, PASI 90–99, and PASI 100. Baseline characteristics and % PASI improvement from baseline up to week 52 (observed data) were examined for each group.Results: This analysis included 575 (TIL 100 mg) and 581 (TIL 200 mg) patients; the proportions of patients with week-28 PASI 75/90/100  responses  were  77%/54%/23%  (TIL  100  mg)  and 78%/58%/29%  (TIL  200  mg). At  week  28,  133  (23.1%),  175 (30.4%), 137 (23.8%), 82 (14.3%), and 48 (8.3%) TIL 100 mg patients and 170 (29.3%), 169 (29.1%), 114 (19.6%), 105 (18.1%), and 23 (4.0%) TIL 200mg achieved PASI 100, PASI 90–99, PASI 75–89,  PASI  50–74,  and  PASI   &lt; 50,  respectively.  On  average, PASI 100 patients were younger, lighter, and had shorter disease duration at baseline compared to other response groups. For TIL 100 mg, % PASI improvement was highest for PASI 100 and least for PASI &lt; 50 patients on all visits up to week 28 (week 4: 53%, 46%, 38%, 30%, and 16%; week 28: 100%, 95%, 83%, 64%, and 33% for PASI 100, PASI 90–99, PASI 75–89, PASI 50–74, and PASI   &lt; 50 categories, respectively). Among patients achieving PASI  &gt; 50 at week 28 and continued up to 52 weeks, % PASI improvement maintained or improved from week 28 to week 52. Similar results were observed for TIL 200 mg as well as a subgroup analysis with bio-naive and bio-experienced patients respectively.Conclusions: The majority of TIL 100 and 200 mg patients achieved PASI &gt; 50 response at week 28, and PASI improvement was maintained from week 28 to week 52. Among patients achieving PASI  &gt; 90 at week 28, TIL 100 and 200 mg were associated with a rapid PASI improvement by week 4.1. Reich K, Papp KA, Blauvelt A, et al. Tildrakizumab versus placebo or  etanercept  for  chronic  plaque  psoriasis  (reSURFACE  1  and  reSURFACE 2): results from two randomised controlled, phase 3 trials. Lancet. 2017;390(10091):276-288.This abstract was presented at 2018 Annual Meeting of American Academy of Dermatology.Note: This abstract was presented at 2018 Annual Meeting of American Academy of Dermatology. P122RHEUMATOLOGISTS AND DERMATOLOGISTSIntroduction: On average, the majority of psoriasis (PSO) patients are diagnosed a year prior to a psoriatic arthritis (PsA) diagnosis, making the referral patterns and co-management between derma50tologists and rheumatologists an important aspect to understanding the management of these diseases. Dermatologists represent an important referral-base for rheumatologists, accounting for over one-quarter of all new PsA patients. However, there are discrepancies between the specialists regarding the timing in which these referrals take place.Objectives: One objective of the study was to gain further insight into rheumatologist and dermatologist co-management of patients with PsA.Methods: An	independent	market	analytics	firm	collaborated	with	US rheumatologists (n = 101) and US dermatologists (n = 101) to conduct analysis of both the PsA and PSO markets. Data were collected	 via	 an	 online	 survey	 fielded	 in	 November/December	2017  and  included  patient  demographics,  as  well  as  physician demographics, and attitudinal survey responses.Results: Rheumatologists indicate that 51 percent of referrals result from primary care physicians, 28 percent result from a dermatologist,  and  13  percent  are  self-referred. The  majority  (73%)  of PsA patients under the care of collaborating rheumatologists had previously been diagnosed with PSO prior to PsA. Dermatologists state that one-quarter of their patients with severe PSO also have PsA, with more than one-third of severe PSO patients also being co-managed with a rheumatologist. The majority of rheumatologists	believe	that	dermatologists	refer	patients	at	the	first	sign	of	joint involvement and do not attempt to treat joint pain; however, 31 percent of dermatologists report they do not refer PSO patients to rheumatologists until patients have failed biologics or are not improving on their current systemic regimen, while an additional 35  percent  report  they  refer  only  severe  arthritis/patients  with worsening disease. Furthermore, only 35 percent of dermatologists agree that they refer their PSO patients to a rheumatologists at the first	sign	of	joint	involvement. At the time of dermatologist referral, rheumatologists state that two-thirds	of	referred	patients	are	biologic/apremilast	naïve,	with	only 6 percent having controlled PSO and joint pain. However, dermatologists state that 40 percent the patients that they referred to rheumatologists were treated with biologics and 15 percent of said  referred  patients  were  treated  with  apremilast.  Indeed,  76 percent of dermatologists agree with the statement, “I believe that the disease (PsA),” while 57 percent of dermatologists agree “I Conclusion: With many patients diagnosed with both PSO and PsA,  co-management  between  dermatologists  and  rheumatologists is common. While rheumatologists appear to be under the impression that they are receiving the majority of dermatologisttreated	patients	with	PsA	at	the	first	sign	of	joint	involvement,	dermatologists largely report that they are managing and treating PsA patients. Furthermore, most dermatologists believe early aggressive use of biologic treatments will mitigate the development and/or progression of joint involvement, implying their willingness to manage their patients with PsA, particularly at early stages. P123TNF  therapy  has  been  the  standard  of  care  for  adult  patients diagnosed with autoimmune conditions, resulting in familiarity, comfort, and satisfaction among physicians. TNFs are typically used	 as	 a	 first-line	 biologic/small	 molecule	 in	 the	 treatment	 of	psoriasis (PSO) and psoriatic arthritis (PsA). However, the adoption of agents with alternate mechanisms of action (AMOA) has increased in recent years across indications and the practice of sequential TNF prescribing after an initial TNF is less common. Though	TNFs	are	still	the	preferred	first-line	agent,	there	are	discrepancies between specialists on the use of AMOA agents in the second-line setting. This research sought to understand the extent to which AMOA agents are prescribed after an initial TNF, and how this varies across PSO and PsA.An	independent	market	analytics	firm	collaborated	with	US	dermatologists (n = 201) and US rheumatologists (n = 200) to conduct a retrospective chart review of patients diagnosed with PSO (n = 950) and PsA (n = 1,008) who had switched from one biologic/apremilast to another agent in the prior 12 weeks. Physicians were able to submit up to 7 patient charts. PSO data was collected in September 2017 and PsA data was collected in April 2017.Analysis  of  patients  recently  switched  from  one  biologic/apremilast to a different brand revealed the majority of patients were treated	with	a	TNF	in	the	first-line	biologic/small	molecule	setting, though this varies by indication. Rheumatologists prescribe first-line	 TNFs	 significantly	 more	 than	 dermatologists.	 83%	 of	PsA	patients	are	prescribed	TNFs	first-line	compared	to	just	69%	of	PSO	patients.	Furthermore,	rheumatologists	are	significantly	more  likely  to  practice  TNF-sequencing  than  dermatologists. Indeed,	44%	of	PsA	patients	treated	with	a	first-line	TNF	were	prescribed a second TNF, compared to 6% of PSO patients. Additionally, certain TNF brands have experienced recent declines in	first	line	use,	though	this	varies	by	indication	as	well.	For	rheumatologists,	use	of	first-line	etanercept	has	declined,	38%	of	PsA	patients were initiated on etanercept at least 24 months prior to the study, compared to just 28% initiated on etanercept within 12 months	of	the	study.	For	dermatologists,	there	were	significantly	more	PSO	patients	initiated	on	etanercept	in	the	first-line	setting	24 months or more prior to the study compared to those initiated within 12 months of the study, (45% vs 31%.) This pattern also held	true	for	adalimumab,	where	42%	of	first-line	PSO	patients	initiated more than 24 months prior to the study were prescribed adalimumab,	a	figure	that	drops	to	just	27%	for	patients	initiated	within 12 months.Though	the	position	of	TNFs	as	first-line	agents	remains	dominant,	the	treating	specialist	and	indication	influence	how	widespread	and	continuous	TNF	use	is.	Specifically,	dermatologists	are	less	likely	to	prescribe	TNFs	as	first-line	agents	and	are	also	significantly	less	likely	to	partake	in	the	sequencing	of	TNFs	in	the	first-	and	second-line  setting  than  rheumatologists.  The  introduction  of several agents in PSO reporting substantially higher rates of skin clearance compared to TNFs could potentially be the source of increased  switching  to AMOAs  compared  to  other  specialties; whereas	 superior	 efficacy	 of	AMOA	 agents	 over	TNFs	 in	 PsA	may be less apparent. P124Introduction/Objective:VOYAGE  2  is  a  phase  3  double-blind, placebo/active comparator-controlled trial comparing guselkumab (GUS) with placebo (PBO) and adalimumab (ADA) in patients (pts) with moderate-to-severe PsO. The impact of treatment on patient-reported outcomes (PROs) was evaluated.Methods: Pts were randomized to GUS 100mg (wks 0 &amp; 4, then q8wks), ADA (80 mg wk 0, 40 mg wk 1, then 40 mg q2 wks), or PBO (wks 0, 4, &amp; 12, then GUS 100 mg wks 16 &amp; 20). We evaluated PROs using the Work Limitations Questionnaire [WLQ; work  productivity],  the  Hospital Anxiety  &amp;  Depression  Scale [HADS], and the Medical Outcomes Study 36-Item Short Form (SF-36; health related quality of life) at wk16 (GUS vs PBO) and wk24 (GUS vs ADA) in pts with and without PsA.Results: In all, 18% of pts reported a history of PsA. At wk16, GUS pts had numerically greater improvements vs PBO in work productivity,  anxiety  and  depression,  and  SF-36  PCS  &amp;  MCS scores regardless of PsA status. The least square (LS) mean differences (95% CI; adjusted for baseline value) for GUS vs PBO for all PROs were generally similar between pts with and without PsA. At wk24, GUS pts had numerically greater improvements vs ADA in all PROs regardless of PsA status. The LS mean differences for GUS vs ADA were generally greater for pts with PsA vs pts without PsA (Table).Conclusions: GUS showed better improvements in all PROs vs PBO at wk16 and vs ADA at wk24. Improvements vs PBO were similar  regardless  of  PsA  status,  while  improvements  vs ADA were greater for pts with PsA.Table: Summary of Change from Baseline in WLQ, HADS and SF-36 Scores from VOYAGE 20.13260.2913p-value0.0249WLQ Time ManagementWLQ MentalInterpersonalWLQ Physical Demandsw/out PSAN, LSMean Diff (95% CI)446, -7.7(-10.56, -4.88)419, -7.0(-10.31, -3.79)439, -4.9(-7.54, -2.35)440, -3.5(-6.11, -0.88)608, -1.6(-2.05, -1.07)608, -1.5 (-1.96, -0.98)Week 16 GUS vs PBOw/ PSAN, LSMean Diff (95% CI)86, -7.1(-13.21, -0.92)85, -6.6(-15.35, 2.06)83, -3.8(-11.03, 3.35)84, -7.9(-14.51, -1.21)135, -1.2(-2.45, 0.04)135, -1.2(-2.55, 0.06)135, 5.7(2.94, 8.43)135, 4.5(1.61, 7.48)N is the sample size across two groups.(3.31, 5.39)607, 4.8 (3.53, 6.15)SF-36 Physical ScoreSF-36 Mental ScoreWLQ Ouput DemandsDepression ScoreAnxiety Score&lt; 0.0001 607, 4.4 0.00260.05840.02110.0611Week 24 GUS vs ADAw/ PSAN, LSMean Diff (95% CI)w/out PSAN, LSMean Diff p(95% CI)value0.7152 445, -2.6pvalue0.0769p-value&lt; 0.0001 79, -1.6 (-10.58, 7.29)0.0002&lt; 0.0001 79, -4.3 (-14.40, 5.81)78, -11.4 (-19.37, -3.34)79, -14.7 (-24.29, -5.17)0.0089&lt; 0.0001 133, -2.1 0.3996 420, -0.60.69310.0061 436, -1.50.25690.0030 437, -1.20.41360.0012 608, -0.80.0025&lt; 0.0001 133, -1.5 0.0374 608, -0.40.1158&lt; 0.0001 132, 2.9&lt; 0.0001 132, 3.2 0.0346 608, 1.0(-0.10, 2.04)0.0591 608, 1.80.07530.0092(-3.33, -0.83)(-2.85, -0.09)(0.21, 5.57)(-0.12, 6.53)(-5.39, 0.28)(-3.46, 2.30)(-4.16, 1.11)(-3.94, 1.62)(-1.29, -0.28)(-0.91, 0.10)(0.45, 3.15)</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="inlineStr">
+        <is>
+          <t>Xie L. Xu</t>
+        </is>
+      </c>
+      <c r="B106" s="2" t="inlineStr">
+        <is>
+          <t>Division of Dermatology and Venereology, Geneva University Hospital, and Department of Pathology and Immunology, University of Geneva, Ge-neva, Switzerland, Department of Dermatology, New York Medical Col-lege at Metropolitan Hospital, New York, NY, Oregon Health &amp; Science University, Portland, OR, Janssen Research &amp; Development, LLC, Spring House, PA, Janssen Research &amp; Development, LLC, San Diego, CA, USAOregon Medical Research Center, Portland, OR, Department of Medicine (Dermatology) UCLA, Los Angeles, CA, USA, Probity Medical Research, Waterloo, ON, Skin Centre for Dermatology, Peterborough, ON, Canada, Sun Pharmaceuticals, Princeton, NJ, Merck &amp; Co., Inc., Kenilworth, NJ, USA, SCIderm Research Institute and Dermatologikum Hamburg, Ham-burg, GermanySpherix Global InsightsSpherix Global InsightsHospital de la Santa Creu i Sant Pau and Universitat Autònoma de Bar-celona Medical School, Barcelona, Spain, Janssen Research &amp; Develop-ment, LLC, Spring House, PA, USA, McMaster University, Hamilton, ON, Canada, University of Melbourne, St. Vincent’s Hospital, Melbourne and Skin &amp; Cancer Foundation Inc., Carlton</t>
+        </is>
+      </c>
+      <c r="C106" s="2" t="inlineStr">
+        <is>
+          <t>Victoria, Australia</t>
+        </is>
+      </c>
+      <c r="D106" s="2" t="inlineStr">
+        <is>
+          <t>P119</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="inlineStr">
+        <is>
+          <t>EFFICACY AND SAFETY RESULTS OF GUSELKUMAB IN PATIENTS WITH ACTIVE PSORIATIC ARTHRITIS OVER 56 WEEKSTILDRAKIZUMAB EFFICACY OVER TIME BY WEEK 28 RESPONSE LEVELS IN TWO PHASE 3 CLINICAL TRIALS IN PATIENTS WITH CHRONIC PLAQUE PSORIASISPOTENTIAL DISCONNECT: CO­MANAGEMENT OF PATIENTS WITH PSORIATIC ARTHRITIS BETWEEN THE USE OF TUMOR NECROSIS FACTOR INHIBITORS (TNF) IN THE SECOND­LINE BIOLOGIC/SMALL MOLECULE SETTING: A CROSS­SPECIALTY COMPARISONIMPACT OF GUSELKUMAB VERSUS PLACEBO AND ADALIMUMAB ON PATIENT REPORTED OUTCOMES IN PATIENTS WITH AND WITHOUT PSORIATIC ARTHRITIS IN VOYAGE 2</t>
+        </is>
+      </c>
+      <c r="F106" s="2" t="inlineStr">
+        <is>
+          <t>Introduction/Objective:To	evaluate	the	efficacy,	safety	&amp;	tolerability of guselkumab (GUS) in patients (pts) w/ PsA.Methods: In this double-blind, PBO-controlled study, pts w/active PsA	&amp;	≥3%	BSA	of	PsO	despite	treatment	were	randomized	2:1	to SC GUS 100mg or PBO at wks0, 4, &amp; q8w thereafter through wk44. At  wk16,  pts  w/ &lt; 5%  improvement  from  baseline  (BL) in swollen &amp; tender joint counts were eligible for early escape (EE) to open-label ustekinumab. At wk24, PBO pts crossed-over to GUS 100mg (PBO to GUS). The primary endpoint was ACR 20 at wk24. Major secondary endpoints were PASI 75 &amp; ACR 50 responses, change from BL in HAQ-DI, &amp; improvement in enthesitis  (Leeds  enthesitis  index  [LEI])  &amp;  dactylitis  score  (by a  0–3  scoring  system)  at  wk24;  &amp; ACR  20  response  at  wk16. Through	wk24,	efficacy	analyses	were	performed	in	a	modified	Intent-to-Treat (mITT) population. Pts who met treatment failure criteria, EE or had missing data at wk24 were considered nonresponders	for	ACR/MDA	endpoints	at	wk24.	Efficacy	post	wk24	was evaluated in pts who did not EE &amp; continued treatment at wk24 based on observed data.Results: Of 149 pts (PBO:49, GUS:100), BL demographics &amp; ACR component measures were generally similar between the 2 groups. 4	PBO	&amp;	9	GUS	pts	were	previously	exposed	to	anti-TNFα	agents.	At	wk24,	significantly	more	GUS	pts	achieved	ACR	20	(58.0%	vs	18.4%, p &lt; 0.001), PASI 75 (78.6% vs 12.5%, p &lt; 0.001), &amp; ACR 50 (34.0% vs 10.2%, p = 0.002) responses vs PBO. At wk24, mean decrease in HAQ-DI score from BL (-0.42 vs. -0.06, p &lt; 0.001), &amp; median percent improvement in enthesitis (100% vs 33.33%, p = 0.009) &amp; dactylitis (100% vs 33.33%, p &lt; 0.001) scores (among pts	w/	BL	enthesitis	and	dactylitis)	were	significantly	greater	in	GUS	group	vs.	PBO.	Significantly	more	GUS	pts	achieved	ACR	20 at wk16 (60.0% vs 16.3%, p &lt; 0.001) and MDA at wk24 (23.0% vs. 2.0%, p = 0.001)	vs.	PBO.	Post	wk24,	efficacy	improved	in	PBO to GUS crossover pts as expected and were well-maintained in GUS pts through wk56.Through wk24, the frequencies of AEs &amp; infections were comparable (AEs: PBO 32.7%; GUS 36.0%; infections: PBO: 20.4%; GUS: 16.0%). Post wk24, there was no disproportional increase in AE frequency or infections among GUS pts w/ longer exposure. Through wk56, there was 1 malignancy (basal cell carcinoma), 6 SAEs (myocardial infarction, osteoarthritis, pupils unequal, radius fracture, pneumonia, ulcerative keratitis), 2 pts discontinued treatment due to AEs, 1 grade 3 neutropenia, &amp; 6 pts were positive for antibodies to GUS. No deaths occurred through wk56.Conclusions: GUS	demonstrated	significant	improvement	on	joint	symptoms, physical function, PsO, enthesitis, dactylitis &amp; quality of	life;	efficacy	was	well-maintained	through	wk56.	GUS	was	well	tolerated in this population after ~1 year of exposure.Data has been previously presented at EULAR 2017 &amp; ACR 2017P12049Introduction: Tildrakizumab	(TIL),	a	humanized,	IgG1/κ	monoclonal	antibody	for	IL-23p19,	recently	demonstrated	its	efficacy	in subjects with chronic plaque psoriasis in two, phase 3 clinical studies1.Objective:In	this	analysis,	we	examined	efficacy	from	baseline	to week 52 among TIL patients achieving various Psoriasis Area and Severity Index (PASI) responses at week 28.Methods:  ReSURFACE  1  (NCT01722331)  and  reSURFACE  2 (NCT01729754) were double-blind, randomized controlled studies in subjects with moderate-to-severe chronic plaque psoriasis. Part 1  (0–12  weeks)  was  placebo  controlled;  Part  2  (12–28  weeks) re-randomized  placebo  patients  to  TIL;  Part  3  (28–64  weeks, reSURFACE 1; 28–52 weeks, reSURFACE 2) re-randomized patients	with	≥PASI	50	to	continue	or	increase	TIL	dose	or	to	placebo	based on their PASI response at week 28. In this post-hoc pooled analysis, patients consistently on TIL 100 mg and 200 mg from baseline	to	week	52	were	classified	in	5	mutually	exclusive	groups	based on their week-28 PASI response: PASI  &lt; 50, PASI 50–74, PASI 75–89, PASI 90–99, and PASI 100. Baseline characteristics and % PASI improvement from baseline up to week 52 (observed data) were examined for each group.Results: This analysis included 575 (TIL 100 mg) and 581 (TIL 200 mg) patients; the proportions of patients with week-28 PASI 75/90/100  responses  were  77%/54%/23%  (TIL  100  mg)  and 78%/58%/29%  (TIL  200  mg). At  week  28,  133  (23.1%),  175 (30.4%), 137 (23.8%), 82 (14.3%), and 48 (8.3%) TIL 100 mg patients and 170 (29.3%), 169 (29.1%), 114 (19.6%), 105 (18.1%), and 23 (4.0%) TIL 200mg achieved PASI 100, PASI 90–99, PASI 75–89,  PASI  50–74,  and  PASI   &lt; 50,  respectively.  On  average, PASI 100 patients were younger, lighter, and had shorter disease duration at baseline compared to other response groups. For TIL 100 mg, % PASI improvement was highest for PASI 100 and least for PASI &lt; 50 patients on all visits up to week 28 (week 4: 53%, 46%, 38%, 30%, and 16%; week 28: 100%, 95%, 83%, 64%, and 33% for PASI 100, PASI 90–99, PASI 75–89, PASI 50–74, and PASI   &lt; 50 categories, respectively). Among patients achieving PASI  &gt; 50 at week 28 and continued up to 52 weeks, % PASI improvement maintained or improved from week 28 to week 52. Similar results were observed for TIL 200 mg as well as a subgroup analysis with bio-naive and bio-experienced patients respectively.Conclusions: The majority of TIL 100 and 200 mg patients achieved PASI &gt; 50 response at week 28, and PASI improvement was maintained from week 28 to week 52. Among patients achieving PASI  &gt; 90 at week 28, TIL 100 and 200 mg were associated with a rapid PASI improvement by week 4.1. Reich K, Papp KA, Blauvelt A, et al. Tildrakizumab versus placebo or  etanercept  for  chronic  plaque  psoriasis  (reSURFACE  1  and  reSURFACE 2): results from two randomised controlled, phase 3 trials. Lancet. 2017;390(10091):276-288.This abstract was presented at 2018 Annual Meeting of American Academy of Dermatology.Note: This abstract was presented at 2018 Annual Meeting of American Academy of Dermatology. P122RHEUMATOLOGISTS AND DERMATOLOGISTSIntroduction: On average, the majority of psoriasis (PSO) patients are diagnosed a year prior to a psoriatic arthritis (PsA) diagnosis, making the referral patterns and co-management between derma50tologists and rheumatologists an important aspect to understanding the management of these diseases. Dermatologists represent an important referral-base for rheumatologists, accounting for over one-quarter of all new PsA patients. However, there are discrepancies between the specialists regarding the timing in which these referrals take place.Objectives: One objective of the study was to gain further insight into rheumatologist and dermatologist co-management of patients with PsA.Methods: An	independent	market	analytics	firm	collaborated	with	US rheumatologists (n = 101) and US dermatologists (n = 101) to conduct analysis of both the PsA and PSO markets. Data were collected	 via	 an	 online	 survey	 fielded	 in	 November/December	2017  and  included  patient  demographics,  as  well  as  physician demographics, and attitudinal survey responses.Results: Rheumatologists indicate that 51 percent of referrals result from primary care physicians, 28 percent result from a dermatologist,  and  13  percent  are  self-referred. The  majority  (73%)  of PsA patients under the care of collaborating rheumatologists had previously been diagnosed with PSO prior to PsA. Dermatologists state that one-quarter of their patients with severe PSO also have PsA, with more than one-third of severe PSO patients also being co-managed with a rheumatologist. The majority of rheumatologists	believe	that	dermatologists	refer	patients	at	the	first	sign	of	joint involvement and do not attempt to treat joint pain; however, 31 percent of dermatologists report they do not refer PSO patients to rheumatologists until patients have failed biologics or are not improving on their current systemic regimen, while an additional 35  percent  report  they  refer  only  severe  arthritis/patients  with worsening disease. Furthermore, only 35 percent of dermatologists agree that they refer their PSO patients to a rheumatologists at the first	sign	of	joint	involvement. At the time of dermatologist referral, rheumatologists state that two-thirds	of	referred	patients	are	biologic/apremilast	naïve,	with	only 6 percent having controlled PSO and joint pain. However, dermatologists state that 40 percent the patients that they referred to rheumatologists were treated with biologics and 15 percent of said  referred  patients  were  treated  with  apremilast.  Indeed,  76 percent of dermatologists agree with the statement, “I believe that the disease (PsA),” while 57 percent of dermatologists agree “I Conclusion: With many patients diagnosed with both PSO and PsA,  co-management  between  dermatologists  and  rheumatologists is common. While rheumatologists appear to be under the impression that they are receiving the majority of dermatologisttreated	patients	with	PsA	at	the	first	sign	of	joint	involvement,	dermatologists largely report that they are managing and treating PsA patients. Furthermore, most dermatologists believe early aggressive use of biologic treatments will mitigate the development and/or progression of joint involvement, implying their willingness to manage their patients with PsA, particularly at early stages. P123TNF  therapy  has  been  the  standard  of  care  for  adult  patients diagnosed with autoimmune conditions, resulting in familiarity, comfort, and satisfaction among physicians. TNFs are typically used	 as	 a	 first-line	 biologic/small	 molecule	 in	 the	 treatment	 of	psoriasis (PSO) and psoriatic arthritis (PsA). However, the adoption of agents with alternate mechanisms of action (AMOA) has increased in recent years across indications and the practice of sequential TNF prescribing after an initial TNF is less common. Though	TNFs	are	still	the	preferred	first-line	agent,	there	are	discrepancies between specialists on the use of AMOA agents in the second-line setting. This research sought to understand the extent to which AMOA agents are prescribed after an initial TNF, and how this varies across PSO and PsA.An	independent	market	analytics	firm	collaborated	with	US	dermatologists (n = 201) and US rheumatologists (n = 200) to conduct a retrospective chart review of patients diagnosed with PSO (n = 950) and PsA (n = 1,008) who had switched from one biologic/apremilast to another agent in the prior 12 weeks. Physicians were able to submit up to 7 patient charts. PSO data was collected in September 2017 and PsA data was collected in April 2017.Analysis  of  patients  recently  switched  from  one  biologic/apremilast to a different brand revealed the majority of patients were treated	with	a	TNF	in	the	first-line	biologic/small	molecule	setting, though this varies by indication. Rheumatologists prescribe first-line	 TNFs	 significantly	 more	 than	 dermatologists.	 83%	 of	PsA	patients	are	prescribed	TNFs	first-line	compared	to	just	69%	of	PSO	patients.	Furthermore,	rheumatologists	are	significantly	more  likely  to  practice  TNF-sequencing  than  dermatologists. Indeed,	44%	of	PsA	patients	treated	with	a	first-line	TNF	were	prescribed a second TNF, compared to 6% of PSO patients. Additionally, certain TNF brands have experienced recent declines in	first	line	use,	though	this	varies	by	indication	as	well.	For	rheumatologists,	use	of	first-line	etanercept	has	declined,	38%	of	PsA	patients were initiated on etanercept at least 24 months prior to the study, compared to just 28% initiated on etanercept within 12 months	of	the	study.	For	dermatologists,	there	were	significantly	more	PSO	patients	initiated	on	etanercept	in	the	first-line	setting	24 months or more prior to the study compared to those initiated within 12 months of the study, (45% vs 31%.) This pattern also held	true	for	adalimumab,	where	42%	of	first-line	PSO	patients	initiated more than 24 months prior to the study were prescribed adalimumab,	a	figure	that	drops	to	just	27%	for	patients	initiated	within 12 months.Though	the	position	of	TNFs	as	first-line	agents	remains	dominant,	the	treating	specialist	and	indication	influence	how	widespread	and	continuous	TNF	use	is.	Specifically,	dermatologists	are	less	likely	to	prescribe	TNFs	as	first-line	agents	and	are	also	significantly	less	likely	to	partake	in	the	sequencing	of	TNFs	in	the	first-	and	second-line  setting  than  rheumatologists.  The  introduction  of several agents in PSO reporting substantially higher rates of skin clearance compared to TNFs could potentially be the source of increased  switching  to AMOAs  compared  to  other  specialties; whereas	 superior	 efficacy	 of	AMOA	 agents	 over	TNFs	 in	 PsA	may be less apparent. P124Introduction/Objective:VOYAGE  2  is  a  phase  3  double-blind, placebo/active comparator-controlled trial comparing guselkumab (GUS) with placebo (PBO) and adalimumab (ADA) in patients (pts) with moderate-to-severe PsO. The impact of treatment on patient-reported outcomes (PROs) was evaluated.Methods: Pts were randomized to GUS 100mg (wks 0 &amp; 4, then q8wks), ADA (80 mg wk 0, 40 mg wk 1, then 40 mg q2 wks), or PBO (wks 0, 4, &amp; 12, then GUS 100 mg wks 16 &amp; 20). We evaluated PROs using the Work Limitations Questionnaire [WLQ; work  productivity],  the  Hospital Anxiety  &amp;  Depression  Scale [HADS], and the Medical Outcomes Study 36-Item Short Form (SF-36; health related quality of life) at wk16 (GUS vs PBO) and wk24 (GUS vs ADA) in pts with and without PsA.Results: In all, 18% of pts reported a history of PsA. At wk16, GUS pts had numerically greater improvements vs PBO in work productivity,  anxiety  and  depression,  and  SF-36  PCS  &amp;  MCS scores regardless of PsA status. The least square (LS) mean differences (95% CI; adjusted for baseline value) for GUS vs PBO for all PROs were generally similar between pts with and without PsA. At wk24, GUS pts had numerically greater improvements vs ADA in all PROs regardless of PsA status. The LS mean differences for GUS vs ADA were generally greater for pts with PsA vs pts without PsA (Table).Conclusions: GUS showed better improvements in all PROs vs PBO at wk16 and vs ADA at wk24. Improvements vs PBO were similar  regardless  of  PsA  status,  while  improvements  vs ADA were greater for pts with PsA.Table: Summary of Change from Baseline in WLQ, HADS and SF-36 Scores from VOYAGE 20.13260.2913p-value0.0249WLQ Time ManagementWLQ MentalInterpersonalWLQ Physical Demandsw/out PSAN, LSMean Diff (95% CI)446, -7.7(-10.56, -4.88)419, -7.0(-10.31, -3.79)439, -4.9(-7.54, -2.35)440, -3.5(-6.11, -0.88)608, -1.6(-2.05, -1.07)608, -1.5 (-1.96, -0.98)Week 16 GUS vs PBOw/ PSAN, LSMean Diff (95% CI)86, -7.1(-13.21, -0.92)85, -6.6(-15.35, 2.06)83, -3.8(-11.03, 3.35)84, -7.9(-14.51, -1.21)135, -1.2(-2.45, 0.04)135, -1.2(-2.55, 0.06)135, 5.7(2.94, 8.43)135, 4.5(1.61, 7.48)N is the sample size across two groups.(3.31, 5.39)607, 4.8 (3.53, 6.15)SF-36 Physical ScoreSF-36 Mental ScoreWLQ Ouput DemandsDepression ScoreAnxiety Score&lt; 0.0001 607, 4.4 0.00260.05840.02110.0611Week 24 GUS vs ADAw/ PSAN, LSMean Diff (95% CI)w/out PSAN, LSMean Diff p(95% CI)value0.7152 445, -2.6pvalue0.0769p-value&lt; 0.0001 79, -1.6 (-10.58, 7.29)0.0002&lt; 0.0001 79, -4.3 (-14.40, 5.81)78, -11.4 (-19.37, -3.34)79, -14.7 (-24.29, -5.17)0.0089&lt; 0.0001 133, -2.1 0.3996 420, -0.60.69310.0061 436, -1.50.25690.0030 437, -1.20.41360.0012 608, -0.80.0025&lt; 0.0001 133, -1.5 0.0374 608, -0.40.1158&lt; 0.0001 132, 2.9&lt; 0.0001 132, 3.2 0.0346 608, 1.0(-0.10, 2.04)0.0591 608, 1.80.07530.0092(-3.33, -0.83)(-2.85, -0.09)(0.21, 5.57)(-0.12, 6.53)(-5.39, 0.28)(-3.46, 2.30)(-4.16, 1.11)(-3.94, 1.62)(-1.29, -0.28)(-0.91, 0.10)(0.45, 3.15)</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="inlineStr">
+        <is>
+          <t>Elizabeth HsiaAndrew Blauvelt</t>
+        </is>
+      </c>
+      <c r="B107" s="2" t="inlineStr">
+        <is>
+          <t>Division of Dermatology and Venereology, Geneva University Hospital, and Department of Pathology and Immunology, University of Geneva, Ge-neva, Switzerland, Department of Dermatology, New York Medical Col-lege at Metropolitan Hospital, New York, NY, Oregon Health &amp; Science University, Portland, OR, Janssen Research &amp; Development, LLC, Spring House, PA, Janssen Research &amp; Development, LLC, San Diego, CA, USAOregon Medical Research Center, Portland, OR, Department of Medicine (Dermatology) UCLA, Los Angeles, CA, USA, Probity Medical Research, Waterloo, ON, Skin Centre for Dermatology, Peterborough, ON, Canada, Sun Pharmaceuticals, Princeton, NJ, Merck &amp; Co., Inc., Kenilworth, NJ, USA, SCIderm Research Institute and Dermatologikum Hamburg, Ham-burg, GermanySpherix Global InsightsSpherix Global InsightsHospital de la Santa Creu i Sant Pau and Universitat Autònoma de Bar-celona Medical School, Barcelona, Spain, Janssen Research &amp; Develop-ment, LLC, Spring House, PA, USA, McMaster University, Hamilton, ON, Canada, University of Melbourne, St. Vincent’s Hospital, Melbourne and Skin &amp; Cancer Foundation Inc., Carlton</t>
+        </is>
+      </c>
+      <c r="C107" s="2" t="inlineStr">
+        <is>
+          <t>Victoria, Australia</t>
+        </is>
+      </c>
+      <c r="D107" s="2" t="inlineStr">
+        <is>
+          <t>P119</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="inlineStr">
+        <is>
+          <t>EFFICACY AND SAFETY RESULTS OF GUSELKUMAB IN PATIENTS WITH ACTIVE PSORIATIC ARTHRITIS OVER 56 WEEKSTILDRAKIZUMAB EFFICACY OVER TIME BY WEEK 28 RESPONSE LEVELS IN TWO PHASE 3 CLINICAL TRIALS IN PATIENTS WITH CHRONIC PLAQUE PSORIASISPOTENTIAL DISCONNECT: CO­MANAGEMENT OF PATIENTS WITH PSORIATIC ARTHRITIS BETWEEN THE USE OF TUMOR NECROSIS FACTOR INHIBITORS (TNF) IN THE SECOND­LINE BIOLOGIC/SMALL MOLECULE SETTING: A CROSS­SPECIALTY COMPARISONIMPACT OF GUSELKUMAB VERSUS PLACEBO AND ADALIMUMAB ON PATIENT REPORTED OUTCOMES IN PATIENTS WITH AND WITHOUT PSORIATIC ARTHRITIS IN VOYAGE 2</t>
+        </is>
+      </c>
+      <c r="F107" s="2" t="inlineStr">
+        <is>
+          <t>Introduction/Objective:To	evaluate	the	efficacy,	safety	&amp;	tolerability of guselkumab (GUS) in patients (pts) w/ PsA.Methods: In this double-blind, PBO-controlled study, pts w/active PsA	&amp;	≥3%	BSA	of	PsO	despite	treatment	were	randomized	2:1	to SC GUS 100mg or PBO at wks0, 4, &amp; q8w thereafter through wk44. At  wk16,  pts  w/ &lt; 5%  improvement  from  baseline  (BL) in swollen &amp; tender joint counts were eligible for early escape (EE) to open-label ustekinumab. At wk24, PBO pts crossed-over to GUS 100mg (PBO to GUS). The primary endpoint was ACR 20 at wk24. Major secondary endpoints were PASI 75 &amp; ACR 50 responses, change from BL in HAQ-DI, &amp; improvement in enthesitis  (Leeds  enthesitis  index  [LEI])  &amp;  dactylitis  score  (by a  0–3  scoring  system)  at  wk24;  &amp; ACR  20  response  at  wk16. Through	wk24,	efficacy	analyses	were	performed	in	a	modified	Intent-to-Treat (mITT) population. Pts who met treatment failure criteria, EE or had missing data at wk24 were considered nonresponders	for	ACR/MDA	endpoints	at	wk24.	Efficacy	post	wk24	was evaluated in pts who did not EE &amp; continued treatment at wk24 based on observed data.Results: Of 149 pts (PBO:49, GUS:100), BL demographics &amp; ACR component measures were generally similar between the 2 groups. 4	PBO	&amp;	9	GUS	pts	were	previously	exposed	to	anti-TNFα	agents.	At	wk24,	significantly	more	GUS	pts	achieved	ACR	20	(58.0%	vs	18.4%, p &lt; 0.001), PASI 75 (78.6% vs 12.5%, p &lt; 0.001), &amp; ACR 50 (34.0% vs 10.2%, p = 0.002) responses vs PBO. At wk24, mean decrease in HAQ-DI score from BL (-0.42 vs. -0.06, p &lt; 0.001), &amp; median percent improvement in enthesitis (100% vs 33.33%, p = 0.009) &amp; dactylitis (100% vs 33.33%, p &lt; 0.001) scores (among pts	w/	BL	enthesitis	and	dactylitis)	were	significantly	greater	in	GUS	group	vs.	PBO.	Significantly	more	GUS	pts	achieved	ACR	20 at wk16 (60.0% vs 16.3%, p &lt; 0.001) and MDA at wk24 (23.0% vs. 2.0%, p = 0.001)	vs.	PBO.	Post	wk24,	efficacy	improved	in	PBO to GUS crossover pts as expected and were well-maintained in GUS pts through wk56.Through wk24, the frequencies of AEs &amp; infections were comparable (AEs: PBO 32.7%; GUS 36.0%; infections: PBO: 20.4%; GUS: 16.0%). Post wk24, there was no disproportional increase in AE frequency or infections among GUS pts w/ longer exposure. Through wk56, there was 1 malignancy (basal cell carcinoma), 6 SAEs (myocardial infarction, osteoarthritis, pupils unequal, radius fracture, pneumonia, ulcerative keratitis), 2 pts discontinued treatment due to AEs, 1 grade 3 neutropenia, &amp; 6 pts were positive for antibodies to GUS. No deaths occurred through wk56.Conclusions: GUS	demonstrated	significant	improvement	on	joint	symptoms, physical function, PsO, enthesitis, dactylitis &amp; quality of	life;	efficacy	was	well-maintained	through	wk56.	GUS	was	well	tolerated in this population after ~1 year of exposure.Data has been previously presented at EULAR 2017 &amp; ACR 2017P12049Introduction: Tildrakizumab	(TIL),	a	humanized,	IgG1/κ	monoclonal	antibody	for	IL-23p19,	recently	demonstrated	its	efficacy	in subjects with chronic plaque psoriasis in two, phase 3 clinical studies1.Objective:In	this	analysis,	we	examined	efficacy	from	baseline	to week 52 among TIL patients achieving various Psoriasis Area and Severity Index (PASI) responses at week 28.Methods:  ReSURFACE  1  (NCT01722331)  and  reSURFACE  2 (NCT01729754) were double-blind, randomized controlled studies in subjects with moderate-to-severe chronic plaque psoriasis. Part 1  (0–12  weeks)  was  placebo  controlled;  Part  2  (12–28  weeks) re-randomized  placebo  patients  to  TIL;  Part  3  (28–64  weeks, reSURFACE 1; 28–52 weeks, reSURFACE 2) re-randomized patients	with	≥PASI	50	to	continue	or	increase	TIL	dose	or	to	placebo	based on their PASI response at week 28. In this post-hoc pooled analysis, patients consistently on TIL 100 mg and 200 mg from baseline	to	week	52	were	classified	in	5	mutually	exclusive	groups	based on their week-28 PASI response: PASI  &lt; 50, PASI 50–74, PASI 75–89, PASI 90–99, and PASI 100. Baseline characteristics and % PASI improvement from baseline up to week 52 (observed data) were examined for each group.Results: This analysis included 575 (TIL 100 mg) and 581 (TIL 200 mg) patients; the proportions of patients with week-28 PASI 75/90/100  responses  were  77%/54%/23%  (TIL  100  mg)  and 78%/58%/29%  (TIL  200  mg). At  week  28,  133  (23.1%),  175 (30.4%), 137 (23.8%), 82 (14.3%), and 48 (8.3%) TIL 100 mg patients and 170 (29.3%), 169 (29.1%), 114 (19.6%), 105 (18.1%), and 23 (4.0%) TIL 200mg achieved PASI 100, PASI 90–99, PASI 75–89,  PASI  50–74,  and  PASI   &lt; 50,  respectively.  On  average, PASI 100 patients were younger, lighter, and had shorter disease duration at baseline compared to other response groups. For TIL 100 mg, % PASI improvement was highest for PASI 100 and least for PASI &lt; 50 patients on all visits up to week 28 (week 4: 53%, 46%, 38%, 30%, and 16%; week 28: 100%, 95%, 83%, 64%, and 33% for PASI 100, PASI 90–99, PASI 75–89, PASI 50–74, and PASI   &lt; 50 categories, respectively). Among patients achieving PASI  &gt; 50 at week 28 and continued up to 52 weeks, % PASI improvement maintained or improved from week 28 to week 52. Similar results were observed for TIL 200 mg as well as a subgroup analysis with bio-naive and bio-experienced patients respectively.Conclusions: The majority of TIL 100 and 200 mg patients achieved PASI &gt; 50 response at week 28, and PASI improvement was maintained from week 28 to week 52. Among patients achieving PASI  &gt; 90 at week 28, TIL 100 and 200 mg were associated with a rapid PASI improvement by week 4.1. Reich K, Papp KA, Blauvelt A, et al. Tildrakizumab versus placebo or  etanercept  for  chronic  plaque  psoriasis  (reSURFACE  1  and  reSURFACE 2): results from two randomised controlled, phase 3 trials. Lancet. 2017;390(10091):276-288.This abstract was presented at 2018 Annual Meeting of American Academy of Dermatology.Note: This abstract was presented at 2018 Annual Meeting of American Academy of Dermatology. P122RHEUMATOLOGISTS AND DERMATOLOGISTSIntroduction: On average, the majority of psoriasis (PSO) patients are diagnosed a year prior to a psoriatic arthritis (PsA) diagnosis, making the referral patterns and co-management between derma50tologists and rheumatologists an important aspect to understanding the management of these diseases. Dermatologists represent an important referral-base for rheumatologists, accounting for over one-quarter of all new PsA patients. However, there are discrepancies between the specialists regarding the timing in which these referrals take place.Objectives: One objective of the study was to gain further insight into rheumatologist and dermatologist co-management of patients with PsA.Methods: An	independent	market	analytics	firm	collaborated	with	US rheumatologists (n = 101) and US dermatologists (n = 101) to conduct analysis of both the PsA and PSO markets. Data were collected	 via	 an	 online	 survey	 fielded	 in	 November/December	2017  and  included  patient  demographics,  as  well  as  physician demographics, and attitudinal survey responses.Results: Rheumatologists indicate that 51 percent of referrals result from primary care physicians, 28 percent result from a dermatologist,  and  13  percent  are  self-referred. The  majority  (73%)  of PsA patients under the care of collaborating rheumatologists had previously been diagnosed with PSO prior to PsA. Dermatologists state that one-quarter of their patients with severe PSO also have PsA, with more than one-third of severe PSO patients also being co-managed with a rheumatologist. The majority of rheumatologists	believe	that	dermatologists	refer	patients	at	the	first	sign	of	joint involvement and do not attempt to treat joint pain; however, 31 percent of dermatologists report they do not refer PSO patients to rheumatologists until patients have failed biologics or are not improving on their current systemic regimen, while an additional 35  percent  report  they  refer  only  severe  arthritis/patients  with worsening disease. Furthermore, only 35 percent of dermatologists agree that they refer their PSO patients to a rheumatologists at the first	sign	of	joint	involvement. At the time of dermatologist referral, rheumatologists state that two-thirds	of	referred	patients	are	biologic/apremilast	naïve,	with	only 6 percent having controlled PSO and joint pain. However, dermatologists state that 40 percent the patients that they referred to rheumatologists were treated with biologics and 15 percent of said  referred  patients  were  treated  with  apremilast.  Indeed,  76 percent of dermatologists agree with the statement, “I believe that the disease (PsA),” while 57 percent of dermatologists agree “I Conclusion: With many patients diagnosed with both PSO and PsA,  co-management  between  dermatologists  and  rheumatologists is common. While rheumatologists appear to be under the impression that they are receiving the majority of dermatologisttreated	patients	with	PsA	at	the	first	sign	of	joint	involvement,	dermatologists largely report that they are managing and treating PsA patients. Furthermore, most dermatologists believe early aggressive use of biologic treatments will mitigate the development and/or progression of joint involvement, implying their willingness to manage their patients with PsA, particularly at early stages. P123TNF  therapy  has  been  the  standard  of  care  for  adult  patients diagnosed with autoimmune conditions, resulting in familiarity, comfort, and satisfaction among physicians. TNFs are typically used	 as	 a	 first-line	 biologic/small	 molecule	 in	 the	 treatment	 of	psoriasis (PSO) and psoriatic arthritis (PsA). However, the adoption of agents with alternate mechanisms of action (AMOA) has increased in recent years across indications and the practice of sequential TNF prescribing after an initial TNF is less common. Though	TNFs	are	still	the	preferred	first-line	agent,	there	are	discrepancies between specialists on the use of AMOA agents in the second-line setting. This research sought to understand the extent to which AMOA agents are prescribed after an initial TNF, and how this varies across PSO and PsA.An	independent	market	analytics	firm	collaborated	with	US	dermatologists (n = 201) and US rheumatologists (n = 200) to conduct a retrospective chart review of patients diagnosed with PSO (n = 950) and PsA (n = 1,008) who had switched from one biologic/apremilast to another agent in the prior 12 weeks. Physicians were able to submit up to 7 patient charts. PSO data was collected in September 2017 and PsA data was collected in April 2017.Analysis  of  patients  recently  switched  from  one  biologic/apremilast to a different brand revealed the majority of patients were treated	with	a	TNF	in	the	first-line	biologic/small	molecule	setting, though this varies by indication. Rheumatologists prescribe first-line	 TNFs	 significantly	 more	 than	 dermatologists.	 83%	 of	PsA	patients	are	prescribed	TNFs	first-line	compared	to	just	69%	of	PSO	patients.	Furthermore,	rheumatologists	are	significantly	more  likely  to  practice  TNF-sequencing  than  dermatologists. Indeed,	44%	of	PsA	patients	treated	with	a	first-line	TNF	were	prescribed a second TNF, compared to 6% of PSO patients. Additionally, certain TNF brands have experienced recent declines in	first	line	use,	though	this	varies	by	indication	as	well.	For	rheumatologists,	use	of	first-line	etanercept	has	declined,	38%	of	PsA	patients were initiated on etanercept at least 24 months prior to the study, compared to just 28% initiated on etanercept within 12 months	of	the	study.	For	dermatologists,	there	were	significantly	more	PSO	patients	initiated	on	etanercept	in	the	first-line	setting	24 months or more prior to the study compared to those initiated within 12 months of the study, (45% vs 31%.) This pattern also held	true	for	adalimumab,	where	42%	of	first-line	PSO	patients	initiated more than 24 months prior to the study were prescribed adalimumab,	a	figure	that	drops	to	just	27%	for	patients	initiated	within 12 months.Though	the	position	of	TNFs	as	first-line	agents	remains	dominant,	the	treating	specialist	and	indication	influence	how	widespread	and	continuous	TNF	use	is.	Specifically,	dermatologists	are	less	likely	to	prescribe	TNFs	as	first-line	agents	and	are	also	significantly	less	likely	to	partake	in	the	sequencing	of	TNFs	in	the	first-	and	second-line  setting  than  rheumatologists.  The  introduction  of several agents in PSO reporting substantially higher rates of skin clearance compared to TNFs could potentially be the source of increased  switching  to AMOAs  compared  to  other  specialties; whereas	 superior	 efficacy	 of	AMOA	 agents	 over	TNFs	 in	 PsA	may be less apparent. P124Introduction/Objective:VOYAGE  2  is  a  phase  3  double-blind, placebo/active comparator-controlled trial comparing guselkumab (GUS) with placebo (PBO) and adalimumab (ADA) in patients (pts) with moderate-to-severe PsO. The impact of treatment on patient-reported outcomes (PROs) was evaluated.Methods: Pts were randomized to GUS 100mg (wks 0 &amp; 4, then q8wks), ADA (80 mg wk 0, 40 mg wk 1, then 40 mg q2 wks), or PBO (wks 0, 4, &amp; 12, then GUS 100 mg wks 16 &amp; 20). We evaluated PROs using the Work Limitations Questionnaire [WLQ; work  productivity],  the  Hospital Anxiety  &amp;  Depression  Scale [HADS], and the Medical Outcomes Study 36-Item Short Form (SF-36; health related quality of life) at wk16 (GUS vs PBO) and wk24 (GUS vs ADA) in pts with and without PsA.Results: In all, 18% of pts reported a history of PsA. At wk16, GUS pts had numerically greater improvements vs PBO in work productivity,  anxiety  and  depression,  and  SF-36  PCS  &amp;  MCS scores regardless of PsA status. The least square (LS) mean differences (95% CI; adjusted for baseline value) for GUS vs PBO for all PROs were generally similar between pts with and without PsA. At wk24, GUS pts had numerically greater improvements vs ADA in all PROs regardless of PsA status. The LS mean differences for GUS vs ADA were generally greater for pts with PsA vs pts without PsA (Table).Conclusions: GUS showed better improvements in all PROs vs PBO at wk16 and vs ADA at wk24. Improvements vs PBO were similar  regardless  of  PsA  status,  while  improvements  vs ADA were greater for pts with PsA.Table: Summary of Change from Baseline in WLQ, HADS and SF-36 Scores from VOYAGE 20.13260.2913p-value0.0249WLQ Time ManagementWLQ MentalInterpersonalWLQ Physical Demandsw/out PSAN, LSMean Diff (95% CI)446, -7.7(-10.56, -4.88)419, -7.0(-10.31, -3.79)439, -4.9(-7.54, -2.35)440, -3.5(-6.11, -0.88)608, -1.6(-2.05, -1.07)608, -1.5 (-1.96, -0.98)Week 16 GUS vs PBOw/ PSAN, LSMean Diff (95% CI)86, -7.1(-13.21, -0.92)85, -6.6(-15.35, 2.06)83, -3.8(-11.03, 3.35)84, -7.9(-14.51, -1.21)135, -1.2(-2.45, 0.04)135, -1.2(-2.55, 0.06)135, 5.7(2.94, 8.43)135, 4.5(1.61, 7.48)N is the sample size across two groups.(3.31, 5.39)607, 4.8 (3.53, 6.15)SF-36 Physical ScoreSF-36 Mental ScoreWLQ Ouput DemandsDepression ScoreAnxiety Score&lt; 0.0001 607, 4.4 0.00260.05840.02110.0611Week 24 GUS vs ADAw/ PSAN, LSMean Diff (95% CI)w/out PSAN, LSMean Diff p(95% CI)value0.7152 445, -2.6pvalue0.0769p-value&lt; 0.0001 79, -1.6 (-10.58, 7.29)0.0002&lt; 0.0001 79, -4.3 (-14.40, 5.81)78, -11.4 (-19.37, -3.34)79, -14.7 (-24.29, -5.17)0.0089&lt; 0.0001 133, -2.1 0.3996 420, -0.60.69310.0061 436, -1.50.25690.0030 437, -1.20.41360.0012 608, -0.80.0025&lt; 0.0001 133, -1.5 0.0374 608, -0.40.1158&lt; 0.0001 132, 2.9&lt; 0.0001 132, 3.2 0.0346 608, 1.0(-0.10, 2.04)0.0591 608, 1.80.07530.0092(-3.33, -0.83)(-2.85, -0.09)(0.21, 5.57)(-0.12, 6.53)(-5.39, 0.28)(-3.46, 2.30)(-4.16, 1.11)(-3.94, 1.62)(-1.29, -0.28)(-0.91, 0.10)(0.45, 3.15)</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="inlineStr">
+        <is>
+          <t>Howard Sofen</t>
+        </is>
+      </c>
+      <c r="B108" s="2" t="inlineStr">
+        <is>
+          <t>Division of Dermatology and Venereology, Geneva University Hospital, and Department of Pathology and Immunology, University of Geneva, Ge-neva, Switzerland, Department of Dermatology, New York Medical Col-lege at Metropolitan Hospital, New York, NY, Oregon Health &amp; Science University, Portland, OR, Janssen Research &amp; Development, LLC, Spring House, PA, Janssen Research &amp; Development, LLC, San Diego, CA, USAOregon Medical Research Center, Portland, OR, Department of Medicine (Dermatology) UCLA, Los Angeles, CA, USA, Probity Medical Research, Waterloo, ON, Skin Centre for Dermatology, Peterborough, ON, Canada, Sun Pharmaceuticals, Princeton, NJ, Merck &amp; Co., Inc., Kenilworth, NJ, USA, SCIderm Research Institute and Dermatologikum Hamburg, Ham-burg, GermanySpherix Global InsightsSpherix Global InsightsHospital de la Santa Creu i Sant Pau and Universitat Autònoma de Bar-celona Medical School, Barcelona, Spain, Janssen Research &amp; Develop-ment, LLC, Spring House, PA, USA, McMaster University, Hamilton, ON, Canada, University of Melbourne, St. Vincent’s Hospital, Melbourne and Skin &amp; Cancer Foundation Inc., Carlton</t>
+        </is>
+      </c>
+      <c r="C108" s="2" t="inlineStr">
+        <is>
+          <t>Victoria, Australia</t>
+        </is>
+      </c>
+      <c r="D108" s="2" t="inlineStr">
+        <is>
+          <t>P119</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="inlineStr">
+        <is>
+          <t>EFFICACY AND SAFETY RESULTS OF GUSELKUMAB IN PATIENTS WITH ACTIVE PSORIATIC ARTHRITIS OVER 56 WEEKSTILDRAKIZUMAB EFFICACY OVER TIME BY WEEK 28 RESPONSE LEVELS IN TWO PHASE 3 CLINICAL TRIALS IN PATIENTS WITH CHRONIC PLAQUE PSORIASISPOTENTIAL DISCONNECT: CO­MANAGEMENT OF PATIENTS WITH PSORIATIC ARTHRITIS BETWEEN THE USE OF TUMOR NECROSIS FACTOR INHIBITORS (TNF) IN THE SECOND­LINE BIOLOGIC/SMALL MOLECULE SETTING: A CROSS­SPECIALTY COMPARISONIMPACT OF GUSELKUMAB VERSUS PLACEBO AND ADALIMUMAB ON PATIENT REPORTED OUTCOMES IN PATIENTS WITH AND WITHOUT PSORIATIC ARTHRITIS IN VOYAGE 2</t>
+        </is>
+      </c>
+      <c r="F108" s="2" t="inlineStr">
+        <is>
+          <t>Introduction/Objective:To	evaluate	the	efficacy,	safety	&amp;	tolerability of guselkumab (GUS) in patients (pts) w/ PsA.Methods: In this double-blind, PBO-controlled study, pts w/active PsA	&amp;	≥3%	BSA	of	PsO	despite	treatment	were	randomized	2:1	to SC GUS 100mg or PBO at wks0, 4, &amp; q8w thereafter through wk44. At  wk16,  pts  w/ &lt; 5%  improvement  from  baseline  (BL) in swollen &amp; tender joint counts were eligible for early escape (EE) to open-label ustekinumab. At wk24, PBO pts crossed-over to GUS 100mg (PBO to GUS). The primary endpoint was ACR 20 at wk24. Major secondary endpoints were PASI 75 &amp; ACR 50 responses, change from BL in HAQ-DI, &amp; improvement in enthesitis  (Leeds  enthesitis  index  [LEI])  &amp;  dactylitis  score  (by a  0–3  scoring  system)  at  wk24;  &amp; ACR  20  response  at  wk16. Through	wk24,	efficacy	analyses	were	performed	in	a	modified	Intent-to-Treat (mITT) population. Pts who met treatment failure criteria, EE or had missing data at wk24 were considered nonresponders	for	ACR/MDA	endpoints	at	wk24.	Efficacy	post	wk24	was evaluated in pts who did not EE &amp; continued treatment at wk24 based on observed data.Results: Of 149 pts (PBO:49, GUS:100), BL demographics &amp; ACR component measures were generally similar between the 2 groups. 4	PBO	&amp;	9	GUS	pts	were	previously	exposed	to	anti-TNFα	agents.	At	wk24,	significantly	more	GUS	pts	achieved	ACR	20	(58.0%	vs	18.4%, p &lt; 0.001), PASI 75 (78.6% vs 12.5%, p &lt; 0.001), &amp; ACR 50 (34.0% vs 10.2%, p = 0.002) responses vs PBO. At wk24, mean decrease in HAQ-DI score from BL (-0.42 vs. -0.06, p &lt; 0.001), &amp; median percent improvement in enthesitis (100% vs 33.33%, p = 0.009) &amp; dactylitis (100% vs 33.33%, p &lt; 0.001) scores (among pts	w/	BL	enthesitis	and	dactylitis)	were	significantly	greater	in	GUS	group	vs.	PBO.	Significantly	more	GUS	pts	achieved	ACR	20 at wk16 (60.0% vs 16.3%, p &lt; 0.001) and MDA at wk24 (23.0% vs. 2.0%, p = 0.001)	vs.	PBO.	Post	wk24,	efficacy	improved	in	PBO to GUS crossover pts as expected and were well-maintained in GUS pts through wk56.Through wk24, the frequencies of AEs &amp; infections were comparable (AEs: PBO 32.7%; GUS 36.0%; infections: PBO: 20.4%; GUS: 16.0%). Post wk24, there was no disproportional increase in AE frequency or infections among GUS pts w/ longer exposure. Through wk56, there was 1 malignancy (basal cell carcinoma), 6 SAEs (myocardial infarction, osteoarthritis, pupils unequal, radius fracture, pneumonia, ulcerative keratitis), 2 pts discontinued treatment due to AEs, 1 grade 3 neutropenia, &amp; 6 pts were positive for antibodies to GUS. No deaths occurred through wk56.Conclusions: GUS	demonstrated	significant	improvement	on	joint	symptoms, physical function, PsO, enthesitis, dactylitis &amp; quality of	life;	efficacy	was	well-maintained	through	wk56.	GUS	was	well	tolerated in this population after ~1 year of exposure.Data has been previously presented at EULAR 2017 &amp; ACR 2017P12049Introduction: Tildrakizumab	(TIL),	a	humanized,	IgG1/κ	monoclonal	antibody	for	IL-23p19,	recently	demonstrated	its	efficacy	in subjects with chronic plaque psoriasis in two, phase 3 clinical studies1.Objective:In	this	analysis,	we	examined	efficacy	from	baseline	to week 52 among TIL patients achieving various Psoriasis Area and Severity Index (PASI) responses at week 28.Methods:  ReSURFACE  1  (NCT01722331)  and  reSURFACE  2 (NCT01729754) were double-blind, randomized controlled studies in subjects with moderate-to-severe chronic plaque psoriasis. Part 1  (0–12  weeks)  was  placebo  controlled;  Part  2  (12–28  weeks) re-randomized  placebo  patients  to  TIL;  Part  3  (28–64  weeks, reSURFACE 1; 28–52 weeks, reSURFACE 2) re-randomized patients	with	≥PASI	50	to	continue	or	increase	TIL	dose	or	to	placebo	based on their PASI response at week 28. In this post-hoc pooled analysis, patients consistently on TIL 100 mg and 200 mg from baseline	to	week	52	were	classified	in	5	mutually	exclusive	groups	based on their week-28 PASI response: PASI  &lt; 50, PASI 50–74, PASI 75–89, PASI 90–99, and PASI 100. Baseline characteristics and % PASI improvement from baseline up to week 52 (observed data) were examined for each group.Results: This analysis included 575 (TIL 100 mg) and 581 (TIL 200 mg) patients; the proportions of patients with week-28 PASI 75/90/100  responses  were  77%/54%/23%  (TIL  100  mg)  and 78%/58%/29%  (TIL  200  mg). At  week  28,  133  (23.1%),  175 (30.4%), 137 (23.8%), 82 (14.3%), and 48 (8.3%) TIL 100 mg patients and 170 (29.3%), 169 (29.1%), 114 (19.6%), 105 (18.1%), and 23 (4.0%) TIL 200mg achieved PASI 100, PASI 90–99, PASI 75–89,  PASI  50–74,  and  PASI   &lt; 50,  respectively.  On  average, PASI 100 patients were younger, lighter, and had shorter disease duration at baseline compared to other response groups. For TIL 100 mg, % PASI improvement was highest for PASI 100 and least for PASI &lt; 50 patients on all visits up to week 28 (week 4: 53%, 46%, 38%, 30%, and 16%; week 28: 100%, 95%, 83%, 64%, and 33% for PASI 100, PASI 90–99, PASI 75–89, PASI 50–74, and PASI   &lt; 50 categories, respectively). Among patients achieving PASI  &gt; 50 at week 28 and continued up to 52 weeks, % PASI improvement maintained or improved from week 28 to week 52. Similar results were observed for TIL 200 mg as well as a subgroup analysis with bio-naive and bio-experienced patients respectively.Conclusions: The majority of TIL 100 and 200 mg patients achieved PASI &gt; 50 response at week 28, and PASI improvement was maintained from week 28 to week 52. Among patients achieving PASI  &gt; 90 at week 28, TIL 100 and 200 mg were associated with a rapid PASI improvement by week 4.1. Reich K, Papp KA, Blauvelt A, et al. Tildrakizumab versus placebo or  etanercept  for  chronic  plaque  psoriasis  (reSURFACE  1  and  reSURFACE 2): results from two randomised controlled, phase 3 trials. Lancet. 2017;390(10091):276-288.This abstract was presented at 2018 Annual Meeting of American Academy of Dermatology.Note: This abstract was presented at 2018 Annual Meeting of American Academy of Dermatology. P122RHEUMATOLOGISTS AND DERMATOLOGISTSIntroduction: On average, the majority of psoriasis (PSO) patients are diagnosed a year prior to a psoriatic arthritis (PsA) diagnosis, making the referral patterns and co-management between derma50tologists and rheumatologists an important aspect to understanding the management of these diseases. Dermatologists represent an important referral-base for rheumatologists, accounting for over one-quarter of all new PsA patients. However, there are discrepancies between the specialists regarding the timing in which these referrals take place.Objectives: One objective of the study was to gain further insight into rheumatologist and dermatologist co-management of patients with PsA.Methods: An	independent	market	analytics	firm	collaborated	with	US rheumatologists (n = 101) and US dermatologists (n = 101) to conduct analysis of both the PsA and PSO markets. Data were collected	 via	 an	 online	 survey	 fielded	 in	 November/December	2017  and  included  patient  demographics,  as  well  as  physician demographics, and attitudinal survey responses.Results: Rheumatologists indicate that 51 percent of referrals result from primary care physicians, 28 percent result from a dermatologist,  and  13  percent  are  self-referred. The  majority  (73%)  of PsA patients under the care of collaborating rheumatologists had previously been diagnosed with PSO prior to PsA. Dermatologists state that one-quarter of their patients with severe PSO also have PsA, with more than one-third of severe PSO patients also being co-managed with a rheumatologist. The majority of rheumatologists	believe	that	dermatologists	refer	patients	at	the	first	sign	of	joint involvement and do not attempt to treat joint pain; however, 31 percent of dermatologists report they do not refer PSO patients to rheumatologists until patients have failed biologics or are not improving on their current systemic regimen, while an additional 35  percent  report  they  refer  only  severe  arthritis/patients  with worsening disease. Furthermore, only 35 percent of dermatologists agree that they refer their PSO patients to a rheumatologists at the first	sign	of	joint	involvement. At the time of dermatologist referral, rheumatologists state that two-thirds	of	referred	patients	are	biologic/apremilast	naïve,	with	only 6 percent having controlled PSO and joint pain. However, dermatologists state that 40 percent the patients that they referred to rheumatologists were treated with biologics and 15 percent of said  referred  patients  were  treated  with  apremilast.  Indeed,  76 percent of dermatologists agree with the statement, “I believe that the disease (PsA),” while 57 percent of dermatologists agree “I Conclusion: With many patients diagnosed with both PSO and PsA,  co-management  between  dermatologists  and  rheumatologists is common. While rheumatologists appear to be under the impression that they are receiving the majority of dermatologisttreated	patients	with	PsA	at	the	first	sign	of	joint	involvement,	dermatologists largely report that they are managing and treating PsA patients. Furthermore, most dermatologists believe early aggressive use of biologic treatments will mitigate the development and/or progression of joint involvement, implying their willingness to manage their patients with PsA, particularly at early stages. P123TNF  therapy  has  been  the  standard  of  care  for  adult  patients diagnosed with autoimmune conditions, resulting in familiarity, comfort, and satisfaction among physicians. TNFs are typically used	 as	 a	 first-line	 biologic/small	 molecule	 in	 the	 treatment	 of	psoriasis (PSO) and psoriatic arthritis (PsA). However, the adoption of agents with alternate mechanisms of action (AMOA) has increased in recent years across indications and the practice of sequential TNF prescribing after an initial TNF is less common. Though	TNFs	are	still	the	preferred	first-line	agent,	there	are	discrepancies between specialists on the use of AMOA agents in the second-line setting. This research sought to understand the extent to which AMOA agents are prescribed after an initial TNF, and how this varies across PSO and PsA.An	independent	market	analytics	firm	collaborated	with	US	dermatologists (n = 201) and US rheumatologists (n = 200) to conduct a retrospective chart review of patients diagnosed with PSO (n = 950) and PsA (n = 1,008) who had switched from one biologic/apremilast to another agent in the prior 12 weeks. Physicians were able to submit up to 7 patient charts. PSO data was collected in September 2017 and PsA data was collected in April 2017.Analysis  of  patients  recently  switched  from  one  biologic/apremilast to a different brand revealed the majority of patients were treated	with	a	TNF	in	the	first-line	biologic/small	molecule	setting, though this varies by indication. Rheumatologists prescribe first-line	 TNFs	 significantly	 more	 than	 dermatologists.	 83%	 of	PsA	patients	are	prescribed	TNFs	first-line	compared	to	just	69%	of	PSO	patients.	Furthermore,	rheumatologists	are	significantly	more  likely  to  practice  TNF-sequencing  than  dermatologists. Indeed,	44%	of	PsA	patients	treated	with	a	first-line	TNF	were	prescribed a second TNF, compared to 6% of PSO patients. Additionally, certain TNF brands have experienced recent declines in	first	line	use,	though	this	varies	by	indication	as	well.	For	rheumatologists,	use	of	first-line	etanercept	has	declined,	38%	of	PsA	patients were initiated on etanercept at least 24 months prior to the study, compared to just 28% initiated on etanercept within 12 months	of	the	study.	For	dermatologists,	there	were	significantly	more	PSO	patients	initiated	on	etanercept	in	the	first-line	setting	24 months or more prior to the study compared to those initiated within 12 months of the study, (45% vs 31%.) This pattern also held	true	for	adalimumab,	where	42%	of	first-line	PSO	patients	initiated more than 24 months prior to the study were prescribed adalimumab,	a	figure	that	drops	to	just	27%	for	patients	initiated	within 12 months.Though	the	position	of	TNFs	as	first-line	agents	remains	dominant,	the	treating	specialist	and	indication	influence	how	widespread	and	continuous	TNF	use	is.	Specifically,	dermatologists	are	less	likely	to	prescribe	TNFs	as	first-line	agents	and	are	also	significantly	less	likely	to	partake	in	the	sequencing	of	TNFs	in	the	first-	and	second-line  setting  than  rheumatologists.  The  introduction  of several agents in PSO reporting substantially higher rates of skin clearance compared to TNFs could potentially be the source of increased  switching  to AMOAs  compared  to  other  specialties; whereas	 superior	 efficacy	 of	AMOA	 agents	 over	TNFs	 in	 PsA	may be less apparent. P124Introduction/Objective:VOYAGE  2  is  a  phase  3  double-blind, placebo/active comparator-controlled trial comparing guselkumab (GUS) with placebo (PBO) and adalimumab (ADA) in patients (pts) with moderate-to-severe PsO. The impact of treatment on patient-reported outcomes (PROs) was evaluated.Methods: Pts were randomized to GUS 100mg (wks 0 &amp; 4, then q8wks), ADA (80 mg wk 0, 40 mg wk 1, then 40 mg q2 wks), or PBO (wks 0, 4, &amp; 12, then GUS 100 mg wks 16 &amp; 20). We evaluated PROs using the Work Limitations Questionnaire [WLQ; work  productivity],  the  Hospital Anxiety  &amp;  Depression  Scale [HADS], and the Medical Outcomes Study 36-Item Short Form (SF-36; health related quality of life) at wk16 (GUS vs PBO) and wk24 (GUS vs ADA) in pts with and without PsA.Results: In all, 18% of pts reported a history of PsA. At wk16, GUS pts had numerically greater improvements vs PBO in work productivity,  anxiety  and  depression,  and  SF-36  PCS  &amp;  MCS scores regardless of PsA status. The least square (LS) mean differences (95% CI; adjusted for baseline value) for GUS vs PBO for all PROs were generally similar between pts with and without PsA. At wk24, GUS pts had numerically greater improvements vs ADA in all PROs regardless of PsA status. The LS mean differences for GUS vs ADA were generally greater for pts with PsA vs pts without PsA (Table).Conclusions: GUS showed better improvements in all PROs vs PBO at wk16 and vs ADA at wk24. Improvements vs PBO were similar  regardless  of  PsA  status,  while  improvements  vs ADA were greater for pts with PsA.Table: Summary of Change from Baseline in WLQ, HADS and SF-36 Scores from VOYAGE 20.13260.2913p-value0.0249WLQ Time ManagementWLQ MentalInterpersonalWLQ Physical Demandsw/out PSAN, LSMean Diff (95% CI)446, -7.7(-10.56, -4.88)419, -7.0(-10.31, -3.79)439, -4.9(-7.54, -2.35)440, -3.5(-6.11, -0.88)608, -1.6(-2.05, -1.07)608, -1.5 (-1.96, -0.98)Week 16 GUS vs PBOw/ PSAN, LSMean Diff (95% CI)86, -7.1(-13.21, -0.92)85, -6.6(-15.35, 2.06)83, -3.8(-11.03, 3.35)84, -7.9(-14.51, -1.21)135, -1.2(-2.45, 0.04)135, -1.2(-2.55, 0.06)135, 5.7(2.94, 8.43)135, 4.5(1.61, 7.48)N is the sample size across two groups.(3.31, 5.39)607, 4.8 (3.53, 6.15)SF-36 Physical ScoreSF-36 Mental ScoreWLQ Ouput DemandsDepression ScoreAnxiety Score&lt; 0.0001 607, 4.4 0.00260.05840.02110.0611Week 24 GUS vs ADAw/ PSAN, LSMean Diff (95% CI)w/out PSAN, LSMean Diff p(95% CI)value0.7152 445, -2.6pvalue0.0769p-value&lt; 0.0001 79, -1.6 (-10.58, 7.29)0.0002&lt; 0.0001 79, -4.3 (-14.40, 5.81)78, -11.4 (-19.37, -3.34)79, -14.7 (-24.29, -5.17)0.0089&lt; 0.0001 133, -2.1 0.3996 420, -0.60.69310.0061 436, -1.50.25690.0030 437, -1.20.41360.0012 608, -0.80.0025&lt; 0.0001 133, -1.5 0.0374 608, -0.40.1158&lt; 0.0001 132, 2.9&lt; 0.0001 132, 3.2 0.0346 608, 1.0(-0.10, 2.04)0.0591 608, 1.80.07530.0092(-3.33, -0.83)(-2.85, -0.09)(0.21, 5.57)(-0.12, 6.53)(-5.39, 0.28)(-3.46, 2.30)(-4.16, 1.11)(-3.94, 1.62)(-1.29, -0.28)(-0.91, 0.10)(0.45, 3.15)</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="inlineStr">
+        <is>
+          <t>Kim Papp</t>
+        </is>
+      </c>
+      <c r="B109" s="2" t="inlineStr">
+        <is>
+          <t>Division of Dermatology and Venereology, Geneva University Hospital, and Department of Pathology and Immunology, University of Geneva, Ge-neva, Switzerland, Department of Dermatology, New York Medical Col-lege at Metropolitan Hospital, New York, NY, Oregon Health &amp; Science University, Portland, OR, Janssen Research &amp; Development, LLC, Spring House, PA, Janssen Research &amp; Development, LLC, San Diego, CA, USAOregon Medical Research Center, Portland, OR, Department of Medicine (Dermatology) UCLA, Los Angeles, CA, USA, Probity Medical Research, Waterloo, ON, Skin Centre for Dermatology, Peterborough, ON, Canada, Sun Pharmaceuticals, Princeton, NJ, Merck &amp; Co., Inc., Kenilworth, NJ, USA, SCIderm Research Institute and Dermatologikum Hamburg, Ham-burg, GermanySpherix Global InsightsSpherix Global InsightsHospital de la Santa Creu i Sant Pau and Universitat Autònoma de Bar-celona Medical School, Barcelona, Spain, Janssen Research &amp; Develop-ment, LLC, Spring House, PA, USA, McMaster University, Hamilton, ON, Canada, University of Melbourne, St. Vincent’s Hospital, Melbourne and Skin &amp; Cancer Foundation Inc., Carlton</t>
+        </is>
+      </c>
+      <c r="C109" s="2" t="inlineStr">
+        <is>
+          <t>Victoria, Australia</t>
+        </is>
+      </c>
+      <c r="D109" s="2" t="inlineStr">
+        <is>
+          <t>P119</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="inlineStr">
+        <is>
+          <t>EFFICACY AND SAFETY RESULTS OF GUSELKUMAB IN PATIENTS WITH ACTIVE PSORIATIC ARTHRITIS OVER 56 WEEKSTILDRAKIZUMAB EFFICACY OVER TIME BY WEEK 28 RESPONSE LEVELS IN TWO PHASE 3 CLINICAL TRIALS IN PATIENTS WITH CHRONIC PLAQUE PSORIASISPOTENTIAL DISCONNECT: CO­MANAGEMENT OF PATIENTS WITH PSORIATIC ARTHRITIS BETWEEN THE USE OF TUMOR NECROSIS FACTOR INHIBITORS (TNF) IN THE SECOND­LINE BIOLOGIC/SMALL MOLECULE SETTING: A CROSS­SPECIALTY COMPARISONIMPACT OF GUSELKUMAB VERSUS PLACEBO AND ADALIMUMAB ON PATIENT REPORTED OUTCOMES IN PATIENTS WITH AND WITHOUT PSORIATIC ARTHRITIS IN VOYAGE 2</t>
+        </is>
+      </c>
+      <c r="F109" s="2" t="inlineStr">
+        <is>
+          <t>Introduction/Objective:To	evaluate	the	efficacy,	safety	&amp;	tolerability of guselkumab (GUS) in patients (pts) w/ PsA.Methods: In this double-blind, PBO-controlled study, pts w/active PsA	&amp;	≥3%	BSA	of	PsO	despite	treatment	were	randomized	2:1	to SC GUS 100mg or PBO at wks0, 4, &amp; q8w thereafter through wk44. At  wk16,  pts  w/ &lt; 5%  improvement  from  baseline  (BL) in swollen &amp; tender joint counts were eligible for early escape (EE) to open-label ustekinumab. At wk24, PBO pts crossed-over to GUS 100mg (PBO to GUS). The primary endpoint was ACR 20 at wk24. Major secondary endpoints were PASI 75 &amp; ACR 50 responses, change from BL in HAQ-DI, &amp; improvement in enthesitis  (Leeds  enthesitis  index  [LEI])  &amp;  dactylitis  score  (by a  0–3  scoring  system)  at  wk24;  &amp; ACR  20  response  at  wk16. Through	wk24,	efficacy	analyses	were	performed	in	a	modified	Intent-to-Treat (mITT) population. Pts who met treatment failure criteria, EE or had missing data at wk24 were considered nonresponders	for	ACR/MDA	endpoints	at	wk24.	Efficacy	post	wk24	was evaluated in pts who did not EE &amp; continued treatment at wk24 based on observed data.Results: Of 149 pts (PBO:49, GUS:100), BL demographics &amp; ACR component measures were generally similar between the 2 groups. 4	PBO	&amp;	9	GUS	pts	were	previously	exposed	to	anti-TNFα	agents.	At	wk24,	significantly	more	GUS	pts	achieved	ACR	20	(58.0%	vs	18.4%, p &lt; 0.001), PASI 75 (78.6% vs 12.5%, p &lt; 0.001), &amp; ACR 50 (34.0% vs 10.2%, p = 0.002) responses vs PBO. At wk24, mean decrease in HAQ-DI score from BL (-0.42 vs. -0.06, p &lt; 0.001), &amp; median percent improvement in enthesitis (100% vs 33.33%, p = 0.009) &amp; dactylitis (100% vs 33.33%, p &lt; 0.001) scores (among pts	w/	BL	enthesitis	and	dactylitis)	were	significantly	greater	in	GUS	group	vs.	PBO.	Significantly	more	GUS	pts	achieved	ACR	20 at wk16 (60.0% vs 16.3%, p &lt; 0.001) and MDA at wk24 (23.0% vs. 2.0%, p = 0.001)	vs.	PBO.	Post	wk24,	efficacy	improved	in	PBO to GUS crossover pts as expected and were well-maintained in GUS pts through wk56.Through wk24, the frequencies of AEs &amp; infections were comparable (AEs: PBO 32.7%; GUS 36.0%; infections: PBO: 20.4%; GUS: 16.0%). Post wk24, there was no disproportional increase in AE frequency or infections among GUS pts w/ longer exposure. Through wk56, there was 1 malignancy (basal cell carcinoma), 6 SAEs (myocardial infarction, osteoarthritis, pupils unequal, radius fracture, pneumonia, ulcerative keratitis), 2 pts discontinued treatment due to AEs, 1 grade 3 neutropenia, &amp; 6 pts were positive for antibodies to GUS. No deaths occurred through wk56.Conclusions: GUS	demonstrated	significant	improvement	on	joint	symptoms, physical function, PsO, enthesitis, dactylitis &amp; quality of	life;	efficacy	was	well-maintained	through	wk56.	GUS	was	well	tolerated in this population after ~1 year of exposure.Data has been previously presented at EULAR 2017 &amp; ACR 2017P12049Introduction: Tildrakizumab	(TIL),	a	humanized,	IgG1/κ	monoclonal	antibody	for	IL-23p19,	recently	demonstrated	its	efficacy	in subjects with chronic plaque psoriasis in two, phase 3 clinical studies1.Objective:In	this	analysis,	we	examined	efficacy	from	baseline	to week 52 among TIL patients achieving various Psoriasis Area and Severity Index (PASI) responses at week 28.Methods:  ReSURFACE  1  (NCT01722331)  and  reSURFACE  2 (NCT01729754) were double-blind, randomized controlled studies in subjects with moderate-to-severe chronic plaque psoriasis. Part 1  (0–12  weeks)  was  placebo  controlled;  Part  2  (12–28  weeks) re-randomized  placebo  patients  to  TIL;  Part  3  (28–64  weeks, reSURFACE 1; 28–52 weeks, reSURFACE 2) re-randomized patients	with	≥PASI	50	to	continue	or	increase	TIL	dose	or	to	placebo	based on their PASI response at week 28. In this post-hoc pooled analysis, patients consistently on TIL 100 mg and 200 mg from baseline	to	week	52	were	classified	in	5	mutually	exclusive	groups	based on their week-28 PASI response: PASI  &lt; 50, PASI 50–74, PASI 75–89, PASI 90–99, and PASI 100. Baseline characteristics and % PASI improvement from baseline up to week 52 (observed data) were examined for each group.Results: This analysis included 575 (TIL 100 mg) and 581 (TIL 200 mg) patients; the proportions of patients with week-28 PASI 75/90/100  responses  were  77%/54%/23%  (TIL  100  mg)  and 78%/58%/29%  (TIL  200  mg). At  week  28,  133  (23.1%),  175 (30.4%), 137 (23.8%), 82 (14.3%), and 48 (8.3%) TIL 100 mg patients and 170 (29.3%), 169 (29.1%), 114 (19.6%), 105 (18.1%), and 23 (4.0%) TIL 200mg achieved PASI 100, PASI 90–99, PASI 75–89,  PASI  50–74,  and  PASI   &lt; 50,  respectively.  On  average, PASI 100 patients were younger, lighter, and had shorter disease duration at baseline compared to other response groups. For TIL 100 mg, % PASI improvement was highest for PASI 100 and least for PASI &lt; 50 patients on all visits up to week 28 (week 4: 53%, 46%, 38%, 30%, and 16%; week 28: 100%, 95%, 83%, 64%, and 33% for PASI 100, PASI 90–99, PASI 75–89, PASI 50–74, and PASI   &lt; 50 categories, respectively). Among patients achieving PASI  &gt; 50 at week 28 and continued up to 52 weeks, % PASI improvement maintained or improved from week 28 to week 52. Similar results were observed for TIL 200 mg as well as a subgroup analysis with bio-naive and bio-experienced patients respectively.Conclusions: The majority of TIL 100 and 200 mg patients achieved PASI &gt; 50 response at week 28, and PASI improvement was maintained from week 28 to week 52. Among patients achieving PASI  &gt; 90 at week 28, TIL 100 and 200 mg were associated with a rapid PASI improvement by week 4.1. Reich K, Papp KA, Blauvelt A, et al. Tildrakizumab versus placebo or  etanercept  for  chronic  plaque  psoriasis  (reSURFACE  1  and  reSURFACE 2): results from two randomised controlled, phase 3 trials. Lancet. 2017;390(10091):276-288.This abstract was presented at 2018 Annual Meeting of American Academy of Dermatology.Note: This abstract was presented at 2018 Annual Meeting of American Academy of Dermatology. P122RHEUMATOLOGISTS AND DERMATOLOGISTSIntroduction: On average, the majority of psoriasis (PSO) patients are diagnosed a year prior to a psoriatic arthritis (PsA) diagnosis, making the referral patterns and co-management between derma50tologists and rheumatologists an important aspect to understanding the management of these diseases. Dermatologists represent an important referral-base for rheumatologists, accounting for over one-quarter of all new PsA patients. However, there are discrepancies between the specialists regarding the timing in which these referrals take place.Objectives: One objective of the study was to gain further insight into rheumatologist and dermatologist co-management of patients with PsA.Methods: An	independent	market	analytics	firm	collaborated	with	US rheumatologists (n = 101) and US dermatologists (n = 101) to conduct analysis of both the PsA and PSO markets. Data were collected	 via	 an	 online	 survey	 fielded	 in	 November/December	2017  and  included  patient  demographics,  as  well  as  physician demographics, and attitudinal survey responses.Results: Rheumatologists indicate that 51 percent of referrals result from primary care physicians, 28 percent result from a dermatologist,  and  13  percent  are  self-referred. The  majority  (73%)  of PsA patients under the care of collaborating rheumatologists had previously been diagnosed with PSO prior to PsA. Dermatologists state that one-quarter of their patients with severe PSO also have PsA, with more than one-third of severe PSO patients also being co-managed with a rheumatologist. The majority of rheumatologists	believe	that	dermatologists	refer	patients	at	the	first	sign	of	joint involvement and do not attempt to treat joint pain; however, 31 percent of dermatologists report they do not refer PSO patients to rheumatologists until patients have failed biologics or are not improving on their current systemic regimen, while an additional 35  percent  report  they  refer  only  severe  arthritis/patients  with worsening disease. Furthermore, only 35 percent of dermatologists agree that they refer their PSO patients to a rheumatologists at the first	sign	of	joint	involvement. At the time of dermatologist referral, rheumatologists state that two-thirds	of	referred	patients	are	biologic/apremilast	naïve,	with	only 6 percent having controlled PSO and joint pain. However, dermatologists state that 40 percent the patients that they referred to rheumatologists were treated with biologics and 15 percent of said  referred  patients  were  treated  with  apremilast.  Indeed,  76 percent of dermatologists agree with the statement, “I believe that the disease (PsA),” while 57 percent of dermatologists agree “I Conclusion: With many patients diagnosed with both PSO and PsA,  co-management  between  dermatologists  and  rheumatologists is common. While rheumatologists appear to be under the impression that they are receiving the majority of dermatologisttreated	patients	with	PsA	at	the	first	sign	of	joint	involvement,	dermatologists largely report that they are managing and treating PsA patients. Furthermore, most dermatologists believe early aggressive use of biologic treatments will mitigate the development and/or progression of joint involvement, implying their willingness to manage their patients with PsA, particularly at early stages. P123TNF  therapy  has  been  the  standard  of  care  for  adult  patients diagnosed with autoimmune conditions, resulting in familiarity, comfort, and satisfaction among physicians. TNFs are typically used	 as	 a	 first-line	 biologic/small	 molecule	 in	 the	 treatment	 of	psoriasis (PSO) and psoriatic arthritis (PsA). However, the adoption of agents with alternate mechanisms of action (AMOA) has increased in recent years across indications and the practice of sequential TNF prescribing after an initial TNF is less common. Though	TNFs	are	still	the	preferred	first-line	agent,	there	are	discrepancies between specialists on the use of AMOA agents in the second-line setting. This research sought to understand the extent to which AMOA agents are prescribed after an initial TNF, and how this varies across PSO and PsA.An	independent	market	analytics	firm	collaborated	with	US	dermatologists (n = 201) and US rheumatologists (n = 200) to conduct a retrospective chart review of patients diagnosed with PSO (n = 950) and PsA (n = 1,008) who had switched from one biologic/apremilast to another agent in the prior 12 weeks. Physicians were able to submit up to 7 patient charts. PSO data was collected in September 2017 and PsA data was collected in April 2017.Analysis  of  patients  recently  switched  from  one  biologic/apremilast to a different brand revealed the majority of patients were treated	with	a	TNF	in	the	first-line	biologic/small	molecule	setting, though this varies by indication. Rheumatologists prescribe first-line	 TNFs	 significantly	 more	 than	 dermatologists.	 83%	 of	PsA	patients	are	prescribed	TNFs	first-line	compared	to	just	69%	of	PSO	patients.	Furthermore,	rheumatologists	are	significantly	more  likely  to  practice  TNF-sequencing  than  dermatologists. Indeed,	44%	of	PsA	patients	treated	with	a	first-line	TNF	were	prescribed a second TNF, compared to 6% of PSO patients. Additionally, certain TNF brands have experienced recent declines in	first	line	use,	though	this	varies	by	indication	as	well.	For	rheumatologists,	use	of	first-line	etanercept	has	declined,	38%	of	PsA	patients were initiated on etanercept at least 24 months prior to the study, compared to just 28% initiated on etanercept within 12 months	of	the	study.	For	dermatologists,	there	were	significantly	more	PSO	patients	initiated	on	etanercept	in	the	first-line	setting	24 months or more prior to the study compared to those initiated within 12 months of the study, (45% vs 31%.) This pattern also held	true	for	adalimumab,	where	42%	of	first-line	PSO	patients	initiated more than 24 months prior to the study were prescribed adalimumab,	a	figure	that	drops	to	just	27%	for	patients	initiated	within 12 months.Though	the	position	of	TNFs	as	first-line	agents	remains	dominant,	the	treating	specialist	and	indication	influence	how	widespread	and	continuous	TNF	use	is.	Specifically,	dermatologists	are	less	likely	to	prescribe	TNFs	as	first-line	agents	and	are	also	significantly	less	likely	to	partake	in	the	sequencing	of	TNFs	in	the	first-	and	second-line  setting  than  rheumatologists.  The  introduction  of several agents in PSO reporting substantially higher rates of skin clearance compared to TNFs could potentially be the source of increased  switching  to AMOAs  compared  to  other  specialties; whereas	 superior	 efficacy	 of	AMOA	 agents	 over	TNFs	 in	 PsA	may be less apparent. P124Introduction/Objective:VOYAGE  2  is  a  phase  3  double-blind, placebo/active comparator-controlled trial comparing guselkumab (GUS) with placebo (PBO) and adalimumab (ADA) in patients (pts) with moderate-to-severe PsO. The impact of treatment on patient-reported outcomes (PROs) was evaluated.Methods: Pts were randomized to GUS 100mg (wks 0 &amp; 4, then q8wks), ADA (80 mg wk 0, 40 mg wk 1, then 40 mg q2 wks), or PBO (wks 0, 4, &amp; 12, then GUS 100 mg wks 16 &amp; 20). We evaluated PROs using the Work Limitations Questionnaire [WLQ; work  productivity],  the  Hospital Anxiety  &amp;  Depression  Scale [HADS], and the Medical Outcomes Study 36-Item Short Form (SF-36; health related quality of life) at wk16 (GUS vs PBO) and wk24 (GUS vs ADA) in pts with and without PsA.Results: In all, 18% of pts reported a history of PsA. At wk16, GUS pts had numerically greater improvements vs PBO in work productivity,  anxiety  and  depression,  and  SF-36  PCS  &amp;  MCS scores regardless of PsA status. The least square (LS) mean differences (95% CI; adjusted for baseline value) for GUS vs PBO for all PROs were generally similar between pts with and without PsA. At wk24, GUS pts had numerically greater improvements vs ADA in all PROs regardless of PsA status. The LS mean differences for GUS vs ADA were generally greater for pts with PsA vs pts without PsA (Table).Conclusions: GUS showed better improvements in all PROs vs PBO at wk16 and vs ADA at wk24. Improvements vs PBO were similar  regardless  of  PsA  status,  while  improvements  vs ADA were greater for pts with PsA.Table: Summary of Change from Baseline in WLQ, HADS and SF-36 Scores from VOYAGE 20.13260.2913p-value0.0249WLQ Time ManagementWLQ MentalInterpersonalWLQ Physical Demandsw/out PSAN, LSMean Diff (95% CI)446, -7.7(-10.56, -4.88)419, -7.0(-10.31, -3.79)439, -4.9(-7.54, -2.35)440, -3.5(-6.11, -0.88)608, -1.6(-2.05, -1.07)608, -1.5 (-1.96, -0.98)Week 16 GUS vs PBOw/ PSAN, LSMean Diff (95% CI)86, -7.1(-13.21, -0.92)85, -6.6(-15.35, 2.06)83, -3.8(-11.03, 3.35)84, -7.9(-14.51, -1.21)135, -1.2(-2.45, 0.04)135, -1.2(-2.55, 0.06)135, 5.7(2.94, 8.43)135, 4.5(1.61, 7.48)N is the sample size across two groups.(3.31, 5.39)607, 4.8 (3.53, 6.15)SF-36 Physical ScoreSF-36 Mental ScoreWLQ Ouput DemandsDepression ScoreAnxiety Score&lt; 0.0001 607, 4.4 0.00260.05840.02110.0611Week 24 GUS vs ADAw/ PSAN, LSMean Diff (95% CI)w/out PSAN, LSMean Diff p(95% CI)value0.7152 445, -2.6pvalue0.0769p-value&lt; 0.0001 79, -1.6 (-10.58, 7.29)0.0002&lt; 0.0001 79, -4.3 (-14.40, 5.81)78, -11.4 (-19.37, -3.34)79, -14.7 (-24.29, -5.17)0.0089&lt; 0.0001 133, -2.1 0.3996 420, -0.60.69310.0061 436, -1.50.25690.0030 437, -1.20.41360.0012 608, -0.80.0025&lt; 0.0001 133, -1.5 0.0374 608, -0.40.1158&lt; 0.0001 132, 2.9&lt; 0.0001 132, 3.2 0.0346 608, 1.0(-0.10, 2.04)0.0591 608, 1.80.07530.0092(-3.33, -0.83)(-2.85, -0.09)(0.21, 5.57)(-0.12, 6.53)(-5.39, 0.28)(-3.46, 2.30)(-4.16, 1.11)(-3.94, 1.62)(-1.29, -0.28)(-0.91, 0.10)(0.45, 3.15)</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="inlineStr">
+        <is>
+          <t>Melinda Gooder-ham</t>
+        </is>
+      </c>
+      <c r="B110" s="2" t="inlineStr">
+        <is>
+          <t>Division of Dermatology and Venereology, Geneva University Hospital, and Department of Pathology and Immunology, University of Geneva, Ge-neva, Switzerland, Department of Dermatology, New York Medical Col-lege at Metropolitan Hospital, New York, NY, Oregon Health &amp; Science University, Portland, OR, Janssen Research &amp; Development, LLC, Spring House, PA, Janssen Research &amp; Development, LLC, San Diego, CA, USAOregon Medical Research Center, Portland, OR, Department of Medicine (Dermatology) UCLA, Los Angeles, CA, USA, Probity Medical Research, Waterloo, ON, Skin Centre for Dermatology, Peterborough, ON, Canada, Sun Pharmaceuticals, Princeton, NJ, Merck &amp; Co., Inc., Kenilworth, NJ, USA, SCIderm Research Institute and Dermatologikum Hamburg, Ham-burg, GermanySpherix Global InsightsSpherix Global InsightsHospital de la Santa Creu i Sant Pau and Universitat Autònoma de Bar-celona Medical School, Barcelona, Spain, Janssen Research &amp; Develop-ment, LLC, Spring House, PA, USA, McMaster University, Hamilton, ON, Canada, University of Melbourne, St. Vincent’s Hospital, Melbourne and Skin &amp; Cancer Foundation Inc., Carlton</t>
+        </is>
+      </c>
+      <c r="C110" s="2" t="inlineStr">
+        <is>
+          <t>Victoria, Australia</t>
+        </is>
+      </c>
+      <c r="D110" s="2" t="inlineStr">
+        <is>
+          <t>P119</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="inlineStr">
+        <is>
+          <t>EFFICACY AND SAFETY RESULTS OF GUSELKUMAB IN PATIENTS WITH ACTIVE PSORIATIC ARTHRITIS OVER 56 WEEKSTILDRAKIZUMAB EFFICACY OVER TIME BY WEEK 28 RESPONSE LEVELS IN TWO PHASE 3 CLINICAL TRIALS IN PATIENTS WITH CHRONIC PLAQUE PSORIASISPOTENTIAL DISCONNECT: CO­MANAGEMENT OF PATIENTS WITH PSORIATIC ARTHRITIS BETWEEN THE USE OF TUMOR NECROSIS FACTOR INHIBITORS (TNF) IN THE SECOND­LINE BIOLOGIC/SMALL MOLECULE SETTING: A CROSS­SPECIALTY COMPARISONIMPACT OF GUSELKUMAB VERSUS PLACEBO AND ADALIMUMAB ON PATIENT REPORTED OUTCOMES IN PATIENTS WITH AND WITHOUT PSORIATIC ARTHRITIS IN VOYAGE 2</t>
+        </is>
+      </c>
+      <c r="F110" s="2" t="inlineStr">
+        <is>
+          <t>Introduction/Objective:To	evaluate	the	efficacy,	safety	&amp;	tolerability of guselkumab (GUS) in patients (pts) w/ PsA.Methods: In this double-blind, PBO-controlled study, pts w/active PsA	&amp;	≥3%	BSA	of	PsO	despite	treatment	were	randomized	2:1	to SC GUS 100mg or PBO at wks0, 4, &amp; q8w thereafter through wk44. At  wk16,  pts  w/ &lt; 5%  improvement  from  baseline  (BL) in swollen &amp; tender joint counts were eligible for early escape (EE) to open-label ustekinumab. At wk24, PBO pts crossed-over to GUS 100mg (PBO to GUS). The primary endpoint was ACR 20 at wk24. Major secondary endpoints were PASI 75 &amp; ACR 50 responses, change from BL in HAQ-DI, &amp; improvement in enthesitis  (Leeds  enthesitis  index  [LEI])  &amp;  dactylitis  score  (by a  0–3  scoring  system)  at  wk24;  &amp; ACR  20  response  at  wk16. Through	wk24,	efficacy	analyses	were	performed	in	a	modified	Intent-to-Treat (mITT) population. Pts who met treatment failure criteria, EE or had missing data at wk24 were considered nonresponders	for	ACR/MDA	endpoints	at	wk24.	Efficacy	post	wk24	was evaluated in pts who did not EE &amp; continued treatment at wk24 based on observed data.Results: Of 149 pts (PBO:49, GUS:100), BL demographics &amp; ACR component measures were generally similar between the 2 groups. 4	PBO	&amp;	9	GUS	pts	were	previously	exposed	to	anti-TNFα	agents.	At	wk24,	significantly	more	GUS	pts	achieved	ACR	20	(58.0%	vs	18.4%, p &lt; 0.001), PASI 75 (78.6% vs 12.5%, p &lt; 0.001), &amp; ACR 50 (34.0% vs 10.2%, p = 0.002) responses vs PBO. At wk24, mean decrease in HAQ-DI score from BL (-0.42 vs. -0.06, p &lt; 0.001), &amp; median percent improvement in enthesitis (100% vs 33.33%, p = 0.009) &amp; dactylitis (100% vs 33.33%, p &lt; 0.001) scores (among pts	w/	BL	enthesitis	and	dactylitis)	were	significantly	greater	in	GUS	group	vs.	PBO.	Significantly	more	GUS	pts	achieved	ACR	20 at wk16 (60.0% vs 16.3%, p &lt; 0.001) and MDA at wk24 (23.0% vs. 2.0%, p = 0.001)	vs.	PBO.	Post	wk24,	efficacy	improved	in	PBO to GUS crossover pts as expected and were well-maintained in GUS pts through wk56.Through wk24, the frequencies of AEs &amp; infections were comparable (AEs: PBO 32.7%; GUS 36.0%; infections: PBO: 20.4%; GUS: 16.0%). Post wk24, there was no disproportional increase in AE frequency or infections among GUS pts w/ longer exposure. Through wk56, there was 1 malignancy (basal cell carcinoma), 6 SAEs (myocardial infarction, osteoarthritis, pupils unequal, radius fracture, pneumonia, ulcerative keratitis), 2 pts discontinued treatment due to AEs, 1 grade 3 neutropenia, &amp; 6 pts were positive for antibodies to GUS. No deaths occurred through wk56.Conclusions: GUS	demonstrated	significant	improvement	on	joint	symptoms, physical function, PsO, enthesitis, dactylitis &amp; quality of	life;	efficacy	was	well-maintained	through	wk56.	GUS	was	well	tolerated in this population after ~1 year of exposure.Data has been previously presented at EULAR 2017 &amp; ACR 2017P12049Introduction: Tildrakizumab	(TIL),	a	humanized,	IgG1/κ	monoclonal	antibody	for	IL-23p19,	recently	demonstrated	its	efficacy	in subjects with chronic plaque psoriasis in two, phase 3 clinical studies1.Objective:In	this	analysis,	we	examined	efficacy	from	baseline	to week 52 among TIL patients achieving various Psoriasis Area and Severity Index (PASI) responses at week 28.Methods:  ReSURFACE  1  (NCT01722331)  and  reSURFACE  2 (NCT01729754) were double-blind, randomized controlled studies in subjects with moderate-to-severe chronic plaque psoriasis. Part 1  (0–12  weeks)  was  placebo  controlled;  Part  2  (12–28  weeks) re-randomized  placebo  patients  to  TIL;  Part  3  (28–64  weeks, reSURFACE 1; 28–52 weeks, reSURFACE 2) re-randomized patients	with	≥PASI	50	to	continue	or	increase	TIL	dose	or	to	placebo	based on their PASI response at week 28. In this post-hoc pooled analysis, patients consistently on TIL 100 mg and 200 mg from baseline	to	week	52	were	classified	in	5	mutually	exclusive	groups	based on their week-28 PASI response: PASI  &lt; 50, PASI 50–74, PASI 75–89, PASI 90–99, and PASI 100. Baseline characteristics and % PASI improvement from baseline up to week 52 (observed data) were examined for each group.Results: This analysis included 575 (TIL 100 mg) and 581 (TIL 200 mg) patients; the proportions of patients with week-28 PASI 75/90/100  responses  were  77%/54%/23%  (TIL  100  mg)  and 78%/58%/29%  (TIL  200  mg). At  week  28,  133  (23.1%),  175 (30.4%), 137 (23.8%), 82 (14.3%), and 48 (8.3%) TIL 100 mg patients and 170 (29.3%), 169 (29.1%), 114 (19.6%), 105 (18.1%), and 23 (4.0%) TIL 200mg achieved PASI 100, PASI 90–99, PASI 75–89,  PASI  50–74,  and  PASI   &lt; 50,  respectively.  On  average, PASI 100 patients were younger, lighter, and had shorter disease duration at baseline compared to other response groups. For TIL 100 mg, % PASI improvement was highest for PASI 100 and least for PASI &lt; 50 patients on all visits up to week 28 (week 4: 53%, 46%, 38%, 30%, and 16%; week 28: 100%, 95%, 83%, 64%, and 33% for PASI 100, PASI 90–99, PASI 75–89, PASI 50–74, and PASI   &lt; 50 categories, respectively). Among patients achieving PASI  &gt; 50 at week 28 and continued up to 52 weeks, % PASI improvement maintained or improved from week 28 to week 52. Similar results were observed for TIL 200 mg as well as a subgroup analysis with bio-naive and bio-experienced patients respectively.Conclusions: The majority of TIL 100 and 200 mg patients achieved PASI &gt; 50 response at week 28, and PASI improvement was maintained from week 28 to week 52. Among patients achieving PASI  &gt; 90 at week 28, TIL 100 and 200 mg were associated with a rapid PASI improvement by week 4.1. Reich K, Papp KA, Blauvelt A, et al. Tildrakizumab versus placebo or  etanercept  for  chronic  plaque  psoriasis  (reSURFACE  1  and  reSURFACE 2): results from two randomised controlled, phase 3 trials. Lancet. 2017;390(10091):276-288.This abstract was presented at 2018 Annual Meeting of American Academy of Dermatology.Note: This abstract was presented at 2018 Annual Meeting of American Academy of Dermatology. P122RHEUMATOLOGISTS AND DERMATOLOGISTSIntroduction: On average, the majority of psoriasis (PSO) patients are diagnosed a year prior to a psoriatic arthritis (PsA) diagnosis, making the referral patterns and co-management between derma50tologists and rheumatologists an important aspect to understanding the management of these diseases. Dermatologists represent an important referral-base for rheumatologists, accounting for over one-quarter of all new PsA patients. However, there are discrepancies between the specialists regarding the timing in which these referrals take place.Objectives: One objective of the study was to gain further insight into rheumatologist and dermatologist co-management of patients with PsA.Methods: An	independent	market	analytics	firm	collaborated	with	US rheumatologists (n = 101) and US dermatologists (n = 101) to conduct analysis of both the PsA and PSO markets. Data were collected	 via	 an	 online	 survey	 fielded	 in	 November/December	2017  and  included  patient  demographics,  as  well  as  physician demographics, and attitudinal survey responses.Results: Rheumatologists indicate that 51 percent of referrals result from primary care physicians, 28 percent result from a dermatologist,  and  13  percent  are  self-referred. The  majority  (73%)  of PsA patients under the care of collaborating rheumatologists had previously been diagnosed with PSO prior to PsA. Dermatologists state that one-quarter of their patients with severe PSO also have PsA, with more than one-third of severe PSO patients also being co-managed with a rheumatologist. The majority of rheumatologists	believe	that	dermatologists	refer	patients	at	the	first	sign	of	joint involvement and do not attempt to treat joint pain; however, 31 percent of dermatologists report they do not refer PSO patients to rheumatologists until patients have failed biologics or are not improving on their current systemic regimen, while an additional 35  percent  report  they  refer  only  severe  arthritis/patients  with worsening disease. Furthermore, only 35 percent of dermatologists agree that they refer their PSO patients to a rheumatologists at the first	sign	of	joint	involvement. At the time of dermatologist referral, rheumatologists state that two-thirds	of	referred	patients	are	biologic/apremilast	naïve,	with	only 6 percent having controlled PSO and joint pain. However, dermatologists state that 40 percent the patients that they referred to rheumatologists were treated with biologics and 15 percent of said  referred  patients  were  treated  with  apremilast.  Indeed,  76 percent of dermatologists agree with the statement, “I believe that the disease (PsA),” while 57 percent of dermatologists agree “I Conclusion: With many patients diagnosed with both PSO and PsA,  co-management  between  dermatologists  and  rheumatologists is common. While rheumatologists appear to be under the impression that they are receiving the majority of dermatologisttreated	patients	with	PsA	at	the	first	sign	of	joint	involvement,	dermatologists largely report that they are managing and treating PsA patients. Furthermore, most dermatologists believe early aggressive use of biologic treatments will mitigate the development and/or progression of joint involvement, implying their willingness to manage their patients with PsA, particularly at early stages. P123TNF  therapy  has  been  the  standard  of  care  for  adult  patients diagnosed with autoimmune conditions, resulting in familiarity, comfort, and satisfaction among physicians. TNFs are typically used	 as	 a	 first-line	 biologic/small	 molecule	 in	 the	 treatment	 of	psoriasis (PSO) and psoriatic arthritis (PsA). However, the adoption of agents with alternate mechanisms of action (AMOA) has increased in recent years across indications and the practice of sequential TNF prescribing after an initial TNF is less common. Though	TNFs	are	still	the	preferred	first-line	agent,	there	are	discrepancies between specialists on the use of AMOA agents in the second-line setting. This research sought to understand the extent to which AMOA agents are prescribed after an initial TNF, and how this varies across PSO and PsA.An	independent	market	analytics	firm	collaborated	with	US	dermatologists (n = 201) and US rheumatologists (n = 200) to conduct a retrospective chart review of patients diagnosed with PSO (n = 950) and PsA (n = 1,008) who had switched from one biologic/apremilast to another agent in the prior 12 weeks. Physicians were able to submit up to 7 patient charts. PSO data was collected in September 2017 and PsA data was collected in April 2017.Analysis  of  patients  recently  switched  from  one  biologic/apremilast to a different brand revealed the majority of patients were treated	with	a	TNF	in	the	first-line	biologic/small	molecule	setting, though this varies by indication. Rheumatologists prescribe first-line	 TNFs	 significantly	 more	 than	 dermatologists.	 83%	 of	PsA	patients	are	prescribed	TNFs	first-line	compared	to	just	69%	of	PSO	patients.	Furthermore,	rheumatologists	are	significantly	more  likely  to  practice  TNF-sequencing  than  dermatologists. Indeed,	44%	of	PsA	patients	treated	with	a	first-line	TNF	were	prescribed a second TNF, compared to 6% of PSO patients. Additionally, certain TNF brands have experienced recent declines in	first	line	use,	though	this	varies	by	indication	as	well.	For	rheumatologists,	use	of	first-line	etanercept	has	declined,	38%	of	PsA	patients were initiated on etanercept at least 24 months prior to the study, compared to just 28% initiated on etanercept within 12 months	of	the	study.	For	dermatologists,	there	were	significantly	more	PSO	patients	initiated	on	etanercept	in	the	first-line	setting	24 months or more prior to the study compared to those initiated within 12 months of the study, (45% vs 31%.) This pattern also held	true	for	adalimumab,	where	42%	of	first-line	PSO	patients	initiated more than 24 months prior to the study were prescribed adalimumab,	a	figure	that	drops	to	just	27%	for	patients	initiated	within 12 months.Though	the	position	of	TNFs	as	first-line	agents	remains	dominant,	the	treating	specialist	and	indication	influence	how	widespread	and	continuous	TNF	use	is.	Specifically,	dermatologists	are	less	likely	to	prescribe	TNFs	as	first-line	agents	and	are	also	significantly	less	likely	to	partake	in	the	sequencing	of	TNFs	in	the	first-	and	second-line  setting  than  rheumatologists.  The  introduction  of several agents in PSO reporting substantially higher rates of skin clearance compared to TNFs could potentially be the source of increased  switching  to AMOAs  compared  to  other  specialties; whereas	 superior	 efficacy	 of	AMOA	 agents	 over	TNFs	 in	 PsA	may be less apparent. P124Introduction/Objective:VOYAGE  2  is  a  phase  3  double-blind, placebo/active comparator-controlled trial comparing guselkumab (GUS) with placebo (PBO) and adalimumab (ADA) in patients (pts) with moderate-to-severe PsO. The impact of treatment on patient-reported outcomes (PROs) was evaluated.Methods: Pts were randomized to GUS 100mg (wks 0 &amp; 4, then q8wks), ADA (80 mg wk 0, 40 mg wk 1, then 40 mg q2 wks), or PBO (wks 0, 4, &amp; 12, then GUS 100 mg wks 16 &amp; 20). We evaluated PROs using the Work Limitations Questionnaire [WLQ; work  productivity],  the  Hospital Anxiety  &amp;  Depression  Scale [HADS], and the Medical Outcomes Study 36-Item Short Form (SF-36; health related quality of life) at wk16 (GUS vs PBO) and wk24 (GUS vs ADA) in pts with and without PsA.Results: In all, 18% of pts reported a history of PsA. At wk16, GUS pts had numerically greater improvements vs PBO in work productivity,  anxiety  and  depression,  and  SF-36  PCS  &amp;  MCS scores regardless of PsA status. The least square (LS) mean differences (95% CI; adjusted for baseline value) for GUS vs PBO for all PROs were generally similar between pts with and without PsA. At wk24, GUS pts had numerically greater improvements vs ADA in all PROs regardless of PsA status. The LS mean differences for GUS vs ADA were generally greater for pts with PsA vs pts without PsA (Table).Conclusions: GUS showed better improvements in all PROs vs PBO at wk16 and vs ADA at wk24. Improvements vs PBO were similar  regardless  of  PsA  status,  while  improvements  vs ADA were greater for pts with PsA.Table: Summary of Change from Baseline in WLQ, HADS and SF-36 Scores from VOYAGE 20.13260.2913p-value0.0249WLQ Time ManagementWLQ MentalInterpersonalWLQ Physical Demandsw/out PSAN, LSMean Diff (95% CI)446, -7.7(-10.56, -4.88)419, -7.0(-10.31, -3.79)439, -4.9(-7.54, -2.35)440, -3.5(-6.11, -0.88)608, -1.6(-2.05, -1.07)608, -1.5 (-1.96, -0.98)Week 16 GUS vs PBOw/ PSAN, LSMean Diff (95% CI)86, -7.1(-13.21, -0.92)85, -6.6(-15.35, 2.06)83, -3.8(-11.03, 3.35)84, -7.9(-14.51, -1.21)135, -1.2(-2.45, 0.04)135, -1.2(-2.55, 0.06)135, 5.7(2.94, 8.43)135, 4.5(1.61, 7.48)N is the sample size across two groups.(3.31, 5.39)607, 4.8 (3.53, 6.15)SF-36 Physical ScoreSF-36 Mental ScoreWLQ Ouput DemandsDepression ScoreAnxiety Score&lt; 0.0001 607, 4.4 0.00260.05840.02110.0611Week 24 GUS vs ADAw/ PSAN, LSMean Diff (95% CI)w/out PSAN, LSMean Diff p(95% CI)value0.7152 445, -2.6pvalue0.0769p-value&lt; 0.0001 79, -1.6 (-10.58, 7.29)0.0002&lt; 0.0001 79, -4.3 (-14.40, 5.81)78, -11.4 (-19.37, -3.34)79, -14.7 (-24.29, -5.17)0.0089&lt; 0.0001 133, -2.1 0.3996 420, -0.60.69310.0061 436, -1.50.25690.0030 437, -1.20.41360.0012 608, -0.80.0025&lt; 0.0001 133, -1.5 0.0374 608, -0.40.1158&lt; 0.0001 132, 2.9&lt; 0.0001 132, 3.2 0.0346 608, 1.0(-0.10, 2.04)0.0591 608, 1.80.07530.0092(-3.33, -0.83)(-2.85, -0.09)(0.21, 5.57)(-0.12, 6.53)(-5.39, 0.28)(-3.46, 2.30)(-4.16, 1.11)(-3.94, 1.62)(-1.29, -0.28)(-0.91, 0.10)(0.45, 3.15)</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="inlineStr">
+        <is>
+          <t>Yang Zhao</t>
+        </is>
+      </c>
+      <c r="B111" s="2" t="inlineStr">
+        <is>
+          <t>Division of Dermatology and Venereology, Geneva University Hospital, and Department of Pathology and Immunology, University of Geneva, Ge-neva, Switzerland, Department of Dermatology, New York Medical Col-lege at Metropolitan Hospital, New York, NY, Oregon Health &amp; Science University, Portland, OR, Janssen Research &amp; Development, LLC, Spring House, PA, Janssen Research &amp; Development, LLC, San Diego, CA, USAOregon Medical Research Center, Portland, OR, Department of Medicine (Dermatology) UCLA, Los Angeles, CA, USA, Probity Medical Research, Waterloo, ON, Skin Centre for Dermatology, Peterborough, ON, Canada, Sun Pharmaceuticals, Princeton, NJ, Merck &amp; Co., Inc., Kenilworth, NJ, USA, SCIderm Research Institute and Dermatologikum Hamburg, Ham-burg, GermanySpherix Global InsightsSpherix Global InsightsHospital de la Santa Creu i Sant Pau and Universitat Autònoma de Bar-celona Medical School, Barcelona, Spain, Janssen Research &amp; Develop-ment, LLC, Spring House, PA, USA, McMaster University, Hamilton, ON, Canada, University of Melbourne, St. Vincent’s Hospital, Melbourne and Skin &amp; Cancer Foundation Inc., Carlton</t>
+        </is>
+      </c>
+      <c r="C111" s="2" t="inlineStr">
+        <is>
+          <t>Victoria, Australia</t>
+        </is>
+      </c>
+      <c r="D111" s="2" t="inlineStr">
+        <is>
+          <t>P119</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="inlineStr">
+        <is>
+          <t>EFFICACY AND SAFETY RESULTS OF GUSELKUMAB IN PATIENTS WITH ACTIVE PSORIATIC ARTHRITIS OVER 56 WEEKSTILDRAKIZUMAB EFFICACY OVER TIME BY WEEK 28 RESPONSE LEVELS IN TWO PHASE 3 CLINICAL TRIALS IN PATIENTS WITH CHRONIC PLAQUE PSORIASISPOTENTIAL DISCONNECT: CO­MANAGEMENT OF PATIENTS WITH PSORIATIC ARTHRITIS BETWEEN THE USE OF TUMOR NECROSIS FACTOR INHIBITORS (TNF) IN THE SECOND­LINE BIOLOGIC/SMALL MOLECULE SETTING: A CROSS­SPECIALTY COMPARISONIMPACT OF GUSELKUMAB VERSUS PLACEBO AND ADALIMUMAB ON PATIENT REPORTED OUTCOMES IN PATIENTS WITH AND WITHOUT PSORIATIC ARTHRITIS IN VOYAGE 2</t>
+        </is>
+      </c>
+      <c r="F111" s="2" t="inlineStr">
+        <is>
+          <t>Introduction/Objective:To	evaluate	the	efficacy,	safety	&amp;	tolerability of guselkumab (GUS) in patients (pts) w/ PsA.Methods: In this double-blind, PBO-controlled study, pts w/active PsA	&amp;	≥3%	BSA	of	PsO	despite	treatment	were	randomized	2:1	to SC GUS 100mg or PBO at wks0, 4, &amp; q8w thereafter through wk44. At  wk16,  pts  w/ &lt; 5%  improvement  from  baseline  (BL) in swollen &amp; tender joint counts were eligible for early escape (EE) to open-label ustekinumab. At wk24, PBO pts crossed-over to GUS 100mg (PBO to GUS). The primary endpoint was ACR 20 at wk24. Major secondary endpoints were PASI 75 &amp; ACR 50 responses, change from BL in HAQ-DI, &amp; improvement in enthesitis  (Leeds  enthesitis  index  [LEI])  &amp;  dactylitis  score  (by a  0–3  scoring  system)  at  wk24;  &amp; ACR  20  response  at  wk16. Through	wk24,	efficacy	analyses	were	performed	in	a	modified	Intent-to-Treat (mITT) population. Pts who met treatment failure criteria, EE or had missing data at wk24 were considered nonresponders	for	ACR/MDA	endpoints	at	wk24.	Efficacy	post	wk24	was evaluated in pts who did not EE &amp; continued treatment at wk24 based on observed data.Results: Of 149 pts (PBO:49, GUS:100), BL demographics &amp; ACR component measures were generally similar between the 2 groups. 4	PBO	&amp;	9	GUS	pts	were	previously	exposed	to	anti-TNFα	agents.	At	wk24,	significantly	more	GUS	pts	achieved	ACR	20	(58.0%	vs	18.4%, p &lt; 0.001), PASI 75 (78.6% vs 12.5%, p &lt; 0.001), &amp; ACR 50 (34.0% vs 10.2%, p = 0.002) responses vs PBO. At wk24, mean decrease in HAQ-DI score from BL (-0.42 vs. -0.06, p &lt; 0.001), &amp; median percent improvement in enthesitis (100% vs 33.33%, p = 0.009) &amp; dactylitis (100% vs 33.33%, p &lt; 0.001) scores (among pts	w/	BL	enthesitis	and	dactylitis)	were	significantly	greater	in	GUS	group	vs.	PBO.	Significantly	more	GUS	pts	achieved	ACR	20 at wk16 (60.0% vs 16.3%, p &lt; 0.001) and MDA at wk24 (23.0% vs. 2.0%, p = 0.001)	vs.	PBO.	Post	wk24,	efficacy	improved	in	PBO to GUS crossover pts as expected and were well-maintained in GUS pts through wk56.Through wk24, the frequencies of AEs &amp; infections were comparable (AEs: PBO 32.7%; GUS 36.0%; infections: PBO: 20.4%; GUS: 16.0%). Post wk24, there was no disproportional increase in AE frequency or infections among GUS pts w/ longer exposure. Through wk56, there was 1 malignancy (basal cell carcinoma), 6 SAEs (myocardial infarction, osteoarthritis, pupils unequal, radius fracture, pneumonia, ulcerative keratitis), 2 pts discontinued treatment due to AEs, 1 grade 3 neutropenia, &amp; 6 pts were positive for antibodies to GUS. No deaths occurred through wk56.Conclusions: GUS	demonstrated	significant	improvement	on	joint	symptoms, physical function, PsO, enthesitis, dactylitis &amp; quality of	life;	efficacy	was	well-maintained	through	wk56.	GUS	was	well	tolerated in this population after ~1 year of exposure.Data has been previously presented at EULAR 2017 &amp; ACR 2017P12049Introduction: Tildrakizumab	(TIL),	a	humanized,	IgG1/κ	monoclonal	antibody	for	IL-23p19,	recently	demonstrated	its	efficacy	in subjects with chronic plaque psoriasis in two, phase 3 clinical studies1.Objective:In	this	analysis,	we	examined	efficacy	from	baseline	to week 52 among TIL patients achieving various Psoriasis Area and Severity Index (PASI) responses at week 28.Methods:  ReSURFACE  1  (NCT01722331)  and  reSURFACE  2 (NCT01729754) were double-blind, randomized controlled studies in subjects with moderate-to-severe chronic plaque psoriasis. Part 1  (0–12  weeks)  was  placebo  controlled;  Part  2  (12–28  weeks) re-randomized  placebo  patients  to  TIL;  Part  3  (28–64  weeks, reSURFACE 1; 28–52 weeks, reSURFACE 2) re-randomized patients	with	≥PASI	50	to	continue	or	increase	TIL	dose	or	to	placebo	based on their PASI response at week 28. In this post-hoc pooled analysis, patients consistently on TIL 100 mg and 200 mg from baseline	to	week	52	were	classified	in	5	mutually	exclusive	groups	based on their week-28 PASI response: PASI  &lt; 50, PASI 50–74, PASI 75–89, PASI 90–99, and PASI 100. Baseline characteristics and % PASI improvement from baseline up to week 52 (observed data) were examined for each group.Results: This analysis included 575 (TIL 100 mg) and 581 (TIL 200 mg) patients; the proportions of patients with week-28 PASI 75/90/100  responses  were  77%/54%/23%  (TIL  100  mg)  and 78%/58%/29%  (TIL  200  mg). At  week  28,  133  (23.1%),  175 (30.4%), 137 (23.8%), 82 (14.3%), and 48 (8.3%) TIL 100 mg patients and 170 (29.3%), 169 (29.1%), 114 (19.6%), 105 (18.1%), and 23 (4.0%) TIL 200mg achieved PASI 100, PASI 90–99, PASI 75–89,  PASI  50–74,  and  PASI   &lt; 50,  respectively.  On  average, PASI 100 patients were younger, lighter, and had shorter disease duration at baseline compared to other response groups. For TIL 100 mg, % PASI improvement was highest for PASI 100 and least for PASI &lt; 50 patients on all visits up to week 28 (week 4: 53%, 46%, 38%, 30%, and 16%; week 28: 100%, 95%, 83%, 64%, and 33% for PASI 100, PASI 90–99, PASI 75–89, PASI 50–74, and PASI   &lt; 50 categories, respectively). Among patients achieving PASI  &gt; 50 at week 28 and continued up to 52 weeks, % PASI improvement maintained or improved from week 28 to week 52. Similar results were observed for TIL 200 mg as well as a subgroup analysis with bio-naive and bio-experienced patients respectively.Conclusions: The majority of TIL 100 and 200 mg patients achieved PASI &gt; 50 response at week 28, and PASI improvement was maintained from week 28 to week 52. Among patients achieving PASI  &gt; 90 at week 28, TIL 100 and 200 mg were associated with a rapid PASI improvement by week 4.1. Reich K, Papp KA, Blauvelt A, et al. Tildrakizumab versus placebo or  etanercept  for  chronic  plaque  psoriasis  (reSURFACE  1  and  reSURFACE 2): results from two randomised controlled, phase 3 trials. Lancet. 2017;390(10091):276-288.This abstract was presented at 2018 Annual Meeting of American Academy of Dermatology.Note: This abstract was presented at 2018 Annual Meeting of American Academy of Dermatology. P122RHEUMATOLOGISTS AND DERMATOLOGISTSIntroduction: On average, the majority of psoriasis (PSO) patients are diagnosed a year prior to a psoriatic arthritis (PsA) diagnosis, making the referral patterns and co-management between derma50tologists and rheumatologists an important aspect to understanding the management of these diseases. Dermatologists represent an important referral-base for rheumatologists, accounting for over one-quarter of all new PsA patients. However, there are discrepancies between the specialists regarding the timing in which these referrals take place.Objectives: One objective of the study was to gain further insight into rheumatologist and dermatologist co-management of patients with PsA.Methods: An	independent	market	analytics	firm	collaborated	with	US rheumatologists (n = 101) and US dermatologists (n = 101) to conduct analysis of both the PsA and PSO markets. Data were collected	 via	 an	 online	 survey	 fielded	 in	 November/December	2017  and  included  patient  demographics,  as  well  as  physician demographics, and attitudinal survey responses.Results: Rheumatologists indicate that 51 percent of referrals result from primary care physicians, 28 percent result from a dermatologist,  and  13  percent  are  self-referred. The  majority  (73%)  of PsA patients under the care of collaborating rheumatologists had previously been diagnosed with PSO prior to PsA. Dermatologists state that one-quarter of their patients with severe PSO also have PsA, with more than one-third of severe PSO patients also being co-managed with a rheumatologist. The majority of rheumatologists	believe	that	dermatologists	refer	patients	at	the	first	sign	of	joint involvement and do not attempt to treat joint pain; however, 31 percent of dermatologists report they do not refer PSO patients to rheumatologists until patients have failed biologics or are not improving on their current systemic regimen, while an additional 35  percent  report  they  refer  only  severe  arthritis/patients  with worsening disease. Furthermore, only 35 percent of dermatologists agree that they refer their PSO patients to a rheumatologists at the first	sign	of	joint	involvement. At the time of dermatologist referral, rheumatologists state that two-thirds	of	referred	patients	are	biologic/apremilast	naïve,	with	only 6 percent having controlled PSO and joint pain. However, dermatologists state that 40 percent the patients that they referred to rheumatologists were treated with biologics and 15 percent of said  referred  patients  were  treated  with  apremilast.  Indeed,  76 percent of dermatologists agree with the statement, “I believe that the disease (PsA),” while 57 percent of dermatologists agree “I Conclusion: With many patients diagnosed with both PSO and PsA,  co-management  between  dermatologists  and  rheumatologists is common. While rheumatologists appear to be under the impression that they are receiving the majority of dermatologisttreated	patients	with	PsA	at	the	first	sign	of	joint	involvement,	dermatologists largely report that they are managing and treating PsA patients. Furthermore, most dermatologists believe early aggressive use of biologic treatments will mitigate the development and/or progression of joint involvement, implying their willingness to manage their patients with PsA, particularly at early stages. P123TNF  therapy  has  been  the  standard  of  care  for  adult  patients diagnosed with autoimmune conditions, resulting in familiarity, comfort, and satisfaction among physicians. TNFs are typically used	 as	 a	 first-line	 biologic/small	 molecule	 in	 the	 treatment	 of	psoriasis (PSO) and psoriatic arthritis (PsA). However, the adoption of agents with alternate mechanisms of action (AMOA) has increased in recent years across indications and the practice of sequential TNF prescribing after an initial TNF is less common. Though	TNFs	are	still	the	preferred	first-line	agent,	there	are	discrepancies between specialists on the use of AMOA agents in the second-line setting. This research sought to understand the extent to which AMOA agents are prescribed after an initial TNF, and how this varies across PSO and PsA.An	independent	market	analytics	firm	collaborated	with	US	dermatologists (n = 201) and US rheumatologists (n = 200) to conduct a retrospective chart review of patients diagnosed with PSO (n = 950) and PsA (n = 1,008) who had switched from one biologic/apremilast to another agent in the prior 12 weeks. Physicians were able to submit up to 7 patient charts. PSO data was collected in September 2017 and PsA data was collected in April 2017.Analysis  of  patients  recently  switched  from  one  biologic/apremilast to a different brand revealed the majority of patients were treated	with	a	TNF	in	the	first-line	biologic/small	molecule	setting, though this varies by indication. Rheumatologists prescribe first-line	 TNFs	 significantly	 more	 than	 dermatologists.	 83%	 of	PsA	patients	are	prescribed	TNFs	first-line	compared	to	just	69%	of	PSO	patients.	Furthermore,	rheumatologists	are	significantly	more  likely  to  practice  TNF-sequencing  than  dermatologists. Indeed,	44%	of	PsA	patients	treated	with	a	first-line	TNF	were	prescribed a second TNF, compared to 6% of PSO patients. Additionally, certain TNF brands have experienced recent declines in	first	line	use,	though	this	varies	by	indication	as	well.	For	rheumatologists,	use	of	first-line	etanercept	has	declined,	38%	of	PsA	patients were initiated on etanercept at least 24 months prior to the study, compared to just 28% initiated on etanercept within 12 months	of	the	study.	For	dermatologists,	there	were	significantly	more	PSO	patients	initiated	on	etanercept	in	the	first-line	setting	24 months or more prior to the study compared to those initiated within 12 months of the study, (45% vs 31%.) This pattern also held	true	for	adalimumab,	where	42%	of	first-line	PSO	patients	initiated more than 24 months prior to the study were prescribed adalimumab,	a	figure	that	drops	to	just	27%	for	patients	initiated	within 12 months.Though	the	position	of	TNFs	as	first-line	agents	remains	dominant,	the	treating	specialist	and	indication	influence	how	widespread	and	continuous	TNF	use	is.	Specifically,	dermatologists	are	less	likely	to	prescribe	TNFs	as	first-line	agents	and	are	also	significantly	less	likely	to	partake	in	the	sequencing	of	TNFs	in	the	first-	and	second-line  setting  than  rheumatologists.  The  introduction  of several agents in PSO reporting substantially higher rates of skin clearance compared to TNFs could potentially be the source of increased  switching  to AMOAs  compared  to  other  specialties; whereas	 superior	 efficacy	 of	AMOA	 agents	 over	TNFs	 in	 PsA	may be less apparent. P124Introduction/Objective:VOYAGE  2  is  a  phase  3  double-blind, placebo/active comparator-controlled trial comparing guselkumab (GUS) with placebo (PBO) and adalimumab (ADA) in patients (pts) with moderate-to-severe PsO. The impact of treatment on patient-reported outcomes (PROs) was evaluated.Methods: Pts were randomized to GUS 100mg (wks 0 &amp; 4, then q8wks), ADA (80 mg wk 0, 40 mg wk 1, then 40 mg q2 wks), or PBO (wks 0, 4, &amp; 12, then GUS 100 mg wks 16 &amp; 20). We evaluated PROs using the Work Limitations Questionnaire [WLQ; work  productivity],  the  Hospital Anxiety  &amp;  Depression  Scale [HADS], and the Medical Outcomes Study 36-Item Short Form (SF-36; health related quality of life) at wk16 (GUS vs PBO) and wk24 (GUS vs ADA) in pts with and without PsA.Results: In all, 18% of pts reported a history of PsA. At wk16, GUS pts had numerically greater improvements vs PBO in work productivity,  anxiety  and  depression,  and  SF-36  PCS  &amp;  MCS scores regardless of PsA status. The least square (LS) mean differences (95% CI; adjusted for baseline value) for GUS vs PBO for all PROs were generally similar between pts with and without PsA. At wk24, GUS pts had numerically greater improvements vs ADA in all PROs regardless of PsA status. The LS mean differences for GUS vs ADA were generally greater for pts with PsA vs pts without PsA (Table).Conclusions: GUS showed better improvements in all PROs vs PBO at wk16 and vs ADA at wk24. Improvements vs PBO were similar  regardless  of  PsA  status,  while  improvements  vs ADA were greater for pts with PsA.Table: Summary of Change from Baseline in WLQ, HADS and SF-36 Scores from VOYAGE 20.13260.2913p-value0.0249WLQ Time ManagementWLQ MentalInterpersonalWLQ Physical Demandsw/out PSAN, LSMean Diff (95% CI)446, -7.7(-10.56, -4.88)419, -7.0(-10.31, -3.79)439, -4.9(-7.54, -2.35)440, -3.5(-6.11, -0.88)608, -1.6(-2.05, -1.07)608, -1.5 (-1.96, -0.98)Week 16 GUS vs PBOw/ PSAN, LSMean Diff (95% CI)86, -7.1(-13.21, -0.92)85, -6.6(-15.35, 2.06)83, -3.8(-11.03, 3.35)84, -7.9(-14.51, -1.21)135, -1.2(-2.45, 0.04)135, -1.2(-2.55, 0.06)135, 5.7(2.94, 8.43)135, 4.5(1.61, 7.48)N is the sample size across two groups.(3.31, 5.39)607, 4.8 (3.53, 6.15)SF-36 Physical ScoreSF-36 Mental ScoreWLQ Ouput DemandsDepression ScoreAnxiety Score&lt; 0.0001 607, 4.4 0.00260.05840.02110.0611Week 24 GUS vs ADAw/ PSAN, LSMean Diff (95% CI)w/out PSAN, LSMean Diff p(95% CI)value0.7152 445, -2.6pvalue0.0769p-value&lt; 0.0001 79, -1.6 (-10.58, 7.29)0.0002&lt; 0.0001 79, -4.3 (-14.40, 5.81)78, -11.4 (-19.37, -3.34)79, -14.7 (-24.29, -5.17)0.0089&lt; 0.0001 133, -2.1 0.3996 420, -0.60.69310.0061 436, -1.50.25690.0030 437, -1.20.41360.0012 608, -0.80.0025&lt; 0.0001 133, -1.5 0.0374 608, -0.40.1158&lt; 0.0001 132, 2.9&lt; 0.0001 132, 3.2 0.0346 608, 1.0(-0.10, 2.04)0.0591 608, 1.80.07530.0092(-3.33, -0.83)(-2.85, -0.09)(0.21, 5.57)(-0.12, 6.53)(-5.39, 0.28)(-3.46, 2.30)(-4.16, 1.11)(-3.94, 1.62)(-1.29, -0.28)(-0.91, 0.10)(0.45, 3.15)</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="inlineStr">
+        <is>
+          <t>Simon Lowry</t>
+        </is>
+      </c>
+      <c r="B112" s="2" t="inlineStr">
+        <is>
+          <t>Division of Dermatology and Venereology, Geneva University Hospital, and Department of Pathology and Immunology, University of Geneva, Ge-neva, Switzerland, Department of Dermatology, New York Medical Col-lege at Metropolitan Hospital, New York, NY, Oregon Health &amp; Science University, Portland, OR, Janssen Research &amp; Development, LLC, Spring House, PA, Janssen Research &amp; Development, LLC, San Diego, CA, USAOregon Medical Research Center, Portland, OR, Department of Medicine (Dermatology) UCLA, Los Angeles, CA, USA, Probity Medical Research, Waterloo, ON, Skin Centre for Dermatology, Peterborough, ON, Canada, Sun Pharmaceuticals, Princeton, NJ, Merck &amp; Co., Inc., Kenilworth, NJ, USA, SCIderm Research Institute and Dermatologikum Hamburg, Ham-burg, GermanySpherix Global InsightsSpherix Global InsightsHospital de la Santa Creu i Sant Pau and Universitat Autònoma de Bar-celona Medical School, Barcelona, Spain, Janssen Research &amp; Develop-ment, LLC, Spring House, PA, USA, McMaster University, Hamilton, ON, Canada, University of Melbourne, St. Vincent’s Hospital, Melbourne and Skin &amp; Cancer Foundation Inc., Carlton</t>
+        </is>
+      </c>
+      <c r="C112" s="2" t="inlineStr">
+        <is>
+          <t>Victoria, Australia</t>
+        </is>
+      </c>
+      <c r="D112" s="2" t="inlineStr">
+        <is>
+          <t>P119</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="inlineStr">
+        <is>
+          <t>EFFICACY AND SAFETY RESULTS OF GUSELKUMAB IN PATIENTS WITH ACTIVE PSORIATIC ARTHRITIS OVER 56 WEEKSTILDRAKIZUMAB EFFICACY OVER TIME BY WEEK 28 RESPONSE LEVELS IN TWO PHASE 3 CLINICAL TRIALS IN PATIENTS WITH CHRONIC PLAQUE PSORIASISPOTENTIAL DISCONNECT: CO­MANAGEMENT OF PATIENTS WITH PSORIATIC ARTHRITIS BETWEEN THE USE OF TUMOR NECROSIS FACTOR INHIBITORS (TNF) IN THE SECOND­LINE BIOLOGIC/SMALL MOLECULE SETTING: A CROSS­SPECIALTY COMPARISONIMPACT OF GUSELKUMAB VERSUS PLACEBO AND ADALIMUMAB ON PATIENT REPORTED OUTCOMES IN PATIENTS WITH AND WITHOUT PSORIATIC ARTHRITIS IN VOYAGE 2</t>
+        </is>
+      </c>
+      <c r="F112" s="2" t="inlineStr">
+        <is>
+          <t>Introduction/Objective:To	evaluate	the	efficacy,	safety	&amp;	tolerability of guselkumab (GUS) in patients (pts) w/ PsA.Methods: In this double-blind, PBO-controlled study, pts w/active PsA	&amp;	≥3%	BSA	of	PsO	despite	treatment	were	randomized	2:1	to SC GUS 100mg or PBO at wks0, 4, &amp; q8w thereafter through wk44. At  wk16,  pts  w/ &lt; 5%  improvement  from  baseline  (BL) in swollen &amp; tender joint counts were eligible for early escape (EE) to open-label ustekinumab. At wk24, PBO pts crossed-over to GUS 100mg (PBO to GUS). The primary endpoint was ACR 20 at wk24. Major secondary endpoints were PASI 75 &amp; ACR 50 responses, change from BL in HAQ-DI, &amp; improvement in enthesitis  (Leeds  enthesitis  index  [LEI])  &amp;  dactylitis  score  (by a  0–3  scoring  system)  at  wk24;  &amp; ACR  20  response  at  wk16. Through	wk24,	efficacy	analyses	were	performed	in	a	modified	Intent-to-Treat (mITT) population. Pts who met treatment failure criteria, EE or had missing data at wk24 were considered nonresponders	for	ACR/MDA	endpoints	at	wk24.	Efficacy	post	wk24	was evaluated in pts who did not EE &amp; continued treatment at wk24 based on observed data.Results: Of 149 pts (PBO:49, GUS:100), BL demographics &amp; ACR component measures were generally similar between the 2 groups. 4	PBO	&amp;	9	GUS	pts	were	previously	exposed	to	anti-TNFα	agents.	At	wk24,	significantly	more	GUS	pts	achieved	ACR	20	(58.0%	vs	18.4%, p &lt; 0.001), PASI 75 (78.6% vs 12.5%, p &lt; 0.001), &amp; ACR 50 (34.0% vs 10.2%, p = 0.002) responses vs PBO. At wk24, mean decrease in HAQ-DI score from BL (-0.42 vs. -0.06, p &lt; 0.001), &amp; median percent improvement in enthesitis (100% vs 33.33%, p = 0.009) &amp; dactylitis (100% vs 33.33%, p &lt; 0.001) scores (among pts	w/	BL	enthesitis	and	dactylitis)	were	significantly	greater	in	GUS	group	vs.	PBO.	Significantly	more	GUS	pts	achieved	ACR	20 at wk16 (60.0% vs 16.3%, p &lt; 0.001) and MDA at wk24 (23.0% vs. 2.0%, p = 0.001)	vs.	PBO.	Post	wk24,	efficacy	improved	in	PBO to GUS crossover pts as expected and were well-maintained in GUS pts through wk56.Through wk24, the frequencies of AEs &amp; infections were comparable (AEs: PBO 32.7%; GUS 36.0%; infections: PBO: 20.4%; GUS: 16.0%). Post wk24, there was no disproportional increase in AE frequency or infections among GUS pts w/ longer exposure. Through wk56, there was 1 malignancy (basal cell carcinoma), 6 SAEs (myocardial infarction, osteoarthritis, pupils unequal, radius fracture, pneumonia, ulcerative keratitis), 2 pts discontinued treatment due to AEs, 1 grade 3 neutropenia, &amp; 6 pts were positive for antibodies to GUS. No deaths occurred through wk56.Conclusions: GUS	demonstrated	significant	improvement	on	joint	symptoms, physical function, PsO, enthesitis, dactylitis &amp; quality of	life;	efficacy	was	well-maintained	through	wk56.	GUS	was	well	tolerated in this population after ~1 year of exposure.Data has been previously presented at EULAR 2017 &amp; ACR 2017P12049Introduction: Tildrakizumab	(TIL),	a	humanized,	IgG1/κ	monoclonal	antibody	for	IL-23p19,	recently	demonstrated	its	efficacy	in subjects with chronic plaque psoriasis in two, phase 3 clinical studies1.Objective:In	this	analysis,	we	examined	efficacy	from	baseline	to week 52 among TIL patients achieving various Psoriasis Area and Severity Index (PASI) responses at week 28.Methods:  ReSURFACE  1  (NCT01722331)  and  reSURFACE  2 (NCT01729754) were double-blind, randomized controlled studies in subjects with moderate-to-severe chronic plaque psoriasis. Part 1  (0–12  weeks)  was  placebo  controlled;  Part  2  (12–28  weeks) re-randomized  placebo  patients  to  TIL;  Part  3  (28–64  weeks, reSURFACE 1; 28–52 weeks, reSURFACE 2) re-randomized patients	with	≥PASI	50	to	continue	or	increase	TIL	dose	or	to	placebo	based on their PASI response at week 28. In this post-hoc pooled analysis, patients consistently on TIL 100 mg and 200 mg from baseline	to	week	52	were	classified	in	5	mutually	exclusive	groups	based on their week-28 PASI response: PASI  &lt; 50, PASI 50–74, PASI 75–89, PASI 90–99, and PASI 100. Baseline characteristics and % PASI improvement from baseline up to week 52 (observed data) were examined for each group.Results: This analysis included 575 (TIL 100 mg) and 581 (TIL 200 mg) patients; the proportions of patients with week-28 PASI 75/90/100  responses  were  77%/54%/23%  (TIL  100  mg)  and 78%/58%/29%  (TIL  200  mg). At  week  28,  133  (23.1%),  175 (30.4%), 137 (23.8%), 82 (14.3%), and 48 (8.3%) TIL 100 mg patients and 170 (29.3%), 169 (29.1%), 114 (19.6%), 105 (18.1%), and 23 (4.0%) TIL 200mg achieved PASI 100, PASI 90–99, PASI 75–89,  PASI  50–74,  and  PASI   &lt; 50,  respectively.  On  average, PASI 100 patients were younger, lighter, and had shorter disease duration at baseline compared to other response groups. For TIL 100 mg, % PASI improvement was highest for PASI 100 and least for PASI &lt; 50 patients on all visits up to week 28 (week 4: 53%, 46%, 38%, 30%, and 16%; week 28: 100%, 95%, 83%, 64%, and 33% for PASI 100, PASI 90–99, PASI 75–89, PASI 50–74, and PASI   &lt; 50 categories, respectively). Among patients achieving PASI  &gt; 50 at week 28 and continued up to 52 weeks, % PASI improvement maintained or improved from week 28 to week 52. Similar results were observed for TIL 200 mg as well as a subgroup analysis with bio-naive and bio-experienced patients respectively.Conclusions: The majority of TIL 100 and 200 mg patients achieved PASI &gt; 50 response at week 28, and PASI improvement was maintained from week 28 to week 52. Among patients achieving PASI  &gt; 90 at week 28, TIL 100 and 200 mg were associated with a rapid PASI improvement by week 4.1. Reich K, Papp KA, Blauvelt A, et al. Tildrakizumab versus placebo or  etanercept  for  chronic  plaque  psoriasis  (reSURFACE  1  and  reSURFACE 2): results from two randomised controlled, phase 3 trials. Lancet. 2017;390(10091):276-288.This abstract was presented at 2018 Annual Meeting of American Academy of Dermatology.Note: This abstract was presented at 2018 Annual Meeting of American Academy of Dermatology. P122RHEUMATOLOGISTS AND DERMATOLOGISTSIntroduction: On average, the majority of psoriasis (PSO) patients are diagnosed a year prior to a psoriatic arthritis (PsA) diagnosis, making the referral patterns and co-management between derma50tologists and rheumatologists an important aspect to understanding the management of these diseases. Dermatologists represent an important referral-base for rheumatologists, accounting for over one-quarter of all new PsA patients. However, there are discrepancies between the specialists regarding the timing in which these referrals take place.Objectives: One objective of the study was to gain further insight into rheumatologist and dermatologist co-management of patients with PsA.Methods: An	independent	market	analytics	firm	collaborated	with	US rheumatologists (n = 101) and US dermatologists (n = 101) to conduct analysis of both the PsA and PSO markets. Data were collected	 via	 an	 online	 survey	 fielded	 in	 November/December	2017  and  included  patient  demographics,  as  well  as  physician demographics, and attitudinal survey responses.Results: Rheumatologists indicate that 51 percent of referrals result from primary care physicians, 28 percent result from a dermatologist,  and  13  percent  are  self-referred. The  majority  (73%)  of PsA patients under the care of collaborating rheumatologists had previously been diagnosed with PSO prior to PsA. Dermatologists state that one-quarter of their patients with severe PSO also have PsA, with more than one-third of severe PSO patients also being co-managed with a rheumatologist. The majority of rheumatologists	believe	that	dermatologists	refer	patients	at	the	first	sign	of	joint involvement and do not attempt to treat joint pain; however, 31 percent of dermatologists report they do not refer PSO patients to rheumatologists until patients have failed biologics or are not improving on their current systemic regimen, while an additional 35  percent  report  they  refer  only  severe  arthritis/patients  with worsening disease. Furthermore, only 35 percent of dermatologists agree that they refer their PSO patients to a rheumatologists at the first	sign	of	joint	involvement. At the time of dermatologist referral, rheumatologists state that two-thirds	of	referred	patients	are	biologic/apremilast	naïve,	with	only 6 percent having controlled PSO and joint pain. However, dermatologists state that 40 percent the patients that they referred to rheumatologists were treated with biologics and 15 percent of said  referred  patients  were  treated  with  apremilast.  Indeed,  76 percent of dermatologists agree with the statement, “I believe that the disease (PsA),” while 57 percent of dermatologists agree “I Conclusion: With many patients diagnosed with both PSO and PsA,  co-management  between  dermatologists  and  rheumatologists is common. While rheumatologists appear to be under the impression that they are receiving the majority of dermatologisttreated	patients	with	PsA	at	the	first	sign	of	joint	involvement,	dermatologists largely report that they are managing and treating PsA patients. Furthermore, most dermatologists believe early aggressive use of biologic treatments will mitigate the development and/or progression of joint involvement, implying their willingness to manage their patients with PsA, particularly at early stages. P123TNF  therapy  has  been  the  standard  of  care  for  adult  patients diagnosed with autoimmune conditions, resulting in familiarity, comfort, and satisfaction among physicians. TNFs are typically used	 as	 a	 first-line	 biologic/small	 molecule	 in	 the	 treatment	 of	psoriasis (PSO) and psoriatic arthritis (PsA). However, the adoption of agents with alternate mechanisms of action (AMOA) has increased in recent years across indications and the practice of sequential TNF prescribing after an initial TNF is less common. Though	TNFs	are	still	the	preferred	first-line	agent,	there	are	discrepancies between specialists on the use of AMOA agents in the second-line setting. This research sought to understand the extent to which AMOA agents are prescribed after an initial TNF, and how this varies across PSO and PsA.An	independent	market	analytics	firm	collaborated	with	US	dermatologists (n = 201) and US rheumatologists (n = 200) to conduct a retrospective chart review of patients diagnosed with PSO (n = 950) and PsA (n = 1,008) who had switched from one biologic/apremilast to another agent in the prior 12 weeks. Physicians were able to submit up to 7 patient charts. PSO data was collected in September 2017 and PsA data was collected in April 2017.Analysis  of  patients  recently  switched  from  one  biologic/apremilast to a different brand revealed the majority of patients were treated	with	a	TNF	in	the	first-line	biologic/small	molecule	setting, though this varies by indication. Rheumatologists prescribe first-line	 TNFs	 significantly	 more	 than	 dermatologists.	 83%	 of	PsA	patients	are	prescribed	TNFs	first-line	compared	to	just	69%	of	PSO	patients.	Furthermore,	rheumatologists	are	significantly	more  likely  to  practice  TNF-sequencing  than  dermatologists. Indeed,	44%	of	PsA	patients	treated	with	a	first-line	TNF	were	prescribed a second TNF, compared to 6% of PSO patients. Additionally, certain TNF brands have experienced recent declines in	first	line	use,	though	this	varies	by	indication	as	well.	For	rheumatologists,	use	of	first-line	etanercept	has	declined,	38%	of	PsA	patients were initiated on etanercept at least 24 months prior to the study, compared to just 28% initiated on etanercept within 12 months	of	the	study.	For	dermatologists,	there	were	significantly	more	PSO	patients	initiated	on	etanercept	in	the	first-line	setting	24 months or more prior to the study compared to those initiated within 12 months of the study, (45% vs 31%.) This pattern also held	true	for	adalimumab,	where	42%	of	first-line	PSO	patients	initiated more than 24 months prior to the study were prescribed adalimumab,	a	figure	that	drops	to	just	27%	for	patients	initiated	within 12 months.Though	the	position	of	TNFs	as	first-line	agents	remains	dominant,	the	treating	specialist	and	indication	influence	how	widespread	and	continuous	TNF	use	is.	Specifically,	dermatologists	are	less	likely	to	prescribe	TNFs	as	first-line	agents	and	are	also	significantly	less	likely	to	partake	in	the	sequencing	of	TNFs	in	the	first-	and	second-line  setting  than  rheumatologists.  The  introduction  of several agents in PSO reporting substantially higher rates of skin clearance compared to TNFs could potentially be the source of increased  switching  to AMOAs  compared  to  other  specialties; whereas	 superior	 efficacy	 of	AMOA	 agents	 over	TNFs	 in	 PsA	may be less apparent. P124Introduction/Objective:VOYAGE  2  is  a  phase  3  double-blind, placebo/active comparator-controlled trial comparing guselkumab (GUS) with placebo (PBO) and adalimumab (ADA) in patients (pts) with moderate-to-severe PsO. The impact of treatment on patient-reported outcomes (PROs) was evaluated.Methods: Pts were randomized to GUS 100mg (wks 0 &amp; 4, then q8wks), ADA (80 mg wk 0, 40 mg wk 1, then 40 mg q2 wks), or PBO (wks 0, 4, &amp; 12, then GUS 100 mg wks 16 &amp; 20). We evaluated PROs using the Work Limitations Questionnaire [WLQ; work  productivity],  the  Hospital Anxiety  &amp;  Depression  Scale [HADS], and the Medical Outcomes Study 36-Item Short Form (SF-36; health related quality of life) at wk16 (GUS vs PBO) and wk24 (GUS vs ADA) in pts with and without PsA.Results: In all, 18% of pts reported a history of PsA. At wk16, GUS pts had numerically greater improvements vs PBO in work productivity,  anxiety  and  depression,  and  SF-36  PCS  &amp;  MCS scores regardless of PsA status. The least square (LS) mean differences (95% CI; adjusted for baseline value) for GUS vs PBO for all PROs were generally similar between pts with and without PsA. At wk24, GUS pts had numerically greater improvements vs ADA in all PROs regardless of PsA status. The LS mean differences for GUS vs ADA were generally greater for pts with PsA vs pts without PsA (Table).Conclusions: GUS showed better improvements in all PROs vs PBO at wk16 and vs ADA at wk24. Improvements vs PBO were similar  regardless  of  PsA  status,  while  improvements  vs ADA were greater for pts with PsA.Table: Summary of Change from Baseline in WLQ, HADS and SF-36 Scores from VOYAGE 20.13260.2913p-value0.0249WLQ Time ManagementWLQ MentalInterpersonalWLQ Physical Demandsw/out PSAN, LSMean Diff (95% CI)446, -7.7(-10.56, -4.88)419, -7.0(-10.31, -3.79)439, -4.9(-7.54, -2.35)440, -3.5(-6.11, -0.88)608, -1.6(-2.05, -1.07)608, -1.5 (-1.96, -0.98)Week 16 GUS vs PBOw/ PSAN, LSMean Diff (95% CI)86, -7.1(-13.21, -0.92)85, -6.6(-15.35, 2.06)83, -3.8(-11.03, 3.35)84, -7.9(-14.51, -1.21)135, -1.2(-2.45, 0.04)135, -1.2(-2.55, 0.06)135, 5.7(2.94, 8.43)135, 4.5(1.61, 7.48)N is the sample size across two groups.(3.31, 5.39)607, 4.8 (3.53, 6.15)SF-36 Physical ScoreSF-36 Mental ScoreWLQ Ouput DemandsDepression ScoreAnxiety Score&lt; 0.0001 607, 4.4 0.00260.05840.02110.0611Week 24 GUS vs ADAw/ PSAN, LSMean Diff (95% CI)w/out PSAN, LSMean Diff p(95% CI)value0.7152 445, -2.6pvalue0.0769p-value&lt; 0.0001 79, -1.6 (-10.58, 7.29)0.0002&lt; 0.0001 79, -4.3 (-14.40, 5.81)78, -11.4 (-19.37, -3.34)79, -14.7 (-24.29, -5.17)0.0089&lt; 0.0001 133, -2.1 0.3996 420, -0.60.69310.0061 436, -1.50.25690.0030 437, -1.20.41360.0012 608, -0.80.0025&lt; 0.0001 133, -1.5 0.0374 608, -0.40.1158&lt; 0.0001 132, 2.9&lt; 0.0001 132, 3.2 0.0346 608, 1.0(-0.10, 2.04)0.0591 608, 1.80.07530.0092(-3.33, -0.83)(-2.85, -0.09)(0.21, 5.57)(-0.12, 6.53)(-5.39, 0.28)(-3.46, 2.30)(-4.16, 1.11)(-3.94, 1.62)(-1.29, -0.28)(-0.91, 0.10)(0.45, 3.15)</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="inlineStr">
+        <is>
+          <t>Jeff Parno</t>
+        </is>
+      </c>
+      <c r="B113" s="2" t="inlineStr">
+        <is>
+          <t>Division of Dermatology and Venereology, Geneva University Hospital, and Department of Pathology and Immunology, University of Geneva, Ge-neva, Switzerland, Department of Dermatology, New York Medical Col-lege at Metropolitan Hospital, New York, NY, Oregon Health &amp; Science University, Portland, OR, Janssen Research &amp; Development, LLC, Spring House, PA, Janssen Research &amp; Development, LLC, San Diego, CA, USAOregon Medical Research Center, Portland, OR, Department of Medicine (Dermatology) UCLA, Los Angeles, CA, USA, Probity Medical Research, Waterloo, ON, Skin Centre for Dermatology, Peterborough, ON, Canada, Sun Pharmaceuticals, Princeton, NJ, Merck &amp; Co., Inc., Kenilworth, NJ, USA, SCIderm Research Institute and Dermatologikum Hamburg, Ham-burg, GermanySpherix Global InsightsSpherix Global InsightsHospital de la Santa Creu i Sant Pau and Universitat Autònoma de Bar-celona Medical School, Barcelona, Spain, Janssen Research &amp; Develop-ment, LLC, Spring House, PA, USA, McMaster University, Hamilton, ON, Canada, University of Melbourne, St. Vincent’s Hospital, Melbourne and Skin &amp; Cancer Foundation Inc., Carlton</t>
+        </is>
+      </c>
+      <c r="C113" s="2" t="inlineStr">
+        <is>
+          <t>Victoria, Australia</t>
+        </is>
+      </c>
+      <c r="D113" s="2" t="inlineStr">
+        <is>
+          <t>P119</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="inlineStr">
+        <is>
+          <t>EFFICACY AND SAFETY RESULTS OF GUSELKUMAB IN PATIENTS WITH ACTIVE PSORIATIC ARTHRITIS OVER 56 WEEKSTILDRAKIZUMAB EFFICACY OVER TIME BY WEEK 28 RESPONSE LEVELS IN TWO PHASE 3 CLINICAL TRIALS IN PATIENTS WITH CHRONIC PLAQUE PSORIASISPOTENTIAL DISCONNECT: CO­MANAGEMENT OF PATIENTS WITH PSORIATIC ARTHRITIS BETWEEN THE USE OF TUMOR NECROSIS FACTOR INHIBITORS (TNF) IN THE SECOND­LINE BIOLOGIC/SMALL MOLECULE SETTING: A CROSS­SPECIALTY COMPARISONIMPACT OF GUSELKUMAB VERSUS PLACEBO AND ADALIMUMAB ON PATIENT REPORTED OUTCOMES IN PATIENTS WITH AND WITHOUT PSORIATIC ARTHRITIS IN VOYAGE 2</t>
+        </is>
+      </c>
+      <c r="F113" s="2" t="inlineStr">
+        <is>
+          <t>Introduction/Objective:To	evaluate	the	efficacy,	safety	&amp;	tolerability of guselkumab (GUS) in patients (pts) w/ PsA.Methods: In this double-blind, PBO-controlled study, pts w/active PsA	&amp;	≥3%	BSA	of	PsO	despite	treatment	were	randomized	2:1	to SC GUS 100mg or PBO at wks0, 4, &amp; q8w thereafter through wk44. At  wk16,  pts  w/ &lt; 5%  improvement  from  baseline  (BL) in swollen &amp; tender joint counts were eligible for early escape (EE) to open-label ustekinumab. At wk24, PBO pts crossed-over to GUS 100mg (PBO to GUS). The primary endpoint was ACR 20 at wk24. Major secondary endpoints were PASI 75 &amp; ACR 50 responses, change from BL in HAQ-DI, &amp; improvement in enthesitis  (Leeds  enthesitis  index  [LEI])  &amp;  dactylitis  score  (by a  0–3  scoring  system)  at  wk24;  &amp; ACR  20  response  at  wk16. Through	wk24,	efficacy	analyses	were	performed	in	a	modified	Intent-to-Treat (mITT) population. Pts who met treatment failure criteria, EE or had missing data at wk24 were considered nonresponders	for	ACR/MDA	endpoints	at	wk24.	Efficacy	post	wk24	was evaluated in pts who did not EE &amp; continued treatment at wk24 based on observed data.Results: Of 149 pts (PBO:49, GUS:100), BL demographics &amp; ACR component measures were generally similar between the 2 groups. 4	PBO	&amp;	9	GUS	pts	were	previously	exposed	to	anti-TNFα	agents.	At	wk24,	significantly	more	GUS	pts	achieved	ACR	20	(58.0%	vs	18.4%, p &lt; 0.001), PASI 75 (78.6% vs 12.5%, p &lt; 0.001), &amp; ACR 50 (34.0% vs 10.2%, p = 0.002) responses vs PBO. At wk24, mean decrease in HAQ-DI score from BL (-0.42 vs. -0.06, p &lt; 0.001), &amp; median percent improvement in enthesitis (100% vs 33.33%, p = 0.009) &amp; dactylitis (100% vs 33.33%, p &lt; 0.001) scores (among pts	w/	BL	enthesitis	and	dactylitis)	were	significantly	greater	in	GUS	group	vs.	PBO.	Significantly	more	GUS	pts	achieved	ACR	20 at wk16 (60.0% vs 16.3%, p &lt; 0.001) and MDA at wk24 (23.0% vs. 2.0%, p = 0.001)	vs.	PBO.	Post	wk24,	efficacy	improved	in	PBO to GUS crossover pts as expected and were well-maintained in GUS pts through wk56.Through wk24, the frequencies of AEs &amp; infections were comparable (AEs: PBO 32.7%; GUS 36.0%; infections: PBO: 20.4%; GUS: 16.0%). Post wk24, there was no disproportional increase in AE frequency or infections among GUS pts w/ longer exposure. Through wk56, there was 1 malignancy (basal cell carcinoma), 6 SAEs (myocardial infarction, osteoarthritis, pupils unequal, radius fracture, pneumonia, ulcerative keratitis), 2 pts discontinued treatment due to AEs, 1 grade 3 neutropenia, &amp; 6 pts were positive for antibodies to GUS. No deaths occurred through wk56.Conclusions: GUS	demonstrated	significant	improvement	on	joint	symptoms, physical function, PsO, enthesitis, dactylitis &amp; quality of	life;	efficacy	was	well-maintained	through	wk56.	GUS	was	well	tolerated in this population after ~1 year of exposure.Data has been previously presented at EULAR 2017 &amp; ACR 2017P12049Introduction: Tildrakizumab	(TIL),	a	humanized,	IgG1/κ	monoclonal	antibody	for	IL-23p19,	recently	demonstrated	its	efficacy	in subjects with chronic plaque psoriasis in two, phase 3 clinical studies1.Objective:In	this	analysis,	we	examined	efficacy	from	baseline	to week 52 among TIL patients achieving various Psoriasis Area and Severity Index (PASI) responses at week 28.Methods:  ReSURFACE  1  (NCT01722331)  and  reSURFACE  2 (NCT01729754) were double-blind, randomized controlled studies in subjects with moderate-to-severe chronic plaque psoriasis. Part 1  (0–12  weeks)  was  placebo  controlled;  Part  2  (12–28  weeks) re-randomized  placebo  patients  to  TIL;  Part  3  (28–64  weeks, reSURFACE 1; 28–52 weeks, reSURFACE 2) re-randomized patients	with	≥PASI	50	to	continue	or	increase	TIL	dose	or	to	placebo	based on their PASI response at week 28. In this post-hoc pooled analysis, patients consistently on TIL 100 mg and 200 mg from baseline	to	week	52	were	classified	in	5	mutually	exclusive	groups	based on their week-28 PASI response: PASI  &lt; 50, PASI 50–74, PASI 75–89, PASI 90–99, and PASI 100. Baseline characteristics and % PASI improvement from baseline up to week 52 (observed data) were examined for each group.Results: This analysis included 575 (TIL 100 mg) and 581 (TIL 200 mg) patients; the proportions of patients with week-28 PASI 75/90/100  responses  were  77%/54%/23%  (TIL  100  mg)  and 78%/58%/29%  (TIL  200  mg). At  week  28,  133  (23.1%),  175 (30.4%), 137 (23.8%), 82 (14.3%), and 48 (8.3%) TIL 100 mg patients and 170 (29.3%), 169 (29.1%), 114 (19.6%), 105 (18.1%), and 23 (4.0%) TIL 200mg achieved PASI 100, PASI 90–99, PASI 75–89,  PASI  50–74,  and  PASI   &lt; 50,  respectively.  On  average, PASI 100 patients were younger, lighter, and had shorter disease duration at baseline compared to other response groups. For TIL 100 mg, % PASI improvement was highest for PASI 100 and least for PASI &lt; 50 patients on all visits up to week 28 (week 4: 53%, 46%, 38%, 30%, and 16%; week 28: 100%, 95%, 83%, 64%, and 33% for PASI 100, PASI 90–99, PASI 75–89, PASI 50–74, and PASI   &lt; 50 categories, respectively). Among patients achieving PASI  &gt; 50 at week 28 and continued up to 52 weeks, % PASI improvement maintained or improved from week 28 to week 52. Similar results were observed for TIL 200 mg as well as a subgroup analysis with bio-naive and bio-experienced patients respectively.Conclusions: The majority of TIL 100 and 200 mg patients achieved PASI &gt; 50 response at week 28, and PASI improvement was maintained from week 28 to week 52. Among patients achieving PASI  &gt; 90 at week 28, TIL 100 and 200 mg were associated with a rapid PASI improvement by week 4.1. Reich K, Papp KA, Blauvelt A, et al. Tildrakizumab versus placebo or  etanercept  for  chronic  plaque  psoriasis  (reSURFACE  1  and  reSURFACE 2): results from two randomised controlled, phase 3 trials. Lancet. 2017;390(10091):276-288.This abstract was presented at 2018 Annual Meeting of American Academy of Dermatology.Note: This abstract was presented at 2018 Annual Meeting of American Academy of Dermatology. P122RHEUMATOLOGISTS AND DERMATOLOGISTSIntroduction: On average, the majority of psoriasis (PSO) patients are diagnosed a year prior to a psoriatic arthritis (PsA) diagnosis, making the referral patterns and co-management between derma50tologists and rheumatologists an important aspect to understanding the management of these diseases. Dermatologists represent an important referral-base for rheumatologists, accounting for over one-quarter of all new PsA patients. However, there are discrepancies between the specialists regarding the timing in which these referrals take place.Objectives: One objective of the study was to gain further insight into rheumatologist and dermatologist co-management of patients with PsA.Methods: An	independent	market	analytics	firm	collaborated	with	US rheumatologists (n = 101) and US dermatologists (n = 101) to conduct analysis of both the PsA and PSO markets. Data were collected	 via	 an	 online	 survey	 fielded	 in	 November/December	2017  and  included  patient  demographics,  as  well  as  physician demographics, and attitudinal survey responses.Results: Rheumatologists indicate that 51 percent of referrals result from primary care physicians, 28 percent result from a dermatologist,  and  13  percent  are  self-referred. The  majority  (73%)  of PsA patients under the care of collaborating rheumatologists had previously been diagnosed with PSO prior to PsA. Dermatologists state that one-quarter of their patients with severe PSO also have PsA, with more than one-third of severe PSO patients also being co-managed with a rheumatologist. The majority of rheumatologists	believe	that	dermatologists	refer	patients	at	the	first	sign	of	joint involvement and do not attempt to treat joint pain; however, 31 percent of dermatologists report they do not refer PSO patients to rheumatologists until patients have failed biologics or are not improving on their current systemic regimen, while an additional 35  percent  report  they  refer  only  severe  arthritis/patients  with worsening disease. Furthermore, only 35 percent of dermatologists agree that they refer their PSO patients to a rheumatologists at the first	sign	of	joint	involvement. At the time of dermatologist referral, rheumatologists state that two-thirds	of	referred	patients	are	biologic/apremilast	naïve,	with	only 6 percent having controlled PSO and joint pain. However, dermatologists state that 40 percent the patients that they referred to rheumatologists were treated with biologics and 15 percent of said  referred  patients  were  treated  with  apremilast.  Indeed,  76 percent of dermatologists agree with the statement, “I believe that the disease (PsA),” while 57 percent of dermatologists agree “I Conclusion: With many patients diagnosed with both PSO and PsA,  co-management  between  dermatologists  and  rheumatologists is common. While rheumatologists appear to be under the impression that they are receiving the majority of dermatologisttreated	patients	with	PsA	at	the	first	sign	of	joint	involvement,	dermatologists largely report that they are managing and treating PsA patients. Furthermore, most dermatologists believe early aggressive use of biologic treatments will mitigate the development and/or progression of joint involvement, implying their willingness to manage their patients with PsA, particularly at early stages. P123TNF  therapy  has  been  the  standard  of  care  for  adult  patients diagnosed with autoimmune conditions, resulting in familiarity, comfort, and satisfaction among physicians. TNFs are typically used	 as	 a	 first-line	 biologic/small	 molecule	 in	 the	 treatment	 of	psoriasis (PSO) and psoriatic arthritis (PsA). However, the adoption of agents with alternate mechanisms of action (AMOA) has increased in recent years across indications and the practice of sequential TNF prescribing after an initial TNF is less common. Though	TNFs	are	still	the	preferred	first-line	agent,	there	are	discrepancies between specialists on the use of AMOA agents in the second-line setting. This research sought to understand the extent to which AMOA agents are prescribed after an initial TNF, and how this varies across PSO and PsA.An	independent	market	analytics	firm	collaborated	with	US	dermatologists (n = 201) and US rheumatologists (n = 200) to conduct a retrospective chart review of patients diagnosed with PSO (n = 950) and PsA (n = 1,008) who had switched from one biologic/apremilast to another agent in the prior 12 weeks. Physicians were able to submit up to 7 patient charts. PSO data was collected in September 2017 and PsA data was collected in April 2017.Analysis  of  patients  recently  switched  from  one  biologic/apremilast to a different brand revealed the majority of patients were treated	with	a	TNF	in	the	first-line	biologic/small	molecule	setting, though this varies by indication. Rheumatologists prescribe first-line	 TNFs	 significantly	 more	 than	 dermatologists.	 83%	 of	PsA	patients	are	prescribed	TNFs	first-line	compared	to	just	69%	of	PSO	patients.	Furthermore,	rheumatologists	are	significantly	more  likely  to  practice  TNF-sequencing  than  dermatologists. Indeed,	44%	of	PsA	patients	treated	with	a	first-line	TNF	were	prescribed a second TNF, compared to 6% of PSO patients. Additionally, certain TNF brands have experienced recent declines in	first	line	use,	though	this	varies	by	indication	as	well.	For	rheumatologists,	use	of	first-line	etanercept	has	declined,	38%	of	PsA	patients were initiated on etanercept at least 24 months prior to the study, compared to just 28% initiated on etanercept within 12 months	of	the	study.	For	dermatologists,	there	were	significantly	more	PSO	patients	initiated	on	etanercept	in	the	first-line	setting	24 months or more prior to the study compared to those initiated within 12 months of the study, (45% vs 31%.) This pattern also held	true	for	adalimumab,	where	42%	of	first-line	PSO	patients	initiated more than 24 months prior to the study were prescribed adalimumab,	a	figure	that	drops	to	just	27%	for	patients	initiated	within 12 months.Though	the	position	of	TNFs	as	first-line	agents	remains	dominant,	the	treating	specialist	and	indication	influence	how	widespread	and	continuous	TNF	use	is.	Specifically,	dermatologists	are	less	likely	to	prescribe	TNFs	as	first-line	agents	and	are	also	significantly	less	likely	to	partake	in	the	sequencing	of	TNFs	in	the	first-	and	second-line  setting  than  rheumatologists.  The  introduction  of several agents in PSO reporting substantially higher rates of skin clearance compared to TNFs could potentially be the source of increased  switching  to AMOAs  compared  to  other  specialties; whereas	 superior	 efficacy	 of	AMOA	 agents	 over	TNFs	 in	 PsA	may be less apparent. P124Introduction/Objective:VOYAGE  2  is  a  phase  3  double-blind, placebo/active comparator-controlled trial comparing guselkumab (GUS) with placebo (PBO) and adalimumab (ADA) in patients (pts) with moderate-to-severe PsO. The impact of treatment on patient-reported outcomes (PROs) was evaluated.Methods: Pts were randomized to GUS 100mg (wks 0 &amp; 4, then q8wks), ADA (80 mg wk 0, 40 mg wk 1, then 40 mg q2 wks), or PBO (wks 0, 4, &amp; 12, then GUS 100 mg wks 16 &amp; 20). We evaluated PROs using the Work Limitations Questionnaire [WLQ; work  productivity],  the  Hospital Anxiety  &amp;  Depression  Scale [HADS], and the Medical Outcomes Study 36-Item Short Form (SF-36; health related quality of life) at wk16 (GUS vs PBO) and wk24 (GUS vs ADA) in pts with and without PsA.Results: In all, 18% of pts reported a history of PsA. At wk16, GUS pts had numerically greater improvements vs PBO in work productivity,  anxiety  and  depression,  and  SF-36  PCS  &amp;  MCS scores regardless of PsA status. The least square (LS) mean differences (95% CI; adjusted for baseline value) for GUS vs PBO for all PROs were generally similar between pts with and without PsA. At wk24, GUS pts had numerically greater improvements vs ADA in all PROs regardless of PsA status. The LS mean differences for GUS vs ADA were generally greater for pts with PsA vs pts without PsA (Table).Conclusions: GUS showed better improvements in all PROs vs PBO at wk16 and vs ADA at wk24. Improvements vs PBO were similar  regardless  of  PsA  status,  while  improvements  vs ADA were greater for pts with PsA.Table: Summary of Change from Baseline in WLQ, HADS and SF-36 Scores from VOYAGE 20.13260.2913p-value0.0249WLQ Time ManagementWLQ MentalInterpersonalWLQ Physical Demandsw/out PSAN, LSMean Diff (95% CI)446, -7.7(-10.56, -4.88)419, -7.0(-10.31, -3.79)439, -4.9(-7.54, -2.35)440, -3.5(-6.11, -0.88)608, -1.6(-2.05, -1.07)608, -1.5 (-1.96, -0.98)Week 16 GUS vs PBOw/ PSAN, LSMean Diff (95% CI)86, -7.1(-13.21, -0.92)85, -6.6(-15.35, 2.06)83, -3.8(-11.03, 3.35)84, -7.9(-14.51, -1.21)135, -1.2(-2.45, 0.04)135, -1.2(-2.55, 0.06)135, 5.7(2.94, 8.43)135, 4.5(1.61, 7.48)N is the sample size across two groups.(3.31, 5.39)607, 4.8 (3.53, 6.15)SF-36 Physical ScoreSF-36 Mental ScoreWLQ Ouput DemandsDepression ScoreAnxiety Score&lt; 0.0001 607, 4.4 0.00260.05840.02110.0611Week 24 GUS vs ADAw/ PSAN, LSMean Diff (95% CI)w/out PSAN, LSMean Diff p(95% CI)value0.7152 445, -2.6pvalue0.0769p-value&lt; 0.0001 79, -1.6 (-10.58, 7.29)0.0002&lt; 0.0001 79, -4.3 (-14.40, 5.81)78, -11.4 (-19.37, -3.34)79, -14.7 (-24.29, -5.17)0.0089&lt; 0.0001 133, -2.1 0.3996 420, -0.60.69310.0061 436, -1.50.25690.0030 437, -1.20.41360.0012 608, -0.80.0025&lt; 0.0001 133, -1.5 0.0374 608, -0.40.1158&lt; 0.0001 132, 2.9&lt; 0.0001 132, 3.2 0.0346 608, 1.0(-0.10, 2.04)0.0591 608, 1.80.07530.0092(-3.33, -0.83)(-2.85, -0.09)(0.21, 5.57)(-0.12, 6.53)(-5.39, 0.28)(-3.46, 2.30)(-4.16, 1.11)(-3.94, 1.62)(-1.29, -0.28)(-0.91, 0.10)(0.45, 3.15)</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="inlineStr">
+        <is>
+          <t>Qing Li</t>
+        </is>
+      </c>
+      <c r="B114" s="2" t="inlineStr">
+        <is>
+          <t>Division of Dermatology and Venereology, Geneva University Hospital, and Department of Pathology and Immunology, University of Geneva, Ge-neva, Switzerland, Department of Dermatology, New York Medical Col-lege at Metropolitan Hospital, New York, NY, Oregon Health &amp; Science University, Portland, OR, Janssen Research &amp; Development, LLC, Spring House, PA, Janssen Research &amp; Development, LLC, San Diego, CA, USAOregon Medical Research Center, Portland, OR, Department of Medicine (Dermatology) UCLA, Los Angeles, CA, USA, Probity Medical Research, Waterloo, ON, Skin Centre for Dermatology, Peterborough, ON, Canada, Sun Pharmaceuticals, Princeton, NJ, Merck &amp; Co., Inc., Kenilworth, NJ, USA, SCIderm Research Institute and Dermatologikum Hamburg, Ham-burg, GermanySpherix Global InsightsSpherix Global InsightsHospital de la Santa Creu i Sant Pau and Universitat Autònoma de Bar-celona Medical School, Barcelona, Spain, Janssen Research &amp; Develop-ment, LLC, Spring House, PA, USA, McMaster University, Hamilton, ON, Canada, University of Melbourne, St. Vincent’s Hospital, Melbourne and Skin &amp; Cancer Foundation Inc., Carlton</t>
+        </is>
+      </c>
+      <c r="C114" s="2" t="inlineStr">
+        <is>
+          <t>Victoria, Australia</t>
+        </is>
+      </c>
+      <c r="D114" s="2" t="inlineStr">
+        <is>
+          <t>P119</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="inlineStr">
+        <is>
+          <t>EFFICACY AND SAFETY RESULTS OF GUSELKUMAB IN PATIENTS WITH ACTIVE PSORIATIC ARTHRITIS OVER 56 WEEKSTILDRAKIZUMAB EFFICACY OVER TIME BY WEEK 28 RESPONSE LEVELS IN TWO PHASE 3 CLINICAL TRIALS IN PATIENTS WITH CHRONIC PLAQUE PSORIASISPOTENTIAL DISCONNECT: CO­MANAGEMENT OF PATIENTS WITH PSORIATIC ARTHRITIS BETWEEN THE USE OF TUMOR NECROSIS FACTOR INHIBITORS (TNF) IN THE SECOND­LINE BIOLOGIC/SMALL MOLECULE SETTING: A CROSS­SPECIALTY COMPARISONIMPACT OF GUSELKUMAB VERSUS PLACEBO AND ADALIMUMAB ON PATIENT REPORTED OUTCOMES IN PATIENTS WITH AND WITHOUT PSORIATIC ARTHRITIS IN VOYAGE 2</t>
+        </is>
+      </c>
+      <c r="F114" s="2" t="inlineStr">
+        <is>
+          <t>Introduction/Objective:To	evaluate	the	efficacy,	safety	&amp;	tolerability of guselkumab (GUS) in patients (pts) w/ PsA.Methods: In this double-blind, PBO-controlled study, pts w/active PsA	&amp;	≥3%	BSA	of	PsO	despite	treatment	were	randomized	2:1	to SC GUS 100mg or PBO at wks0, 4, &amp; q8w thereafter through wk44. At  wk16,  pts  w/ &lt; 5%  improvement  from  baseline  (BL) in swollen &amp; tender joint counts were eligible for early escape (EE) to open-label ustekinumab. At wk24, PBO pts crossed-over to GUS 100mg (PBO to GUS). The primary endpoint was ACR 20 at wk24. Major secondary endpoints were PASI 75 &amp; ACR 50 responses, change from BL in HAQ-DI, &amp; improvement in enthesitis  (Leeds  enthesitis  index  [LEI])  &amp;  dactylitis  score  (by a  0–3  scoring  system)  at  wk24;  &amp; ACR  20  response  at  wk16. Through	wk24,	efficacy	analyses	were	performed	in	a	modified	Intent-to-Treat (mITT) population. Pts who met treatment failure criteria, EE or had missing data at wk24 were considered nonresponders	for	ACR/MDA	endpoints	at	wk24.	Efficacy	post	wk24	was evaluated in pts who did not EE &amp; continued treatment at wk24 based on observed data.Results: Of 149 pts (PBO:49, GUS:100), BL demographics &amp; ACR component measures were generally similar between the 2 groups. 4	PBO	&amp;	9	GUS	pts	were	previously	exposed	to	anti-TNFα	agents.	At	wk24,	significantly	more	GUS	pts	achieved	ACR	20	(58.0%	vs	18.4%, p &lt; 0.001), PASI 75 (78.6% vs 12.5%, p &lt; 0.001), &amp; ACR 50 (34.0% vs 10.2%, p = 0.002) responses vs PBO. At wk24, mean decrease in HAQ-DI score from BL (-0.42 vs. -0.06, p &lt; 0.001), &amp; median percent improvement in enthesitis (100% vs 33.33%, p = 0.009) &amp; dactylitis (100% vs 33.33%, p &lt; 0.001) scores (among pts	w/	BL	enthesitis	and	dactylitis)	were	significantly	greater	in	GUS	group	vs.	PBO.	Significantly	more	GUS	pts	achieved	ACR	20 at wk16 (60.0% vs 16.3%, p &lt; 0.001) and MDA at wk24 (23.0% vs. 2.0%, p = 0.001)	vs.	PBO.	Post	wk24,	efficacy	improved	in	PBO to GUS crossover pts as expected and were well-maintained in GUS pts through wk56.Through wk24, the frequencies of AEs &amp; infections were comparable (AEs: PBO 32.7%; GUS 36.0%; infections: PBO: 20.4%; GUS: 16.0%). Post wk24, there was no disproportional increase in AE frequency or infections among GUS pts w/ longer exposure. Through wk56, there was 1 malignancy (basal cell carcinoma), 6 SAEs (myocardial infarction, osteoarthritis, pupils unequal, radius fracture, pneumonia, ulcerative keratitis), 2 pts discontinued treatment due to AEs, 1 grade 3 neutropenia, &amp; 6 pts were positive for antibodies to GUS. No deaths occurred through wk56.Conclusions: GUS	demonstrated	significant	improvement	on	joint	symptoms, physical function, PsO, enthesitis, dactylitis &amp; quality of	life;	efficacy	was	well-maintained	through	wk56.	GUS	was	well	tolerated in this population after ~1 year of exposure.Data has been previously presented at EULAR 2017 &amp; ACR 2017P12049Introduction: Tildrakizumab	(TIL),	a	humanized,	IgG1/κ	monoclonal	antibody	for	IL-23p19,	recently	demonstrated	its	efficacy	in subjects with chronic plaque psoriasis in two, phase 3 clinical studies1.Objective:In	this	analysis,	we	examined	efficacy	from	baseline	to week 52 among TIL patients achieving various Psoriasis Area and Severity Index (PASI) responses at week 28.Methods:  ReSURFACE  1  (NCT01722331)  and  reSURFACE  2 (NCT01729754) were double-blind, randomized controlled studies in subjects with moderate-to-severe chronic plaque psoriasis. Part 1  (0–12  weeks)  was  placebo  controlled;  Part  2  (12–28  weeks) re-randomized  placebo  patients  to  TIL;  Part  3  (28–64  weeks, reSURFACE 1; 28–52 weeks, reSURFACE 2) re-randomized patients	with	≥PASI	50	to	continue	or	increase	TIL	dose	or	to	placebo	based on their PASI response at week 28. In this post-hoc pooled analysis, patients consistently on TIL 100 mg and 200 mg from baseline	to	week	52	were	classified	in	5	mutually	exclusive	groups	based on their week-28 PASI response: PASI  &lt; 50, PASI 50–74, PASI 75–89, PASI 90–99, and PASI 100. Baseline characteristics and % PASI improvement from baseline up to week 52 (observed data) were examined for each group.Results: This analysis included 575 (TIL 100 mg) and 581 (TIL 200 mg) patients; the proportions of patients with week-28 PASI 75/90/100  responses  were  77%/54%/23%  (TIL  100  mg)  and 78%/58%/29%  (TIL  200  mg). At  week  28,  133  (23.1%),  175 (30.4%), 137 (23.8%), 82 (14.3%), and 48 (8.3%) TIL 100 mg patients and 170 (29.3%), 169 (29.1%), 114 (19.6%), 105 (18.1%), and 23 (4.0%) TIL 200mg achieved PASI 100, PASI 90–99, PASI 75–89,  PASI  50–74,  and  PASI   &lt; 50,  respectively.  On  average, PASI 100 patients were younger, lighter, and had shorter disease duration at baseline compared to other response groups. For TIL 100 mg, % PASI improvement was highest for PASI 100 and least for PASI &lt; 50 patients on all visits up to week 28 (week 4: 53%, 46%, 38%, 30%, and 16%; week 28: 100%, 95%, 83%, 64%, and 33% for PASI 100, PASI 90–99, PASI 75–89, PASI 50–74, and PASI   &lt; 50 categories, respectively). Among patients achieving PASI  &gt; 50 at week 28 and continued up to 52 weeks, % PASI improvement maintained or improved from week 28 to week 52. Similar results were observed for TIL 200 mg as well as a subgroup analysis with bio-naive and bio-experienced patients respectively.Conclusions: The majority of TIL 100 and 200 mg patients achieved PASI &gt; 50 response at week 28, and PASI improvement was maintained from week 28 to week 52. Among patients achieving PASI  &gt; 90 at week 28, TIL 100 and 200 mg were associated with a rapid PASI improvement by week 4.1. Reich K, Papp KA, Blauvelt A, et al. Tildrakizumab versus placebo or  etanercept  for  chronic  plaque  psoriasis  (reSURFACE  1  and  reSURFACE 2): results from two randomised controlled, phase 3 trials. Lancet. 2017;390(10091):276-288.This abstract was presented at 2018 Annual Meeting of American Academy of Dermatology.Note: This abstract was presented at 2018 Annual Meeting of American Academy of Dermatology. P122RHEUMATOLOGISTS AND DERMATOLOGISTSIntroduction: On average, the majority of psoriasis (PSO) patients are diagnosed a year prior to a psoriatic arthritis (PsA) diagnosis, making the referral patterns and co-management between derma50tologists and rheumatologists an important aspect to understanding the management of these diseases. Dermatologists represent an important referral-base for rheumatologists, accounting for over one-quarter of all new PsA patients. However, there are discrepancies between the specialists regarding the timing in which these referrals take place.Objectives: One objective of the study was to gain further insight into rheumatologist and dermatologist co-management of patients with PsA.Methods: An	independent	market	analytics	firm	collaborated	with	US rheumatologists (n = 101) and US dermatologists (n = 101) to conduct analysis of both the PsA and PSO markets. Data were collected	 via	 an	 online	 survey	 fielded	 in	 November/December	2017  and  included  patient  demographics,  as  well  as  physician demographics, and attitudinal survey responses.Results: Rheumatologists indicate that 51 percent of referrals result from primary care physicians, 28 percent result from a dermatologist,  and  13  percent  are  self-referred. The  majority  (73%)  of PsA patients under the care of collaborating rheumatologists had previously been diagnosed with PSO prior to PsA. Dermatologists state that one-quarter of their patients with severe PSO also have PsA, with more than one-third of severe PSO patients also being co-managed with a rheumatologist. The majority of rheumatologists	believe	that	dermatologists	refer	patients	at	the	first	sign	of	joint involvement and do not attempt to treat joint pain; however, 31 percent of dermatologists report they do not refer PSO patients to rheumatologists until patients have failed biologics or are not improving on their current systemic regimen, while an additional 35  percent  report  they  refer  only  severe  arthritis/patients  with worsening disease. Furthermore, only 35 percent of dermatologists agree that they refer their PSO patients to a rheumatologists at the first	sign	of	joint	involvement. At the time of dermatologist referral, rheumatologists state that two-thirds	of	referred	patients	are	biologic/apremilast	naïve,	with	only 6 percent having controlled PSO and joint pain. However, dermatologists state that 40 percent the patients that they referred to rheumatologists were treated with biologics and 15 percent of said  referred  patients  were  treated  with  apremilast.  Indeed,  76 percent of dermatologists agree with the statement, “I believe that the disease (PsA),” while 57 percent of dermatologists agree “I Conclusion: With many patients diagnosed with both PSO and PsA,  co-management  between  dermatologists  and  rheumatologists is common. While rheumatologists appear to be under the impression that they are receiving the majority of dermatologisttreated	patients	with	PsA	at	the	first	sign	of	joint	involvement,	dermatologists largely report that they are managing and treating PsA patients. Furthermore, most dermatologists believe early aggressive use of biologic treatments will mitigate the development and/or progression of joint involvement, implying their willingness to manage their patients with PsA, particularly at early stages. P123TNF  therapy  has  been  the  standard  of  care  for  adult  patients diagnosed with autoimmune conditions, resulting in familiarity, comfort, and satisfaction among physicians. TNFs are typically used	 as	 a	 first-line	 biologic/small	 molecule	 in	 the	 treatment	 of	psoriasis (PSO) and psoriatic arthritis (PsA). However, the adoption of agents with alternate mechanisms of action (AMOA) has increased in recent years across indications and the practice of sequential TNF prescribing after an initial TNF is less common. Though	TNFs	are	still	the	preferred	first-line	agent,	there	are	discrepancies between specialists on the use of AMOA agents in the second-line setting. This research sought to understand the extent to which AMOA agents are prescribed after an initial TNF, and how this varies across PSO and PsA.An	independent	market	analytics	firm	collaborated	with	US	dermatologists (n = 201) and US rheumatologists (n = 200) to conduct a retrospective chart review of patients diagnosed with PSO (n = 950) and PsA (n = 1,008) who had switched from one biologic/apremilast to another agent in the prior 12 weeks. Physicians were able to submit up to 7 patient charts. PSO data was collected in September 2017 and PsA data was collected in April 2017.Analysis  of  patients  recently  switched  from  one  biologic/apremilast to a different brand revealed the majority of patients were treated	with	a	TNF	in	the	first-line	biologic/small	molecule	setting, though this varies by indication. Rheumatologists prescribe first-line	 TNFs	 significantly	 more	 than	 dermatologists.	 83%	 of	PsA	patients	are	prescribed	TNFs	first-line	compared	to	just	69%	of	PSO	patients.	Furthermore,	rheumatologists	are	significantly	more  likely  to  practice  TNF-sequencing  than  dermatologists. Indeed,	44%	of	PsA	patients	treated	with	a	first-line	TNF	were	prescribed a second TNF, compared to 6% of PSO patients. Additionally, certain TNF brands have experienced recent declines in	first	line	use,	though	this	varies	by	indication	as	well.	For	rheumatologists,	use	of	first-line	etanercept	has	declined,	38%	of	PsA	patients were initiated on etanercept at least 24 months prior to the study, compared to just 28% initiated on etanercept within 12 months	of	the	study.	For	dermatologists,	there	were	significantly	more	PSO	patients	initiated	on	etanercept	in	the	first-line	setting	24 months or more prior to the study compared to those initiated within 12 months of the study, (45% vs 31%.) This pattern also held	true	for	adalimumab,	where	42%	of	first-line	PSO	patients	initiated more than 24 months prior to the study were prescribed adalimumab,	a	figure	that	drops	to	just	27%	for	patients	initiated	within 12 months.Though	the	position	of	TNFs	as	first-line	agents	remains	dominant,	the	treating	specialist	and	indication	influence	how	widespread	and	continuous	TNF	use	is.	Specifically,	dermatologists	are	less	likely	to	prescribe	TNFs	as	first-line	agents	and	are	also	significantly	less	likely	to	partake	in	the	sequencing	of	TNFs	in	the	first-	and	second-line  setting  than  rheumatologists.  The  introduction  of several agents in PSO reporting substantially higher rates of skin clearance compared to TNFs could potentially be the source of increased  switching  to AMOAs  compared  to  other  specialties; whereas	 superior	 efficacy	 of	AMOA	 agents	 over	TNFs	 in	 PsA	may be less apparent. P124Introduction/Objective:VOYAGE  2  is  a  phase  3  double-blind, placebo/active comparator-controlled trial comparing guselkumab (GUS) with placebo (PBO) and adalimumab (ADA) in patients (pts) with moderate-to-severe PsO. The impact of treatment on patient-reported outcomes (PROs) was evaluated.Methods: Pts were randomized to GUS 100mg (wks 0 &amp; 4, then q8wks), ADA (80 mg wk 0, 40 mg wk 1, then 40 mg q2 wks), or PBO (wks 0, 4, &amp; 12, then GUS 100 mg wks 16 &amp; 20). We evaluated PROs using the Work Limitations Questionnaire [WLQ; work  productivity],  the  Hospital Anxiety  &amp;  Depression  Scale [HADS], and the Medical Outcomes Study 36-Item Short Form (SF-36; health related quality of life) at wk16 (GUS vs PBO) and wk24 (GUS vs ADA) in pts with and without PsA.Results: In all, 18% of pts reported a history of PsA. At wk16, GUS pts had numerically greater improvements vs PBO in work productivity,  anxiety  and  depression,  and  SF-36  PCS  &amp;  MCS scores regardless of PsA status. The least square (LS) mean differences (95% CI; adjusted for baseline value) for GUS vs PBO for all PROs were generally similar between pts with and without PsA. At wk24, GUS pts had numerically greater improvements vs ADA in all PROs regardless of PsA status. The LS mean differences for GUS vs ADA were generally greater for pts with PsA vs pts without PsA (Table).Conclusions: GUS showed better improvements in all PROs vs PBO at wk16 and vs ADA at wk24. Improvements vs PBO were similar  regardless  of  PsA  status,  while  improvements  vs ADA were greater for pts with PsA.Table: Summary of Change from Baseline in WLQ, HADS and SF-36 Scores from VOYAGE 20.13260.2913p-value0.0249WLQ Time ManagementWLQ MentalInterpersonalWLQ Physical Demandsw/out PSAN, LSMean Diff (95% CI)446, -7.7(-10.56, -4.88)419, -7.0(-10.31, -3.79)439, -4.9(-7.54, -2.35)440, -3.5(-6.11, -0.88)608, -1.6(-2.05, -1.07)608, -1.5 (-1.96, -0.98)Week 16 GUS vs PBOw/ PSAN, LSMean Diff (95% CI)86, -7.1(-13.21, -0.92)85, -6.6(-15.35, 2.06)83, -3.8(-11.03, 3.35)84, -7.9(-14.51, -1.21)135, -1.2(-2.45, 0.04)135, -1.2(-2.55, 0.06)135, 5.7(2.94, 8.43)135, 4.5(1.61, 7.48)N is the sample size across two groups.(3.31, 5.39)607, 4.8 (3.53, 6.15)SF-36 Physical ScoreSF-36 Mental ScoreWLQ Ouput DemandsDepression ScoreAnxiety Score&lt; 0.0001 607, 4.4 0.00260.05840.02110.0611Week 24 GUS vs ADAw/ PSAN, LSMean Diff (95% CI)w/out PSAN, LSMean Diff p(95% CI)value0.7152 445, -2.6pvalue0.0769p-value&lt; 0.0001 79, -1.6 (-10.58, 7.29)0.0002&lt; 0.0001 79, -4.3 (-14.40, 5.81)78, -11.4 (-19.37, -3.34)79, -14.7 (-24.29, -5.17)0.0089&lt; 0.0001 133, -2.1 0.3996 420, -0.60.69310.0061 436, -1.50.25690.0030 437, -1.20.41360.0012 608, -0.80.0025&lt; 0.0001 133, -1.5 0.0374 608, -0.40.1158&lt; 0.0001 132, 2.9&lt; 0.0001 132, 3.2 0.0346 608, 1.0(-0.10, 2.04)0.0591 608, 1.80.07530.0092(-3.33, -0.83)(-2.85, -0.09)(0.21, 5.57)(-0.12, 6.53)(-5.39, 0.28)(-3.46, 2.30)(-4.16, 1.11)(-3.94, 1.62)(-1.29, -0.28)(-0.91, 0.10)(0.45, 3.15)</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="inlineStr">
+        <is>
+          <t>Carmen La Rosa</t>
+        </is>
+      </c>
+      <c r="B115" s="2" t="inlineStr">
+        <is>
+          <t>Division of Dermatology and Venereology, Geneva University Hospital, and Department of Pathology and Immunology, University of Geneva, Ge-neva, Switzerland, Department of Dermatology, New York Medical Col-lege at Metropolitan Hospital, New York, NY, Oregon Health &amp; Science University, Portland, OR, Janssen Research &amp; Development, LLC, Spring House, PA, Janssen Research &amp; Development, LLC, San Diego, CA, USAOregon Medical Research Center, Portland, OR, Department of Medicine (Dermatology) UCLA, Los Angeles, CA, USA, Probity Medical Research, Waterloo, ON, Skin Centre for Dermatology, Peterborough, ON, Canada, Sun Pharmaceuticals, Princeton, NJ, Merck &amp; Co., Inc., Kenilworth, NJ, USA, SCIderm Research Institute and Dermatologikum Hamburg, Ham-burg, GermanySpherix Global InsightsSpherix Global InsightsHospital de la Santa Creu i Sant Pau and Universitat Autònoma de Bar-celona Medical School, Barcelona, Spain, Janssen Research &amp; Develop-ment, LLC, Spring House, PA, USA, McMaster University, Hamilton, ON, Canada, University of Melbourne, St. Vincent’s Hospital, Melbourne and Skin &amp; Cancer Foundation Inc., Carlton</t>
+        </is>
+      </c>
+      <c r="C115" s="2" t="inlineStr">
+        <is>
+          <t>Victoria, Australia</t>
+        </is>
+      </c>
+      <c r="D115" s="2" t="inlineStr">
+        <is>
+          <t>P119</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="inlineStr">
+        <is>
+          <t>EFFICACY AND SAFETY RESULTS OF GUSELKUMAB IN PATIENTS WITH ACTIVE PSORIATIC ARTHRITIS OVER 56 WEEKSTILDRAKIZUMAB EFFICACY OVER TIME BY WEEK 28 RESPONSE LEVELS IN TWO PHASE 3 CLINICAL TRIALS IN PATIENTS WITH CHRONIC PLAQUE PSORIASISPOTENTIAL DISCONNECT: CO­MANAGEMENT OF PATIENTS WITH PSORIATIC ARTHRITIS BETWEEN THE USE OF TUMOR NECROSIS FACTOR INHIBITORS (TNF) IN THE SECOND­LINE BIOLOGIC/SMALL MOLECULE SETTING: A CROSS­SPECIALTY COMPARISONIMPACT OF GUSELKUMAB VERSUS PLACEBO AND ADALIMUMAB ON PATIENT REPORTED OUTCOMES IN PATIENTS WITH AND WITHOUT PSORIATIC ARTHRITIS IN VOYAGE 2</t>
+        </is>
+      </c>
+      <c r="F115" s="2" t="inlineStr">
+        <is>
+          <t>Introduction/Objective:To	evaluate	the	efficacy,	safety	&amp;	tolerability of guselkumab (GUS) in patients (pts) w/ PsA.Methods: In this double-blind, PBO-controlled study, pts w/active PsA	&amp;	≥3%	BSA	of	PsO	despite	treatment	were	randomized	2:1	to SC GUS 100mg or PBO at wks0, 4, &amp; q8w thereafter through wk44. At  wk16,  pts  w/ &lt; 5%  improvement  from  baseline  (BL) in swollen &amp; tender joint counts were eligible for early escape (EE) to open-label ustekinumab. At wk24, PBO pts crossed-over to GUS 100mg (PBO to GUS). The primary endpoint was ACR 20 at wk24. Major secondary endpoints were PASI 75 &amp; ACR 50 responses, change from BL in HAQ-DI, &amp; improvement in enthesitis  (Leeds  enthesitis  index  [LEI])  &amp;  dactylitis  score  (by a  0–3  scoring  system)  at  wk24;  &amp; ACR  20  response  at  wk16. Through	wk24,	efficacy	analyses	were	performed	in	a	modified	Intent-to-Treat (mITT) population. Pts who met treatment failure criteria, EE or had missing data at wk24 were considered nonresponders	for	ACR/MDA	endpoints	at	wk24.	Efficacy	post	wk24	was evaluated in pts who did not EE &amp; continued treatment at wk24 based on observed data.Results: Of 149 pts (PBO:49, GUS:100), BL demographics &amp; ACR component measures were generally similar between the 2 groups. 4	PBO	&amp;	9	GUS	pts	were	previously	exposed	to	anti-TNFα	agents.	At	wk24,	significantly	more	GUS	pts	achieved	ACR	20	(58.0%	vs	18.4%, p &lt; 0.001), PASI 75 (78.6% vs 12.5%, p &lt; 0.001), &amp; ACR 50 (34.0% vs 10.2%, p = 0.002) responses vs PBO. At wk24, mean decrease in HAQ-DI score from BL (-0.42 vs. -0.06, p &lt; 0.001), &amp; median percent improvement in enthesitis (100% vs 33.33%, p = 0.009) &amp; dactylitis (100% vs 33.33%, p &lt; 0.001) scores (among pts	w/	BL	enthesitis	and	dactylitis)	were	significantly	greater	in	GUS	group	vs.	PBO.	Significantly	more	GUS	pts	achieved	ACR	20 at wk16 (60.0% vs 16.3%, p &lt; 0.001) and MDA at wk24 (23.0% vs. 2.0%, p = 0.001)	vs.	PBO.	Post	wk24,	efficacy	improved	in	PBO to GUS crossover pts as expected and were well-maintained in GUS pts through wk56.Through wk24, the frequencies of AEs &amp; infections were comparable (AEs: PBO 32.7%; GUS 36.0%; infections: PBO: 20.4%; GUS: 16.0%). Post wk24, there was no disproportional increase in AE frequency or infections among GUS pts w/ longer exposure. Through wk56, there was 1 malignancy (basal cell carcinoma), 6 SAEs (myocardial infarction, osteoarthritis, pupils unequal, radius fracture, pneumonia, ulcerative keratitis), 2 pts discontinued treatment due to AEs, 1 grade 3 neutropenia, &amp; 6 pts were positive for antibodies to GUS. No deaths occurred through wk56.Conclusions: GUS	demonstrated	significant	improvement	on	joint	symptoms, physical function, PsO, enthesitis, dactylitis &amp; quality of	life;	efficacy	was	well-maintained	through	wk56.	GUS	was	well	tolerated in this population after ~1 year of exposure.Data has been previously presented at EULAR 2017 &amp; ACR 2017P12049Introduction: Tildrakizumab	(TIL),	a	humanized,	IgG1/κ	monoclonal	antibody	for	IL-23p19,	recently	demonstrated	its	efficacy	in subjects with chronic plaque psoriasis in two, phase 3 clinical studies1.Objective:In	this	analysis,	we	examined	efficacy	from	baseline	to week 52 among TIL patients achieving various Psoriasis Area and Severity Index (PASI) responses at week 28.Methods:  ReSURFACE  1  (NCT01722331)  and  reSURFACE  2 (NCT01729754) were double-blind, randomized controlled studies in subjects with moderate-to-severe chronic plaque psoriasis. Part 1  (0–12  weeks)  was  placebo  controlled;  Part  2  (12–28  weeks) re-randomized  placebo  patients  to  TIL;  Part  3  (28–64  weeks, reSURFACE 1; 28–52 weeks, reSURFACE 2) re-randomized patients	with	≥PASI	50	to	continue	or	increase	TIL	dose	or	to	placebo	based on their PASI response at week 28. In this post-hoc pooled analysis, patients consistently on TIL 100 mg and 200 mg from baseline	to	week	52	were	classified	in	5	mutually	exclusive	groups	based on their week-28 PASI response: PASI  &lt; 50, PASI 50–74, PASI 75–89, PASI 90–99, and PASI 100. Baseline characteristics and % PASI improvement from baseline up to week 52 (observed data) were examined for each group.Results: This analysis included 575 (TIL 100 mg) and 581 (TIL 200 mg) patients; the proportions of patients with week-28 PASI 75/90/100  responses  were  77%/54%/23%  (TIL  100  mg)  and 78%/58%/29%  (TIL  200  mg). At  week  28,  133  (23.1%),  175 (30.4%), 137 (23.8%), 82 (14.3%), and 48 (8.3%) TIL 100 mg patients and 170 (29.3%), 169 (29.1%), 114 (19.6%), 105 (18.1%), and 23 (4.0%) TIL 200mg achieved PASI 100, PASI 90–99, PASI 75–89,  PASI  50–74,  and  PASI   &lt; 50,  respectively.  On  average, PASI 100 patients were younger, lighter, and had shorter disease duration at baseline compared to other response groups. For TIL 100 mg, % PASI improvement was highest for PASI 100 and least for PASI &lt; 50 patients on all visits up to week 28 (week 4: 53%, 46%, 38%, 30%, and 16%; week 28: 100%, 95%, 83%, 64%, and 33% for PASI 100, PASI 90–99, PASI 75–89, PASI 50–74, and PASI   &lt; 50 categories, respectively). Among patients achieving PASI  &gt; 50 at week 28 and continued up to 52 weeks, % PASI improvement maintained or improved from week 28 to week 52. Similar results were observed for TIL 200 mg as well as a subgroup analysis with bio-naive and bio-experienced patients respectively.Conclusions: The majority of TIL 100 and 200 mg patients achieved PASI &gt; 50 response at week 28, and PASI improvement was maintained from week 28 to week 52. Among patients achieving PASI  &gt; 90 at week 28, TIL 100 and 200 mg were associated with a rapid PASI improvement by week 4.1. Reich K, Papp KA, Blauvelt A, et al. Tildrakizumab versus placebo or  etanercept  for  chronic  plaque  psoriasis  (reSURFACE  1  and  reSURFACE 2): results from two randomised controlled, phase 3 trials. Lancet. 2017;390(10091):276-288.This abstract was presented at 2018 Annual Meeting of American Academy of Dermatology.Note: This abstract was presented at 2018 Annual Meeting of American Academy of Dermatology. P122RHEUMATOLOGISTS AND DERMATOLOGISTSIntroduction: On average, the majority of psoriasis (PSO) patients are diagnosed a year prior to a psoriatic arthritis (PsA) diagnosis, making the referral patterns and co-management between derma50tologists and rheumatologists an important aspect to understanding the management of these diseases. Dermatologists represent an important referral-base for rheumatologists, accounting for over one-quarter of all new PsA patients. However, there are discrepancies between the specialists regarding the timing in which these referrals take place.Objectives: One objective of the study was to gain further insight into rheumatologist and dermatologist co-management of patients with PsA.Methods: An	independent	market	analytics	firm	collaborated	with	US rheumatologists (n = 101) and US dermatologists (n = 101) to conduct analysis of both the PsA and PSO markets. Data were collected	 via	 an	 online	 survey	 fielded	 in	 November/December	2017  and  included  patient  demographics,  as  well  as  physician demographics, and attitudinal survey responses.Results: Rheumatologists indicate that 51 percent of referrals result from primary care physicians, 28 percent result from a dermatologist,  and  13  percent  are  self-referred. The  majority  (73%)  of PsA patients under the care of collaborating rheumatologists had previously been diagnosed with PSO prior to PsA. Dermatologists state that one-quarter of their patients with severe PSO also have PsA, with more than one-third of severe PSO patients also being co-managed with a rheumatologist. The majority of rheumatologists	believe	that	dermatologists	refer	patients	at	the	first	sign	of	joint involvement and do not attempt to treat joint pain; however, 31 percent of dermatologists report they do not refer PSO patients to rheumatologists until patients have failed biologics or are not improving on their current systemic regimen, while an additional 35  percent  report  they  refer  only  severe  arthritis/patients  with worsening disease. Furthermore, only 35 percent of dermatologists agree that they refer their PSO patients to a rheumatologists at the first	sign	of	joint	involvement. At the time of dermatologist referral, rheumatologists state that two-thirds	of	referred	patients	are	biologic/apremilast	naïve,	with	only 6 percent having controlled PSO and joint pain. However, dermatologists state that 40 percent the patients that they referred to rheumatologists were treated with biologics and 15 percent of said  referred  patients  were  treated  with  apremilast.  Indeed,  76 percent of dermatologists agree with the statement, “I believe that the disease (PsA),” while 57 percent of dermatologists agree “I Conclusion: With many patients diagnosed with both PSO and PsA,  co-management  between  dermatologists  and  rheumatologists is common. While rheumatologists appear to be under the impression that they are receiving the majority of dermatologisttreated	patients	with	PsA	at	the	first	sign	of	joint	involvement,	dermatologists largely report that they are managing and treating PsA patients. Furthermore, most dermatologists believe early aggressive use of biologic treatments will mitigate the development and/or progression of joint involvement, implying their willingness to manage their patients with PsA, particularly at early stages. P123TNF  therapy  has  been  the  standard  of  care  for  adult  patients diagnosed with autoimmune conditions, resulting in familiarity, comfort, and satisfaction among physicians. TNFs are typically used	 as	 a	 first-line	 biologic/small	 molecule	 in	 the	 treatment	 of	psoriasis (PSO) and psoriatic arthritis (PsA). However, the adoption of agents with alternate mechanisms of action (AMOA) has increased in recent years across indications and the practice of sequential TNF prescribing after an initial TNF is less common. Though	TNFs	are	still	the	preferred	first-line	agent,	there	are	discrepancies between specialists on the use of AMOA agents in the second-line setting. This research sought to understand the extent to which AMOA agents are prescribed after an initial TNF, and how this varies across PSO and PsA.An	independent	market	analytics	firm	collaborated	with	US	dermatologists (n = 201) and US rheumatologists (n = 200) to conduct a retrospective chart review of patients diagnosed with PSO (n = 950) and PsA (n = 1,008) who had switched from one biologic/apremilast to another agent in the prior 12 weeks. Physicians were able to submit up to 7 patient charts. PSO data was collected in September 2017 and PsA data was collected in April 2017.Analysis  of  patients  recently  switched  from  one  biologic/apremilast to a different brand revealed the majority of patients were treated	with	a	TNF	in	the	first-line	biologic/small	molecule	setting, though this varies by indication. Rheumatologists prescribe first-line	 TNFs	 significantly	 more	 than	 dermatologists.	 83%	 of	PsA	patients	are	prescribed	TNFs	first-line	compared	to	just	69%	of	PSO	patients.	Furthermore,	rheumatologists	are	significantly	more  likely  to  practice  TNF-sequencing  than  dermatologists. Indeed,	44%	of	PsA	patients	treated	with	a	first-line	TNF	were	prescribed a second TNF, compared to 6% of PSO patients. Additionally, certain TNF brands have experienced recent declines in	first	line	use,	though	this	varies	by	indication	as	well.	For	rheumatologists,	use	of	first-line	etanercept	has	declined,	38%	of	PsA	patients were initiated on etanercept at least 24 months prior to the study, compared to just 28% initiated on etanercept within 12 months	of	the	study.	For	dermatologists,	there	were	significantly	more	PSO	patients	initiated	on	etanercept	in	the	first-line	setting	24 months or more prior to the study compared to those initiated within 12 months of the study, (45% vs 31%.) This pattern also held	true	for	adalimumab,	where	42%	of	first-line	PSO	patients	initiated more than 24 months prior to the study were prescribed adalimumab,	a	figure	that	drops	to	just	27%	for	patients	initiated	within 12 months.Though	the	position	of	TNFs	as	first-line	agents	remains	dominant,	the	treating	specialist	and	indication	influence	how	widespread	and	continuous	TNF	use	is.	Specifically,	dermatologists	are	less	likely	to	prescribe	TNFs	as	first-line	agents	and	are	also	significantly	less	likely	to	partake	in	the	sequencing	of	TNFs	in	the	first-	and	second-line  setting  than  rheumatologists.  The  introduction  of several agents in PSO reporting substantially higher rates of skin clearance compared to TNFs could potentially be the source of increased  switching  to AMOAs  compared  to  other  specialties; whereas	 superior	 efficacy	 of	AMOA	 agents	 over	TNFs	 in	 PsA	may be less apparent. P124Introduction/Objective:VOYAGE  2  is  a  phase  3  double-blind, placebo/active comparator-controlled trial comparing guselkumab (GUS) with placebo (PBO) and adalimumab (ADA) in patients (pts) with moderate-to-severe PsO. The impact of treatment on patient-reported outcomes (PROs) was evaluated.Methods: Pts were randomized to GUS 100mg (wks 0 &amp; 4, then q8wks), ADA (80 mg wk 0, 40 mg wk 1, then 40 mg q2 wks), or PBO (wks 0, 4, &amp; 12, then GUS 100 mg wks 16 &amp; 20). We evaluated PROs using the Work Limitations Questionnaire [WLQ; work  productivity],  the  Hospital Anxiety  &amp;  Depression  Scale [HADS], and the Medical Outcomes Study 36-Item Short Form (SF-36; health related quality of life) at wk16 (GUS vs PBO) and wk24 (GUS vs ADA) in pts with and without PsA.Results: In all, 18% of pts reported a history of PsA. At wk16, GUS pts had numerically greater improvements vs PBO in work productivity,  anxiety  and  depression,  and  SF-36  PCS  &amp;  MCS scores regardless of PsA status. The least square (LS) mean differences (95% CI; adjusted for baseline value) for GUS vs PBO for all PROs were generally similar between pts with and without PsA. At wk24, GUS pts had numerically greater improvements vs ADA in all PROs regardless of PsA status. The LS mean differences for GUS vs ADA were generally greater for pts with PsA vs pts without PsA (Table).Conclusions: GUS showed better improvements in all PROs vs PBO at wk16 and vs ADA at wk24. Improvements vs PBO were similar  regardless  of  PsA  status,  while  improvements  vs ADA were greater for pts with PsA.Table: Summary of Change from Baseline in WLQ, HADS and SF-36 Scores from VOYAGE 20.13260.2913p-value0.0249WLQ Time ManagementWLQ MentalInterpersonalWLQ Physical Demandsw/out PSAN, LSMean Diff (95% CI)446, -7.7(-10.56, -4.88)419, -7.0(-10.31, -3.79)439, -4.9(-7.54, -2.35)440, -3.5(-6.11, -0.88)608, -1.6(-2.05, -1.07)608, -1.5 (-1.96, -0.98)Week 16 GUS vs PBOw/ PSAN, LSMean Diff (95% CI)86, -7.1(-13.21, -0.92)85, -6.6(-15.35, 2.06)83, -3.8(-11.03, 3.35)84, -7.9(-14.51, -1.21)135, -1.2(-2.45, 0.04)135, -1.2(-2.55, 0.06)135, 5.7(2.94, 8.43)135, 4.5(1.61, 7.48)N is the sample size across two groups.(3.31, 5.39)607, 4.8 (3.53, 6.15)SF-36 Physical ScoreSF-36 Mental ScoreWLQ Ouput DemandsDepression ScoreAnxiety Score&lt; 0.0001 607, 4.4 0.00260.05840.02110.0611Week 24 GUS vs ADAw/ PSAN, LSMean Diff (95% CI)w/out PSAN, LSMean Diff p(95% CI)value0.7152 445, -2.6pvalue0.0769p-value&lt; 0.0001 79, -1.6 (-10.58, 7.29)0.0002&lt; 0.0001 79, -4.3 (-14.40, 5.81)78, -11.4 (-19.37, -3.34)79, -14.7 (-24.29, -5.17)0.0089&lt; 0.0001 133, -2.1 0.3996 420, -0.60.69310.0061 436, -1.50.25690.0030 437, -1.20.41360.0012 608, -0.80.0025&lt; 0.0001 133, -1.5 0.0374 608, -0.40.1158&lt; 0.0001 132, 2.9&lt; 0.0001 132, 3.2 0.0346 608, 1.0(-0.10, 2.04)0.0591 608, 1.80.07530.0092(-3.33, -0.83)(-2.85, -0.09)(0.21, 5.57)(-0.12, 6.53)(-5.39, 0.28)(-3.46, 2.30)(-4.16, 1.11)(-3.94, 1.62)(-1.29, -0.28)(-0.91, 0.10)(0.45, 3.15)</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="inlineStr">
+        <is>
+          <t>Kristian ReichLynn Price</t>
+        </is>
+      </c>
+      <c r="B116" s="2" t="inlineStr">
+        <is>
+          <t>Division of Dermatology and Venereology, Geneva University Hospital, and Department of Pathology and Immunology, University of Geneva, Ge-neva, Switzerland, Department of Dermatology, New York Medical Col-lege at Metropolitan Hospital, New York, NY, Oregon Health &amp; Science University, Portland, OR, Janssen Research &amp; Development, LLC, Spring House, PA, Janssen Research &amp; Development, LLC, San Diego, CA, USAOregon Medical Research Center, Portland, OR, Department of Medicine (Dermatology) UCLA, Los Angeles, CA, USA, Probity Medical Research, Waterloo, ON, Skin Centre for Dermatology, Peterborough, ON, Canada, Sun Pharmaceuticals, Princeton, NJ, Merck &amp; Co., Inc., Kenilworth, NJ, USA, SCIderm Research Institute and Dermatologikum Hamburg, Ham-burg, GermanySpherix Global InsightsSpherix Global InsightsHospital de la Santa Creu i Sant Pau and Universitat Autònoma de Bar-celona Medical School, Barcelona, Spain, Janssen Research &amp; Develop-ment, LLC, Spring House, PA, USA, McMaster University, Hamilton, ON, Canada, University of Melbourne, St. Vincent’s Hospital, Melbourne and Skin &amp; Cancer Foundation Inc., Carlton</t>
+        </is>
+      </c>
+      <c r="C116" s="2" t="inlineStr">
+        <is>
+          <t>Victoria, Australia</t>
+        </is>
+      </c>
+      <c r="D116" s="2" t="inlineStr">
+        <is>
+          <t>P119</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="inlineStr">
+        <is>
+          <t>EFFICACY AND SAFETY RESULTS OF GUSELKUMAB IN PATIENTS WITH ACTIVE PSORIATIC ARTHRITIS OVER 56 WEEKSTILDRAKIZUMAB EFFICACY OVER TIME BY WEEK 28 RESPONSE LEVELS IN TWO PHASE 3 CLINICAL TRIALS IN PATIENTS WITH CHRONIC PLAQUE PSORIASISPOTENTIAL DISCONNECT: CO­MANAGEMENT OF PATIENTS WITH PSORIATIC ARTHRITIS BETWEEN THE USE OF TUMOR NECROSIS FACTOR INHIBITORS (TNF) IN THE SECOND­LINE BIOLOGIC/SMALL MOLECULE SETTING: A CROSS­SPECIALTY COMPARISONIMPACT OF GUSELKUMAB VERSUS PLACEBO AND ADALIMUMAB ON PATIENT REPORTED OUTCOMES IN PATIENTS WITH AND WITHOUT PSORIATIC ARTHRITIS IN VOYAGE 2</t>
+        </is>
+      </c>
+      <c r="F116" s="2" t="inlineStr">
+        <is>
+          <t>Introduction/Objective:To	evaluate	the	efficacy,	safety	&amp;	tolerability of guselkumab (GUS) in patients (pts) w/ PsA.Methods: In this double-blind, PBO-controlled study, pts w/active PsA	&amp;	≥3%	BSA	of	PsO	despite	treatment	were	randomized	2:1	to SC GUS 100mg or PBO at wks0, 4, &amp; q8w thereafter through wk44. At  wk16,  pts  w/ &lt; 5%  improvement  from  baseline  (BL) in swollen &amp; tender joint counts were eligible for early escape (EE) to open-label ustekinumab. At wk24, PBO pts crossed-over to GUS 100mg (PBO to GUS). The primary endpoint was ACR 20 at wk24. Major secondary endpoints were PASI 75 &amp; ACR 50 responses, change from BL in HAQ-DI, &amp; improvement in enthesitis  (Leeds  enthesitis  index  [LEI])  &amp;  dactylitis  score  (by a  0–3  scoring  system)  at  wk24;  &amp; ACR  20  response  at  wk16. Through	wk24,	efficacy	analyses	were	performed	in	a	modified	Intent-to-Treat (mITT) population. Pts who met treatment failure criteria, EE or had missing data at wk24 were considered nonresponders	for	ACR/MDA	endpoints	at	wk24.	Efficacy	post	wk24	was evaluated in pts who did not EE &amp; continued treatment at wk24 based on observed data.Results: Of 149 pts (PBO:49, GUS:100), BL demographics &amp; ACR component measures were generally similar between the 2 groups. 4	PBO	&amp;	9	GUS	pts	were	previously	exposed	to	anti-TNFα	agents.	At	wk24,	significantly	more	GUS	pts	achieved	ACR	20	(58.0%	vs	18.4%, p &lt; 0.001), PASI 75 (78.6% vs 12.5%, p &lt; 0.001), &amp; ACR 50 (34.0% vs 10.2%, p = 0.002) responses vs PBO. At wk24, mean decrease in HAQ-DI score from BL (-0.42 vs. -0.06, p &lt; 0.001), &amp; median percent improvement in enthesitis (100% vs 33.33%, p = 0.009) &amp; dactylitis (100% vs 33.33%, p &lt; 0.001) scores (among pts	w/	BL	enthesitis	and	dactylitis)	were	significantly	greater	in	GUS	group	vs.	PBO.	Significantly	more	GUS	pts	achieved	ACR	20 at wk16 (60.0% vs 16.3%, p &lt; 0.001) and MDA at wk24 (23.0% vs. 2.0%, p = 0.001)	vs.	PBO.	Post	wk24,	efficacy	improved	in	PBO to GUS crossover pts as expected and were well-maintained in GUS pts through wk56.Through wk24, the frequencies of AEs &amp; infections were comparable (AEs: PBO 32.7%; GUS 36.0%; infections: PBO: 20.4%; GUS: 16.0%). Post wk24, there was no disproportional increase in AE frequency or infections among GUS pts w/ longer exposure. Through wk56, there was 1 malignancy (basal cell carcinoma), 6 SAEs (myocardial infarction, osteoarthritis, pupils unequal, radius fracture, pneumonia, ulcerative keratitis), 2 pts discontinued treatment due to AEs, 1 grade 3 neutropenia, &amp; 6 pts were positive for antibodies to GUS. No deaths occurred through wk56.Conclusions: GUS	demonstrated	significant	improvement	on	joint	symptoms, physical function, PsO, enthesitis, dactylitis &amp; quality of	life;	efficacy	was	well-maintained	through	wk56.	GUS	was	well	tolerated in this population after ~1 year of exposure.Data has been previously presented at EULAR 2017 &amp; ACR 2017P12049Introduction: Tildrakizumab	(TIL),	a	humanized,	IgG1/κ	monoclonal	antibody	for	IL-23p19,	recently	demonstrated	its	efficacy	in subjects with chronic plaque psoriasis in two, phase 3 clinical studies1.Objective:In	this	analysis,	we	examined	efficacy	from	baseline	to week 52 among TIL patients achieving various Psoriasis Area and Severity Index (PASI) responses at week 28.Methods:  ReSURFACE  1  (NCT01722331)  and  reSURFACE  2 (NCT01729754) were double-blind, randomized controlled studies in subjects with moderate-to-severe chronic plaque psoriasis. Part 1  (0–12  weeks)  was  placebo  controlled;  Part  2  (12–28  weeks) re-randomized  placebo  patients  to  TIL;  Part  3  (28–64  weeks, reSURFACE 1; 28–52 weeks, reSURFACE 2) re-randomized patients	with	≥PASI	50	to	continue	or	increase	TIL	dose	or	to	placebo	based on their PASI response at week 28. In this post-hoc pooled analysis, patients consistently on TIL 100 mg and 200 mg from baseline	to	week	52	were	classified	in	5	mutually	exclusive	groups	based on their week-28 PASI response: PASI  &lt; 50, PASI 50–74, PASI 75–89, PASI 90–99, and PASI 100. Baseline characteristics and % PASI improvement from baseline up to week 52 (observed data) were examined for each group.Results: This analysis included 575 (TIL 100 mg) and 581 (TIL 200 mg) patients; the proportions of patients with week-28 PASI 75/90/100  responses  were  77%/54%/23%  (TIL  100  mg)  and 78%/58%/29%  (TIL  200  mg). At  week  28,  133  (23.1%),  175 (30.4%), 137 (23.8%), 82 (14.3%), and 48 (8.3%) TIL 100 mg patients and 170 (29.3%), 169 (29.1%), 114 (19.6%), 105 (18.1%), and 23 (4.0%) TIL 200mg achieved PASI 100, PASI 90–99, PASI 75–89,  PASI  50–74,  and  PASI   &lt; 50,  respectively.  On  average, PASI 100 patients were younger, lighter, and had shorter disease duration at baseline compared to other response groups. For TIL 100 mg, % PASI improvement was highest for PASI 100 and least for PASI &lt; 50 patients on all visits up to week 28 (week 4: 53%, 46%, 38%, 30%, and 16%; week 28: 100%, 95%, 83%, 64%, and 33% for PASI 100, PASI 90–99, PASI 75–89, PASI 50–74, and PASI   &lt; 50 categories, respectively). Among patients achieving PASI  &gt; 50 at week 28 and continued up to 52 weeks, % PASI improvement maintained or improved from week 28 to week 52. Similar results were observed for TIL 200 mg as well as a subgroup analysis with bio-naive and bio-experienced patients respectively.Conclusions: The majority of TIL 100 and 200 mg patients achieved PASI &gt; 50 response at week 28, and PASI improvement was maintained from week 28 to week 52. Among patients achieving PASI  &gt; 90 at week 28, TIL 100 and 200 mg were associated with a rapid PASI improvement by week 4.1. Reich K, Papp KA, Blauvelt A, et al. Tildrakizumab versus placebo or  etanercept  for  chronic  plaque  psoriasis  (reSURFACE  1  and  reSURFACE 2): results from two randomised controlled, phase 3 trials. Lancet. 2017;390(10091):276-288.This abstract was presented at 2018 Annual Meeting of American Academy of Dermatology.Note: This abstract was presented at 2018 Annual Meeting of American Academy of Dermatology. P122RHEUMATOLOGISTS AND DERMATOLOGISTSIntroduction: On average, the majority of psoriasis (PSO) patients are diagnosed a year prior to a psoriatic arthritis (PsA) diagnosis, making the referral patterns and co-management between derma50tologists and rheumatologists an important aspect to understanding the management of these diseases. Dermatologists represent an important referral-base for rheumatologists, accounting for over one-quarter of all new PsA patients. However, there are discrepancies between the specialists regarding the timing in which these referrals take place.Objectives: One objective of the study was to gain further insight into rheumatologist and dermatologist co-management of patients with PsA.Methods: An	independent	market	analytics	firm	collaborated	with	US rheumatologists (n = 101) and US dermatologists (n = 101) to conduct analysis of both the PsA and PSO markets. Data were collected	 via	 an	 online	 survey	 fielded	 in	 November/December	2017  and  included  patient  demographics,  as  well  as  physician demographics, and attitudinal survey responses.Results: Rheumatologists indicate that 51 percent of referrals result from primary care physicians, 28 percent result from a dermatologist,  and  13  percent  are  self-referred. The  majority  (73%)  of PsA patients under the care of collaborating rheumatologists had previously been diagnosed with PSO prior to PsA. Dermatologists state that one-quarter of their patients with severe PSO also have PsA, with more than one-third of severe PSO patients also being co-managed with a rheumatologist. The majority of rheumatologists	believe	that	dermatologists	refer	patients	at	the	first	sign	of	joint involvement and do not attempt to treat joint pain; however, 31 percent of dermatologists report they do not refer PSO patients to rheumatologists until patients have failed biologics or are not improving on their current systemic regimen, while an additional 35  percent  report  they  refer  only  severe  arthritis/patients  with worsening disease. Furthermore, only 35 percent of dermatologists agree that they refer their PSO patients to a rheumatologists at the first	sign	of	joint	involvement. At the time of dermatologist referral, rheumatologists state that two-thirds	of	referred	patients	are	biologic/apremilast	naïve,	with	only 6 percent having controlled PSO and joint pain. However, dermatologists state that 40 percent the patients that they referred to rheumatologists were treated with biologics and 15 percent of said  referred  patients  were  treated  with  apremilast.  Indeed,  76 percent of dermatologists agree with the statement, “I believe that the disease (PsA),” while 57 percent of dermatologists agree “I Conclusion: With many patients diagnosed with both PSO and PsA,  co-management  between  dermatologists  and  rheumatologists is common. While rheumatologists appear to be under the impression that they are receiving the majority of dermatologisttreated	patients	with	PsA	at	the	first	sign	of	joint	involvement,	dermatologists largely report that they are managing and treating PsA patients. Furthermore, most dermatologists believe early aggressive use of biologic treatments will mitigate the development and/or progression of joint involvement, implying their willingness to manage their patients with PsA, particularly at early stages. P123TNF  therapy  has  been  the  standard  of  care  for  adult  patients diagnosed with autoimmune conditions, resulting in familiarity, comfort, and satisfaction among physicians. TNFs are typically used	 as	 a	 first-line	 biologic/small	 molecule	 in	 the	 treatment	 of	psoriasis (PSO) and psoriatic arthritis (PsA). However, the adoption of agents with alternate mechanisms of action (AMOA) has increased in recent years across indications and the practice of sequential TNF prescribing after an initial TNF is less common. Though	TNFs	are	still	the	preferred	first-line	agent,	there	are	discrepancies between specialists on the use of AMOA agents in the second-line setting. This research sought to understand the extent to which AMOA agents are prescribed after an initial TNF, and how this varies across PSO and PsA.An	independent	market	analytics	firm	collaborated	with	US	dermatologists (n = 201) and US rheumatologists (n = 200) to conduct a retrospective chart review of patients diagnosed with PSO (n = 950) and PsA (n = 1,008) who had switched from one biologic/apremilast to another agent in the prior 12 weeks. Physicians were able to submit up to 7 patient charts. PSO data was collected in September 2017 and PsA data was collected in April 2017.Analysis  of  patients  recently  switched  from  one  biologic/apremilast to a different brand revealed the majority of patients were treated	with	a	TNF	in	the	first-line	biologic/small	molecule	setting, though this varies by indication. Rheumatologists prescribe first-line	 TNFs	 significantly	 more	 than	 dermatologists.	 83%	 of	PsA	patients	are	prescribed	TNFs	first-line	compared	to	just	69%	of	PSO	patients.	Furthermore,	rheumatologists	are	significantly	more  likely  to  practice  TNF-sequencing  than  dermatologists. Indeed,	44%	of	PsA	patients	treated	with	a	first-line	TNF	were	prescribed a second TNF, compared to 6% of PSO patients. Additionally, certain TNF brands have experienced recent declines in	first	line	use,	though	this	varies	by	indication	as	well.	For	rheumatologists,	use	of	first-line	etanercept	has	declined,	38%	of	PsA	patients were initiated on etanercept at least 24 months prior to the study, compared to just 28% initiated on etanercept within 12 months	of	the	study.	For	dermatologists,	there	were	significantly	more	PSO	patients	initiated	on	etanercept	in	the	first-line	setting	24 months or more prior to the study compared to those initiated within 12 months of the study, (45% vs 31%.) This pattern also held	true	for	adalimumab,	where	42%	of	first-line	PSO	patients	initiated more than 24 months prior to the study were prescribed adalimumab,	a	figure	that	drops	to	just	27%	for	patients	initiated	within 12 months.Though	the	position	of	TNFs	as	first-line	agents	remains	dominant,	the	treating	specialist	and	indication	influence	how	widespread	and	continuous	TNF	use	is.	Specifically,	dermatologists	are	less	likely	to	prescribe	TNFs	as	first-line	agents	and	are	also	significantly	less	likely	to	partake	in	the	sequencing	of	TNFs	in	the	first-	and	second-line  setting  than  rheumatologists.  The  introduction  of several agents in PSO reporting substantially higher rates of skin clearance compared to TNFs could potentially be the source of increased  switching  to AMOAs  compared  to  other  specialties; whereas	 superior	 efficacy	 of	AMOA	 agents	 over	TNFs	 in	 PsA	may be less apparent. P124Introduction/Objective:VOYAGE  2  is  a  phase  3  double-blind, placebo/active comparator-controlled trial comparing guselkumab (GUS) with placebo (PBO) and adalimumab (ADA) in patients (pts) with moderate-to-severe PsO. The impact of treatment on patient-reported outcomes (PROs) was evaluated.Methods: Pts were randomized to GUS 100mg (wks 0 &amp; 4, then q8wks), ADA (80 mg wk 0, 40 mg wk 1, then 40 mg q2 wks), or PBO (wks 0, 4, &amp; 12, then GUS 100 mg wks 16 &amp; 20). We evaluated PROs using the Work Limitations Questionnaire [WLQ; work  productivity],  the  Hospital Anxiety  &amp;  Depression  Scale [HADS], and the Medical Outcomes Study 36-Item Short Form (SF-36; health related quality of life) at wk16 (GUS vs PBO) and wk24 (GUS vs ADA) in pts with and without PsA.Results: In all, 18% of pts reported a history of PsA. At wk16, GUS pts had numerically greater improvements vs PBO in work productivity,  anxiety  and  depression,  and  SF-36  PCS  &amp;  MCS scores regardless of PsA status. The least square (LS) mean differences (95% CI; adjusted for baseline value) for GUS vs PBO for all PROs were generally similar between pts with and without PsA. At wk24, GUS pts had numerically greater improvements vs ADA in all PROs regardless of PsA status. The LS mean differences for GUS vs ADA were generally greater for pts with PsA vs pts without PsA (Table).Conclusions: GUS showed better improvements in all PROs vs PBO at wk16 and vs ADA at wk24. Improvements vs PBO were similar  regardless  of  PsA  status,  while  improvements  vs ADA were greater for pts with PsA.Table: Summary of Change from Baseline in WLQ, HADS and SF-36 Scores from VOYAGE 20.13260.2913p-value0.0249WLQ Time ManagementWLQ MentalInterpersonalWLQ Physical Demandsw/out PSAN, LSMean Diff (95% CI)446, -7.7(-10.56, -4.88)419, -7.0(-10.31, -3.79)439, -4.9(-7.54, -2.35)440, -3.5(-6.11, -0.88)608, -1.6(-2.05, -1.07)608, -1.5 (-1.96, -0.98)Week 16 GUS vs PBOw/ PSAN, LSMean Diff (95% CI)86, -7.1(-13.21, -0.92)85, -6.6(-15.35, 2.06)83, -3.8(-11.03, 3.35)84, -7.9(-14.51, -1.21)135, -1.2(-2.45, 0.04)135, -1.2(-2.55, 0.06)135, 5.7(2.94, 8.43)135, 4.5(1.61, 7.48)N is the sample size across two groups.(3.31, 5.39)607, 4.8 (3.53, 6.15)SF-36 Physical ScoreSF-36 Mental ScoreWLQ Ouput DemandsDepression ScoreAnxiety Score&lt; 0.0001 607, 4.4 0.00260.05840.02110.0611Week 24 GUS vs ADAw/ PSAN, LSMean Diff (95% CI)w/out PSAN, LSMean Diff p(95% CI)value0.7152 445, -2.6pvalue0.0769p-value&lt; 0.0001 79, -1.6 (-10.58, 7.29)0.0002&lt; 0.0001 79, -4.3 (-14.40, 5.81)78, -11.4 (-19.37, -3.34)79, -14.7 (-24.29, -5.17)0.0089&lt; 0.0001 133, -2.1 0.3996 420, -0.60.69310.0061 436, -1.50.25690.0030 437, -1.20.41360.0012 608, -0.80.0025&lt; 0.0001 133, -1.5 0.0374 608, -0.40.1158&lt; 0.0001 132, 2.9&lt; 0.0001 132, 3.2 0.0346 608, 1.0(-0.10, 2.04)0.0591 608, 1.80.07530.0092(-3.33, -0.83)(-2.85, -0.09)(0.21, 5.57)(-0.12, 6.53)(-5.39, 0.28)(-3.46, 2.30)(-4.16, 1.11)(-3.94, 1.62)(-1.29, -0.28)(-0.91, 0.10)(0.45, 3.15)</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="inlineStr">
+        <is>
+          <t>Jennifer Robinson</t>
+        </is>
+      </c>
+      <c r="B117" s="2" t="inlineStr">
+        <is>
+          <t>Division of Dermatology and Venereology, Geneva University Hospital, and Department of Pathology and Immunology, University of Geneva, Ge-neva, Switzerland, Department of Dermatology, New York Medical Col-lege at Metropolitan Hospital, New York, NY, Oregon Health &amp; Science University, Portland, OR, Janssen Research &amp; Development, LLC, Spring House, PA, Janssen Research &amp; Development, LLC, San Diego, CA, USAOregon Medical Research Center, Portland, OR, Department of Medicine (Dermatology) UCLA, Los Angeles, CA, USA, Probity Medical Research, Waterloo, ON, Skin Centre for Dermatology, Peterborough, ON, Canada, Sun Pharmaceuticals, Princeton, NJ, Merck &amp; Co., Inc., Kenilworth, NJ, USA, SCIderm Research Institute and Dermatologikum Hamburg, Ham-burg, GermanySpherix Global InsightsSpherix Global InsightsHospital de la Santa Creu i Sant Pau and Universitat Autònoma de Bar-celona Medical School, Barcelona, Spain, Janssen Research &amp; Develop-ment, LLC, Spring House, PA, USA, McMaster University, Hamilton, ON, Canada, University of Melbourne, St. Vincent’s Hospital, Melbourne and Skin &amp; Cancer Foundation Inc., Carlton</t>
+        </is>
+      </c>
+      <c r="C117" s="2" t="inlineStr">
+        <is>
+          <t>Victoria, Australia</t>
+        </is>
+      </c>
+      <c r="D117" s="2" t="inlineStr">
+        <is>
+          <t>P119</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="inlineStr">
+        <is>
+          <t>EFFICACY AND SAFETY RESULTS OF GUSELKUMAB IN PATIENTS WITH ACTIVE PSORIATIC ARTHRITIS OVER 56 WEEKSTILDRAKIZUMAB EFFICACY OVER TIME BY WEEK 28 RESPONSE LEVELS IN TWO PHASE 3 CLINICAL TRIALS IN PATIENTS WITH CHRONIC PLAQUE PSORIASISPOTENTIAL DISCONNECT: CO­MANAGEMENT OF PATIENTS WITH PSORIATIC ARTHRITIS BETWEEN THE USE OF TUMOR NECROSIS FACTOR INHIBITORS (TNF) IN THE SECOND­LINE BIOLOGIC/SMALL MOLECULE SETTING: A CROSS­SPECIALTY COMPARISONIMPACT OF GUSELKUMAB VERSUS PLACEBO AND ADALIMUMAB ON PATIENT REPORTED OUTCOMES IN PATIENTS WITH AND WITHOUT PSORIATIC ARTHRITIS IN VOYAGE 2</t>
+        </is>
+      </c>
+      <c r="F117" s="2" t="inlineStr">
+        <is>
+          <t>Introduction/Objective:To	evaluate	the	efficacy,	safety	&amp;	tolerability of guselkumab (GUS) in patients (pts) w/ PsA.Methods: In this double-blind, PBO-controlled study, pts w/active PsA	&amp;	≥3%	BSA	of	PsO	despite	treatment	were	randomized	2:1	to SC GUS 100mg or PBO at wks0, 4, &amp; q8w thereafter through wk44. At  wk16,  pts  w/ &lt; 5%  improvement  from  baseline  (BL) in swollen &amp; tender joint counts were eligible for early escape (EE) to open-label ustekinumab. At wk24, PBO pts crossed-over to GUS 100mg (PBO to GUS). The primary endpoint was ACR 20 at wk24. Major secondary endpoints were PASI 75 &amp; ACR 50 responses, change from BL in HAQ-DI, &amp; improvement in enthesitis  (Leeds  enthesitis  index  [LEI])  &amp;  dactylitis  score  (by a  0–3  scoring  system)  at  wk24;  &amp; ACR  20  response  at  wk16. Through	wk24,	efficacy	analyses	were	performed	in	a	modified	Intent-to-Treat (mITT) population. Pts who met treatment failure criteria, EE or had missing data at wk24 were considered nonresponders	for	ACR/MDA	endpoints	at	wk24.	Efficacy	post	wk24	was evaluated in pts who did not EE &amp; continued treatment at wk24 based on observed data.Results: Of 149 pts (PBO:49, GUS:100), BL demographics &amp; ACR component measures were generally similar between the 2 groups. 4	PBO	&amp;	9	GUS	pts	were	previously	exposed	to	anti-TNFα	agents.	At	wk24,	significantly	more	GUS	pts	achieved	ACR	20	(58.0%	vs	18.4%, p &lt; 0.001), PASI 75 (78.6% vs 12.5%, p &lt; 0.001), &amp; ACR 50 (34.0% vs 10.2%, p = 0.002) responses vs PBO. At wk24, mean decrease in HAQ-DI score from BL (-0.42 vs. -0.06, p &lt; 0.001), &amp; median percent improvement in enthesitis (100% vs 33.33%, p = 0.009) &amp; dactylitis (100% vs 33.33%, p &lt; 0.001) scores (among pts	w/	BL	enthesitis	and	dactylitis)	were	significantly	greater	in	GUS	group	vs.	PBO.	Significantly	more	GUS	pts	achieved	ACR	20 at wk16 (60.0% vs 16.3%, p &lt; 0.001) and MDA at wk24 (23.0% vs. 2.0%, p = 0.001)	vs.	PBO.	Post	wk24,	efficacy	improved	in	PBO to GUS crossover pts as expected and were well-maintained in GUS pts through wk56.Through wk24, the frequencies of AEs &amp; infections were comparable (AEs: PBO 32.7%; GUS 36.0%; infections: PBO: 20.4%; GUS: 16.0%). Post wk24, there was no disproportional increase in AE frequency or infections among GUS pts w/ longer exposure. Through wk56, there was 1 malignancy (basal cell carcinoma), 6 SAEs (myocardial infarction, osteoarthritis, pupils unequal, radius fracture, pneumonia, ulcerative keratitis), 2 pts discontinued treatment due to AEs, 1 grade 3 neutropenia, &amp; 6 pts were positive for antibodies to GUS. No deaths occurred through wk56.Conclusions: GUS	demonstrated	significant	improvement	on	joint	symptoms, physical function, PsO, enthesitis, dactylitis &amp; quality of	life;	efficacy	was	well-maintained	through	wk56.	GUS	was	well	tolerated in this population after ~1 year of exposure.Data has been previously presented at EULAR 2017 &amp; ACR 2017P12049Introduction: Tildrakizumab	(TIL),	a	humanized,	IgG1/κ	monoclonal	antibody	for	IL-23p19,	recently	demonstrated	its	efficacy	in subjects with chronic plaque psoriasis in two, phase 3 clinical studies1.Objective:In	this	analysis,	we	examined	efficacy	from	baseline	to week 52 among TIL patients achieving various Psoriasis Area and Severity Index (PASI) responses at week 28.Methods:  ReSURFACE  1  (NCT01722331)  and  reSURFACE  2 (NCT01729754) were double-blind, randomized controlled studies in subjects with moderate-to-severe chronic plaque psoriasis. Part 1  (0–12  weeks)  was  placebo  controlled;  Part  2  (12–28  weeks) re-randomized  placebo  patients  to  TIL;  Part  3  (28–64  weeks, reSURFACE 1; 28–52 weeks, reSURFACE 2) re-randomized patients	with	≥PASI	50	to	continue	or	increase	TIL	dose	or	to	placebo	based on their PASI response at week 28. In this post-hoc pooled analysis, patients consistently on TIL 100 mg and 200 mg from baseline	to	week	52	were	classified	in	5	mutually	exclusive	groups	based on their week-28 PASI response: PASI  &lt; 50, PASI 50–74, PASI 75–89, PASI 90–99, and PASI 100. Baseline characteristics and % PASI improvement from baseline up to week 52 (observed data) were examined for each group.Results: This analysis included 575 (TIL 100 mg) and 581 (TIL 200 mg) patients; the proportions of patients with week-28 PASI 75/90/100  responses  were  77%/54%/23%  (TIL  100  mg)  and 78%/58%/29%  (TIL  200  mg). At  week  28,  133  (23.1%),  175 (30.4%), 137 (23.8%), 82 (14.3%), and 48 (8.3%) TIL 100 mg patients and 170 (29.3%), 169 (29.1%), 114 (19.6%), 105 (18.1%), and 23 (4.0%) TIL 200mg achieved PASI 100, PASI 90–99, PASI 75–89,  PASI  50–74,  and  PASI   &lt; 50,  respectively.  On  average, PASI 100 patients were younger, lighter, and had shorter disease duration at baseline compared to other response groups. For TIL 100 mg, % PASI improvement was highest for PASI 100 and least for PASI &lt; 50 patients on all visits up to week 28 (week 4: 53%, 46%, 38%, 30%, and 16%; week 28: 100%, 95%, 83%, 64%, and 33% for PASI 100, PASI 90–99, PASI 75–89, PASI 50–74, and PASI   &lt; 50 categories, respectively). Among patients achieving PASI  &gt; 50 at week 28 and continued up to 52 weeks, % PASI improvement maintained or improved from week 28 to week 52. Similar results were observed for TIL 200 mg as well as a subgroup analysis with bio-naive and bio-experienced patients respectively.Conclusions: The majority of TIL 100 and 200 mg patients achieved PASI &gt; 50 response at week 28, and PASI improvement was maintained from week 28 to week 52. Among patients achieving PASI  &gt; 90 at week 28, TIL 100 and 200 mg were associated with a rapid PASI improvement by week 4.1. Reich K, Papp KA, Blauvelt A, et al. Tildrakizumab versus placebo or  etanercept  for  chronic  plaque  psoriasis  (reSURFACE  1  and  reSURFACE 2): results from two randomised controlled, phase 3 trials. Lancet. 2017;390(10091):276-288.This abstract was presented at 2018 Annual Meeting of American Academy of Dermatology.Note: This abstract was presented at 2018 Annual Meeting of American Academy of Dermatology. P122RHEUMATOLOGISTS AND DERMATOLOGISTSIntroduction: On average, the majority of psoriasis (PSO) patients are diagnosed a year prior to a psoriatic arthritis (PsA) diagnosis, making the referral patterns and co-management between derma50tologists and rheumatologists an important aspect to understanding the management of these diseases. Dermatologists represent an important referral-base for rheumatologists, accounting for over one-quarter of all new PsA patients. However, there are discrepancies between the specialists regarding the timing in which these referrals take place.Objectives: One objective of the study was to gain further insight into rheumatologist and dermatologist co-management of patients with PsA.Methods: An	independent	market	analytics	firm	collaborated	with	US rheumatologists (n = 101) and US dermatologists (n = 101) to conduct analysis of both the PsA and PSO markets. Data were collected	 via	 an	 online	 survey	 fielded	 in	 November/December	2017  and  included  patient  demographics,  as  well  as  physician demographics, and attitudinal survey responses.Results: Rheumatologists indicate that 51 percent of referrals result from primary care physicians, 28 percent result from a dermatologist,  and  13  percent  are  self-referred. The  majority  (73%)  of PsA patients under the care of collaborating rheumatologists had previously been diagnosed with PSO prior to PsA. Dermatologists state that one-quarter of their patients with severe PSO also have PsA, with more than one-third of severe PSO patients also being co-managed with a rheumatologist. The majority of rheumatologists	believe	that	dermatologists	refer	patients	at	the	first	sign	of	joint involvement and do not attempt to treat joint pain; however, 31 percent of dermatologists report they do not refer PSO patients to rheumatologists until patients have failed biologics or are not improving on their current systemic regimen, while an additional 35  percent  report  they  refer  only  severe  arthritis/patients  with worsening disease. Furthermore, only 35 percent of dermatologists agree that they refer their PSO patients to a rheumatologists at the first	sign	of	joint	involvement. At the time of dermatologist referral, rheumatologists state that two-thirds	of	referred	patients	are	biologic/apremilast	naïve,	with	only 6 percent having controlled PSO and joint pain. However, dermatologists state that 40 percent the patients that they referred to rheumatologists were treated with biologics and 15 percent of said  referred  patients  were  treated  with  apremilast.  Indeed,  76 percent of dermatologists agree with the statement, “I believe that the disease (PsA),” while 57 percent of dermatologists agree “I Conclusion: With many patients diagnosed with both PSO and PsA,  co-management  between  dermatologists  and  rheumatologists is common. While rheumatologists appear to be under the impression that they are receiving the majority of dermatologisttreated	patients	with	PsA	at	the	first	sign	of	joint	involvement,	dermatologists largely report that they are managing and treating PsA patients. Furthermore, most dermatologists believe early aggressive use of biologic treatments will mitigate the development and/or progression of joint involvement, implying their willingness to manage their patients with PsA, particularly at early stages. P123TNF  therapy  has  been  the  standard  of  care  for  adult  patients diagnosed with autoimmune conditions, resulting in familiarity, comfort, and satisfaction among physicians. TNFs are typically used	 as	 a	 first-line	 biologic/small	 molecule	 in	 the	 treatment	 of	psoriasis (PSO) and psoriatic arthritis (PsA). However, the adoption of agents with alternate mechanisms of action (AMOA) has increased in recent years across indications and the practice of sequential TNF prescribing after an initial TNF is less common. Though	TNFs	are	still	the	preferred	first-line	agent,	there	are	discrepancies between specialists on the use of AMOA agents in the second-line setting. This research sought to understand the extent to which AMOA agents are prescribed after an initial TNF, and how this varies across PSO and PsA.An	independent	market	analytics	firm	collaborated	with	US	dermatologists (n = 201) and US rheumatologists (n = 200) to conduct a retrospective chart review of patients diagnosed with PSO (n = 950) and PsA (n = 1,008) who had switched from one biologic/apremilast to another agent in the prior 12 weeks. Physicians were able to submit up to 7 patient charts. PSO data was collected in September 2017 and PsA data was collected in April 2017.Analysis  of  patients  recently  switched  from  one  biologic/apremilast to a different brand revealed the majority of patients were treated	with	a	TNF	in	the	first-line	biologic/small	molecule	setting, though this varies by indication. Rheumatologists prescribe first-line	 TNFs	 significantly	 more	 than	 dermatologists.	 83%	 of	PsA	patients	are	prescribed	TNFs	first-line	compared	to	just	69%	of	PSO	patients.	Furthermore,	rheumatologists	are	significantly	more  likely  to  practice  TNF-sequencing  than  dermatologists. Indeed,	44%	of	PsA	patients	treated	with	a	first-line	TNF	were	prescribed a second TNF, compared to 6% of PSO patients. Additionally, certain TNF brands have experienced recent declines in	first	line	use,	though	this	varies	by	indication	as	well.	For	rheumatologists,	use	of	first-line	etanercept	has	declined,	38%	of	PsA	patients were initiated on etanercept at least 24 months prior to the study, compared to just 28% initiated on etanercept within 12 months	of	the	study.	For	dermatologists,	there	were	significantly	more	PSO	patients	initiated	on	etanercept	in	the	first-line	setting	24 months or more prior to the study compared to those initiated within 12 months of the study, (45% vs 31%.) This pattern also held	true	for	adalimumab,	where	42%	of	first-line	PSO	patients	initiated more than 24 months prior to the study were prescribed adalimumab,	a	figure	that	drops	to	just	27%	for	patients	initiated	within 12 months.Though	the	position	of	TNFs	as	first-line	agents	remains	dominant,	the	treating	specialist	and	indication	influence	how	widespread	and	continuous	TNF	use	is.	Specifically,	dermatologists	are	less	likely	to	prescribe	TNFs	as	first-line	agents	and	are	also	significantly	less	likely	to	partake	in	the	sequencing	of	TNFs	in	the	first-	and	second-line  setting  than  rheumatologists.  The  introduction  of several agents in PSO reporting substantially higher rates of skin clearance compared to TNFs could potentially be the source of increased  switching  to AMOAs  compared  to  other  specialties; whereas	 superior	 efficacy	 of	AMOA	 agents	 over	TNFs	 in	 PsA	may be less apparent. P124Introduction/Objective:VOYAGE  2  is  a  phase  3  double-blind, placebo/active comparator-controlled trial comparing guselkumab (GUS) with placebo (PBO) and adalimumab (ADA) in patients (pts) with moderate-to-severe PsO. The impact of treatment on patient-reported outcomes (PROs) was evaluated.Methods: Pts were randomized to GUS 100mg (wks 0 &amp; 4, then q8wks), ADA (80 mg wk 0, 40 mg wk 1, then 40 mg q2 wks), or PBO (wks 0, 4, &amp; 12, then GUS 100 mg wks 16 &amp; 20). We evaluated PROs using the Work Limitations Questionnaire [WLQ; work  productivity],  the  Hospital Anxiety  &amp;  Depression  Scale [HADS], and the Medical Outcomes Study 36-Item Short Form (SF-36; health related quality of life) at wk16 (GUS vs PBO) and wk24 (GUS vs ADA) in pts with and without PsA.Results: In all, 18% of pts reported a history of PsA. At wk16, GUS pts had numerically greater improvements vs PBO in work productivity,  anxiety  and  depression,  and  SF-36  PCS  &amp;  MCS scores regardless of PsA status. The least square (LS) mean differences (95% CI; adjusted for baseline value) for GUS vs PBO for all PROs were generally similar between pts with and without PsA. At wk24, GUS pts had numerically greater improvements vs ADA in all PROs regardless of PsA status. The LS mean differences for GUS vs ADA were generally greater for pts with PsA vs pts without PsA (Table).Conclusions: GUS showed better improvements in all PROs vs PBO at wk16 and vs ADA at wk24. Improvements vs PBO were similar  regardless  of  PsA  status,  while  improvements  vs ADA were greater for pts with PsA.Table: Summary of Change from Baseline in WLQ, HADS and SF-36 Scores from VOYAGE 20.13260.2913p-value0.0249WLQ Time ManagementWLQ MentalInterpersonalWLQ Physical Demandsw/out PSAN, LSMean Diff (95% CI)446, -7.7(-10.56, -4.88)419, -7.0(-10.31, -3.79)439, -4.9(-7.54, -2.35)440, -3.5(-6.11, -0.88)608, -1.6(-2.05, -1.07)608, -1.5 (-1.96, -0.98)Week 16 GUS vs PBOw/ PSAN, LSMean Diff (95% CI)86, -7.1(-13.21, -0.92)85, -6.6(-15.35, 2.06)83, -3.8(-11.03, 3.35)84, -7.9(-14.51, -1.21)135, -1.2(-2.45, 0.04)135, -1.2(-2.55, 0.06)135, 5.7(2.94, 8.43)135, 4.5(1.61, 7.48)N is the sample size across two groups.(3.31, 5.39)607, 4.8 (3.53, 6.15)SF-36 Physical ScoreSF-36 Mental ScoreWLQ Ouput DemandsDepression ScoreAnxiety Score&lt; 0.0001 607, 4.4 0.00260.05840.02110.0611Week 24 GUS vs ADAw/ PSAN, LSMean Diff (95% CI)w/out PSAN, LSMean Diff p(95% CI)value0.7152 445, -2.6pvalue0.0769p-value&lt; 0.0001 79, -1.6 (-10.58, 7.29)0.0002&lt; 0.0001 79, -4.3 (-14.40, 5.81)78, -11.4 (-19.37, -3.34)79, -14.7 (-24.29, -5.17)0.0089&lt; 0.0001 133, -2.1 0.3996 420, -0.60.69310.0061 436, -1.50.25690.0030 437, -1.20.41360.0012 608, -0.80.0025&lt; 0.0001 133, -1.5 0.0374 608, -0.40.1158&lt; 0.0001 132, 2.9&lt; 0.0001 132, 3.2 0.0346 608, 1.0(-0.10, 2.04)0.0591 608, 1.80.07530.0092(-3.33, -0.83)(-2.85, -0.09)(0.21, 5.57)(-0.12, 6.53)(-5.39, 0.28)(-3.46, 2.30)(-4.16, 1.11)(-3.94, 1.62)(-1.29, -0.28)(-0.91, 0.10)(0.45, 3.15)</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="inlineStr">
+        <is>
+          <t>Gianna Melendezstarting my PSO patients earlier on biologic therapy will slow the development and progression of the arthritic component of prefer to use biologics that are indicated in both PSO and PsA.” Lynn Price</t>
+        </is>
+      </c>
+      <c r="B118" s="2" t="inlineStr">
+        <is>
+          <t>Division of Dermatology and Venereology, Geneva University Hospital, and Department of Pathology and Immunology, University of Geneva, Ge-neva, Switzerland, Department of Dermatology, New York Medical Col-lege at Metropolitan Hospital, New York, NY, Oregon Health &amp; Science University, Portland, OR, Janssen Research &amp; Development, LLC, Spring House, PA, Janssen Research &amp; Development, LLC, San Diego, CA, USAOregon Medical Research Center, Portland, OR, Department of Medicine (Dermatology) UCLA, Los Angeles, CA, USA, Probity Medical Research, Waterloo, ON, Skin Centre for Dermatology, Peterborough, ON, Canada, Sun Pharmaceuticals, Princeton, NJ, Merck &amp; Co., Inc., Kenilworth, NJ, USA, SCIderm Research Institute and Dermatologikum Hamburg, Ham-burg, GermanySpherix Global InsightsSpherix Global InsightsHospital de la Santa Creu i Sant Pau and Universitat Autònoma de Bar-celona Medical School, Barcelona, Spain, Janssen Research &amp; Develop-ment, LLC, Spring House, PA, USA, McMaster University, Hamilton, ON, Canada, University of Melbourne, St. Vincent’s Hospital, Melbourne and Skin &amp; Cancer Foundation Inc., Carlton</t>
+        </is>
+      </c>
+      <c r="C118" s="2" t="inlineStr">
+        <is>
+          <t>Victoria, Australia</t>
+        </is>
+      </c>
+      <c r="D118" s="2" t="inlineStr">
+        <is>
+          <t>P119</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="inlineStr">
+        <is>
+          <t>EFFICACY AND SAFETY RESULTS OF GUSELKUMAB IN PATIENTS WITH ACTIVE PSORIATIC ARTHRITIS OVER 56 WEEKSTILDRAKIZUMAB EFFICACY OVER TIME BY WEEK 28 RESPONSE LEVELS IN TWO PHASE 3 CLINICAL TRIALS IN PATIENTS WITH CHRONIC PLAQUE PSORIASISPOTENTIAL DISCONNECT: CO­MANAGEMENT OF PATIENTS WITH PSORIATIC ARTHRITIS BETWEEN THE USE OF TUMOR NECROSIS FACTOR INHIBITORS (TNF) IN THE SECOND­LINE BIOLOGIC/SMALL MOLECULE SETTING: A CROSS­SPECIALTY COMPARISONIMPACT OF GUSELKUMAB VERSUS PLACEBO AND ADALIMUMAB ON PATIENT REPORTED OUTCOMES IN PATIENTS WITH AND WITHOUT PSORIATIC ARTHRITIS IN VOYAGE 2</t>
+        </is>
+      </c>
+      <c r="F118" s="2" t="inlineStr">
+        <is>
+          <t>Introduction/Objective:To	evaluate	the	efficacy,	safety	&amp;	tolerability of guselkumab (GUS) in patients (pts) w/ PsA.Methods: In this double-blind, PBO-controlled study, pts w/active PsA	&amp;	≥3%	BSA	of	PsO	despite	treatment	were	randomized	2:1	to SC GUS 100mg or PBO at wks0, 4, &amp; q8w thereafter through wk44. At  wk16,  pts  w/ &lt; 5%  improvement  from  baseline  (BL) in swollen &amp; tender joint counts were eligible for early escape (EE) to open-label ustekinumab. At wk24, PBO pts crossed-over to GUS 100mg (PBO to GUS). The primary endpoint was ACR 20 at wk24. Major secondary endpoints were PASI 75 &amp; ACR 50 responses, change from BL in HAQ-DI, &amp; improvement in enthesitis  (Leeds  enthesitis  index  [LEI])  &amp;  dactylitis  score  (by a  0–3  scoring  system)  at  wk24;  &amp; ACR  20  response  at  wk16. Through	wk24,	efficacy	analyses	were	performed	in	a	modified	Intent-to-Treat (mITT) population. Pts who met treatment failure criteria, EE or had missing data at wk24 were considered nonresponders	for	ACR/MDA	endpoints	at	wk24.	Efficacy	post	wk24	was evaluated in pts who did not EE &amp; continued treatment at wk24 based on observed data.Results: Of 149 pts (PBO:49, GUS:100), BL demographics &amp; ACR component measures were generally similar between the 2 groups. 4	PBO	&amp;	9	GUS	pts	were	previously	exposed	to	anti-TNFα	agents.	At	wk24,	significantly	more	GUS	pts	achieved	ACR	20	(58.0%	vs	18.4%, p &lt; 0.001), PASI 75 (78.6% vs 12.5%, p &lt; 0.001), &amp; ACR 50 (34.0% vs 10.2%, p = 0.002) responses vs PBO. At wk24, mean decrease in HAQ-DI score from BL (-0.42 vs. -0.06, p &lt; 0.001), &amp; median percent improvement in enthesitis (100% vs 33.33%, p = 0.009) &amp; dactylitis (100% vs 33.33%, p &lt; 0.001) scores (among pts	w/	BL	enthesitis	and	dactylitis)	were	significantly	greater	in	GUS	group	vs.	PBO.	Significantly	more	GUS	pts	achieved	ACR	20 at wk16 (60.0% vs 16.3%, p &lt; 0.001) and MDA at wk24 (23.0% vs. 2.0%, p = 0.001)	vs.	PBO.	Post	wk24,	efficacy	improved	in	PBO to GUS crossover pts as expected and were well-maintained in GUS pts through wk56.Through wk24, the frequencies of AEs &amp; infections were comparable (AEs: PBO 32.7%; GUS 36.0%; infections: PBO: 20.4%; GUS: 16.0%). Post wk24, there was no disproportional increase in AE frequency or infections among GUS pts w/ longer exposure. Through wk56, there was 1 malignancy (basal cell carcinoma), 6 SAEs (myocardial infarction, osteoarthritis, pupils unequal, radius fracture, pneumonia, ulcerative keratitis), 2 pts discontinued treatment due to AEs, 1 grade 3 neutropenia, &amp; 6 pts were positive for antibodies to GUS. No deaths occurred through wk56.Conclusions: GUS	demonstrated	significant	improvement	on	joint	symptoms, physical function, PsO, enthesitis, dactylitis &amp; quality of	life;	efficacy	was	well-maintained	through	wk56.	GUS	was	well	tolerated in this population after ~1 year of exposure.Data has been previously presented at EULAR 2017 &amp; ACR 2017P12049Introduction: Tildrakizumab	(TIL),	a	humanized,	IgG1/κ	monoclonal	antibody	for	IL-23p19,	recently	demonstrated	its	efficacy	in subjects with chronic plaque psoriasis in two, phase 3 clinical studies1.Objective:In	this	analysis,	we	examined	efficacy	from	baseline	to week 52 among TIL patients achieving various Psoriasis Area and Severity Index (PASI) responses at week 28.Methods:  ReSURFACE  1  (NCT01722331)  and  reSURFACE  2 (NCT01729754) were double-blind, randomized controlled studies in subjects with moderate-to-severe chronic plaque psoriasis. Part 1  (0–12  weeks)  was  placebo  controlled;  Part  2  (12–28  weeks) re-randomized  placebo  patients  to  TIL;  Part  3  (28–64  weeks, reSURFACE 1; 28–52 weeks, reSURFACE 2) re-randomized patients	with	≥PASI	50	to	continue	or	increase	TIL	dose	or	to	placebo	based on their PASI response at week 28. In this post-hoc pooled analysis, patients consistently on TIL 100 mg and 200 mg from baseline	to	week	52	were	classified	in	5	mutually	exclusive	groups	based on their week-28 PASI response: PASI  &lt; 50, PASI 50–74, PASI 75–89, PASI 90–99, and PASI 100. Baseline characteristics and % PASI improvement from baseline up to week 52 (observed data) were examined for each group.Results: This analysis included 575 (TIL 100 mg) and 581 (TIL 200 mg) patients; the proportions of patients with week-28 PASI 75/90/100  responses  were  77%/54%/23%  (TIL  100  mg)  and 78%/58%/29%  (TIL  200  mg). At  week  28,  133  (23.1%),  175 (30.4%), 137 (23.8%), 82 (14.3%), and 48 (8.3%) TIL 100 mg patients and 170 (29.3%), 169 (29.1%), 114 (19.6%), 105 (18.1%), and 23 (4.0%) TIL 200mg achieved PASI 100, PASI 90–99, PASI 75–89,  PASI  50–74,  and  PASI   &lt; 50,  respectively.  On  average, PASI 100 patients were younger, lighter, and had shorter disease duration at baseline compared to other response groups. For TIL 100 mg, % PASI improvement was highest for PASI 100 and least for PASI &lt; 50 patients on all visits up to week 28 (week 4: 53%, 46%, 38%, 30%, and 16%; week 28: 100%, 95%, 83%, 64%, and 33% for PASI 100, PASI 90–99, PASI 75–89, PASI 50–74, and PASI   &lt; 50 categories, respectively). Among patients achieving PASI  &gt; 50 at week 28 and continued up to 52 weeks, % PASI improvement maintained or improved from week 28 to week 52. Similar results were observed for TIL 200 mg as well as a subgroup analysis with bio-naive and bio-experienced patients respectively.Conclusions: The majority of TIL 100 and 200 mg patients achieved PASI &gt; 50 response at week 28, and PASI improvement was maintained from week 28 to week 52. Among patients achieving PASI  &gt; 90 at week 28, TIL 100 and 200 mg were associated with a rapid PASI improvement by week 4.1. Reich K, Papp KA, Blauvelt A, et al. Tildrakizumab versus placebo or  etanercept  for  chronic  plaque  psoriasis  (reSURFACE  1  and  reSURFACE 2): results from two randomised controlled, phase 3 trials. Lancet. 2017;390(10091):276-288.This abstract was presented at 2018 Annual Meeting of American Academy of Dermatology.Note: This abstract was presented at 2018 Annual Meeting of American Academy of Dermatology. P122RHEUMATOLOGISTS AND DERMATOLOGISTSIntroduction: On average, the majority of psoriasis (PSO) patients are diagnosed a year prior to a psoriatic arthritis (PsA) diagnosis, making the referral patterns and co-management between derma50tologists and rheumatologists an important aspect to understanding the management of these diseases. Dermatologists represent an important referral-base for rheumatologists, accounting for over one-quarter of all new PsA patients. However, there are discrepancies between the specialists regarding the timing in which these referrals take place.Objectives: One objective of the study was to gain further insight into rheumatologist and dermatologist co-management of patients with PsA.Methods: An	independent	market	analytics	firm	collaborated	with	US rheumatologists (n = 101) and US dermatologists (n = 101) to conduct analysis of both the PsA and PSO markets. Data were collected	 via	 an	 online	 survey	 fielded	 in	 November/December	2017  and  included  patient  demographics,  as  well  as  physician demographics, and attitudinal survey responses.Results: Rheumatologists indicate that 51 percent of referrals result from primary care physicians, 28 percent result from a dermatologist,  and  13  percent  are  self-referred. The  majority  (73%)  of PsA patients under the care of collaborating rheumatologists had previously been diagnosed with PSO prior to PsA. Dermatologists state that one-quarter of their patients with severe PSO also have PsA, with more than one-third of severe PSO patients also being co-managed with a rheumatologist. The majority of rheumatologists	believe	that	dermatologists	refer	patients	at	the	first	sign	of	joint involvement and do not attempt to treat joint pain; however, 31 percent of dermatologists report they do not refer PSO patients to rheumatologists until patients have failed biologics or are not improving on their current systemic regimen, while an additional 35  percent  report  they  refer  only  severe  arthritis/patients  with worsening disease. Furthermore, only 35 percent of dermatologists agree that they refer their PSO patients to a rheumatologists at the first	sign	of	joint	involvement. At the time of dermatologist referral, rheumatologists state that two-thirds	of	referred	patients	are	biologic/apremilast	naïve,	with	only 6 percent having controlled PSO and joint pain. However, dermatologists state that 40 percent the patients that they referred to rheumatologists were treated with biologics and 15 percent of said  referred  patients  were  treated  with  apremilast.  Indeed,  76 percent of dermatologists agree with the statement, “I believe that the disease (PsA),” while 57 percent of dermatologists agree “I Conclusion: With many patients diagnosed with both PSO and PsA,  co-management  between  dermatologists  and  rheumatologists is common. While rheumatologists appear to be under the impression that they are receiving the majority of dermatologisttreated	patients	with	PsA	at	the	first	sign	of	joint	involvement,	dermatologists largely report that they are managing and treating PsA patients. Furthermore, most dermatologists believe early aggressive use of biologic treatments will mitigate the development and/or progression of joint involvement, implying their willingness to manage their patients with PsA, particularly at early stages. P123TNF  therapy  has  been  the  standard  of  care  for  adult  patients diagnosed with autoimmune conditions, resulting in familiarity, comfort, and satisfaction among physicians. TNFs are typically used	 as	 a	 first-line	 biologic/small	 molecule	 in	 the	 treatment	 of	psoriasis (PSO) and psoriatic arthritis (PsA). However, the adoption of agents with alternate mechanisms of action (AMOA) has increased in recent years across indications and the practice of sequential TNF prescribing after an initial TNF is less common. Though	TNFs	are	still	the	preferred	first-line	agent,	there	are	discrepancies between specialists on the use of AMOA agents in the second-line setting. This research sought to understand the extent to which AMOA agents are prescribed after an initial TNF, and how this varies across PSO and PsA.An	independent	market	analytics	firm	collaborated	with	US	dermatologists (n = 201) and US rheumatologists (n = 200) to conduct a retrospective chart review of patients diagnosed with PSO (n = 950) and PsA (n = 1,008) who had switched from one biologic/apremilast to another agent in the prior 12 weeks. Physicians were able to submit up to 7 patient charts. PSO data was collected in September 2017 and PsA data was collected in April 2017.Analysis  of  patients  recently  switched  from  one  biologic/apremilast to a different brand revealed the majority of patients were treated	with	a	TNF	in	the	first-line	biologic/small	molecule	setting, though this varies by indication. Rheumatologists prescribe first-line	 TNFs	 significantly	 more	 than	 dermatologists.	 83%	 of	PsA	patients	are	prescribed	TNFs	first-line	compared	to	just	69%	of	PSO	patients.	Furthermore,	rheumatologists	are	significantly	more  likely  to  practice  TNF-sequencing  than  dermatologists. Indeed,	44%	of	PsA	patients	treated	with	a	first-line	TNF	were	prescribed a second TNF, compared to 6% of PSO patients. Additionally, certain TNF brands have experienced recent declines in	first	line	use,	though	this	varies	by	indication	as	well.	For	rheumatologists,	use	of	first-line	etanercept	has	declined,	38%	of	PsA	patients were initiated on etanercept at least 24 months prior to the study, compared to just 28% initiated on etanercept within 12 months	of	the	study.	For	dermatologists,	there	were	significantly	more	PSO	patients	initiated	on	etanercept	in	the	first-line	setting	24 months or more prior to the study compared to those initiated within 12 months of the study, (45% vs 31%.) This pattern also held	true	for	adalimumab,	where	42%	of	first-line	PSO	patients	initiated more than 24 months prior to the study were prescribed adalimumab,	a	figure	that	drops	to	just	27%	for	patients	initiated	within 12 months.Though	the	position	of	TNFs	as	first-line	agents	remains	dominant,	the	treating	specialist	and	indication	influence	how	widespread	and	continuous	TNF	use	is.	Specifically,	dermatologists	are	less	likely	to	prescribe	TNFs	as	first-line	agents	and	are	also	significantly	less	likely	to	partake	in	the	sequencing	of	TNFs	in	the	first-	and	second-line  setting  than  rheumatologists.  The  introduction  of several agents in PSO reporting substantially higher rates of skin clearance compared to TNFs could potentially be the source of increased  switching  to AMOAs  compared  to  other  specialties; whereas	 superior	 efficacy	 of	AMOA	 agents	 over	TNFs	 in	 PsA	may be less apparent. P124Introduction/Objective:VOYAGE  2  is  a  phase  3  double-blind, placebo/active comparator-controlled trial comparing guselkumab (GUS) with placebo (PBO) and adalimumab (ADA) in patients (pts) with moderate-to-severe PsO. The impact of treatment on patient-reported outcomes (PROs) was evaluated.Methods: Pts were randomized to GUS 100mg (wks 0 &amp; 4, then q8wks), ADA (80 mg wk 0, 40 mg wk 1, then 40 mg q2 wks), or PBO (wks 0, 4, &amp; 12, then GUS 100 mg wks 16 &amp; 20). We evaluated PROs using the Work Limitations Questionnaire [WLQ; work  productivity],  the  Hospital Anxiety  &amp;  Depression  Scale [HADS], and the Medical Outcomes Study 36-Item Short Form (SF-36; health related quality of life) at wk16 (GUS vs PBO) and wk24 (GUS vs ADA) in pts with and without PsA.Results: In all, 18% of pts reported a history of PsA. At wk16, GUS pts had numerically greater improvements vs PBO in work productivity,  anxiety  and  depression,  and  SF-36  PCS  &amp;  MCS scores regardless of PsA status. The least square (LS) mean differences (95% CI; adjusted for baseline value) for GUS vs PBO for all PROs were generally similar between pts with and without PsA. At wk24, GUS pts had numerically greater improvements vs ADA in all PROs regardless of PsA status. The LS mean differences for GUS vs ADA were generally greater for pts with PsA vs pts without PsA (Table).Conclusions: GUS showed better improvements in all PROs vs PBO at wk16 and vs ADA at wk24. Improvements vs PBO were similar  regardless  of  PsA  status,  while  improvements  vs ADA were greater for pts with PsA.Table: Summary of Change from Baseline in WLQ, HADS and SF-36 Scores from VOYAGE 20.13260.2913p-value0.0249WLQ Time ManagementWLQ MentalInterpersonalWLQ Physical Demandsw/out PSAN, LSMean Diff (95% CI)446, -7.7(-10.56, -4.88)419, -7.0(-10.31, -3.79)439, -4.9(-7.54, -2.35)440, -3.5(-6.11, -0.88)608, -1.6(-2.05, -1.07)608, -1.5 (-1.96, -0.98)Week 16 GUS vs PBOw/ PSAN, LSMean Diff (95% CI)86, -7.1(-13.21, -0.92)85, -6.6(-15.35, 2.06)83, -3.8(-11.03, 3.35)84, -7.9(-14.51, -1.21)135, -1.2(-2.45, 0.04)135, -1.2(-2.55, 0.06)135, 5.7(2.94, 8.43)135, 4.5(1.61, 7.48)N is the sample size across two groups.(3.31, 5.39)607, 4.8 (3.53, 6.15)SF-36 Physical ScoreSF-36 Mental ScoreWLQ Ouput DemandsDepression ScoreAnxiety Score&lt; 0.0001 607, 4.4 0.00260.05840.02110.0611Week 24 GUS vs ADAw/ PSAN, LSMean Diff (95% CI)w/out PSAN, LSMean Diff p(95% CI)value0.7152 445, -2.6pvalue0.0769p-value&lt; 0.0001 79, -1.6 (-10.58, 7.29)0.0002&lt; 0.0001 79, -4.3 (-14.40, 5.81)78, -11.4 (-19.37, -3.34)79, -14.7 (-24.29, -5.17)0.0089&lt; 0.0001 133, -2.1 0.3996 420, -0.60.69310.0061 436, -1.50.25690.0030 437, -1.20.41360.0012 608, -0.80.0025&lt; 0.0001 133, -1.5 0.0374 608, -0.40.1158&lt; 0.0001 132, 2.9&lt; 0.0001 132, 3.2 0.0346 608, 1.0(-0.10, 2.04)0.0591 608, 1.80.07530.0092(-3.33, -0.83)(-2.85, -0.09)(0.21, 5.57)(-0.12, 6.53)(-5.39, 0.28)(-3.46, 2.30)(-4.16, 1.11)(-3.94, 1.62)(-1.29, -0.28)(-0.91, 0.10)(0.45, 3.15)</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="inlineStr">
+        <is>
+          <t>Jennifer Robinson</t>
+        </is>
+      </c>
+      <c r="B119" s="2" t="inlineStr">
+        <is>
+          <t>Division of Dermatology and Venereology, Geneva University Hospital, and Department of Pathology and Immunology, University of Geneva, Ge-neva, Switzerland, Department of Dermatology, New York Medical Col-lege at Metropolitan Hospital, New York, NY, Oregon Health &amp; Science University, Portland, OR, Janssen Research &amp; Development, LLC, Spring House, PA, Janssen Research &amp; Development, LLC, San Diego, CA, USAOregon Medical Research Center, Portland, OR, Department of Medicine (Dermatology) UCLA, Los Angeles, CA, USA, Probity Medical Research, Waterloo, ON, Skin Centre for Dermatology, Peterborough, ON, Canada, Sun Pharmaceuticals, Princeton, NJ, Merck &amp; Co., Inc., Kenilworth, NJ, USA, SCIderm Research Institute and Dermatologikum Hamburg, Ham-burg, GermanySpherix Global InsightsSpherix Global InsightsHospital de la Santa Creu i Sant Pau and Universitat Autònoma de Bar-celona Medical School, Barcelona, Spain, Janssen Research &amp; Develop-ment, LLC, Spring House, PA, USA, McMaster University, Hamilton, ON, Canada, University of Melbourne, St. Vincent’s Hospital, Melbourne and Skin &amp; Cancer Foundation Inc., Carlton</t>
+        </is>
+      </c>
+      <c r="C119" s="2" t="inlineStr">
+        <is>
+          <t>Victoria, Australia</t>
+        </is>
+      </c>
+      <c r="D119" s="2" t="inlineStr">
+        <is>
+          <t>P119</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="inlineStr">
+        <is>
+          <t>EFFICACY AND SAFETY RESULTS OF GUSELKUMAB IN PATIENTS WITH ACTIVE PSORIATIC ARTHRITIS OVER 56 WEEKSTILDRAKIZUMAB EFFICACY OVER TIME BY WEEK 28 RESPONSE LEVELS IN TWO PHASE 3 CLINICAL TRIALS IN PATIENTS WITH CHRONIC PLAQUE PSORIASISPOTENTIAL DISCONNECT: CO­MANAGEMENT OF PATIENTS WITH PSORIATIC ARTHRITIS BETWEEN THE USE OF TUMOR NECROSIS FACTOR INHIBITORS (TNF) IN THE SECOND­LINE BIOLOGIC/SMALL MOLECULE SETTING: A CROSS­SPECIALTY COMPARISONIMPACT OF GUSELKUMAB VERSUS PLACEBO AND ADALIMUMAB ON PATIENT REPORTED OUTCOMES IN PATIENTS WITH AND WITHOUT PSORIATIC ARTHRITIS IN VOYAGE 2</t>
+        </is>
+      </c>
+      <c r="F119" s="2" t="inlineStr">
+        <is>
+          <t>Introduction/Objective:To	evaluate	the	efficacy,	safety	&amp;	tolerability of guselkumab (GUS) in patients (pts) w/ PsA.Methods: In this double-blind, PBO-controlled study, pts w/active PsA	&amp;	≥3%	BSA	of	PsO	despite	treatment	were	randomized	2:1	to SC GUS 100mg or PBO at wks0, 4, &amp; q8w thereafter through wk44. At  wk16,  pts  w/ &lt; 5%  improvement  from  baseline  (BL) in swollen &amp; tender joint counts were eligible for early escape (EE) to open-label ustekinumab. At wk24, PBO pts crossed-over to GUS 100mg (PBO to GUS). The primary endpoint was ACR 20 at wk24. Major secondary endpoints were PASI 75 &amp; ACR 50 responses, change from BL in HAQ-DI, &amp; improvement in enthesitis  (Leeds  enthesitis  index  [LEI])  &amp;  dactylitis  score  (by a  0–3  scoring  system)  at  wk24;  &amp; ACR  20  response  at  wk16. Through	wk24,	efficacy	analyses	were	performed	in	a	modified	Intent-to-Treat (mITT) population. Pts who met treatment failure criteria, EE or had missing data at wk24 were considered nonresponders	for	ACR/MDA	endpoints	at	wk24.	Efficacy	post	wk24	was evaluated in pts who did not EE &amp; continued treatment at wk24 based on observed data.Results: Of 149 pts (PBO:49, GUS:100), BL demographics &amp; ACR component measures were generally similar between the 2 groups. 4	PBO	&amp;	9	GUS	pts	were	previously	exposed	to	anti-TNFα	agents.	At	wk24,	significantly	more	GUS	pts	achieved	ACR	20	(58.0%	vs	18.4%, p &lt; 0.001), PASI 75 (78.6% vs 12.5%, p &lt; 0.001), &amp; ACR 50 (34.0% vs 10.2%, p = 0.002) responses vs PBO. At wk24, mean decrease in HAQ-DI score from BL (-0.42 vs. -0.06, p &lt; 0.001), &amp; median percent improvement in enthesitis (100% vs 33.33%, p = 0.009) &amp; dactylitis (100% vs 33.33%, p &lt; 0.001) scores (among pts	w/	BL	enthesitis	and	dactylitis)	were	significantly	greater	in	GUS	group	vs.	PBO.	Significantly	more	GUS	pts	achieved	ACR	20 at wk16 (60.0% vs 16.3%, p &lt; 0.001) and MDA at wk24 (23.0% vs. 2.0%, p = 0.001)	vs.	PBO.	Post	wk24,	efficacy	improved	in	PBO to GUS crossover pts as expected and were well-maintained in GUS pts through wk56.Through wk24, the frequencies of AEs &amp; infections were comparable (AEs: PBO 32.7%; GUS 36.0%; infections: PBO: 20.4%; GUS: 16.0%). Post wk24, there was no disproportional increase in AE frequency or infections among GUS pts w/ longer exposure. Through wk56, there was 1 malignancy (basal cell carcinoma), 6 SAEs (myocardial infarction, osteoarthritis, pupils unequal, radius fracture, pneumonia, ulcerative keratitis), 2 pts discontinued treatment due to AEs, 1 grade 3 neutropenia, &amp; 6 pts were positive for antibodies to GUS. No deaths occurred through wk56.Conclusions: GUS	demonstrated	significant	improvement	on	joint	symptoms, physical function, PsO, enthesitis, dactylitis &amp; quality of	life;	efficacy	was	well-maintained	through	wk56.	GUS	was	well	tolerated in this population after ~1 year of exposure.Data has been previously presented at EULAR 2017 &amp; ACR 2017P12049Introduction: Tildrakizumab	(TIL),	a	humanized,	IgG1/κ	monoclonal	antibody	for	IL-23p19,	recently	demonstrated	its	efficacy	in subjects with chronic plaque psoriasis in two, phase 3 clinical studies1.Objective:In	this	analysis,	we	examined	efficacy	from	baseline	to week 52 among TIL patients achieving various Psoriasis Area and Severity Index (PASI) responses at week 28.Methods:  ReSURFACE  1  (NCT01722331)  and  reSURFACE  2 (NCT01729754) were double-blind, randomized controlled studies in subjects with moderate-to-severe chronic plaque psoriasis. Part 1  (0–12  weeks)  was  placebo  controlled;  Part  2  (12–28  weeks) re-randomized  placebo  patients  to  TIL;  Part  3  (28–64  weeks, reSURFACE 1; 28–52 weeks, reSURFACE 2) re-randomized patients	with	≥PASI	50	to	continue	or	increase	TIL	dose	or	to	placebo	based on their PASI response at week 28. In this post-hoc pooled analysis, patients consistently on TIL 100 mg and 200 mg from baseline	to	week	52	were	classified	in	5	mutually	exclusive	groups	based on their week-28 PASI response: PASI  &lt; 50, PASI 50–74, PASI 75–89, PASI 90–99, and PASI 100. Baseline characteristics and % PASI improvement from baseline up to week 52 (observed data) were examined for each group.Results: This analysis included 575 (TIL 100 mg) and 581 (TIL 200 mg) patients; the proportions of patients with week-28 PASI 75/90/100  responses  were  77%/54%/23%  (TIL  100  mg)  and 78%/58%/29%  (TIL  200  mg). At  week  28,  133  (23.1%),  175 (30.4%), 137 (23.8%), 82 (14.3%), and 48 (8.3%) TIL 100 mg patients and 170 (29.3%), 169 (29.1%), 114 (19.6%), 105 (18.1%), and 23 (4.0%) TIL 200mg achieved PASI 100, PASI 90–99, PASI 75–89,  PASI  50–74,  and  PASI   &lt; 50,  respectively.  On  average, PASI 100 patients were younger, lighter, and had shorter disease duration at baseline compared to other response groups. For TIL 100 mg, % PASI improvement was highest for PASI 100 and least for PASI &lt; 50 patients on all visits up to week 28 (week 4: 53%, 46%, 38%, 30%, and 16%; week 28: 100%, 95%, 83%, 64%, and 33% for PASI 100, PASI 90–99, PASI 75–89, PASI 50–74, and PASI   &lt; 50 categories, respectively). Among patients achieving PASI  &gt; 50 at week 28 and continued up to 52 weeks, % PASI improvement maintained or improved from week 28 to week 52. Similar results were observed for TIL 200 mg as well as a subgroup analysis with bio-naive and bio-experienced patients respectively.Conclusions: The majority of TIL 100 and 200 mg patients achieved PASI &gt; 50 response at week 28, and PASI improvement was maintained from week 28 to week 52. Among patients achieving PASI  &gt; 90 at week 28, TIL 100 and 200 mg were associated with a rapid PASI improvement by week 4.1. Reich K, Papp KA, Blauvelt A, et al. Tildrakizumab versus placebo or  etanercept  for  chronic  plaque  psoriasis  (reSURFACE  1  and  reSURFACE 2): results from two randomised controlled, phase 3 trials. Lancet. 2017;390(10091):276-288.This abstract was presented at 2018 Annual Meeting of American Academy of Dermatology.Note: This abstract was presented at 2018 Annual Meeting of American Academy of Dermatology. P122RHEUMATOLOGISTS AND DERMATOLOGISTSIntroduction: On average, the majority of psoriasis (PSO) patients are diagnosed a year prior to a psoriatic arthritis (PsA) diagnosis, making the referral patterns and co-management between derma50tologists and rheumatologists an important aspect to understanding the management of these diseases. Dermatologists represent an important referral-base for rheumatologists, accounting for over one-quarter of all new PsA patients. However, there are discrepancies between the specialists regarding the timing in which these referrals take place.Objectives: One objective of the study was to gain further insight into rheumatologist and dermatologist co-management of patients with PsA.Methods: An	independent	market	analytics	firm	collaborated	with	US rheumatologists (n = 101) and US dermatologists (n = 101) to conduct analysis of both the PsA and PSO markets. Data were collected	 via	 an	 online	 survey	 fielded	 in	 November/December	2017  and  included  patient  demographics,  as  well  as  physician demographics, and attitudinal survey responses.Results: Rheumatologists indicate that 51 percent of referrals result from primary care physicians, 28 percent result from a dermatologist,  and  13  percent  are  self-referred. The  majority  (73%)  of PsA patients under the care of collaborating rheumatologists had previously been diagnosed with PSO prior to PsA. Dermatologists state that one-quarter of their patients with severe PSO also have PsA, with more than one-third of severe PSO patients also being co-managed with a rheumatologist. The majority of rheumatologists	believe	that	dermatologists	refer	patients	at	the	first	sign	of	joint involvement and do not attempt to treat joint pain; however, 31 percent of dermatologists report they do not refer PSO patients to rheumatologists until patients have failed biologics or are not improving on their current systemic regimen, while an additional 35  percent  report  they  refer  only  severe  arthritis/patients  with worsening disease. Furthermore, only 35 percent of dermatologists agree that they refer their PSO patients to a rheumatologists at the first	sign	of	joint	involvement. At the time of dermatologist referral, rheumatologists state that two-thirds	of	referred	patients	are	biologic/apremilast	naïve,	with	only 6 percent having controlled PSO and joint pain. However, dermatologists state that 40 percent the patients that they referred to rheumatologists were treated with biologics and 15 percent of said  referred  patients  were  treated  with  apremilast.  Indeed,  76 percent of dermatologists agree with the statement, “I believe that the disease (PsA),” while 57 percent of dermatologists agree “I Conclusion: With many patients diagnosed with both PSO and PsA,  co-management  between  dermatologists  and  rheumatologists is common. While rheumatologists appear to be under the impression that they are receiving the majority of dermatologisttreated	patients	with	PsA	at	the	first	sign	of	joint	involvement,	dermatologists largely report that they are managing and treating PsA patients. Furthermore, most dermatologists believe early aggressive use of biologic treatments will mitigate the development and/or progression of joint involvement, implying their willingness to manage their patients with PsA, particularly at early stages. P123TNF  therapy  has  been  the  standard  of  care  for  adult  patients diagnosed with autoimmune conditions, resulting in familiarity, comfort, and satisfaction among physicians. TNFs are typically used	 as	 a	 first-line	 biologic/small	 molecule	 in	 the	 treatment	 of	psoriasis (PSO) and psoriatic arthritis (PsA). However, the adoption of agents with alternate mechanisms of action (AMOA) has increased in recent years across indications and the practice of sequential TNF prescribing after an initial TNF is less common. Though	TNFs	are	still	the	preferred	first-line	agent,	there	are	discrepancies between specialists on the use of AMOA agents in the second-line setting. This research sought to understand the extent to which AMOA agents are prescribed after an initial TNF, and how this varies across PSO and PsA.An	independent	market	analytics	firm	collaborated	with	US	dermatologists (n = 201) and US rheumatologists (n = 200) to conduct a retrospective chart review of patients diagnosed with PSO (n = 950) and PsA (n = 1,008) who had switched from one biologic/apremilast to another agent in the prior 12 weeks. Physicians were able to submit up to 7 patient charts. PSO data was collected in September 2017 and PsA data was collected in April 2017.Analysis  of  patients  recently  switched  from  one  biologic/apremilast to a different brand revealed the majority of patients were treated	with	a	TNF	in	the	first-line	biologic/small	molecule	setting, though this varies by indication. Rheumatologists prescribe first-line	 TNFs	 significantly	 more	 than	 dermatologists.	 83%	 of	PsA	patients	are	prescribed	TNFs	first-line	compared	to	just	69%	of	PSO	patients.	Furthermore,	rheumatologists	are	significantly	more  likely  to  practice  TNF-sequencing  than  dermatologists. Indeed,	44%	of	PsA	patients	treated	with	a	first-line	TNF	were	prescribed a second TNF, compared to 6% of PSO patients. Additionally, certain TNF brands have experienced recent declines in	first	line	use,	though	this	varies	by	indication	as	well.	For	rheumatologists,	use	of	first-line	etanercept	has	declined,	38%	of	PsA	patients were initiated on etanercept at least 24 months prior to the study, compared to just 28% initiated on etanercept within 12 months	of	the	study.	For	dermatologists,	there	were	significantly	more	PSO	patients	initiated	on	etanercept	in	the	first-line	setting	24 months or more prior to the study compared to those initiated within 12 months of the study, (45% vs 31%.) This pattern also held	true	for	adalimumab,	where	42%	of	first-line	PSO	patients	initiated more than 24 months prior to the study were prescribed adalimumab,	a	figure	that	drops	to	just	27%	for	patients	initiated	within 12 months.Though	the	position	of	TNFs	as	first-line	agents	remains	dominant,	the	treating	specialist	and	indication	influence	how	widespread	and	continuous	TNF	use	is.	Specifically,	dermatologists	are	less	likely	to	prescribe	TNFs	as	first-line	agents	and	are	also	significantly	less	likely	to	partake	in	the	sequencing	of	TNFs	in	the	first-	and	second-line  setting  than  rheumatologists.  The  introduction  of several agents in PSO reporting substantially higher rates of skin clearance compared to TNFs could potentially be the source of increased  switching  to AMOAs  compared  to  other  specialties; whereas	 superior	 efficacy	 of	AMOA	 agents	 over	TNFs	 in	 PsA	may be less apparent. P124Introduction/Objective:VOYAGE  2  is  a  phase  3  double-blind, placebo/active comparator-controlled trial comparing guselkumab (GUS) with placebo (PBO) and adalimumab (ADA) in patients (pts) with moderate-to-severe PsO. The impact of treatment on patient-reported outcomes (PROs) was evaluated.Methods: Pts were randomized to GUS 100mg (wks 0 &amp; 4, then q8wks), ADA (80 mg wk 0, 40 mg wk 1, then 40 mg q2 wks), or PBO (wks 0, 4, &amp; 12, then GUS 100 mg wks 16 &amp; 20). We evaluated PROs using the Work Limitations Questionnaire [WLQ; work  productivity],  the  Hospital Anxiety  &amp;  Depression  Scale [HADS], and the Medical Outcomes Study 36-Item Short Form (SF-36; health related quality of life) at wk16 (GUS vs PBO) and wk24 (GUS vs ADA) in pts with and without PsA.Results: In all, 18% of pts reported a history of PsA. At wk16, GUS pts had numerically greater improvements vs PBO in work productivity,  anxiety  and  depression,  and  SF-36  PCS  &amp;  MCS scores regardless of PsA status. The least square (LS) mean differences (95% CI; adjusted for baseline value) for GUS vs PBO for all PROs were generally similar between pts with and without PsA. At wk24, GUS pts had numerically greater improvements vs ADA in all PROs regardless of PsA status. The LS mean differences for GUS vs ADA were generally greater for pts with PsA vs pts without PsA (Table).Conclusions: GUS showed better improvements in all PROs vs PBO at wk16 and vs ADA at wk24. Improvements vs PBO were similar  regardless  of  PsA  status,  while  improvements  vs ADA were greater for pts with PsA.Table: Summary of Change from Baseline in WLQ, HADS and SF-36 Scores from VOYAGE 20.13260.2913p-value0.0249WLQ Time ManagementWLQ MentalInterpersonalWLQ Physical Demandsw/out PSAN, LSMean Diff (95% CI)446, -7.7(-10.56, -4.88)419, -7.0(-10.31, -3.79)439, -4.9(-7.54, -2.35)440, -3.5(-6.11, -0.88)608, -1.6(-2.05, -1.07)608, -1.5 (-1.96, -0.98)Week 16 GUS vs PBOw/ PSAN, LSMean Diff (95% CI)86, -7.1(-13.21, -0.92)85, -6.6(-15.35, 2.06)83, -3.8(-11.03, 3.35)84, -7.9(-14.51, -1.21)135, -1.2(-2.45, 0.04)135, -1.2(-2.55, 0.06)135, 5.7(2.94, 8.43)135, 4.5(1.61, 7.48)N is the sample size across two groups.(3.31, 5.39)607, 4.8 (3.53, 6.15)SF-36 Physical ScoreSF-36 Mental ScoreWLQ Ouput DemandsDepression ScoreAnxiety Score&lt; 0.0001 607, 4.4 0.00260.05840.02110.0611Week 24 GUS vs ADAw/ PSAN, LSMean Diff (95% CI)w/out PSAN, LSMean Diff p(95% CI)value0.7152 445, -2.6pvalue0.0769p-value&lt; 0.0001 79, -1.6 (-10.58, 7.29)0.0002&lt; 0.0001 79, -4.3 (-14.40, 5.81)78, -11.4 (-19.37, -3.34)79, -14.7 (-24.29, -5.17)0.0089&lt; 0.0001 133, -2.1 0.3996 420, -0.60.69310.0061 436, -1.50.25690.0030 437, -1.20.41360.0012 608, -0.80.0025&lt; 0.0001 133, -1.5 0.0374 608, -0.40.1158&lt; 0.0001 132, 2.9&lt; 0.0001 132, 3.2 0.0346 608, 1.0(-0.10, 2.04)0.0591 608, 1.80.07530.0092(-3.33, -0.83)(-2.85, -0.09)(0.21, 5.57)(-0.12, 6.53)(-5.39, 0.28)(-3.46, 2.30)(-4.16, 1.11)(-3.94, 1.62)(-1.29, -0.28)(-0.91, 0.10)(0.45, 3.15)</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="inlineStr">
+        <is>
+          <t>Gianna MelendezLuis Puig</t>
+        </is>
+      </c>
+      <c r="B120" s="2" t="inlineStr">
+        <is>
+          <t>Division of Dermatology and Venereology, Geneva University Hospital, and Department of Pathology and Immunology, University of Geneva, Ge-neva, Switzerland, Department of Dermatology, New York Medical Col-lege at Metropolitan Hospital, New York, NY, Oregon Health &amp; Science University, Portland, OR, Janssen Research &amp; Development, LLC, Spring House, PA, Janssen Research &amp; Development, LLC, San Diego, CA, USAOregon Medical Research Center, Portland, OR, Department of Medicine (Dermatology) UCLA, Los Angeles, CA, USA, Probity Medical Research, Waterloo, ON, Skin Centre for Dermatology, Peterborough, ON, Canada, Sun Pharmaceuticals, Princeton, NJ, Merck &amp; Co., Inc., Kenilworth, NJ, USA, SCIderm Research Institute and Dermatologikum Hamburg, Ham-burg, GermanySpherix Global InsightsSpherix Global InsightsHospital de la Santa Creu i Sant Pau and Universitat Autònoma de Bar-celona Medical School, Barcelona, Spain, Janssen Research &amp; Develop-ment, LLC, Spring House, PA, USA, McMaster University, Hamilton, ON, Canada, University of Melbourne, St. Vincent’s Hospital, Melbourne and Skin &amp; Cancer Foundation Inc., Carlton</t>
+        </is>
+      </c>
+      <c r="C120" s="2" t="inlineStr">
+        <is>
+          <t>Victoria, Australia</t>
+        </is>
+      </c>
+      <c r="D120" s="2" t="inlineStr">
+        <is>
+          <t>P119</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="inlineStr">
+        <is>
+          <t>EFFICACY AND SAFETY RESULTS OF GUSELKUMAB IN PATIENTS WITH ACTIVE PSORIATIC ARTHRITIS OVER 56 WEEKSTILDRAKIZUMAB EFFICACY OVER TIME BY WEEK 28 RESPONSE LEVELS IN TWO PHASE 3 CLINICAL TRIALS IN PATIENTS WITH CHRONIC PLAQUE PSORIASISPOTENTIAL DISCONNECT: CO­MANAGEMENT OF PATIENTS WITH PSORIATIC ARTHRITIS BETWEEN THE USE OF TUMOR NECROSIS FACTOR INHIBITORS (TNF) IN THE SECOND­LINE BIOLOGIC/SMALL MOLECULE SETTING: A CROSS­SPECIALTY COMPARISONIMPACT OF GUSELKUMAB VERSUS PLACEBO AND ADALIMUMAB ON PATIENT REPORTED OUTCOMES IN PATIENTS WITH AND WITHOUT PSORIATIC ARTHRITIS IN VOYAGE 2</t>
+        </is>
+      </c>
+      <c r="F120" s="2" t="inlineStr">
+        <is>
+          <t>Introduction/Objective:To	evaluate	the	efficacy,	safety	&amp;	tolerability of guselkumab (GUS) in patients (pts) w/ PsA.Methods: In this double-blind, PBO-controlled study, pts w/active PsA	&amp;	≥3%	BSA	of	PsO	despite	treatment	were	randomized	2:1	to SC GUS 100mg or PBO at wks0, 4, &amp; q8w thereafter through wk44. At  wk16,  pts  w/ &lt; 5%  improvement  from  baseline  (BL) in swollen &amp; tender joint counts were eligible for early escape (EE) to open-label ustekinumab. At wk24, PBO pts crossed-over to GUS 100mg (PBO to GUS). The primary endpoint was ACR 20 at wk24. Major secondary endpoints were PASI 75 &amp; ACR 50 responses, change from BL in HAQ-DI, &amp; improvement in enthesitis  (Leeds  enthesitis  index  [LEI])  &amp;  dactylitis  score  (by a  0–3  scoring  system)  at  wk24;  &amp; ACR  20  response  at  wk16. Through	wk24,	efficacy	analyses	were	performed	in	a	modified	Intent-to-Treat (mITT) population. Pts who met treatment failure criteria, EE or had missing data at wk24 were considered nonresponders	for	ACR/MDA	endpoints	at	wk24.	Efficacy	post	wk24	was evaluated in pts who did not EE &amp; continued treatment at wk24 based on observed data.Results: Of 149 pts (PBO:49, GUS:100), BL demographics &amp; ACR component measures were generally similar between the 2 groups. 4	PBO	&amp;	9	GUS	pts	were	previously	exposed	to	anti-TNFα	agents.	At	wk24,	significantly	more	GUS	pts	achieved	ACR	20	(58.0%	vs	18.4%, p &lt; 0.001), PASI 75 (78.6% vs 12.5%, p &lt; 0.001), &amp; ACR 50 (34.0% vs 10.2%, p = 0.002) responses vs PBO. At wk24, mean decrease in HAQ-DI score from BL (-0.42 vs. -0.06, p &lt; 0.001), &amp; median percent improvement in enthesitis (100% vs 33.33%, p = 0.009) &amp; dactylitis (100% vs 33.33%, p &lt; 0.001) scores (among pts	w/	BL	enthesitis	and	dactylitis)	were	significantly	greater	in	GUS	group	vs.	PBO.	Significantly	more	GUS	pts	achieved	ACR	20 at wk16 (60.0% vs 16.3%, p &lt; 0.001) and MDA at wk24 (23.0% vs. 2.0%, p = 0.001)	vs.	PBO.	Post	wk24,	efficacy	improved	in	PBO to GUS crossover pts as expected and were well-maintained in GUS pts through wk56.Through wk24, the frequencies of AEs &amp; infections were comparable (AEs: PBO 32.7%; GUS 36.0%; infections: PBO: 20.4%; GUS: 16.0%). Post wk24, there was no disproportional increase in AE frequency or infections among GUS pts w/ longer exposure. Through wk56, there was 1 malignancy (basal cell carcinoma), 6 SAEs (myocardial infarction, osteoarthritis, pupils unequal, radius fracture, pneumonia, ulcerative keratitis), 2 pts discontinued treatment due to AEs, 1 grade 3 neutropenia, &amp; 6 pts were positive for antibodies to GUS. No deaths occurred through wk56.Conclusions: GUS	demonstrated	significant	improvement	on	joint	symptoms, physical function, PsO, enthesitis, dactylitis &amp; quality of	life;	efficacy	was	well-maintained	through	wk56.	GUS	was	well	tolerated in this population after ~1 year of exposure.Data has been previously presented at EULAR 2017 &amp; ACR 2017P12049Introduction: Tildrakizumab	(TIL),	a	humanized,	IgG1/κ	monoclonal	antibody	for	IL-23p19,	recently	demonstrated	its	efficacy	in subjects with chronic plaque psoriasis in two, phase 3 clinical studies1.Objective:In	this	analysis,	we	examined	efficacy	from	baseline	to week 52 among TIL patients achieving various Psoriasis Area and Severity Index (PASI) responses at week 28.Methods:  ReSURFACE  1  (NCT01722331)  and  reSURFACE  2 (NCT01729754) were double-blind, randomized controlled studies in subjects with moderate-to-severe chronic plaque psoriasis. Part 1  (0–12  weeks)  was  placebo  controlled;  Part  2  (12–28  weeks) re-randomized  placebo  patients  to  TIL;  Part  3  (28–64  weeks, reSURFACE 1; 28–52 weeks, reSURFACE 2) re-randomized patients	with	≥PASI	50	to	continue	or	increase	TIL	dose	or	to	placebo	based on their PASI response at week 28. In this post-hoc pooled analysis, patients consistently on TIL 100 mg and 200 mg from baseline	to	week	52	were	classified	in	5	mutually	exclusive	groups	based on their week-28 PASI response: PASI  &lt; 50, PASI 50–74, PASI 75–89, PASI 90–99, and PASI 100. Baseline characteristics and % PASI improvement from baseline up to week 52 (observed data) were examined for each group.Results: This analysis included 575 (TIL 100 mg) and 581 (TIL 200 mg) patients; the proportions of patients with week-28 PASI 75/90/100  responses  were  77%/54%/23%  (TIL  100  mg)  and 78%/58%/29%  (TIL  200  mg). At  week  28,  133  (23.1%),  175 (30.4%), 137 (23.8%), 82 (14.3%), and 48 (8.3%) TIL 100 mg patients and 170 (29.3%), 169 (29.1%), 114 (19.6%), 105 (18.1%), and 23 (4.0%) TIL 200mg achieved PASI 100, PASI 90–99, PASI 75–89,  PASI  50–74,  and  PASI   &lt; 50,  respectively.  On  average, PASI 100 patients were younger, lighter, and had shorter disease duration at baseline compared to other response groups. For TIL 100 mg, % PASI improvement was highest for PASI 100 and least for PASI &lt; 50 patients on all visits up to week 28 (week 4: 53%, 46%, 38%, 30%, and 16%; week 28: 100%, 95%, 83%, 64%, and 33% for PASI 100, PASI 90–99, PASI 75–89, PASI 50–74, and PASI   &lt; 50 categories, respectively). Among patients achieving PASI  &gt; 50 at week 28 and continued up to 52 weeks, % PASI improvement maintained or improved from week 28 to week 52. Similar results were observed for TIL 200 mg as well as a subgroup analysis with bio-naive and bio-experienced patients respectively.Conclusions: The majority of TIL 100 and 200 mg patients achieved PASI &gt; 50 response at week 28, and PASI improvement was maintained from week 28 to week 52. Among patients achieving PASI  &gt; 90 at week 28, TIL 100 and 200 mg were associated with a rapid PASI improvement by week 4.1. Reich K, Papp KA, Blauvelt A, et al. Tildrakizumab versus placebo or  etanercept  for  chronic  plaque  psoriasis  (reSURFACE  1  and  reSURFACE 2): results from two randomised controlled, phase 3 trials. Lancet. 2017;390(10091):276-288.This abstract was presented at 2018 Annual Meeting of American Academy of Dermatology.Note: This abstract was presented at 2018 Annual Meeting of American Academy of Dermatology. P122RHEUMATOLOGISTS AND DERMATOLOGISTSIntroduction: On average, the majority of psoriasis (PSO) patients are diagnosed a year prior to a psoriatic arthritis (PsA) diagnosis, making the referral patterns and co-management between derma50tologists and rheumatologists an important aspect to understanding the management of these diseases. Dermatologists represent an important referral-base for rheumatologists, accounting for over one-quarter of all new PsA patients. However, there are discrepancies between the specialists regarding the timing in which these referrals take place.Objectives: One objective of the study was to gain further insight into rheumatologist and dermatologist co-management of patients with PsA.Methods: An	independent	market	analytics	firm	collaborated	with	US rheumatologists (n = 101) and US dermatologists (n = 101) to conduct analysis of both the PsA and PSO markets. Data were collected	 via	 an	 online	 survey	 fielded	 in	 November/December	2017  and  included  patient  demographics,  as  well  as  physician demographics, and attitudinal survey responses.Results: Rheumatologists indicate that 51 percent of referrals result from primary care physicians, 28 percent result from a dermatologist,  and  13  percent  are  self-referred. The  majority  (73%)  of PsA patients under the care of collaborating rheumatologists had previously been diagnosed with PSO prior to PsA. Dermatologists state that one-quarter of their patients with severe PSO also have PsA, with more than one-third of severe PSO patients also being co-managed with a rheumatologist. The majority of rheumatologists	believe	that	dermatologists	refer	patients	at	the	first	sign	of	joint involvement and do not attempt to treat joint pain; however, 31 percent of dermatologists report they do not refer PSO patients to rheumatologists until patients have failed biologics or are not improving on their current systemic regimen, while an additional 35  percent  report  they  refer  only  severe  arthritis/patients  with worsening disease. Furthermore, only 35 percent of dermatologists agree that they refer their PSO patients to a rheumatologists at the first	sign	of	joint	involvement. At the time of dermatologist referral, rheumatologists state that two-thirds	of	referred	patients	are	biologic/apremilast	naïve,	with	only 6 percent having controlled PSO and joint pain. However, dermatologists state that 40 percent the patients that they referred to rheumatologists were treated with biologics and 15 percent of said  referred  patients  were  treated  with  apremilast.  Indeed,  76 percent of dermatologists agree with the statement, “I believe that the disease (PsA),” while 57 percent of dermatologists agree “I Conclusion: With many patients diagnosed with both PSO and PsA,  co-management  between  dermatologists  and  rheumatologists is common. While rheumatologists appear to be under the impression that they are receiving the majority of dermatologisttreated	patients	with	PsA	at	the	first	sign	of	joint	involvement,	dermatologists largely report that they are managing and treating PsA patients. Furthermore, most dermatologists believe early aggressive use of biologic treatments will mitigate the development and/or progression of joint involvement, implying their willingness to manage their patients with PsA, particularly at early stages. P123TNF  therapy  has  been  the  standard  of  care  for  adult  patients diagnosed with autoimmune conditions, resulting in familiarity, comfort, and satisfaction among physicians. TNFs are typically used	 as	 a	 first-line	 biologic/small	 molecule	 in	 the	 treatment	 of	psoriasis (PSO) and psoriatic arthritis (PsA). However, the adoption of agents with alternate mechanisms of action (AMOA) has increased in recent years across indications and the practice of sequential TNF prescribing after an initial TNF is less common. Though	TNFs	are	still	the	preferred	first-line	agent,	there	are	discrepancies between specialists on the use of AMOA agents in the second-line setting. This research sought to understand the extent to which AMOA agents are prescribed after an initial TNF, and how this varies across PSO and PsA.An	independent	market	analytics	firm	collaborated	with	US	dermatologists (n = 201) and US rheumatologists (n = 200) to conduct a retrospective chart review of patients diagnosed with PSO (n = 950) and PsA (n = 1,008) who had switched from one biologic/apremilast to another agent in the prior 12 weeks. Physicians were able to submit up to 7 patient charts. PSO data was collected in September 2017 and PsA data was collected in April 2017.Analysis  of  patients  recently  switched  from  one  biologic/apremilast to a different brand revealed the majority of patients were treated	with	a	TNF	in	the	first-line	biologic/small	molecule	setting, though this varies by indication. Rheumatologists prescribe first-line	 TNFs	 significantly	 more	 than	 dermatologists.	 83%	 of	PsA	patients	are	prescribed	TNFs	first-line	compared	to	just	69%	of	PSO	patients.	Furthermore,	rheumatologists	are	significantly	more  likely  to  practice  TNF-sequencing  than  dermatologists. Indeed,	44%	of	PsA	patients	treated	with	a	first-line	TNF	were	prescribed a second TNF, compared to 6% of PSO patients. Additionally, certain TNF brands have experienced recent declines in	first	line	use,	though	this	varies	by	indication	as	well.	For	rheumatologists,	use	of	first-line	etanercept	has	declined,	38%	of	PsA	patients were initiated on etanercept at least 24 months prior to the study, compared to just 28% initiated on etanercept within 12 months	of	the	study.	For	dermatologists,	there	were	significantly	more	PSO	patients	initiated	on	etanercept	in	the	first-line	setting	24 months or more prior to the study compared to those initiated within 12 months of the study, (45% vs 31%.) This pattern also held	true	for	adalimumab,	where	42%	of	first-line	PSO	patients	initiated more than 24 months prior to the study were prescribed adalimumab,	a	figure	that	drops	to	just	27%	for	patients	initiated	within 12 months.Though	the	position	of	TNFs	as	first-line	agents	remains	dominant,	the	treating	specialist	and	indication	influence	how	widespread	and	continuous	TNF	use	is.	Specifically,	dermatologists	are	less	likely	to	prescribe	TNFs	as	first-line	agents	and	are	also	significantly	less	likely	to	partake	in	the	sequencing	of	TNFs	in	the	first-	and	second-line  setting  than  rheumatologists.  The  introduction  of several agents in PSO reporting substantially higher rates of skin clearance compared to TNFs could potentially be the source of increased  switching  to AMOAs  compared  to  other  specialties; whereas	 superior	 efficacy	 of	AMOA	 agents	 over	TNFs	 in	 PsA	may be less apparent. P124Introduction/Objective:VOYAGE  2  is  a  phase  3  double-blind, placebo/active comparator-controlled trial comparing guselkumab (GUS) with placebo (PBO) and adalimumab (ADA) in patients (pts) with moderate-to-severe PsO. The impact of treatment on patient-reported outcomes (PROs) was evaluated.Methods: Pts were randomized to GUS 100mg (wks 0 &amp; 4, then q8wks), ADA (80 mg wk 0, 40 mg wk 1, then 40 mg q2 wks), or PBO (wks 0, 4, &amp; 12, then GUS 100 mg wks 16 &amp; 20). We evaluated PROs using the Work Limitations Questionnaire [WLQ; work  productivity],  the  Hospital Anxiety  &amp;  Depression  Scale [HADS], and the Medical Outcomes Study 36-Item Short Form (SF-36; health related quality of life) at wk16 (GUS vs PBO) and wk24 (GUS vs ADA) in pts with and without PsA.Results: In all, 18% of pts reported a history of PsA. At wk16, GUS pts had numerically greater improvements vs PBO in work productivity,  anxiety  and  depression,  and  SF-36  PCS  &amp;  MCS scores regardless of PsA status. The least square (LS) mean differences (95% CI; adjusted for baseline value) for GUS vs PBO for all PROs were generally similar between pts with and without PsA. At wk24, GUS pts had numerically greater improvements vs ADA in all PROs regardless of PsA status. The LS mean differences for GUS vs ADA were generally greater for pts with PsA vs pts without PsA (Table).Conclusions: GUS showed better improvements in all PROs vs PBO at wk16 and vs ADA at wk24. Improvements vs PBO were similar  regardless  of  PsA  status,  while  improvements  vs ADA were greater for pts with PsA.Table: Summary of Change from Baseline in WLQ, HADS and SF-36 Scores from VOYAGE 20.13260.2913p-value0.0249WLQ Time ManagementWLQ MentalInterpersonalWLQ Physical Demandsw/out PSAN, LSMean Diff (95% CI)446, -7.7(-10.56, -4.88)419, -7.0(-10.31, -3.79)439, -4.9(-7.54, -2.35)440, -3.5(-6.11, -0.88)608, -1.6(-2.05, -1.07)608, -1.5 (-1.96, -0.98)Week 16 GUS vs PBOw/ PSAN, LSMean Diff (95% CI)86, -7.1(-13.21, -0.92)85, -6.6(-15.35, 2.06)83, -3.8(-11.03, 3.35)84, -7.9(-14.51, -1.21)135, -1.2(-2.45, 0.04)135, -1.2(-2.55, 0.06)135, 5.7(2.94, 8.43)135, 4.5(1.61, 7.48)N is the sample size across two groups.(3.31, 5.39)607, 4.8 (3.53, 6.15)SF-36 Physical ScoreSF-36 Mental ScoreWLQ Ouput DemandsDepression ScoreAnxiety Score&lt; 0.0001 607, 4.4 0.00260.05840.02110.0611Week 24 GUS vs ADAw/ PSAN, LSMean Diff (95% CI)w/out PSAN, LSMean Diff p(95% CI)value0.7152 445, -2.6pvalue0.0769p-value&lt; 0.0001 79, -1.6 (-10.58, 7.29)0.0002&lt; 0.0001 79, -4.3 (-14.40, 5.81)78, -11.4 (-19.37, -3.34)79, -14.7 (-24.29, -5.17)0.0089&lt; 0.0001 133, -2.1 0.3996 420, -0.60.69310.0061 436, -1.50.25690.0030 437, -1.20.41360.0012 608, -0.80.0025&lt; 0.0001 133, -1.5 0.0374 608, -0.40.1158&lt; 0.0001 132, 2.9&lt; 0.0001 132, 3.2 0.0346 608, 1.0(-0.10, 2.04)0.0591 608, 1.80.07530.0092(-3.33, -0.83)(-2.85, -0.09)(0.21, 5.57)(-0.12, 6.53)(-5.39, 0.28)(-3.46, 2.30)(-4.16, 1.11)(-3.94, 1.62)(-1.29, -0.28)(-0.91, 0.10)(0.45, 3.15)</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="inlineStr">
+        <is>
+          <t>Chenglong Han</t>
+        </is>
+      </c>
+      <c r="B121" s="2" t="inlineStr">
+        <is>
+          <t>Division of Dermatology and Venereology, Geneva University Hospital, and Department of Pathology and Immunology, University of Geneva, Ge-neva, Switzerland, Department of Dermatology, New York Medical Col-lege at Metropolitan Hospital, New York, NY, Oregon Health &amp; Science University, Portland, OR, Janssen Research &amp; Development, LLC, Spring House, PA, Janssen Research &amp; Development, LLC, San Diego, CA, USAOregon Medical Research Center, Portland, OR, Department of Medicine (Dermatology) UCLA, Los Angeles, CA, USA, Probity Medical Research, Waterloo, ON, Skin Centre for Dermatology, Peterborough, ON, Canada, Sun Pharmaceuticals, Princeton, NJ, Merck &amp; Co., Inc., Kenilworth, NJ, USA, SCIderm Research Institute and Dermatologikum Hamburg, Ham-burg, GermanySpherix Global InsightsSpherix Global InsightsHospital de la Santa Creu i Sant Pau and Universitat Autònoma de Bar-celona Medical School, Barcelona, Spain, Janssen Research &amp; Develop-ment, LLC, Spring House, PA, USA, McMaster University, Hamilton, ON, Canada, University of Melbourne, St. Vincent’s Hospital, Melbourne and Skin &amp; Cancer Foundation Inc., Carlton</t>
+        </is>
+      </c>
+      <c r="C121" s="2" t="inlineStr">
+        <is>
+          <t>Victoria, Australia</t>
+        </is>
+      </c>
+      <c r="D121" s="2" t="inlineStr">
+        <is>
+          <t>P119</t>
+        </is>
+      </c>
+      <c r="E121" s="2" t="inlineStr">
+        <is>
+          <t>EFFICACY AND SAFETY RESULTS OF GUSELKUMAB IN PATIENTS WITH ACTIVE PSORIATIC ARTHRITIS OVER 56 WEEKSTILDRAKIZUMAB EFFICACY OVER TIME BY WEEK 28 RESPONSE LEVELS IN TWO PHASE 3 CLINICAL TRIALS IN PATIENTS WITH CHRONIC PLAQUE PSORIASISPOTENTIAL DISCONNECT: CO­MANAGEMENT OF PATIENTS WITH PSORIATIC ARTHRITIS BETWEEN THE USE OF TUMOR NECROSIS FACTOR INHIBITORS (TNF) IN THE SECOND­LINE BIOLOGIC/SMALL MOLECULE SETTING: A CROSS­SPECIALTY COMPARISONIMPACT OF GUSELKUMAB VERSUS PLACEBO AND ADALIMUMAB ON PATIENT REPORTED OUTCOMES IN PATIENTS WITH AND WITHOUT PSORIATIC ARTHRITIS IN VOYAGE 2</t>
+        </is>
+      </c>
+      <c r="F121" s="2" t="inlineStr">
+        <is>
+          <t>Introduction/Objective:To	evaluate	the	efficacy,	safety	&amp;	tolerability of guselkumab (GUS) in patients (pts) w/ PsA.Methods: In this double-blind, PBO-controlled study, pts w/active PsA	&amp;	≥3%	BSA	of	PsO	despite	treatment	were	randomized	2:1	to SC GUS 100mg or PBO at wks0, 4, &amp; q8w thereafter through wk44. At  wk16,  pts  w/ &lt; 5%  improvement  from  baseline  (BL) in swollen &amp; tender joint counts were eligible for early escape (EE) to open-label ustekinumab. At wk24, PBO pts crossed-over to GUS 100mg (PBO to GUS). The primary endpoint was ACR 20 at wk24. Major secondary endpoints were PASI 75 &amp; ACR 50 responses, change from BL in HAQ-DI, &amp; improvement in enthesitis  (Leeds  enthesitis  index  [LEI])  &amp;  dactylitis  score  (by a  0–3  scoring  system)  at  wk24;  &amp; ACR  20  response  at  wk16. Through	wk24,	efficacy	analyses	were	performed	in	a	modified	Intent-to-Treat (mITT) population. Pts who met treatment failure criteria, EE or had missing data at wk24 were considered nonresponders	for	ACR/MDA	endpoints	at	wk24.	Efficacy	post	wk24	was evaluated in pts who did not EE &amp; continued treatment at wk24 based on observed data.Results: Of 149 pts (PBO:49, GUS:100), BL demographics &amp; ACR component measures were generally similar between the 2 groups. 4	PBO	&amp;	9	GUS	pts	were	previously	exposed	to	anti-TNFα	agents.	At	wk24,	significantly	more	GUS	pts	achieved	ACR	20	(58.0%	vs	18.4%, p &lt; 0.001), PASI 75 (78.6% vs 12.5%, p &lt; 0.001), &amp; ACR 50 (34.0% vs 10.2%, p = 0.002) responses vs PBO. At wk24, mean decrease in HAQ-DI score from BL (-0.42 vs. -0.06, p &lt; 0.001), &amp; median percent improvement in enthesitis (100% vs 33.33%, p = 0.009) &amp; dactylitis (100% vs 33.33%, p &lt; 0.001) scores (among pts	w/	BL	enthesitis	and	dactylitis)	were	significantly	greater	in	GUS	group	vs.	PBO.	Significantly	more	GUS	pts	achieved	ACR	20 at wk16 (60.0% vs 16.3%, p &lt; 0.001) and MDA at wk24 (23.0% vs. 2.0%, p = 0.001)	vs.	PBO.	Post	wk24,	efficacy	improved	in	PBO to GUS crossover pts as expected and were well-maintained in GUS pts through wk56.Through wk24, the frequencies of AEs &amp; infections were comparable (AEs: PBO 32.7%; GUS 36.0%; infections: PBO: 20.4%; GUS: 16.0%). Post wk24, there was no disproportional increase in AE frequency or infections among GUS pts w/ longer exposure. Through wk56, there was 1 malignancy (basal cell carcinoma), 6 SAEs (myocardial infarction, osteoarthritis, pupils unequal, radius fracture, pneumonia, ulcerative keratitis), 2 pts discontinued treatment due to AEs, 1 grade 3 neutropenia, &amp; 6 pts were positive for antibodies to GUS. No deaths occurred through wk56.Conclusions: GUS	demonstrated	significant	improvement	on	joint	symptoms, physical function, PsO, enthesitis, dactylitis &amp; quality of	life;	efficacy	was	well-maintained	through	wk56.	GUS	was	well	tolerated in this population after ~1 year of exposure.Data has been previously presented at EULAR 2017 &amp; ACR 2017P12049Introduction: Tildrakizumab	(TIL),	a	humanized,	IgG1/κ	monoclonal	antibody	for	IL-23p19,	recently	demonstrated	its	efficacy	in subjects with chronic plaque psoriasis in two, phase 3 clinical studies1.Objective:In	this	analysis,	we	examined	efficacy	from	baseline	to week 52 among TIL patients achieving various Psoriasis Area and Severity Index (PASI) responses at week 28.Methods:  ReSURFACE  1  (NCT01722331)  and  reSURFACE  2 (NCT01729754) were double-blind, randomized controlled studies in subjects with moderate-to-severe chronic plaque psoriasis. Part 1  (0–12  weeks)  was  placebo  controlled;  Part  2  (12–28  weeks) re-randomized  placebo  patients  to  TIL;  Part  3  (28–64  weeks, reSURFACE 1; 28–52 weeks, reSURFACE 2) re-randomized patients	with	≥PASI	50	to	continue	or	increase	TIL	dose	or	to	placebo	based on their PASI response at week 28. In this post-hoc pooled analysis, patients consistently on TIL 100 mg and 200 mg from baseline	to	week	52	were	classified	in	5	mutually	exclusive	groups	based on their week-28 PASI response: PASI  &lt; 50, PASI 50–74, PASI 75–89, PASI 90–99, and PASI 100. Baseline characteristics and % PASI improvement from baseline up to week 52 (observed data) were examined for each group.Results: This analysis included 575 (TIL 100 mg) and 581 (TIL 200 mg) patients; the proportions of patients with week-28 PASI 75/90/100  responses  were  77%/54%/23%  (TIL  100  mg)  and 78%/58%/29%  (TIL  200  mg). At  week  28,  133  (23.1%),  175 (30.4%), 137 (23.8%), 82 (14.3%), and 48 (8.3%) TIL 100 mg patients and 170 (29.3%), 169 (29.1%), 114 (19.6%), 105 (18.1%), and 23 (4.0%) TIL 200mg achieved PASI 100, PASI 90–99, PASI 75–89,  PASI  50–74,  and  PASI   &lt; 50,  respectively.  On  average, PASI 100 patients were younger, lighter, and had shorter disease duration at baseline compared to other response groups. For TIL 100 mg, % PASI improvement was highest for PASI 100 and least for PASI &lt; 50 patients on all visits up to week 28 (week 4: 53%, 46%, 38%, 30%, and 16%; week 28: 100%, 95%, 83%, 64%, and 33% for PASI 100, PASI 90–99, PASI 75–89, PASI 50–74, and PASI   &lt; 50 categories, respectively). Among patients achieving PASI  &gt; 50 at week 28 and continued up to 52 weeks, % PASI improvement maintained or improved from week 28 to week 52. Similar results were observed for TIL 200 mg as well as a subgroup analysis with bio-naive and bio-experienced patients respectively.Conclusions: The majority of TIL 100 and 200 mg patients achieved PASI &gt; 50 response at week 28, and PASI improvement was maintained from week 28 to week 52. Among patients achieving PASI  &gt; 90 at week 28, TIL 100 and 200 mg were associated with a rapid PASI improvement by week 4.1. Reich K, Papp KA, Blauvelt A, et al. Tildrakizumab versus placebo or  etanercept  for  chronic  plaque  psoriasis  (reSURFACE  1  and  reSURFACE 2): results from two randomised controlled, phase 3 trials. Lancet. 2017;390(10091):276-288.This abstract was presented at 2018 Annual Meeting of American Academy of Dermatology.Note: This abstract was presented at 2018 Annual Meeting of American Academy of Dermatology. P122RHEUMATOLOGISTS AND DERMATOLOGISTSIntroduction: On average, the majority of psoriasis (PSO) patients are diagnosed a year prior to a psoriatic arthritis (PsA) diagnosis, making the referral patterns and co-management between derma50tologists and rheumatologists an important aspect to understanding the management of these diseases. Dermatologists represent an important referral-base for rheumatologists, accounting for over one-quarter of all new PsA patients. However, there are discrepancies between the specialists regarding the timing in which these referrals take place.Objectives: One objective of the study was to gain further insight into rheumatologist and dermatologist co-management of patients with PsA.Methods: An	independent	market	analytics	firm	collaborated	with	US rheumatologists (n = 101) and US dermatologists (n = 101) to conduct analysis of both the PsA and PSO markets. Data were collected	 via	 an	 online	 survey	 fielded	 in	 November/December	2017  and  included  patient  demographics,  as  well  as  physician demographics, and attitudinal survey responses.Results: Rheumatologists indicate that 51 percent of referrals result from primary care physicians, 28 percent result from a dermatologist,  and  13  percent  are  self-referred. The  majority  (73%)  of PsA patients under the care of collaborating rheumatologists had previously been diagnosed with PSO prior to PsA. Dermatologists state that one-quarter of their patients with severe PSO also have PsA, with more than one-third of severe PSO patients also being co-managed with a rheumatologist. The majority of rheumatologists	believe	that	dermatologists	refer	patients	at	the	first	sign	of	joint involvement and do not attempt to treat joint pain; however, 31 percent of dermatologists report they do not refer PSO patients to rheumatologists until patients have failed biologics or are not improving on their current systemic regimen, while an additional 35  percent  report  they  refer  only  severe  arthritis/patients  with worsening disease. Furthermore, only 35 percent of dermatologists agree that they refer their PSO patients to a rheumatologists at the first	sign	of	joint	involvement. At the time of dermatologist referral, rheumatologists state that two-thirds	of	referred	patients	are	biologic/apremilast	naïve,	with	only 6 percent having controlled PSO and joint pain. However, dermatologists state that 40 percent the patients that they referred to rheumatologists were treated with biologics and 15 percent of said  referred  patients  were  treated  with  apremilast.  Indeed,  76 percent of dermatologists agree with the statement, “I believe that the disease (PsA),” while 57 percent of dermatologists agree “I Conclusion: With many patients diagnosed with both PSO and PsA,  co-management  between  dermatologists  and  rheumatologists is common. While rheumatologists appear to be under the impression that they are receiving the majority of dermatologisttreated	patients	with	PsA	at	the	first	sign	of	joint	involvement,	dermatologists largely report that they are managing and treating PsA patients. Furthermore, most dermatologists believe early aggressive use of biologic treatments will mitigate the development and/or progression of joint involvement, implying their willingness to manage their patients with PsA, particularly at early stages. P123TNF  therapy  has  been  the  standard  of  care  for  adult  patients diagnosed with autoimmune conditions, resulting in familiarity, comfort, and satisfaction among physicians. TNFs are typically used	 as	 a	 first-line	 biologic/small	 molecule	 in	 the	 treatment	 of	psoriasis (PSO) and psoriatic arthritis (PsA). However, the adoption of agents with alternate mechanisms of action (AMOA) has increased in recent years across indications and the practice of sequential TNF prescribing after an initial TNF is less common. Though	TNFs	are	still	the	preferred	first-line	agent,	there	are	discrepancies between specialists on the use of AMOA agents in the second-line setting. This research sought to understand the extent to which AMOA agents are prescribed after an initial TNF, and how this varies across PSO and PsA.An	independent	market	analytics	firm	collaborated	with	US	dermatologists (n = 201) and US rheumatologists (n = 200) to conduct a retrospective chart review of patients diagnosed with PSO (n = 950) and PsA (n = 1,008) who had switched from one biologic/apremilast to another agent in the prior 12 weeks. Physicians were able to submit up to 7 patient charts. PSO data was collected in September 2017 and PsA data was collected in April 2017.Analysis  of  patients  recently  switched  from  one  biologic/apremilast to a different brand revealed the majority of patients were treated	with	a	TNF	in	the	first-line	biologic/small	molecule	setting, though this varies by indication. Rheumatologists prescribe first-line	 TNFs	 significantly	 more	 than	 dermatologists.	 83%	 of	PsA	patients	are	prescribed	TNFs	first-line	compared	to	just	69%	of	PSO	patients.	Furthermore,	rheumatologists	are	significantly	more  likely  to  practice  TNF-sequencing  than  dermatologists. Indeed,	44%	of	PsA	patients	treated	with	a	first-line	TNF	were	prescribed a second TNF, compared to 6% of PSO patients. Additionally, certain TNF brands have experienced recent declines in	first	line	use,	though	this	varies	by	indication	as	well.	For	rheumatologists,	use	of	first-line	etanercept	has	declined,	38%	of	PsA	patients were initiated on etanercept at least 24 months prior to the study, compared to just 28% initiated on etanercept within 12 months	of	the	study.	For	dermatologists,	there	were	significantly	more	PSO	patients	initiated	on	etanercept	in	the	first-line	setting	24 months or more prior to the study compared to those initiated within 12 months of the study, (45% vs 31%.) This pattern also held	true	for	adalimumab,	where	42%	of	first-line	PSO	patients	initiated more than 24 months prior to the study were prescribed adalimumab,	a	figure	that	drops	to	just	27%	for	patients	initiated	within 12 months.Though	the	position	of	TNFs	as	first-line	agents	remains	dominant,	the	treating	specialist	and	indication	influence	how	widespread	and	continuous	TNF	use	is.	Specifically,	dermatologists	are	less	likely	to	prescribe	TNFs	as	first-line	agents	and	are	also	significantly	less	likely	to	partake	in	the	sequencing	of	TNFs	in	the	first-	and	second-line  setting  than  rheumatologists.  The  introduction  of several agents in PSO reporting substantially higher rates of skin clearance compared to TNFs could potentially be the source of increased  switching  to AMOAs  compared  to  other  specialties; whereas	 superior	 efficacy	 of	AMOA	 agents	 over	TNFs	 in	 PsA	may be less apparent. P124Introduction/Objective:VOYAGE  2  is  a  phase  3  double-blind, placebo/active comparator-controlled trial comparing guselkumab (GUS) with placebo (PBO) and adalimumab (ADA) in patients (pts) with moderate-to-severe PsO. The impact of treatment on patient-reported outcomes (PROs) was evaluated.Methods: Pts were randomized to GUS 100mg (wks 0 &amp; 4, then q8wks), ADA (80 mg wk 0, 40 mg wk 1, then 40 mg q2 wks), or PBO (wks 0, 4, &amp; 12, then GUS 100 mg wks 16 &amp; 20). We evaluated PROs using the Work Limitations Questionnaire [WLQ; work  productivity],  the  Hospital Anxiety  &amp;  Depression  Scale [HADS], and the Medical Outcomes Study 36-Item Short Form (SF-36; health related quality of life) at wk16 (GUS vs PBO) and wk24 (GUS vs ADA) in pts with and without PsA.Results: In all, 18% of pts reported a history of PsA. At wk16, GUS pts had numerically greater improvements vs PBO in work productivity,  anxiety  and  depression,  and  SF-36  PCS  &amp;  MCS scores regardless of PsA status. The least square (LS) mean differences (95% CI; adjusted for baseline value) for GUS vs PBO for all PROs were generally similar between pts with and without PsA. At wk24, GUS pts had numerically greater improvements vs ADA in all PROs regardless of PsA status. The LS mean differences for GUS vs ADA were generally greater for pts with PsA vs pts without PsA (Table).Conclusions: GUS showed better improvements in all PROs vs PBO at wk16 and vs ADA at wk24. Improvements vs PBO were similar  regardless  of  PsA  status,  while  improvements  vs ADA were greater for pts with PsA.Table: Summary of Change from Baseline in WLQ, HADS and SF-36 Scores from VOYAGE 20.13260.2913p-value0.0249WLQ Time ManagementWLQ MentalInterpersonalWLQ Physical Demandsw/out PSAN, LSMean Diff (95% CI)446, -7.7(-10.56, -4.88)419, -7.0(-10.31, -3.79)439, -4.9(-7.54, -2.35)440, -3.5(-6.11, -0.88)608, -1.6(-2.05, -1.07)608, -1.5 (-1.96, -0.98)Week 16 GUS vs PBOw/ PSAN, LSMean Diff (95% CI)86, -7.1(-13.21, -0.92)85, -6.6(-15.35, 2.06)83, -3.8(-11.03, 3.35)84, -7.9(-14.51, -1.21)135, -1.2(-2.45, 0.04)135, -1.2(-2.55, 0.06)135, 5.7(2.94, 8.43)135, 4.5(1.61, 7.48)N is the sample size across two groups.(3.31, 5.39)607, 4.8 (3.53, 6.15)SF-36 Physical ScoreSF-36 Mental ScoreWLQ Ouput DemandsDepression ScoreAnxiety Score&lt; 0.0001 607, 4.4 0.00260.05840.02110.0611Week 24 GUS vs ADAw/ PSAN, LSMean Diff (95% CI)w/out PSAN, LSMean Diff p(95% CI)value0.7152 445, -2.6pvalue0.0769p-value&lt; 0.0001 79, -1.6 (-10.58, 7.29)0.0002&lt; 0.0001 79, -4.3 (-14.40, 5.81)78, -11.4 (-19.37, -3.34)79, -14.7 (-24.29, -5.17)0.0089&lt; 0.0001 133, -2.1 0.3996 420, -0.60.69310.0061 436, -1.50.25690.0030 437, -1.20.41360.0012 608, -0.80.0025&lt; 0.0001 133, -1.5 0.0374 608, -0.40.1158&lt; 0.0001 132, 2.9&lt; 0.0001 132, 3.2 0.0346 608, 1.0(-0.10, 2.04)0.0591 608, 1.80.07530.0092(-3.33, -0.83)(-2.85, -0.09)(0.21, 5.57)(-0.12, 6.53)(-5.39, 0.28)(-3.46, 2.30)(-4.16, 1.11)(-3.94, 1.62)(-1.29, -0.28)(-0.91, 0.10)(0.45, 3.15)</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="inlineStr">
+        <is>
+          <t>Ron Vender</t>
+        </is>
+      </c>
+      <c r="B122" s="2" t="inlineStr">
+        <is>
+          <t>Division of Dermatology and Venereology, Geneva University Hospital, and Department of Pathology and Immunology, University of Geneva, Ge-neva, Switzerland, Department of Dermatology, New York Medical Col-lege at Metropolitan Hospital, New York, NY, Oregon Health &amp; Science University, Portland, OR, Janssen Research &amp; Development, LLC, Spring House, PA, Janssen Research &amp; Development, LLC, San Diego, CA, USAOregon Medical Research Center, Portland, OR, Department of Medicine (Dermatology) UCLA, Los Angeles, CA, USA, Probity Medical Research, Waterloo, ON, Skin Centre for Dermatology, Peterborough, ON, Canada, Sun Pharmaceuticals, Princeton, NJ, Merck &amp; Co., Inc., Kenilworth, NJ, USA, SCIderm Research Institute and Dermatologikum Hamburg, Ham-burg, GermanySpherix Global InsightsSpherix Global InsightsHospital de la Santa Creu i Sant Pau and Universitat Autònoma de Bar-celona Medical School, Barcelona, Spain, Janssen Research &amp; Develop-ment, LLC, Spring House, PA, USA, McMaster University, Hamilton, ON, Canada, University of Melbourne, St. Vincent’s Hospital, Melbourne and Skin &amp; Cancer Foundation Inc., Carlton</t>
+        </is>
+      </c>
+      <c r="C122" s="2" t="inlineStr">
+        <is>
+          <t>Victoria, Australia</t>
+        </is>
+      </c>
+      <c r="D122" s="2" t="inlineStr">
+        <is>
+          <t>P119</t>
+        </is>
+      </c>
+      <c r="E122" s="2" t="inlineStr">
+        <is>
+          <t>EFFICACY AND SAFETY RESULTS OF GUSELKUMAB IN PATIENTS WITH ACTIVE PSORIATIC ARTHRITIS OVER 56 WEEKSTILDRAKIZUMAB EFFICACY OVER TIME BY WEEK 28 RESPONSE LEVELS IN TWO PHASE 3 CLINICAL TRIALS IN PATIENTS WITH CHRONIC PLAQUE PSORIASISPOTENTIAL DISCONNECT: CO­MANAGEMENT OF PATIENTS WITH PSORIATIC ARTHRITIS BETWEEN THE USE OF TUMOR NECROSIS FACTOR INHIBITORS (TNF) IN THE SECOND­LINE BIOLOGIC/SMALL MOLECULE SETTING: A CROSS­SPECIALTY COMPARISONIMPACT OF GUSELKUMAB VERSUS PLACEBO AND ADALIMUMAB ON PATIENT REPORTED OUTCOMES IN PATIENTS WITH AND WITHOUT PSORIATIC ARTHRITIS IN VOYAGE 2</t>
+        </is>
+      </c>
+      <c r="F122" s="2" t="inlineStr">
+        <is>
+          <t>Introduction/Objective:To	evaluate	the	efficacy,	safety	&amp;	tolerability of guselkumab (GUS) in patients (pts) w/ PsA.Methods: In this double-blind, PBO-controlled study, pts w/active PsA	&amp;	≥3%	BSA	of	PsO	despite	treatment	were	randomized	2:1	to SC GUS 100mg or PBO at wks0, 4, &amp; q8w thereafter through wk44. At  wk16,  pts  w/ &lt; 5%  improvement  from  baseline  (BL) in swollen &amp; tender joint counts were eligible for early escape (EE) to open-label ustekinumab. At wk24, PBO pts crossed-over to GUS 100mg (PBO to GUS). The primary endpoint was ACR 20 at wk24. Major secondary endpoints were PASI 75 &amp; ACR 50 responses, change from BL in HAQ-DI, &amp; improvement in enthesitis  (Leeds  enthesitis  index  [LEI])  &amp;  dactylitis  score  (by a  0–3  scoring  system)  at  wk24;  &amp; ACR  20  response  at  wk16. Through	wk24,	efficacy	analyses	were	performed	in	a	modified	Intent-to-Treat (mITT) population. Pts who met treatment failure criteria, EE or had missing data at wk24 were considered nonresponders	for	ACR/MDA	endpoints	at	wk24.	Efficacy	post	wk24	was evaluated in pts who did not EE &amp; continued treatment at wk24 based on observed data.Results: Of 149 pts (PBO:49, GUS:100), BL demographics &amp; ACR component measures were generally similar between the 2 groups. 4	PBO	&amp;	9	GUS	pts	were	previously	exposed	to	anti-TNFα	agents.	At	wk24,	significantly	more	GUS	pts	achieved	ACR	20	(58.0%	vs	18.4%, p &lt; 0.001), PASI 75 (78.6% vs 12.5%, p &lt; 0.001), &amp; ACR 50 (34.0% vs 10.2%, p = 0.002) responses vs PBO. At wk24, mean decrease in HAQ-DI score from BL (-0.42 vs. -0.06, p &lt; 0.001), &amp; median percent improvement in enthesitis (100% vs 33.33%, p = 0.009) &amp; dactylitis (100% vs 33.33%, p &lt; 0.001) scores (among pts	w/	BL	enthesitis	and	dactylitis)	were	significantly	greater	in	GUS	group	vs.	PBO.	Significantly	more	GUS	pts	achieved	ACR	20 at wk16 (60.0% vs 16.3%, p &lt; 0.001) and MDA at wk24 (23.0% vs. 2.0%, p = 0.001)	vs.	PBO.	Post	wk24,	efficacy	improved	in	PBO to GUS crossover pts as expected and were well-maintained in GUS pts through wk56.Through wk24, the frequencies of AEs &amp; infections were comparable (AEs: PBO 32.7%; GUS 36.0%; infections: PBO: 20.4%; GUS: 16.0%). Post wk24, there was no disproportional increase in AE frequency or infections among GUS pts w/ longer exposure. Through wk56, there was 1 malignancy (basal cell carcinoma), 6 SAEs (myocardial infarction, osteoarthritis, pupils unequal, radius fracture, pneumonia, ulcerative keratitis), 2 pts discontinued treatment due to AEs, 1 grade 3 neutropenia, &amp; 6 pts were positive for antibodies to GUS. No deaths occurred through wk56.Conclusions: GUS	demonstrated	significant	improvement	on	joint	symptoms, physical function, PsO, enthesitis, dactylitis &amp; quality of	life;	efficacy	was	well-maintained	through	wk56.	GUS	was	well	tolerated in this population after ~1 year of exposure.Data has been previously presented at EULAR 2017 &amp; ACR 2017P12049Introduction: Tildrakizumab	(TIL),	a	humanized,	IgG1/κ	monoclonal	antibody	for	IL-23p19,	recently	demonstrated	its	efficacy	in subjects with chronic plaque psoriasis in two, phase 3 clinical studies1.Objective:In	this	analysis,	we	examined	efficacy	from	baseline	to week 52 among TIL patients achieving various Psoriasis Area and Severity Index (PASI) responses at week 28.Methods:  ReSURFACE  1  (NCT01722331)  and  reSURFACE  2 (NCT01729754) were double-blind, randomized controlled studies in subjects with moderate-to-severe chronic plaque psoriasis. Part 1  (0–12  weeks)  was  placebo  controlled;  Part  2  (12–28  weeks) re-randomized  placebo  patients  to  TIL;  Part  3  (28–64  weeks, reSURFACE 1; 28–52 weeks, reSURFACE 2) re-randomized patients	with	≥PASI	50	to	continue	or	increase	TIL	dose	or	to	placebo	based on their PASI response at week 28. In this post-hoc pooled analysis, patients consistently on TIL 100 mg and 200 mg from baseline	to	week	52	were	classified	in	5	mutually	exclusive	groups	based on their week-28 PASI response: PASI  &lt; 50, PASI 50–74, PASI 75–89, PASI 90–99, and PASI 100. Baseline characteristics and % PASI improvement from baseline up to week 52 (observed data) were examined for each group.Results: This analysis included 575 (TIL 100 mg) and 581 (TIL 200 mg) patients; the proportions of patients with week-28 PASI 75/90/100  responses  were  77%/54%/23%  (TIL  100  mg)  and 78%/58%/29%  (TIL  200  mg). At  week  28,  133  (23.1%),  175 (30.4%), 137 (23.8%), 82 (14.3%), and 48 (8.3%) TIL 100 mg patients and 170 (29.3%), 169 (29.1%), 114 (19.6%), 105 (18.1%), and 23 (4.0%) TIL 200mg achieved PASI 100, PASI 90–99, PASI 75–89,  PASI  50–74,  and  PASI   &lt; 50,  respectively.  On  average, PASI 100 patients were younger, lighter, and had shorter disease duration at baseline compared to other response groups. For TIL 100 mg, % PASI improvement was highest for PASI 100 and least for PASI &lt; 50 patients on all visits up to week 28 (week 4: 53%, 46%, 38%, 30%, and 16%; week 28: 100%, 95%, 83%, 64%, and 33% for PASI 100, PASI 90–99, PASI 75–89, PASI 50–74, and PASI   &lt; 50 categories, respectively). Among patients achieving PASI  &gt; 50 at week 28 and continued up to 52 weeks, % PASI improvement maintained or improved from week 28 to week 52. Similar results were observed for TIL 200 mg as well as a subgroup analysis with bio-naive and bio-experienced patients respectively.Conclusions: The majority of TIL 100 and 200 mg patients achieved PASI &gt; 50 response at week 28, and PASI improvement was maintained from week 28 to week 52. Among patients achieving PASI  &gt; 90 at week 28, TIL 100 and 200 mg were associated with a rapid PASI improvement by week 4.1. Reich K, Papp KA, Blauvelt A, et al. Tildrakizumab versus placebo or  etanercept  for  chronic  plaque  psoriasis  (reSURFACE  1  and  reSURFACE 2): results from two randomised controlled, phase 3 trials. Lancet. 2017;390(10091):276-288.This abstract was presented at 2018 Annual Meeting of American Academy of Dermatology.Note: This abstract was presented at 2018 Annual Meeting of American Academy of Dermatology. P122RHEUMATOLOGISTS AND DERMATOLOGISTSIntroduction: On average, the majority of psoriasis (PSO) patients are diagnosed a year prior to a psoriatic arthritis (PsA) diagnosis, making the referral patterns and co-management between derma50tologists and rheumatologists an important aspect to understanding the management of these diseases. Dermatologists represent an important referral-base for rheumatologists, accounting for over one-quarter of all new PsA patients. However, there are discrepancies between the specialists regarding the timing in which these referrals take place.Objectives: One objective of the study was to gain further insight into rheumatologist and dermatologist co-management of patients with PsA.Methods: An	independent	market	analytics	firm	collaborated	with	US rheumatologists (n = 101) and US dermatologists (n = 101) to conduct analysis of both the PsA and PSO markets. Data were collected	 via	 an	 online	 survey	 fielded	 in	 November/December	2017  and  included  patient  demographics,  as  well  as  physician demographics, and attitudinal survey responses.Results: Rheumatologists indicate that 51 percent of referrals result from primary care physicians, 28 percent result from a dermatologist,  and  13  percent  are  self-referred. The  majority  (73%)  of PsA patients under the care of collaborating rheumatologists had previously been diagnosed with PSO prior to PsA. Dermatologists state that one-quarter of their patients with severe PSO also have PsA, with more than one-third of severe PSO patients also being co-managed with a rheumatologist. The majority of rheumatologists	believe	that	dermatologists	refer	patients	at	the	first	sign	of	joint involvement and do not attempt to treat joint pain; however, 31 percent of dermatologists report they do not refer PSO patients to rheumatologists until patients have failed biologics or are not improving on their current systemic regimen, while an additional 35  percent  report  they  refer  only  severe  arthritis/patients  with worsening disease. Furthermore, only 35 percent of dermatologists agree that they refer their PSO patients to a rheumatologists at the first	sign	of	joint	involvement. At the time of dermatologist referral, rheumatologists state that two-thirds	of	referred	patients	are	biologic/apremilast	naïve,	with	only 6 percent having controlled PSO and joint pain. However, dermatologists state that 40 percent the patients that they referred to rheumatologists were treated with biologics and 15 percent of said  referred  patients  were  treated  with  apremilast.  Indeed,  76 percent of dermatologists agree with the statement, “I believe that the disease (PsA),” while 57 percent of dermatologists agree “I Conclusion: With many patients diagnosed with both PSO and PsA,  co-management  between  dermatologists  and  rheumatologists is common. While rheumatologists appear to be under the impression that they are receiving the majority of dermatologisttreated	patients	with	PsA	at	the	first	sign	of	joint	involvement,	dermatologists largely report that they are managing and treating PsA patients. Furthermore, most dermatologists believe early aggressive use of biologic treatments will mitigate the development and/or progression of joint involvement, implying their willingness to manage their patients with PsA, particularly at early stages. P123TNF  therapy  has  been  the  standard  of  care  for  adult  patients diagnosed with autoimmune conditions, resulting in familiarity, comfort, and satisfaction among physicians. TNFs are typically used	 as	 a	 first-line	 biologic/small	 molecule	 in	 the	 treatment	 of	psoriasis (PSO) and psoriatic arthritis (PsA). However, the adoption of agents with alternate mechanisms of action (AMOA) has increased in recent years across indications and the practice of sequential TNF prescribing after an initial TNF is less common. Though	TNFs	are	still	the	preferred	first-line	agent,	there	are	discrepancies between specialists on the use of AMOA agents in the second-line setting. This research sought to understand the extent to which AMOA agents are prescribed after an initial TNF, and how this varies across PSO and PsA.An	independent	market	analytics	firm	collaborated	with	US	dermatologists (n = 201) and US rheumatologists (n = 200) to conduct a retrospective chart review of patients diagnosed with PSO (n = 950) and PsA (n = 1,008) who had switched from one biologic/apremilast to another agent in the prior 12 weeks. Physicians were able to submit up to 7 patient charts. PSO data was collected in September 2017 and PsA data was collected in April 2017.Analysis  of  patients  recently  switched  from  one  biologic/apremilast to a different brand revealed the majority of patients were treated	with	a	TNF	in	the	first-line	biologic/small	molecule	setting, though this varies by indication. Rheumatologists prescribe first-line	 TNFs	 significantly	 more	 than	 dermatologists.	 83%	 of	PsA	patients	are	prescribed	TNFs	first-line	compared	to	just	69%	of	PSO	patients.	Furthermore,	rheumatologists	are	significantly	more  likely  to  practice  TNF-sequencing  than  dermatologists. Indeed,	44%	of	PsA	patients	treated	with	a	first-line	TNF	were	prescribed a second TNF, compared to 6% of PSO patients. Additionally, certain TNF brands have experienced recent declines in	first	line	use,	though	this	varies	by	indication	as	well.	For	rheumatologists,	use	of	first-line	etanercept	has	declined,	38%	of	PsA	patients were initiated on etanercept at least 24 months prior to the study, compared to just 28% initiated on etanercept within 12 months	of	the	study.	For	dermatologists,	there	were	significantly	more	PSO	patients	initiated	on	etanercept	in	the	first-line	setting	24 months or more prior to the study compared to those initiated within 12 months of the study, (45% vs 31%.) This pattern also held	true	for	adalimumab,	where	42%	of	first-line	PSO	patients	initiated more than 24 months prior to the study were prescribed adalimumab,	a	figure	that	drops	to	just	27%	for	patients	initiated	within 12 months.Though	the	position	of	TNFs	as	first-line	agents	remains	dominant,	the	treating	specialist	and	indication	influence	how	widespread	and	continuous	TNF	use	is.	Specifically,	dermatologists	are	less	likely	to	prescribe	TNFs	as	first-line	agents	and	are	also	significantly	less	likely	to	partake	in	the	sequencing	of	TNFs	in	the	first-	and	second-line  setting  than  rheumatologists.  The  introduction  of several agents in PSO reporting substantially higher rates of skin clearance compared to TNFs could potentially be the source of increased  switching  to AMOAs  compared  to  other  specialties; whereas	 superior	 efficacy	 of	AMOA	 agents	 over	TNFs	 in	 PsA	may be less apparent. P124Introduction/Objective:VOYAGE  2  is  a  phase  3  double-blind, placebo/active comparator-controlled trial comparing guselkumab (GUS) with placebo (PBO) and adalimumab (ADA) in patients (pts) with moderate-to-severe PsO. The impact of treatment on patient-reported outcomes (PROs) was evaluated.Methods: Pts were randomized to GUS 100mg (wks 0 &amp; 4, then q8wks), ADA (80 mg wk 0, 40 mg wk 1, then 40 mg q2 wks), or PBO (wks 0, 4, &amp; 12, then GUS 100 mg wks 16 &amp; 20). We evaluated PROs using the Work Limitations Questionnaire [WLQ; work  productivity],  the  Hospital Anxiety  &amp;  Depression  Scale [HADS], and the Medical Outcomes Study 36-Item Short Form (SF-36; health related quality of life) at wk16 (GUS vs PBO) and wk24 (GUS vs ADA) in pts with and without PsA.Results: In all, 18% of pts reported a history of PsA. At wk16, GUS pts had numerically greater improvements vs PBO in work productivity,  anxiety  and  depression,  and  SF-36  PCS  &amp;  MCS scores regardless of PsA status. The least square (LS) mean differences (95% CI; adjusted for baseline value) for GUS vs PBO for all PROs were generally similar between pts with and without PsA. At wk24, GUS pts had numerically greater improvements vs ADA in all PROs regardless of PsA status. The LS mean differences for GUS vs ADA were generally greater for pts with PsA vs pts without PsA (Table).Conclusions: GUS showed better improvements in all PROs vs PBO at wk16 and vs ADA at wk24. Improvements vs PBO were similar  regardless  of  PsA  status,  while  improvements  vs ADA were greater for pts with PsA.Table: Summary of Change from Baseline in WLQ, HADS and SF-36 Scores from VOYAGE 20.13260.2913p-value0.0249WLQ Time ManagementWLQ MentalInterpersonalWLQ Physical Demandsw/out PSAN, LSMean Diff (95% CI)446, -7.7(-10.56, -4.88)419, -7.0(-10.31, -3.79)439, -4.9(-7.54, -2.35)440, -3.5(-6.11, -0.88)608, -1.6(-2.05, -1.07)608, -1.5 (-1.96, -0.98)Week 16 GUS vs PBOw/ PSAN, LSMean Diff (95% CI)86, -7.1(-13.21, -0.92)85, -6.6(-15.35, 2.06)83, -3.8(-11.03, 3.35)84, -7.9(-14.51, -1.21)135, -1.2(-2.45, 0.04)135, -1.2(-2.55, 0.06)135, 5.7(2.94, 8.43)135, 4.5(1.61, 7.48)N is the sample size across two groups.(3.31, 5.39)607, 4.8 (3.53, 6.15)SF-36 Physical ScoreSF-36 Mental ScoreWLQ Ouput DemandsDepression ScoreAnxiety Score&lt; 0.0001 607, 4.4 0.00260.05840.02110.0611Week 24 GUS vs ADAw/ PSAN, LSMean Diff (95% CI)w/out PSAN, LSMean Diff p(95% CI)value0.7152 445, -2.6pvalue0.0769p-value&lt; 0.0001 79, -1.6 (-10.58, 7.29)0.0002&lt; 0.0001 79, -4.3 (-14.40, 5.81)78, -11.4 (-19.37, -3.34)79, -14.7 (-24.29, -5.17)0.0089&lt; 0.0001 133, -2.1 0.3996 420, -0.60.69310.0061 436, -1.50.25690.0030 437, -1.20.41360.0012 608, -0.80.0025&lt; 0.0001 133, -1.5 0.0374 608, -0.40.1158&lt; 0.0001 132, 2.9&lt; 0.0001 132, 3.2 0.0346 608, 1.0(-0.10, 2.04)0.0591 608, 1.80.07530.0092(-3.33, -0.83)(-2.85, -0.09)(0.21, 5.57)(-0.12, 6.53)(-5.39, 0.28)(-3.46, 2.30)(-4.16, 1.11)(-3.94, 1.62)(-1.29, -0.28)(-0.91, 0.10)(0.45, 3.15)</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="inlineStr">
+        <is>
+          <t>Michael Song</t>
+        </is>
+      </c>
+      <c r="B123" s="2" t="inlineStr">
+        <is>
+          <t>Division of Dermatology and Venereology, Geneva University Hospital, and Department of Pathology and Immunology, University of Geneva, Ge-neva, Switzerland, Department of Dermatology, New York Medical Col-lege at Metropolitan Hospital, New York, NY, Oregon Health &amp; Science University, Portland, OR, Janssen Research &amp; Development, LLC, Spring House, PA, Janssen Research &amp; Development, LLC, San Diego, CA, USAOregon Medical Research Center, Portland, OR, Department of Medicine (Dermatology) UCLA, Los Angeles, CA, USA, Probity Medical Research, Waterloo, ON, Skin Centre for Dermatology, Peterborough, ON, Canada, Sun Pharmaceuticals, Princeton, NJ, Merck &amp; Co., Inc., Kenilworth, NJ, USA, SCIderm Research Institute and Dermatologikum Hamburg, Ham-burg, GermanySpherix Global InsightsSpherix Global InsightsHospital de la Santa Creu i Sant Pau and Universitat Autònoma de Bar-celona Medical School, Barcelona, Spain, Janssen Research &amp; Develop-ment, LLC, Spring House, PA, USA, McMaster University, Hamilton, ON, Canada, University of Melbourne, St. Vincent’s Hospital, Melbourne and Skin &amp; Cancer Foundation Inc., Carlton</t>
+        </is>
+      </c>
+      <c r="C123" s="2" t="inlineStr">
+        <is>
+          <t>Victoria, Australia</t>
+        </is>
+      </c>
+      <c r="D123" s="2" t="inlineStr">
+        <is>
+          <t>P119</t>
+        </is>
+      </c>
+      <c r="E123" s="2" t="inlineStr">
+        <is>
+          <t>EFFICACY AND SAFETY RESULTS OF GUSELKUMAB IN PATIENTS WITH ACTIVE PSORIATIC ARTHRITIS OVER 56 WEEKSTILDRAKIZUMAB EFFICACY OVER TIME BY WEEK 28 RESPONSE LEVELS IN TWO PHASE 3 CLINICAL TRIALS IN PATIENTS WITH CHRONIC PLAQUE PSORIASISPOTENTIAL DISCONNECT: CO­MANAGEMENT OF PATIENTS WITH PSORIATIC ARTHRITIS BETWEEN THE USE OF TUMOR NECROSIS FACTOR INHIBITORS (TNF) IN THE SECOND­LINE BIOLOGIC/SMALL MOLECULE SETTING: A CROSS­SPECIALTY COMPARISONIMPACT OF GUSELKUMAB VERSUS PLACEBO AND ADALIMUMAB ON PATIENT REPORTED OUTCOMES IN PATIENTS WITH AND WITHOUT PSORIATIC ARTHRITIS IN VOYAGE 2</t>
+        </is>
+      </c>
+      <c r="F123" s="2" t="inlineStr">
+        <is>
+          <t>Introduction/Objective:To	evaluate	the	efficacy,	safety	&amp;	tolerability of guselkumab (GUS) in patients (pts) w/ PsA.Methods: In this double-blind, PBO-controlled study, pts w/active PsA	&amp;	≥3%	BSA	of	PsO	despite	treatment	were	randomized	2:1	to SC GUS 100mg or PBO at wks0, 4, &amp; q8w thereafter through wk44. At  wk16,  pts  w/ &lt; 5%  improvement  from  baseline  (BL) in swollen &amp; tender joint counts were eligible for early escape (EE) to open-label ustekinumab. At wk24, PBO pts crossed-over to GUS 100mg (PBO to GUS). The primary endpoint was ACR 20 at wk24. Major secondary endpoints were PASI 75 &amp; ACR 50 responses, change from BL in HAQ-DI, &amp; improvement in enthesitis  (Leeds  enthesitis  index  [LEI])  &amp;  dactylitis  score  (by a  0–3  scoring  system)  at  wk24;  &amp; ACR  20  response  at  wk16. Through	wk24,	efficacy	analyses	were	performed	in	a	modified	Intent-to-Treat (mITT) population. Pts who met treatment failure criteria, EE or had missing data at wk24 were considered nonresponders	for	ACR/MDA	endpoints	at	wk24.	Efficacy	post	wk24	was evaluated in pts who did not EE &amp; continued treatment at wk24 based on observed data.Results: Of 149 pts (PBO:49, GUS:100), BL demographics &amp; ACR component measures were generally similar between the 2 groups. 4	PBO	&amp;	9	GUS	pts	were	previously	exposed	to	anti-TNFα	agents.	At	wk24,	significantly	more	GUS	pts	achieved	ACR	20	(58.0%	vs	18.4%, p &lt; 0.001), PASI 75 (78.6% vs 12.5%, p &lt; 0.001), &amp; ACR 50 (34.0% vs 10.2%, p = 0.002) responses vs PBO. At wk24, mean decrease in HAQ-DI score from BL (-0.42 vs. -0.06, p &lt; 0.001), &amp; median percent improvement in enthesitis (100% vs 33.33%, p = 0.009) &amp; dactylitis (100% vs 33.33%, p &lt; 0.001) scores (among pts	w/	BL	enthesitis	and	dactylitis)	were	significantly	greater	in	GUS	group	vs.	PBO.	Significantly	more	GUS	pts	achieved	ACR	20 at wk16 (60.0% vs 16.3%, p &lt; 0.001) and MDA at wk24 (23.0% vs. 2.0%, p = 0.001)	vs.	PBO.	Post	wk24,	efficacy	improved	in	PBO to GUS crossover pts as expected and were well-maintained in GUS pts through wk56.Through wk24, the frequencies of AEs &amp; infections were comparable (AEs: PBO 32.7%; GUS 36.0%; infections: PBO: 20.4%; GUS: 16.0%). Post wk24, there was no disproportional increase in AE frequency or infections among GUS pts w/ longer exposure. Through wk56, there was 1 malignancy (basal cell carcinoma), 6 SAEs (myocardial infarction, osteoarthritis, pupils unequal, radius fracture, pneumonia, ulcerative keratitis), 2 pts discontinued treatment due to AEs, 1 grade 3 neutropenia, &amp; 6 pts were positive for antibodies to GUS. No deaths occurred through wk56.Conclusions: GUS	demonstrated	significant	improvement	on	joint	symptoms, physical function, PsO, enthesitis, dactylitis &amp; quality of	life;	efficacy	was	well-maintained	through	wk56.	GUS	was	well	tolerated in this population after ~1 year of exposure.Data has been previously presented at EULAR 2017 &amp; ACR 2017P12049Introduction: Tildrakizumab	(TIL),	a	humanized,	IgG1/κ	monoclonal	antibody	for	IL-23p19,	recently	demonstrated	its	efficacy	in subjects with chronic plaque psoriasis in two, phase 3 clinical studies1.Objective:In	this	analysis,	we	examined	efficacy	from	baseline	to week 52 among TIL patients achieving various Psoriasis Area and Severity Index (PASI) responses at week 28.Methods:  ReSURFACE  1  (NCT01722331)  and  reSURFACE  2 (NCT01729754) were double-blind, randomized controlled studies in subjects with moderate-to-severe chronic plaque psoriasis. Part 1  (0–12  weeks)  was  placebo  controlled;  Part  2  (12–28  weeks) re-randomized  placebo  patients  to  TIL;  Part  3  (28–64  weeks, reSURFACE 1; 28–52 weeks, reSURFACE 2) re-randomized patients	with	≥PASI	50	to	continue	or	increase	TIL	dose	or	to	placebo	based on their PASI response at week 28. In this post-hoc pooled analysis, patients consistently on TIL 100 mg and 200 mg from baseline	to	week	52	were	classified	in	5	mutually	exclusive	groups	based on their week-28 PASI response: PASI  &lt; 50, PASI 50–74, PASI 75–89, PASI 90–99, and PASI 100. Baseline characteristics and % PASI improvement from baseline up to week 52 (observed data) were examined for each group.Results: This analysis included 575 (TIL 100 mg) and 581 (TIL 200 mg) patients; the proportions of patients with week-28 PASI 75/90/100  responses  were  77%/54%/23%  (TIL  100  mg)  and 78%/58%/29%  (TIL  200  mg). At  week  28,  133  (23.1%),  175 (30.4%), 137 (23.8%), 82 (14.3%), and 48 (8.3%) TIL 100 mg patients and 170 (29.3%), 169 (29.1%), 114 (19.6%), 105 (18.1%), and 23 (4.0%) TIL 200mg achieved PASI 100, PASI 90–99, PASI 75–89,  PASI  50–74,  and  PASI   &lt; 50,  respectively.  On  average, PASI 100 patients were younger, lighter, and had shorter disease duration at baseline compared to other response groups. For TIL 100 mg, % PASI improvement was highest for PASI 100 and least for PASI &lt; 50 patients on all visits up to week 28 (week 4: 53%, 46%, 38%, 30%, and 16%; week 28: 100%, 95%, 83%, 64%, and 33% for PASI 100, PASI 90–99, PASI 75–89, PASI 50–74, and PASI   &lt; 50 categories, respectively). Among patients achieving PASI  &gt; 50 at week 28 and continued up to 52 weeks, % PASI improvement maintained or improved from week 28 to week 52. Similar results were observed for TIL 200 mg as well as a subgroup analysis with bio-naive and bio-experienced patients respectively.Conclusions: The majority of TIL 100 and 200 mg patients achieved PASI &gt; 50 response at week 28, and PASI improvement was maintained from week 28 to week 52. Among patients achieving PASI  &gt; 90 at week 28, TIL 100 and 200 mg were associated with a rapid PASI improvement by week 4.1. Reich K, Papp KA, Blauvelt A, et al. Tildrakizumab versus placebo or  etanercept  for  chronic  plaque  psoriasis  (reSURFACE  1  and  reSURFACE 2): results from two randomised controlled, phase 3 trials. Lancet. 2017;390(10091):276-288.This abstract was presented at 2018 Annual Meeting of American Academy of Dermatology.Note: This abstract was presented at 2018 Annual Meeting of American Academy of Dermatology. P122RHEUMATOLOGISTS AND DERMATOLOGISTSIntroduction: On average, the majority of psoriasis (PSO) patients are diagnosed a year prior to a psoriatic arthritis (PsA) diagnosis, making the referral patterns and co-management between derma50tologists and rheumatologists an important aspect to understanding the management of these diseases. Dermatologists represent an important referral-base for rheumatologists, accounting for over one-quarter of all new PsA patients. However, there are discrepancies between the specialists regarding the timing in which these referrals take place.Objectives: One objective of the study was to gain further insight into rheumatologist and dermatologist co-management of patients with PsA.Methods: An	independent	market	analytics	firm	collaborated	with	US rheumatologists (n = 101) and US dermatologists (n = 101) to conduct analysis of both the PsA and PSO markets. Data were collected	 via	 an	 online	 survey	 fielded	 in	 November/December	2017  and  included  patient  demographics,  as  well  as  physician demographics, and attitudinal survey responses.Results: Rheumatologists indicate that 51 percent of referrals result from primary care physicians, 28 percent result from a dermatologist,  and  13  percent  are  self-referred. The  majority  (73%)  of PsA patients under the care of collaborating rheumatologists had previously been diagnosed with PSO prior to PsA. Dermatologists state that one-quarter of their patients with severe PSO also have PsA, with more than one-third of severe PSO patients also being co-managed with a rheumatologist. The majority of rheumatologists	believe	that	dermatologists	refer	patients	at	the	first	sign	of	joint involvement and do not attempt to treat joint pain; however, 31 percent of dermatologists report they do not refer PSO patients to rheumatologists until patients have failed biologics or are not improving on their current systemic regimen, while an additional 35  percent  report  they  refer  only  severe  arthritis/patients  with worsening disease. Furthermore, only 35 percent of dermatologists agree that they refer their PSO patients to a rheumatologists at the first	sign	of	joint	involvement. At the time of dermatologist referral, rheumatologists state that two-thirds	of	referred	patients	are	biologic/apremilast	naïve,	with	only 6 percent having controlled PSO and joint pain. However, dermatologists state that 40 percent the patients that they referred to rheumatologists were treated with biologics and 15 percent of said  referred  patients  were  treated  with  apremilast.  Indeed,  76 percent of dermatologists agree with the statement, “I believe that the disease (PsA),” while 57 percent of dermatologists agree “I Conclusion: With many patients diagnosed with both PSO and PsA,  co-management  between  dermatologists  and  rheumatologists is common. While rheumatologists appear to be under the impression that they are receiving the majority of dermatologisttreated	patients	with	PsA	at	the	first	sign	of	joint	involvement,	dermatologists largely report that they are managing and treating PsA patients. Furthermore, most dermatologists believe early aggressive use of biologic treatments will mitigate the development and/or progression of joint involvement, implying their willingness to manage their patients with PsA, particularly at early stages. P123TNF  therapy  has  been  the  standard  of  care  for  adult  patients diagnosed with autoimmune conditions, resulting in familiarity, comfort, and satisfaction among physicians. TNFs are typically used	 as	 a	 first-line	 biologic/small	 molecule	 in	 the	 treatment	 of	psoriasis (PSO) and psoriatic arthritis (PsA). However, the adoption of agents with alternate mechanisms of action (AMOA) has increased in recent years across indications and the practice of sequential TNF prescribing after an initial TNF is less common. Though	TNFs	are	still	the	preferred	first-line	agent,	there	are	discrepancies between specialists on the use of AMOA agents in the second-line setting. This research sought to understand the extent to which AMOA agents are prescribed after an initial TNF, and how this varies across PSO and PsA.An	independent	market	analytics	firm	collaborated	with	US	dermatologists (n = 201) and US rheumatologists (n = 200) to conduct a retrospective chart review of patients diagnosed with PSO (n = 950) and PsA (n = 1,008) who had switched from one biologic/apremilast to another agent in the prior 12 weeks. Physicians were able to submit up to 7 patient charts. PSO data was collected in September 2017 and PsA data was collected in April 2017.Analysis  of  patients  recently  switched  from  one  biologic/apremilast to a different brand revealed the majority of patients were treated	with	a	TNF	in	the	first-line	biologic/small	molecule	setting, though this varies by indication. Rheumatologists prescribe first-line	 TNFs	 significantly	 more	 than	 dermatologists.	 83%	 of	PsA	patients	are	prescribed	TNFs	first-line	compared	to	just	69%	of	PSO	patients.	Furthermore,	rheumatologists	are	significantly	more  likely  to  practice  TNF-sequencing  than  dermatologists. Indeed,	44%	of	PsA	patients	treated	with	a	first-line	TNF	were	prescribed a second TNF, compared to 6% of PSO patients. Additionally, certain TNF brands have experienced recent declines in	first	line	use,	though	this	varies	by	indication	as	well.	For	rheumatologists,	use	of	first-line	etanercept	has	declined,	38%	of	PsA	patients were initiated on etanercept at least 24 months prior to the study, compared to just 28% initiated on etanercept within 12 months	of	the	study.	For	dermatologists,	there	were	significantly	more	PSO	patients	initiated	on	etanercept	in	the	first-line	setting	24 months or more prior to the study compared to those initiated within 12 months of the study, (45% vs 31%.) This pattern also held	true	for	adalimumab,	where	42%	of	first-line	PSO	patients	initiated more than 24 months prior to the study were prescribed adalimumab,	a	figure	that	drops	to	just	27%	for	patients	initiated	within 12 months.Though	the	position	of	TNFs	as	first-line	agents	remains	dominant,	the	treating	specialist	and	indication	influence	how	widespread	and	continuous	TNF	use	is.	Specifically,	dermatologists	are	less	likely	to	prescribe	TNFs	as	first-line	agents	and	are	also	significantly	less	likely	to	partake	in	the	sequencing	of	TNFs	in	the	first-	and	second-line  setting  than  rheumatologists.  The  introduction  of several agents in PSO reporting substantially higher rates of skin clearance compared to TNFs could potentially be the source of increased  switching  to AMOAs  compared  to  other  specialties; whereas	 superior	 efficacy	 of	AMOA	 agents	 over	TNFs	 in	 PsA	may be less apparent. P124Introduction/Objective:VOYAGE  2  is  a  phase  3  double-blind, placebo/active comparator-controlled trial comparing guselkumab (GUS) with placebo (PBO) and adalimumab (ADA) in patients (pts) with moderate-to-severe PsO. The impact of treatment on patient-reported outcomes (PROs) was evaluated.Methods: Pts were randomized to GUS 100mg (wks 0 &amp; 4, then q8wks), ADA (80 mg wk 0, 40 mg wk 1, then 40 mg q2 wks), or PBO (wks 0, 4, &amp; 12, then GUS 100 mg wks 16 &amp; 20). We evaluated PROs using the Work Limitations Questionnaire [WLQ; work  productivity],  the  Hospital Anxiety  &amp;  Depression  Scale [HADS], and the Medical Outcomes Study 36-Item Short Form (SF-36; health related quality of life) at wk16 (GUS vs PBO) and wk24 (GUS vs ADA) in pts with and without PsA.Results: In all, 18% of pts reported a history of PsA. At wk16, GUS pts had numerically greater improvements vs PBO in work productivity,  anxiety  and  depression,  and  SF-36  PCS  &amp;  MCS scores regardless of PsA status. The least square (LS) mean differences (95% CI; adjusted for baseline value) for GUS vs PBO for all PROs were generally similar between pts with and without PsA. At wk24, GUS pts had numerically greater improvements vs ADA in all PROs regardless of PsA status. The LS mean differences for GUS vs ADA were generally greater for pts with PsA vs pts without PsA (Table).Conclusions: GUS showed better improvements in all PROs vs PBO at wk16 and vs ADA at wk24. Improvements vs PBO were similar  regardless  of  PsA  status,  while  improvements  vs ADA were greater for pts with PsA.Table: Summary of Change from Baseline in WLQ, HADS and SF-36 Scores from VOYAGE 20.13260.2913p-value0.0249WLQ Time ManagementWLQ MentalInterpersonalWLQ Physical Demandsw/out PSAN, LSMean Diff (95% CI)446, -7.7(-10.56, -4.88)419, -7.0(-10.31, -3.79)439, -4.9(-7.54, -2.35)440, -3.5(-6.11, -0.88)608, -1.6(-2.05, -1.07)608, -1.5 (-1.96, -0.98)Week 16 GUS vs PBOw/ PSAN, LSMean Diff (95% CI)86, -7.1(-13.21, -0.92)85, -6.6(-15.35, 2.06)83, -3.8(-11.03, 3.35)84, -7.9(-14.51, -1.21)135, -1.2(-2.45, 0.04)135, -1.2(-2.55, 0.06)135, 5.7(2.94, 8.43)135, 4.5(1.61, 7.48)N is the sample size across two groups.(3.31, 5.39)607, 4.8 (3.53, 6.15)SF-36 Physical ScoreSF-36 Mental ScoreWLQ Ouput DemandsDepression ScoreAnxiety Score&lt; 0.0001 607, 4.4 0.00260.05840.02110.0611Week 24 GUS vs ADAw/ PSAN, LSMean Diff (95% CI)w/out PSAN, LSMean Diff p(95% CI)value0.7152 445, -2.6pvalue0.0769p-value&lt; 0.0001 79, -1.6 (-10.58, 7.29)0.0002&lt; 0.0001 79, -4.3 (-14.40, 5.81)78, -11.4 (-19.37, -3.34)79, -14.7 (-24.29, -5.17)0.0089&lt; 0.0001 133, -2.1 0.3996 420, -0.60.69310.0061 436, -1.50.25690.0030 437, -1.20.41360.0012 608, -0.80.0025&lt; 0.0001 133, -1.5 0.0374 608, -0.40.1158&lt; 0.0001 132, 2.9&lt; 0.0001 132, 3.2 0.0346 608, 1.0(-0.10, 2.04)0.0591 608, 1.80.07530.0092(-3.33, -0.83)(-2.85, -0.09)(0.21, 5.57)(-0.12, 6.53)(-5.39, 0.28)(-3.46, 2.30)(-4.16, 1.11)(-3.94, 1.62)(-1.29, -0.28)(-0.91, 0.10)(0.45, 3.15)</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="inlineStr">
+        <is>
+          <t>Yin You</t>
+        </is>
+      </c>
+      <c r="B124" s="2" t="inlineStr">
+        <is>
+          <t>Division of Dermatology and Venereology, Geneva University Hospital, and Department of Pathology and Immunology, University of Geneva, Ge-neva, Switzerland, Department of Dermatology, New York Medical Col-lege at Metropolitan Hospital, New York, NY, Oregon Health &amp; Science University, Portland, OR, Janssen Research &amp; Development, LLC, Spring House, PA, Janssen Research &amp; Development, LLC, San Diego, CA, USAOregon Medical Research Center, Portland, OR, Department of Medicine (Dermatology) UCLA, Los Angeles, CA, USA, Probity Medical Research, Waterloo, ON, Skin Centre for Dermatology, Peterborough, ON, Canada, Sun Pharmaceuticals, Princeton, NJ, Merck &amp; Co., Inc., Kenilworth, NJ, USA, SCIderm Research Institute and Dermatologikum Hamburg, Ham-burg, GermanySpherix Global InsightsSpherix Global InsightsHospital de la Santa Creu i Sant Pau and Universitat Autònoma de Bar-celona Medical School, Barcelona, Spain, Janssen Research &amp; Develop-ment, LLC, Spring House, PA, USA, McMaster University, Hamilton, ON, Canada, University of Melbourne, St. Vincent’s Hospital, Melbourne and Skin &amp; Cancer Foundation Inc., Carlton</t>
+        </is>
+      </c>
+      <c r="C124" s="2" t="inlineStr">
+        <is>
+          <t>Victoria, Australia</t>
+        </is>
+      </c>
+      <c r="D124" s="2" t="inlineStr">
+        <is>
+          <t>P119</t>
+        </is>
+      </c>
+      <c r="E124" s="2" t="inlineStr">
+        <is>
+          <t>EFFICACY AND SAFETY RESULTS OF GUSELKUMAB IN PATIENTS WITH ACTIVE PSORIATIC ARTHRITIS OVER 56 WEEKSTILDRAKIZUMAB EFFICACY OVER TIME BY WEEK 28 RESPONSE LEVELS IN TWO PHASE 3 CLINICAL TRIALS IN PATIENTS WITH CHRONIC PLAQUE PSORIASISPOTENTIAL DISCONNECT: CO­MANAGEMENT OF PATIENTS WITH PSORIATIC ARTHRITIS BETWEEN THE USE OF TUMOR NECROSIS FACTOR INHIBITORS (TNF) IN THE SECOND­LINE BIOLOGIC/SMALL MOLECULE SETTING: A CROSS­SPECIALTY COMPARISONIMPACT OF GUSELKUMAB VERSUS PLACEBO AND ADALIMUMAB ON PATIENT REPORTED OUTCOMES IN PATIENTS WITH AND WITHOUT PSORIATIC ARTHRITIS IN VOYAGE 2</t>
+        </is>
+      </c>
+      <c r="F124" s="2" t="inlineStr">
+        <is>
+          <t>Introduction/Objective:To	evaluate	the	efficacy,	safety	&amp;	tolerability of guselkumab (GUS) in patients (pts) w/ PsA.Methods: In this double-blind, PBO-controlled study, pts w/active PsA	&amp;	≥3%	BSA	of	PsO	despite	treatment	were	randomized	2:1	to SC GUS 100mg or PBO at wks0, 4, &amp; q8w thereafter through wk44. At  wk16,  pts  w/ &lt; 5%  improvement  from  baseline  (BL) in swollen &amp; tender joint counts were eligible for early escape (EE) to open-label ustekinumab. At wk24, PBO pts crossed-over to GUS 100mg (PBO to GUS). The primary endpoint was ACR 20 at wk24. Major secondary endpoints were PASI 75 &amp; ACR 50 responses, change from BL in HAQ-DI, &amp; improvement in enthesitis  (Leeds  enthesitis  index  [LEI])  &amp;  dactylitis  score  (by a  0–3  scoring  system)  at  wk24;  &amp; ACR  20  response  at  wk16. Through	wk24,	efficacy	analyses	were	performed	in	a	modified	Intent-to-Treat (mITT) population. Pts who met treatment failure criteria, EE or had missing data at wk24 were considered nonresponders	for	ACR/MDA	endpoints	at	wk24.	Efficacy	post	wk24	was evaluated in pts who did not EE &amp; continued treatment at wk24 based on observed data.Results: Of 149 pts (PBO:49, GUS:100), BL demographics &amp; ACR component measures were generally similar between the 2 groups. 4	PBO	&amp;	9	GUS	pts	were	previously	exposed	to	anti-TNFα	agents.	At	wk24,	significantly	more	GUS	pts	achieved	ACR	20	(58.0%	vs	18.4%, p &lt; 0.001), PASI 75 (78.6% vs 12.5%, p &lt; 0.001), &amp; ACR 50 (34.0% vs 10.2%, p = 0.002) responses vs PBO. At wk24, mean decrease in HAQ-DI score from BL (-0.42 vs. -0.06, p &lt; 0.001), &amp; median percent improvement in enthesitis (100% vs 33.33%, p = 0.009) &amp; dactylitis (100% vs 33.33%, p &lt; 0.001) scores (among pts	w/	BL	enthesitis	and	dactylitis)	were	significantly	greater	in	GUS	group	vs.	PBO.	Significantly	more	GUS	pts	achieved	ACR	20 at wk16 (60.0% vs 16.3%, p &lt; 0.001) and MDA at wk24 (23.0% vs. 2.0%, p = 0.001)	vs.	PBO.	Post	wk24,	efficacy	improved	in	PBO to GUS crossover pts as expected and were well-maintained in GUS pts through wk56.Through wk24, the frequencies of AEs &amp; infections were comparable (AEs: PBO 32.7%; GUS 36.0%; infections: PBO: 20.4%; GUS: 16.0%). Post wk24, there was no disproportional increase in AE frequency or infections among GUS pts w/ longer exposure. Through wk56, there was 1 malignancy (basal cell carcinoma), 6 SAEs (myocardial infarction, osteoarthritis, pupils unequal, radius fracture, pneumonia, ulcerative keratitis), 2 pts discontinued treatment due to AEs, 1 grade 3 neutropenia, &amp; 6 pts were positive for antibodies to GUS. No deaths occurred through wk56.Conclusions: GUS	demonstrated	significant	improvement	on	joint	symptoms, physical function, PsO, enthesitis, dactylitis &amp; quality of	life;	efficacy	was	well-maintained	through	wk56.	GUS	was	well	tolerated in this population after ~1 year of exposure.Data has been previously presented at EULAR 2017 &amp; ACR 2017P12049Introduction: Tildrakizumab	(TIL),	a	humanized,	IgG1/κ	monoclonal	antibody	for	IL-23p19,	recently	demonstrated	its	efficacy	in subjects with chronic plaque psoriasis in two, phase 3 clinical studies1.Objective:In	this	analysis,	we	examined	efficacy	from	baseline	to week 52 among TIL patients achieving various Psoriasis Area and Severity Index (PASI) responses at week 28.Methods:  ReSURFACE  1  (NCT01722331)  and  reSURFACE  2 (NCT01729754) were double-blind, randomized controlled studies in subjects with moderate-to-severe chronic plaque psoriasis. Part 1  (0–12  weeks)  was  placebo  controlled;  Part  2  (12–28  weeks) re-randomized  placebo  patients  to  TIL;  Part  3  (28–64  weeks, reSURFACE 1; 28–52 weeks, reSURFACE 2) re-randomized patients	with	≥PASI	50	to	continue	or	increase	TIL	dose	or	to	placebo	based on their PASI response at week 28. In this post-hoc pooled analysis, patients consistently on TIL 100 mg and 200 mg from baseline	to	week	52	were	classified	in	5	mutually	exclusive	groups	based on their week-28 PASI response: PASI  &lt; 50, PASI 50–74, PASI 75–89, PASI 90–99, and PASI 100. Baseline characteristics and % PASI improvement from baseline up to week 52 (observed data) were examined for each group.Results: This analysis included 575 (TIL 100 mg) and 581 (TIL 200 mg) patients; the proportions of patients with week-28 PASI 75/90/100  responses  were  77%/54%/23%  (TIL  100  mg)  and 78%/58%/29%  (TIL  200  mg). At  week  28,  133  (23.1%),  175 (30.4%), 137 (23.8%), 82 (14.3%), and 48 (8.3%) TIL 100 mg patients and 170 (29.3%), 169 (29.1%), 114 (19.6%), 105 (18.1%), and 23 (4.0%) TIL 200mg achieved PASI 100, PASI 90–99, PASI 75–89,  PASI  50–74,  and  PASI   &lt; 50,  respectively.  On  average, PASI 100 patients were younger, lighter, and had shorter disease duration at baseline compared to other response groups. For TIL 100 mg, % PASI improvement was highest for PASI 100 and least for PASI &lt; 50 patients on all visits up to week 28 (week 4: 53%, 46%, 38%, 30%, and 16%; week 28: 100%, 95%, 83%, 64%, and 33% for PASI 100, PASI 90–99, PASI 75–89, PASI 50–74, and PASI   &lt; 50 categories, respectively). Among patients achieving PASI  &gt; 50 at week 28 and continued up to 52 weeks, % PASI improvement maintained or improved from week 28 to week 52. Similar results were observed for TIL 200 mg as well as a subgroup analysis with bio-naive and bio-experienced patients respectively.Conclusions: The majority of TIL 100 and 200 mg patients achieved PASI &gt; 50 response at week 28, and PASI improvement was maintained from week 28 to week 52. Among patients achieving PASI  &gt; 90 at week 28, TIL 100 and 200 mg were associated with a rapid PASI improvement by week 4.1. Reich K, Papp KA, Blauvelt A, et al. Tildrakizumab versus placebo or  etanercept  for  chronic  plaque  psoriasis  (reSURFACE  1  and  reSURFACE 2): results from two randomised controlled, phase 3 trials. Lancet. 2017;390(10091):276-288.This abstract was presented at 2018 Annual Meeting of American Academy of Dermatology.Note: This abstract was presented at 2018 Annual Meeting of American Academy of Dermatology. P122RHEUMATOLOGISTS AND DERMATOLOGISTSIntroduction: On average, the majority of psoriasis (PSO) patients are diagnosed a year prior to a psoriatic arthritis (PsA) diagnosis, making the referral patterns and co-management between derma50tologists and rheumatologists an important aspect to understanding the management of these diseases. Dermatologists represent an important referral-base for rheumatologists, accounting for over one-quarter of all new PsA patients. However, there are discrepancies between the specialists regarding the timing in which these referrals take place.Objectives: One objective of the study was to gain further insight into rheumatologist and dermatologist co-management of patients with PsA.Methods: An	independent	market	analytics	firm	collaborated	with	US rheumatologists (n = 101) and US dermatologists (n = 101) to conduct analysis of both the PsA and PSO markets. Data were collected	 via	 an	 online	 survey	 fielded	 in	 November/December	2017  and  included  patient  demographics,  as  well  as  physician demographics, and attitudinal survey responses.Results: Rheumatologists indicate that 51 percent of referrals result from primary care physicians, 28 percent result from a dermatologist,  and  13  percent  are  self-referred. The  majority  (73%)  of PsA patients under the care of collaborating rheumatologists had previously been diagnosed with PSO prior to PsA. Dermatologists state that one-quarter of their patients with severe PSO also have PsA, with more than one-third of severe PSO patients also being co-managed with a rheumatologist. The majority of rheumatologists	believe	that	dermatologists	refer	patients	at	the	first	sign	of	joint involvement and do not attempt to treat joint pain; however, 31 percent of dermatologists report they do not refer PSO patients to rheumatologists until patients have failed biologics or are not improving on their current systemic regimen, while an additional 35  percent  report  they  refer  only  severe  arthritis/patients  with worsening disease. Furthermore, only 35 percent of dermatologists agree that they refer their PSO patients to a rheumatologists at the first	sign	of	joint	involvement. At the time of dermatologist referral, rheumatologists state that two-thirds	of	referred	patients	are	biologic/apremilast	naïve,	with	only 6 percent having controlled PSO and joint pain. However, dermatologists state that 40 percent the patients that they referred to rheumatologists were treated with biologics and 15 percent of said  referred  patients  were  treated  with  apremilast.  Indeed,  76 percent of dermatologists agree with the statement, “I believe that the disease (PsA),” while 57 percent of dermatologists agree “I Conclusion: With many patients diagnosed with both PSO and PsA,  co-management  between  dermatologists  and  rheumatologists is common. While rheumatologists appear to be under the impression that they are receiving the majority of dermatologisttreated	patients	with	PsA	at	the	first	sign	of	joint	involvement,	dermatologists largely report that they are managing and treating PsA patients. Furthermore, most dermatologists believe early aggressive use of biologic treatments will mitigate the development and/or progression of joint involvement, implying their willingness to manage their patients with PsA, particularly at early stages. P123TNF  therapy  has  been  the  standard  of  care  for  adult  patients diagnosed with autoimmune conditions, resulting in familiarity, comfort, and satisfaction among physicians. TNFs are typically used	 as	 a	 first-line	 biologic/small	 molecule	 in	 the	 treatment	 of	psoriasis (PSO) and psoriatic arthritis (PsA). However, the adoption of agents with alternate mechanisms of action (AMOA) has increased in recent years across indications and the practice of sequential TNF prescribing after an initial TNF is less common. Though	TNFs	are	still	the	preferred	first-line	agent,	there	are	discrepancies between specialists on the use of AMOA agents in the second-line setting. This research sought to understand the extent to which AMOA agents are prescribed after an initial TNF, and how this varies across PSO and PsA.An	independent	market	analytics	firm	collaborated	with	US	dermatologists (n = 201) and US rheumatologists (n = 200) to conduct a retrospective chart review of patients diagnosed with PSO (n = 950) and PsA (n = 1,008) who had switched from one biologic/apremilast to another agent in the prior 12 weeks. Physicians were able to submit up to 7 patient charts. PSO data was collected in September 2017 and PsA data was collected in April 2017.Analysis  of  patients  recently  switched  from  one  biologic/apremilast to a different brand revealed the majority of patients were treated	with	a	TNF	in	the	first-line	biologic/small	molecule	setting, though this varies by indication. Rheumatologists prescribe first-line	 TNFs	 significantly	 more	 than	 dermatologists.	 83%	 of	PsA	patients	are	prescribed	TNFs	first-line	compared	to	just	69%	of	PSO	patients.	Furthermore,	rheumatologists	are	significantly	more  likely  to  practice  TNF-sequencing  than  dermatologists. Indeed,	44%	of	PsA	patients	treated	with	a	first-line	TNF	were	prescribed a second TNF, compared to 6% of PSO patients. Additionally, certain TNF brands have experienced recent declines in	first	line	use,	though	this	varies	by	indication	as	well.	For	rheumatologists,	use	of	first-line	etanercept	has	declined,	38%	of	PsA	patients were initiated on etanercept at least 24 months prior to the study, compared to just 28% initiated on etanercept within 12 months	of	the	study.	For	dermatologists,	there	were	significantly	more	PSO	patients	initiated	on	etanercept	in	the	first-line	setting	24 months or more prior to the study compared to those initiated within 12 months of the study, (45% vs 31%.) This pattern also held	true	for	adalimumab,	where	42%	of	first-line	PSO	patients	initiated more than 24 months prior to the study were prescribed adalimumab,	a	figure	that	drops	to	just	27%	for	patients	initiated	within 12 months.Though	the	position	of	TNFs	as	first-line	agents	remains	dominant,	the	treating	specialist	and	indication	influence	how	widespread	and	continuous	TNF	use	is.	Specifically,	dermatologists	are	less	likely	to	prescribe	TNFs	as	first-line	agents	and	are	also	significantly	less	likely	to	partake	in	the	sequencing	of	TNFs	in	the	first-	and	second-line  setting  than  rheumatologists.  The  introduction  of several agents in PSO reporting substantially higher rates of skin clearance compared to TNFs could potentially be the source of increased  switching  to AMOAs  compared  to  other  specialties; whereas	 superior	 efficacy	 of	AMOA	 agents	 over	TNFs	 in	 PsA	may be less apparent. P124Introduction/Objective:VOYAGE  2  is  a  phase  3  double-blind, placebo/active comparator-controlled trial comparing guselkumab (GUS) with placebo (PBO) and adalimumab (ADA) in patients (pts) with moderate-to-severe PsO. The impact of treatment on patient-reported outcomes (PROs) was evaluated.Methods: Pts were randomized to GUS 100mg (wks 0 &amp; 4, then q8wks), ADA (80 mg wk 0, 40 mg wk 1, then 40 mg q2 wks), or PBO (wks 0, 4, &amp; 12, then GUS 100 mg wks 16 &amp; 20). We evaluated PROs using the Work Limitations Questionnaire [WLQ; work  productivity],  the  Hospital Anxiety  &amp;  Depression  Scale [HADS], and the Medical Outcomes Study 36-Item Short Form (SF-36; health related quality of life) at wk16 (GUS vs PBO) and wk24 (GUS vs ADA) in pts with and without PsA.Results: In all, 18% of pts reported a history of PsA. At wk16, GUS pts had numerically greater improvements vs PBO in work productivity,  anxiety  and  depression,  and  SF-36  PCS  &amp;  MCS scores regardless of PsA status. The least square (LS) mean differences (95% CI; adjusted for baseline value) for GUS vs PBO for all PROs were generally similar between pts with and without PsA. At wk24, GUS pts had numerically greater improvements vs ADA in all PROs regardless of PsA status. The LS mean differences for GUS vs ADA were generally greater for pts with PsA vs pts without PsA (Table).Conclusions: GUS showed better improvements in all PROs vs PBO at wk16 and vs ADA at wk24. Improvements vs PBO were similar  regardless  of  PsA  status,  while  improvements  vs ADA were greater for pts with PsA.Table: Summary of Change from Baseline in WLQ, HADS and SF-36 Scores from VOYAGE 20.13260.2913p-value0.0249WLQ Time ManagementWLQ MentalInterpersonalWLQ Physical Demandsw/out PSAN, LSMean Diff (95% CI)446, -7.7(-10.56, -4.88)419, -7.0(-10.31, -3.79)439, -4.9(-7.54, -2.35)440, -3.5(-6.11, -0.88)608, -1.6(-2.05, -1.07)608, -1.5 (-1.96, -0.98)Week 16 GUS vs PBOw/ PSAN, LSMean Diff (95% CI)86, -7.1(-13.21, -0.92)85, -6.6(-15.35, 2.06)83, -3.8(-11.03, 3.35)84, -7.9(-14.51, -1.21)135, -1.2(-2.45, 0.04)135, -1.2(-2.55, 0.06)135, 5.7(2.94, 8.43)135, 4.5(1.61, 7.48)N is the sample size across two groups.(3.31, 5.39)607, 4.8 (3.53, 6.15)SF-36 Physical ScoreSF-36 Mental ScoreWLQ Ouput DemandsDepression ScoreAnxiety Score&lt; 0.0001 607, 4.4 0.00260.05840.02110.0611Week 24 GUS vs ADAw/ PSAN, LSMean Diff (95% CI)w/out PSAN, LSMean Diff p(95% CI)value0.7152 445, -2.6pvalue0.0769p-value&lt; 0.0001 79, -1.6 (-10.58, 7.29)0.0002&lt; 0.0001 79, -4.3 (-14.40, 5.81)78, -11.4 (-19.37, -3.34)79, -14.7 (-24.29, -5.17)0.0089&lt; 0.0001 133, -2.1 0.3996 420, -0.60.69310.0061 436, -1.50.25690.0030 437, -1.20.41360.0012 608, -0.80.0025&lt; 0.0001 133, -1.5 0.0374 608, -0.40.1158&lt; 0.0001 132, 2.9&lt; 0.0001 132, 3.2 0.0346 608, 1.0(-0.10, 2.04)0.0591 608, 1.80.07530.0092(-3.33, -0.83)(-2.85, -0.09)(0.21, 5.57)(-0.12, 6.53)(-5.39, 0.28)(-3.46, 2.30)(-4.16, 1.11)(-3.94, 1.62)(-1.29, -0.28)(-0.91, 0.10)(0.45, 3.15)</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="inlineStr">
+        <is>
+          <t>Yaung-Kaung Shen</t>
+        </is>
+      </c>
+      <c r="B125" s="2" t="inlineStr">
+        <is>
+          <t>Division of Dermatology and Venereology, Geneva University Hospital, and Department of Pathology and Immunology, University of Geneva, Ge-neva, Switzerland, Department of Dermatology, New York Medical Col-lege at Metropolitan Hospital, New York, NY, Oregon Health &amp; Science University, Portland, OR, Janssen Research &amp; Development, LLC, Spring House, PA, Janssen Research &amp; Development, LLC, San Diego, CA, USAOregon Medical Research Center, Portland, OR, Department of Medicine (Dermatology) UCLA, Los Angeles, CA, USA, Probity Medical Research, Waterloo, ON, Skin Centre for Dermatology, Peterborough, ON, Canada, Sun Pharmaceuticals, Princeton, NJ, Merck &amp; Co., Inc., Kenilworth, NJ, USA, SCIderm Research Institute and Dermatologikum Hamburg, Ham-burg, GermanySpherix Global InsightsSpherix Global InsightsHospital de la Santa Creu i Sant Pau and Universitat Autònoma de Bar-celona Medical School, Barcelona, Spain, Janssen Research &amp; Develop-ment, LLC, Spring House, PA, USA, McMaster University, Hamilton, ON, Canada, University of Melbourne, St. Vincent’s Hospital, Melbourne and Skin &amp; Cancer Foundation Inc., Carlton</t>
+        </is>
+      </c>
+      <c r="C125" s="2" t="inlineStr">
+        <is>
+          <t>Victoria, Australia</t>
+        </is>
+      </c>
+      <c r="D125" s="2" t="inlineStr">
+        <is>
+          <t>P119</t>
+        </is>
+      </c>
+      <c r="E125" s="2" t="inlineStr">
+        <is>
+          <t>EFFICACY AND SAFETY RESULTS OF GUSELKUMAB IN PATIENTS WITH ACTIVE PSORIATIC ARTHRITIS OVER 56 WEEKSTILDRAKIZUMAB EFFICACY OVER TIME BY WEEK 28 RESPONSE LEVELS IN TWO PHASE 3 CLINICAL TRIALS IN PATIENTS WITH CHRONIC PLAQUE PSORIASISPOTENTIAL DISCONNECT: CO­MANAGEMENT OF PATIENTS WITH PSORIATIC ARTHRITIS BETWEEN THE USE OF TUMOR NECROSIS FACTOR INHIBITORS (TNF) IN THE SECOND­LINE BIOLOGIC/SMALL MOLECULE SETTING: A CROSS­SPECIALTY COMPARISONIMPACT OF GUSELKUMAB VERSUS PLACEBO AND ADALIMUMAB ON PATIENT REPORTED OUTCOMES IN PATIENTS WITH AND WITHOUT PSORIATIC ARTHRITIS IN VOYAGE 2</t>
+        </is>
+      </c>
+      <c r="F125" s="2" t="inlineStr">
+        <is>
+          <t>Introduction/Objective:To	evaluate	the	efficacy,	safety	&amp;	tolerability of guselkumab (GUS) in patients (pts) w/ PsA.Methods: In this double-blind, PBO-controlled study, pts w/active PsA	&amp;	≥3%	BSA	of	PsO	despite	treatment	were	randomized	2:1	to SC GUS 100mg or PBO at wks0, 4, &amp; q8w thereafter through wk44. At  wk16,  pts  w/ &lt; 5%  improvement  from  baseline  (BL) in swollen &amp; tender joint counts were eligible for early escape (EE) to open-label ustekinumab. At wk24, PBO pts crossed-over to GUS 100mg (PBO to GUS). The primary endpoint was ACR 20 at wk24. Major secondary endpoints were PASI 75 &amp; ACR 50 responses, change from BL in HAQ-DI, &amp; improvement in enthesitis  (Leeds  enthesitis  index  [LEI])  &amp;  dactylitis  score  (by a  0–3  scoring  system)  at  wk24;  &amp; ACR  20  response  at  wk16. Through	wk24,	efficacy	analyses	were	performed	in	a	modified	Intent-to-Treat (mITT) population. Pts who met treatment failure criteria, EE or had missing data at wk24 were considered nonresponders	for	ACR/MDA	endpoints	at	wk24.	Efficacy	post	wk24	was evaluated in pts who did not EE &amp; continued treatment at wk24 based on observed data.Results: Of 149 pts (PBO:49, GUS:100), BL demographics &amp; ACR component measures were generally similar between the 2 groups. 4	PBO	&amp;	9	GUS	pts	were	previously	exposed	to	anti-TNFα	agents.	At	wk24,	significantly	more	GUS	pts	achieved	ACR	20	(58.0%	vs	18.4%, p &lt; 0.001), PASI 75 (78.6% vs 12.5%, p &lt; 0.001), &amp; ACR 50 (34.0% vs 10.2%, p = 0.002) responses vs PBO. At wk24, mean decrease in HAQ-DI score from BL (-0.42 vs. -0.06, p &lt; 0.001), &amp; median percent improvement in enthesitis (100% vs 33.33%, p = 0.009) &amp; dactylitis (100% vs 33.33%, p &lt; 0.001) scores (among pts	w/	BL	enthesitis	and	dactylitis)	were	significantly	greater	in	GUS	group	vs.	PBO.	Significantly	more	GUS	pts	achieved	ACR	20 at wk16 (60.0% vs 16.3%, p &lt; 0.001) and MDA at wk24 (23.0% vs. 2.0%, p = 0.001)	vs.	PBO.	Post	wk24,	efficacy	improved	in	PBO to GUS crossover pts as expected and were well-maintained in GUS pts through wk56.Through wk24, the frequencies of AEs &amp; infections were comparable (AEs: PBO 32.7%; GUS 36.0%; infections: PBO: 20.4%; GUS: 16.0%). Post wk24, there was no disproportional increase in AE frequency or infections among GUS pts w/ longer exposure. Through wk56, there was 1 malignancy (basal cell carcinoma), 6 SAEs (myocardial infarction, osteoarthritis, pupils unequal, radius fracture, pneumonia, ulcerative keratitis), 2 pts discontinued treatment due to AEs, 1 grade 3 neutropenia, &amp; 6 pts were positive for antibodies to GUS. No deaths occurred through wk56.Conclusions: GUS	demonstrated	significant	improvement	on	joint	symptoms, physical function, PsO, enthesitis, dactylitis &amp; quality of	life;	efficacy	was	well-maintained	through	wk56.	GUS	was	well	tolerated in this population after ~1 year of exposure.Data has been previously presented at EULAR 2017 &amp; ACR 2017P12049Introduction: Tildrakizumab	(TIL),	a	humanized,	IgG1/κ	monoclonal	antibody	for	IL-23p19,	recently	demonstrated	its	efficacy	in subjects with chronic plaque psoriasis in two, phase 3 clinical studies1.Objective:In	this	analysis,	we	examined	efficacy	from	baseline	to week 52 among TIL patients achieving various Psoriasis Area and Severity Index (PASI) responses at week 28.Methods:  ReSURFACE  1  (NCT01722331)  and  reSURFACE  2 (NCT01729754) were double-blind, randomized controlled studies in subjects with moderate-to-severe chronic plaque psoriasis. Part 1  (0–12  weeks)  was  placebo  controlled;  Part  2  (12–28  weeks) re-randomized  placebo  patients  to  TIL;  Part  3  (28–64  weeks, reSURFACE 1; 28–52 weeks, reSURFACE 2) re-randomized patients	with	≥PASI	50	to	continue	or	increase	TIL	dose	or	to	placebo	based on their PASI response at week 28. In this post-hoc pooled analysis, patients consistently on TIL 100 mg and 200 mg from baseline	to	week	52	were	classified	in	5	mutually	exclusive	groups	based on their week-28 PASI response: PASI  &lt; 50, PASI 50–74, PASI 75–89, PASI 90–99, and PASI 100. Baseline characteristics and % PASI improvement from baseline up to week 52 (observed data) were examined for each group.Results: This analysis included 575 (TIL 100 mg) and 581 (TIL 200 mg) patients; the proportions of patients with week-28 PASI 75/90/100  responses  were  77%/54%/23%  (TIL  100  mg)  and 78%/58%/29%  (TIL  200  mg). At  week  28,  133  (23.1%),  175 (30.4%), 137 (23.8%), 82 (14.3%), and 48 (8.3%) TIL 100 mg patients and 170 (29.3%), 169 (29.1%), 114 (19.6%), 105 (18.1%), and 23 (4.0%) TIL 200mg achieved PASI 100, PASI 90–99, PASI 75–89,  PASI  50–74,  and  PASI   &lt; 50,  respectively.  On  average, PASI 100 patients were younger, lighter, and had shorter disease duration at baseline compared to other response groups. For TIL 100 mg, % PASI improvement was highest for PASI 100 and least for PASI &lt; 50 patients on all visits up to week 28 (week 4: 53%, 46%, 38%, 30%, and 16%; week 28: 100%, 95%, 83%, 64%, and 33% for PASI 100, PASI 90–99, PASI 75–89, PASI 50–74, and PASI   &lt; 50 categories, respectively). Among patients achieving PASI  &gt; 50 at week 28 and continued up to 52 weeks, % PASI improvement maintained or improved from week 28 to week 52. Similar results were observed for TIL 200 mg as well as a subgroup analysis with bio-naive and bio-experienced patients respectively.Conclusions: The majority of TIL 100 and 200 mg patients achieved PASI &gt; 50 response at week 28, and PASI improvement was maintained from week 28 to week 52. Among patients achieving PASI  &gt; 90 at week 28, TIL 100 and 200 mg were associated with a rapid PASI improvement by week 4.1. Reich K, Papp KA, Blauvelt A, et al. Tildrakizumab versus placebo or  etanercept  for  chronic  plaque  psoriasis  (reSURFACE  1  and  reSURFACE 2): results from two randomised controlled, phase 3 trials. Lancet. 2017;390(10091):276-288.This abstract was presented at 2018 Annual Meeting of American Academy of Dermatology.Note: This abstract was presented at 2018 Annual Meeting of American Academy of Dermatology. P122RHEUMATOLOGISTS AND DERMATOLOGISTSIntroduction: On average, the majority of psoriasis (PSO) patients are diagnosed a year prior to a psoriatic arthritis (PsA) diagnosis, making the referral patterns and co-management between derma50tologists and rheumatologists an important aspect to understanding the management of these diseases. Dermatologists represent an important referral-base for rheumatologists, accounting for over one-quarter of all new PsA patients. However, there are discrepancies between the specialists regarding the timing in which these referrals take place.Objectives: One objective of the study was to gain further insight into rheumatologist and dermatologist co-management of patients with PsA.Methods: An	independent	market	analytics	firm	collaborated	with	US rheumatologists (n = 101) and US dermatologists (n = 101) to conduct analysis of both the PsA and PSO markets. Data were collected	 via	 an	 online	 survey	 fielded	 in	 November/December	2017  and  included  patient  demographics,  as  well  as  physician demographics, and attitudinal survey responses.Results: Rheumatologists indicate that 51 percent of referrals result from primary care physicians, 28 percent result from a dermatologist,  and  13  percent  are  self-referred. The  majority  (73%)  of PsA patients under the care of collaborating rheumatologists had previously been diagnosed with PSO prior to PsA. Dermatologists state that one-quarter of their patients with severe PSO also have PsA, with more than one-third of severe PSO patients also being co-managed with a rheumatologist. The majority of rheumatologists	believe	that	dermatologists	refer	patients	at	the	first	sign	of	joint involvement and do not attempt to treat joint pain; however, 31 percent of dermatologists report they do not refer PSO patients to rheumatologists until patients have failed biologics or are not improving on their current systemic regimen, while an additional 35  percent  report  they  refer  only  severe  arthritis/patients  with worsening disease. Furthermore, only 35 percent of dermatologists agree that they refer their PSO patients to a rheumatologists at the first	sign	of	joint	involvement. At the time of dermatologist referral, rheumatologists state that two-thirds	of	referred	patients	are	biologic/apremilast	naïve,	with	only 6 percent having controlled PSO and joint pain. However, dermatologists state that 40 percent the patients that they referred to rheumatologists were treated with biologics and 15 percent of said  referred  patients  were  treated  with  apremilast.  Indeed,  76 percent of dermatologists agree with the statement, “I believe that the disease (PsA),” while 57 percent of dermatologists agree “I Conclusion: With many patients diagnosed with both PSO and PsA,  co-management  between  dermatologists  and  rheumatologists is common. While rheumatologists appear to be under the impression that they are receiving the majority of dermatologisttreated	patients	with	PsA	at	the	first	sign	of	joint	involvement,	dermatologists largely report that they are managing and treating PsA patients. Furthermore, most dermatologists believe early aggressive use of biologic treatments will mitigate the development and/or progression of joint involvement, implying their willingness to manage their patients with PsA, particularly at early stages. P123TNF  therapy  has  been  the  standard  of  care  for  adult  patients diagnosed with autoimmune conditions, resulting in familiarity, comfort, and satisfaction among physicians. TNFs are typically used	 as	 a	 first-line	 biologic/small	 molecule	 in	 the	 treatment	 of	psoriasis (PSO) and psoriatic arthritis (PsA). However, the adoption of agents with alternate mechanisms of action (AMOA) has increased in recent years across indications and the practice of sequential TNF prescribing after an initial TNF is less common. Though	TNFs	are	still	the	preferred	first-line	agent,	there	are	discrepancies between specialists on the use of AMOA agents in the second-line setting. This research sought to understand the extent to which AMOA agents are prescribed after an initial TNF, and how this varies across PSO and PsA.An	independent	market	analytics	firm	collaborated	with	US	dermatologists (n = 201) and US rheumatologists (n = 200) to conduct a retrospective chart review of patients diagnosed with PSO (n = 950) and PsA (n = 1,008) who had switched from one biologic/apremilast to another agent in the prior 12 weeks. Physicians were able to submit up to 7 patient charts. PSO data was collected in September 2017 and PsA data was collected in April 2017.Analysis  of  patients  recently  switched  from  one  biologic/apremilast to a different brand revealed the majority of patients were treated	with	a	TNF	in	the	first-line	biologic/small	molecule	setting, though this varies by indication. Rheumatologists prescribe first-line	 TNFs	 significantly	 more	 than	 dermatologists.	 83%	 of	PsA	patients	are	prescribed	TNFs	first-line	compared	to	just	69%	of	PSO	patients.	Furthermore,	rheumatologists	are	significantly	more  likely  to  practice  TNF-sequencing  than  dermatologists. Indeed,	44%	of	PsA	patients	treated	with	a	first-line	TNF	were	prescribed a second TNF, compared to 6% of PSO patients. Additionally, certain TNF brands have experienced recent declines in	first	line	use,	though	this	varies	by	indication	as	well.	For	rheumatologists,	use	of	first-line	etanercept	has	declined,	38%	of	PsA	patients were initiated on etanercept at least 24 months prior to the study, compared to just 28% initiated on etanercept within 12 months	of	the	study.	For	dermatologists,	there	were	significantly	more	PSO	patients	initiated	on	etanercept	in	the	first-line	setting	24 months or more prior to the study compared to those initiated within 12 months of the study, (45% vs 31%.) This pattern also held	true	for	adalimumab,	where	42%	of	first-line	PSO	patients	initiated more than 24 months prior to the study were prescribed adalimumab,	a	figure	that	drops	to	just	27%	for	patients	initiated	within 12 months.Though	the	position	of	TNFs	as	first-line	agents	remains	dominant,	the	treating	specialist	and	indication	influence	how	widespread	and	continuous	TNF	use	is.	Specifically,	dermatologists	are	less	likely	to	prescribe	TNFs	as	first-line	agents	and	are	also	significantly	less	likely	to	partake	in	the	sequencing	of	TNFs	in	the	first-	and	second-line  setting  than  rheumatologists.  The  introduction  of several agents in PSO reporting substantially higher rates of skin clearance compared to TNFs could potentially be the source of increased  switching  to AMOAs  compared  to  other  specialties; whereas	 superior	 efficacy	 of	AMOA	 agents	 over	TNFs	 in	 PsA	may be less apparent. P124Introduction/Objective:VOYAGE  2  is  a  phase  3  double-blind, placebo/active comparator-controlled trial comparing guselkumab (GUS) with placebo (PBO) and adalimumab (ADA) in patients (pts) with moderate-to-severe PsO. The impact of treatment on patient-reported outcomes (PROs) was evaluated.Methods: Pts were randomized to GUS 100mg (wks 0 &amp; 4, then q8wks), ADA (80 mg wk 0, 40 mg wk 1, then 40 mg q2 wks), or PBO (wks 0, 4, &amp; 12, then GUS 100 mg wks 16 &amp; 20). We evaluated PROs using the Work Limitations Questionnaire [WLQ; work  productivity],  the  Hospital Anxiety  &amp;  Depression  Scale [HADS], and the Medical Outcomes Study 36-Item Short Form (SF-36; health related quality of life) at wk16 (GUS vs PBO) and wk24 (GUS vs ADA) in pts with and without PsA.Results: In all, 18% of pts reported a history of PsA. At wk16, GUS pts had numerically greater improvements vs PBO in work productivity,  anxiety  and  depression,  and  SF-36  PCS  &amp;  MCS scores regardless of PsA status. The least square (LS) mean differences (95% CI; adjusted for baseline value) for GUS vs PBO for all PROs were generally similar between pts with and without PsA. At wk24, GUS pts had numerically greater improvements vs ADA in all PROs regardless of PsA status. The LS mean differences for GUS vs ADA were generally greater for pts with PsA vs pts without PsA (Table).Conclusions: GUS showed better improvements in all PROs vs PBO at wk16 and vs ADA at wk24. Improvements vs PBO were similar  regardless  of  PsA  status,  while  improvements  vs ADA were greater for pts with PsA.Table: Summary of Change from Baseline in WLQ, HADS and SF-36 Scores from VOYAGE 20.13260.2913p-value0.0249WLQ Time ManagementWLQ MentalInterpersonalWLQ Physical Demandsw/out PSAN, LSMean Diff (95% CI)446, -7.7(-10.56, -4.88)419, -7.0(-10.31, -3.79)439, -4.9(-7.54, -2.35)440, -3.5(-6.11, -0.88)608, -1.6(-2.05, -1.07)608, -1.5 (-1.96, -0.98)Week 16 GUS vs PBOw/ PSAN, LSMean Diff (95% CI)86, -7.1(-13.21, -0.92)85, -6.6(-15.35, 2.06)83, -3.8(-11.03, 3.35)84, -7.9(-14.51, -1.21)135, -1.2(-2.45, 0.04)135, -1.2(-2.55, 0.06)135, 5.7(2.94, 8.43)135, 4.5(1.61, 7.48)N is the sample size across two groups.(3.31, 5.39)607, 4.8 (3.53, 6.15)SF-36 Physical ScoreSF-36 Mental ScoreWLQ Ouput DemandsDepression ScoreAnxiety Score&lt; 0.0001 607, 4.4 0.00260.05840.02110.0611Week 24 GUS vs ADAw/ PSAN, LSMean Diff (95% CI)w/out PSAN, LSMean Diff p(95% CI)value0.7152 445, -2.6pvalue0.0769p-value&lt; 0.0001 79, -1.6 (-10.58, 7.29)0.0002&lt; 0.0001 79, -4.3 (-14.40, 5.81)78, -11.4 (-19.37, -3.34)79, -14.7 (-24.29, -5.17)0.0089&lt; 0.0001 133, -2.1 0.3996 420, -0.60.69310.0061 436, -1.50.25690.0030 437, -1.20.41360.0012 608, -0.80.0025&lt; 0.0001 133, -1.5 0.0374 608, -0.40.1158&lt; 0.0001 132, 2.9&lt; 0.0001 132, 3.2 0.0346 608, 1.0(-0.10, 2.04)0.0591 608, 1.80.07530.0092(-3.33, -0.83)(-2.85, -0.09)(0.21, 5.57)(-0.12, 6.53)(-5.39, 0.28)(-3.46, 2.30)(-4.16, 1.11)(-3.94, 1.62)(-1.29, -0.28)(-0.91, 0.10)(0.45, 3.15)</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="inlineStr">
+        <is>
+          <t>Peter Foley</t>
+        </is>
+      </c>
+      <c r="B126" s="2" t="inlineStr">
+        <is>
+          <t>Division of Dermatology and Venereology, Geneva University Hospital, and Department of Pathology and Immunology, University of Geneva, Ge-neva, Switzerland, Department of Dermatology, New York Medical Col-lege at Metropolitan Hospital, New York, NY, Oregon Health &amp; Science University, Portland, OR, Janssen Research &amp; Development, LLC, Spring House, PA, Janssen Research &amp; Development, LLC, San Diego, CA, USAOregon Medical Research Center, Portland, OR, Department of Medicine (Dermatology) UCLA, Los Angeles, CA, USA, Probity Medical Research, Waterloo, ON, Skin Centre for Dermatology, Peterborough, ON, Canada, Sun Pharmaceuticals, Princeton, NJ, Merck &amp; Co., Inc., Kenilworth, NJ, USA, SCIderm Research Institute and Dermatologikum Hamburg, Ham-burg, GermanySpherix Global InsightsSpherix Global InsightsHospital de la Santa Creu i Sant Pau and Universitat Autònoma de Bar-celona Medical School, Barcelona, Spain, Janssen Research &amp; Develop-ment, LLC, Spring House, PA, USA, McMaster University, Hamilton, ON, Canada, University of Melbourne, St. Vincent’s Hospital, Melbourne and Skin &amp; Cancer Foundation Inc., Carlton</t>
+        </is>
+      </c>
+      <c r="C126" s="2" t="inlineStr">
+        <is>
+          <t>Victoria, Australia</t>
+        </is>
+      </c>
+      <c r="D126" s="2" t="inlineStr">
+        <is>
+          <t>P119</t>
+        </is>
+      </c>
+      <c r="E126" s="2" t="inlineStr">
+        <is>
+          <t>EFFICACY AND SAFETY RESULTS OF GUSELKUMAB IN PATIENTS WITH ACTIVE PSORIATIC ARTHRITIS OVER 56 WEEKSTILDRAKIZUMAB EFFICACY OVER TIME BY WEEK 28 RESPONSE LEVELS IN TWO PHASE 3 CLINICAL TRIALS IN PATIENTS WITH CHRONIC PLAQUE PSORIASISPOTENTIAL DISCONNECT: CO­MANAGEMENT OF PATIENTS WITH PSORIATIC ARTHRITIS BETWEEN THE USE OF TUMOR NECROSIS FACTOR INHIBITORS (TNF) IN THE SECOND­LINE BIOLOGIC/SMALL MOLECULE SETTING: A CROSS­SPECIALTY COMPARISONIMPACT OF GUSELKUMAB VERSUS PLACEBO AND ADALIMUMAB ON PATIENT REPORTED OUTCOMES IN PATIENTS WITH AND WITHOUT PSORIATIC ARTHRITIS IN VOYAGE 2</t>
+        </is>
+      </c>
+      <c r="F126" s="2" t="inlineStr">
+        <is>
+          <t>Introduction/Objective:To	evaluate	the	efficacy,	safety	&amp;	tolerability of guselkumab (GUS) in patients (pts) w/ PsA.Methods: In this double-blind, PBO-controlled study, pts w/active PsA	&amp;	≥3%	BSA	of	PsO	despite	treatment	were	randomized	2:1	to SC GUS 100mg or PBO at wks0, 4, &amp; q8w thereafter through wk44. At  wk16,  pts  w/ &lt; 5%  improvement  from  baseline  (BL) in swollen &amp; tender joint counts were eligible for early escape (EE) to open-label ustekinumab. At wk24, PBO pts crossed-over to GUS 100mg (PBO to GUS). The primary endpoint was ACR 20 at wk24. Major secondary endpoints were PASI 75 &amp; ACR 50 responses, change from BL in HAQ-DI, &amp; improvement in enthesitis  (Leeds  enthesitis  index  [LEI])  &amp;  dactylitis  score  (by a  0–3  scoring  system)  at  wk24;  &amp; ACR  20  response  at  wk16. Through	wk24,	efficacy	analyses	were	performed	in	a	modified	Intent-to-Treat (mITT) population. Pts who met treatment failure criteria, EE or had missing data at wk24 were considered nonresponders	for	ACR/MDA	endpoints	at	wk24.	Efficacy	post	wk24	was evaluated in pts who did not EE &amp; continued treatment at wk24 based on observed data.Results: Of 149 pts (PBO:49, GUS:100), BL demographics &amp; ACR component measures were generally similar between the 2 groups. 4	PBO	&amp;	9	GUS	pts	were	previously	exposed	to	anti-TNFα	agents.	At	wk24,	significantly	more	GUS	pts	achieved	ACR	20	(58.0%	vs	18.4%, p &lt; 0.001), PASI 75 (78.6% vs 12.5%, p &lt; 0.001), &amp; ACR 50 (34.0% vs 10.2%, p = 0.002) responses vs PBO. At wk24, mean decrease in HAQ-DI score from BL (-0.42 vs. -0.06, p &lt; 0.001), &amp; median percent improvement in enthesitis (100% vs 33.33%, p = 0.009) &amp; dactylitis (100% vs 33.33%, p &lt; 0.001) scores (among pts	w/	BL	enthesitis	and	dactylitis)	were	significantly	greater	in	GUS	group	vs.	PBO.	Significantly	more	GUS	pts	achieved	ACR	20 at wk16 (60.0% vs 16.3%, p &lt; 0.001) and MDA at wk24 (23.0% vs. 2.0%, p = 0.001)	vs.	PBO.	Post	wk24,	efficacy	improved	in	PBO to GUS crossover pts as expected and were well-maintained in GUS pts through wk56.Through wk24, the frequencies of AEs &amp; infections were comparable (AEs: PBO 32.7%; GUS 36.0%; infections: PBO: 20.4%; GUS: 16.0%). Post wk24, there was no disproportional increase in AE frequency or infections among GUS pts w/ longer exposure. Through wk56, there was 1 malignancy (basal cell carcinoma), 6 SAEs (myocardial infarction, osteoarthritis, pupils unequal, radius fracture, pneumonia, ulcerative keratitis), 2 pts discontinued treatment due to AEs, 1 grade 3 neutropenia, &amp; 6 pts were positive for antibodies to GUS. No deaths occurred through wk56.Conclusions: GUS	demonstrated	significant	improvement	on	joint	symptoms, physical function, PsO, enthesitis, dactylitis &amp; quality of	life;	efficacy	was	well-maintained	through	wk56.	GUS	was	well	tolerated in this population after ~1 year of exposure.Data has been previously presented at EULAR 2017 &amp; ACR 2017P12049Introduction: Tildrakizumab	(TIL),	a	humanized,	IgG1/κ	monoclonal	antibody	for	IL-23p19,	recently	demonstrated	its	efficacy	in subjects with chronic plaque psoriasis in two, phase 3 clinical studies1.Objective:In	this	analysis,	we	examined	efficacy	from	baseline	to week 52 among TIL patients achieving various Psoriasis Area and Severity Index (PASI) responses at week 28.Methods:  ReSURFACE  1  (NCT01722331)  and  reSURFACE  2 (NCT01729754) were double-blind, randomized controlled studies in subjects with moderate-to-severe chronic plaque psoriasis. Part 1  (0–12  weeks)  was  placebo  controlled;  Part  2  (12–28  weeks) re-randomized  placebo  patients  to  TIL;  Part  3  (28–64  weeks, reSURFACE 1; 28–52 weeks, reSURFACE 2) re-randomized patients	with	≥PASI	50	to	continue	or	increase	TIL	dose	or	to	placebo	based on their PASI response at week 28. In this post-hoc pooled analysis, patients consistently on TIL 100 mg and 200 mg from baseline	to	week	52	were	classified	in	5	mutually	exclusive	groups	based on their week-28 PASI response: PASI  &lt; 50, PASI 50–74, PASI 75–89, PASI 90–99, and PASI 100. Baseline characteristics and % PASI improvement from baseline up to week 52 (observed data) were examined for each group.Results: This analysis included 575 (TIL 100 mg) and 581 (TIL 200 mg) patients; the proportions of patients with week-28 PASI 75/90/100  responses  were  77%/54%/23%  (TIL  100  mg)  and 78%/58%/29%  (TIL  200  mg). At  week  28,  133  (23.1%),  175 (30.4%), 137 (23.8%), 82 (14.3%), and 48 (8.3%) TIL 100 mg patients and 170 (29.3%), 169 (29.1%), 114 (19.6%), 105 (18.1%), and 23 (4.0%) TIL 200mg achieved PASI 100, PASI 90–99, PASI 75–89,  PASI  50–74,  and  PASI   &lt; 50,  respectively.  On  average, PASI 100 patients were younger, lighter, and had shorter disease duration at baseline compared to other response groups. For TIL 100 mg, % PASI improvement was highest for PASI 100 and least for PASI &lt; 50 patients on all visits up to week 28 (week 4: 53%, 46%, 38%, 30%, and 16%; week 28: 100%, 95%, 83%, 64%, and 33% for PASI 100, PASI 90–99, PASI 75–89, PASI 50–74, and PASI   &lt; 50 categories, respectively). Among patients achieving PASI  &gt; 50 at week 28 and continued up to 52 weeks, % PASI improvement maintained or improved from week 28 to week 52. Similar results were observed for TIL 200 mg as well as a subgroup analysis with bio-naive and bio-experienced patients respectively.Conclusions: The majority of TIL 100 and 200 mg patients achieved PASI &gt; 50 response at week 28, and PASI improvement was maintained from week 28 to week 52. Among patients achieving PASI  &gt; 90 at week 28, TIL 100 and 200 mg were associated with a rapid PASI improvement by week 4.1. Reich K, Papp KA, Blauvelt A, et al. Tildrakizumab versus placebo or  etanercept  for  chronic  plaque  psoriasis  (reSURFACE  1  and  reSURFACE 2): results from two randomised controlled, phase 3 trials. Lancet. 2017;390(10091):276-288.This abstract was presented at 2018 Annual Meeting of American Academy of Dermatology.Note: This abstract was presented at 2018 Annual Meeting of American Academy of Dermatology. P122RHEUMATOLOGISTS AND DERMATOLOGISTSIntroduction: On average, the majority of psoriasis (PSO) patients are diagnosed a year prior to a psoriatic arthritis (PsA) diagnosis, making the referral patterns and co-management between derma50tologists and rheumatologists an important aspect to understanding the management of these diseases. Dermatologists represent an important referral-base for rheumatologists, accounting for over one-quarter of all new PsA patients. However, there are discrepancies between the specialists regarding the timing in which these referrals take place.Objectives: One objective of the study was to gain further insight into rheumatologist and dermatologist co-management of patients with PsA.Methods: An	independent	market	analytics	firm	collaborated	with	US rheumatologists (n = 101) and US dermatologists (n = 101) to conduct analysis of both the PsA and PSO markets. Data were collected	 via	 an	 online	 survey	 fielded	 in	 November/December	2017  and  included  patient  demographics,  as  well  as  physician demographics, and attitudinal survey responses.Results: Rheumatologists indicate that 51 percent of referrals result from primary care physicians, 28 percent result from a dermatologist,  and  13  percent  are  self-referred. The  majority  (73%)  of PsA patients under the care of collaborating rheumatologists had previously been diagnosed with PSO prior to PsA. Dermatologists state that one-quarter of their patients with severe PSO also have PsA, with more than one-third of severe PSO patients also being co-managed with a rheumatologist. The majority of rheumatologists	believe	that	dermatologists	refer	patients	at	the	first	sign	of	joint involvement and do not attempt to treat joint pain; however, 31 percent of dermatologists report they do not refer PSO patients to rheumatologists until patients have failed biologics or are not improving on their current systemic regimen, while an additional 35  percent  report  they  refer  only  severe  arthritis/patients  with worsening disease. Furthermore, only 35 percent of dermatologists agree that they refer their PSO patients to a rheumatologists at the first	sign	of	joint	involvement. At the time of dermatologist referral, rheumatologists state that two-thirds	of	referred	patients	are	biologic/apremilast	naïve,	with	only 6 percent having controlled PSO and joint pain. However, dermatologists state that 40 percent the patients that they referred to rheumatologists were treated with biologics and 15 percent of said  referred  patients  were  treated  with  apremilast.  Indeed,  76 percent of dermatologists agree with the statement, “I believe that the disease (PsA),” while 57 percent of dermatologists agree “I Conclusion: With many patients diagnosed with both PSO and PsA,  co-management  between  dermatologists  and  rheumatologists is common. While rheumatologists appear to be under the impression that they are receiving the majority of dermatologisttreated	patients	with	PsA	at	the	first	sign	of	joint	involvement,	dermatologists largely report that they are managing and treating PsA patients. Furthermore, most dermatologists believe early aggressive use of biologic treatments will mitigate the development and/or progression of joint involvement, implying their willingness to manage their patients with PsA, particularly at early stages. P123TNF  therapy  has  been  the  standard  of  care  for  adult  patients diagnosed with autoimmune conditions, resulting in familiarity, comfort, and satisfaction among physicians. TNFs are typically used	 as	 a	 first-line	 biologic/small	 molecule	 in	 the	 treatment	 of	psoriasis (PSO) and psoriatic arthritis (PsA). However, the adoption of agents with alternate mechanisms of action (AMOA) has increased in recent years across indications and the practice of sequential TNF prescribing after an initial TNF is less common. Though	TNFs	are	still	the	preferred	first-line	agent,	there	are	discrepancies between specialists on the use of AMOA agents in the second-line setting. This research sought to understand the extent to which AMOA agents are prescribed after an initial TNF, and how this varies across PSO and PsA.An	independent	market	analytics	firm	collaborated	with	US	dermatologists (n = 201) and US rheumatologists (n = 200) to conduct a retrospective chart review of patients diagnosed with PSO (n = 950) and PsA (n = 1,008) who had switched from one biologic/apremilast to another agent in the prior 12 weeks. Physicians were able to submit up to 7 patient charts. PSO data was collected in September 2017 and PsA data was collected in April 2017.Analysis  of  patients  recently  switched  from  one  biologic/apremilast to a different brand revealed the majority of patients were treated	with	a	TNF	in	the	first-line	biologic/small	molecule	setting, though this varies by indication. Rheumatologists prescribe first-line	 TNFs	 significantly	 more	 than	 dermatologists.	 83%	 of	PsA	patients	are	prescribed	TNFs	first-line	compared	to	just	69%	of	PSO	patients.	Furthermore,	rheumatologists	are	significantly	more  likely  to  practice  TNF-sequencing  than  dermatologists. Indeed,	44%	of	PsA	patients	treated	with	a	first-line	TNF	were	prescribed a second TNF, compared to 6% of PSO patients. Additionally, certain TNF brands have experienced recent declines in	first	line	use,	though	this	varies	by	indication	as	well.	For	rheumatologists,	use	of	first-line	etanercept	has	declined,	38%	of	PsA	patients were initiated on etanercept at least 24 months prior to the study, compared to just 28% initiated on etanercept within 12 months	of	the	study.	For	dermatologists,	there	were	significantly	more	PSO	patients	initiated	on	etanercept	in	the	first-line	setting	24 months or more prior to the study compared to those initiated within 12 months of the study, (45% vs 31%.) This pattern also held	true	for	adalimumab,	where	42%	of	first-line	PSO	patients	initiated more than 24 months prior to the study were prescribed adalimumab,	a	figure	that	drops	to	just	27%	for	patients	initiated	within 12 months.Though	the	position	of	TNFs	as	first-line	agents	remains	dominant,	the	treating	specialist	and	indication	influence	how	widespread	and	continuous	TNF	use	is.	Specifically,	dermatologists	are	less	likely	to	prescribe	TNFs	as	first-line	agents	and	are	also	significantly	less	likely	to	partake	in	the	sequencing	of	TNFs	in	the	first-	and	second-line  setting  than  rheumatologists.  The  introduction  of several agents in PSO reporting substantially higher rates of skin clearance compared to TNFs could potentially be the source of increased  switching  to AMOAs  compared  to  other  specialties; whereas	 superior	 efficacy	 of	AMOA	 agents	 over	TNFs	 in	 PsA	may be less apparent. P124Introduction/Objective:VOYAGE  2  is  a  phase  3  double-blind, placebo/active comparator-controlled trial comparing guselkumab (GUS) with placebo (PBO) and adalimumab (ADA) in patients (pts) with moderate-to-severe PsO. The impact of treatment on patient-reported outcomes (PROs) was evaluated.Methods: Pts were randomized to GUS 100mg (wks 0 &amp; 4, then q8wks), ADA (80 mg wk 0, 40 mg wk 1, then 40 mg q2 wks), or PBO (wks 0, 4, &amp; 12, then GUS 100 mg wks 16 &amp; 20). We evaluated PROs using the Work Limitations Questionnaire [WLQ; work  productivity],  the  Hospital Anxiety  &amp;  Depression  Scale [HADS], and the Medical Outcomes Study 36-Item Short Form (SF-36; health related quality of life) at wk16 (GUS vs PBO) and wk24 (GUS vs ADA) in pts with and without PsA.Results: In all, 18% of pts reported a history of PsA. At wk16, GUS pts had numerically greater improvements vs PBO in work productivity,  anxiety  and  depression,  and  SF-36  PCS  &amp;  MCS scores regardless of PsA status. The least square (LS) mean differences (95% CI; adjusted for baseline value) for GUS vs PBO for all PROs were generally similar between pts with and without PsA. At wk24, GUS pts had numerically greater improvements vs ADA in all PROs regardless of PsA status. The LS mean differences for GUS vs ADA were generally greater for pts with PsA vs pts without PsA (Table).Conclusions: GUS showed better improvements in all PROs vs PBO at wk16 and vs ADA at wk24. Improvements vs PBO were similar  regardless  of  PsA  status,  while  improvements  vs ADA were greater for pts with PsA.Table: Summary of Change from Baseline in WLQ, HADS and SF-36 Scores from VOYAGE 20.13260.2913p-value0.0249WLQ Time ManagementWLQ MentalInterpersonalWLQ Physical Demandsw/out PSAN, LSMean Diff (95% CI)446, -7.7(-10.56, -4.88)419, -7.0(-10.31, -3.79)439, -4.9(-7.54, -2.35)440, -3.5(-6.11, -0.88)608, -1.6(-2.05, -1.07)608, -1.5 (-1.96, -0.98)Week 16 GUS vs PBOw/ PSAN, LSMean Diff (95% CI)86, -7.1(-13.21, -0.92)85, -6.6(-15.35, 2.06)83, -3.8(-11.03, 3.35)84, -7.9(-14.51, -1.21)135, -1.2(-2.45, 0.04)135, -1.2(-2.55, 0.06)135, 5.7(2.94, 8.43)135, 4.5(1.61, 7.48)N is the sample size across two groups.(3.31, 5.39)607, 4.8 (3.53, 6.15)SF-36 Physical ScoreSF-36 Mental ScoreWLQ Ouput DemandsDepression ScoreAnxiety Score&lt; 0.0001 607, 4.4 0.00260.05840.02110.0611Week 24 GUS vs ADAw/ PSAN, LSMean Diff (95% CI)w/out PSAN, LSMean Diff p(95% CI)value0.7152 445, -2.6pvalue0.0769p-value&lt; 0.0001 79, -1.6 (-10.58, 7.29)0.0002&lt; 0.0001 79, -4.3 (-14.40, 5.81)78, -11.4 (-19.37, -3.34)79, -14.7 (-24.29, -5.17)0.0089&lt; 0.0001 133, -2.1 0.3996 420, -0.60.69310.0061 436, -1.50.25690.0030 437, -1.20.41360.0012 608, -0.80.0025&lt; 0.0001 133, -1.5 0.0374 608, -0.40.1158&lt; 0.0001 132, 2.9&lt; 0.0001 132, 3.2 0.0346 608, 1.0(-0.10, 2.04)0.0591 608, 1.80.07530.0092(-3.33, -0.83)(-2.85, -0.09)(0.21, 5.57)(-0.12, 6.53)(-5.39, 0.28)(-3.46, 2.30)(-4.16, 1.11)(-3.94, 1.62)(-1.29, -0.28)(-0.91, 0.10)(0.45, 3.15)</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="inlineStr">
+        <is>
+          <t>Nadezhda Batkaeva</t>
+        </is>
+      </c>
+      <c r="B127" s="2" t="inlineStr">
+        <is>
+          <t>Peoples' Friendship University of Russia (RUDN University)</t>
+        </is>
+      </c>
+      <c r="C127" s="2" t="inlineStr"/>
+      <c r="D127" s="2" t="inlineStr">
+        <is>
+          <t>P125</t>
+        </is>
+      </c>
+      <c r="E127" s="2" t="inlineStr">
+        <is>
+          <t>RUSSIAN PATIENTS WITH PSORIASIS AND PSORIATIC ARTHRITIS.</t>
+        </is>
+      </c>
+      <c r="F127" s="2" t="inlineStr">
+        <is>
+          <t>THE DERMATOLOGY LIFE QUALITY INDEX IN Introduction: The most severe form of psoriasis is psoriatic arthritis (PsA), which belongs to the seronegative spondyloarthritis group, characterized	by	chronic	inflammation	of	the	joints,	spine,	enthesis. The frequency of PsA in the population is 0.06–1.4%. PSA is comparable to rheumatoid arthritis (RA) in terms of progression, disability and quality of life (QOL) in patients.Objectives:  Compare  the  quality  of  life  index  of  patients  with severe forms of psoriasis (PsO) with psoriatic arthritis patients’ index.Methods:  120  (100%)  patients  suffering  from  PsO  and  PsA (Male-87/female - 33) were analyzed. 70 (54.2%) patients were diagnosed  PsO,  50  (41.7%)  were  diagnosed  PsA.  The  average age of patients with skin manifestations PsO was 54.0±14.2 years (n = 70). The average age of patients with PsA was 49.1±15.9 years 51(n = 50). The group of patients with PsA was older than the group PsO patients by age. PASI  &gt;  10. The quality of life was assessed using the Dermatology Life Quality Index (DLQI) questionnaire. The results were evaluated: from 0 to 1 score - cutaneous disease does not affect the patient's life, from 2 to 5 scores - the disease has a minor effect on the patient's life, from 6 to 10 scores - the disease has a moderate effect on the patient's life, from 11 to 20 scores - the disease has a very strong effect on the patient's life, from 21 to 30 scores - the disease has an extremely strong effect on the patient's life. Statistical processing of the data was carried out using the Excel analysis package. All p &lt; 0.05 were considered to	indicate	statistical	significance.Results: 120 (100%) patients suffering from PsO were taken for analysis. The duration of PsO was: for more than 15 years - 25 people (35.7%), 10–15 years - 18 people (25.7%); 3–10 years - 15 people (21.4%), 1–3 years - 12 people (17.1%). The duration of PsA was: for more than 15 years – 5 people (10.0%), 10–15 years – 7 people (14.0%); 3–10 years – 20 people (40.0%), 1–3 years – 18 people (36.0%). Heredity was aggravated in 35 (29.1%) out of 120 patients. Comorbidity was presented in 112 (93.3%) out of 120 patients. Gastrointestinal and liver diseases were found in 48 (42.8%) out of 120 patients. Type 2 diabetes was observed in 45 (40.1%) out of 120 patients, cardiovascular diseases - in 100 (89.2%) out of 120 patients, diseases of the nervous system - in 59 (52.6%) out of 120 patients, and diseases of the urinary system - in 20 (17.8%) out of 120 patients.The total score DLQI in the psoriasis group was 15.8±5.2. The score DLQI in PsO patients was 12.5±3.4 and in PsA patients was 20.4±3.7. The total score DLQI in PsO patients with comorbidity was 16.1±5.3.Conclusions:  The	 total	 score	 DLQI	 was	 significantly	 higher	 in	patients with PsA compare to PsO patients. This result revealed the existence of an inferior quality of life for the PsO patients with comorbidity disease, compared with pts without comorbidity disease. The score of DLQI is affected the development and progress of the psoriasis and comorbidity pathology. Then higher DLQI value, the more it affects experience considerable physical and/or	psychological	discomfort,	difficulties	in	social	and	professional	adaptation,	which	subsequently	cause	significant	distress	and	even	social phobia. All these conditions psoriasis are interrelated by genetic and immunopathogenetic mechanisms. Thus, patients with psoriasis require an integrated approach and dynamic observation by dermatologists and doctors of related specialties.</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="inlineStr">
+        <is>
+          <t>Edgem Batkaev</t>
+        </is>
+      </c>
+      <c r="B128" s="2" t="inlineStr">
+        <is>
+          <t>Peoples' Friendship University of Russia (RUDN University)</t>
+        </is>
+      </c>
+      <c r="C128" s="2" t="inlineStr"/>
+      <c r="D128" s="2" t="inlineStr">
+        <is>
+          <t>P125</t>
+        </is>
+      </c>
+      <c r="E128" s="2" t="inlineStr">
+        <is>
+          <t>RUSSIAN PATIENTS WITH PSORIASIS AND PSORIATIC ARTHRITIS.</t>
+        </is>
+      </c>
+      <c r="F128" s="2" t="inlineStr">
+        <is>
+          <t>THE DERMATOLOGY LIFE QUALITY INDEX IN Introduction: The most severe form of psoriasis is psoriatic arthritis (PsA), which belongs to the seronegative spondyloarthritis group, characterized	by	chronic	inflammation	of	the	joints,	spine,	enthesis. The frequency of PsA in the population is 0.06–1.4%. PSA is comparable to rheumatoid arthritis (RA) in terms of progression, disability and quality of life (QOL) in patients.Objectives:  Compare  the  quality  of  life  index  of  patients  with severe forms of psoriasis (PsO) with psoriatic arthritis patients’ index.Methods:  120  (100%)  patients  suffering  from  PsO  and  PsA (Male-87/female - 33) were analyzed. 70 (54.2%) patients were diagnosed  PsO,  50  (41.7%)  were  diagnosed  PsA.  The  average age of patients with skin manifestations PsO was 54.0±14.2 years (n = 70). The average age of patients with PsA was 49.1±15.9 years 51(n = 50). The group of patients with PsA was older than the group PsO patients by age. PASI  &gt;  10. The quality of life was assessed using the Dermatology Life Quality Index (DLQI) questionnaire. The results were evaluated: from 0 to 1 score - cutaneous disease does not affect the patient's life, from 2 to 5 scores - the disease has a minor effect on the patient's life, from 6 to 10 scores - the disease has a moderate effect on the patient's life, from 11 to 20 scores - the disease has a very strong effect on the patient's life, from 21 to 30 scores - the disease has an extremely strong effect on the patient's life. Statistical processing of the data was carried out using the Excel analysis package. All p &lt; 0.05 were considered to	indicate	statistical	significance.Results: 120 (100%) patients suffering from PsO were taken for analysis. The duration of PsO was: for more than 15 years - 25 people (35.7%), 10–15 years - 18 people (25.7%); 3–10 years - 15 people (21.4%), 1–3 years - 12 people (17.1%). The duration of PsA was: for more than 15 years – 5 people (10.0%), 10–15 years – 7 people (14.0%); 3–10 years – 20 people (40.0%), 1–3 years – 18 people (36.0%). Heredity was aggravated in 35 (29.1%) out of 120 patients. Comorbidity was presented in 112 (93.3%) out of 120 patients. Gastrointestinal and liver diseases were found in 48 (42.8%) out of 120 patients. Type 2 diabetes was observed in 45 (40.1%) out of 120 patients, cardiovascular diseases - in 100 (89.2%) out of 120 patients, diseases of the nervous system - in 59 (52.6%) out of 120 patients, and diseases of the urinary system - in 20 (17.8%) out of 120 patients.The total score DLQI in the psoriasis group was 15.8±5.2. The score DLQI in PsO patients was 12.5±3.4 and in PsA patients was 20.4±3.7. The total score DLQI in PsO patients with comorbidity was 16.1±5.3.Conclusions:  The	 total	 score	 DLQI	 was	 significantly	 higher	 in	patients with PsA compare to PsO patients. This result revealed the existence of an inferior quality of life for the PsO patients with comorbidity disease, compared with pts without comorbidity disease. The score of DLQI is affected the development and progress of the psoriasis and comorbidity pathology. Then higher DLQI value, the more it affects experience considerable physical and/or	psychological	discomfort,	difficulties	in	social	and	professional	adaptation,	which	subsequently	cause	significant	distress	and	even	social phobia. All these conditions psoriasis are interrelated by genetic and immunopathogenetic mechanisms. Thus, patients with psoriasis require an integrated approach and dynamic observation by dermatologists and doctors of related specialties.</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="inlineStr">
+        <is>
+          <t>Muslimat Gitinova</t>
+        </is>
+      </c>
+      <c r="B129" s="2" t="inlineStr">
+        <is>
+          <t>Peoples' Friendship University of Russia (RUDN University)</t>
+        </is>
+      </c>
+      <c r="C129" s="2" t="inlineStr"/>
+      <c r="D129" s="2" t="inlineStr">
+        <is>
+          <t>P125</t>
+        </is>
+      </c>
+      <c r="E129" s="2" t="inlineStr">
+        <is>
+          <t>RUSSIAN PATIENTS WITH PSORIASIS AND PSORIATIC ARTHRITIS.</t>
+        </is>
+      </c>
+      <c r="F129" s="2" t="inlineStr">
+        <is>
+          <t>THE DERMATOLOGY LIFE QUALITY INDEX IN Introduction: The most severe form of psoriasis is psoriatic arthritis (PsA), which belongs to the seronegative spondyloarthritis group, characterized	by	chronic	inflammation	of	the	joints,	spine,	enthesis. The frequency of PsA in the population is 0.06–1.4%. PSA is comparable to rheumatoid arthritis (RA) in terms of progression, disability and quality of life (QOL) in patients.Objectives:  Compare  the  quality  of  life  index  of  patients  with severe forms of psoriasis (PsO) with psoriatic arthritis patients’ index.Methods:  120  (100%)  patients  suffering  from  PsO  and  PsA (Male-87/female - 33) were analyzed. 70 (54.2%) patients were diagnosed  PsO,  50  (41.7%)  were  diagnosed  PsA.  The  average age of patients with skin manifestations PsO was 54.0±14.2 years (n = 70). The average age of patients with PsA was 49.1±15.9 years 51(n = 50). The group of patients with PsA was older than the group PsO patients by age. PASI  &gt;  10. The quality of life was assessed using the Dermatology Life Quality Index (DLQI) questionnaire. The results were evaluated: from 0 to 1 score - cutaneous disease does not affect the patient's life, from 2 to 5 scores - the disease has a minor effect on the patient's life, from 6 to 10 scores - the disease has a moderate effect on the patient's life, from 11 to 20 scores - the disease has a very strong effect on the patient's life, from 21 to 30 scores - the disease has an extremely strong effect on the patient's life. Statistical processing of the data was carried out using the Excel analysis package. All p &lt; 0.05 were considered to	indicate	statistical	significance.Results: 120 (100%) patients suffering from PsO were taken for analysis. The duration of PsO was: for more than 15 years - 25 people (35.7%), 10–15 years - 18 people (25.7%); 3–10 years - 15 people (21.4%), 1–3 years - 12 people (17.1%). The duration of PsA was: for more than 15 years – 5 people (10.0%), 10–15 years – 7 people (14.0%); 3–10 years – 20 people (40.0%), 1–3 years – 18 people (36.0%). Heredity was aggravated in 35 (29.1%) out of 120 patients. Comorbidity was presented in 112 (93.3%) out of 120 patients. Gastrointestinal and liver diseases were found in 48 (42.8%) out of 120 patients. Type 2 diabetes was observed in 45 (40.1%) out of 120 patients, cardiovascular diseases - in 100 (89.2%) out of 120 patients, diseases of the nervous system - in 59 (52.6%) out of 120 patients, and diseases of the urinary system - in 20 (17.8%) out of 120 patients.The total score DLQI in the psoriasis group was 15.8±5.2. The score DLQI in PsO patients was 12.5±3.4 and in PsA patients was 20.4±3.7. The total score DLQI in PsO patients with comorbidity was 16.1±5.3.Conclusions:  The	 total	 score	 DLQI	 was	 significantly	 higher	 in	patients with PsA compare to PsO patients. This result revealed the existence of an inferior quality of life for the PsO patients with comorbidity disease, compared with pts without comorbidity disease. The score of DLQI is affected the development and progress of the psoriasis and comorbidity pathology. Then higher DLQI value, the more it affects experience considerable physical and/or	psychological	discomfort,	difficulties	in	social	and	professional	adaptation,	which	subsequently	cause	significant	distress	and	even	social phobia. All these conditions psoriasis are interrelated by genetic and immunopathogenetic mechanisms. Thus, patients with psoriasis require an integrated approach and dynamic observation by dermatologists and doctors of related specialties.</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="inlineStr">
+        <is>
+          <t>Alan Maddock</t>
+        </is>
+      </c>
+      <c r="B130" s="2" t="inlineStr">
+        <is>
+          <t>School of Psychology, Trinity College Dublin</t>
+        </is>
+      </c>
+      <c r="C130" s="2" t="inlineStr">
+        <is>
+          <t>School of Psychology, Trinity College Dublin</t>
+        </is>
+      </c>
+      <c r="D130" s="2" t="inlineStr">
+        <is>
+          <t>P126</t>
+        </is>
+      </c>
+      <c r="E130" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EFFECTS OF MINDFULNESS­BASED COGNITIVE THERAPY ON SELF­REPORTED PSORIASIS AND </t>
+        </is>
+      </c>
+      <c r="F130" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PSYCHOLOGICAL SYMPTOMSIntroduction: Psoriasis can have a profound impact on a patient’s life, with the prevalence of anxiety, depression, poor wellbeing and quality of life generally found to be high in psoriasis populations. Mindfulness based interventions have been shown to have positive impacts on anxiety, depression, wellbeing and quality of life in various populations.Objectives: The aim of the present study was to investigate the effect of mindfulness-based cognitive therapy (MBCT) on psoriasis symptoms and psychological symptoms associated with psoriasis including anxiety, depression, reduced wellbeing and QoL. The study	also	aimed	to	investigate	if	MBCT	significantly	impacted	the potential mediating variables of a new theory of mindfulness mechanisms	 the	 ‘Clinically	 Modified	 Buddhist	 Psychological	Model (CBPM)’, these variables being acceptance, mindfulness, self-compassion, aversion, non-attachment, attention, rumination and worry.52Methods: 101 participants were randomly allocated to a treatment arm (MBCT) or a TAU arm. Participants were measured pre, posttreatment and after a 3-month follow up period. Data were analysed using intention-to-treat analysis and the ANCOVA method with baseline scores entered as covariates.Results: There	was	a	significant	group×time	(pre	vs.	post)	interaction	on	all	variables	except	QoL,	indicating	a	significant	reduction	of each variable except QoL over time in the MBCT group, but not in the control group. When baseline variables were controlled for, the participants in the MBCT group achieved small statistically significant	changes	across	all	variables	post	intervention	versus	the TAU group.Conclusions: The results suggest that MBCT may be a useful adjunct therapy for those suffering from psoriasis and the associated psychological  symptoms  relating  to  the  condition.  The  results also indicate that each of the mechanisms outlined in the CBPM change	significantly	for	patients	who	engage	in	the	intervention.	</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="inlineStr">
+        <is>
+          <t>David Hevey</t>
+        </is>
+      </c>
+      <c r="B131" s="2" t="inlineStr">
+        <is>
+          <t>School of Psychology, Trinity College Dublin</t>
+        </is>
+      </c>
+      <c r="C131" s="2" t="inlineStr">
+        <is>
+          <t>School of Psychology, Trinity College Dublin</t>
+        </is>
+      </c>
+      <c r="D131" s="2" t="inlineStr">
+        <is>
+          <t>P126</t>
+        </is>
+      </c>
+      <c r="E131" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EFFECTS OF MINDFULNESS­BASED COGNITIVE THERAPY ON SELF­REPORTED PSORIASIS AND </t>
+        </is>
+      </c>
+      <c r="F131" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PSYCHOLOGICAL SYMPTOMSIntroduction: Psoriasis can have a profound impact on a patient’s life, with the prevalence of anxiety, depression, poor wellbeing and quality of life generally found to be high in psoriasis populations. Mindfulness based interventions have been shown to have positive impacts on anxiety, depression, wellbeing and quality of life in various populations.Objectives: The aim of the present study was to investigate the effect of mindfulness-based cognitive therapy (MBCT) on psoriasis symptoms and psychological symptoms associated with psoriasis including anxiety, depression, reduced wellbeing and QoL. The study	also	aimed	to	investigate	if	MBCT	significantly	impacted	the potential mediating variables of a new theory of mindfulness mechanisms	 the	 ‘Clinically	 Modified	 Buddhist	 Psychological	Model (CBPM)’, these variables being acceptance, mindfulness, self-compassion, aversion, non-attachment, attention, rumination and worry.52Methods: 101 participants were randomly allocated to a treatment arm (MBCT) or a TAU arm. Participants were measured pre, posttreatment and after a 3-month follow up period. Data were analysed using intention-to-treat analysis and the ANCOVA method with baseline scores entered as covariates.Results: There	was	a	significant	group×time	(pre	vs.	post)	interaction	on	all	variables	except	QoL,	indicating	a	significant	reduction	of each variable except QoL over time in the MBCT group, but not in the control group. When baseline variables were controlled for, the participants in the MBCT group achieved small statistically significant	changes	across	all	variables	post	intervention	versus	the TAU group.Conclusions: The results suggest that MBCT may be a useful adjunct therapy for those suffering from psoriasis and the associated psychological  symptoms  relating  to  the  condition.  The  results also indicate that each of the mechanisms outlined in the CBPM change	significantly	for	patients	who	engage	in	the	intervention.	</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="inlineStr">
+        <is>
+          <t>Alan Maddock</t>
+        </is>
+      </c>
+      <c r="B132" s="2" t="inlineStr">
+        <is>
+          <t>School of Psychology, Trinity College DublinJohns Hopkins University School of Medicine, Baltimore, MD, USA, University of Oxford, Oxford, UK, Universidade Federal do Paraná, Curitiba, Brazil, Donald and Barbara Zucker School of Medicine at Hofstra/Northwell, Hempstead, NY, Shores Rheumatology, MI, USA, University of Manchester, Manchester, UK, Pfizer Inc, Collegeville, PA, Pfizer Inc, Groton, CT, The Harris Poll, Rochester, NY, USA, Pfizer Canada, Montréal</t>
+        </is>
+      </c>
+      <c r="C132" s="2" t="inlineStr">
+        <is>
+          <t>QC, Canada</t>
+        </is>
+      </c>
+      <c r="D132" s="2" t="inlineStr">
+        <is>
+          <t>P127</t>
+        </is>
+      </c>
+      <c r="E132" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A MIXED METHODS STUDY EXPLORING THE IMPACT OF MINDFULNESS ON PSORIASIS, ANXIETY, DEPRESSION AND QOLA LINK BETWEEN QUALITY OF PATIENT­PHYSICIAN COMMUNICATION AND PATIENT HEALTHCARE NEEDS IN PSA </t>
+        </is>
+      </c>
+      <c r="F132" s="2" t="inlineStr">
+        <is>
+          <t>Introduction: Psoriasis is a common condition with recognised psychological comorbidity. Psoriasis can have a profound impact on a patient’s life, with the prevalence of anxiety, depression, poor wellbeing and quality of life generally found to be high in psoriasis populations. Based on Buddhist psychology, mindfulness based interventions have been shown to have positive impacts on anxiety, depression, wellbeing and quality of life in various populations.Methods: Mixed methods explored the impact of a mindfulness based  cognitive  therapy  (MBCT)  intervention  on  10  psoriasis patients  using  a  Buddhist  Psychological  Model  (BPM)  as  a theoretical framework to understand changes in these variables. Quantitative  measures  of  acceptance,  attention  regulation,  attachment,  aversion,  self-compassion,  mindfulness,  rumination, worry,  wellbeing,  anxiety,  depression  and  psoriasis  symptoms were completed pre and post intervention, and participants were interviewed about their experiences of MBCT.Results: Statistically	significant	changes	in	attention,	mindfulness,	attachment,  aversion,  rumination,  quality  of  life,  anxiety  and psoriasis were found. The qualitative data provided support for the BPM as a theoretical lens with which to understand the way in which mindfulness impacts on patient quality of life, anxiety and psoriasis symptoms.Conclusions: This study gives support to the promising potential of mindfulness interventions being implemented by mental health care professionals with psoriasis patients. P128Introduction:  Patient(pt)-physician(HCP)  communication  may influence	symptom	reporting	and	disease	control.Objectives: To evaluate psoriatic arthritis (PsA) symptoms, life impact and treatment satisfaction in pts who report good communication with their HCP vs suboptimal communication.Methods:  An  online  pt-based  survey  was  conducted  in  the  US from 2 Nov–1 Dec 2017. Pts had reported having PsA for  &gt; 1 year,	taken	≥1	synthetic(s)	or	biologic(b)	DMARD	for	PsA.	Pts	reported overall health, PsA severity/symptoms/life impact, treatment satisfaction and communication experience. We evaluated differences by pt-HCP communication status.Results: Overall, 301 pts with PsA responded, mean age 45 years, 61% female, 89% self-reported moderate/severe PsA. Current PsA treatments included bDMARD (52%), sDMARD (25%), combination b/sDMARD (15%). Overall, 256 (85%) of PsA pts were managed by a rheumatologist and 15% by a dermatologist. Of the 256,  &gt; 40% reported suboptimal pt-HCP communication. Pts in the suboptimal vs good communication subgroups were typically younger, more likely to be Hispanic and reported greater life impact and lower satisfaction with pt-HCP communication (Table). Table. Pts with PsA managed by rheumatologist (n = 256) “I  worry  that  if  I  ask  too many questions my healthcare professional will see me	as	a	difficult	patient	and	it will affect the quality of care I receive”“I  often  tell  my healthcare professional	I	am	fine	when	I  am  really  experiencing symptoms”Agreen = 118 (46%)%41.65826*1186847275Disagreen = 138 (54%)%47.5*80*97Disagreen = 151 (59%)%46.8*7315790847972Agreen = 105 (41%)%41.966201085837470 Mean age (years)WhiteHispanicBlackSymptoms in past 12 monthsJoint painSkin/nail symptomsStiffness Joint swellingModerate PsASevere PsAReported impact on-emotional well being-work productivity-romance/intimacy-decision to start family-educationVery	satisfied	with	HCP	communication 4329Very	satisfied	with	treatment22*Stopped taking treatment*p &lt; 0.05Conclusions: Pts who reported suboptimal communication with their  HCP  may  have  greater  healthcare  needs  for  their  PsA  vs other pts.8983826864255654462115583378*69*66*42*36*70*2376*69*67*40*35*5532595648241775*45*871*409523619*</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="inlineStr">
+        <is>
+          <t>David HeveyA-M Orbai</t>
+        </is>
+      </c>
+      <c r="B133" s="2" t="inlineStr">
+        <is>
+          <t>School of Psychology, Trinity College DublinJohns Hopkins University School of Medicine, Baltimore, MD, USA, University of Oxford, Oxford, UK, Universidade Federal do Paraná, Curitiba, Brazil, Donald and Barbara Zucker School of Medicine at Hofstra/Northwell, Hempstead, NY, Shores Rheumatology, MI, USA, University of Manchester, Manchester, UK, Pfizer Inc, Collegeville, PA, Pfizer Inc, Groton, CT, The Harris Poll, Rochester, NY, USA, Pfizer Canada, Montréal</t>
+        </is>
+      </c>
+      <c r="C133" s="2" t="inlineStr">
+        <is>
+          <t>QC, Canada</t>
+        </is>
+      </c>
+      <c r="D133" s="2" t="inlineStr">
+        <is>
+          <t>P127</t>
+        </is>
+      </c>
+      <c r="E133" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A MIXED METHODS STUDY EXPLORING THE IMPACT OF MINDFULNESS ON PSORIASIS, ANXIETY, DEPRESSION AND QOLA LINK BETWEEN QUALITY OF PATIENT­PHYSICIAN COMMUNICATION AND PATIENT HEALTHCARE NEEDS IN PSA </t>
+        </is>
+      </c>
+      <c r="F133" s="2" t="inlineStr">
+        <is>
+          <t>Introduction: Psoriasis is a common condition with recognised psychological comorbidity. Psoriasis can have a profound impact on a patient’s life, with the prevalence of anxiety, depression, poor wellbeing and quality of life generally found to be high in psoriasis populations. Based on Buddhist psychology, mindfulness based interventions have been shown to have positive impacts on anxiety, depression, wellbeing and quality of life in various populations.Methods: Mixed methods explored the impact of a mindfulness based  cognitive  therapy  (MBCT)  intervention  on  10  psoriasis patients  using  a  Buddhist  Psychological  Model  (BPM)  as  a theoretical framework to understand changes in these variables. Quantitative  measures  of  acceptance,  attention  regulation,  attachment,  aversion,  self-compassion,  mindfulness,  rumination, worry,  wellbeing,  anxiety,  depression  and  psoriasis  symptoms were completed pre and post intervention, and participants were interviewed about their experiences of MBCT.Results: Statistically	significant	changes	in	attention,	mindfulness,	attachment,  aversion,  rumination,  quality  of  life,  anxiety  and psoriasis were found. The qualitative data provided support for the BPM as a theoretical lens with which to understand the way in which mindfulness impacts on patient quality of life, anxiety and psoriasis symptoms.Conclusions: This study gives support to the promising potential of mindfulness interventions being implemented by mental health care professionals with psoriasis patients. P128Introduction:  Patient(pt)-physician(HCP)  communication  may influence	symptom	reporting	and	disease	control.Objectives: To evaluate psoriatic arthritis (PsA) symptoms, life impact and treatment satisfaction in pts who report good communication with their HCP vs suboptimal communication.Methods:  An  online  pt-based  survey  was  conducted  in  the  US from 2 Nov–1 Dec 2017. Pts had reported having PsA for  &gt; 1 year,	taken	≥1	synthetic(s)	or	biologic(b)	DMARD	for	PsA.	Pts	reported overall health, PsA severity/symptoms/life impact, treatment satisfaction and communication experience. We evaluated differences by pt-HCP communication status.Results: Overall, 301 pts with PsA responded, mean age 45 years, 61% female, 89% self-reported moderate/severe PsA. Current PsA treatments included bDMARD (52%), sDMARD (25%), combination b/sDMARD (15%). Overall, 256 (85%) of PsA pts were managed by a rheumatologist and 15% by a dermatologist. Of the 256,  &gt; 40% reported suboptimal pt-HCP communication. Pts in the suboptimal vs good communication subgroups were typically younger, more likely to be Hispanic and reported greater life impact and lower satisfaction with pt-HCP communication (Table). Table. Pts with PsA managed by rheumatologist (n = 256) “I  worry  that  if  I  ask  too many questions my healthcare professional will see me	as	a	difficult	patient	and	it will affect the quality of care I receive”“I  often  tell  my healthcare professional	I	am	fine	when	I  am  really  experiencing symptoms”Agreen = 118 (46%)%41.65826*1186847275Disagreen = 138 (54%)%47.5*80*97Disagreen = 151 (59%)%46.8*7315790847972Agreen = 105 (41%)%41.966201085837470 Mean age (years)WhiteHispanicBlackSymptoms in past 12 monthsJoint painSkin/nail symptomsStiffness Joint swellingModerate PsASevere PsAReported impact on-emotional well being-work productivity-romance/intimacy-decision to start family-educationVery	satisfied	with	HCP	communication 4329Very	satisfied	with	treatment22*Stopped taking treatment*p &lt; 0.05Conclusions: Pts who reported suboptimal communication with their  HCP  may  have  greater  healthcare  needs  for  their  PsA  vs other pts.8983826864255654462115583378*69*66*42*36*70*2376*69*67*40*35*5532595648241775*45*871*409523619*</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="inlineStr">
+        <is>
+          <t>L Coates</t>
+        </is>
+      </c>
+      <c r="B134" s="2" t="inlineStr">
+        <is>
+          <t>School of Psychology, Trinity College DublinJohns Hopkins University School of Medicine, Baltimore, MD, USA, University of Oxford, Oxford, UK, Universidade Federal do Paraná, Curitiba, Brazil, Donald and Barbara Zucker School of Medicine at Hofstra/Northwell, Hempstead, NY, Shores Rheumatology, MI, USA, University of Manchester, Manchester, UK, Pfizer Inc, Collegeville, PA, Pfizer Inc, Groton, CT, The Harris Poll, Rochester, NY, USA, Pfizer Canada, Montréal</t>
+        </is>
+      </c>
+      <c r="C134" s="2" t="inlineStr">
+        <is>
+          <t>QC, Canada</t>
+        </is>
+      </c>
+      <c r="D134" s="2" t="inlineStr">
+        <is>
+          <t>P127</t>
+        </is>
+      </c>
+      <c r="E134" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A MIXED METHODS STUDY EXPLORING THE IMPACT OF MINDFULNESS ON PSORIASIS, ANXIETY, DEPRESSION AND QOLA LINK BETWEEN QUALITY OF PATIENT­PHYSICIAN COMMUNICATION AND PATIENT HEALTHCARE NEEDS IN PSA </t>
+        </is>
+      </c>
+      <c r="F134" s="2" t="inlineStr">
+        <is>
+          <t>Introduction: Psoriasis is a common condition with recognised psychological comorbidity. Psoriasis can have a profound impact on a patient’s life, with the prevalence of anxiety, depression, poor wellbeing and quality of life generally found to be high in psoriasis populations. Based on Buddhist psychology, mindfulness based interventions have been shown to have positive impacts on anxiety, depression, wellbeing and quality of life in various populations.Methods: Mixed methods explored the impact of a mindfulness based  cognitive  therapy  (MBCT)  intervention  on  10  psoriasis patients  using  a  Buddhist  Psychological  Model  (BPM)  as  a theoretical framework to understand changes in these variables. Quantitative  measures  of  acceptance,  attention  regulation,  attachment,  aversion,  self-compassion,  mindfulness,  rumination, worry,  wellbeing,  anxiety,  depression  and  psoriasis  symptoms were completed pre and post intervention, and participants were interviewed about their experiences of MBCT.Results: Statistically	significant	changes	in	attention,	mindfulness,	attachment,  aversion,  rumination,  quality  of  life,  anxiety  and psoriasis were found. The qualitative data provided support for the BPM as a theoretical lens with which to understand the way in which mindfulness impacts on patient quality of life, anxiety and psoriasis symptoms.Conclusions: This study gives support to the promising potential of mindfulness interventions being implemented by mental health care professionals with psoriasis patients. P128Introduction:  Patient(pt)-physician(HCP)  communication  may influence	symptom	reporting	and	disease	control.Objectives: To evaluate psoriatic arthritis (PsA) symptoms, life impact and treatment satisfaction in pts who report good communication with their HCP vs suboptimal communication.Methods:  An  online  pt-based  survey  was  conducted  in  the  US from 2 Nov–1 Dec 2017. Pts had reported having PsA for  &gt; 1 year,	taken	≥1	synthetic(s)	or	biologic(b)	DMARD	for	PsA.	Pts	reported overall health, PsA severity/symptoms/life impact, treatment satisfaction and communication experience. We evaluated differences by pt-HCP communication status.Results: Overall, 301 pts with PsA responded, mean age 45 years, 61% female, 89% self-reported moderate/severe PsA. Current PsA treatments included bDMARD (52%), sDMARD (25%), combination b/sDMARD (15%). Overall, 256 (85%) of PsA pts were managed by a rheumatologist and 15% by a dermatologist. Of the 256,  &gt; 40% reported suboptimal pt-HCP communication. Pts in the suboptimal vs good communication subgroups were typically younger, more likely to be Hispanic and reported greater life impact and lower satisfaction with pt-HCP communication (Table). Table. Pts with PsA managed by rheumatologist (n = 256) “I  worry  that  if  I  ask  too many questions my healthcare professional will see me	as	a	difficult	patient	and	it will affect the quality of care I receive”“I  often  tell  my healthcare professional	I	am	fine	when	I  am  really  experiencing symptoms”Agreen = 118 (46%)%41.65826*1186847275Disagreen = 138 (54%)%47.5*80*97Disagreen = 151 (59%)%46.8*7315790847972Agreen = 105 (41%)%41.966201085837470 Mean age (years)WhiteHispanicBlackSymptoms in past 12 monthsJoint painSkin/nail symptomsStiffness Joint swellingModerate PsASevere PsAReported impact on-emotional well being-work productivity-romance/intimacy-decision to start family-educationVery	satisfied	with	HCP	communication 4329Very	satisfied	with	treatment22*Stopped taking treatment*p &lt; 0.05Conclusions: Pts who reported suboptimal communication with their  HCP  may  have  greater  healthcare  needs  for  their  PsA  vs other pts.8983826864255654462115583378*69*66*42*36*70*2376*69*67*40*35*5532595648241775*45*871*409523619*</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="inlineStr">
+        <is>
+          <t>VF Azevedo</t>
+        </is>
+      </c>
+      <c r="B135" s="2" t="inlineStr">
+        <is>
+          <t>School of Psychology, Trinity College DublinJohns Hopkins University School of Medicine, Baltimore, MD, USA, University of Oxford, Oxford, UK, Universidade Federal do Paraná, Curitiba, Brazil, Donald and Barbara Zucker School of Medicine at Hofstra/Northwell, Hempstead, NY, Shores Rheumatology, MI, USA, University of Manchester, Manchester, UK, Pfizer Inc, Collegeville, PA, Pfizer Inc, Groton, CT, The Harris Poll, Rochester, NY, USA, Pfizer Canada, Montréal</t>
+        </is>
+      </c>
+      <c r="C135" s="2" t="inlineStr">
+        <is>
+          <t>QC, Canada</t>
+        </is>
+      </c>
+      <c r="D135" s="2" t="inlineStr">
+        <is>
+          <t>P127</t>
+        </is>
+      </c>
+      <c r="E135" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A MIXED METHODS STUDY EXPLORING THE IMPACT OF MINDFULNESS ON PSORIASIS, ANXIETY, DEPRESSION AND QOLA LINK BETWEEN QUALITY OF PATIENT­PHYSICIAN COMMUNICATION AND PATIENT HEALTHCARE NEEDS IN PSA </t>
+        </is>
+      </c>
+      <c r="F135" s="2" t="inlineStr">
+        <is>
+          <t>Introduction: Psoriasis is a common condition with recognised psychological comorbidity. Psoriasis can have a profound impact on a patient’s life, with the prevalence of anxiety, depression, poor wellbeing and quality of life generally found to be high in psoriasis populations. Based on Buddhist psychology, mindfulness based interventions have been shown to have positive impacts on anxiety, depression, wellbeing and quality of life in various populations.Methods: Mixed methods explored the impact of a mindfulness based  cognitive  therapy  (MBCT)  intervention  on  10  psoriasis patients  using  a  Buddhist  Psychological  Model  (BPM)  as  a theoretical framework to understand changes in these variables. Quantitative  measures  of  acceptance,  attention  regulation,  attachment,  aversion,  self-compassion,  mindfulness,  rumination, worry,  wellbeing,  anxiety,  depression  and  psoriasis  symptoms were completed pre and post intervention, and participants were interviewed about their experiences of MBCT.Results: Statistically	significant	changes	in	attention,	mindfulness,	attachment,  aversion,  rumination,  quality  of  life,  anxiety  and psoriasis were found. The qualitative data provided support for the BPM as a theoretical lens with which to understand the way in which mindfulness impacts on patient quality of life, anxiety and psoriasis symptoms.Conclusions: This study gives support to the promising potential of mindfulness interventions being implemented by mental health care professionals with psoriasis patients. P128Introduction:  Patient(pt)-physician(HCP)  communication  may influence	symptom	reporting	and	disease	control.Objectives: To evaluate psoriatic arthritis (PsA) symptoms, life impact and treatment satisfaction in pts who report good communication with their HCP vs suboptimal communication.Methods:  An  online  pt-based  survey  was  conducted  in  the  US from 2 Nov–1 Dec 2017. Pts had reported having PsA for  &gt; 1 year,	taken	≥1	synthetic(s)	or	biologic(b)	DMARD	for	PsA.	Pts	reported overall health, PsA severity/symptoms/life impact, treatment satisfaction and communication experience. We evaluated differences by pt-HCP communication status.Results: Overall, 301 pts with PsA responded, mean age 45 years, 61% female, 89% self-reported moderate/severe PsA. Current PsA treatments included bDMARD (52%), sDMARD (25%), combination b/sDMARD (15%). Overall, 256 (85%) of PsA pts were managed by a rheumatologist and 15% by a dermatologist. Of the 256,  &gt; 40% reported suboptimal pt-HCP communication. Pts in the suboptimal vs good communication subgroups were typically younger, more likely to be Hispanic and reported greater life impact and lower satisfaction with pt-HCP communication (Table). Table. Pts with PsA managed by rheumatologist (n = 256) “I  worry  that  if  I  ask  too many questions my healthcare professional will see me	as	a	difficult	patient	and	it will affect the quality of care I receive”“I  often  tell  my healthcare professional	I	am	fine	when	I  am  really  experiencing symptoms”Agreen = 118 (46%)%41.65826*1186847275Disagreen = 138 (54%)%47.5*80*97Disagreen = 151 (59%)%46.8*7315790847972Agreen = 105 (41%)%41.966201085837470 Mean age (years)WhiteHispanicBlackSymptoms in past 12 monthsJoint painSkin/nail symptomsStiffness Joint swellingModerate PsASevere PsAReported impact on-emotional well being-work productivity-romance/intimacy-decision to start family-educationVery	satisfied	with	HCP	communication 4329Very	satisfied	with	treatment22*Stopped taking treatment*p &lt; 0.05Conclusions: Pts who reported suboptimal communication with their  HCP  may  have  greater  healthcare  needs  for  their  PsA  vs other pts.8983826864255654462115583378*69*66*42*36*70*2376*69*67*40*35*5532595648241775*45*871*409523619*</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="inlineStr">
+        <is>
+          <t>A Garg</t>
+        </is>
+      </c>
+      <c r="B136" s="2" t="inlineStr">
+        <is>
+          <t>School of Psychology, Trinity College DublinJohns Hopkins University School of Medicine, Baltimore, MD, USA, University of Oxford, Oxford, UK, Universidade Federal do Paraná, Curitiba, Brazil, Donald and Barbara Zucker School of Medicine at Hofstra/Northwell, Hempstead, NY, Shores Rheumatology, MI, USA, University of Manchester, Manchester, UK, Pfizer Inc, Collegeville, PA, Pfizer Inc, Groton, CT, The Harris Poll, Rochester, NY, USA, Pfizer Canada, Montréal</t>
+        </is>
+      </c>
+      <c r="C136" s="2" t="inlineStr">
+        <is>
+          <t>QC, Canada</t>
+        </is>
+      </c>
+      <c r="D136" s="2" t="inlineStr">
+        <is>
+          <t>P127</t>
+        </is>
+      </c>
+      <c r="E136" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A MIXED METHODS STUDY EXPLORING THE IMPACT OF MINDFULNESS ON PSORIASIS, ANXIETY, DEPRESSION AND QOLA LINK BETWEEN QUALITY OF PATIENT­PHYSICIAN COMMUNICATION AND PATIENT HEALTHCARE NEEDS IN PSA </t>
+        </is>
+      </c>
+      <c r="F136" s="2" t="inlineStr">
+        <is>
+          <t>Introduction: Psoriasis is a common condition with recognised psychological comorbidity. Psoriasis can have a profound impact on a patient’s life, with the prevalence of anxiety, depression, poor wellbeing and quality of life generally found to be high in psoriasis populations. Based on Buddhist psychology, mindfulness based interventions have been shown to have positive impacts on anxiety, depression, wellbeing and quality of life in various populations.Methods: Mixed methods explored the impact of a mindfulness based  cognitive  therapy  (MBCT)  intervention  on  10  psoriasis patients  using  a  Buddhist  Psychological  Model  (BPM)  as  a theoretical framework to understand changes in these variables. Quantitative  measures  of  acceptance,  attention  regulation,  attachment,  aversion,  self-compassion,  mindfulness,  rumination, worry,  wellbeing,  anxiety,  depression  and  psoriasis  symptoms were completed pre and post intervention, and participants were interviewed about their experiences of MBCT.Results: Statistically	significant	changes	in	attention,	mindfulness,	attachment,  aversion,  rumination,  quality  of  life,  anxiety  and psoriasis were found. The qualitative data provided support for the BPM as a theoretical lens with which to understand the way in which mindfulness impacts on patient quality of life, anxiety and psoriasis symptoms.Conclusions: This study gives support to the promising potential of mindfulness interventions being implemented by mental health care professionals with psoriasis patients. P128Introduction:  Patient(pt)-physician(HCP)  communication  may influence	symptom	reporting	and	disease	control.Objectives: To evaluate psoriatic arthritis (PsA) symptoms, life impact and treatment satisfaction in pts who report good communication with their HCP vs suboptimal communication.Methods:  An  online  pt-based  survey  was  conducted  in  the  US from 2 Nov–1 Dec 2017. Pts had reported having PsA for  &gt; 1 year,	taken	≥1	synthetic(s)	or	biologic(b)	DMARD	for	PsA.	Pts	reported overall health, PsA severity/symptoms/life impact, treatment satisfaction and communication experience. We evaluated differences by pt-HCP communication status.Results: Overall, 301 pts with PsA responded, mean age 45 years, 61% female, 89% self-reported moderate/severe PsA. Current PsA treatments included bDMARD (52%), sDMARD (25%), combination b/sDMARD (15%). Overall, 256 (85%) of PsA pts were managed by a rheumatologist and 15% by a dermatologist. Of the 256,  &gt; 40% reported suboptimal pt-HCP communication. Pts in the suboptimal vs good communication subgroups were typically younger, more likely to be Hispanic and reported greater life impact and lower satisfaction with pt-HCP communication (Table). Table. Pts with PsA managed by rheumatologist (n = 256) “I  worry  that  if  I  ask  too many questions my healthcare professional will see me	as	a	difficult	patient	and	it will affect the quality of care I receive”“I  often  tell  my healthcare professional	I	am	fine	when	I  am  really  experiencing symptoms”Agreen = 118 (46%)%41.65826*1186847275Disagreen = 138 (54%)%47.5*80*97Disagreen = 151 (59%)%46.8*7315790847972Agreen = 105 (41%)%41.966201085837470 Mean age (years)WhiteHispanicBlackSymptoms in past 12 monthsJoint painSkin/nail symptomsStiffness Joint swellingModerate PsASevere PsAReported impact on-emotional well being-work productivity-romance/intimacy-decision to start family-educationVery	satisfied	with	HCP	communication 4329Very	satisfied	with	treatment22*Stopped taking treatment*p &lt; 0.05Conclusions: Pts who reported suboptimal communication with their  HCP  may  have  greater  healthcare  needs  for  their  PsA  vs other pts.8983826864255654462115583378*69*66*42*36*70*2376*69*67*40*35*5532595648241775*45*871*409523619*</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="inlineStr">
+        <is>
+          <t>A Majjhoo</t>
+        </is>
+      </c>
+      <c r="B137" s="2" t="inlineStr">
+        <is>
+          <t>School of Psychology, Trinity College DublinJohns Hopkins University School of Medicine, Baltimore, MD, USA, University of Oxford, Oxford, UK, Universidade Federal do Paraná, Curitiba, Brazil, Donald and Barbara Zucker School of Medicine at Hofstra/Northwell, Hempstead, NY, Shores Rheumatology, MI, USA, University of Manchester, Manchester, UK, Pfizer Inc, Collegeville, PA, Pfizer Inc, Groton, CT, The Harris Poll, Rochester, NY, USA, Pfizer Canada, Montréal</t>
+        </is>
+      </c>
+      <c r="C137" s="2" t="inlineStr">
+        <is>
+          <t>QC, Canada</t>
+        </is>
+      </c>
+      <c r="D137" s="2" t="inlineStr">
+        <is>
+          <t>P127</t>
+        </is>
+      </c>
+      <c r="E137" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A MIXED METHODS STUDY EXPLORING THE IMPACT OF MINDFULNESS ON PSORIASIS, ANXIETY, DEPRESSION AND QOLA LINK BETWEEN QUALITY OF PATIENT­PHYSICIAN COMMUNICATION AND PATIENT HEALTHCARE NEEDS IN PSA </t>
+        </is>
+      </c>
+      <c r="F137" s="2" t="inlineStr">
+        <is>
+          <t>Introduction: Psoriasis is a common condition with recognised psychological comorbidity. Psoriasis can have a profound impact on a patient’s life, with the prevalence of anxiety, depression, poor wellbeing and quality of life generally found to be high in psoriasis populations. Based on Buddhist psychology, mindfulness based interventions have been shown to have positive impacts on anxiety, depression, wellbeing and quality of life in various populations.Methods: Mixed methods explored the impact of a mindfulness based  cognitive  therapy  (MBCT)  intervention  on  10  psoriasis patients  using  a  Buddhist  Psychological  Model  (BPM)  as  a theoretical framework to understand changes in these variables. Quantitative  measures  of  acceptance,  attention  regulation,  attachment,  aversion,  self-compassion,  mindfulness,  rumination, worry,  wellbeing,  anxiety,  depression  and  psoriasis  symptoms were completed pre and post intervention, and participants were interviewed about their experiences of MBCT.Results: Statistically	significant	changes	in	attention,	mindfulness,	attachment,  aversion,  rumination,  quality  of  life,  anxiety  and psoriasis were found. The qualitative data provided support for the BPM as a theoretical lens with which to understand the way in which mindfulness impacts on patient quality of life, anxiety and psoriasis symptoms.Conclusions: This study gives support to the promising potential of mindfulness interventions being implemented by mental health care professionals with psoriasis patients. P128Introduction:  Patient(pt)-physician(HCP)  communication  may influence	symptom	reporting	and	disease	control.Objectives: To evaluate psoriatic arthritis (PsA) symptoms, life impact and treatment satisfaction in pts who report good communication with their HCP vs suboptimal communication.Methods:  An  online  pt-based  survey  was  conducted  in  the  US from 2 Nov–1 Dec 2017. Pts had reported having PsA for  &gt; 1 year,	taken	≥1	synthetic(s)	or	biologic(b)	DMARD	for	PsA.	Pts	reported overall health, PsA severity/symptoms/life impact, treatment satisfaction and communication experience. We evaluated differences by pt-HCP communication status.Results: Overall, 301 pts with PsA responded, mean age 45 years, 61% female, 89% self-reported moderate/severe PsA. Current PsA treatments included bDMARD (52%), sDMARD (25%), combination b/sDMARD (15%). Overall, 256 (85%) of PsA pts were managed by a rheumatologist and 15% by a dermatologist. Of the 256,  &gt; 40% reported suboptimal pt-HCP communication. Pts in the suboptimal vs good communication subgroups were typically younger, more likely to be Hispanic and reported greater life impact and lower satisfaction with pt-HCP communication (Table). Table. Pts with PsA managed by rheumatologist (n = 256) “I  worry  that  if  I  ask  too many questions my healthcare professional will see me	as	a	difficult	patient	and	it will affect the quality of care I receive”“I  often  tell  my healthcare professional	I	am	fine	when	I  am  really  experiencing symptoms”Agreen = 118 (46%)%41.65826*1186847275Disagreen = 138 (54%)%47.5*80*97Disagreen = 151 (59%)%46.8*7315790847972Agreen = 105 (41%)%41.966201085837470 Mean age (years)WhiteHispanicBlackSymptoms in past 12 monthsJoint painSkin/nail symptomsStiffness Joint swellingModerate PsASevere PsAReported impact on-emotional well being-work productivity-romance/intimacy-decision to start family-educationVery	satisfied	with	HCP	communication 4329Very	satisfied	with	treatment22*Stopped taking treatment*p &lt; 0.05Conclusions: Pts who reported suboptimal communication with their  HCP  may  have  greater  healthcare  needs  for  their  PsA  vs other pts.8983826864255654462115583378*69*66*42*36*70*2376*69*67*40*35*5532595648241775*45*871*409523619*</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="inlineStr">
+        <is>
+          <t>CEM Griffiths</t>
+        </is>
+      </c>
+      <c r="B138" s="2" t="inlineStr">
+        <is>
+          <t>School of Psychology, Trinity College DublinJohns Hopkins University School of Medicine, Baltimore, MD, USA, University of Oxford, Oxford, UK, Universidade Federal do Paraná, Curitiba, Brazil, Donald and Barbara Zucker School of Medicine at Hofstra/Northwell, Hempstead, NY, Shores Rheumatology, MI, USA, University of Manchester, Manchester, UK, Pfizer Inc, Collegeville, PA, Pfizer Inc, Groton, CT, The Harris Poll, Rochester, NY, USA, Pfizer Canada, Montréal</t>
+        </is>
+      </c>
+      <c r="C138" s="2" t="inlineStr">
+        <is>
+          <t>QC, Canada</t>
+        </is>
+      </c>
+      <c r="D138" s="2" t="inlineStr">
+        <is>
+          <t>P127</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A MIXED METHODS STUDY EXPLORING THE IMPACT OF MINDFULNESS ON PSORIASIS, ANXIETY, DEPRESSION AND QOLA LINK BETWEEN QUALITY OF PATIENT­PHYSICIAN COMMUNICATION AND PATIENT HEALTHCARE NEEDS IN PSA </t>
+        </is>
+      </c>
+      <c r="F138" s="2" t="inlineStr">
+        <is>
+          <t>Introduction: Psoriasis is a common condition with recognised psychological comorbidity. Psoriasis can have a profound impact on a patient’s life, with the prevalence of anxiety, depression, poor wellbeing and quality of life generally found to be high in psoriasis populations. Based on Buddhist psychology, mindfulness based interventions have been shown to have positive impacts on anxiety, depression, wellbeing and quality of life in various populations.Methods: Mixed methods explored the impact of a mindfulness based  cognitive  therapy  (MBCT)  intervention  on  10  psoriasis patients  using  a  Buddhist  Psychological  Model  (BPM)  as  a theoretical framework to understand changes in these variables. Quantitative  measures  of  acceptance,  attention  regulation,  attachment,  aversion,  self-compassion,  mindfulness,  rumination, worry,  wellbeing,  anxiety,  depression  and  psoriasis  symptoms were completed pre and post intervention, and participants were interviewed about their experiences of MBCT.Results: Statistically	significant	changes	in	attention,	mindfulness,	attachment,  aversion,  rumination,  quality  of  life,  anxiety  and psoriasis were found. The qualitative data provided support for the BPM as a theoretical lens with which to understand the way in which mindfulness impacts on patient quality of life, anxiety and psoriasis symptoms.Conclusions: This study gives support to the promising potential of mindfulness interventions being implemented by mental health care professionals with psoriasis patients. P128Introduction:  Patient(pt)-physician(HCP)  communication  may influence	symptom	reporting	and	disease	control.Objectives: To evaluate psoriatic arthritis (PsA) symptoms, life impact and treatment satisfaction in pts who report good communication with their HCP vs suboptimal communication.Methods:  An  online  pt-based  survey  was  conducted  in  the  US from 2 Nov–1 Dec 2017. Pts had reported having PsA for  &gt; 1 year,	taken	≥1	synthetic(s)	or	biologic(b)	DMARD	for	PsA.	Pts	reported overall health, PsA severity/symptoms/life impact, treatment satisfaction and communication experience. We evaluated differences by pt-HCP communication status.Results: Overall, 301 pts with PsA responded, mean age 45 years, 61% female, 89% self-reported moderate/severe PsA. Current PsA treatments included bDMARD (52%), sDMARD (25%), combination b/sDMARD (15%). Overall, 256 (85%) of PsA pts were managed by a rheumatologist and 15% by a dermatologist. Of the 256,  &gt; 40% reported suboptimal pt-HCP communication. Pts in the suboptimal vs good communication subgroups were typically younger, more likely to be Hispanic and reported greater life impact and lower satisfaction with pt-HCP communication (Table). Table. Pts with PsA managed by rheumatologist (n = 256) “I  worry  that  if  I  ask  too many questions my healthcare professional will see me	as	a	difficult	patient	and	it will affect the quality of care I receive”“I  often  tell  my healthcare professional	I	am	fine	when	I  am  really  experiencing symptoms”Agreen = 118 (46%)%41.65826*1186847275Disagreen = 138 (54%)%47.5*80*97Disagreen = 151 (59%)%46.8*7315790847972Agreen = 105 (41%)%41.966201085837470 Mean age (years)WhiteHispanicBlackSymptoms in past 12 monthsJoint painSkin/nail symptomsStiffness Joint swellingModerate PsASevere PsAReported impact on-emotional well being-work productivity-romance/intimacy-decision to start family-educationVery	satisfied	with	HCP	communication 4329Very	satisfied	with	treatment22*Stopped taking treatment*p &lt; 0.05Conclusions: Pts who reported suboptimal communication with their  HCP  may  have  greater  healthcare  needs  for  their  PsA  vs other pts.8983826864255654462115583378*69*66*42*36*70*2376*69*67*40*35*5532595648241775*45*871*409523619*</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="inlineStr">
+        <is>
+          <t>P Young</t>
+        </is>
+      </c>
+      <c r="B139" s="2" t="inlineStr">
+        <is>
+          <t>School of Psychology, Trinity College DublinJohns Hopkins University School of Medicine, Baltimore, MD, USA, University of Oxford, Oxford, UK, Universidade Federal do Paraná, Curitiba, Brazil, Donald and Barbara Zucker School of Medicine at Hofstra/Northwell, Hempstead, NY, Shores Rheumatology, MI, USA, University of Manchester, Manchester, UK, Pfizer Inc, Collegeville, PA, Pfizer Inc, Groton, CT, The Harris Poll, Rochester, NY, USA, Pfizer Canada, Montréal</t>
+        </is>
+      </c>
+      <c r="C139" s="2" t="inlineStr">
+        <is>
+          <t>QC, Canada</t>
+        </is>
+      </c>
+      <c r="D139" s="2" t="inlineStr">
+        <is>
+          <t>P127</t>
+        </is>
+      </c>
+      <c r="E139" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A MIXED METHODS STUDY EXPLORING THE IMPACT OF MINDFULNESS ON PSORIASIS, ANXIETY, DEPRESSION AND QOLA LINK BETWEEN QUALITY OF PATIENT­PHYSICIAN COMMUNICATION AND PATIENT HEALTHCARE NEEDS IN PSA </t>
+        </is>
+      </c>
+      <c r="F139" s="2" t="inlineStr">
+        <is>
+          <t>Introduction: Psoriasis is a common condition with recognised psychological comorbidity. Psoriasis can have a profound impact on a patient’s life, with the prevalence of anxiety, depression, poor wellbeing and quality of life generally found to be high in psoriasis populations. Based on Buddhist psychology, mindfulness based interventions have been shown to have positive impacts on anxiety, depression, wellbeing and quality of life in various populations.Methods: Mixed methods explored the impact of a mindfulness based  cognitive  therapy  (MBCT)  intervention  on  10  psoriasis patients  using  a  Buddhist  Psychological  Model  (BPM)  as  a theoretical framework to understand changes in these variables. Quantitative  measures  of  acceptance,  attention  regulation,  attachment,  aversion,  self-compassion,  mindfulness,  rumination, worry,  wellbeing,  anxiety,  depression  and  psoriasis  symptoms were completed pre and post intervention, and participants were interviewed about their experiences of MBCT.Results: Statistically	significant	changes	in	attention,	mindfulness,	attachment,  aversion,  rumination,  quality  of  life,  anxiety  and psoriasis were found. The qualitative data provided support for the BPM as a theoretical lens with which to understand the way in which mindfulness impacts on patient quality of life, anxiety and psoriasis symptoms.Conclusions: This study gives support to the promising potential of mindfulness interventions being implemented by mental health care professionals with psoriasis patients. P128Introduction:  Patient(pt)-physician(HCP)  communication  may influence	symptom	reporting	and	disease	control.Objectives: To evaluate psoriatic arthritis (PsA) symptoms, life impact and treatment satisfaction in pts who report good communication with their HCP vs suboptimal communication.Methods:  An  online  pt-based  survey  was  conducted  in  the  US from 2 Nov–1 Dec 2017. Pts had reported having PsA for  &gt; 1 year,	taken	≥1	synthetic(s)	or	biologic(b)	DMARD	for	PsA.	Pts	reported overall health, PsA severity/symptoms/life impact, treatment satisfaction and communication experience. We evaluated differences by pt-HCP communication status.Results: Overall, 301 pts with PsA responded, mean age 45 years, 61% female, 89% self-reported moderate/severe PsA. Current PsA treatments included bDMARD (52%), sDMARD (25%), combination b/sDMARD (15%). Overall, 256 (85%) of PsA pts were managed by a rheumatologist and 15% by a dermatologist. Of the 256,  &gt; 40% reported suboptimal pt-HCP communication. Pts in the suboptimal vs good communication subgroups were typically younger, more likely to be Hispanic and reported greater life impact and lower satisfaction with pt-HCP communication (Table). Table. Pts with PsA managed by rheumatologist (n = 256) “I  worry  that  if  I  ask  too many questions my healthcare professional will see me	as	a	difficult	patient	and	it will affect the quality of care I receive”“I  often  tell  my healthcare professional	I	am	fine	when	I  am  really  experiencing symptoms”Agreen = 118 (46%)%41.65826*1186847275Disagreen = 138 (54%)%47.5*80*97Disagreen = 151 (59%)%46.8*7315790847972Agreen = 105 (41%)%41.966201085837470 Mean age (years)WhiteHispanicBlackSymptoms in past 12 monthsJoint painSkin/nail symptomsStiffness Joint swellingModerate PsASevere PsAReported impact on-emotional well being-work productivity-romance/intimacy-decision to start family-educationVery	satisfied	with	HCP	communication 4329Very	satisfied	with	treatment22*Stopped taking treatment*p &lt; 0.05Conclusions: Pts who reported suboptimal communication with their  HCP  may  have  greater  healthcare  needs  for  their  PsA  vs other pts.8983826864255654462115583378*69*66*42*36*70*2376*69*67*40*35*5532595648241775*45*871*409523619*</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="inlineStr">
+        <is>
+          <t>JC Cappelleri</t>
+        </is>
+      </c>
+      <c r="B140" s="2" t="inlineStr">
+        <is>
+          <t>School of Psychology, Trinity College DublinJohns Hopkins University School of Medicine, Baltimore, MD, USA, University of Oxford, Oxford, UK, Universidade Federal do Paraná, Curitiba, Brazil, Donald and Barbara Zucker School of Medicine at Hofstra/Northwell, Hempstead, NY, Shores Rheumatology, MI, USA, University of Manchester, Manchester, UK, Pfizer Inc, Collegeville, PA, Pfizer Inc, Groton, CT, The Harris Poll, Rochester, NY, USA, Pfizer Canada, Montréal</t>
+        </is>
+      </c>
+      <c r="C140" s="2" t="inlineStr">
+        <is>
+          <t>QC, Canada</t>
+        </is>
+      </c>
+      <c r="D140" s="2" t="inlineStr">
+        <is>
+          <t>P127</t>
+        </is>
+      </c>
+      <c r="E140" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A MIXED METHODS STUDY EXPLORING THE IMPACT OF MINDFULNESS ON PSORIASIS, ANXIETY, DEPRESSION AND QOLA LINK BETWEEN QUALITY OF PATIENT­PHYSICIAN COMMUNICATION AND PATIENT HEALTHCARE NEEDS IN PSA </t>
+        </is>
+      </c>
+      <c r="F140" s="2" t="inlineStr">
+        <is>
+          <t>Introduction: Psoriasis is a common condition with recognised psychological comorbidity. Psoriasis can have a profound impact on a patient’s life, with the prevalence of anxiety, depression, poor wellbeing and quality of life generally found to be high in psoriasis populations. Based on Buddhist psychology, mindfulness based interventions have been shown to have positive impacts on anxiety, depression, wellbeing and quality of life in various populations.Methods: Mixed methods explored the impact of a mindfulness based  cognitive  therapy  (MBCT)  intervention  on  10  psoriasis patients  using  a  Buddhist  Psychological  Model  (BPM)  as  a theoretical framework to understand changes in these variables. Quantitative  measures  of  acceptance,  attention  regulation,  attachment,  aversion,  self-compassion,  mindfulness,  rumination, worry,  wellbeing,  anxiety,  depression  and  psoriasis  symptoms were completed pre and post intervention, and participants were interviewed about their experiences of MBCT.Results: Statistically	significant	changes	in	attention,	mindfulness,	attachment,  aversion,  rumination,  quality  of  life,  anxiety  and psoriasis were found. The qualitative data provided support for the BPM as a theoretical lens with which to understand the way in which mindfulness impacts on patient quality of life, anxiety and psoriasis symptoms.Conclusions: This study gives support to the promising potential of mindfulness interventions being implemented by mental health care professionals with psoriasis patients. P128Introduction:  Patient(pt)-physician(HCP)  communication  may influence	symptom	reporting	and	disease	control.Objectives: To evaluate psoriatic arthritis (PsA) symptoms, life impact and treatment satisfaction in pts who report good communication with their HCP vs suboptimal communication.Methods:  An  online  pt-based  survey  was  conducted  in  the  US from 2 Nov–1 Dec 2017. Pts had reported having PsA for  &gt; 1 year,	taken	≥1	synthetic(s)	or	biologic(b)	DMARD	for	PsA.	Pts	reported overall health, PsA severity/symptoms/life impact, treatment satisfaction and communication experience. We evaluated differences by pt-HCP communication status.Results: Overall, 301 pts with PsA responded, mean age 45 years, 61% female, 89% self-reported moderate/severe PsA. Current PsA treatments included bDMARD (52%), sDMARD (25%), combination b/sDMARD (15%). Overall, 256 (85%) of PsA pts were managed by a rheumatologist and 15% by a dermatologist. Of the 256,  &gt; 40% reported suboptimal pt-HCP communication. Pts in the suboptimal vs good communication subgroups were typically younger, more likely to be Hispanic and reported greater life impact and lower satisfaction with pt-HCP communication (Table). Table. Pts with PsA managed by rheumatologist (n = 256) “I  worry  that  if  I  ask  too many questions my healthcare professional will see me	as	a	difficult	patient	and	it will affect the quality of care I receive”“I  often  tell  my healthcare professional	I	am	fine	when	I  am  really  experiencing symptoms”Agreen = 118 (46%)%41.65826*1186847275Disagreen = 138 (54%)%47.5*80*97Disagreen = 151 (59%)%46.8*7315790847972Agreen = 105 (41%)%41.966201085837470 Mean age (years)WhiteHispanicBlackSymptoms in past 12 monthsJoint painSkin/nail symptomsStiffness Joint swellingModerate PsASevere PsAReported impact on-emotional well being-work productivity-romance/intimacy-decision to start family-educationVery	satisfied	with	HCP	communication 4329Very	satisfied	with	treatment22*Stopped taking treatment*p &lt; 0.05Conclusions: Pts who reported suboptimal communication with their  HCP  may  have  greater  healthcare  needs  for  their  PsA  vs other pts.8983826864255654462115583378*69*66*42*36*70*2376*69*67*40*35*5532595648241775*45*871*409523619*</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="inlineStr">
+        <is>
+          <t>J Moser</t>
+        </is>
+      </c>
+      <c r="B141" s="2" t="inlineStr">
+        <is>
+          <t>School of Psychology, Trinity College DublinJohns Hopkins University School of Medicine, Baltimore, MD, USA, University of Oxford, Oxford, UK, Universidade Federal do Paraná, Curitiba, Brazil, Donald and Barbara Zucker School of Medicine at Hofstra/Northwell, Hempstead, NY, Shores Rheumatology, MI, USA, University of Manchester, Manchester, UK, Pfizer Inc, Collegeville, PA, Pfizer Inc, Groton, CT, The Harris Poll, Rochester, NY, USA, Pfizer Canada, Montréal</t>
+        </is>
+      </c>
+      <c r="C141" s="2" t="inlineStr">
+        <is>
+          <t>QC, Canada</t>
+        </is>
+      </c>
+      <c r="D141" s="2" t="inlineStr">
+        <is>
+          <t>P127</t>
+        </is>
+      </c>
+      <c r="E141" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A MIXED METHODS STUDY EXPLORING THE IMPACT OF MINDFULNESS ON PSORIASIS, ANXIETY, DEPRESSION AND QOLA LINK BETWEEN QUALITY OF PATIENT­PHYSICIAN COMMUNICATION AND PATIENT HEALTHCARE NEEDS IN PSA </t>
+        </is>
+      </c>
+      <c r="F141" s="2" t="inlineStr">
+        <is>
+          <t>Introduction: Psoriasis is a common condition with recognised psychological comorbidity. Psoriasis can have a profound impact on a patient’s life, with the prevalence of anxiety, depression, poor wellbeing and quality of life generally found to be high in psoriasis populations. Based on Buddhist psychology, mindfulness based interventions have been shown to have positive impacts on anxiety, depression, wellbeing and quality of life in various populations.Methods: Mixed methods explored the impact of a mindfulness based  cognitive  therapy  (MBCT)  intervention  on  10  psoriasis patients  using  a  Buddhist  Psychological  Model  (BPM)  as  a theoretical framework to understand changes in these variables. Quantitative  measures  of  acceptance,  attention  regulation,  attachment,  aversion,  self-compassion,  mindfulness,  rumination, worry,  wellbeing,  anxiety,  depression  and  psoriasis  symptoms were completed pre and post intervention, and participants were interviewed about their experiences of MBCT.Results: Statistically	significant	changes	in	attention,	mindfulness,	attachment,  aversion,  rumination,  quality  of  life,  anxiety  and psoriasis were found. The qualitative data provided support for the BPM as a theoretical lens with which to understand the way in which mindfulness impacts on patient quality of life, anxiety and psoriasis symptoms.Conclusions: This study gives support to the promising potential of mindfulness interventions being implemented by mental health care professionals with psoriasis patients. P128Introduction:  Patient(pt)-physician(HCP)  communication  may influence	symptom	reporting	and	disease	control.Objectives: To evaluate psoriatic arthritis (PsA) symptoms, life impact and treatment satisfaction in pts who report good communication with their HCP vs suboptimal communication.Methods:  An  online  pt-based  survey  was  conducted  in  the  US from 2 Nov–1 Dec 2017. Pts had reported having PsA for  &gt; 1 year,	taken	≥1	synthetic(s)	or	biologic(b)	DMARD	for	PsA.	Pts	reported overall health, PsA severity/symptoms/life impact, treatment satisfaction and communication experience. We evaluated differences by pt-HCP communication status.Results: Overall, 301 pts with PsA responded, mean age 45 years, 61% female, 89% self-reported moderate/severe PsA. Current PsA treatments included bDMARD (52%), sDMARD (25%), combination b/sDMARD (15%). Overall, 256 (85%) of PsA pts were managed by a rheumatologist and 15% by a dermatologist. Of the 256,  &gt; 40% reported suboptimal pt-HCP communication. Pts in the suboptimal vs good communication subgroups were typically younger, more likely to be Hispanic and reported greater life impact and lower satisfaction with pt-HCP communication (Table). Table. Pts with PsA managed by rheumatologist (n = 256) “I  worry  that  if  I  ask  too many questions my healthcare professional will see me	as	a	difficult	patient	and	it will affect the quality of care I receive”“I  often  tell  my healthcare professional	I	am	fine	when	I  am  really  experiencing symptoms”Agreen = 118 (46%)%41.65826*1186847275Disagreen = 138 (54%)%47.5*80*97Disagreen = 151 (59%)%46.8*7315790847972Agreen = 105 (41%)%41.966201085837470 Mean age (years)WhiteHispanicBlackSymptoms in past 12 monthsJoint painSkin/nail symptomsStiffness Joint swellingModerate PsASevere PsAReported impact on-emotional well being-work productivity-romance/intimacy-decision to start family-educationVery	satisfied	with	HCP	communication 4329Very	satisfied	with	treatment22*Stopped taking treatment*p &lt; 0.05Conclusions: Pts who reported suboptimal communication with their  HCP  may  have  greater  healthcare  needs  for  their  PsA  vs other pts.8983826864255654462115583378*69*66*42*36*70*2376*69*67*40*35*5532595648241775*45*871*409523619*</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="inlineStr">
+        <is>
+          <t>L Fallon</t>
+        </is>
+      </c>
+      <c r="B142" s="2" t="inlineStr">
+        <is>
+          <t>School of Psychology, Trinity College DublinJohns Hopkins University School of Medicine, Baltimore, MD, USA, University of Oxford, Oxford, UK, Universidade Federal do Paraná, Curitiba, Brazil, Donald and Barbara Zucker School of Medicine at Hofstra/Northwell, Hempstead, NY, Shores Rheumatology, MI, USA, University of Manchester, Manchester, UK, Pfizer Inc, Collegeville, PA, Pfizer Inc, Groton, CT, The Harris Poll, Rochester, NY, USA, Pfizer Canada, Montréal</t>
+        </is>
+      </c>
+      <c r="C142" s="2" t="inlineStr">
+        <is>
+          <t>QC, Canada</t>
+        </is>
+      </c>
+      <c r="D142" s="2" t="inlineStr">
+        <is>
+          <t>P127</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A MIXED METHODS STUDY EXPLORING THE IMPACT OF MINDFULNESS ON PSORIASIS, ANXIETY, DEPRESSION AND QOLA LINK BETWEEN QUALITY OF PATIENT­PHYSICIAN COMMUNICATION AND PATIENT HEALTHCARE NEEDS IN PSA </t>
+        </is>
+      </c>
+      <c r="F142" s="2" t="inlineStr">
+        <is>
+          <t>Introduction: Psoriasis is a common condition with recognised psychological comorbidity. Psoriasis can have a profound impact on a patient’s life, with the prevalence of anxiety, depression, poor wellbeing and quality of life generally found to be high in psoriasis populations. Based on Buddhist psychology, mindfulness based interventions have been shown to have positive impacts on anxiety, depression, wellbeing and quality of life in various populations.Methods: Mixed methods explored the impact of a mindfulness based  cognitive  therapy  (MBCT)  intervention  on  10  psoriasis patients  using  a  Buddhist  Psychological  Model  (BPM)  as  a theoretical framework to understand changes in these variables. Quantitative  measures  of  acceptance,  attention  regulation,  attachment,  aversion,  self-compassion,  mindfulness,  rumination, worry,  wellbeing,  anxiety,  depression  and  psoriasis  symptoms were completed pre and post intervention, and participants were interviewed about their experiences of MBCT.Results: Statistically	significant	changes	in	attention,	mindfulness,	attachment,  aversion,  rumination,  quality  of  life,  anxiety  and psoriasis were found. The qualitative data provided support for the BPM as a theoretical lens with which to understand the way in which mindfulness impacts on patient quality of life, anxiety and psoriasis symptoms.Conclusions: This study gives support to the promising potential of mindfulness interventions being implemented by mental health care professionals with psoriasis patients. P128Introduction:  Patient(pt)-physician(HCP)  communication  may influence	symptom	reporting	and	disease	control.Objectives: To evaluate psoriatic arthritis (PsA) symptoms, life impact and treatment satisfaction in pts who report good communication with their HCP vs suboptimal communication.Methods:  An  online  pt-based  survey  was  conducted  in  the  US from 2 Nov–1 Dec 2017. Pts had reported having PsA for  &gt; 1 year,	taken	≥1	synthetic(s)	or	biologic(b)	DMARD	for	PsA.	Pts	reported overall health, PsA severity/symptoms/life impact, treatment satisfaction and communication experience. We evaluated differences by pt-HCP communication status.Results: Overall, 301 pts with PsA responded, mean age 45 years, 61% female, 89% self-reported moderate/severe PsA. Current PsA treatments included bDMARD (52%), sDMARD (25%), combination b/sDMARD (15%). Overall, 256 (85%) of PsA pts were managed by a rheumatologist and 15% by a dermatologist. Of the 256,  &gt; 40% reported suboptimal pt-HCP communication. Pts in the suboptimal vs good communication subgroups were typically younger, more likely to be Hispanic and reported greater life impact and lower satisfaction with pt-HCP communication (Table). Table. Pts with PsA managed by rheumatologist (n = 256) “I  worry  that  if  I  ask  too many questions my healthcare professional will see me	as	a	difficult	patient	and	it will affect the quality of care I receive”“I  often  tell  my healthcare professional	I	am	fine	when	I  am  really  experiencing symptoms”Agreen = 118 (46%)%41.65826*1186847275Disagreen = 138 (54%)%47.5*80*97Disagreen = 151 (59%)%46.8*7315790847972Agreen = 105 (41%)%41.966201085837470 Mean age (years)WhiteHispanicBlackSymptoms in past 12 monthsJoint painSkin/nail symptomsStiffness Joint swellingModerate PsASevere PsAReported impact on-emotional well being-work productivity-romance/intimacy-decision to start family-educationVery	satisfied	with	HCP	communication 4329Very	satisfied	with	treatment22*Stopped taking treatment*p &lt; 0.05Conclusions: Pts who reported suboptimal communication with their  HCP  may  have  greater  healthcare  needs  for  their  PsA  vs other pts.8983826864255654462115583378*69*66*42*36*70*2376*69*67*40*35*5532595648241775*45*871*409523619*</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="inlineStr">
+        <is>
+          <t>Elena Popa</t>
+        </is>
+      </c>
+      <c r="B143" s="2" t="inlineStr">
+        <is>
+          <t>Department of Dermatology and Venereology, Clinical Emergency City Hospital Timisoara; University of Medicine and Pharmacy “Victor Babes” Timisoara, Romania, University of Medicine and Pharmacy “Victor Ba-bes” Timisoara, Romania</t>
+        </is>
+      </c>
+      <c r="C143" s="2" t="inlineStr"/>
+      <c r="D143" s="2" t="inlineStr">
+        <is>
+          <t>P129</t>
+        </is>
+      </c>
+      <c r="E143" s="2" t="inlineStr">
+        <is>
+          <t>PSORIASIS PATIENTS POINT OF VIEW: WHAT ARE WE MISSING WHEN MANAGING THEM?</t>
+        </is>
+      </c>
+      <c r="F143" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Introduction:  Psoriasis  is  a  skin  disease  that  can  occur  at  any time and it is most common in the age group 50–69. The reported prevalence of Psoriasis in countries ranges between 0.09% and 11.4%, making it a serious global problem.Psoriasis affects the quality of life and it is associated with many comorbidities such as depression, diabetes, cardiovascular disease and psoriatic arthritis.To	evaluate	the	severity	and	the	efficiency	of	the	treatment	applied	to patients with Psoriasis, in practice it is used PASI (Psoriasis Area and Severity Index). The value may vary, for example, in this study, PASI 75 represents the percentage (or number) of patients that have achieved a 75% or more reduction in their PASI score in 12 weeks from baseline.Objectives: Aim of this study is to gain a better perspective on the Psoriasis patient’s point of view when seeking a physician’s help,  therefore,  to  try  and  minimize  the  gaps  that  exist  when managing them.Methods: This study was based on a custom questionnaire which included  14  questions  for  each  patient.  The  responses  were gathered from 20 patients (and it is still ongoing) diagnosed in our Department of Dermatology and Venereology Timisoara, each in	 different	 stages	 of	 disease.	All	 the	 answers	 are	 confidential	and  anonymous. An  informed  consent  was  signed  prior  to  any taken actions. To achieve meaningful results, we asked patients to be honest and to present the situation in a real way. The most important question on the questionnaire was “Which of the three options  represents  the  PASI  score  you  would  like  to  achieve? 50/75/90?”. In addition to this question, we provided the patients with three pictures each of them showing a different PASI score, so they can choose the proper answer much easier.Results: 80% of the patients chose PASI 90, 15% chose PASI 75 and only 5% chose PASI 50.In addition to this, the gender distribution showed us that 100% of  the  female  patients  chose  PASI  90,  proving  how  important appearance is for them, and how much of a weight it is for them to  have  disease  that  is  in  the  limelight.  On  the  other  hand,  the male patients were divided into three groups. 69% said that the efficiency	of	the	therapy	is	very	good,	choosing	PASI	90.	Only	23% of male patients consider PASI 75 satisfying and the last 8% represents PASI 50.Conclusions: Psoriasis	is	a	chronic	inflammatory	disease,	which	is intensively studied at the cellular and molecular level. What is considered a good response to a treatment is sometimes different from the perception of a patient vs. a physician, therefore we must always keep a balance between aiming high (and maybe risking to over-treat some patients) and meeting the patient’s expectations. </t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="inlineStr">
+        <is>
+          <t>Alexandra Brahas</t>
+        </is>
+      </c>
+      <c r="B144" s="2" t="inlineStr">
+        <is>
+          <t>Department of Dermatology and Venereology, Clinical Emergency City Hospital Timisoara; University of Medicine and Pharmacy “Victor Babes” Timisoara, Romania, University of Medicine and Pharmacy “Victor Ba-bes” Timisoara, Romania</t>
+        </is>
+      </c>
+      <c r="C144" s="2" t="inlineStr"/>
+      <c r="D144" s="2" t="inlineStr">
+        <is>
+          <t>P129</t>
+        </is>
+      </c>
+      <c r="E144" s="2" t="inlineStr">
+        <is>
+          <t>PSORIASIS PATIENTS POINT OF VIEW: WHAT ARE WE MISSING WHEN MANAGING THEM?</t>
+        </is>
+      </c>
+      <c r="F144" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Introduction:  Psoriasis  is  a  skin  disease  that  can  occur  at  any time and it is most common in the age group 50–69. The reported prevalence of Psoriasis in countries ranges between 0.09% and 11.4%, making it a serious global problem.Psoriasis affects the quality of life and it is associated with many comorbidities such as depression, diabetes, cardiovascular disease and psoriatic arthritis.To	evaluate	the	severity	and	the	efficiency	of	the	treatment	applied	to patients with Psoriasis, in practice it is used PASI (Psoriasis Area and Severity Index). The value may vary, for example, in this study, PASI 75 represents the percentage (or number) of patients that have achieved a 75% or more reduction in their PASI score in 12 weeks from baseline.Objectives: Aim of this study is to gain a better perspective on the Psoriasis patient’s point of view when seeking a physician’s help,  therefore,  to  try  and  minimize  the  gaps  that  exist  when managing them.Methods: This study was based on a custom questionnaire which included  14  questions  for  each  patient.  The  responses  were gathered from 20 patients (and it is still ongoing) diagnosed in our Department of Dermatology and Venereology Timisoara, each in	 different	 stages	 of	 disease.	All	 the	 answers	 are	 confidential	and  anonymous. An  informed  consent  was  signed  prior  to  any taken actions. To achieve meaningful results, we asked patients to be honest and to present the situation in a real way. The most important question on the questionnaire was “Which of the three options  represents  the  PASI  score  you  would  like  to  achieve? 50/75/90?”. In addition to this question, we provided the patients with three pictures each of them showing a different PASI score, so they can choose the proper answer much easier.Results: 80% of the patients chose PASI 90, 15% chose PASI 75 and only 5% chose PASI 50.In addition to this, the gender distribution showed us that 100% of  the  female  patients  chose  PASI  90,  proving  how  important appearance is for them, and how much of a weight it is for them to  have  disease  that  is  in  the  limelight.  On  the  other  hand,  the male patients were divided into three groups. 69% said that the efficiency	of	the	therapy	is	very	good,	choosing	PASI	90.	Only	23% of male patients consider PASI 75 satisfying and the last 8% represents PASI 50.Conclusions: Psoriasis	is	a	chronic	inflammatory	disease,	which	is intensively studied at the cellular and molecular level. What is considered a good response to a treatment is sometimes different from the perception of a patient vs. a physician, therefore we must always keep a balance between aiming high (and maybe risking to over-treat some patients) and meeting the patient’s expectations. </t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="inlineStr">
+        <is>
+          <t>Caius Solovan</t>
+        </is>
+      </c>
+      <c r="B145" s="2" t="inlineStr">
+        <is>
+          <t>Department of Dermatology and Venereology, Clinical Emergency City Hospital Timisoara; University of Medicine and Pharmacy “Victor Babes” Timisoara, Romania, University of Medicine and Pharmacy “Victor Ba-bes” Timisoara, Romania</t>
+        </is>
+      </c>
+      <c r="C145" s="2" t="inlineStr"/>
+      <c r="D145" s="2" t="inlineStr">
+        <is>
+          <t>P129</t>
+        </is>
+      </c>
+      <c r="E145" s="2" t="inlineStr">
+        <is>
+          <t>PSORIASIS PATIENTS POINT OF VIEW: WHAT ARE WE MISSING WHEN MANAGING THEM?</t>
+        </is>
+      </c>
+      <c r="F145" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Introduction:  Psoriasis  is  a  skin  disease  that  can  occur  at  any time and it is most common in the age group 50–69. The reported prevalence of Psoriasis in countries ranges between 0.09% and 11.4%, making it a serious global problem.Psoriasis affects the quality of life and it is associated with many comorbidities such as depression, diabetes, cardiovascular disease and psoriatic arthritis.To	evaluate	the	severity	and	the	efficiency	of	the	treatment	applied	to patients with Psoriasis, in practice it is used PASI (Psoriasis Area and Severity Index). The value may vary, for example, in this study, PASI 75 represents the percentage (or number) of patients that have achieved a 75% or more reduction in their PASI score in 12 weeks from baseline.Objectives: Aim of this study is to gain a better perspective on the Psoriasis patient’s point of view when seeking a physician’s help,  therefore,  to  try  and  minimize  the  gaps  that  exist  when managing them.Methods: This study was based on a custom questionnaire which included  14  questions  for  each  patient.  The  responses  were gathered from 20 patients (and it is still ongoing) diagnosed in our Department of Dermatology and Venereology Timisoara, each in	 different	 stages	 of	 disease.	All	 the	 answers	 are	 confidential	and  anonymous. An  informed  consent  was  signed  prior  to  any taken actions. To achieve meaningful results, we asked patients to be honest and to present the situation in a real way. The most important question on the questionnaire was “Which of the three options  represents  the  PASI  score  you  would  like  to  achieve? 50/75/90?”. In addition to this question, we provided the patients with three pictures each of them showing a different PASI score, so they can choose the proper answer much easier.Results: 80% of the patients chose PASI 90, 15% chose PASI 75 and only 5% chose PASI 50.In addition to this, the gender distribution showed us that 100% of  the  female  patients  chose  PASI  90,  proving  how  important appearance is for them, and how much of a weight it is for them to  have  disease  that  is  in  the  limelight.  On  the  other  hand,  the male patients were divided into three groups. 69% said that the efficiency	of	the	therapy	is	very	good,	choosing	PASI	90.	Only	23% of male patients consider PASI 75 satisfying and the last 8% represents PASI 50.Conclusions: Psoriasis	is	a	chronic	inflammatory	disease,	which	is intensively studied at the cellular and molecular level. What is considered a good response to a treatment is sometimes different from the perception of a patient vs. a physician, therefore we must always keep a balance between aiming high (and maybe risking to over-treat some patients) and meeting the patient’s expectations. </t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="inlineStr">
+        <is>
+          <t>Albert Duvetorp</t>
+        </is>
+      </c>
+      <c r="B146" s="2" t="inlineStr">
+        <is>
+          <t>Skånes Universitetssjukhus, Malmö, Sweden; Linköping University, Lin-köping, Sweden, Copenhagen Center for Arthritis Research, Center for Rheumatology and Spine Diseases, Rigshospitalet, Glostrup, University of Copenhagen Copenhagen, Herlev and Gentofte Hospital, University of Copenhagen, Denmark, Linköping University, Linköping, Sweden; Ryhov Hospital, Jönköping, Sweden, Haukeland University Hospital, Bergen, UiT The Arctic University of Norway; University Hospital of North Nor-way, Tromsø, Norway, Aarhus University Hospital</t>
+        </is>
+      </c>
+      <c r="C146" s="2" t="inlineStr">
+        <is>
+          <t>Aarhus, Denmark</t>
+        </is>
+      </c>
+      <c r="D146" s="2" t="inlineStr">
+        <is>
+          <t>P130</t>
+        </is>
+      </c>
+      <c r="E146" s="2" t="inlineStr">
+        <is>
+          <t>THE IMPACT OF PSORIASIS AND PSORIATIC ARTHRITIS ON QUALITY OF LIFE AND CAREER IN SCANDINAVIA</t>
+        </is>
+      </c>
+      <c r="F146" s="2" t="inlineStr">
+        <is>
+          <t>Introduction:  Patients’  perspectives  on  the  effects  of  psoriasis (PsO)  and  psoriatic  arthritis  (PsA)  on  health-related  quality  of life (HRQoL) are important in establishing better approaches to their care and treatment.Objectives: To better understand the impact of PsO and PsA on daily life, education and work in Scandinavian countries.Methods: The NORdic PAtient survey of PsOriasis and Psoriatic arthritis (NORPAPP) was an on-line survey carried out in Nov/Dec 2015 using YouGov panels in Sweden, Denmark, and Norway. Adults (18–74 years old), with physician-diagnosed PsO or PsA (n = 1221), answered questions about the impact of disease on 10 aspects  of  daily  activity/mood  and  on  work/education;  5-point Likert scale responses were dichotomised into “no/minor impact” (1–3 or “don’t know”) and “strong impact” (4–5).Results: For the 10 aspects of activity/mood a “strong impact” was reported	for	≥4,	1–3	or	0	aspects	by	22.8%,	24.2%,	and	61.9%	of	respondents with PsO alone and 44.5%, 63.0%, and 27.0% of those with PsA±PsO. The most commonly reported strong impacts were limitations on dress (22.6%), sleep disorders (16.3%) and depression and/or anxiety (16.2%) for respondents with PsO alone; and, daily routine (45.1%), leisure/sports (44.0%), sleeping disorders 53(44.5%),  and  limitations  on  clothing  (41.8%)  for  respondents with PsA±PsO. Regarding the impacts on work/career or education since development of symptoms, 6.4% of respondents with PsO alone and 30.3% of those with PsA±PsO reported a strong negative impact. Of the 82.2% of respondents who were working or  studying,  frequency  of  absences  in  the  previous  12  months were	significantly	higher	(Bonferroni	corrected	z-tests,	total	α	 =  0.05) among those who: had PsA±PsO vs PsO alone; perceived their  symptoms  to  be  severe  vs  non-severe;  used  systemic  vs only topical treatments; were aged 18–44 years vs 45–74; were members of patient groups vs non-members; saw a dermatologist or rheumatologist at least annually vs those who did not.Conclusion: PsO has a profound impact on the HRQoL and career/education of individuals with these conditions in Scandinavia. The impact is greater among individuals with PsA±PsO.</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="inlineStr">
+        <is>
+          <t>Mikkel Østergaard</t>
+        </is>
+      </c>
+      <c r="B147" s="2" t="inlineStr">
+        <is>
+          <t>Skånes Universitetssjukhus, Malmö, Sweden; Linköping University, Lin-köping, Sweden, Copenhagen Center for Arthritis Research, Center for Rheumatology and Spine Diseases, Rigshospitalet, Glostrup, University of Copenhagen Copenhagen, Herlev and Gentofte Hospital, University of Copenhagen, Denmark, Linköping University, Linköping, Sweden; Ryhov Hospital, Jönköping, Sweden, Haukeland University Hospital, Bergen, UiT The Arctic University of Norway; University Hospital of North Nor-way, Tromsø, Norway, Aarhus University Hospital</t>
+        </is>
+      </c>
+      <c r="C147" s="2" t="inlineStr">
+        <is>
+          <t>Aarhus, Denmark</t>
+        </is>
+      </c>
+      <c r="D147" s="2" t="inlineStr">
+        <is>
+          <t>P130</t>
+        </is>
+      </c>
+      <c r="E147" s="2" t="inlineStr">
+        <is>
+          <t>THE IMPACT OF PSORIASIS AND PSORIATIC ARTHRITIS ON QUALITY OF LIFE AND CAREER IN SCANDINAVIA</t>
+        </is>
+      </c>
+      <c r="F147" s="2" t="inlineStr">
+        <is>
+          <t>Introduction:  Patients’  perspectives  on  the  effects  of  psoriasis (PsO)  and  psoriatic  arthritis  (PsA)  on  health-related  quality  of life (HRQoL) are important in establishing better approaches to their care and treatment.Objectives: To better understand the impact of PsO and PsA on daily life, education and work in Scandinavian countries.Methods: The NORdic PAtient survey of PsOriasis and Psoriatic arthritis (NORPAPP) was an on-line survey carried out in Nov/Dec 2015 using YouGov panels in Sweden, Denmark, and Norway. Adults (18–74 years old), with physician-diagnosed PsO or PsA (n = 1221), answered questions about the impact of disease on 10 aspects  of  daily  activity/mood  and  on  work/education;  5-point Likert scale responses were dichotomised into “no/minor impact” (1–3 or “don’t know”) and “strong impact” (4–5).Results: For the 10 aspects of activity/mood a “strong impact” was reported	for	≥4,	1–3	or	0	aspects	by	22.8%,	24.2%,	and	61.9%	of	respondents with PsO alone and 44.5%, 63.0%, and 27.0% of those with PsA±PsO. The most commonly reported strong impacts were limitations on dress (22.6%), sleep disorders (16.3%) and depression and/or anxiety (16.2%) for respondents with PsO alone; and, daily routine (45.1%), leisure/sports (44.0%), sleeping disorders 53(44.5%),  and  limitations  on  clothing  (41.8%)  for  respondents with PsA±PsO. Regarding the impacts on work/career or education since development of symptoms, 6.4% of respondents with PsO alone and 30.3% of those with PsA±PsO reported a strong negative impact. Of the 82.2% of respondents who were working or  studying,  frequency  of  absences  in  the  previous  12  months were	significantly	higher	(Bonferroni	corrected	z-tests,	total	α	 =  0.05) among those who: had PsA±PsO vs PsO alone; perceived their  symptoms  to  be  severe  vs  non-severe;  used  systemic  vs only topical treatments; were aged 18–44 years vs 45–74; were members of patient groups vs non-members; saw a dermatologist or rheumatologist at least annually vs those who did not.Conclusion: PsO has a profound impact on the HRQoL and career/education of individuals with these conditions in Scandinavia. The impact is greater among individuals with PsA±PsO.</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="inlineStr">
+        <is>
+          <t>Lone Skov</t>
+        </is>
+      </c>
+      <c r="B148" s="2" t="inlineStr">
+        <is>
+          <t>Skånes Universitetssjukhus, Malmö, Sweden; Linköping University, Lin-köping, Sweden, Copenhagen Center for Arthritis Research, Center for Rheumatology and Spine Diseases, Rigshospitalet, Glostrup, University of Copenhagen Copenhagen, Herlev and Gentofte Hospital, University of Copenhagen, Denmark, Linköping University, Linköping, Sweden; Ryhov Hospital, Jönköping, Sweden, Haukeland University Hospital, Bergen, UiT The Arctic University of Norway; University Hospital of North Nor-way, Tromsø, Norway, Aarhus University Hospital</t>
+        </is>
+      </c>
+      <c r="C148" s="2" t="inlineStr">
+        <is>
+          <t>Aarhus, Denmark</t>
+        </is>
+      </c>
+      <c r="D148" s="2" t="inlineStr">
+        <is>
+          <t>P130</t>
+        </is>
+      </c>
+      <c r="E148" s="2" t="inlineStr">
+        <is>
+          <t>THE IMPACT OF PSORIASIS AND PSORIATIC ARTHRITIS ON QUALITY OF LIFE AND CAREER IN SCANDINAVIA</t>
+        </is>
+      </c>
+      <c r="F148" s="2" t="inlineStr">
+        <is>
+          <t>Introduction:  Patients’  perspectives  on  the  effects  of  psoriasis (PsO)  and  psoriatic  arthritis  (PsA)  on  health-related  quality  of life (HRQoL) are important in establishing better approaches to their care and treatment.Objectives: To better understand the impact of PsO and PsA on daily life, education and work in Scandinavian countries.Methods: The NORdic PAtient survey of PsOriasis and Psoriatic arthritis (NORPAPP) was an on-line survey carried out in Nov/Dec 2015 using YouGov panels in Sweden, Denmark, and Norway. Adults (18–74 years old), with physician-diagnosed PsO or PsA (n = 1221), answered questions about the impact of disease on 10 aspects  of  daily  activity/mood  and  on  work/education;  5-point Likert scale responses were dichotomised into “no/minor impact” (1–3 or “don’t know”) and “strong impact” (4–5).Results: For the 10 aspects of activity/mood a “strong impact” was reported	for	≥4,	1–3	or	0	aspects	by	22.8%,	24.2%,	and	61.9%	of	respondents with PsO alone and 44.5%, 63.0%, and 27.0% of those with PsA±PsO. The most commonly reported strong impacts were limitations on dress (22.6%), sleep disorders (16.3%) and depression and/or anxiety (16.2%) for respondents with PsO alone; and, daily routine (45.1%), leisure/sports (44.0%), sleeping disorders 53(44.5%),  and  limitations  on  clothing  (41.8%)  for  respondents with PsA±PsO. Regarding the impacts on work/career or education since development of symptoms, 6.4% of respondents with PsO alone and 30.3% of those with PsA±PsO reported a strong negative impact. Of the 82.2% of respondents who were working or  studying,  frequency  of  absences  in  the  previous  12  months were	significantly	higher	(Bonferroni	corrected	z-tests,	total	α	 =  0.05) among those who: had PsA±PsO vs PsO alone; perceived their  symptoms  to  be  severe  vs  non-severe;  used  systemic  vs only topical treatments; were aged 18–44 years vs 45–74; were members of patient groups vs non-members; saw a dermatologist or rheumatologist at least annually vs those who did not.Conclusion: PsO has a profound impact on the HRQoL and career/education of individuals with these conditions in Scandinavia. The impact is greater among individuals with PsA±PsO.</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="inlineStr">
+        <is>
+          <t>Oliver Seifert</t>
+        </is>
+      </c>
+      <c r="B149" s="2" t="inlineStr">
+        <is>
+          <t>Skånes Universitetssjukhus, Malmö, Sweden; Linköping University, Lin-köping, Sweden, Copenhagen Center for Arthritis Research, Center for Rheumatology and Spine Diseases, Rigshospitalet, Glostrup, University of Copenhagen Copenhagen, Herlev and Gentofte Hospital, University of Copenhagen, Denmark, Linköping University, Linköping, Sweden; Ryhov Hospital, Jönköping, Sweden, Haukeland University Hospital, Bergen, UiT The Arctic University of Norway; University Hospital of North Nor-way, Tromsø, Norway, Aarhus University Hospital</t>
+        </is>
+      </c>
+      <c r="C149" s="2" t="inlineStr">
+        <is>
+          <t>Aarhus, Denmark</t>
+        </is>
+      </c>
+      <c r="D149" s="2" t="inlineStr">
+        <is>
+          <t>P130</t>
+        </is>
+      </c>
+      <c r="E149" s="2" t="inlineStr">
+        <is>
+          <t>THE IMPACT OF PSORIASIS AND PSORIATIC ARTHRITIS ON QUALITY OF LIFE AND CAREER IN SCANDINAVIA</t>
+        </is>
+      </c>
+      <c r="F149" s="2" t="inlineStr">
+        <is>
+          <t>Introduction:  Patients’  perspectives  on  the  effects  of  psoriasis (PsO)  and  psoriatic  arthritis  (PsA)  on  health-related  quality  of life (HRQoL) are important in establishing better approaches to their care and treatment.Objectives: To better understand the impact of PsO and PsA on daily life, education and work in Scandinavian countries.Methods: The NORdic PAtient survey of PsOriasis and Psoriatic arthritis (NORPAPP) was an on-line survey carried out in Nov/Dec 2015 using YouGov panels in Sweden, Denmark, and Norway. Adults (18–74 years old), with physician-diagnosed PsO or PsA (n = 1221), answered questions about the impact of disease on 10 aspects  of  daily  activity/mood  and  on  work/education;  5-point Likert scale responses were dichotomised into “no/minor impact” (1–3 or “don’t know”) and “strong impact” (4–5).Results: For the 10 aspects of activity/mood a “strong impact” was reported	for	≥4,	1–3	or	0	aspects	by	22.8%,	24.2%,	and	61.9%	of	respondents with PsO alone and 44.5%, 63.0%, and 27.0% of those with PsA±PsO. The most commonly reported strong impacts were limitations on dress (22.6%), sleep disorders (16.3%) and depression and/or anxiety (16.2%) for respondents with PsO alone; and, daily routine (45.1%), leisure/sports (44.0%), sleeping disorders 53(44.5%),  and  limitations  on  clothing  (41.8%)  for  respondents with PsA±PsO. Regarding the impacts on work/career or education since development of symptoms, 6.4% of respondents with PsO alone and 30.3% of those with PsA±PsO reported a strong negative impact. Of the 82.2% of respondents who were working or  studying,  frequency  of  absences  in  the  previous  12  months were	significantly	higher	(Bonferroni	corrected	z-tests,	total	α	 =  0.05) among those who: had PsA±PsO vs PsO alone; perceived their  symptoms  to  be  severe  vs  non-severe;  used  systemic  vs only topical treatments; were aged 18–44 years vs 45–74; were members of patient groups vs non-members; saw a dermatologist or rheumatologist at least annually vs those who did not.Conclusion: PsO has a profound impact on the HRQoL and career/education of individuals with these conditions in Scandinavia. The impact is greater among individuals with PsA±PsO.</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="inlineStr">
+        <is>
+          <t>Kåre Steinar Tveit</t>
+        </is>
+      </c>
+      <c r="B150" s="2" t="inlineStr">
+        <is>
+          <t>Skånes Universitetssjukhus, Malmö, Sweden; Linköping University, Lin-köping, Sweden, Copenhagen Center for Arthritis Research, Center for Rheumatology and Spine Diseases, Rigshospitalet, Glostrup, University of Copenhagen Copenhagen, Herlev and Gentofte Hospital, University of Copenhagen, Denmark, Linköping University, Linköping, Sweden; Ryhov Hospital, Jönköping, Sweden, Haukeland University Hospital, Bergen, UiT The Arctic University of Norway; University Hospital of North Nor-way, Tromsø, Norway, Aarhus University Hospital</t>
+        </is>
+      </c>
+      <c r="C150" s="2" t="inlineStr">
+        <is>
+          <t>Aarhus, Denmark</t>
+        </is>
+      </c>
+      <c r="D150" s="2" t="inlineStr">
+        <is>
+          <t>P130</t>
+        </is>
+      </c>
+      <c r="E150" s="2" t="inlineStr">
+        <is>
+          <t>THE IMPACT OF PSORIASIS AND PSORIATIC ARTHRITIS ON QUALITY OF LIFE AND CAREER IN SCANDINAVIA</t>
+        </is>
+      </c>
+      <c r="F150" s="2" t="inlineStr">
+        <is>
+          <t>Introduction:  Patients’  perspectives  on  the  effects  of  psoriasis (PsO)  and  psoriatic  arthritis  (PsA)  on  health-related  quality  of life (HRQoL) are important in establishing better approaches to their care and treatment.Objectives: To better understand the impact of PsO and PsA on daily life, education and work in Scandinavian countries.Methods: The NORdic PAtient survey of PsOriasis and Psoriatic arthritis (NORPAPP) was an on-line survey carried out in Nov/Dec 2015 using YouGov panels in Sweden, Denmark, and Norway. Adults (18–74 years old), with physician-diagnosed PsO or PsA (n = 1221), answered questions about the impact of disease on 10 aspects  of  daily  activity/mood  and  on  work/education;  5-point Likert scale responses were dichotomised into “no/minor impact” (1–3 or “don’t know”) and “strong impact” (4–5).Results: For the 10 aspects of activity/mood a “strong impact” was reported	for	≥4,	1–3	or	0	aspects	by	22.8%,	24.2%,	and	61.9%	of	respondents with PsO alone and 44.5%, 63.0%, and 27.0% of those with PsA±PsO. The most commonly reported strong impacts were limitations on dress (22.6%), sleep disorders (16.3%) and depression and/or anxiety (16.2%) for respondents with PsO alone; and, daily routine (45.1%), leisure/sports (44.0%), sleeping disorders 53(44.5%),  and  limitations  on  clothing  (41.8%)  for  respondents with PsA±PsO. Regarding the impacts on work/career or education since development of symptoms, 6.4% of respondents with PsO alone and 30.3% of those with PsA±PsO reported a strong negative impact. Of the 82.2% of respondents who were working or  studying,  frequency  of  absences  in  the  previous  12  months were	significantly	higher	(Bonferroni	corrected	z-tests,	total	α	 =  0.05) among those who: had PsA±PsO vs PsO alone; perceived their  symptoms  to  be  severe  vs  non-severe;  used  systemic  vs only topical treatments; were aged 18–44 years vs 45–74; were members of patient groups vs non-members; saw a dermatologist or rheumatologist at least annually vs those who did not.Conclusion: PsO has a profound impact on the HRQoL and career/education of individuals with these conditions in Scandinavia. The impact is greater among individuals with PsA±PsO.</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="inlineStr">
+        <is>
+          <t>Kjersti Danielsen</t>
+        </is>
+      </c>
+      <c r="B151" s="2" t="inlineStr">
+        <is>
+          <t>Skånes Universitetssjukhus, Malmö, Sweden; Linköping University, Lin-köping, Sweden, Copenhagen Center for Arthritis Research, Center for Rheumatology and Spine Diseases, Rigshospitalet, Glostrup, University of Copenhagen Copenhagen, Herlev and Gentofte Hospital, University of Copenhagen, Denmark, Linköping University, Linköping, Sweden; Ryhov Hospital, Jönköping, Sweden, Haukeland University Hospital, Bergen, UiT The Arctic University of Norway; University Hospital of North Nor-way, Tromsø, Norway, Aarhus University Hospital</t>
+        </is>
+      </c>
+      <c r="C151" s="2" t="inlineStr">
+        <is>
+          <t>Aarhus, Denmark</t>
+        </is>
+      </c>
+      <c r="D151" s="2" t="inlineStr">
+        <is>
+          <t>P130</t>
+        </is>
+      </c>
+      <c r="E151" s="2" t="inlineStr">
+        <is>
+          <t>THE IMPACT OF PSORIASIS AND PSORIATIC ARTHRITIS ON QUALITY OF LIFE AND CAREER IN SCANDINAVIA</t>
+        </is>
+      </c>
+      <c r="F151" s="2" t="inlineStr">
+        <is>
+          <t>Introduction:  Patients’  perspectives  on  the  effects  of  psoriasis (PsO)  and  psoriatic  arthritis  (PsA)  on  health-related  quality  of life (HRQoL) are important in establishing better approaches to their care and treatment.Objectives: To better understand the impact of PsO and PsA on daily life, education and work in Scandinavian countries.Methods: The NORdic PAtient survey of PsOriasis and Psoriatic arthritis (NORPAPP) was an on-line survey carried out in Nov/Dec 2015 using YouGov panels in Sweden, Denmark, and Norway. Adults (18–74 years old), with physician-diagnosed PsO or PsA (n = 1221), answered questions about the impact of disease on 10 aspects  of  daily  activity/mood  and  on  work/education;  5-point Likert scale responses were dichotomised into “no/minor impact” (1–3 or “don’t know”) and “strong impact” (4–5).Results: For the 10 aspects of activity/mood a “strong impact” was reported	for	≥4,	1–3	or	0	aspects	by	22.8%,	24.2%,	and	61.9%	of	respondents with PsO alone and 44.5%, 63.0%, and 27.0% of those with PsA±PsO. The most commonly reported strong impacts were limitations on dress (22.6%), sleep disorders (16.3%) and depression and/or anxiety (16.2%) for respondents with PsO alone; and, daily routine (45.1%), leisure/sports (44.0%), sleeping disorders 53(44.5%),  and  limitations  on  clothing  (41.8%)  for  respondents with PsA±PsO. Regarding the impacts on work/career or education since development of symptoms, 6.4% of respondents with PsO alone and 30.3% of those with PsA±PsO reported a strong negative impact. Of the 82.2% of respondents who were working or  studying,  frequency  of  absences  in  the  previous  12  months were	significantly	higher	(Bonferroni	corrected	z-tests,	total	α	 =  0.05) among those who: had PsA±PsO vs PsO alone; perceived their  symptoms  to  be  severe  vs  non-severe;  used  systemic  vs only topical treatments; were aged 18–44 years vs 45–74; were members of patient groups vs non-members; saw a dermatologist or rheumatologist at least annually vs those who did not.Conclusion: PsO has a profound impact on the HRQoL and career/education of individuals with these conditions in Scandinavia. The impact is greater among individuals with PsA±PsO.</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="inlineStr">
+        <is>
+          <t>Lars Iversen</t>
+        </is>
+      </c>
+      <c r="B152" s="2" t="inlineStr">
+        <is>
+          <t>Skånes Universitetssjukhus, Malmö, Sweden; Linköping University, Lin-köping, Sweden, Copenhagen Center for Arthritis Research, Center for Rheumatology and Spine Diseases, Rigshospitalet, Glostrup, University of Copenhagen Copenhagen, Herlev and Gentofte Hospital, University of Copenhagen, Denmark, Linköping University, Linköping, Sweden; Ryhov Hospital, Jönköping, Sweden, Haukeland University Hospital, Bergen, UiT The Arctic University of Norway; University Hospital of North Nor-way, Tromsø, Norway, Aarhus University Hospital</t>
+        </is>
+      </c>
+      <c r="C152" s="2" t="inlineStr">
+        <is>
+          <t>Aarhus, Denmark</t>
+        </is>
+      </c>
+      <c r="D152" s="2" t="inlineStr">
+        <is>
+          <t>P130</t>
+        </is>
+      </c>
+      <c r="E152" s="2" t="inlineStr">
+        <is>
+          <t>THE IMPACT OF PSORIASIS AND PSORIATIC ARTHRITIS ON QUALITY OF LIFE AND CAREER IN SCANDINAVIA</t>
+        </is>
+      </c>
+      <c r="F152" s="2" t="inlineStr">
+        <is>
+          <t>Introduction:  Patients’  perspectives  on  the  effects  of  psoriasis (PsO)  and  psoriatic  arthritis  (PsA)  on  health-related  quality  of life (HRQoL) are important in establishing better approaches to their care and treatment.Objectives: To better understand the impact of PsO and PsA on daily life, education and work in Scandinavian countries.Methods: The NORdic PAtient survey of PsOriasis and Psoriatic arthritis (NORPAPP) was an on-line survey carried out in Nov/Dec 2015 using YouGov panels in Sweden, Denmark, and Norway. Adults (18–74 years old), with physician-diagnosed PsO or PsA (n = 1221), answered questions about the impact of disease on 10 aspects  of  daily  activity/mood  and  on  work/education;  5-point Likert scale responses were dichotomised into “no/minor impact” (1–3 or “don’t know”) and “strong impact” (4–5).Results: For the 10 aspects of activity/mood a “strong impact” was reported	for	≥4,	1–3	or	0	aspects	by	22.8%,	24.2%,	and	61.9%	of	respondents with PsO alone and 44.5%, 63.0%, and 27.0% of those with PsA±PsO. The most commonly reported strong impacts were limitations on dress (22.6%), sleep disorders (16.3%) and depression and/or anxiety (16.2%) for respondents with PsO alone; and, daily routine (45.1%), leisure/sports (44.0%), sleeping disorders 53(44.5%),  and  limitations  on  clothing  (41.8%)  for  respondents with PsA±PsO. Regarding the impacts on work/career or education since development of symptoms, 6.4% of respondents with PsO alone and 30.3% of those with PsA±PsO reported a strong negative impact. Of the 82.2% of respondents who were working or  studying,  frequency  of  absences  in  the  previous  12  months were	significantly	higher	(Bonferroni	corrected	z-tests,	total	α	 =  0.05) among those who: had PsA±PsO vs PsO alone; perceived their  symptoms  to  be  severe  vs  non-severe;  used  systemic  vs only topical treatments; were aged 18–44 years vs 45–74; were members of patient groups vs non-members; saw a dermatologist or rheumatologist at least annually vs those who did not.Conclusion: PsO has a profound impact on the HRQoL and career/education of individuals with these conditions in Scandinavia. The impact is greater among individuals with PsA±PsO.</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="inlineStr">
+        <is>
+          <t>Hind Madani</t>
+        </is>
+      </c>
+      <c r="B153" s="2" t="inlineStr">
+        <is>
+          <t>University of Khartoum- faculty of medicine</t>
+        </is>
+      </c>
+      <c r="C153" s="2" t="inlineStr"/>
+      <c r="D153" s="2" t="inlineStr">
+        <is>
+          <t>P131</t>
+        </is>
+      </c>
+      <c r="E153" s="2" t="inlineStr">
+        <is>
+          <t>QUALITY OF LIFE OF PATIENTS WITH PSORIASIS IN KHARTOUM DERMATOLOGY HOSPITAL, DECEMBER 2017</t>
+        </is>
+      </c>
+      <c r="F153" s="2" t="inlineStr">
+        <is>
+          <t>Introduction: Psoriasis is a common chronic non-contagious skin disease, affecting 1–3% of the world population. Defects in the immune	regulation	and	the	control	of	inflammation	are	thought	to play major roles. Quality of life (QOL) is increasingly recognized as an important outcome measure in dermatology. Psoriasis although it doesn’t affect the survival it has a great impact on quality of life of patients, and has a strong effect on social relations, psychological status, daily activities and thought to be associated with depression.Objectives: The aim of this study was to determine the impact of psoriasis on the quality of life(QOL) of the patients in Khartoum dermatology hospital, 2017.Methods:  Descriptive  case  series  study,  hospital  based  survey conducted  among  70  participants  from  psoriasis  patients  aged above 18 years in Khartoum dermatology hospital, through selfadministered standard questionnaire, which was developed after extensive literature reviewing, comprised of Socio-demographic data,  psoriasis  life  stress  inventory(PLSI),  psoriasis  disability index(PDI) and depression assessment.Results: 64.3% of the participants have a high psoriasis-related stress (PLSI) and 35.7% have a low psoriasis-related stress. 21.4% of the participants have a very large disability in daily activities (PDI), 37.1% have a large disability, 24.3% have a moderate disability, 14.3% have a mild disability and 2.9% have no disability at all.7.1% of the participants have a moderately severe depression, 15.7% have a moderate depression, 35.7% have a mild depression,  41.4%  have  none  or  minimal  depression  and  none  of  the participants has a severe depression.Conclusion:  the  study  concluded  that  psoriasis  has  impacts  on the quality of life, causing high stress and high disability in daily activities with variable degrees of depression.Key words: psoriasis, QOL, PLSI, PDI, depression.1. El-Moselhy EA, Atlam SA, Mohammed AS, Hassan HM, Ebrahim AM (2015) Psychosocial Impact and Quality of Life among Adult Egyptian with Psoriasis. Dermatol Case Rep 1: 104. 2. Abbas Darjani N. Quality of Life in Psoriatic Patients: A Study Using the Short Form-36 [Internet]. PubMed  Central  (PMC).  2017  [cited  30  March  2017]. Available  from: https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4192777/3. Finlay AY, Coles EC. The effect of severe psoriasis on the quality of life of 369 patients. Br J Dermatol\1995;132:236-44. CrossRef PubMed WebofScience GoogleScholar4. Tang M, Chang C, Chan L, Heng A. Quality of life and cost of illness in patients with psoriasis in Malaysia: a multicenterr study. 20185. Langley R. Psoriasis: epidemiology, clinical features, and quality of life. Annals of the Rheumatic Diseases. 2005;64(suppl_2):ii18-ii23.54</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="inlineStr">
+        <is>
+          <t>Melinda Gooderham</t>
+        </is>
+      </c>
+      <c r="B154" s="2" t="inlineStr">
+        <is>
+          <t>SKiN Centre for Dermatology, Eli Lilly &amp; Company, Windsor Derma-tologytario, Canada, Harvard Medical School, Boston, MA, Oregon Medical Research Center, Portland, OR, USA, ScIderm Research Institute and Dermatologikum Hamburg, Hamburg, Germany, SKiN Centre for Derma-tology and Probity Medical Research, Peterborough, and Queen’s Univer-sity, Kingston, Ontario, Canada, Department of Dermatology, University of Texas, Houston, TX, USA, University of Melbourne, Melbourne, VIC, Australia, University of Lübeck, Lübeck, Germany, Sun Pharmaceutical Industries, Inc., Princeton, NJ, Merck &amp; Co., Inc., Kenilworth</t>
+        </is>
+      </c>
+      <c r="C154" s="2" t="inlineStr">
+        <is>
+          <t>NJ, USA</t>
+        </is>
+      </c>
+      <c r="D154" s="2" t="inlineStr">
+        <is>
+          <t>P132</t>
+        </is>
+      </c>
+      <c r="E154" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MIRIKIZUMAB SIGNIFICANTLY IMPROVES SELF­REPORTED DISEASE SEVERITY AND GENERAL HEALTH STATUS IN PATIENTS WITH MODERATE­TO­SEVERE PSORIASISEFFECT OF TILDRAKIZUMAB ON PERSONAL RELATIONSHIPS IN PATIENTS WITH MODERATE­TO­SEVERE CHRONIC PLAQUE PSORIASIS </t>
+        </is>
+      </c>
+      <c r="F154" s="2" t="inlineStr">
+        <is>
+          <t>Introduction: In a randomized, placebo-controlled, phase 2 trial (NCT02899988),	mirikizumab	met	its	primary	efficacy	endpoint	at Week 16.1Objective:To determine if mirikizumab improves patient-reported disease severity and general health status in psoriasis patients at Week 16.Methods:  Adults  with  moderate-to-severe  psoriasis  were  randomized 1:1:1:1 to receive placebo (n = 52), mirikizumab 30 mg (n = 51), 100 mg (n = 51), or 300 mg (n = 51) at Weeks 0 and 8. At baseline and Weeks 2, 4, 8, 12, and 16, patients completed the Patient Global Assessment of psoriasis (PtGA) (0 = clear, 5 = severe). At baseline and Week 16, patients completed the Medical Outcomes  Study  36-Item  Short  Form  Health  Survey  (SF-36; [range 0–100]) which measures 8 general health status domains that can be scored as mental component and physical component summaries.  For  continuous  measures,  comparisons  were  made by  a  mixed-effects  for  repeated  measures  model  (PtGA)  or  an analysis of covariance model (SF-36). Comparisons of categorical efficacy	variables	were	conducted	by	logistic	regression	analysis	with non-responder imputation (NRI).Results: At Week 16, mirikizumab-treated patients reported greater improvements in psoriasis severity and aspects of physical functioning versus placebo (Table).Conclusion: Mirikizumab	treatment	at	various	doses	significantly	improved psoriatic disease severity and physical health status.1. Reich K et al. Programme and abstracts of Psoriasis from Gene to Clinic; Nov. 30-Dec. 2, 2017; Abstract FC31.Table. Patient-Reported Outcomes (Week 16)Mirikizumab30 mgn = 48Placebon = 510.4 (0.16) 2.2 (0.16)*** 2.9 (0.16)*** 2.8 (0.16)***300 mgn = 51100 mgn = 518.2 (1.9)*PtGA, least squares mean(SE)Change from Baseline in SF-36 Domains, LSM (SE) Physical functioning Role-physical Bodily pain General health Vitality Social functioning Role-emotional Mental health≥2.5	point	improvement	in	SF-36	MCS, % (NRI)≥2.5	point	improvement	in	SF-36	PCS, % (NRI)MCS, mental component summary; PtGa, Patient Global Assessment; PCS, physical component summary; SE, standard error; SF-36, 36-Item Short Form Health Survey.*p &lt;  .05 vs placebo; **p &lt;  .01 vs placebo; ***p &lt;  .001 vs placebo. 7.2 (2.0)7.2 (2.0)11.4 (2.5)** 11.5 (2.5)**12.3 (2.5)**17.6 (2.9)** 19.2 (2.9)*** 18.9 (2.9)**3.2 (1.9)5.8 (2.0)6.9 (2.1)*4.7 (2.0)10.5 (2.4)** 13.4 (2.4)*** 8.2 (2.4)*6.1 (2.0)5.2 (2.1)6.6 (1.8)5.5 (1.8)45.137.32.8 (1.9)1.2 (2.4)5.7 (2.8)1.4 (1.9)1.0 (2.0)-0.2 (2.4)1.3 (2.0)1.7 (1.8)36.56.0 (2.0)3.2 (1.8)33.35.4 (1.9)6.2 (2.0)62.7*56.942.352.9P1331K Papp Clinical Research and Probity Medical Research, Waterloo, OnIntroduction:  The  negative  impact  of  psoriasis  extends  beyond the  patient,  affecting  his/her  social  interactions  and  the  quality of life of cohabitants. Furthermore, patients with psoriasis often experience	sexual	difficulties	because	of	their	disease.Objective:This  analysis  examined  the  effect  of  treatment  with tildrakizumab  (TIL)  on  personal  relationships  of  patients  with moderate-to-severe chronic plaque psoriasis.Methods:  Patients  in  two  phase  3  trials  reSURFACE  1 (NCT01722331)  and  reSURFACE  2  (NCT01729754)  were randomized  to  subcutaneous  TIL  200  mg,  100  mg,  or  placebo (PBO)  and  received  treatment  at  weeks  0  and  4.  PBO  patients were re-randomized at week 12 to either TIL 200 mg or 100 mg. Etanercept (ETN) 50 mg (semiweekly until week 12 then weekly until week 28) was also a treatment arm in reSURFACE 2. Data on personal relationships were collected at weeks 12 and 28 from the Dermatology Life Quality Index (DLQI) questionnaire question 8 (Q8) “Over the last week, how much has your skin created problems with your partner or any of your close friends or relatives” and question 9 (Q9) “Over the last week, how much has your skin caused	any	sexual	difficulties”.	Each	question	was	scored	on	a	scale of 0 (not affected at all) to 3 (very much affected). The data were pooled from reSURFACE 1 and 2.Results: In all, 1,820 patients had DLQI data. All patients reported a negative effect for Q8 and Q9 at baseline. At week 12, the proportion of patients with no negative effect (score of 0) on personal relationships (Q8 and Q9) was higher for TIL 200 mg, TIL 100 mg, and ETN than for PBO (76%, 72%, and 64% vs. 39%, respectively). A similar trend was observed for individual questions Q8 and Q9. At week 28, more patients on TIL 200 mg and TIL 100 mg reported no negative effect on personal relationships than those on ETN (85% and 77% vs. 66%; respectively). More patients on TIL 200 mg and TIL 100 mg reported no negative effect than those on ETN for Q8 (89% and 81% vs. 70%; respectively) and for Q9 (89% and 84% vs. 75%, respectively). Conclusions:  TIL	 had	 a	 beneficial	 effect	 on	 psoriasis-related	personal	relationship	problems	and	sexual	difficulties,	compared	to placebo and ETN.This abstract was presented at 2018 Annual Meeting of American Academy of Dermatology.</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="inlineStr">
+        <is>
+          <t>Paul Klekotka</t>
+        </is>
+      </c>
+      <c r="B155" s="2" t="inlineStr">
+        <is>
+          <t>SKiN Centre for Dermatology, Eli Lilly &amp; Company, Windsor Derma-tologytario, Canada, Harvard Medical School, Boston, MA, Oregon Medical Research Center, Portland, OR, USA, ScIderm Research Institute and Dermatologikum Hamburg, Hamburg, Germany, SKiN Centre for Derma-tology and Probity Medical Research, Peterborough, and Queen’s Univer-sity, Kingston, Ontario, Canada, Department of Dermatology, University of Texas, Houston, TX, USA, University of Melbourne, Melbourne, VIC, Australia, University of Lübeck, Lübeck, Germany, Sun Pharmaceutical Industries, Inc., Princeton, NJ, Merck &amp; Co., Inc., Kenilworth</t>
+        </is>
+      </c>
+      <c r="C155" s="2" t="inlineStr">
+        <is>
+          <t>NJ, USA</t>
+        </is>
+      </c>
+      <c r="D155" s="2" t="inlineStr">
+        <is>
+          <t>P132</t>
+        </is>
+      </c>
+      <c r="E155" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MIRIKIZUMAB SIGNIFICANTLY IMPROVES SELF­REPORTED DISEASE SEVERITY AND GENERAL HEALTH STATUS IN PATIENTS WITH MODERATE­TO­SEVERE PSORIASISEFFECT OF TILDRAKIZUMAB ON PERSONAL RELATIONSHIPS IN PATIENTS WITH MODERATE­TO­SEVERE CHRONIC PLAQUE PSORIASIS </t>
+        </is>
+      </c>
+      <c r="F155" s="2" t="inlineStr">
+        <is>
+          <t>Introduction: In a randomized, placebo-controlled, phase 2 trial (NCT02899988),	mirikizumab	met	its	primary	efficacy	endpoint	at Week 16.1Objective:To determine if mirikizumab improves patient-reported disease severity and general health status in psoriasis patients at Week 16.Methods:  Adults  with  moderate-to-severe  psoriasis  were  randomized 1:1:1:1 to receive placebo (n = 52), mirikizumab 30 mg (n = 51), 100 mg (n = 51), or 300 mg (n = 51) at Weeks 0 and 8. At baseline and Weeks 2, 4, 8, 12, and 16, patients completed the Patient Global Assessment of psoriasis (PtGA) (0 = clear, 5 = severe). At baseline and Week 16, patients completed the Medical Outcomes  Study  36-Item  Short  Form  Health  Survey  (SF-36; [range 0–100]) which measures 8 general health status domains that can be scored as mental component and physical component summaries.  For  continuous  measures,  comparisons  were  made by  a  mixed-effects  for  repeated  measures  model  (PtGA)  or  an analysis of covariance model (SF-36). Comparisons of categorical efficacy	variables	were	conducted	by	logistic	regression	analysis	with non-responder imputation (NRI).Results: At Week 16, mirikizumab-treated patients reported greater improvements in psoriasis severity and aspects of physical functioning versus placebo (Table).Conclusion: Mirikizumab	treatment	at	various	doses	significantly	improved psoriatic disease severity and physical health status.1. Reich K et al. Programme and abstracts of Psoriasis from Gene to Clinic; Nov. 30-Dec. 2, 2017; Abstract FC31.Table. Patient-Reported Outcomes (Week 16)Mirikizumab30 mgn = 48Placebon = 510.4 (0.16) 2.2 (0.16)*** 2.9 (0.16)*** 2.8 (0.16)***300 mgn = 51100 mgn = 518.2 (1.9)*PtGA, least squares mean(SE)Change from Baseline in SF-36 Domains, LSM (SE) Physical functioning Role-physical Bodily pain General health Vitality Social functioning Role-emotional Mental health≥2.5	point	improvement	in	SF-36	MCS, % (NRI)≥2.5	point	improvement	in	SF-36	PCS, % (NRI)MCS, mental component summary; PtGa, Patient Global Assessment; PCS, physical component summary; SE, standard error; SF-36, 36-Item Short Form Health Survey.*p &lt;  .05 vs placebo; **p &lt;  .01 vs placebo; ***p &lt;  .001 vs placebo. 7.2 (2.0)7.2 (2.0)11.4 (2.5)** 11.5 (2.5)**12.3 (2.5)**17.6 (2.9)** 19.2 (2.9)*** 18.9 (2.9)**3.2 (1.9)5.8 (2.0)6.9 (2.1)*4.7 (2.0)10.5 (2.4)** 13.4 (2.4)*** 8.2 (2.4)*6.1 (2.0)5.2 (2.1)6.6 (1.8)5.5 (1.8)45.137.32.8 (1.9)1.2 (2.4)5.7 (2.8)1.4 (1.9)1.0 (2.0)-0.2 (2.4)1.3 (2.0)1.7 (1.8)36.56.0 (2.0)3.2 (1.8)33.35.4 (1.9)6.2 (2.0)62.7*56.942.352.9P1331K Papp Clinical Research and Probity Medical Research, Waterloo, OnIntroduction:  The  negative  impact  of  psoriasis  extends  beyond the  patient,  affecting  his/her  social  interactions  and  the  quality of life of cohabitants. Furthermore, patients with psoriasis often experience	sexual	difficulties	because	of	their	disease.Objective:This  analysis  examined  the  effect  of  treatment  with tildrakizumab  (TIL)  on  personal  relationships  of  patients  with moderate-to-severe chronic plaque psoriasis.Methods:  Patients  in  two  phase  3  trials  reSURFACE  1 (NCT01722331)  and  reSURFACE  2  (NCT01729754)  were randomized  to  subcutaneous  TIL  200  mg,  100  mg,  or  placebo (PBO)  and  received  treatment  at  weeks  0  and  4.  PBO  patients were re-randomized at week 12 to either TIL 200 mg or 100 mg. Etanercept (ETN) 50 mg (semiweekly until week 12 then weekly until week 28) was also a treatment arm in reSURFACE 2. Data on personal relationships were collected at weeks 12 and 28 from the Dermatology Life Quality Index (DLQI) questionnaire question 8 (Q8) “Over the last week, how much has your skin created problems with your partner or any of your close friends or relatives” and question 9 (Q9) “Over the last week, how much has your skin caused	any	sexual	difficulties”.	Each	question	was	scored	on	a	scale of 0 (not affected at all) to 3 (very much affected). The data were pooled from reSURFACE 1 and 2.Results: In all, 1,820 patients had DLQI data. All patients reported a negative effect for Q8 and Q9 at baseline. At week 12, the proportion of patients with no negative effect (score of 0) on personal relationships (Q8 and Q9) was higher for TIL 200 mg, TIL 100 mg, and ETN than for PBO (76%, 72%, and 64% vs. 39%, respectively). A similar trend was observed for individual questions Q8 and Q9. At week 28, more patients on TIL 200 mg and TIL 100 mg reported no negative effect on personal relationships than those on ETN (85% and 77% vs. 66%; respectively). More patients on TIL 200 mg and TIL 100 mg reported no negative effect than those on ETN for Q8 (89% and 81% vs. 70%; respectively) and for Q9 (89% and 84% vs. 75%, respectively). Conclusions:  TIL	 had	 a	 beneficial	 effect	 on	 psoriasis-related	personal	relationship	problems	and	sexual	difficulties,	compared	to placebo and ETN.This abstract was presented at 2018 Annual Meeting of American Academy of Dermatology.</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="inlineStr">
+        <is>
+          <t>Emily Edson Heredia</t>
+        </is>
+      </c>
+      <c r="B156" s="2" t="inlineStr">
+        <is>
+          <t>SKiN Centre for Dermatology, Eli Lilly &amp; Company, Windsor Derma-tologytario, Canada, Harvard Medical School, Boston, MA, Oregon Medical Research Center, Portland, OR, USA, ScIderm Research Institute and Dermatologikum Hamburg, Hamburg, Germany, SKiN Centre for Derma-tology and Probity Medical Research, Peterborough, and Queen’s Univer-sity, Kingston, Ontario, Canada, Department of Dermatology, University of Texas, Houston, TX, USA, University of Melbourne, Melbourne, VIC, Australia, University of Lübeck, Lübeck, Germany, Sun Pharmaceutical Industries, Inc., Princeton, NJ, Merck &amp; Co., Inc., Kenilworth</t>
+        </is>
+      </c>
+      <c r="C156" s="2" t="inlineStr">
+        <is>
+          <t>NJ, USA</t>
+        </is>
+      </c>
+      <c r="D156" s="2" t="inlineStr">
+        <is>
+          <t>P132</t>
+        </is>
+      </c>
+      <c r="E156" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MIRIKIZUMAB SIGNIFICANTLY IMPROVES SELF­REPORTED DISEASE SEVERITY AND GENERAL HEALTH STATUS IN PATIENTS WITH MODERATE­TO­SEVERE PSORIASISEFFECT OF TILDRAKIZUMAB ON PERSONAL RELATIONSHIPS IN PATIENTS WITH MODERATE­TO­SEVERE CHRONIC PLAQUE PSORIASIS </t>
+        </is>
+      </c>
+      <c r="F156" s="2" t="inlineStr">
+        <is>
+          <t>Introduction: In a randomized, placebo-controlled, phase 2 trial (NCT02899988),	mirikizumab	met	its	primary	efficacy	endpoint	at Week 16.1Objective:To determine if mirikizumab improves patient-reported disease severity and general health status in psoriasis patients at Week 16.Methods:  Adults  with  moderate-to-severe  psoriasis  were  randomized 1:1:1:1 to receive placebo (n = 52), mirikizumab 30 mg (n = 51), 100 mg (n = 51), or 300 mg (n = 51) at Weeks 0 and 8. At baseline and Weeks 2, 4, 8, 12, and 16, patients completed the Patient Global Assessment of psoriasis (PtGA) (0 = clear, 5 = severe). At baseline and Week 16, patients completed the Medical Outcomes  Study  36-Item  Short  Form  Health  Survey  (SF-36; [range 0–100]) which measures 8 general health status domains that can be scored as mental component and physical component summaries.  For  continuous  measures,  comparisons  were  made by  a  mixed-effects  for  repeated  measures  model  (PtGA)  or  an analysis of covariance model (SF-36). Comparisons of categorical efficacy	variables	were	conducted	by	logistic	regression	analysis	with non-responder imputation (NRI).Results: At Week 16, mirikizumab-treated patients reported greater improvements in psoriasis severity and aspects of physical functioning versus placebo (Table).Conclusion: Mirikizumab	treatment	at	various	doses	significantly	improved psoriatic disease severity and physical health status.1. Reich K et al. Programme and abstracts of Psoriasis from Gene to Clinic; Nov. 30-Dec. 2, 2017; Abstract FC31.Table. Patient-Reported Outcomes (Week 16)Mirikizumab30 mgn = 48Placebon = 510.4 (0.16) 2.2 (0.16)*** 2.9 (0.16)*** 2.8 (0.16)***300 mgn = 51100 mgn = 518.2 (1.9)*PtGA, least squares mean(SE)Change from Baseline in SF-36 Domains, LSM (SE) Physical functioning Role-physical Bodily pain General health Vitality Social functioning Role-emotional Mental health≥2.5	point	improvement	in	SF-36	MCS, % (NRI)≥2.5	point	improvement	in	SF-36	PCS, % (NRI)MCS, mental component summary; PtGa, Patient Global Assessment; PCS, physical component summary; SE, standard error; SF-36, 36-Item Short Form Health Survey.*p &lt;  .05 vs placebo; **p &lt;  .01 vs placebo; ***p &lt;  .001 vs placebo. 7.2 (2.0)7.2 (2.0)11.4 (2.5)** 11.5 (2.5)**12.3 (2.5)**17.6 (2.9)** 19.2 (2.9)*** 18.9 (2.9)**3.2 (1.9)5.8 (2.0)6.9 (2.1)*4.7 (2.0)10.5 (2.4)** 13.4 (2.4)*** 8.2 (2.4)*6.1 (2.0)5.2 (2.1)6.6 (1.8)5.5 (1.8)45.137.32.8 (1.9)1.2 (2.4)5.7 (2.8)1.4 (1.9)1.0 (2.0)-0.2 (2.4)1.3 (2.0)1.7 (1.8)36.56.0 (2.0)3.2 (1.8)33.35.4 (1.9)6.2 (2.0)62.7*56.942.352.9P1331K Papp Clinical Research and Probity Medical Research, Waterloo, OnIntroduction:  The  negative  impact  of  psoriasis  extends  beyond the  patient,  affecting  his/her  social  interactions  and  the  quality of life of cohabitants. Furthermore, patients with psoriasis often experience	sexual	difficulties	because	of	their	disease.Objective:This  analysis  examined  the  effect  of  treatment  with tildrakizumab  (TIL)  on  personal  relationships  of  patients  with moderate-to-severe chronic plaque psoriasis.Methods:  Patients  in  two  phase  3  trials  reSURFACE  1 (NCT01722331)  and  reSURFACE  2  (NCT01729754)  were randomized  to  subcutaneous  TIL  200  mg,  100  mg,  or  placebo (PBO)  and  received  treatment  at  weeks  0  and  4.  PBO  patients were re-randomized at week 12 to either TIL 200 mg or 100 mg. Etanercept (ETN) 50 mg (semiweekly until week 12 then weekly until week 28) was also a treatment arm in reSURFACE 2. Data on personal relationships were collected at weeks 12 and 28 from the Dermatology Life Quality Index (DLQI) questionnaire question 8 (Q8) “Over the last week, how much has your skin created problems with your partner or any of your close friends or relatives” and question 9 (Q9) “Over the last week, how much has your skin caused	any	sexual	difficulties”.	Each	question	was	scored	on	a	scale of 0 (not affected at all) to 3 (very much affected). The data were pooled from reSURFACE 1 and 2.Results: In all, 1,820 patients had DLQI data. All patients reported a negative effect for Q8 and Q9 at baseline. At week 12, the proportion of patients with no negative effect (score of 0) on personal relationships (Q8 and Q9) was higher for TIL 200 mg, TIL 100 mg, and ETN than for PBO (76%, 72%, and 64% vs. 39%, respectively). A similar trend was observed for individual questions Q8 and Q9. At week 28, more patients on TIL 200 mg and TIL 100 mg reported no negative effect on personal relationships than those on ETN (85% and 77% vs. 66%; respectively). More patients on TIL 200 mg and TIL 100 mg reported no negative effect than those on ETN for Q8 (89% and 81% vs. 70%; respectively) and for Q9 (89% and 84% vs. 75%, respectively). Conclusions:  TIL	 had	 a	 beneficial	 effect	 on	 psoriasis-related	personal	relationship	problems	and	sexual	difficulties,	compared	to placebo and ETN.This abstract was presented at 2018 Annual Meeting of American Academy of Dermatology.</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="inlineStr">
+        <is>
+          <t>Joanne Li</t>
+        </is>
+      </c>
+      <c r="B157" s="2" t="inlineStr">
+        <is>
+          <t>SKiN Centre for Dermatology, Eli Lilly &amp; Company, Windsor Derma-tologytario, Canada, Harvard Medical School, Boston, MA, Oregon Medical Research Center, Portland, OR, USA, ScIderm Research Institute and Dermatologikum Hamburg, Hamburg, Germany, SKiN Centre for Derma-tology and Probity Medical Research, Peterborough, and Queen’s Univer-sity, Kingston, Ontario, Canada, Department of Dermatology, University of Texas, Houston, TX, USA, University of Melbourne, Melbourne, VIC, Australia, University of Lübeck, Lübeck, Germany, Sun Pharmaceutical Industries, Inc., Princeton, NJ, Merck &amp; Co., Inc., Kenilworth</t>
+        </is>
+      </c>
+      <c r="C157" s="2" t="inlineStr">
+        <is>
+          <t>NJ, USA</t>
+        </is>
+      </c>
+      <c r="D157" s="2" t="inlineStr">
+        <is>
+          <t>P132</t>
+        </is>
+      </c>
+      <c r="E157" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MIRIKIZUMAB SIGNIFICANTLY IMPROVES SELF­REPORTED DISEASE SEVERITY AND GENERAL HEALTH STATUS IN PATIENTS WITH MODERATE­TO­SEVERE PSORIASISEFFECT OF TILDRAKIZUMAB ON PERSONAL RELATIONSHIPS IN PATIENTS WITH MODERATE­TO­SEVERE CHRONIC PLAQUE PSORIASIS </t>
+        </is>
+      </c>
+      <c r="F157" s="2" t="inlineStr">
+        <is>
+          <t>Introduction: In a randomized, placebo-controlled, phase 2 trial (NCT02899988),	mirikizumab	met	its	primary	efficacy	endpoint	at Week 16.1Objective:To determine if mirikizumab improves patient-reported disease severity and general health status in psoriasis patients at Week 16.Methods:  Adults  with  moderate-to-severe  psoriasis  were  randomized 1:1:1:1 to receive placebo (n = 52), mirikizumab 30 mg (n = 51), 100 mg (n = 51), or 300 mg (n = 51) at Weeks 0 and 8. At baseline and Weeks 2, 4, 8, 12, and 16, patients completed the Patient Global Assessment of psoriasis (PtGA) (0 = clear, 5 = severe). At baseline and Week 16, patients completed the Medical Outcomes  Study  36-Item  Short  Form  Health  Survey  (SF-36; [range 0–100]) which measures 8 general health status domains that can be scored as mental component and physical component summaries.  For  continuous  measures,  comparisons  were  made by  a  mixed-effects  for  repeated  measures  model  (PtGA)  or  an analysis of covariance model (SF-36). Comparisons of categorical efficacy	variables	were	conducted	by	logistic	regression	analysis	with non-responder imputation (NRI).Results: At Week 16, mirikizumab-treated patients reported greater improvements in psoriasis severity and aspects of physical functioning versus placebo (Table).Conclusion: Mirikizumab	treatment	at	various	doses	significantly	improved psoriatic disease severity and physical health status.1. Reich K et al. Programme and abstracts of Psoriasis from Gene to Clinic; Nov. 30-Dec. 2, 2017; Abstract FC31.Table. Patient-Reported Outcomes (Week 16)Mirikizumab30 mgn = 48Placebon = 510.4 (0.16) 2.2 (0.16)*** 2.9 (0.16)*** 2.8 (0.16)***300 mgn = 51100 mgn = 518.2 (1.9)*PtGA, least squares mean(SE)Change from Baseline in SF-36 Domains, LSM (SE) Physical functioning Role-physical Bodily pain General health Vitality Social functioning Role-emotional Mental health≥2.5	point	improvement	in	SF-36	MCS, % (NRI)≥2.5	point	improvement	in	SF-36	PCS, % (NRI)MCS, mental component summary; PtGa, Patient Global Assessment; PCS, physical component summary; SE, standard error; SF-36, 36-Item Short Form Health Survey.*p &lt;  .05 vs placebo; **p &lt;  .01 vs placebo; ***p &lt;  .001 vs placebo. 7.2 (2.0)7.2 (2.0)11.4 (2.5)** 11.5 (2.5)**12.3 (2.5)**17.6 (2.9)** 19.2 (2.9)*** 18.9 (2.9)**3.2 (1.9)5.8 (2.0)6.9 (2.1)*4.7 (2.0)10.5 (2.4)** 13.4 (2.4)*** 8.2 (2.4)*6.1 (2.0)5.2 (2.1)6.6 (1.8)5.5 (1.8)45.137.32.8 (1.9)1.2 (2.4)5.7 (2.8)1.4 (1.9)1.0 (2.0)-0.2 (2.4)1.3 (2.0)1.7 (1.8)36.56.0 (2.0)3.2 (1.8)33.35.4 (1.9)6.2 (2.0)62.7*56.942.352.9P1331K Papp Clinical Research and Probity Medical Research, Waterloo, OnIntroduction:  The  negative  impact  of  psoriasis  extends  beyond the  patient,  affecting  his/her  social  interactions  and  the  quality of life of cohabitants. Furthermore, patients with psoriasis often experience	sexual	difficulties	because	of	their	disease.Objective:This  analysis  examined  the  effect  of  treatment  with tildrakizumab  (TIL)  on  personal  relationships  of  patients  with moderate-to-severe chronic plaque psoriasis.Methods:  Patients  in  two  phase  3  trials  reSURFACE  1 (NCT01722331)  and  reSURFACE  2  (NCT01729754)  were randomized  to  subcutaneous  TIL  200  mg,  100  mg,  or  placebo (PBO)  and  received  treatment  at  weeks  0  and  4.  PBO  patients were re-randomized at week 12 to either TIL 200 mg or 100 mg. Etanercept (ETN) 50 mg (semiweekly until week 12 then weekly until week 28) was also a treatment arm in reSURFACE 2. Data on personal relationships were collected at weeks 12 and 28 from the Dermatology Life Quality Index (DLQI) questionnaire question 8 (Q8) “Over the last week, how much has your skin created problems with your partner or any of your close friends or relatives” and question 9 (Q9) “Over the last week, how much has your skin caused	any	sexual	difficulties”.	Each	question	was	scored	on	a	scale of 0 (not affected at all) to 3 (very much affected). The data were pooled from reSURFACE 1 and 2.Results: In all, 1,820 patients had DLQI data. All patients reported a negative effect for Q8 and Q9 at baseline. At week 12, the proportion of patients with no negative effect (score of 0) on personal relationships (Q8 and Q9) was higher for TIL 200 mg, TIL 100 mg, and ETN than for PBO (76%, 72%, and 64% vs. 39%, respectively). A similar trend was observed for individual questions Q8 and Q9. At week 28, more patients on TIL 200 mg and TIL 100 mg reported no negative effect on personal relationships than those on ETN (85% and 77% vs. 66%; respectively). More patients on TIL 200 mg and TIL 100 mg reported no negative effect than those on ETN for Q8 (89% and 81% vs. 70%; respectively) and for Q9 (89% and 84% vs. 75%, respectively). Conclusions:  TIL	 had	 a	 beneficial	 effect	 on	 psoriasis-related	personal	relationship	problems	and	sexual	difficulties,	compared	to placebo and ETN.This abstract was presented at 2018 Annual Meeting of American Academy of Dermatology.</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="inlineStr">
+        <is>
+          <t>Baojin Zhu</t>
+        </is>
+      </c>
+      <c r="B158" s="2" t="inlineStr">
+        <is>
+          <t>SKiN Centre for Dermatology, Eli Lilly &amp; Company, Windsor Derma-tologytario, Canada, Harvard Medical School, Boston, MA, Oregon Medical Research Center, Portland, OR, USA, ScIderm Research Institute and Dermatologikum Hamburg, Hamburg, Germany, SKiN Centre for Derma-tology and Probity Medical Research, Peterborough, and Queen’s Univer-sity, Kingston, Ontario, Canada, Department of Dermatology, University of Texas, Houston, TX, USA, University of Melbourne, Melbourne, VIC, Australia, University of Lübeck, Lübeck, Germany, Sun Pharmaceutical Industries, Inc., Princeton, NJ, Merck &amp; Co., Inc., Kenilworth</t>
+        </is>
+      </c>
+      <c r="C158" s="2" t="inlineStr">
+        <is>
+          <t>NJ, USA</t>
+        </is>
+      </c>
+      <c r="D158" s="2" t="inlineStr">
+        <is>
+          <t>P132</t>
+        </is>
+      </c>
+      <c r="E158" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MIRIKIZUMAB SIGNIFICANTLY IMPROVES SELF­REPORTED DISEASE SEVERITY AND GENERAL HEALTH STATUS IN PATIENTS WITH MODERATE­TO­SEVERE PSORIASISEFFECT OF TILDRAKIZUMAB ON PERSONAL RELATIONSHIPS IN PATIENTS WITH MODERATE­TO­SEVERE CHRONIC PLAQUE PSORIASIS </t>
+        </is>
+      </c>
+      <c r="F158" s="2" t="inlineStr">
+        <is>
+          <t>Introduction: In a randomized, placebo-controlled, phase 2 trial (NCT02899988),	mirikizumab	met	its	primary	efficacy	endpoint	at Week 16.1Objective:To determine if mirikizumab improves patient-reported disease severity and general health status in psoriasis patients at Week 16.Methods:  Adults  with  moderate-to-severe  psoriasis  were  randomized 1:1:1:1 to receive placebo (n = 52), mirikizumab 30 mg (n = 51), 100 mg (n = 51), or 300 mg (n = 51) at Weeks 0 and 8. At baseline and Weeks 2, 4, 8, 12, and 16, patients completed the Patient Global Assessment of psoriasis (PtGA) (0 = clear, 5 = severe). At baseline and Week 16, patients completed the Medical Outcomes  Study  36-Item  Short  Form  Health  Survey  (SF-36; [range 0–100]) which measures 8 general health status domains that can be scored as mental component and physical component summaries.  For  continuous  measures,  comparisons  were  made by  a  mixed-effects  for  repeated  measures  model  (PtGA)  or  an analysis of covariance model (SF-36). Comparisons of categorical efficacy	variables	were	conducted	by	logistic	regression	analysis	with non-responder imputation (NRI).Results: At Week 16, mirikizumab-treated patients reported greater improvements in psoriasis severity and aspects of physical functioning versus placebo (Table).Conclusion: Mirikizumab	treatment	at	various	doses	significantly	improved psoriatic disease severity and physical health status.1. Reich K et al. Programme and abstracts of Psoriasis from Gene to Clinic; Nov. 30-Dec. 2, 2017; Abstract FC31.Table. Patient-Reported Outcomes (Week 16)Mirikizumab30 mgn = 48Placebon = 510.4 (0.16) 2.2 (0.16)*** 2.9 (0.16)*** 2.8 (0.16)***300 mgn = 51100 mgn = 518.2 (1.9)*PtGA, least squares mean(SE)Change from Baseline in SF-36 Domains, LSM (SE) Physical functioning Role-physical Bodily pain General health Vitality Social functioning Role-emotional Mental health≥2.5	point	improvement	in	SF-36	MCS, % (NRI)≥2.5	point	improvement	in	SF-36	PCS, % (NRI)MCS, mental component summary; PtGa, Patient Global Assessment; PCS, physical component summary; SE, standard error; SF-36, 36-Item Short Form Health Survey.*p &lt;  .05 vs placebo; **p &lt;  .01 vs placebo; ***p &lt;  .001 vs placebo. 7.2 (2.0)7.2 (2.0)11.4 (2.5)** 11.5 (2.5)**12.3 (2.5)**17.6 (2.9)** 19.2 (2.9)*** 18.9 (2.9)**3.2 (1.9)5.8 (2.0)6.9 (2.1)*4.7 (2.0)10.5 (2.4)** 13.4 (2.4)*** 8.2 (2.4)*6.1 (2.0)5.2 (2.1)6.6 (1.8)5.5 (1.8)45.137.32.8 (1.9)1.2 (2.4)5.7 (2.8)1.4 (1.9)1.0 (2.0)-0.2 (2.4)1.3 (2.0)1.7 (1.8)36.56.0 (2.0)3.2 (1.8)33.35.4 (1.9)6.2 (2.0)62.7*56.942.352.9P1331K Papp Clinical Research and Probity Medical Research, Waterloo, OnIntroduction:  The  negative  impact  of  psoriasis  extends  beyond the  patient,  affecting  his/her  social  interactions  and  the  quality of life of cohabitants. Furthermore, patients with psoriasis often experience	sexual	difficulties	because	of	their	disease.Objective:This  analysis  examined  the  effect  of  treatment  with tildrakizumab  (TIL)  on  personal  relationships  of  patients  with moderate-to-severe chronic plaque psoriasis.Methods:  Patients  in  two  phase  3  trials  reSURFACE  1 (NCT01722331)  and  reSURFACE  2  (NCT01729754)  were randomized  to  subcutaneous  TIL  200  mg,  100  mg,  or  placebo (PBO)  and  received  treatment  at  weeks  0  and  4.  PBO  patients were re-randomized at week 12 to either TIL 200 mg or 100 mg. Etanercept (ETN) 50 mg (semiweekly until week 12 then weekly until week 28) was also a treatment arm in reSURFACE 2. Data on personal relationships were collected at weeks 12 and 28 from the Dermatology Life Quality Index (DLQI) questionnaire question 8 (Q8) “Over the last week, how much has your skin created problems with your partner or any of your close friends or relatives” and question 9 (Q9) “Over the last week, how much has your skin caused	any	sexual	difficulties”.	Each	question	was	scored	on	a	scale of 0 (not affected at all) to 3 (very much affected). The data were pooled from reSURFACE 1 and 2.Results: In all, 1,820 patients had DLQI data. All patients reported a negative effect for Q8 and Q9 at baseline. At week 12, the proportion of patients with no negative effect (score of 0) on personal relationships (Q8 and Q9) was higher for TIL 200 mg, TIL 100 mg, and ETN than for PBO (76%, 72%, and 64% vs. 39%, respectively). A similar trend was observed for individual questions Q8 and Q9. At week 28, more patients on TIL 200 mg and TIL 100 mg reported no negative effect on personal relationships than those on ETN (85% and 77% vs. 66%; respectively). More patients on TIL 200 mg and TIL 100 mg reported no negative effect than those on ETN for Q8 (89% and 81% vs. 70%; respectively) and for Q9 (89% and 84% vs. 75%, respectively). Conclusions:  TIL	 had	 a	 beneficial	 effect	 on	 psoriasis-related	personal	relationship	problems	and	sexual	difficulties,	compared	to placebo and ETN.This abstract was presented at 2018 Annual Meeting of American Academy of Dermatology.</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="inlineStr">
+        <is>
+          <t>Jiaying Guo</t>
+        </is>
+      </c>
+      <c r="B159" s="2" t="inlineStr">
+        <is>
+          <t>SKiN Centre for Dermatology, Eli Lilly &amp; Company, Windsor Derma-tologytario, Canada, Harvard Medical School, Boston, MA, Oregon Medical Research Center, Portland, OR, USA, ScIderm Research Institute and Dermatologikum Hamburg, Hamburg, Germany, SKiN Centre for Derma-tology and Probity Medical Research, Peterborough, and Queen’s Univer-sity, Kingston, Ontario, Canada, Department of Dermatology, University of Texas, Houston, TX, USA, University of Melbourne, Melbourne, VIC, Australia, University of Lübeck, Lübeck, Germany, Sun Pharmaceutical Industries, Inc., Princeton, NJ, Merck &amp; Co., Inc., Kenilworth</t>
+        </is>
+      </c>
+      <c r="C159" s="2" t="inlineStr">
+        <is>
+          <t>NJ, USA</t>
+        </is>
+      </c>
+      <c r="D159" s="2" t="inlineStr">
+        <is>
+          <t>P132</t>
+        </is>
+      </c>
+      <c r="E159" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MIRIKIZUMAB SIGNIFICANTLY IMPROVES SELF­REPORTED DISEASE SEVERITY AND GENERAL HEALTH STATUS IN PATIENTS WITH MODERATE­TO­SEVERE PSORIASISEFFECT OF TILDRAKIZUMAB ON PERSONAL RELATIONSHIPS IN PATIENTS WITH MODERATE­TO­SEVERE CHRONIC PLAQUE PSORIASIS </t>
+        </is>
+      </c>
+      <c r="F159" s="2" t="inlineStr">
+        <is>
+          <t>Introduction: In a randomized, placebo-controlled, phase 2 trial (NCT02899988),	mirikizumab	met	its	primary	efficacy	endpoint	at Week 16.1Objective:To determine if mirikizumab improves patient-reported disease severity and general health status in psoriasis patients at Week 16.Methods:  Adults  with  moderate-to-severe  psoriasis  were  randomized 1:1:1:1 to receive placebo (n = 52), mirikizumab 30 mg (n = 51), 100 mg (n = 51), or 300 mg (n = 51) at Weeks 0 and 8. At baseline and Weeks 2, 4, 8, 12, and 16, patients completed the Patient Global Assessment of psoriasis (PtGA) (0 = clear, 5 = severe). At baseline and Week 16, patients completed the Medical Outcomes  Study  36-Item  Short  Form  Health  Survey  (SF-36; [range 0–100]) which measures 8 general health status domains that can be scored as mental component and physical component summaries.  For  continuous  measures,  comparisons  were  made by  a  mixed-effects  for  repeated  measures  model  (PtGA)  or  an analysis of covariance model (SF-36). Comparisons of categorical efficacy	variables	were	conducted	by	logistic	regression	analysis	with non-responder imputation (NRI).Results: At Week 16, mirikizumab-treated patients reported greater improvements in psoriasis severity and aspects of physical functioning versus placebo (Table).Conclusion: Mirikizumab	treatment	at	various	doses	significantly	improved psoriatic disease severity and physical health status.1. Reich K et al. Programme and abstracts of Psoriasis from Gene to Clinic; Nov. 30-Dec. 2, 2017; Abstract FC31.Table. Patient-Reported Outcomes (Week 16)Mirikizumab30 mgn = 48Placebon = 510.4 (0.16) 2.2 (0.16)*** 2.9 (0.16)*** 2.8 (0.16)***300 mgn = 51100 mgn = 518.2 (1.9)*PtGA, least squares mean(SE)Change from Baseline in SF-36 Domains, LSM (SE) Physical functioning Role-physical Bodily pain General health Vitality Social functioning Role-emotional Mental health≥2.5	point	improvement	in	SF-36	MCS, % (NRI)≥2.5	point	improvement	in	SF-36	PCS, % (NRI)MCS, mental component summary; PtGa, Patient Global Assessment; PCS, physical component summary; SE, standard error; SF-36, 36-Item Short Form Health Survey.*p &lt;  .05 vs placebo; **p &lt;  .01 vs placebo; ***p &lt;  .001 vs placebo. 7.2 (2.0)7.2 (2.0)11.4 (2.5)** 11.5 (2.5)**12.3 (2.5)**17.6 (2.9)** 19.2 (2.9)*** 18.9 (2.9)**3.2 (1.9)5.8 (2.0)6.9 (2.1)*4.7 (2.0)10.5 (2.4)** 13.4 (2.4)*** 8.2 (2.4)*6.1 (2.0)5.2 (2.1)6.6 (1.8)5.5 (1.8)45.137.32.8 (1.9)1.2 (2.4)5.7 (2.8)1.4 (1.9)1.0 (2.0)-0.2 (2.4)1.3 (2.0)1.7 (1.8)36.56.0 (2.0)3.2 (1.8)33.35.4 (1.9)6.2 (2.0)62.7*56.942.352.9P1331K Papp Clinical Research and Probity Medical Research, Waterloo, OnIntroduction:  The  negative  impact  of  psoriasis  extends  beyond the  patient,  affecting  his/her  social  interactions  and  the  quality of life of cohabitants. Furthermore, patients with psoriasis often experience	sexual	difficulties	because	of	their	disease.Objective:This  analysis  examined  the  effect  of  treatment  with tildrakizumab  (TIL)  on  personal  relationships  of  patients  with moderate-to-severe chronic plaque psoriasis.Methods:  Patients  in  two  phase  3  trials  reSURFACE  1 (NCT01722331)  and  reSURFACE  2  (NCT01729754)  were randomized  to  subcutaneous  TIL  200  mg,  100  mg,  or  placebo (PBO)  and  received  treatment  at  weeks  0  and  4.  PBO  patients were re-randomized at week 12 to either TIL 200 mg or 100 mg. Etanercept (ETN) 50 mg (semiweekly until week 12 then weekly until week 28) was also a treatment arm in reSURFACE 2. Data on personal relationships were collected at weeks 12 and 28 from the Dermatology Life Quality Index (DLQI) questionnaire question 8 (Q8) “Over the last week, how much has your skin created problems with your partner or any of your close friends or relatives” and question 9 (Q9) “Over the last week, how much has your skin caused	any	sexual	difficulties”.	Each	question	was	scored	on	a	scale of 0 (not affected at all) to 3 (very much affected). The data were pooled from reSURFACE 1 and 2.Results: In all, 1,820 patients had DLQI data. All patients reported a negative effect for Q8 and Q9 at baseline. At week 12, the proportion of patients with no negative effect (score of 0) on personal relationships (Q8 and Q9) was higher for TIL 200 mg, TIL 100 mg, and ETN than for PBO (76%, 72%, and 64% vs. 39%, respectively). A similar trend was observed for individual questions Q8 and Q9. At week 28, more patients on TIL 200 mg and TIL 100 mg reported no negative effect on personal relationships than those on ETN (85% and 77% vs. 66%; respectively). More patients on TIL 200 mg and TIL 100 mg reported no negative effect than those on ETN for Q8 (89% and 81% vs. 70%; respectively) and for Q9 (89% and 84% vs. 75%, respectively). Conclusions:  TIL	 had	 a	 beneficial	 effect	 on	 psoriasis-related	personal	relationship	problems	and	sexual	difficulties,	compared	to placebo and ETN.This abstract was presented at 2018 Annual Meeting of American Academy of Dermatology.</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="inlineStr">
+        <is>
+          <t>Jerry BagelKim Papp</t>
+        </is>
+      </c>
+      <c r="B160" s="2" t="inlineStr">
+        <is>
+          <t>SKiN Centre for Dermatology, Eli Lilly &amp; Company, Windsor Derma-tologytario, Canada, Harvard Medical School, Boston, MA, Oregon Medical Research Center, Portland, OR, USA, ScIderm Research Institute and Dermatologikum Hamburg, Hamburg, Germany, SKiN Centre for Derma-tology and Probity Medical Research, Peterborough, and Queen’s Univer-sity, Kingston, Ontario, Canada, Department of Dermatology, University of Texas, Houston, TX, USA, University of Melbourne, Melbourne, VIC, Australia, University of Lübeck, Lübeck, Germany, Sun Pharmaceutical Industries, Inc., Princeton, NJ, Merck &amp; Co., Inc., Kenilworth</t>
+        </is>
+      </c>
+      <c r="C160" s="2" t="inlineStr">
+        <is>
+          <t>NJ, USA</t>
+        </is>
+      </c>
+      <c r="D160" s="2" t="inlineStr">
+        <is>
+          <t>P132</t>
+        </is>
+      </c>
+      <c r="E160" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MIRIKIZUMAB SIGNIFICANTLY IMPROVES SELF­REPORTED DISEASE SEVERITY AND GENERAL HEALTH STATUS IN PATIENTS WITH MODERATE­TO­SEVERE PSORIASISEFFECT OF TILDRAKIZUMAB ON PERSONAL RELATIONSHIPS IN PATIENTS WITH MODERATE­TO­SEVERE CHRONIC PLAQUE PSORIASIS </t>
+        </is>
+      </c>
+      <c r="F160" s="2" t="inlineStr">
+        <is>
+          <t>Introduction: In a randomized, placebo-controlled, phase 2 trial (NCT02899988),	mirikizumab	met	its	primary	efficacy	endpoint	at Week 16.1Objective:To determine if mirikizumab improves patient-reported disease severity and general health status in psoriasis patients at Week 16.Methods:  Adults  with  moderate-to-severe  psoriasis  were  randomized 1:1:1:1 to receive placebo (n = 52), mirikizumab 30 mg (n = 51), 100 mg (n = 51), or 300 mg (n = 51) at Weeks 0 and 8. At baseline and Weeks 2, 4, 8, 12, and 16, patients completed the Patient Global Assessment of psoriasis (PtGA) (0 = clear, 5 = severe). At baseline and Week 16, patients completed the Medical Outcomes  Study  36-Item  Short  Form  Health  Survey  (SF-36; [range 0–100]) which measures 8 general health status domains that can be scored as mental component and physical component summaries.  For  continuous  measures,  comparisons  were  made by  a  mixed-effects  for  repeated  measures  model  (PtGA)  or  an analysis of covariance model (SF-36). Comparisons of categorical efficacy	variables	were	conducted	by	logistic	regression	analysis	with non-responder imputation (NRI).Results: At Week 16, mirikizumab-treated patients reported greater improvements in psoriasis severity and aspects of physical functioning versus placebo (Table).Conclusion: Mirikizumab	treatment	at	various	doses	significantly	improved psoriatic disease severity and physical health status.1. Reich K et al. Programme and abstracts of Psoriasis from Gene to Clinic; Nov. 30-Dec. 2, 2017; Abstract FC31.Table. Patient-Reported Outcomes (Week 16)Mirikizumab30 mgn = 48Placebon = 510.4 (0.16) 2.2 (0.16)*** 2.9 (0.16)*** 2.8 (0.16)***300 mgn = 51100 mgn = 518.2 (1.9)*PtGA, least squares mean(SE)Change from Baseline in SF-36 Domains, LSM (SE) Physical functioning Role-physical Bodily pain General health Vitality Social functioning Role-emotional Mental health≥2.5	point	improvement	in	SF-36	MCS, % (NRI)≥2.5	point	improvement	in	SF-36	PCS, % (NRI)MCS, mental component summary; PtGa, Patient Global Assessment; PCS, physical component summary; SE, standard error; SF-36, 36-Item Short Form Health Survey.*p &lt;  .05 vs placebo; **p &lt;  .01 vs placebo; ***p &lt;  .001 vs placebo. 7.2 (2.0)7.2 (2.0)11.4 (2.5)** 11.5 (2.5)**12.3 (2.5)**17.6 (2.9)** 19.2 (2.9)*** 18.9 (2.9)**3.2 (1.9)5.8 (2.0)6.9 (2.1)*4.7 (2.0)10.5 (2.4)** 13.4 (2.4)*** 8.2 (2.4)*6.1 (2.0)5.2 (2.1)6.6 (1.8)5.5 (1.8)45.137.32.8 (1.9)1.2 (2.4)5.7 (2.8)1.4 (1.9)1.0 (2.0)-0.2 (2.4)1.3 (2.0)1.7 (1.8)36.56.0 (2.0)3.2 (1.8)33.35.4 (1.9)6.2 (2.0)62.7*56.942.352.9P1331K Papp Clinical Research and Probity Medical Research, Waterloo, OnIntroduction:  The  negative  impact  of  psoriasis  extends  beyond the  patient,  affecting  his/her  social  interactions  and  the  quality of life of cohabitants. Furthermore, patients with psoriasis often experience	sexual	difficulties	because	of	their	disease.Objective:This  analysis  examined  the  effect  of  treatment  with tildrakizumab  (TIL)  on  personal  relationships  of  patients  with moderate-to-severe chronic plaque psoriasis.Methods:  Patients  in  two  phase  3  trials  reSURFACE  1 (NCT01722331)  and  reSURFACE  2  (NCT01729754)  were randomized  to  subcutaneous  TIL  200  mg,  100  mg,  or  placebo (PBO)  and  received  treatment  at  weeks  0  and  4.  PBO  patients were re-randomized at week 12 to either TIL 200 mg or 100 mg. Etanercept (ETN) 50 mg (semiweekly until week 12 then weekly until week 28) was also a treatment arm in reSURFACE 2. Data on personal relationships were collected at weeks 12 and 28 from the Dermatology Life Quality Index (DLQI) questionnaire question 8 (Q8) “Over the last week, how much has your skin created problems with your partner or any of your close friends or relatives” and question 9 (Q9) “Over the last week, how much has your skin caused	any	sexual	difficulties”.	Each	question	was	scored	on	a	scale of 0 (not affected at all) to 3 (very much affected). The data were pooled from reSURFACE 1 and 2.Results: In all, 1,820 patients had DLQI data. All patients reported a negative effect for Q8 and Q9 at baseline. At week 12, the proportion of patients with no negative effect (score of 0) on personal relationships (Q8 and Q9) was higher for TIL 200 mg, TIL 100 mg, and ETN than for PBO (76%, 72%, and 64% vs. 39%, respectively). A similar trend was observed for individual questions Q8 and Q9. At week 28, more patients on TIL 200 mg and TIL 100 mg reported no negative effect on personal relationships than those on ETN (85% and 77% vs. 66%; respectively). More patients on TIL 200 mg and TIL 100 mg reported no negative effect than those on ETN for Q8 (89% and 81% vs. 70%; respectively) and for Q9 (89% and 84% vs. 75%, respectively). Conclusions:  TIL	 had	 a	 beneficial	 effect	 on	 psoriasis-related	personal	relationship	problems	and	sexual	difficulties,	compared	to placebo and ETN.This abstract was presented at 2018 Annual Meeting of American Academy of Dermatology.</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="inlineStr">
+        <is>
+          <t>Alexa Kimball</t>
+        </is>
+      </c>
+      <c r="B161" s="2" t="inlineStr">
+        <is>
+          <t>SKiN Centre for Dermatology, Eli Lilly &amp; Company, Windsor Derma-tologytario, Canada, Harvard Medical School, Boston, MA, Oregon Medical Research Center, Portland, OR, USA, ScIderm Research Institute and Dermatologikum Hamburg, Hamburg, Germany, SKiN Centre for Derma-tology and Probity Medical Research, Peterborough, and Queen’s Univer-sity, Kingston, Ontario, Canada, Department of Dermatology, University of Texas, Houston, TX, USA, University of Melbourne, Melbourne, VIC, Australia, University of Lübeck, Lübeck, Germany, Sun Pharmaceutical Industries, Inc., Princeton, NJ, Merck &amp; Co., Inc., Kenilworth</t>
+        </is>
+      </c>
+      <c r="C161" s="2" t="inlineStr">
+        <is>
+          <t>NJ, USA</t>
+        </is>
+      </c>
+      <c r="D161" s="2" t="inlineStr">
+        <is>
+          <t>P132</t>
+        </is>
+      </c>
+      <c r="E161" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MIRIKIZUMAB SIGNIFICANTLY IMPROVES SELF­REPORTED DISEASE SEVERITY AND GENERAL HEALTH STATUS IN PATIENTS WITH MODERATE­TO­SEVERE PSORIASISEFFECT OF TILDRAKIZUMAB ON PERSONAL RELATIONSHIPS IN PATIENTS WITH MODERATE­TO­SEVERE CHRONIC PLAQUE PSORIASIS </t>
+        </is>
+      </c>
+      <c r="F161" s="2" t="inlineStr">
+        <is>
+          <t>Introduction: In a randomized, placebo-controlled, phase 2 trial (NCT02899988),	mirikizumab	met	its	primary	efficacy	endpoint	at Week 16.1Objective:To determine if mirikizumab improves patient-reported disease severity and general health status in psoriasis patients at Week 16.Methods:  Adults  with  moderate-to-severe  psoriasis  were  randomized 1:1:1:1 to receive placebo (n = 52), mirikizumab 30 mg (n = 51), 100 mg (n = 51), or 300 mg (n = 51) at Weeks 0 and 8. At baseline and Weeks 2, 4, 8, 12, and 16, patients completed the Patient Global Assessment of psoriasis (PtGA) (0 = clear, 5 = severe). At baseline and Week 16, patients completed the Medical Outcomes  Study  36-Item  Short  Form  Health  Survey  (SF-36; [range 0–100]) which measures 8 general health status domains that can be scored as mental component and physical component summaries.  For  continuous  measures,  comparisons  were  made by  a  mixed-effects  for  repeated  measures  model  (PtGA)  or  an analysis of covariance model (SF-36). Comparisons of categorical efficacy	variables	were	conducted	by	logistic	regression	analysis	with non-responder imputation (NRI).Results: At Week 16, mirikizumab-treated patients reported greater improvements in psoriasis severity and aspects of physical functioning versus placebo (Table).Conclusion: Mirikizumab	treatment	at	various	doses	significantly	improved psoriatic disease severity and physical health status.1. Reich K et al. Programme and abstracts of Psoriasis from Gene to Clinic; Nov. 30-Dec. 2, 2017; Abstract FC31.Table. Patient-Reported Outcomes (Week 16)Mirikizumab30 mgn = 48Placebon = 510.4 (0.16) 2.2 (0.16)*** 2.9 (0.16)*** 2.8 (0.16)***300 mgn = 51100 mgn = 518.2 (1.9)*PtGA, least squares mean(SE)Change from Baseline in SF-36 Domains, LSM (SE) Physical functioning Role-physical Bodily pain General health Vitality Social functioning Role-emotional Mental health≥2.5	point	improvement	in	SF-36	MCS, % (NRI)≥2.5	point	improvement	in	SF-36	PCS, % (NRI)MCS, mental component summary; PtGa, Patient Global Assessment; PCS, physical component summary; SE, standard error; SF-36, 36-Item Short Form Health Survey.*p &lt;  .05 vs placebo; **p &lt;  .01 vs placebo; ***p &lt;  .001 vs placebo. 7.2 (2.0)7.2 (2.0)11.4 (2.5)** 11.5 (2.5)**12.3 (2.5)**17.6 (2.9)** 19.2 (2.9)*** 18.9 (2.9)**3.2 (1.9)5.8 (2.0)6.9 (2.1)*4.7 (2.0)10.5 (2.4)** 13.4 (2.4)*** 8.2 (2.4)*6.1 (2.0)5.2 (2.1)6.6 (1.8)5.5 (1.8)45.137.32.8 (1.9)1.2 (2.4)5.7 (2.8)1.4 (1.9)1.0 (2.0)-0.2 (2.4)1.3 (2.0)1.7 (1.8)36.56.0 (2.0)3.2 (1.8)33.35.4 (1.9)6.2 (2.0)62.7*56.942.352.9P1331K Papp Clinical Research and Probity Medical Research, Waterloo, OnIntroduction:  The  negative  impact  of  psoriasis  extends  beyond the  patient,  affecting  his/her  social  interactions  and  the  quality of life of cohabitants. Furthermore, patients with psoriasis often experience	sexual	difficulties	because	of	their	disease.Objective:This  analysis  examined  the  effect  of  treatment  with tildrakizumab  (TIL)  on  personal  relationships  of  patients  with moderate-to-severe chronic plaque psoriasis.Methods:  Patients  in  two  phase  3  trials  reSURFACE  1 (NCT01722331)  and  reSURFACE  2  (NCT01729754)  were randomized  to  subcutaneous  TIL  200  mg,  100  mg,  or  placebo (PBO)  and  received  treatment  at  weeks  0  and  4.  PBO  patients were re-randomized at week 12 to either TIL 200 mg or 100 mg. Etanercept (ETN) 50 mg (semiweekly until week 12 then weekly until week 28) was also a treatment arm in reSURFACE 2. Data on personal relationships were collected at weeks 12 and 28 from the Dermatology Life Quality Index (DLQI) questionnaire question 8 (Q8) “Over the last week, how much has your skin created problems with your partner or any of your close friends or relatives” and question 9 (Q9) “Over the last week, how much has your skin caused	any	sexual	difficulties”.	Each	question	was	scored	on	a	scale of 0 (not affected at all) to 3 (very much affected). The data were pooled from reSURFACE 1 and 2.Results: In all, 1,820 patients had DLQI data. All patients reported a negative effect for Q8 and Q9 at baseline. At week 12, the proportion of patients with no negative effect (score of 0) on personal relationships (Q8 and Q9) was higher for TIL 200 mg, TIL 100 mg, and ETN than for PBO (76%, 72%, and 64% vs. 39%, respectively). A similar trend was observed for individual questions Q8 and Q9. At week 28, more patients on TIL 200 mg and TIL 100 mg reported no negative effect on personal relationships than those on ETN (85% and 77% vs. 66%; respectively). More patients on TIL 200 mg and TIL 100 mg reported no negative effect than those on ETN for Q8 (89% and 81% vs. 70%; respectively) and for Q9 (89% and 84% vs. 75%, respectively). Conclusions:  TIL	 had	 a	 beneficial	 effect	 on	 psoriasis-related	personal	relationship	problems	and	sexual	difficulties,	compared	to placebo and ETN.This abstract was presented at 2018 Annual Meeting of American Academy of Dermatology.</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="inlineStr">
+        <is>
+          <t>Andrew Blauvelt</t>
+        </is>
+      </c>
+      <c r="B162" s="2" t="inlineStr">
+        <is>
+          <t>SKiN Centre for Dermatology, Eli Lilly &amp; Company, Windsor Derma-tologytario, Canada, Harvard Medical School, Boston, MA, Oregon Medical Research Center, Portland, OR, USA, ScIderm Research Institute and Dermatologikum Hamburg, Hamburg, Germany, SKiN Centre for Derma-tology and Probity Medical Research, Peterborough, and Queen’s Univer-sity, Kingston, Ontario, Canada, Department of Dermatology, University of Texas, Houston, TX, USA, University of Melbourne, Melbourne, VIC, Australia, University of Lübeck, Lübeck, Germany, Sun Pharmaceutical Industries, Inc., Princeton, NJ, Merck &amp; Co., Inc., Kenilworth</t>
+        </is>
+      </c>
+      <c r="C162" s="2" t="inlineStr">
+        <is>
+          <t>NJ, USA</t>
+        </is>
+      </c>
+      <c r="D162" s="2" t="inlineStr">
+        <is>
+          <t>P132</t>
+        </is>
+      </c>
+      <c r="E162" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MIRIKIZUMAB SIGNIFICANTLY IMPROVES SELF­REPORTED DISEASE SEVERITY AND GENERAL HEALTH STATUS IN PATIENTS WITH MODERATE­TO­SEVERE PSORIASISEFFECT OF TILDRAKIZUMAB ON PERSONAL RELATIONSHIPS IN PATIENTS WITH MODERATE­TO­SEVERE CHRONIC PLAQUE PSORIASIS </t>
+        </is>
+      </c>
+      <c r="F162" s="2" t="inlineStr">
+        <is>
+          <t>Introduction: In a randomized, placebo-controlled, phase 2 trial (NCT02899988),	mirikizumab	met	its	primary	efficacy	endpoint	at Week 16.1Objective:To determine if mirikizumab improves patient-reported disease severity and general health status in psoriasis patients at Week 16.Methods:  Adults  with  moderate-to-severe  psoriasis  were  randomized 1:1:1:1 to receive placebo (n = 52), mirikizumab 30 mg (n = 51), 100 mg (n = 51), or 300 mg (n = 51) at Weeks 0 and 8. At baseline and Weeks 2, 4, 8, 12, and 16, patients completed the Patient Global Assessment of psoriasis (PtGA) (0 = clear, 5 = severe). At baseline and Week 16, patients completed the Medical Outcomes  Study  36-Item  Short  Form  Health  Survey  (SF-36; [range 0–100]) which measures 8 general health status domains that can be scored as mental component and physical component summaries.  For  continuous  measures,  comparisons  were  made by  a  mixed-effects  for  repeated  measures  model  (PtGA)  or  an analysis of covariance model (SF-36). Comparisons of categorical efficacy	variables	were	conducted	by	logistic	regression	analysis	with non-responder imputation (NRI).Results: At Week 16, mirikizumab-treated patients reported greater improvements in psoriasis severity and aspects of physical functioning versus placebo (Table).Conclusion: Mirikizumab	treatment	at	various	doses	significantly	improved psoriatic disease severity and physical health status.1. Reich K et al. Programme and abstracts of Psoriasis from Gene to Clinic; Nov. 30-Dec. 2, 2017; Abstract FC31.Table. Patient-Reported Outcomes (Week 16)Mirikizumab30 mgn = 48Placebon = 510.4 (0.16) 2.2 (0.16)*** 2.9 (0.16)*** 2.8 (0.16)***300 mgn = 51100 mgn = 518.2 (1.9)*PtGA, least squares mean(SE)Change from Baseline in SF-36 Domains, LSM (SE) Physical functioning Role-physical Bodily pain General health Vitality Social functioning Role-emotional Mental health≥2.5	point	improvement	in	SF-36	MCS, % (NRI)≥2.5	point	improvement	in	SF-36	PCS, % (NRI)MCS, mental component summary; PtGa, Patient Global Assessment; PCS, physical component summary; SE, standard error; SF-36, 36-Item Short Form Health Survey.*p &lt;  .05 vs placebo; **p &lt;  .01 vs placebo; ***p &lt;  .001 vs placebo. 7.2 (2.0)7.2 (2.0)11.4 (2.5)** 11.5 (2.5)**12.3 (2.5)**17.6 (2.9)** 19.2 (2.9)*** 18.9 (2.9)**3.2 (1.9)5.8 (2.0)6.9 (2.1)*4.7 (2.0)10.5 (2.4)** 13.4 (2.4)*** 8.2 (2.4)*6.1 (2.0)5.2 (2.1)6.6 (1.8)5.5 (1.8)45.137.32.8 (1.9)1.2 (2.4)5.7 (2.8)1.4 (1.9)1.0 (2.0)-0.2 (2.4)1.3 (2.0)1.7 (1.8)36.56.0 (2.0)3.2 (1.8)33.35.4 (1.9)6.2 (2.0)62.7*56.942.352.9P1331K Papp Clinical Research and Probity Medical Research, Waterloo, OnIntroduction:  The  negative  impact  of  psoriasis  extends  beyond the  patient,  affecting  his/her  social  interactions  and  the  quality of life of cohabitants. Furthermore, patients with psoriasis often experience	sexual	difficulties	because	of	their	disease.Objective:This  analysis  examined  the  effect  of  treatment  with tildrakizumab  (TIL)  on  personal  relationships  of  patients  with moderate-to-severe chronic plaque psoriasis.Methods:  Patients  in  two  phase  3  trials  reSURFACE  1 (NCT01722331)  and  reSURFACE  2  (NCT01729754)  were randomized  to  subcutaneous  TIL  200  mg,  100  mg,  or  placebo (PBO)  and  received  treatment  at  weeks  0  and  4.  PBO  patients were re-randomized at week 12 to either TIL 200 mg or 100 mg. Etanercept (ETN) 50 mg (semiweekly until week 12 then weekly until week 28) was also a treatment arm in reSURFACE 2. Data on personal relationships were collected at weeks 12 and 28 from the Dermatology Life Quality Index (DLQI) questionnaire question 8 (Q8) “Over the last week, how much has your skin created problems with your partner or any of your close friends or relatives” and question 9 (Q9) “Over the last week, how much has your skin caused	any	sexual	difficulties”.	Each	question	was	scored	on	a	scale of 0 (not affected at all) to 3 (very much affected). The data were pooled from reSURFACE 1 and 2.Results: In all, 1,820 patients had DLQI data. All patients reported a negative effect for Q8 and Q9 at baseline. At week 12, the proportion of patients with no negative effect (score of 0) on personal relationships (Q8 and Q9) was higher for TIL 200 mg, TIL 100 mg, and ETN than for PBO (76%, 72%, and 64% vs. 39%, respectively). A similar trend was observed for individual questions Q8 and Q9. At week 28, more patients on TIL 200 mg and TIL 100 mg reported no negative effect on personal relationships than those on ETN (85% and 77% vs. 66%; respectively). More patients on TIL 200 mg and TIL 100 mg reported no negative effect than those on ETN for Q8 (89% and 81% vs. 70%; respectively) and for Q9 (89% and 84% vs. 75%, respectively). Conclusions:  TIL	 had	 a	 beneficial	 effect	 on	 psoriasis-related	personal	relationship	problems	and	sexual	difficulties,	compared	to placebo and ETN.This abstract was presented at 2018 Annual Meeting of American Academy of Dermatology.</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="inlineStr">
+        <is>
+          <t>Kristian Reich</t>
+        </is>
+      </c>
+      <c r="B163" s="2" t="inlineStr">
+        <is>
+          <t>SKiN Centre for Dermatology, Eli Lilly &amp; Company, Windsor Derma-tologytario, Canada, Harvard Medical School, Boston, MA, Oregon Medical Research Center, Portland, OR, USA, ScIderm Research Institute and Dermatologikum Hamburg, Hamburg, Germany, SKiN Centre for Derma-tology and Probity Medical Research, Peterborough, and Queen’s Univer-sity, Kingston, Ontario, Canada, Department of Dermatology, University of Texas, Houston, TX, USA, University of Melbourne, Melbourne, VIC, Australia, University of Lübeck, Lübeck, Germany, Sun Pharmaceutical Industries, Inc., Princeton, NJ, Merck &amp; Co., Inc., Kenilworth</t>
+        </is>
+      </c>
+      <c r="C163" s="2" t="inlineStr">
+        <is>
+          <t>NJ, USA</t>
+        </is>
+      </c>
+      <c r="D163" s="2" t="inlineStr">
+        <is>
+          <t>P132</t>
+        </is>
+      </c>
+      <c r="E163" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MIRIKIZUMAB SIGNIFICANTLY IMPROVES SELF­REPORTED DISEASE SEVERITY AND GENERAL HEALTH STATUS IN PATIENTS WITH MODERATE­TO­SEVERE PSORIASISEFFECT OF TILDRAKIZUMAB ON PERSONAL RELATIONSHIPS IN PATIENTS WITH MODERATE­TO­SEVERE CHRONIC PLAQUE PSORIASIS </t>
+        </is>
+      </c>
+      <c r="F163" s="2" t="inlineStr">
+        <is>
+          <t>Introduction: In a randomized, placebo-controlled, phase 2 trial (NCT02899988),	mirikizumab	met	its	primary	efficacy	endpoint	at Week 16.1Objective:To determine if mirikizumab improves patient-reported disease severity and general health status in psoriasis patients at Week 16.Methods:  Adults  with  moderate-to-severe  psoriasis  were  randomized 1:1:1:1 to receive placebo (n = 52), mirikizumab 30 mg (n = 51), 100 mg (n = 51), or 300 mg (n = 51) at Weeks 0 and 8. At baseline and Weeks 2, 4, 8, 12, and 16, patients completed the Patient Global Assessment of psoriasis (PtGA) (0 = clear, 5 = severe). At baseline and Week 16, patients completed the Medical Outcomes  Study  36-Item  Short  Form  Health  Survey  (SF-36; [range 0–100]) which measures 8 general health status domains that can be scored as mental component and physical component summaries.  For  continuous  measures,  comparisons  were  made by  a  mixed-effects  for  repeated  measures  model  (PtGA)  or  an analysis of covariance model (SF-36). Comparisons of categorical efficacy	variables	were	conducted	by	logistic	regression	analysis	with non-responder imputation (NRI).Results: At Week 16, mirikizumab-treated patients reported greater improvements in psoriasis severity and aspects of physical functioning versus placebo (Table).Conclusion: Mirikizumab	treatment	at	various	doses	significantly	improved psoriatic disease severity and physical health status.1. Reich K et al. Programme and abstracts of Psoriasis from Gene to Clinic; Nov. 30-Dec. 2, 2017; Abstract FC31.Table. Patient-Reported Outcomes (Week 16)Mirikizumab30 mgn = 48Placebon = 510.4 (0.16) 2.2 (0.16)*** 2.9 (0.16)*** 2.8 (0.16)***300 mgn = 51100 mgn = 518.2 (1.9)*PtGA, least squares mean(SE)Change from Baseline in SF-36 Domains, LSM (SE) Physical functioning Role-physical Bodily pain General health Vitality Social functioning Role-emotional Mental health≥2.5	point	improvement	in	SF-36	MCS, % (NRI)≥2.5	point	improvement	in	SF-36	PCS, % (NRI)MCS, mental component summary; PtGa, Patient Global Assessment; PCS, physical component summary; SE, standard error; SF-36, 36-Item Short Form Health Survey.*p &lt;  .05 vs placebo; **p &lt;  .01 vs placebo; ***p &lt;  .001 vs placebo. 7.2 (2.0)7.2 (2.0)11.4 (2.5)** 11.5 (2.5)**12.3 (2.5)**17.6 (2.9)** 19.2 (2.9)*** 18.9 (2.9)**3.2 (1.9)5.8 (2.0)6.9 (2.1)*4.7 (2.0)10.5 (2.4)** 13.4 (2.4)*** 8.2 (2.4)*6.1 (2.0)5.2 (2.1)6.6 (1.8)5.5 (1.8)45.137.32.8 (1.9)1.2 (2.4)5.7 (2.8)1.4 (1.9)1.0 (2.0)-0.2 (2.4)1.3 (2.0)1.7 (1.8)36.56.0 (2.0)3.2 (1.8)33.35.4 (1.9)6.2 (2.0)62.7*56.942.352.9P1331K Papp Clinical Research and Probity Medical Research, Waterloo, OnIntroduction:  The  negative  impact  of  psoriasis  extends  beyond the  patient,  affecting  his/her  social  interactions  and  the  quality of life of cohabitants. Furthermore, patients with psoriasis often experience	sexual	difficulties	because	of	their	disease.Objective:This  analysis  examined  the  effect  of  treatment  with tildrakizumab  (TIL)  on  personal  relationships  of  patients  with moderate-to-severe chronic plaque psoriasis.Methods:  Patients  in  two  phase  3  trials  reSURFACE  1 (NCT01722331)  and  reSURFACE  2  (NCT01729754)  were randomized  to  subcutaneous  TIL  200  mg,  100  mg,  or  placebo (PBO)  and  received  treatment  at  weeks  0  and  4.  PBO  patients were re-randomized at week 12 to either TIL 200 mg or 100 mg. Etanercept (ETN) 50 mg (semiweekly until week 12 then weekly until week 28) was also a treatment arm in reSURFACE 2. Data on personal relationships were collected at weeks 12 and 28 from the Dermatology Life Quality Index (DLQI) questionnaire question 8 (Q8) “Over the last week, how much has your skin created problems with your partner or any of your close friends or relatives” and question 9 (Q9) “Over the last week, how much has your skin caused	any	sexual	difficulties”.	Each	question	was	scored	on	a	scale of 0 (not affected at all) to 3 (very much affected). The data were pooled from reSURFACE 1 and 2.Results: In all, 1,820 patients had DLQI data. All patients reported a negative effect for Q8 and Q9 at baseline. At week 12, the proportion of patients with no negative effect (score of 0) on personal relationships (Q8 and Q9) was higher for TIL 200 mg, TIL 100 mg, and ETN than for PBO (76%, 72%, and 64% vs. 39%, respectively). A similar trend was observed for individual questions Q8 and Q9. At week 28, more patients on TIL 200 mg and TIL 100 mg reported no negative effect on personal relationships than those on ETN (85% and 77% vs. 66%; respectively). More patients on TIL 200 mg and TIL 100 mg reported no negative effect than those on ETN for Q8 (89% and 81% vs. 70%; respectively) and for Q9 (89% and 84% vs. 75%, respectively). Conclusions:  TIL	 had	 a	 beneficial	 effect	 on	 psoriasis-related	personal	relationship	problems	and	sexual	difficulties,	compared	to placebo and ETN.This abstract was presented at 2018 Annual Meeting of American Academy of Dermatology.</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="inlineStr">
+        <is>
+          <t>Melinda Gooderham</t>
+        </is>
+      </c>
+      <c r="B164" s="2" t="inlineStr">
+        <is>
+          <t>SKiN Centre for Dermatology, Eli Lilly &amp; Company, Windsor Derma-tologytario, Canada, Harvard Medical School, Boston, MA, Oregon Medical Research Center, Portland, OR, USA, ScIderm Research Institute and Dermatologikum Hamburg, Hamburg, Germany, SKiN Centre for Derma-tology and Probity Medical Research, Peterborough, and Queen’s Univer-sity, Kingston, Ontario, Canada, Department of Dermatology, University of Texas, Houston, TX, USA, University of Melbourne, Melbourne, VIC, Australia, University of Lübeck, Lübeck, Germany, Sun Pharmaceutical Industries, Inc., Princeton, NJ, Merck &amp; Co., Inc., Kenilworth</t>
+        </is>
+      </c>
+      <c r="C164" s="2" t="inlineStr">
+        <is>
+          <t>NJ, USA</t>
+        </is>
+      </c>
+      <c r="D164" s="2" t="inlineStr">
+        <is>
+          <t>P132</t>
+        </is>
+      </c>
+      <c r="E164" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MIRIKIZUMAB SIGNIFICANTLY IMPROVES SELF­REPORTED DISEASE SEVERITY AND GENERAL HEALTH STATUS IN PATIENTS WITH MODERATE­TO­SEVERE PSORIASISEFFECT OF TILDRAKIZUMAB ON PERSONAL RELATIONSHIPS IN PATIENTS WITH MODERATE­TO­SEVERE CHRONIC PLAQUE PSORIASIS </t>
+        </is>
+      </c>
+      <c r="F164" s="2" t="inlineStr">
+        <is>
+          <t>Introduction: In a randomized, placebo-controlled, phase 2 trial (NCT02899988),	mirikizumab	met	its	primary	efficacy	endpoint	at Week 16.1Objective:To determine if mirikizumab improves patient-reported disease severity and general health status in psoriasis patients at Week 16.Methods:  Adults  with  moderate-to-severe  psoriasis  were  randomized 1:1:1:1 to receive placebo (n = 52), mirikizumab 30 mg (n = 51), 100 mg (n = 51), or 300 mg (n = 51) at Weeks 0 and 8. At baseline and Weeks 2, 4, 8, 12, and 16, patients completed the Patient Global Assessment of psoriasis (PtGA) (0 = clear, 5 = severe). At baseline and Week 16, patients completed the Medical Outcomes  Study  36-Item  Short  Form  Health  Survey  (SF-36; [range 0–100]) which measures 8 general health status domains that can be scored as mental component and physical component summaries.  For  continuous  measures,  comparisons  were  made by  a  mixed-effects  for  repeated  measures  model  (PtGA)  or  an analysis of covariance model (SF-36). Comparisons of categorical efficacy	variables	were	conducted	by	logistic	regression	analysis	with non-responder imputation (NRI).Results: At Week 16, mirikizumab-treated patients reported greater improvements in psoriasis severity and aspects of physical functioning versus placebo (Table).Conclusion: Mirikizumab	treatment	at	various	doses	significantly	improved psoriatic disease severity and physical health status.1. Reich K et al. Programme and abstracts of Psoriasis from Gene to Clinic; Nov. 30-Dec. 2, 2017; Abstract FC31.Table. Patient-Reported Outcomes (Week 16)Mirikizumab30 mgn = 48Placebon = 510.4 (0.16) 2.2 (0.16)*** 2.9 (0.16)*** 2.8 (0.16)***300 mgn = 51100 mgn = 518.2 (1.9)*PtGA, least squares mean(SE)Change from Baseline in SF-36 Domains, LSM (SE) Physical functioning Role-physical Bodily pain General health Vitality Social functioning Role-emotional Mental health≥2.5	point	improvement	in	SF-36	MCS, % (NRI)≥2.5	point	improvement	in	SF-36	PCS, % (NRI)MCS, mental component summary; PtGa, Patient Global Assessment; PCS, physical component summary; SE, standard error; SF-36, 36-Item Short Form Health Survey.*p &lt;  .05 vs placebo; **p &lt;  .01 vs placebo; ***p &lt;  .001 vs placebo. 7.2 (2.0)7.2 (2.0)11.4 (2.5)** 11.5 (2.5)**12.3 (2.5)**17.6 (2.9)** 19.2 (2.9)*** 18.9 (2.9)**3.2 (1.9)5.8 (2.0)6.9 (2.1)*4.7 (2.0)10.5 (2.4)** 13.4 (2.4)*** 8.2 (2.4)*6.1 (2.0)5.2 (2.1)6.6 (1.8)5.5 (1.8)45.137.32.8 (1.9)1.2 (2.4)5.7 (2.8)1.4 (1.9)1.0 (2.0)-0.2 (2.4)1.3 (2.0)1.7 (1.8)36.56.0 (2.0)3.2 (1.8)33.35.4 (1.9)6.2 (2.0)62.7*56.942.352.9P1331K Papp Clinical Research and Probity Medical Research, Waterloo, OnIntroduction:  The  negative  impact  of  psoriasis  extends  beyond the  patient,  affecting  his/her  social  interactions  and  the  quality of life of cohabitants. Furthermore, patients with psoriasis often experience	sexual	difficulties	because	of	their	disease.Objective:This  analysis  examined  the  effect  of  treatment  with tildrakizumab  (TIL)  on  personal  relationships  of  patients  with moderate-to-severe chronic plaque psoriasis.Methods:  Patients  in  two  phase  3  trials  reSURFACE  1 (NCT01722331)  and  reSURFACE  2  (NCT01729754)  were randomized  to  subcutaneous  TIL  200  mg,  100  mg,  or  placebo (PBO)  and  received  treatment  at  weeks  0  and  4.  PBO  patients were re-randomized at week 12 to either TIL 200 mg or 100 mg. Etanercept (ETN) 50 mg (semiweekly until week 12 then weekly until week 28) was also a treatment arm in reSURFACE 2. Data on personal relationships were collected at weeks 12 and 28 from the Dermatology Life Quality Index (DLQI) questionnaire question 8 (Q8) “Over the last week, how much has your skin created problems with your partner or any of your close friends or relatives” and question 9 (Q9) “Over the last week, how much has your skin caused	any	sexual	difficulties”.	Each	question	was	scored	on	a	scale of 0 (not affected at all) to 3 (very much affected). The data were pooled from reSURFACE 1 and 2.Results: In all, 1,820 patients had DLQI data. All patients reported a negative effect for Q8 and Q9 at baseline. At week 12, the proportion of patients with no negative effect (score of 0) on personal relationships (Q8 and Q9) was higher for TIL 200 mg, TIL 100 mg, and ETN than for PBO (76%, 72%, and 64% vs. 39%, respectively). A similar trend was observed for individual questions Q8 and Q9. At week 28, more patients on TIL 200 mg and TIL 100 mg reported no negative effect on personal relationships than those on ETN (85% and 77% vs. 66%; respectively). More patients on TIL 200 mg and TIL 100 mg reported no negative effect than those on ETN for Q8 (89% and 81% vs. 70%; respectively) and for Q9 (89% and 84% vs. 75%, respectively). Conclusions:  TIL	 had	 a	 beneficial	 effect	 on	 psoriasis-related	personal	relationship	problems	and	sexual	difficulties,	compared	to placebo and ETN.This abstract was presented at 2018 Annual Meeting of American Academy of Dermatology.</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="inlineStr">
+        <is>
+          <t>Stephen Tyring</t>
+        </is>
+      </c>
+      <c r="B165" s="2" t="inlineStr">
+        <is>
+          <t>SKiN Centre for Dermatology, Eli Lilly &amp; Company, Windsor Derma-tologytario, Canada, Harvard Medical School, Boston, MA, Oregon Medical Research Center, Portland, OR, USA, ScIderm Research Institute and Dermatologikum Hamburg, Hamburg, Germany, SKiN Centre for Derma-tology and Probity Medical Research, Peterborough, and Queen’s Univer-sity, Kingston, Ontario, Canada, Department of Dermatology, University of Texas, Houston, TX, USA, University of Melbourne, Melbourne, VIC, Australia, University of Lübeck, Lübeck, Germany, Sun Pharmaceutical Industries, Inc., Princeton, NJ, Merck &amp; Co., Inc., Kenilworth</t>
+        </is>
+      </c>
+      <c r="C165" s="2" t="inlineStr">
+        <is>
+          <t>NJ, USA</t>
+        </is>
+      </c>
+      <c r="D165" s="2" t="inlineStr">
+        <is>
+          <t>P132</t>
+        </is>
+      </c>
+      <c r="E165" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MIRIKIZUMAB SIGNIFICANTLY IMPROVES SELF­REPORTED DISEASE SEVERITY AND GENERAL HEALTH STATUS IN PATIENTS WITH MODERATE­TO­SEVERE PSORIASISEFFECT OF TILDRAKIZUMAB ON PERSONAL RELATIONSHIPS IN PATIENTS WITH MODERATE­TO­SEVERE CHRONIC PLAQUE PSORIASIS </t>
+        </is>
+      </c>
+      <c r="F165" s="2" t="inlineStr">
+        <is>
+          <t>Introduction: In a randomized, placebo-controlled, phase 2 trial (NCT02899988),	mirikizumab	met	its	primary	efficacy	endpoint	at Week 16.1Objective:To determine if mirikizumab improves patient-reported disease severity and general health status in psoriasis patients at Week 16.Methods:  Adults  with  moderate-to-severe  psoriasis  were  randomized 1:1:1:1 to receive placebo (n = 52), mirikizumab 30 mg (n = 51), 100 mg (n = 51), or 300 mg (n = 51) at Weeks 0 and 8. At baseline and Weeks 2, 4, 8, 12, and 16, patients completed the Patient Global Assessment of psoriasis (PtGA) (0 = clear, 5 = severe). At baseline and Week 16, patients completed the Medical Outcomes  Study  36-Item  Short  Form  Health  Survey  (SF-36; [range 0–100]) which measures 8 general health status domains that can be scored as mental component and physical component summaries.  For  continuous  measures,  comparisons  were  made by  a  mixed-effects  for  repeated  measures  model  (PtGA)  or  an analysis of covariance model (SF-36). Comparisons of categorical efficacy	variables	were	conducted	by	logistic	regression	analysis	with non-responder imputation (NRI).Results: At Week 16, mirikizumab-treated patients reported greater improvements in psoriasis severity and aspects of physical functioning versus placebo (Table).Conclusion: Mirikizumab	treatment	at	various	doses	significantly	improved psoriatic disease severity and physical health status.1. Reich K et al. Programme and abstracts of Psoriasis from Gene to Clinic; Nov. 30-Dec. 2, 2017; Abstract FC31.Table. Patient-Reported Outcomes (Week 16)Mirikizumab30 mgn = 48Placebon = 510.4 (0.16) 2.2 (0.16)*** 2.9 (0.16)*** 2.8 (0.16)***300 mgn = 51100 mgn = 518.2 (1.9)*PtGA, least squares mean(SE)Change from Baseline in SF-36 Domains, LSM (SE) Physical functioning Role-physical Bodily pain General health Vitality Social functioning Role-emotional Mental health≥2.5	point	improvement	in	SF-36	MCS, % (NRI)≥2.5	point	improvement	in	SF-36	PCS, % (NRI)MCS, mental component summary; PtGa, Patient Global Assessment; PCS, physical component summary; SE, standard error; SF-36, 36-Item Short Form Health Survey.*p &lt;  .05 vs placebo; **p &lt;  .01 vs placebo; ***p &lt;  .001 vs placebo. 7.2 (2.0)7.2 (2.0)11.4 (2.5)** 11.5 (2.5)**12.3 (2.5)**17.6 (2.9)** 19.2 (2.9)*** 18.9 (2.9)**3.2 (1.9)5.8 (2.0)6.9 (2.1)*4.7 (2.0)10.5 (2.4)** 13.4 (2.4)*** 8.2 (2.4)*6.1 (2.0)5.2 (2.1)6.6 (1.8)5.5 (1.8)45.137.32.8 (1.9)1.2 (2.4)5.7 (2.8)1.4 (1.9)1.0 (2.0)-0.2 (2.4)1.3 (2.0)1.7 (1.8)36.56.0 (2.0)3.2 (1.8)33.35.4 (1.9)6.2 (2.0)62.7*56.942.352.9P1331K Papp Clinical Research and Probity Medical Research, Waterloo, OnIntroduction:  The  negative  impact  of  psoriasis  extends  beyond the  patient,  affecting  his/her  social  interactions  and  the  quality of life of cohabitants. Furthermore, patients with psoriasis often experience	sexual	difficulties	because	of	their	disease.Objective:This  analysis  examined  the  effect  of  treatment  with tildrakizumab  (TIL)  on  personal  relationships  of  patients  with moderate-to-severe chronic plaque psoriasis.Methods:  Patients  in  two  phase  3  trials  reSURFACE  1 (NCT01722331)  and  reSURFACE  2  (NCT01729754)  were randomized  to  subcutaneous  TIL  200  mg,  100  mg,  or  placebo (PBO)  and  received  treatment  at  weeks  0  and  4.  PBO  patients were re-randomized at week 12 to either TIL 200 mg or 100 mg. Etanercept (ETN) 50 mg (semiweekly until week 12 then weekly until week 28) was also a treatment arm in reSURFACE 2. Data on personal relationships were collected at weeks 12 and 28 from the Dermatology Life Quality Index (DLQI) questionnaire question 8 (Q8) “Over the last week, how much has your skin created problems with your partner or any of your close friends or relatives” and question 9 (Q9) “Over the last week, how much has your skin caused	any	sexual	difficulties”.	Each	question	was	scored	on	a	scale of 0 (not affected at all) to 3 (very much affected). The data were pooled from reSURFACE 1 and 2.Results: In all, 1,820 patients had DLQI data. All patients reported a negative effect for Q8 and Q9 at baseline. At week 12, the proportion of patients with no negative effect (score of 0) on personal relationships (Q8 and Q9) was higher for TIL 200 mg, TIL 100 mg, and ETN than for PBO (76%, 72%, and 64% vs. 39%, respectively). A similar trend was observed for individual questions Q8 and Q9. At week 28, more patients on TIL 200 mg and TIL 100 mg reported no negative effect on personal relationships than those on ETN (85% and 77% vs. 66%; respectively). More patients on TIL 200 mg and TIL 100 mg reported no negative effect than those on ETN for Q8 (89% and 81% vs. 70%; respectively) and for Q9 (89% and 84% vs. 75%, respectively). Conclusions:  TIL	 had	 a	 beneficial	 effect	 on	 psoriasis-related	personal	relationship	problems	and	sexual	difficulties,	compared	to placebo and ETN.This abstract was presented at 2018 Annual Meeting of American Academy of Dermatology.</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="inlineStr">
+        <is>
+          <t>Rodney Sinclair</t>
+        </is>
+      </c>
+      <c r="B166" s="2" t="inlineStr">
+        <is>
+          <t>SKiN Centre for Dermatology, Eli Lilly &amp; Company, Windsor Derma-tologytario, Canada, Harvard Medical School, Boston, MA, Oregon Medical Research Center, Portland, OR, USA, ScIderm Research Institute and Dermatologikum Hamburg, Hamburg, Germany, SKiN Centre for Derma-tology and Probity Medical Research, Peterborough, and Queen’s Univer-sity, Kingston, Ontario, Canada, Department of Dermatology, University of Texas, Houston, TX, USA, University of Melbourne, Melbourne, VIC, Australia, University of Lübeck, Lübeck, Germany, Sun Pharmaceutical Industries, Inc., Princeton, NJ, Merck &amp; Co., Inc., Kenilworth</t>
+        </is>
+      </c>
+      <c r="C166" s="2" t="inlineStr">
+        <is>
+          <t>NJ, USA</t>
+        </is>
+      </c>
+      <c r="D166" s="2" t="inlineStr">
+        <is>
+          <t>P132</t>
+        </is>
+      </c>
+      <c r="E166" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MIRIKIZUMAB SIGNIFICANTLY IMPROVES SELF­REPORTED DISEASE SEVERITY AND GENERAL HEALTH STATUS IN PATIENTS WITH MODERATE­TO­SEVERE PSORIASISEFFECT OF TILDRAKIZUMAB ON PERSONAL RELATIONSHIPS IN PATIENTS WITH MODERATE­TO­SEVERE CHRONIC PLAQUE PSORIASIS </t>
+        </is>
+      </c>
+      <c r="F166" s="2" t="inlineStr">
+        <is>
+          <t>Introduction: In a randomized, placebo-controlled, phase 2 trial (NCT02899988),	mirikizumab	met	its	primary	efficacy	endpoint	at Week 16.1Objective:To determine if mirikizumab improves patient-reported disease severity and general health status in psoriasis patients at Week 16.Methods:  Adults  with  moderate-to-severe  psoriasis  were  randomized 1:1:1:1 to receive placebo (n = 52), mirikizumab 30 mg (n = 51), 100 mg (n = 51), or 300 mg (n = 51) at Weeks 0 and 8. At baseline and Weeks 2, 4, 8, 12, and 16, patients completed the Patient Global Assessment of psoriasis (PtGA) (0 = clear, 5 = severe). At baseline and Week 16, patients completed the Medical Outcomes  Study  36-Item  Short  Form  Health  Survey  (SF-36; [range 0–100]) which measures 8 general health status domains that can be scored as mental component and physical component summaries.  For  continuous  measures,  comparisons  were  made by  a  mixed-effects  for  repeated  measures  model  (PtGA)  or  an analysis of covariance model (SF-36). Comparisons of categorical efficacy	variables	were	conducted	by	logistic	regression	analysis	with non-responder imputation (NRI).Results: At Week 16, mirikizumab-treated patients reported greater improvements in psoriasis severity and aspects of physical functioning versus placebo (Table).Conclusion: Mirikizumab	treatment	at	various	doses	significantly	improved psoriatic disease severity and physical health status.1. Reich K et al. Programme and abstracts of Psoriasis from Gene to Clinic; Nov. 30-Dec. 2, 2017; Abstract FC31.Table. Patient-Reported Outcomes (Week 16)Mirikizumab30 mgn = 48Placebon = 510.4 (0.16) 2.2 (0.16)*** 2.9 (0.16)*** 2.8 (0.16)***300 mgn = 51100 mgn = 518.2 (1.9)*PtGA, least squares mean(SE)Change from Baseline in SF-36 Domains, LSM (SE) Physical functioning Role-physical Bodily pain General health Vitality Social functioning Role-emotional Mental health≥2.5	point	improvement	in	SF-36	MCS, % (NRI)≥2.5	point	improvement	in	SF-36	PCS, % (NRI)MCS, mental component summary; PtGa, Patient Global Assessment; PCS, physical component summary; SE, standard error; SF-36, 36-Item Short Form Health Survey.*p &lt;  .05 vs placebo; **p &lt;  .01 vs placebo; ***p &lt;  .001 vs placebo. 7.2 (2.0)7.2 (2.0)11.4 (2.5)** 11.5 (2.5)**12.3 (2.5)**17.6 (2.9)** 19.2 (2.9)*** 18.9 (2.9)**3.2 (1.9)5.8 (2.0)6.9 (2.1)*4.7 (2.0)10.5 (2.4)** 13.4 (2.4)*** 8.2 (2.4)*6.1 (2.0)5.2 (2.1)6.6 (1.8)5.5 (1.8)45.137.32.8 (1.9)1.2 (2.4)5.7 (2.8)1.4 (1.9)1.0 (2.0)-0.2 (2.4)1.3 (2.0)1.7 (1.8)36.56.0 (2.0)3.2 (1.8)33.35.4 (1.9)6.2 (2.0)62.7*56.942.352.9P1331K Papp Clinical Research and Probity Medical Research, Waterloo, OnIntroduction:  The  negative  impact  of  psoriasis  extends  beyond the  patient,  affecting  his/her  social  interactions  and  the  quality of life of cohabitants. Furthermore, patients with psoriasis often experience	sexual	difficulties	because	of	their	disease.Objective:This  analysis  examined  the  effect  of  treatment  with tildrakizumab  (TIL)  on  personal  relationships  of  patients  with moderate-to-severe chronic plaque psoriasis.Methods:  Patients  in  two  phase  3  trials  reSURFACE  1 (NCT01722331)  and  reSURFACE  2  (NCT01729754)  were randomized  to  subcutaneous  TIL  200  mg,  100  mg,  or  placebo (PBO)  and  received  treatment  at  weeks  0  and  4.  PBO  patients were re-randomized at week 12 to either TIL 200 mg or 100 mg. Etanercept (ETN) 50 mg (semiweekly until week 12 then weekly until week 28) was also a treatment arm in reSURFACE 2. Data on personal relationships were collected at weeks 12 and 28 from the Dermatology Life Quality Index (DLQI) questionnaire question 8 (Q8) “Over the last week, how much has your skin created problems with your partner or any of your close friends or relatives” and question 9 (Q9) “Over the last week, how much has your skin caused	any	sexual	difficulties”.	Each	question	was	scored	on	a	scale of 0 (not affected at all) to 3 (very much affected). The data were pooled from reSURFACE 1 and 2.Results: In all, 1,820 patients had DLQI data. All patients reported a negative effect for Q8 and Q9 at baseline. At week 12, the proportion of patients with no negative effect (score of 0) on personal relationships (Q8 and Q9) was higher for TIL 200 mg, TIL 100 mg, and ETN than for PBO (76%, 72%, and 64% vs. 39%, respectively). A similar trend was observed for individual questions Q8 and Q9. At week 28, more patients on TIL 200 mg and TIL 100 mg reported no negative effect on personal relationships than those on ETN (85% and 77% vs. 66%; respectively). More patients on TIL 200 mg and TIL 100 mg reported no negative effect than those on ETN for Q8 (89% and 81% vs. 70%; respectively) and for Q9 (89% and 84% vs. 75%, respectively). Conclusions:  TIL	 had	 a	 beneficial	 effect	 on	 psoriasis-related	personal	relationship	problems	and	sexual	difficulties,	compared	to placebo and ETN.This abstract was presented at 2018 Annual Meeting of American Academy of Dermatology.</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="inlineStr">
+        <is>
+          <t>Diamant Thaci</t>
+        </is>
+      </c>
+      <c r="B167" s="2" t="inlineStr">
+        <is>
+          <t>SKiN Centre for Dermatology, Eli Lilly &amp; Company, Windsor Derma-tologytario, Canada, Harvard Medical School, Boston, MA, Oregon Medical Research Center, Portland, OR, USA, ScIderm Research Institute and Dermatologikum Hamburg, Hamburg, Germany, SKiN Centre for Derma-tology and Probity Medical Research, Peterborough, and Queen’s Univer-sity, Kingston, Ontario, Canada, Department of Dermatology, University of Texas, Houston, TX, USA, University of Melbourne, Melbourne, VIC, Australia, University of Lübeck, Lübeck, Germany, Sun Pharmaceutical Industries, Inc., Princeton, NJ, Merck &amp; Co., Inc., Kenilworth</t>
+        </is>
+      </c>
+      <c r="C167" s="2" t="inlineStr">
+        <is>
+          <t>NJ, USA</t>
+        </is>
+      </c>
+      <c r="D167" s="2" t="inlineStr">
+        <is>
+          <t>P132</t>
+        </is>
+      </c>
+      <c r="E167" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MIRIKIZUMAB SIGNIFICANTLY IMPROVES SELF­REPORTED DISEASE SEVERITY AND GENERAL HEALTH STATUS IN PATIENTS WITH MODERATE­TO­SEVERE PSORIASISEFFECT OF TILDRAKIZUMAB ON PERSONAL RELATIONSHIPS IN PATIENTS WITH MODERATE­TO­SEVERE CHRONIC PLAQUE PSORIASIS </t>
+        </is>
+      </c>
+      <c r="F167" s="2" t="inlineStr">
+        <is>
+          <t>Introduction: In a randomized, placebo-controlled, phase 2 trial (NCT02899988),	mirikizumab	met	its	primary	efficacy	endpoint	at Week 16.1Objective:To determine if mirikizumab improves patient-reported disease severity and general health status in psoriasis patients at Week 16.Methods:  Adults  with  moderate-to-severe  psoriasis  were  randomized 1:1:1:1 to receive placebo (n = 52), mirikizumab 30 mg (n = 51), 100 mg (n = 51), or 300 mg (n = 51) at Weeks 0 and 8. At baseline and Weeks 2, 4, 8, 12, and 16, patients completed the Patient Global Assessment of psoriasis (PtGA) (0 = clear, 5 = severe). At baseline and Week 16, patients completed the Medical Outcomes  Study  36-Item  Short  Form  Health  Survey  (SF-36; [range 0–100]) which measures 8 general health status domains that can be scored as mental component and physical component summaries.  For  continuous  measures,  comparisons  were  made by  a  mixed-effects  for  repeated  measures  model  (PtGA)  or  an analysis of covariance model (SF-36). Comparisons of categorical efficacy	variables	were	conducted	by	logistic	regression	analysis	with non-responder imputation (NRI).Results: At Week 16, mirikizumab-treated patients reported greater improvements in psoriasis severity and aspects of physical functioning versus placebo (Table).Conclusion: Mirikizumab	treatment	at	various	doses	significantly	improved psoriatic disease severity and physical health status.1. Reich K et al. Programme and abstracts of Psoriasis from Gene to Clinic; Nov. 30-Dec. 2, 2017; Abstract FC31.Table. Patient-Reported Outcomes (Week 16)Mirikizumab30 mgn = 48Placebon = 510.4 (0.16) 2.2 (0.16)*** 2.9 (0.16)*** 2.8 (0.16)***300 mgn = 51100 mgn = 518.2 (1.9)*PtGA, least squares mean(SE)Change from Baseline in SF-36 Domains, LSM (SE) Physical functioning Role-physical Bodily pain General health Vitality Social functioning Role-emotional Mental health≥2.5	point	improvement	in	SF-36	MCS, % (NRI)≥2.5	point	improvement	in	SF-36	PCS, % (NRI)MCS, mental component summary; PtGa, Patient Global Assessment; PCS, physical component summary; SE, standard error; SF-36, 36-Item Short Form Health Survey.*p &lt;  .05 vs placebo; **p &lt;  .01 vs placebo; ***p &lt;  .001 vs placebo. 7.2 (2.0)7.2 (2.0)11.4 (2.5)** 11.5 (2.5)**12.3 (2.5)**17.6 (2.9)** 19.2 (2.9)*** 18.9 (2.9)**3.2 (1.9)5.8 (2.0)6.9 (2.1)*4.7 (2.0)10.5 (2.4)** 13.4 (2.4)*** 8.2 (2.4)*6.1 (2.0)5.2 (2.1)6.6 (1.8)5.5 (1.8)45.137.32.8 (1.9)1.2 (2.4)5.7 (2.8)1.4 (1.9)1.0 (2.0)-0.2 (2.4)1.3 (2.0)1.7 (1.8)36.56.0 (2.0)3.2 (1.8)33.35.4 (1.9)6.2 (2.0)62.7*56.942.352.9P1331K Papp Clinical Research and Probity Medical Research, Waterloo, OnIntroduction:  The  negative  impact  of  psoriasis  extends  beyond the  patient,  affecting  his/her  social  interactions  and  the  quality of life of cohabitants. Furthermore, patients with psoriasis often experience	sexual	difficulties	because	of	their	disease.Objective:This  analysis  examined  the  effect  of  treatment  with tildrakizumab  (TIL)  on  personal  relationships  of  patients  with moderate-to-severe chronic plaque psoriasis.Methods:  Patients  in  two  phase  3  trials  reSURFACE  1 (NCT01722331)  and  reSURFACE  2  (NCT01729754)  were randomized  to  subcutaneous  TIL  200  mg,  100  mg,  or  placebo (PBO)  and  received  treatment  at  weeks  0  and  4.  PBO  patients were re-randomized at week 12 to either TIL 200 mg or 100 mg. Etanercept (ETN) 50 mg (semiweekly until week 12 then weekly until week 28) was also a treatment arm in reSURFACE 2. Data on personal relationships were collected at weeks 12 and 28 from the Dermatology Life Quality Index (DLQI) questionnaire question 8 (Q8) “Over the last week, how much has your skin created problems with your partner or any of your close friends or relatives” and question 9 (Q9) “Over the last week, how much has your skin caused	any	sexual	difficulties”.	Each	question	was	scored	on	a	scale of 0 (not affected at all) to 3 (very much affected). The data were pooled from reSURFACE 1 and 2.Results: In all, 1,820 patients had DLQI data. All patients reported a negative effect for Q8 and Q9 at baseline. At week 12, the proportion of patients with no negative effect (score of 0) on personal relationships (Q8 and Q9) was higher for TIL 200 mg, TIL 100 mg, and ETN than for PBO (76%, 72%, and 64% vs. 39%, respectively). A similar trend was observed for individual questions Q8 and Q9. At week 28, more patients on TIL 200 mg and TIL 100 mg reported no negative effect on personal relationships than those on ETN (85% and 77% vs. 66%; respectively). More patients on TIL 200 mg and TIL 100 mg reported no negative effect than those on ETN for Q8 (89% and 81% vs. 70%; respectively) and for Q9 (89% and 84% vs. 75%, respectively). Conclusions:  TIL	 had	 a	 beneficial	 effect	 on	 psoriasis-related	personal	relationship	problems	and	sexual	difficulties,	compared	to placebo and ETN.This abstract was presented at 2018 Annual Meeting of American Academy of Dermatology.</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="inlineStr">
+        <is>
+          <t>Yang Zhao</t>
+        </is>
+      </c>
+      <c r="B168" s="2" t="inlineStr">
+        <is>
+          <t>SKiN Centre for Dermatology, Eli Lilly &amp; Company, Windsor Derma-tologytario, Canada, Harvard Medical School, Boston, MA, Oregon Medical Research Center, Portland, OR, USA, ScIderm Research Institute and Dermatologikum Hamburg, Hamburg, Germany, SKiN Centre for Derma-tology and Probity Medical Research, Peterborough, and Queen’s Univer-sity, Kingston, Ontario, Canada, Department of Dermatology, University of Texas, Houston, TX, USA, University of Melbourne, Melbourne, VIC, Australia, University of Lübeck, Lübeck, Germany, Sun Pharmaceutical Industries, Inc., Princeton, NJ, Merck &amp; Co., Inc., Kenilworth</t>
+        </is>
+      </c>
+      <c r="C168" s="2" t="inlineStr">
+        <is>
+          <t>NJ, USA</t>
+        </is>
+      </c>
+      <c r="D168" s="2" t="inlineStr">
+        <is>
+          <t>P132</t>
+        </is>
+      </c>
+      <c r="E168" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MIRIKIZUMAB SIGNIFICANTLY IMPROVES SELF­REPORTED DISEASE SEVERITY AND GENERAL HEALTH STATUS IN PATIENTS WITH MODERATE­TO­SEVERE PSORIASISEFFECT OF TILDRAKIZUMAB ON PERSONAL RELATIONSHIPS IN PATIENTS WITH MODERATE­TO­SEVERE CHRONIC PLAQUE PSORIASIS </t>
+        </is>
+      </c>
+      <c r="F168" s="2" t="inlineStr">
+        <is>
+          <t>Introduction: In a randomized, placebo-controlled, phase 2 trial (NCT02899988),	mirikizumab	met	its	primary	efficacy	endpoint	at Week 16.1Objective:To determine if mirikizumab improves patient-reported disease severity and general health status in psoriasis patients at Week 16.Methods:  Adults  with  moderate-to-severe  psoriasis  were  randomized 1:1:1:1 to receive placebo (n = 52), mirikizumab 30 mg (n = 51), 100 mg (n = 51), or 300 mg (n = 51) at Weeks 0 and 8. At baseline and Weeks 2, 4, 8, 12, and 16, patients completed the Patient Global Assessment of psoriasis (PtGA) (0 = clear, 5 = severe). At baseline and Week 16, patients completed the Medical Outcomes  Study  36-Item  Short  Form  Health  Survey  (SF-36; [range 0–100]) which measures 8 general health status domains that can be scored as mental component and physical component summaries.  For  continuous  measures,  comparisons  were  made by  a  mixed-effects  for  repeated  measures  model  (PtGA)  or  an analysis of covariance model (SF-36). Comparisons of categorical efficacy	variables	were	conducted	by	logistic	regression	analysis	with non-responder imputation (NRI).Results: At Week 16, mirikizumab-treated patients reported greater improvements in psoriasis severity and aspects of physical functioning versus placebo (Table).Conclusion: Mirikizumab	treatment	at	various	doses	significantly	improved psoriatic disease severity and physical health status.1. Reich K et al. Programme and abstracts of Psoriasis from Gene to Clinic; Nov. 30-Dec. 2, 2017; Abstract FC31.Table. Patient-Reported Outcomes (Week 16)Mirikizumab30 mgn = 48Placebon = 510.4 (0.16) 2.2 (0.16)*** 2.9 (0.16)*** 2.8 (0.16)***300 mgn = 51100 mgn = 518.2 (1.9)*PtGA, least squares mean(SE)Change from Baseline in SF-36 Domains, LSM (SE) Physical functioning Role-physical Bodily pain General health Vitality Social functioning Role-emotional Mental health≥2.5	point	improvement	in	SF-36	MCS, % (NRI)≥2.5	point	improvement	in	SF-36	PCS, % (NRI)MCS, mental component summary; PtGa, Patient Global Assessment; PCS, physical component summary; SE, standard error; SF-36, 36-Item Short Form Health Survey.*p &lt;  .05 vs placebo; **p &lt;  .01 vs placebo; ***p &lt;  .001 vs placebo. 7.2 (2.0)7.2 (2.0)11.4 (2.5)** 11.5 (2.5)**12.3 (2.5)**17.6 (2.9)** 19.2 (2.9)*** 18.9 (2.9)**3.2 (1.9)5.8 (2.0)6.9 (2.1)*4.7 (2.0)10.5 (2.4)** 13.4 (2.4)*** 8.2 (2.4)*6.1 (2.0)5.2 (2.1)6.6 (1.8)5.5 (1.8)45.137.32.8 (1.9)1.2 (2.4)5.7 (2.8)1.4 (1.9)1.0 (2.0)-0.2 (2.4)1.3 (2.0)1.7 (1.8)36.56.0 (2.0)3.2 (1.8)33.35.4 (1.9)6.2 (2.0)62.7*56.942.352.9P1331K Papp Clinical Research and Probity Medical Research, Waterloo, OnIntroduction:  The  negative  impact  of  psoriasis  extends  beyond the  patient,  affecting  his/her  social  interactions  and  the  quality of life of cohabitants. Furthermore, patients with psoriasis often experience	sexual	difficulties	because	of	their	disease.Objective:This  analysis  examined  the  effect  of  treatment  with tildrakizumab  (TIL)  on  personal  relationships  of  patients  with moderate-to-severe chronic plaque psoriasis.Methods:  Patients  in  two  phase  3  trials  reSURFACE  1 (NCT01722331)  and  reSURFACE  2  (NCT01729754)  were randomized  to  subcutaneous  TIL  200  mg,  100  mg,  or  placebo (PBO)  and  received  treatment  at  weeks  0  and  4.  PBO  patients were re-randomized at week 12 to either TIL 200 mg or 100 mg. Etanercept (ETN) 50 mg (semiweekly until week 12 then weekly until week 28) was also a treatment arm in reSURFACE 2. Data on personal relationships were collected at weeks 12 and 28 from the Dermatology Life Quality Index (DLQI) questionnaire question 8 (Q8) “Over the last week, how much has your skin created problems with your partner or any of your close friends or relatives” and question 9 (Q9) “Over the last week, how much has your skin caused	any	sexual	difficulties”.	Each	question	was	scored	on	a	scale of 0 (not affected at all) to 3 (very much affected). The data were pooled from reSURFACE 1 and 2.Results: In all, 1,820 patients had DLQI data. All patients reported a negative effect for Q8 and Q9 at baseline. At week 12, the proportion of patients with no negative effect (score of 0) on personal relationships (Q8 and Q9) was higher for TIL 200 mg, TIL 100 mg, and ETN than for PBO (76%, 72%, and 64% vs. 39%, respectively). A similar trend was observed for individual questions Q8 and Q9. At week 28, more patients on TIL 200 mg and TIL 100 mg reported no negative effect on personal relationships than those on ETN (85% and 77% vs. 66%; respectively). More patients on TIL 200 mg and TIL 100 mg reported no negative effect than those on ETN for Q8 (89% and 81% vs. 70%; respectively) and for Q9 (89% and 84% vs. 75%, respectively). Conclusions:  TIL	 had	 a	 beneficial	 effect	 on	 psoriasis-related	personal	relationship	problems	and	sexual	difficulties,	compared	to placebo and ETN.This abstract was presented at 2018 Annual Meeting of American Academy of Dermatology.</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="inlineStr">
+        <is>
+          <t>Nicole Cichanowitz</t>
+        </is>
+      </c>
+      <c r="B169" s="2" t="inlineStr">
+        <is>
+          <t>SKiN Centre for Dermatology, Eli Lilly &amp; Company, Windsor Derma-tologytario, Canada, Harvard Medical School, Boston, MA, Oregon Medical Research Center, Portland, OR, USA, ScIderm Research Institute and Dermatologikum Hamburg, Hamburg, Germany, SKiN Centre for Derma-tology and Probity Medical Research, Peterborough, and Queen’s Univer-sity, Kingston, Ontario, Canada, Department of Dermatology, University of Texas, Houston, TX, USA, University of Melbourne, Melbourne, VIC, Australia, University of Lübeck, Lübeck, Germany, Sun Pharmaceutical Industries, Inc., Princeton, NJ, Merck &amp; Co., Inc., Kenilworth</t>
+        </is>
+      </c>
+      <c r="C169" s="2" t="inlineStr">
+        <is>
+          <t>NJ, USA</t>
+        </is>
+      </c>
+      <c r="D169" s="2" t="inlineStr">
+        <is>
+          <t>P132</t>
+        </is>
+      </c>
+      <c r="E169" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MIRIKIZUMAB SIGNIFICANTLY IMPROVES SELF­REPORTED DISEASE SEVERITY AND GENERAL HEALTH STATUS IN PATIENTS WITH MODERATE­TO­SEVERE PSORIASISEFFECT OF TILDRAKIZUMAB ON PERSONAL RELATIONSHIPS IN PATIENTS WITH MODERATE­TO­SEVERE CHRONIC PLAQUE PSORIASIS </t>
+        </is>
+      </c>
+      <c r="F169" s="2" t="inlineStr">
+        <is>
+          <t>Introduction: In a randomized, placebo-controlled, phase 2 trial (NCT02899988),	mirikizumab	met	its	primary	efficacy	endpoint	at Week 16.1Objective:To determine if mirikizumab improves patient-reported disease severity and general health status in psoriasis patients at Week 16.Methods:  Adults  with  moderate-to-severe  psoriasis  were  randomized 1:1:1:1 to receive placebo (n = 52), mirikizumab 30 mg (n = 51), 100 mg (n = 51), or 300 mg (n = 51) at Weeks 0 and 8. At baseline and Weeks 2, 4, 8, 12, and 16, patients completed the Patient Global Assessment of psoriasis (PtGA) (0 = clear, 5 = severe). At baseline and Week 16, patients completed the Medical Outcomes  Study  36-Item  Short  Form  Health  Survey  (SF-36; [range 0–100]) which measures 8 general health status domains that can be scored as mental component and physical component summaries.  For  continuous  measures,  comparisons  were  made by  a  mixed-effects  for  repeated  measures  model  (PtGA)  or  an analysis of covariance model (SF-36). Comparisons of categorical efficacy	variables	were	conducted	by	logistic	regression	analysis	with non-responder imputation (NRI).Results: At Week 16, mirikizumab-treated patients reported greater improvements in psoriasis severity and aspects of physical functioning versus placebo (Table).Conclusion: Mirikizumab	treatment	at	various	doses	significantly	improved psoriatic disease severity and physical health status.1. Reich K et al. Programme and abstracts of Psoriasis from Gene to Clinic; Nov. 30-Dec. 2, 2017; Abstract FC31.Table. Patient-Reported Outcomes (Week 16)Mirikizumab30 mgn = 48Placebon = 510.4 (0.16) 2.2 (0.16)*** 2.9 (0.16)*** 2.8 (0.16)***300 mgn = 51100 mgn = 518.2 (1.9)*PtGA, least squares mean(SE)Change from Baseline in SF-36 Domains, LSM (SE) Physical functioning Role-physical Bodily pain General health Vitality Social functioning Role-emotional Mental health≥2.5	point	improvement	in	SF-36	MCS, % (NRI)≥2.5	point	improvement	in	SF-36	PCS, % (NRI)MCS, mental component summary; PtGa, Patient Global Assessment; PCS, physical component summary; SE, standard error; SF-36, 36-Item Short Form Health Survey.*p &lt;  .05 vs placebo; **p &lt;  .01 vs placebo; ***p &lt;  .001 vs placebo. 7.2 (2.0)7.2 (2.0)11.4 (2.5)** 11.5 (2.5)**12.3 (2.5)**17.6 (2.9)** 19.2 (2.9)*** 18.9 (2.9)**3.2 (1.9)5.8 (2.0)6.9 (2.1)*4.7 (2.0)10.5 (2.4)** 13.4 (2.4)*** 8.2 (2.4)*6.1 (2.0)5.2 (2.1)6.6 (1.8)5.5 (1.8)45.137.32.8 (1.9)1.2 (2.4)5.7 (2.8)1.4 (1.9)1.0 (2.0)-0.2 (2.4)1.3 (2.0)1.7 (1.8)36.56.0 (2.0)3.2 (1.8)33.35.4 (1.9)6.2 (2.0)62.7*56.942.352.9P1331K Papp Clinical Research and Probity Medical Research, Waterloo, OnIntroduction:  The  negative  impact  of  psoriasis  extends  beyond the  patient,  affecting  his/her  social  interactions  and  the  quality of life of cohabitants. Furthermore, patients with psoriasis often experience	sexual	difficulties	because	of	their	disease.Objective:This  analysis  examined  the  effect  of  treatment  with tildrakizumab  (TIL)  on  personal  relationships  of  patients  with moderate-to-severe chronic plaque psoriasis.Methods:  Patients  in  two  phase  3  trials  reSURFACE  1 (NCT01722331)  and  reSURFACE  2  (NCT01729754)  were randomized  to  subcutaneous  TIL  200  mg,  100  mg,  or  placebo (PBO)  and  received  treatment  at  weeks  0  and  4.  PBO  patients were re-randomized at week 12 to either TIL 200 mg or 100 mg. Etanercept (ETN) 50 mg (semiweekly until week 12 then weekly until week 28) was also a treatment arm in reSURFACE 2. Data on personal relationships were collected at weeks 12 and 28 from the Dermatology Life Quality Index (DLQI) questionnaire question 8 (Q8) “Over the last week, how much has your skin created problems with your partner or any of your close friends or relatives” and question 9 (Q9) “Over the last week, how much has your skin caused	any	sexual	difficulties”.	Each	question	was	scored	on	a	scale of 0 (not affected at all) to 3 (very much affected). The data were pooled from reSURFACE 1 and 2.Results: In all, 1,820 patients had DLQI data. All patients reported a negative effect for Q8 and Q9 at baseline. At week 12, the proportion of patients with no negative effect (score of 0) on personal relationships (Q8 and Q9) was higher for TIL 200 mg, TIL 100 mg, and ETN than for PBO (76%, 72%, and 64% vs. 39%, respectively). A similar trend was observed for individual questions Q8 and Q9. At week 28, more patients on TIL 200 mg and TIL 100 mg reported no negative effect on personal relationships than those on ETN (85% and 77% vs. 66%; respectively). More patients on TIL 200 mg and TIL 100 mg reported no negative effect than those on ETN for Q8 (89% and 81% vs. 70%; respectively) and for Q9 (89% and 84% vs. 75%, respectively). Conclusions:  TIL	 had	 a	 beneficial	 effect	 on	 psoriasis-related	personal	relationship	problems	and	sexual	difficulties,	compared	to placebo and ETN.This abstract was presented at 2018 Annual Meeting of American Academy of Dermatology.</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="inlineStr">
+        <is>
+          <t>Qing Li</t>
+        </is>
+      </c>
+      <c r="B170" s="2" t="inlineStr">
+        <is>
+          <t>SKiN Centre for Dermatology, Eli Lilly &amp; Company, Windsor Derma-tologytario, Canada, Harvard Medical School, Boston, MA, Oregon Medical Research Center, Portland, OR, USA, ScIderm Research Institute and Dermatologikum Hamburg, Hamburg, Germany, SKiN Centre for Derma-tology and Probity Medical Research, Peterborough, and Queen’s Univer-sity, Kingston, Ontario, Canada, Department of Dermatology, University of Texas, Houston, TX, USA, University of Melbourne, Melbourne, VIC, Australia, University of Lübeck, Lübeck, Germany, Sun Pharmaceutical Industries, Inc., Princeton, NJ, Merck &amp; Co., Inc., Kenilworth</t>
+        </is>
+      </c>
+      <c r="C170" s="2" t="inlineStr">
+        <is>
+          <t>NJ, USA</t>
+        </is>
+      </c>
+      <c r="D170" s="2" t="inlineStr">
+        <is>
+          <t>P132</t>
+        </is>
+      </c>
+      <c r="E170" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MIRIKIZUMAB SIGNIFICANTLY IMPROVES SELF­REPORTED DISEASE SEVERITY AND GENERAL HEALTH STATUS IN PATIENTS WITH MODERATE­TO­SEVERE PSORIASISEFFECT OF TILDRAKIZUMAB ON PERSONAL RELATIONSHIPS IN PATIENTS WITH MODERATE­TO­SEVERE CHRONIC PLAQUE PSORIASIS </t>
+        </is>
+      </c>
+      <c r="F170" s="2" t="inlineStr">
+        <is>
+          <t>Introduction: In a randomized, placebo-controlled, phase 2 trial (NCT02899988),	mirikizumab	met	its	primary	efficacy	endpoint	at Week 16.1Objective:To determine if mirikizumab improves patient-reported disease severity and general health status in psoriasis patients at Week 16.Methods:  Adults  with  moderate-to-severe  psoriasis  were  randomized 1:1:1:1 to receive placebo (n = 52), mirikizumab 30 mg (n = 51), 100 mg (n = 51), or 300 mg (n = 51) at Weeks 0 and 8. At baseline and Weeks 2, 4, 8, 12, and 16, patients completed the Patient Global Assessment of psoriasis (PtGA) (0 = clear, 5 = severe). At baseline and Week 16, patients completed the Medical Outcomes  Study  36-Item  Short  Form  Health  Survey  (SF-36; [range 0–100]) which measures 8 general health status domains that can be scored as mental component and physical component summaries.  For  continuous  measures,  comparisons  were  made by  a  mixed-effects  for  repeated  measures  model  (PtGA)  or  an analysis of covariance model (SF-36). Comparisons of categorical efficacy	variables	were	conducted	by	logistic	regression	analysis	with non-responder imputation (NRI).Results: At Week 16, mirikizumab-treated patients reported greater improvements in psoriasis severity and aspects of physical functioning versus placebo (Table).Conclusion: Mirikizumab	treatment	at	various	doses	significantly	improved psoriatic disease severity and physical health status.1. Reich K et al. Programme and abstracts of Psoriasis from Gene to Clinic; Nov. 30-Dec. 2, 2017; Abstract FC31.Table. Patient-Reported Outcomes (Week 16)Mirikizumab30 mgn = 48Placebon = 510.4 (0.16) 2.2 (0.16)*** 2.9 (0.16)*** 2.8 (0.16)***300 mgn = 51100 mgn = 518.2 (1.9)*PtGA, least squares mean(SE)Change from Baseline in SF-36 Domains, LSM (SE) Physical functioning Role-physical Bodily pain General health Vitality Social functioning Role-emotional Mental health≥2.5	point	improvement	in	SF-36	MCS, % (NRI)≥2.5	point	improvement	in	SF-36	PCS, % (NRI)MCS, mental component summary; PtGa, Patient Global Assessment; PCS, physical component summary; SE, standard error; SF-36, 36-Item Short Form Health Survey.*p &lt;  .05 vs placebo; **p &lt;  .01 vs placebo; ***p &lt;  .001 vs placebo. 7.2 (2.0)7.2 (2.0)11.4 (2.5)** 11.5 (2.5)**12.3 (2.5)**17.6 (2.9)** 19.2 (2.9)*** 18.9 (2.9)**3.2 (1.9)5.8 (2.0)6.9 (2.1)*4.7 (2.0)10.5 (2.4)** 13.4 (2.4)*** 8.2 (2.4)*6.1 (2.0)5.2 (2.1)6.6 (1.8)5.5 (1.8)45.137.32.8 (1.9)1.2 (2.4)5.7 (2.8)1.4 (1.9)1.0 (2.0)-0.2 (2.4)1.3 (2.0)1.7 (1.8)36.56.0 (2.0)3.2 (1.8)33.35.4 (1.9)6.2 (2.0)62.7*56.942.352.9P1331K Papp Clinical Research and Probity Medical Research, Waterloo, OnIntroduction:  The  negative  impact  of  psoriasis  extends  beyond the  patient,  affecting  his/her  social  interactions  and  the  quality of life of cohabitants. Furthermore, patients with psoriasis often experience	sexual	difficulties	because	of	their	disease.Objective:This  analysis  examined  the  effect  of  treatment  with tildrakizumab  (TIL)  on  personal  relationships  of  patients  with moderate-to-severe chronic plaque psoriasis.Methods:  Patients  in  two  phase  3  trials  reSURFACE  1 (NCT01722331)  and  reSURFACE  2  (NCT01729754)  were randomized  to  subcutaneous  TIL  200  mg,  100  mg,  or  placebo (PBO)  and  received  treatment  at  weeks  0  and  4.  PBO  patients were re-randomized at week 12 to either TIL 200 mg or 100 mg. Etanercept (ETN) 50 mg (semiweekly until week 12 then weekly until week 28) was also a treatment arm in reSURFACE 2. Data on personal relationships were collected at weeks 12 and 28 from the Dermatology Life Quality Index (DLQI) questionnaire question 8 (Q8) “Over the last week, how much has your skin created problems with your partner or any of your close friends or relatives” and question 9 (Q9) “Over the last week, how much has your skin caused	any	sexual	difficulties”.	Each	question	was	scored	on	a	scale of 0 (not affected at all) to 3 (very much affected). The data were pooled from reSURFACE 1 and 2.Results: In all, 1,820 patients had DLQI data. All patients reported a negative effect for Q8 and Q9 at baseline. At week 12, the proportion of patients with no negative effect (score of 0) on personal relationships (Q8 and Q9) was higher for TIL 200 mg, TIL 100 mg, and ETN than for PBO (76%, 72%, and 64% vs. 39%, respectively). A similar trend was observed for individual questions Q8 and Q9. At week 28, more patients on TIL 200 mg and TIL 100 mg reported no negative effect on personal relationships than those on ETN (85% and 77% vs. 66%; respectively). More patients on TIL 200 mg and TIL 100 mg reported no negative effect than those on ETN for Q8 (89% and 81% vs. 70%; respectively) and for Q9 (89% and 84% vs. 75%, respectively). Conclusions:  TIL	 had	 a	 beneficial	 effect	 on	 psoriasis-related	personal	relationship	problems	and	sexual	difficulties,	compared	to placebo and ETN.This abstract was presented at 2018 Annual Meeting of American Academy of Dermatology.</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="inlineStr">
+        <is>
+          <t>Carmen La Rosa</t>
+        </is>
+      </c>
+      <c r="B171" s="2" t="inlineStr">
+        <is>
+          <t>SKiN Centre for Dermatology, Eli Lilly &amp; Company, Windsor Derma-tologytario, Canada, Harvard Medical School, Boston, MA, Oregon Medical Research Center, Portland, OR, USA, ScIderm Research Institute and Dermatologikum Hamburg, Hamburg, Germany, SKiN Centre for Derma-tology and Probity Medical Research, Peterborough, and Queen’s Univer-sity, Kingston, Ontario, Canada, Department of Dermatology, University of Texas, Houston, TX, USA, University of Melbourne, Melbourne, VIC, Australia, University of Lübeck, Lübeck, Germany, Sun Pharmaceutical Industries, Inc., Princeton, NJ, Merck &amp; Co., Inc., Kenilworth</t>
+        </is>
+      </c>
+      <c r="C171" s="2" t="inlineStr">
+        <is>
+          <t>NJ, USA</t>
+        </is>
+      </c>
+      <c r="D171" s="2" t="inlineStr">
+        <is>
+          <t>P132</t>
+        </is>
+      </c>
+      <c r="E171" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MIRIKIZUMAB SIGNIFICANTLY IMPROVES SELF­REPORTED DISEASE SEVERITY AND GENERAL HEALTH STATUS IN PATIENTS WITH MODERATE­TO­SEVERE PSORIASISEFFECT OF TILDRAKIZUMAB ON PERSONAL RELATIONSHIPS IN PATIENTS WITH MODERATE­TO­SEVERE CHRONIC PLAQUE PSORIASIS </t>
+        </is>
+      </c>
+      <c r="F171" s="2" t="inlineStr">
+        <is>
+          <t>Introduction: In a randomized, placebo-controlled, phase 2 trial (NCT02899988),	mirikizumab	met	its	primary	efficacy	endpoint	at Week 16.1Objective:To determine if mirikizumab improves patient-reported disease severity and general health status in psoriasis patients at Week 16.Methods:  Adults  with  moderate-to-severe  psoriasis  were  randomized 1:1:1:1 to receive placebo (n = 52), mirikizumab 30 mg (n = 51), 100 mg (n = 51), or 300 mg (n = 51) at Weeks 0 and 8. At baseline and Weeks 2, 4, 8, 12, and 16, patients completed the Patient Global Assessment of psoriasis (PtGA) (0 = clear, 5 = severe). At baseline and Week 16, patients completed the Medical Outcomes  Study  36-Item  Short  Form  Health  Survey  (SF-36; [range 0–100]) which measures 8 general health status domains that can be scored as mental component and physical component summaries.  For  continuous  measures,  comparisons  were  made by  a  mixed-effects  for  repeated  measures  model  (PtGA)  or  an analysis of covariance model (SF-36). Comparisons of categorical efficacy	variables	were	conducted	by	logistic	regression	analysis	with non-responder imputation (NRI).Results: At Week 16, mirikizumab-treated patients reported greater improvements in psoriasis severity and aspects of physical functioning versus placebo (Table).Conclusion: Mirikizumab	treatment	at	various	doses	significantly	improved psoriatic disease severity and physical health status.1. Reich K et al. Programme and abstracts of Psoriasis from Gene to Clinic; Nov. 30-Dec. 2, 2017; Abstract FC31.Table. Patient-Reported Outcomes (Week 16)Mirikizumab30 mgn = 48Placebon = 510.4 (0.16) 2.2 (0.16)*** 2.9 (0.16)*** 2.8 (0.16)***300 mgn = 51100 mgn = 518.2 (1.9)*PtGA, least squares mean(SE)Change from Baseline in SF-36 Domains, LSM (SE) Physical functioning Role-physical Bodily pain General health Vitality Social functioning Role-emotional Mental health≥2.5	point	improvement	in	SF-36	MCS, % (NRI)≥2.5	point	improvement	in	SF-36	PCS, % (NRI)MCS, mental component summary; PtGa, Patient Global Assessment; PCS, physical component summary; SE, standard error; SF-36, 36-Item Short Form Health Survey.*p &lt;  .05 vs placebo; **p &lt;  .01 vs placebo; ***p &lt;  .001 vs placebo. 7.2 (2.0)7.2 (2.0)11.4 (2.5)** 11.5 (2.5)**12.3 (2.5)**17.6 (2.9)** 19.2 (2.9)*** 18.9 (2.9)**3.2 (1.9)5.8 (2.0)6.9 (2.1)*4.7 (2.0)10.5 (2.4)** 13.4 (2.4)*** 8.2 (2.4)*6.1 (2.0)5.2 (2.1)6.6 (1.8)5.5 (1.8)45.137.32.8 (1.9)1.2 (2.4)5.7 (2.8)1.4 (1.9)1.0 (2.0)-0.2 (2.4)1.3 (2.0)1.7 (1.8)36.56.0 (2.0)3.2 (1.8)33.35.4 (1.9)6.2 (2.0)62.7*56.942.352.9P1331K Papp Clinical Research and Probity Medical Research, Waterloo, OnIntroduction:  The  negative  impact  of  psoriasis  extends  beyond the  patient,  affecting  his/her  social  interactions  and  the  quality of life of cohabitants. Furthermore, patients with psoriasis often experience	sexual	difficulties	because	of	their	disease.Objective:This  analysis  examined  the  effect  of  treatment  with tildrakizumab  (TIL)  on  personal  relationships  of  patients  with moderate-to-severe chronic plaque psoriasis.Methods:  Patients  in  two  phase  3  trials  reSURFACE  1 (NCT01722331)  and  reSURFACE  2  (NCT01729754)  were randomized  to  subcutaneous  TIL  200  mg,  100  mg,  or  placebo (PBO)  and  received  treatment  at  weeks  0  and  4.  PBO  patients were re-randomized at week 12 to either TIL 200 mg or 100 mg. Etanercept (ETN) 50 mg (semiweekly until week 12 then weekly until week 28) was also a treatment arm in reSURFACE 2. Data on personal relationships were collected at weeks 12 and 28 from the Dermatology Life Quality Index (DLQI) questionnaire question 8 (Q8) “Over the last week, how much has your skin created problems with your partner or any of your close friends or relatives” and question 9 (Q9) “Over the last week, how much has your skin caused	any	sexual	difficulties”.	Each	question	was	scored	on	a	scale of 0 (not affected at all) to 3 (very much affected). The data were pooled from reSURFACE 1 and 2.Results: In all, 1,820 patients had DLQI data. All patients reported a negative effect for Q8 and Q9 at baseline. At week 12, the proportion of patients with no negative effect (score of 0) on personal relationships (Q8 and Q9) was higher for TIL 200 mg, TIL 100 mg, and ETN than for PBO (76%, 72%, and 64% vs. 39%, respectively). A similar trend was observed for individual questions Q8 and Q9. At week 28, more patients on TIL 200 mg and TIL 100 mg reported no negative effect on personal relationships than those on ETN (85% and 77% vs. 66%; respectively). More patients on TIL 200 mg and TIL 100 mg reported no negative effect than those on ETN for Q8 (89% and 81% vs. 70%; respectively) and for Q9 (89% and 84% vs. 75%, respectively). Conclusions:  TIL	 had	 a	 beneficial	 effect	 on	 psoriasis-related	personal	relationship	problems	and	sexual	difficulties,	compared	to placebo and ETN.This abstract was presented at 2018 Annual Meeting of American Academy of Dermatology.</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="inlineStr">
+        <is>
+          <t>Sonja Ständer</t>
+        </is>
+      </c>
+      <c r="B172" s="2" t="inlineStr">
+        <is>
+          <t>Department of Dermatology and Competence Center Chronic Pruritus and Department of Dermatology, University hospital Münster, Münster, Institute for Health Services Research in Dermatology and Nursing, Ham-burg, and Novartis Pharma</t>
+        </is>
+      </c>
+      <c r="C172" s="2" t="inlineStr">
+        <is>
+          <t>Nuernberg, Germany</t>
+        </is>
+      </c>
+      <c r="D172" s="2" t="inlineStr">
+        <is>
+          <t>P134</t>
+        </is>
+      </c>
+      <c r="E172" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PRURITUS SEVERITY ASSESSMENT AND CORRELATION WITH BASELINE CHARACTERISTICS OF PATIENTS WITH PSORIASIS VULGARIS: AN EXPLORATORY ANALYSIS OF THE PHASE IIIB, </t>
+        </is>
+      </c>
+      <c r="F172" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PSORITUS STUDYIntroduction: Chronic pruritus lasts for at least 6 weeks and is a most common symptom in patients with psoriasis. Pruritus is a highly prevalent and troublesome symptom and has a negative impact  upon  patients’  health-related  quality  of  life  (QoL).  The ItchyQoL	is	a	pruritus-specific	QoL	questionnaire	that	can	be	applied to patients with pruritus independent of the underlying disease.Objective:To assess the impact of pruritus on QoL in patients with psoriasis by an exploratory analysis of baseline characteristics of subjects from the PSORITUS study.Methods: PSORITUS was an exploratory, randomized, doubleblind, placebo-controlled 16-week drug withdrawal study with a 16-week open-label run-in phase, to assess the kinetics of psoriasis symptoms, pruritus intensity, and lesional biomarkers. Subjects ≥18	years	of	age	with	chronic	moderate-to-severe	psoriasis	at	least	6  months  prior  to  baseline,  with  a  Psoriasis Area  and  Severity Index (PASI) score  &gt; 10	at	baseline,	and	pruritus	intensity	≥30	on	a 100-point Visual Analogue Scale (VAS, the worst itching within a recall period of 24 hours), were included. In an exploratory baseline	analysis,	correlation	coefficients	were	calculated	between	ItchyQoL  outputs  and  individual  baseline  characteristics  based on Spearman‘s (r) and Kendall rank correlations (t). A multiple linear  regression  model  was  performed  to  assess  the  effect  of exploratory  variables  correlating  with  the  ItchyQoL  score  and achieving	statistical	significance	(p-value  &lt; 0.05).Results:  The  study  included  130  subjects  with  psoriasis.  The subjects had a mean age of 46.8 years (standard deviation [SD], 12.30) and majority (71.5%) were in the age group of 35–64 years. The	mean	(SD)	time	since	first	diagnosis	of	psoriasis	and	psoriatic	arthritis (PsA) was 19.5 (13.81) and 17.2 (18.30) years, respectively; 13.8% of subjects had PsA. The mean (SD) baseline PASI, patient benefit	index	(PBI),	and	ItchyQoL	score	was	23.9	(10.85),	84.2	(24.17), and 78.7 (17.42) respectively, indicating severe disease activity and pruritus. The baseline ItchyQoL score showed moderate correlation with baseline VAS scores for average and worst pruritus (r: 0.542 [95% CI: 0.41, 0.65] and 0.547 [95% CI: 0.41, 0.66]; t: 0.381 [95% CI: 0.22, 0.52] and 0.383, 95% CI: 0.23, 0.52]) and a strong correlation with baseline dermatology life quality index (DLQI) scores (r: 0.803 [95% CI: 0.73, 0.86]; t: 0.622 [95% CI: 0.50,  0.72].  Furthermore  the  multiple  linear  regression  analysis showed  substantial  dependency  of  QoL  measured  by  ItchyQoL for  VAS  (average  pruritus  last  24  h),  duration  of  psoriasis  and health-related	patient	needs	as	measured	by	patient	benefit	index.Conclusions:  ItchyQoL  assessment  demonstrated  that  subjects with psoriasis are highly burdened by pruritus and show severely impaired quality of life. The correlation between pruritus intensity, ItchyQoL- and DLQI questionnaire results suggests the need for routine assessment of pruritus in clinical practice. </t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="inlineStr">
+        <is>
+          <t>Sabine Steinke</t>
+        </is>
+      </c>
+      <c r="B173" s="2" t="inlineStr">
+        <is>
+          <t>Department of Dermatology and Competence Center Chronic Pruritus and Department of Dermatology, University hospital Münster, Münster, Institute for Health Services Research in Dermatology and Nursing, Ham-burg, and Novartis Pharma</t>
+        </is>
+      </c>
+      <c r="C173" s="2" t="inlineStr">
+        <is>
+          <t>Nuernberg, Germany</t>
+        </is>
+      </c>
+      <c r="D173" s="2" t="inlineStr">
+        <is>
+          <t>P134</t>
+        </is>
+      </c>
+      <c r="E173" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PRURITUS SEVERITY ASSESSMENT AND CORRELATION WITH BASELINE CHARACTERISTICS OF PATIENTS WITH PSORIASIS VULGARIS: AN EXPLORATORY ANALYSIS OF THE PHASE IIIB, </t>
+        </is>
+      </c>
+      <c r="F173" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PSORITUS STUDYIntroduction: Chronic pruritus lasts for at least 6 weeks and is a most common symptom in patients with psoriasis. Pruritus is a highly prevalent and troublesome symptom and has a negative impact  upon  patients’  health-related  quality  of  life  (QoL).  The ItchyQoL	is	a	pruritus-specific	QoL	questionnaire	that	can	be	applied to patients with pruritus independent of the underlying disease.Objective:To assess the impact of pruritus on QoL in patients with psoriasis by an exploratory analysis of baseline characteristics of subjects from the PSORITUS study.Methods: PSORITUS was an exploratory, randomized, doubleblind, placebo-controlled 16-week drug withdrawal study with a 16-week open-label run-in phase, to assess the kinetics of psoriasis symptoms, pruritus intensity, and lesional biomarkers. Subjects ≥18	years	of	age	with	chronic	moderate-to-severe	psoriasis	at	least	6  months  prior  to  baseline,  with  a  Psoriasis Area  and  Severity Index (PASI) score  &gt; 10	at	baseline,	and	pruritus	intensity	≥30	on	a 100-point Visual Analogue Scale (VAS, the worst itching within a recall period of 24 hours), were included. In an exploratory baseline	analysis,	correlation	coefficients	were	calculated	between	ItchyQoL  outputs  and  individual  baseline  characteristics  based on Spearman‘s (r) and Kendall rank correlations (t). A multiple linear  regression  model  was  performed  to  assess  the  effect  of exploratory  variables  correlating  with  the  ItchyQoL  score  and achieving	statistical	significance	(p-value  &lt; 0.05).Results:  The  study  included  130  subjects  with  psoriasis.  The subjects had a mean age of 46.8 years (standard deviation [SD], 12.30) and majority (71.5%) were in the age group of 35–64 years. The	mean	(SD)	time	since	first	diagnosis	of	psoriasis	and	psoriatic	arthritis (PsA) was 19.5 (13.81) and 17.2 (18.30) years, respectively; 13.8% of subjects had PsA. The mean (SD) baseline PASI, patient benefit	index	(PBI),	and	ItchyQoL	score	was	23.9	(10.85),	84.2	(24.17), and 78.7 (17.42) respectively, indicating severe disease activity and pruritus. The baseline ItchyQoL score showed moderate correlation with baseline VAS scores for average and worst pruritus (r: 0.542 [95% CI: 0.41, 0.65] and 0.547 [95% CI: 0.41, 0.66]; t: 0.381 [95% CI: 0.22, 0.52] and 0.383, 95% CI: 0.23, 0.52]) and a strong correlation with baseline dermatology life quality index (DLQI) scores (r: 0.803 [95% CI: 0.73, 0.86]; t: 0.622 [95% CI: 0.50,  0.72].  Furthermore  the  multiple  linear  regression  analysis showed  substantial  dependency  of  QoL  measured  by  ItchyQoL for  VAS  (average  pruritus  last  24  h),  duration  of  psoriasis  and health-related	patient	needs	as	measured	by	patient	benefit	index.Conclusions:  ItchyQoL  assessment  demonstrated  that  subjects with psoriasis are highly burdened by pruritus and show severely impaired quality of life. The correlation between pruritus intensity, ItchyQoL- and DLQI questionnaire results suggests the need for routine assessment of pruritus in clinical practice. </t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="inlineStr">
+        <is>
+          <t>Matthias Augustin</t>
+        </is>
+      </c>
+      <c r="B174" s="2" t="inlineStr">
+        <is>
+          <t>Department of Dermatology and Competence Center Chronic Pruritus and Department of Dermatology, University hospital Münster, Münster, Institute for Health Services Research in Dermatology and Nursing, Ham-burg, and Novartis Pharma</t>
+        </is>
+      </c>
+      <c r="C174" s="2" t="inlineStr">
+        <is>
+          <t>Nuernberg, Germany</t>
+        </is>
+      </c>
+      <c r="D174" s="2" t="inlineStr">
+        <is>
+          <t>P134</t>
+        </is>
+      </c>
+      <c r="E174" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PRURITUS SEVERITY ASSESSMENT AND CORRELATION WITH BASELINE CHARACTERISTICS OF PATIENTS WITH PSORIASIS VULGARIS: AN EXPLORATORY ANALYSIS OF THE PHASE IIIB, </t>
+        </is>
+      </c>
+      <c r="F174" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PSORITUS STUDYIntroduction: Chronic pruritus lasts for at least 6 weeks and is a most common symptom in patients with psoriasis. Pruritus is a highly prevalent and troublesome symptom and has a negative impact  upon  patients’  health-related  quality  of  life  (QoL).  The ItchyQoL	is	a	pruritus-specific	QoL	questionnaire	that	can	be	applied to patients with pruritus independent of the underlying disease.Objective:To assess the impact of pruritus on QoL in patients with psoriasis by an exploratory analysis of baseline characteristics of subjects from the PSORITUS study.Methods: PSORITUS was an exploratory, randomized, doubleblind, placebo-controlled 16-week drug withdrawal study with a 16-week open-label run-in phase, to assess the kinetics of psoriasis symptoms, pruritus intensity, and lesional biomarkers. Subjects ≥18	years	of	age	with	chronic	moderate-to-severe	psoriasis	at	least	6  months  prior  to  baseline,  with  a  Psoriasis Area  and  Severity Index (PASI) score  &gt; 10	at	baseline,	and	pruritus	intensity	≥30	on	a 100-point Visual Analogue Scale (VAS, the worst itching within a recall period of 24 hours), were included. In an exploratory baseline	analysis,	correlation	coefficients	were	calculated	between	ItchyQoL  outputs  and  individual  baseline  characteristics  based on Spearman‘s (r) and Kendall rank correlations (t). A multiple linear  regression  model  was  performed  to  assess  the  effect  of exploratory  variables  correlating  with  the  ItchyQoL  score  and achieving	statistical	significance	(p-value  &lt; 0.05).Results:  The  study  included  130  subjects  with  psoriasis.  The subjects had a mean age of 46.8 years (standard deviation [SD], 12.30) and majority (71.5%) were in the age group of 35–64 years. The	mean	(SD)	time	since	first	diagnosis	of	psoriasis	and	psoriatic	arthritis (PsA) was 19.5 (13.81) and 17.2 (18.30) years, respectively; 13.8% of subjects had PsA. The mean (SD) baseline PASI, patient benefit	index	(PBI),	and	ItchyQoL	score	was	23.9	(10.85),	84.2	(24.17), and 78.7 (17.42) respectively, indicating severe disease activity and pruritus. The baseline ItchyQoL score showed moderate correlation with baseline VAS scores for average and worst pruritus (r: 0.542 [95% CI: 0.41, 0.65] and 0.547 [95% CI: 0.41, 0.66]; t: 0.381 [95% CI: 0.22, 0.52] and 0.383, 95% CI: 0.23, 0.52]) and a strong correlation with baseline dermatology life quality index (DLQI) scores (r: 0.803 [95% CI: 0.73, 0.86]; t: 0.622 [95% CI: 0.50,  0.72].  Furthermore  the  multiple  linear  regression  analysis showed  substantial  dependency  of  QoL  measured  by  ItchyQoL for  VAS  (average  pruritus  last  24  h),  duration  of  psoriasis  and health-related	patient	needs	as	measured	by	patient	benefit	index.Conclusions:  ItchyQoL  assessment  demonstrated  that  subjects with psoriasis are highly burdened by pruritus and show severely impaired quality of life. The correlation between pruritus intensity, ItchyQoL- and DLQI questionnaire results suggests the need for routine assessment of pruritus in clinical practice. </t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="inlineStr">
+        <is>
+          <t>Dieter Me-tze</t>
+        </is>
+      </c>
+      <c r="B175" s="2" t="inlineStr">
+        <is>
+          <t>Department of Dermatology and Competence Center Chronic Pruritus and Department of Dermatology, University hospital Münster, Münster, Institute for Health Services Research in Dermatology and Nursing, Ham-burg, and Novartis Pharma</t>
+        </is>
+      </c>
+      <c r="C175" s="2" t="inlineStr">
+        <is>
+          <t>Nuernberg, Germany</t>
+        </is>
+      </c>
+      <c r="D175" s="2" t="inlineStr">
+        <is>
+          <t>P134</t>
+        </is>
+      </c>
+      <c r="E175" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PRURITUS SEVERITY ASSESSMENT AND CORRELATION WITH BASELINE CHARACTERISTICS OF PATIENTS WITH PSORIASIS VULGARIS: AN EXPLORATORY ANALYSIS OF THE PHASE IIIB, </t>
+        </is>
+      </c>
+      <c r="F175" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PSORITUS STUDYIntroduction: Chronic pruritus lasts for at least 6 weeks and is a most common symptom in patients with psoriasis. Pruritus is a highly prevalent and troublesome symptom and has a negative impact  upon  patients’  health-related  quality  of  life  (QoL).  The ItchyQoL	is	a	pruritus-specific	QoL	questionnaire	that	can	be	applied to patients with pruritus independent of the underlying disease.Objective:To assess the impact of pruritus on QoL in patients with psoriasis by an exploratory analysis of baseline characteristics of subjects from the PSORITUS study.Methods: PSORITUS was an exploratory, randomized, doubleblind, placebo-controlled 16-week drug withdrawal study with a 16-week open-label run-in phase, to assess the kinetics of psoriasis symptoms, pruritus intensity, and lesional biomarkers. Subjects ≥18	years	of	age	with	chronic	moderate-to-severe	psoriasis	at	least	6  months  prior  to  baseline,  with  a  Psoriasis Area  and  Severity Index (PASI) score  &gt; 10	at	baseline,	and	pruritus	intensity	≥30	on	a 100-point Visual Analogue Scale (VAS, the worst itching within a recall period of 24 hours), were included. In an exploratory baseline	analysis,	correlation	coefficients	were	calculated	between	ItchyQoL  outputs  and  individual  baseline  characteristics  based on Spearman‘s (r) and Kendall rank correlations (t). A multiple linear  regression  model  was  performed  to  assess  the  effect  of exploratory  variables  correlating  with  the  ItchyQoL  score  and achieving	statistical	significance	(p-value  &lt; 0.05).Results:  The  study  included  130  subjects  with  psoriasis.  The subjects had a mean age of 46.8 years (standard deviation [SD], 12.30) and majority (71.5%) were in the age group of 35–64 years. The	mean	(SD)	time	since	first	diagnosis	of	psoriasis	and	psoriatic	arthritis (PsA) was 19.5 (13.81) and 17.2 (18.30) years, respectively; 13.8% of subjects had PsA. The mean (SD) baseline PASI, patient benefit	index	(PBI),	and	ItchyQoL	score	was	23.9	(10.85),	84.2	(24.17), and 78.7 (17.42) respectively, indicating severe disease activity and pruritus. The baseline ItchyQoL score showed moderate correlation with baseline VAS scores for average and worst pruritus (r: 0.542 [95% CI: 0.41, 0.65] and 0.547 [95% CI: 0.41, 0.66]; t: 0.381 [95% CI: 0.22, 0.52] and 0.383, 95% CI: 0.23, 0.52]) and a strong correlation with baseline dermatology life quality index (DLQI) scores (r: 0.803 [95% CI: 0.73, 0.86]; t: 0.622 [95% CI: 0.50,  0.72].  Furthermore  the  multiple  linear  regression  analysis showed  substantial  dependency  of  QoL  measured  by  ItchyQoL for  VAS  (average  pruritus  last  24  h),  duration  of  psoriasis  and health-related	patient	needs	as	measured	by	patient	benefit	index.Conclusions:  ItchyQoL  assessment  demonstrated  that  subjects with psoriasis are highly burdened by pruritus and show severely impaired quality of life. The correlation between pruritus intensity, ItchyQoL- and DLQI questionnaire results suggests the need for routine assessment of pruritus in clinical practice. </t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="inlineStr">
+        <is>
+          <t>Karin Loser</t>
+        </is>
+      </c>
+      <c r="B176" s="2" t="inlineStr">
+        <is>
+          <t>Department of Dermatology and Competence Center Chronic Pruritus and Department of Dermatology, University hospital Münster, Münster, Institute for Health Services Research in Dermatology and Nursing, Ham-burg, and Novartis Pharma</t>
+        </is>
+      </c>
+      <c r="C176" s="2" t="inlineStr">
+        <is>
+          <t>Nuernberg, Germany</t>
+        </is>
+      </c>
+      <c r="D176" s="2" t="inlineStr">
+        <is>
+          <t>P134</t>
+        </is>
+      </c>
+      <c r="E176" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PRURITUS SEVERITY ASSESSMENT AND CORRELATION WITH BASELINE CHARACTERISTICS OF PATIENTS WITH PSORIASIS VULGARIS: AN EXPLORATORY ANALYSIS OF THE PHASE IIIB, </t>
+        </is>
+      </c>
+      <c r="F176" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PSORITUS STUDYIntroduction: Chronic pruritus lasts for at least 6 weeks and is a most common symptom in patients with psoriasis. Pruritus is a highly prevalent and troublesome symptom and has a negative impact  upon  patients’  health-related  quality  of  life  (QoL).  The ItchyQoL	is	a	pruritus-specific	QoL	questionnaire	that	can	be	applied to patients with pruritus independent of the underlying disease.Objective:To assess the impact of pruritus on QoL in patients with psoriasis by an exploratory analysis of baseline characteristics of subjects from the PSORITUS study.Methods: PSORITUS was an exploratory, randomized, doubleblind, placebo-controlled 16-week drug withdrawal study with a 16-week open-label run-in phase, to assess the kinetics of psoriasis symptoms, pruritus intensity, and lesional biomarkers. Subjects ≥18	years	of	age	with	chronic	moderate-to-severe	psoriasis	at	least	6  months  prior  to  baseline,  with  a  Psoriasis Area  and  Severity Index (PASI) score  &gt; 10	at	baseline,	and	pruritus	intensity	≥30	on	a 100-point Visual Analogue Scale (VAS, the worst itching within a recall period of 24 hours), were included. In an exploratory baseline	analysis,	correlation	coefficients	were	calculated	between	ItchyQoL  outputs  and  individual  baseline  characteristics  based on Spearman‘s (r) and Kendall rank correlations (t). A multiple linear  regression  model  was  performed  to  assess  the  effect  of exploratory  variables  correlating  with  the  ItchyQoL  score  and achieving	statistical	significance	(p-value  &lt; 0.05).Results:  The  study  included  130  subjects  with  psoriasis.  The subjects had a mean age of 46.8 years (standard deviation [SD], 12.30) and majority (71.5%) were in the age group of 35–64 years. The	mean	(SD)	time	since	first	diagnosis	of	psoriasis	and	psoriatic	arthritis (PsA) was 19.5 (13.81) and 17.2 (18.30) years, respectively; 13.8% of subjects had PsA. The mean (SD) baseline PASI, patient benefit	index	(PBI),	and	ItchyQoL	score	was	23.9	(10.85),	84.2	(24.17), and 78.7 (17.42) respectively, indicating severe disease activity and pruritus. The baseline ItchyQoL score showed moderate correlation with baseline VAS scores for average and worst pruritus (r: 0.542 [95% CI: 0.41, 0.65] and 0.547 [95% CI: 0.41, 0.66]; t: 0.381 [95% CI: 0.22, 0.52] and 0.383, 95% CI: 0.23, 0.52]) and a strong correlation with baseline dermatology life quality index (DLQI) scores (r: 0.803 [95% CI: 0.73, 0.86]; t: 0.622 [95% CI: 0.50,  0.72].  Furthermore  the  multiple  linear  regression  analysis showed  substantial  dependency  of  QoL  measured  by  ItchyQoL for  VAS  (average  pruritus  last  24  h),  duration  of  psoriasis  and health-related	patient	needs	as	measured	by	patient	benefit	index.Conclusions:  ItchyQoL  assessment  demonstrated  that  subjects with psoriasis are highly burdened by pruritus and show severely impaired quality of life. The correlation between pruritus intensity, ItchyQoL- and DLQI questionnaire results suggests the need for routine assessment of pruritus in clinical practice. </t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="inlineStr">
+        <is>
+          <t>Daniel Baeumer</t>
+        </is>
+      </c>
+      <c r="B177" s="2" t="inlineStr">
+        <is>
+          <t>Department of Dermatology and Competence Center Chronic Pruritus and Department of Dermatology, University hospital Münster, Münster, Institute for Health Services Research in Dermatology and Nursing, Ham-burg, and Novartis Pharma</t>
+        </is>
+      </c>
+      <c r="C177" s="2" t="inlineStr">
+        <is>
+          <t>Nuernberg, Germany</t>
+        </is>
+      </c>
+      <c r="D177" s="2" t="inlineStr">
+        <is>
+          <t>P134</t>
+        </is>
+      </c>
+      <c r="E177" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PRURITUS SEVERITY ASSESSMENT AND CORRELATION WITH BASELINE CHARACTERISTICS OF PATIENTS WITH PSORIASIS VULGARIS: AN EXPLORATORY ANALYSIS OF THE PHASE IIIB, </t>
+        </is>
+      </c>
+      <c r="F177" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PSORITUS STUDYIntroduction: Chronic pruritus lasts for at least 6 weeks and is a most common symptom in patients with psoriasis. Pruritus is a highly prevalent and troublesome symptom and has a negative impact  upon  patients’  health-related  quality  of  life  (QoL).  The ItchyQoL	is	a	pruritus-specific	QoL	questionnaire	that	can	be	applied to patients with pruritus independent of the underlying disease.Objective:To assess the impact of pruritus on QoL in patients with psoriasis by an exploratory analysis of baseline characteristics of subjects from the PSORITUS study.Methods: PSORITUS was an exploratory, randomized, doubleblind, placebo-controlled 16-week drug withdrawal study with a 16-week open-label run-in phase, to assess the kinetics of psoriasis symptoms, pruritus intensity, and lesional biomarkers. Subjects ≥18	years	of	age	with	chronic	moderate-to-severe	psoriasis	at	least	6  months  prior  to  baseline,  with  a  Psoriasis Area  and  Severity Index (PASI) score  &gt; 10	at	baseline,	and	pruritus	intensity	≥30	on	a 100-point Visual Analogue Scale (VAS, the worst itching within a recall period of 24 hours), were included. In an exploratory baseline	analysis,	correlation	coefficients	were	calculated	between	ItchyQoL  outputs  and  individual  baseline  characteristics  based on Spearman‘s (r) and Kendall rank correlations (t). A multiple linear  regression  model  was  performed  to  assess  the  effect  of exploratory  variables  correlating  with  the  ItchyQoL  score  and achieving	statistical	significance	(p-value  &lt; 0.05).Results:  The  study  included  130  subjects  with  psoriasis.  The subjects had a mean age of 46.8 years (standard deviation [SD], 12.30) and majority (71.5%) were in the age group of 35–64 years. The	mean	(SD)	time	since	first	diagnosis	of	psoriasis	and	psoriatic	arthritis (PsA) was 19.5 (13.81) and 17.2 (18.30) years, respectively; 13.8% of subjects had PsA. The mean (SD) baseline PASI, patient benefit	index	(PBI),	and	ItchyQoL	score	was	23.9	(10.85),	84.2	(24.17), and 78.7 (17.42) respectively, indicating severe disease activity and pruritus. The baseline ItchyQoL score showed moderate correlation with baseline VAS scores for average and worst pruritus (r: 0.542 [95% CI: 0.41, 0.65] and 0.547 [95% CI: 0.41, 0.66]; t: 0.381 [95% CI: 0.22, 0.52] and 0.383, 95% CI: 0.23, 0.52]) and a strong correlation with baseline dermatology life quality index (DLQI) scores (r: 0.803 [95% CI: 0.73, 0.86]; t: 0.622 [95% CI: 0.50,  0.72].  Furthermore  the  multiple  linear  regression  analysis showed  substantial  dependency  of  QoL  measured  by  ItchyQoL for  VAS  (average  pruritus  last  24  h),  duration  of  psoriasis  and health-related	patient	needs	as	measured	by	patient	benefit	index.Conclusions:  ItchyQoL  assessment  demonstrated  that  subjects with psoriasis are highly burdened by pruritus and show severely impaired quality of life. The correlation between pruritus intensity, ItchyQoL- and DLQI questionnaire results suggests the need for routine assessment of pruritus in clinical practice. </t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="inlineStr">
+        <is>
+          <t>Thomas Luger</t>
+        </is>
+      </c>
+      <c r="B178" s="2" t="inlineStr">
+        <is>
+          <t>Department of Dermatology and Competence Center Chronic Pruritus and Department of Dermatology, University hospital Münster, Münster, Institute for Health Services Research in Dermatology and Nursing, Ham-burg, and Novartis Pharma</t>
+        </is>
+      </c>
+      <c r="C178" s="2" t="inlineStr">
+        <is>
+          <t>Nuernberg, Germany</t>
+        </is>
+      </c>
+      <c r="D178" s="2" t="inlineStr">
+        <is>
+          <t>P134</t>
+        </is>
+      </c>
+      <c r="E178" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PRURITUS SEVERITY ASSESSMENT AND CORRELATION WITH BASELINE CHARACTERISTICS OF PATIENTS WITH PSORIASIS VULGARIS: AN EXPLORATORY ANALYSIS OF THE PHASE IIIB, </t>
+        </is>
+      </c>
+      <c r="F178" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PSORITUS STUDYIntroduction: Chronic pruritus lasts for at least 6 weeks and is a most common symptom in patients with psoriasis. Pruritus is a highly prevalent and troublesome symptom and has a negative impact  upon  patients’  health-related  quality  of  life  (QoL).  The ItchyQoL	is	a	pruritus-specific	QoL	questionnaire	that	can	be	applied to patients with pruritus independent of the underlying disease.Objective:To assess the impact of pruritus on QoL in patients with psoriasis by an exploratory analysis of baseline characteristics of subjects from the PSORITUS study.Methods: PSORITUS was an exploratory, randomized, doubleblind, placebo-controlled 16-week drug withdrawal study with a 16-week open-label run-in phase, to assess the kinetics of psoriasis symptoms, pruritus intensity, and lesional biomarkers. Subjects ≥18	years	of	age	with	chronic	moderate-to-severe	psoriasis	at	least	6  months  prior  to  baseline,  with  a  Psoriasis Area  and  Severity Index (PASI) score  &gt; 10	at	baseline,	and	pruritus	intensity	≥30	on	a 100-point Visual Analogue Scale (VAS, the worst itching within a recall period of 24 hours), were included. In an exploratory baseline	analysis,	correlation	coefficients	were	calculated	between	ItchyQoL  outputs  and  individual  baseline  characteristics  based on Spearman‘s (r) and Kendall rank correlations (t). A multiple linear  regression  model  was  performed  to  assess  the  effect  of exploratory  variables  correlating  with  the  ItchyQoL  score  and achieving	statistical	significance	(p-value  &lt; 0.05).Results:  The  study  included  130  subjects  with  psoriasis.  The subjects had a mean age of 46.8 years (standard deviation [SD], 12.30) and majority (71.5%) were in the age group of 35–64 years. The	mean	(SD)	time	since	first	diagnosis	of	psoriasis	and	psoriatic	arthritis (PsA) was 19.5 (13.81) and 17.2 (18.30) years, respectively; 13.8% of subjects had PsA. The mean (SD) baseline PASI, patient benefit	index	(PBI),	and	ItchyQoL	score	was	23.9	(10.85),	84.2	(24.17), and 78.7 (17.42) respectively, indicating severe disease activity and pruritus. The baseline ItchyQoL score showed moderate correlation with baseline VAS scores for average and worst pruritus (r: 0.542 [95% CI: 0.41, 0.65] and 0.547 [95% CI: 0.41, 0.66]; t: 0.381 [95% CI: 0.22, 0.52] and 0.383, 95% CI: 0.23, 0.52]) and a strong correlation with baseline dermatology life quality index (DLQI) scores (r: 0.803 [95% CI: 0.73, 0.86]; t: 0.622 [95% CI: 0.50,  0.72].  Furthermore  the  multiple  linear  regression  analysis showed  substantial  dependency  of  QoL  measured  by  ItchyQoL for  VAS  (average  pruritus  last  24  h),  duration  of  psoriasis  and health-related	patient	needs	as	measured	by	patient	benefit	index.Conclusions:  ItchyQoL  assessment  demonstrated  that  subjects with psoriasis are highly burdened by pruritus and show severely impaired quality of life. The correlation between pruritus intensity, ItchyQoL- and DLQI questionnaire results suggests the need for routine assessment of pruritus in clinical practice. </t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="inlineStr">
+        <is>
+          <t>Anargyros Kouris</t>
+        </is>
+      </c>
+      <c r="B179" s="2" t="inlineStr">
+        <is>
+          <t>Andreas Sygros Skin Hospital, Attikon University Hospital</t>
+        </is>
+      </c>
+      <c r="C179" s="2" t="inlineStr">
+        <is>
+          <t>Athens, Greece</t>
+        </is>
+      </c>
+      <c r="D179" s="2" t="inlineStr">
+        <is>
+          <t>P135</t>
+        </is>
+      </c>
+      <c r="E179" s="2" t="inlineStr">
+        <is>
+          <t>QUALITY OF LIFE AND PSYCHOSOCIAL IMPLICATIONS IN PATIENTS WITH PSORIASIS</t>
+        </is>
+      </c>
+      <c r="F179" s="2" t="inlineStr">
+        <is>
+          <t>Introduction: Psoriasis is a common, long-term skin disease that affects approximately 1.5–3% of the population. The burden of living with psoriasis is equivalent to or greater than that seen in other long-term conditions, such as cardiac failure and chronic lung  disease.  The  stigma  provoked  by  the  disease,  often  lead to the discontinuation of daily activities and social withdrawal. Nevertheless, these effects of psoriasis are seldom recognized and often undertreated.Objectives: The aim of the study is to evaluate the quality of life, anxiety  and  depression,  self-esteem  and  loneliness  in  patients with psoriasis.Methods: Ninety-eight patients with psoriasis were enrolled in the study. The quality of life, depression and anxiety, loneliness and self-esteem of the patient were assessed using the Dermatology Life Quality Index, Hospital Anxiety and Depression Scale, the UCLA loneliness Scale (UCLA-Version 3) and Rosenberg’s Selfesteem Scale, respectively.Results: The Dermatology Quality of Life Index score among psoriasis patients was 13.52±4.58.	They	had	statistically	significantly	higher scores according to the Hospital Anxiety and Depression Scale -anxiety subscale (p = 0.031)-compared with healthy volunteers.	Moreover,	a	statistically	significant	difference	was	found	between the two groups concerning the UCLA-scale (p = 0.032) and RSES-scale (p &lt; 0.0001). Female patients presented with lower self-esteem than male patients.55</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="inlineStr">
+        <is>
+          <t>Eftychia Platsidaki</t>
+        </is>
+      </c>
+      <c r="B180" s="2" t="inlineStr">
+        <is>
+          <t>Andreas Sygros Skin Hospital, Attikon University Hospital</t>
+        </is>
+      </c>
+      <c r="C180" s="2" t="inlineStr">
+        <is>
+          <t>Athens, Greece</t>
+        </is>
+      </c>
+      <c r="D180" s="2" t="inlineStr">
+        <is>
+          <t>P135</t>
+        </is>
+      </c>
+      <c r="E180" s="2" t="inlineStr">
+        <is>
+          <t>QUALITY OF LIFE AND PSYCHOSOCIAL IMPLICATIONS IN PATIENTS WITH PSORIASIS</t>
+        </is>
+      </c>
+      <c r="F180" s="2" t="inlineStr">
+        <is>
+          <t>Introduction: Psoriasis is a common, long-term skin disease that affects approximately 1.5–3% of the population. The burden of living with psoriasis is equivalent to or greater than that seen in other long-term conditions, such as cardiac failure and chronic lung  disease.  The  stigma  provoked  by  the  disease,  often  lead to the discontinuation of daily activities and social withdrawal. Nevertheless, these effects of psoriasis are seldom recognized and often undertreated.Objectives: The aim of the study is to evaluate the quality of life, anxiety  and  depression,  self-esteem  and  loneliness  in  patients with psoriasis.Methods: Ninety-eight patients with psoriasis were enrolled in the study. The quality of life, depression and anxiety, loneliness and self-esteem of the patient were assessed using the Dermatology Life Quality Index, Hospital Anxiety and Depression Scale, the UCLA loneliness Scale (UCLA-Version 3) and Rosenberg’s Selfesteem Scale, respectively.Results: The Dermatology Quality of Life Index score among psoriasis patients was 13.52±4.58.	They	had	statistically	significantly	higher scores according to the Hospital Anxiety and Depression Scale -anxiety subscale (p = 0.031)-compared with healthy volunteers.	Moreover,	a	statistically	significant	difference	was	found	between the two groups concerning the UCLA-scale (p = 0.032) and RSES-scale (p &lt; 0.0001). Female patients presented with lower self-esteem than male patients.55</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="inlineStr">
+        <is>
+          <t>Alexandros Katoulis</t>
+        </is>
+      </c>
+      <c r="B181" s="2" t="inlineStr">
+        <is>
+          <t>Andreas Sygros Skin Hospital, Attikon University Hospital</t>
+        </is>
+      </c>
+      <c r="C181" s="2" t="inlineStr">
+        <is>
+          <t>Athens, Greece</t>
+        </is>
+      </c>
+      <c r="D181" s="2" t="inlineStr">
+        <is>
+          <t>P135</t>
+        </is>
+      </c>
+      <c r="E181" s="2" t="inlineStr">
+        <is>
+          <t>QUALITY OF LIFE AND PSYCHOSOCIAL IMPLICATIONS IN PATIENTS WITH PSORIASIS</t>
+        </is>
+      </c>
+      <c r="F181" s="2" t="inlineStr">
+        <is>
+          <t>Introduction: Psoriasis is a common, long-term skin disease that affects approximately 1.5–3% of the population. The burden of living with psoriasis is equivalent to or greater than that seen in other long-term conditions, such as cardiac failure and chronic lung  disease.  The  stigma  provoked  by  the  disease,  often  lead to the discontinuation of daily activities and social withdrawal. Nevertheless, these effects of psoriasis are seldom recognized and often undertreated.Objectives: The aim of the study is to evaluate the quality of life, anxiety  and  depression,  self-esteem  and  loneliness  in  patients with psoriasis.Methods: Ninety-eight patients with psoriasis were enrolled in the study. The quality of life, depression and anxiety, loneliness and self-esteem of the patient were assessed using the Dermatology Life Quality Index, Hospital Anxiety and Depression Scale, the UCLA loneliness Scale (UCLA-Version 3) and Rosenberg’s Selfesteem Scale, respectively.Results: The Dermatology Quality of Life Index score among psoriasis patients was 13.52±4.58.	They	had	statistically	significantly	higher scores according to the Hospital Anxiety and Depression Scale -anxiety subscale (p = 0.031)-compared with healthy volunteers.	Moreover,	a	statistically	significant	difference	was	found	between the two groups concerning the UCLA-scale (p = 0.032) and RSES-scale (p &lt; 0.0001). Female patients presented with lower self-esteem than male patients.55</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="inlineStr">
+        <is>
+          <t>Va-siliki Markanton</t>
+        </is>
+      </c>
+      <c r="B182" s="2" t="inlineStr">
+        <is>
+          <t>Andreas Sygros Skin Hospital, Attikon University Hospital</t>
+        </is>
+      </c>
+      <c r="C182" s="2" t="inlineStr">
+        <is>
+          <t>Athens, Greece</t>
+        </is>
+      </c>
+      <c r="D182" s="2" t="inlineStr">
+        <is>
+          <t>P135</t>
+        </is>
+      </c>
+      <c r="E182" s="2" t="inlineStr">
+        <is>
+          <t>QUALITY OF LIFE AND PSYCHOSOCIAL IMPLICATIONS IN PATIENTS WITH PSORIASIS</t>
+        </is>
+      </c>
+      <c r="F182" s="2" t="inlineStr">
+        <is>
+          <t>Introduction: Psoriasis is a common, long-term skin disease that affects approximately 1.5–3% of the population. The burden of living with psoriasis is equivalent to or greater than that seen in other long-term conditions, such as cardiac failure and chronic lung  disease.  The  stigma  provoked  by  the  disease,  often  lead to the discontinuation of daily activities and social withdrawal. Nevertheless, these effects of psoriasis are seldom recognized and often undertreated.Objectives: The aim of the study is to evaluate the quality of life, anxiety  and  depression,  self-esteem  and  loneliness  in  patients with psoriasis.Methods: Ninety-eight patients with psoriasis were enrolled in the study. The quality of life, depression and anxiety, loneliness and self-esteem of the patient were assessed using the Dermatology Life Quality Index, Hospital Anxiety and Depression Scale, the UCLA loneliness Scale (UCLA-Version 3) and Rosenberg’s Selfesteem Scale, respectively.Results: The Dermatology Quality of Life Index score among psoriasis patients was 13.52±4.58.	They	had	statistically	significantly	higher scores according to the Hospital Anxiety and Depression Scale -anxiety subscale (p = 0.031)-compared with healthy volunteers.	Moreover,	a	statistically	significant	difference	was	found	between the two groups concerning the UCLA-scale (p = 0.032) and RSES-scale (p &lt; 0.0001). Female patients presented with lower self-esteem than male patients.55</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="inlineStr">
+        <is>
+          <t>Christos Christodoulou</t>
+        </is>
+      </c>
+      <c r="B183" s="2" t="inlineStr">
+        <is>
+          <t>Andreas Sygros Skin Hospital, Attikon University Hospital</t>
+        </is>
+      </c>
+      <c r="C183" s="2" t="inlineStr">
+        <is>
+          <t>Athens, Greece</t>
+        </is>
+      </c>
+      <c r="D183" s="2" t="inlineStr">
+        <is>
+          <t>P135</t>
+        </is>
+      </c>
+      <c r="E183" s="2" t="inlineStr">
+        <is>
+          <t>QUALITY OF LIFE AND PSYCHOSOCIAL IMPLICATIONS IN PATIENTS WITH PSORIASIS</t>
+        </is>
+      </c>
+      <c r="F183" s="2" t="inlineStr">
+        <is>
+          <t>Introduction: Psoriasis is a common, long-term skin disease that affects approximately 1.5–3% of the population. The burden of living with psoriasis is equivalent to or greater than that seen in other long-term conditions, such as cardiac failure and chronic lung  disease.  The  stigma  provoked  by  the  disease,  often  lead to the discontinuation of daily activities and social withdrawal. Nevertheless, these effects of psoriasis are seldom recognized and often undertreated.Objectives: The aim of the study is to evaluate the quality of life, anxiety  and  depression,  self-esteem  and  loneliness  in  patients with psoriasis.Methods: Ninety-eight patients with psoriasis were enrolled in the study. The quality of life, depression and anxiety, loneliness and self-esteem of the patient were assessed using the Dermatology Life Quality Index, Hospital Anxiety and Depression Scale, the UCLA loneliness Scale (UCLA-Version 3) and Rosenberg’s Selfesteem Scale, respectively.Results: The Dermatology Quality of Life Index score among psoriasis patients was 13.52±4.58.	They	had	statistically	significantly	higher scores according to the Hospital Anxiety and Depression Scale -anxiety subscale (p = 0.031)-compared with healthy volunteers.	Moreover,	a	statistically	significant	difference	was	found	between the two groups concerning the UCLA-scale (p = 0.032) and RSES-scale (p &lt; 0.0001). Female patients presented with lower self-esteem than male patients.55</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="inlineStr">
+        <is>
+          <t>Evangelos Balaskas</t>
+        </is>
+      </c>
+      <c r="B184" s="2" t="inlineStr">
+        <is>
+          <t>Andreas Sygros Skin Hospital, Attikon University Hospital</t>
+        </is>
+      </c>
+      <c r="C184" s="2" t="inlineStr">
+        <is>
+          <t>Athens, Greece</t>
+        </is>
+      </c>
+      <c r="D184" s="2" t="inlineStr">
+        <is>
+          <t>P135</t>
+        </is>
+      </c>
+      <c r="E184" s="2" t="inlineStr">
+        <is>
+          <t>QUALITY OF LIFE AND PSYCHOSOCIAL IMPLICATIONS IN PATIENTS WITH PSORIASIS</t>
+        </is>
+      </c>
+      <c r="F184" s="2" t="inlineStr">
+        <is>
+          <t>Introduction: Psoriasis is a common, long-term skin disease that affects approximately 1.5–3% of the population. The burden of living with psoriasis is equivalent to or greater than that seen in other long-term conditions, such as cardiac failure and chronic lung  disease.  The  stigma  provoked  by  the  disease,  often  lead to the discontinuation of daily activities and social withdrawal. Nevertheless, these effects of psoriasis are seldom recognized and often undertreated.Objectives: The aim of the study is to evaluate the quality of life, anxiety  and  depression,  self-esteem  and  loneliness  in  patients with psoriasis.Methods: Ninety-eight patients with psoriasis were enrolled in the study. The quality of life, depression and anxiety, loneliness and self-esteem of the patient were assessed using the Dermatology Life Quality Index, Hospital Anxiety and Depression Scale, the UCLA loneliness Scale (UCLA-Version 3) and Rosenberg’s Selfesteem Scale, respectively.Results: The Dermatology Quality of Life Index score among psoriasis patients was 13.52±4.58.	They	had	statistically	significantly	higher scores according to the Hospital Anxiety and Depression Scale -anxiety subscale (p = 0.031)-compared with healthy volunteers.	Moreover,	a	statistically	significant	difference	was	found	between the two groups concerning the UCLA-scale (p = 0.032) and RSES-scale (p &lt; 0.0001). Female patients presented with lower self-esteem than male patients.55</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="inlineStr">
+        <is>
+          <t>Georgios Kontochristopoulos</t>
+        </is>
+      </c>
+      <c r="B185" s="2" t="inlineStr">
+        <is>
+          <t>Andreas Sygros Skin Hospital, Attikon University Hospital</t>
+        </is>
+      </c>
+      <c r="C185" s="2" t="inlineStr">
+        <is>
+          <t>Athens, Greece</t>
+        </is>
+      </c>
+      <c r="D185" s="2" t="inlineStr">
+        <is>
+          <t>P135</t>
+        </is>
+      </c>
+      <c r="E185" s="2" t="inlineStr">
+        <is>
+          <t>QUALITY OF LIFE AND PSYCHOSOCIAL IMPLICATIONS IN PATIENTS WITH PSORIASIS</t>
+        </is>
+      </c>
+      <c r="F185" s="2" t="inlineStr">
+        <is>
+          <t>Introduction: Psoriasis is a common, long-term skin disease that affects approximately 1.5–3% of the population. The burden of living with psoriasis is equivalent to or greater than that seen in other long-term conditions, such as cardiac failure and chronic lung  disease.  The  stigma  provoked  by  the  disease,  often  lead to the discontinuation of daily activities and social withdrawal. Nevertheless, these effects of psoriasis are seldom recognized and often undertreated.Objectives: The aim of the study is to evaluate the quality of life, anxiety  and  depression,  self-esteem  and  loneliness  in  patients with psoriasis.Methods: Ninety-eight patients with psoriasis were enrolled in the study. The quality of life, depression and anxiety, loneliness and self-esteem of the patient were assessed using the Dermatology Life Quality Index, Hospital Anxiety and Depression Scale, the UCLA loneliness Scale (UCLA-Version 3) and Rosenberg’s Selfesteem Scale, respectively.Results: The Dermatology Quality of Life Index score among psoriasis patients was 13.52±4.58.	They	had	statistically	significantly	higher scores according to the Hospital Anxiety and Depression Scale -anxiety subscale (p = 0.031)-compared with healthy volunteers.	Moreover,	a	statistically	significant	difference	was	found	between the two groups concerning the UCLA-scale (p = 0.032) and RSES-scale (p &lt; 0.0001). Female patients presented with lower self-esteem than male patients.55</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="inlineStr">
+        <is>
+          <t>Charlotta Enerbäck</t>
+        </is>
+      </c>
+      <c r="B186" s="2" t="inlineStr">
+        <is>
+          <t>Department of Dermatology, Linköping University Hospital, Linköping</t>
+        </is>
+      </c>
+      <c r="C186" s="2" t="inlineStr">
+        <is>
+          <t>Sweden, Novartis</t>
+        </is>
+      </c>
+      <c r="D186" s="2" t="inlineStr">
+        <is>
+          <t>P136</t>
+        </is>
+      </c>
+      <c r="E186" s="2" t="inlineStr">
+        <is>
+          <t>SWEDISH PSORIATIC PATIENTS’ PERSPECTIVE OF THEIR DISEASE. RESULTS FROM AN OBSERVATIONAL PATIENT SURVEY</t>
+        </is>
+      </c>
+      <c r="F186" s="2" t="inlineStr">
+        <is>
+          <t>Introduction: A global patient survey was adapted and implemented in Sweden, in order to explore and understand the patients’ view on their disease, as well as the personal and emotional impact of their psoriasis. The focus of the survey was the patient’s perception of the possibility to achieve clear skin, and how having clear skin could affect their quality of life. A publication based on earlier data is under review. Methods: The Swedish “Clear about Psoriasis” survey was conducted from June 16 2017 to August 8 2017. Recruitment was made via  online  panels  and  patient  organizations. Validated  methods were used to assess severity of disease and health-related quality of  life.  The  survey  consisted  of  multiple-choice  questions,  no definition	of	clear	skin	was	given,	and	spontaneous	feelings/perceptions	were	reported.	Respondents	(≥18	years	old)	were	required	to have current plaque psoriasis, for which they had received a medical diagnosis and should not have participated in an online survey about psoriasis in the preceding four weeks. The analysis included only patients with moderate-to-severe plaque psoriasis, defined	as	a	Psoriasis	Area	Severity	Index	(PASI)	score	≥10,	or	a PASI score 5.0–9.9 with plaques in visible and/or in sensitive areas, such as the face and genitals. Results: In total, 54 patient responses were completed and analyzed. Mean age was 45 years and 80% were female. The average self-assessed PASI score was 16.0, 26% had PASI 5.0–9.9, 74% PASI  &gt; 10 and 54% reported to have psoriatic arthritis. Current treatment allowed 44% of patients to achieve clear or almost clear skin. Clear or almost clear skin was believed to be achievable by 30%  of  the  patients.  Of  patients  reaching  clear  or  almost  clear skin, 71% had talked to their physician about their aim for clear skin. Among patients who have not achieved clear or almost clear skin, 47% had spoken to their physician about their aim. 57% of the	patients	were	satisfied	with	their	current	treatment.	The	most	important reasons for treatment satisfaction were less itching (81%), and the achievement of less pain and soreness (55%). Not achieving clear skin was the major reason for dissatisfaction. Discrimination or  humiliation  has  been  experienced  by  98%. About  69%  have been asked if they are contagious. Relationships were affected and 52% avoided to have sex. Worklife was affected by 65% of the respondents. For 58% of patients it took more than 5 years to get a treatment that resulted in clear or almost clear skin. During the last 6 months, 24% of employed patients had taken at least one day off work due to their disease whilst 5% took more than 14 days.Conclusions: This survey shows that a majority of patients do not believe achieving clear or almost clear skin is possible and they are not comfortable to talk to their physician about it. Furthermore, patients encounter a stigmatizing environment. Better treatment as well as improved patient information is needed. Novartis is grateful to Psoriasisförbundet for facilitating the survey.</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="inlineStr">
+        <is>
+          <t>Sofie Fors</t>
+        </is>
+      </c>
+      <c r="B187" s="2" t="inlineStr">
+        <is>
+          <t>Department of Dermatology, Linköping University Hospital, Linköping</t>
+        </is>
+      </c>
+      <c r="C187" s="2" t="inlineStr">
+        <is>
+          <t>Sweden, Novartis</t>
+        </is>
+      </c>
+      <c r="D187" s="2" t="inlineStr">
+        <is>
+          <t>P136</t>
+        </is>
+      </c>
+      <c r="E187" s="2" t="inlineStr">
+        <is>
+          <t>SWEDISH PSORIATIC PATIENTS’ PERSPECTIVE OF THEIR DISEASE. RESULTS FROM AN OBSERVATIONAL PATIENT SURVEY</t>
+        </is>
+      </c>
+      <c r="F187" s="2" t="inlineStr">
+        <is>
+          <t>Introduction: A global patient survey was adapted and implemented in Sweden, in order to explore and understand the patients’ view on their disease, as well as the personal and emotional impact of their psoriasis. The focus of the survey was the patient’s perception of the possibility to achieve clear skin, and how having clear skin could affect their quality of life. A publication based on earlier data is under review. Methods: The Swedish “Clear about Psoriasis” survey was conducted from June 16 2017 to August 8 2017. Recruitment was made via  online  panels  and  patient  organizations. Validated  methods were used to assess severity of disease and health-related quality of  life.  The  survey  consisted  of  multiple-choice  questions,  no definition	of	clear	skin	was	given,	and	spontaneous	feelings/perceptions	were	reported.	Respondents	(≥18	years	old)	were	required	to have current plaque psoriasis, for which they had received a medical diagnosis and should not have participated in an online survey about psoriasis in the preceding four weeks. The analysis included only patients with moderate-to-severe plaque psoriasis, defined	as	a	Psoriasis	Area	Severity	Index	(PASI)	score	≥10,	or	a PASI score 5.0–9.9 with plaques in visible and/or in sensitive areas, such as the face and genitals. Results: In total, 54 patient responses were completed and analyzed. Mean age was 45 years and 80% were female. The average self-assessed PASI score was 16.0, 26% had PASI 5.0–9.9, 74% PASI  &gt; 10 and 54% reported to have psoriatic arthritis. Current treatment allowed 44% of patients to achieve clear or almost clear skin. Clear or almost clear skin was believed to be achievable by 30%  of  the  patients.  Of  patients  reaching  clear  or  almost  clear skin, 71% had talked to their physician about their aim for clear skin. Among patients who have not achieved clear or almost clear skin, 47% had spoken to their physician about their aim. 57% of the	patients	were	satisfied	with	their	current	treatment.	The	most	important reasons for treatment satisfaction were less itching (81%), and the achievement of less pain and soreness (55%). Not achieving clear skin was the major reason for dissatisfaction. Discrimination or  humiliation  has  been  experienced  by  98%. About  69%  have been asked if they are contagious. Relationships were affected and 52% avoided to have sex. Worklife was affected by 65% of the respondents. For 58% of patients it took more than 5 years to get a treatment that resulted in clear or almost clear skin. During the last 6 months, 24% of employed patients had taken at least one day off work due to their disease whilst 5% took more than 14 days.Conclusions: This survey shows that a majority of patients do not believe achieving clear or almost clear skin is possible and they are not comfortable to talk to their physician about it. Furthermore, patients encounter a stigmatizing environment. Better treatment as well as improved patient information is needed. Novartis is grateful to Psoriasisförbundet for facilitating the survey.</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="inlineStr">
+        <is>
+          <t>Anna-Karin Dahlborn</t>
+        </is>
+      </c>
+      <c r="B188" s="2" t="inlineStr">
+        <is>
+          <t>Department of Dermatology, Linköping University Hospital, Linköping</t>
+        </is>
+      </c>
+      <c r="C188" s="2" t="inlineStr">
+        <is>
+          <t>Sweden, Novartis</t>
+        </is>
+      </c>
+      <c r="D188" s="2" t="inlineStr">
+        <is>
+          <t>P136</t>
+        </is>
+      </c>
+      <c r="E188" s="2" t="inlineStr">
+        <is>
+          <t>SWEDISH PSORIATIC PATIENTS’ PERSPECTIVE OF THEIR DISEASE. RESULTS FROM AN OBSERVATIONAL PATIENT SURVEY</t>
+        </is>
+      </c>
+      <c r="F188" s="2" t="inlineStr">
+        <is>
+          <t>Introduction: A global patient survey was adapted and implemented in Sweden, in order to explore and understand the patients’ view on their disease, as well as the personal and emotional impact of their psoriasis. The focus of the survey was the patient’s perception of the possibility to achieve clear skin, and how having clear skin could affect their quality of life. A publication based on earlier data is under review. Methods: The Swedish “Clear about Psoriasis” survey was conducted from June 16 2017 to August 8 2017. Recruitment was made via  online  panels  and  patient  organizations. Validated  methods were used to assess severity of disease and health-related quality of  life.  The  survey  consisted  of  multiple-choice  questions,  no definition	of	clear	skin	was	given,	and	spontaneous	feelings/perceptions	were	reported.	Respondents	(≥18	years	old)	were	required	to have current plaque psoriasis, for which they had received a medical diagnosis and should not have participated in an online survey about psoriasis in the preceding four weeks. The analysis included only patients with moderate-to-severe plaque psoriasis, defined	as	a	Psoriasis	Area	Severity	Index	(PASI)	score	≥10,	or	a PASI score 5.0–9.9 with plaques in visible and/or in sensitive areas, such as the face and genitals. Results: In total, 54 patient responses were completed and analyzed. Mean age was 45 years and 80% were female. The average self-assessed PASI score was 16.0, 26% had PASI 5.0–9.9, 74% PASI  &gt; 10 and 54% reported to have psoriatic arthritis. Current treatment allowed 44% of patients to achieve clear or almost clear skin. Clear or almost clear skin was believed to be achievable by 30%  of  the  patients.  Of  patients  reaching  clear  or  almost  clear skin, 71% had talked to their physician about their aim for clear skin. Among patients who have not achieved clear or almost clear skin, 47% had spoken to their physician about their aim. 57% of the	patients	were	satisfied	with	their	current	treatment.	The	most	important reasons for treatment satisfaction were less itching (81%), and the achievement of less pain and soreness (55%). Not achieving clear skin was the major reason for dissatisfaction. Discrimination or  humiliation  has  been  experienced  by  98%. About  69%  have been asked if they are contagious. Relationships were affected and 52% avoided to have sex. Worklife was affected by 65% of the respondents. For 58% of patients it took more than 5 years to get a treatment that resulted in clear or almost clear skin. During the last 6 months, 24% of employed patients had taken at least one day off work due to their disease whilst 5% took more than 14 days.Conclusions: This survey shows that a majority of patients do not believe achieving clear or almost clear skin is possible and they are not comfortable to talk to their physician about it. Furthermore, patients encounter a stigmatizing environment. Better treatment as well as improved patient information is needed. Novartis is grateful to Psoriasisförbundet for facilitating the survey.</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="inlineStr">
+        <is>
+          <t>Andrew Blauvelt</t>
+        </is>
+      </c>
+      <c r="B189" s="2" t="inlineStr">
+        <is>
+          <t>Oregon Medical Research Center, DermEdge Research, Eli Lilly and Company, University Hospital Frankfurt</t>
+        </is>
+      </c>
+      <c r="C189" s="2" t="inlineStr"/>
+      <c r="D189" s="2" t="inlineStr">
+        <is>
+          <t>P137</t>
+        </is>
+      </c>
+      <c r="E189" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IXEKIZUMAB PROVIDES GREATER CUMULA TIVE BENEFITS VERSUS USTEKINUMAB OVER 24 WEEKS FOR PATIENTS WITH MODERATE­TO­SEVERE PSORIASIS IN A RANDOMIZED, DOUBLE­BLIND PHASE 3B CLINICAL TRIAL </t>
+        </is>
+      </c>
+      <c r="F189" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">56Introduction:  Ixekizumab,	 a	 high-affinity	 monoclonal	 antibody	that selectively targets IL-17A, was shown to be superior to ustekinumab, an IL-12/23 inhibitor, with respect to skin clearance and quality of life up to 24 wks in patients with moderate-to-severe psoriasis in IXORA-S1.Objectives:  The  objective  of  this  analysis  was  to  compare  the cumulative	benefits	of	ixekizumab	versus	ustekinumab	at	12	and	24 weeks of treatment in IXORA-S, with respect to skin clearance, itching, health-related quality of life (HRQoL), and pain.Methods: In the IXORA-S trial, patients were randomized (1:1) to receive either IXE (160-mg starting dose, then 80-mg every 2 wks for 12 wks followed by 80-mg every 4 wks; n = 136) or UST (45–mg/90-mg weight-based dosing per label; n = 166) through 52 wks. Data at week 12 and week 24 were used in this post-hoc analysis.	At	wks	2,	4,	and	every	4	wks	thereafter,	clinical	benefits	were measured using percentage improvements in Psoriasis Area and Severity Index (PASI 75/90/100); the Itch Numeric Rating Scale (NRS; 0 = no itch, 10 = worst itch imaginable); and Skin Pain VAS (0 = no pain, 100 = maximum pain). Health-related quality of	life	(HRQoL)	benefit	was	measured	at	wks	2,	4,	12,	and	24	using the Dermatology Life Quality Index (DLQI) [DLQI score  =  0.1	 indicates	 no	 effect	 on	 patient’s	 life].	 Total	 benefits	 -	 PASI	75/90/100; itch NRS = 0; DLQI = 0.1; Pain VAS 0 – were used to determine the area-under-the-curve (AUC) of responders for each outcome at 12 and 24 weeks. Missing values were imputed using non-responder imputation (NRI). AUC results, capturing the rapid and sustained treatment response, were normalized as a percentage of	maximum	possible	(0–100%)	AUC.	The	clinical	benefit	ratios	between IXE vs UST were calculated for each outcome to show relative	cumulative	benefit.Results:  At	 12	 wks,	 the	 normalized	 cumulative	 clinical	 benefit	with IXE vs UST, respectively, was 58.2% and 32.9% (PASI75); 36.7% and 15.6% (PASI90); 14.2% and 4.0% (PASI100); 25.3% and 14.3% (itch); 36.0% and 23.7% (pain); and 44.9% and 25.2% (DLQI).	Cumulative	clinical	benefits	at	week	24	for	IXE	and	UST,	respectively, were 74.3% and 54.3% (PASI75), 58.1% and 32.3% (PASI90), 29.0% and 12.2% (PASI100); 33.5% and 22.1% (itch); 42.7% and 30.6% (pain); and 54.3% and 37.0% (DLQI). At 12 wks, clinical	benefit	ratios	(IXE/UST)	for	PASI	75/90/100	were	1.77,	2.36, and 3.52; 1.51 for pain; and 1.78 for both itch and DLQI. At 24 wks, the ratios were 1.37, 1.80, 2.38 (PASI 75/90/100), 1.52 (itch), 1.39 (pain) and 1.47 (DLQI).Conclusions: Cumulative	benefits	measured	by	PASI,	itch,	pain,	and DLQI responders were greater for IXE vs. UST following 12 and	24	wks	of	treatment.	Long-term	cumulative	benefits	will	be	addressed upon publication of Week 52 results from the IXORA-S trial.Reich K, et al. Br J Dermatol. 2017;177(4):1014-1023.Previously presented at AAD, San Diego, CA; February 16 – 20, 2018. </t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="inlineStr">
+        <is>
+          <t>Mark Lomaga</t>
+        </is>
+      </c>
+      <c r="B190" s="2" t="inlineStr">
+        <is>
+          <t>Oregon Medical Research Center, DermEdge Research, Eli Lilly and Company, University Hospital Frankfurt</t>
+        </is>
+      </c>
+      <c r="C190" s="2" t="inlineStr"/>
+      <c r="D190" s="2" t="inlineStr">
+        <is>
+          <t>P137</t>
+        </is>
+      </c>
+      <c r="E190" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IXEKIZUMAB PROVIDES GREATER CUMULA TIVE BENEFITS VERSUS USTEKINUMAB OVER 24 WEEKS FOR PATIENTS WITH MODERATE­TO­SEVERE PSORIASIS IN A RANDOMIZED, DOUBLE­BLIND PHASE 3B CLINICAL TRIAL </t>
+        </is>
+      </c>
+      <c r="F190" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">56Introduction:  Ixekizumab,	 a	 high-affinity	 monoclonal	 antibody	that selectively targets IL-17A, was shown to be superior to ustekinumab, an IL-12/23 inhibitor, with respect to skin clearance and quality of life up to 24 wks in patients with moderate-to-severe psoriasis in IXORA-S1.Objectives:  The  objective  of  this  analysis  was  to  compare  the cumulative	benefits	of	ixekizumab	versus	ustekinumab	at	12	and	24 weeks of treatment in IXORA-S, with respect to skin clearance, itching, health-related quality of life (HRQoL), and pain.Methods: In the IXORA-S trial, patients were randomized (1:1) to receive either IXE (160-mg starting dose, then 80-mg every 2 wks for 12 wks followed by 80-mg every 4 wks; n = 136) or UST (45–mg/90-mg weight-based dosing per label; n = 166) through 52 wks. Data at week 12 and week 24 were used in this post-hoc analysis.	At	wks	2,	4,	and	every	4	wks	thereafter,	clinical	benefits	were measured using percentage improvements in Psoriasis Area and Severity Index (PASI 75/90/100); the Itch Numeric Rating Scale (NRS; 0 = no itch, 10 = worst itch imaginable); and Skin Pain VAS (0 = no pain, 100 = maximum pain). Health-related quality of	life	(HRQoL)	benefit	was	measured	at	wks	2,	4,	12,	and	24	using the Dermatology Life Quality Index (DLQI) [DLQI score  =  0.1	 indicates	 no	 effect	 on	 patient’s	 life].	 Total	 benefits	 -	 PASI	75/90/100; itch NRS = 0; DLQI = 0.1; Pain VAS 0 – were used to determine the area-under-the-curve (AUC) of responders for each outcome at 12 and 24 weeks. Missing values were imputed using non-responder imputation (NRI). AUC results, capturing the rapid and sustained treatment response, were normalized as a percentage of	maximum	possible	(0–100%)	AUC.	The	clinical	benefit	ratios	between IXE vs UST were calculated for each outcome to show relative	cumulative	benefit.Results:  At	 12	 wks,	 the	 normalized	 cumulative	 clinical	 benefit	with IXE vs UST, respectively, was 58.2% and 32.9% (PASI75); 36.7% and 15.6% (PASI90); 14.2% and 4.0% (PASI100); 25.3% and 14.3% (itch); 36.0% and 23.7% (pain); and 44.9% and 25.2% (DLQI).	Cumulative	clinical	benefits	at	week	24	for	IXE	and	UST,	respectively, were 74.3% and 54.3% (PASI75), 58.1% and 32.3% (PASI90), 29.0% and 12.2% (PASI100); 33.5% and 22.1% (itch); 42.7% and 30.6% (pain); and 54.3% and 37.0% (DLQI). At 12 wks, clinical	benefit	ratios	(IXE/UST)	for	PASI	75/90/100	were	1.77,	2.36, and 3.52; 1.51 for pain; and 1.78 for both itch and DLQI. At 24 wks, the ratios were 1.37, 1.80, 2.38 (PASI 75/90/100), 1.52 (itch), 1.39 (pain) and 1.47 (DLQI).Conclusions: Cumulative	benefits	measured	by	PASI,	itch,	pain,	and DLQI responders were greater for IXE vs. UST following 12 and	24	wks	of	treatment.	Long-term	cumulative	benefits	will	be	addressed upon publication of Week 52 results from the IXORA-S trial.Reich K, et al. Br J Dermatol. 2017;177(4):1014-1023.Previously presented at AAD, San Diego, CA; February 16 – 20, 2018. </t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="inlineStr">
+        <is>
+          <t>Russel Burge</t>
+        </is>
+      </c>
+      <c r="B191" s="2" t="inlineStr">
+        <is>
+          <t>Oregon Medical Research Center, DermEdge Research, Eli Lilly and Company, University Hospital Frankfurt</t>
+        </is>
+      </c>
+      <c r="C191" s="2" t="inlineStr"/>
+      <c r="D191" s="2" t="inlineStr">
+        <is>
+          <t>P137</t>
+        </is>
+      </c>
+      <c r="E191" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IXEKIZUMAB PROVIDES GREATER CUMULA TIVE BENEFITS VERSUS USTEKINUMAB OVER 24 WEEKS FOR PATIENTS WITH MODERATE­TO­SEVERE PSORIASIS IN A RANDOMIZED, DOUBLE­BLIND PHASE 3B CLINICAL TRIAL </t>
+        </is>
+      </c>
+      <c r="F191" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">56Introduction:  Ixekizumab,	 a	 high-affinity	 monoclonal	 antibody	that selectively targets IL-17A, was shown to be superior to ustekinumab, an IL-12/23 inhibitor, with respect to skin clearance and quality of life up to 24 wks in patients with moderate-to-severe psoriasis in IXORA-S1.Objectives:  The  objective  of  this  analysis  was  to  compare  the cumulative	benefits	of	ixekizumab	versus	ustekinumab	at	12	and	24 weeks of treatment in IXORA-S, with respect to skin clearance, itching, health-related quality of life (HRQoL), and pain.Methods: In the IXORA-S trial, patients were randomized (1:1) to receive either IXE (160-mg starting dose, then 80-mg every 2 wks for 12 wks followed by 80-mg every 4 wks; n = 136) or UST (45–mg/90-mg weight-based dosing per label; n = 166) through 52 wks. Data at week 12 and week 24 were used in this post-hoc analysis.	At	wks	2,	4,	and	every	4	wks	thereafter,	clinical	benefits	were measured using percentage improvements in Psoriasis Area and Severity Index (PASI 75/90/100); the Itch Numeric Rating Scale (NRS; 0 = no itch, 10 = worst itch imaginable); and Skin Pain VAS (0 = no pain, 100 = maximum pain). Health-related quality of	life	(HRQoL)	benefit	was	measured	at	wks	2,	4,	12,	and	24	using the Dermatology Life Quality Index (DLQI) [DLQI score  =  0.1	 indicates	 no	 effect	 on	 patient’s	 life].	 Total	 benefits	 -	 PASI	75/90/100; itch NRS = 0; DLQI = 0.1; Pain VAS 0 – were used to determine the area-under-the-curve (AUC) of responders for each outcome at 12 and 24 weeks. Missing values were imputed using non-responder imputation (NRI). AUC results, capturing the rapid and sustained treatment response, were normalized as a percentage of	maximum	possible	(0–100%)	AUC.	The	clinical	benefit	ratios	between IXE vs UST were calculated for each outcome to show relative	cumulative	benefit.Results:  At	 12	 wks,	 the	 normalized	 cumulative	 clinical	 benefit	with IXE vs UST, respectively, was 58.2% and 32.9% (PASI75); 36.7% and 15.6% (PASI90); 14.2% and 4.0% (PASI100); 25.3% and 14.3% (itch); 36.0% and 23.7% (pain); and 44.9% and 25.2% (DLQI).	Cumulative	clinical	benefits	at	week	24	for	IXE	and	UST,	respectively, were 74.3% and 54.3% (PASI75), 58.1% and 32.3% (PASI90), 29.0% and 12.2% (PASI100); 33.5% and 22.1% (itch); 42.7% and 30.6% (pain); and 54.3% and 37.0% (DLQI). At 12 wks, clinical	benefit	ratios	(IXE/UST)	for	PASI	75/90/100	were	1.77,	2.36, and 3.52; 1.51 for pain; and 1.78 for both itch and DLQI. At 24 wks, the ratios were 1.37, 1.80, 2.38 (PASI 75/90/100), 1.52 (itch), 1.39 (pain) and 1.47 (DLQI).Conclusions: Cumulative	benefits	measured	by	PASI,	itch,	pain,	and DLQI responders were greater for IXE vs. UST following 12 and	24	wks	of	treatment.	Long-term	cumulative	benefits	will	be	addressed upon publication of Week 52 results from the IXORA-S trial.Reich K, et al. Br J Dermatol. 2017;177(4):1014-1023.Previously presented at AAD, San Diego, CA; February 16 – 20, 2018. </t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="inlineStr">
+        <is>
+          <t>Baojin Zhu</t>
+        </is>
+      </c>
+      <c r="B192" s="2" t="inlineStr">
+        <is>
+          <t>Oregon Medical Research Center, DermEdge Research, Eli Lilly and Company, University Hospital Frankfurt</t>
+        </is>
+      </c>
+      <c r="C192" s="2" t="inlineStr"/>
+      <c r="D192" s="2" t="inlineStr">
+        <is>
+          <t>P137</t>
+        </is>
+      </c>
+      <c r="E192" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IXEKIZUMAB PROVIDES GREATER CUMULA TIVE BENEFITS VERSUS USTEKINUMAB OVER 24 WEEKS FOR PATIENTS WITH MODERATE­TO­SEVERE PSORIASIS IN A RANDOMIZED, DOUBLE­BLIND PHASE 3B CLINICAL TRIAL </t>
+        </is>
+      </c>
+      <c r="F192" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">56Introduction:  Ixekizumab,	 a	 high-affinity	 monoclonal	 antibody	that selectively targets IL-17A, was shown to be superior to ustekinumab, an IL-12/23 inhibitor, with respect to skin clearance and quality of life up to 24 wks in patients with moderate-to-severe psoriasis in IXORA-S1.Objectives:  The  objective  of  this  analysis  was  to  compare  the cumulative	benefits	of	ixekizumab	versus	ustekinumab	at	12	and	24 weeks of treatment in IXORA-S, with respect to skin clearance, itching, health-related quality of life (HRQoL), and pain.Methods: In the IXORA-S trial, patients were randomized (1:1) to receive either IXE (160-mg starting dose, then 80-mg every 2 wks for 12 wks followed by 80-mg every 4 wks; n = 136) or UST (45–mg/90-mg weight-based dosing per label; n = 166) through 52 wks. Data at week 12 and week 24 were used in this post-hoc analysis.	At	wks	2,	4,	and	every	4	wks	thereafter,	clinical	benefits	were measured using percentage improvements in Psoriasis Area and Severity Index (PASI 75/90/100); the Itch Numeric Rating Scale (NRS; 0 = no itch, 10 = worst itch imaginable); and Skin Pain VAS (0 = no pain, 100 = maximum pain). Health-related quality of	life	(HRQoL)	benefit	was	measured	at	wks	2,	4,	12,	and	24	using the Dermatology Life Quality Index (DLQI) [DLQI score  =  0.1	 indicates	 no	 effect	 on	 patient’s	 life].	 Total	 benefits	 -	 PASI	75/90/100; itch NRS = 0; DLQI = 0.1; Pain VAS 0 – were used to determine the area-under-the-curve (AUC) of responders for each outcome at 12 and 24 weeks. Missing values were imputed using non-responder imputation (NRI). AUC results, capturing the rapid and sustained treatment response, were normalized as a percentage of	maximum	possible	(0–100%)	AUC.	The	clinical	benefit	ratios	between IXE vs UST were calculated for each outcome to show relative	cumulative	benefit.Results:  At	 12	 wks,	 the	 normalized	 cumulative	 clinical	 benefit	with IXE vs UST, respectively, was 58.2% and 32.9% (PASI75); 36.7% and 15.6% (PASI90); 14.2% and 4.0% (PASI100); 25.3% and 14.3% (itch); 36.0% and 23.7% (pain); and 44.9% and 25.2% (DLQI).	Cumulative	clinical	benefits	at	week	24	for	IXE	and	UST,	respectively, were 74.3% and 54.3% (PASI75), 58.1% and 32.3% (PASI90), 29.0% and 12.2% (PASI100); 33.5% and 22.1% (itch); 42.7% and 30.6% (pain); and 54.3% and 37.0% (DLQI). At 12 wks, clinical	benefit	ratios	(IXE/UST)	for	PASI	75/90/100	were	1.77,	2.36, and 3.52; 1.51 for pain; and 1.78 for both itch and DLQI. At 24 wks, the ratios were 1.37, 1.80, 2.38 (PASI 75/90/100), 1.52 (itch), 1.39 (pain) and 1.47 (DLQI).Conclusions: Cumulative	benefits	measured	by	PASI,	itch,	pain,	and DLQI responders were greater for IXE vs. UST following 12 and	24	wks	of	treatment.	Long-term	cumulative	benefits	will	be	addressed upon publication of Week 52 results from the IXORA-S trial.Reich K, et al. Br J Dermatol. 2017;177(4):1014-1023.Previously presented at AAD, San Diego, CA; February 16 – 20, 2018. </t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="inlineStr">
+        <is>
+          <t>Carsten Henneges</t>
+        </is>
+      </c>
+      <c r="B193" s="2" t="inlineStr">
+        <is>
+          <t>Oregon Medical Research Center, DermEdge Research, Eli Lilly and Company, University Hospital Frankfurt</t>
+        </is>
+      </c>
+      <c r="C193" s="2" t="inlineStr"/>
+      <c r="D193" s="2" t="inlineStr">
+        <is>
+          <t>P137</t>
+        </is>
+      </c>
+      <c r="E193" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IXEKIZUMAB PROVIDES GREATER CUMULA TIVE BENEFITS VERSUS USTEKINUMAB OVER 24 WEEKS FOR PATIENTS WITH MODERATE­TO­SEVERE PSORIASIS IN A RANDOMIZED, DOUBLE­BLIND PHASE 3B CLINICAL TRIAL </t>
+        </is>
+      </c>
+      <c r="F193" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">56Introduction:  Ixekizumab,	 a	 high-affinity	 monoclonal	 antibody	that selectively targets IL-17A, was shown to be superior to ustekinumab, an IL-12/23 inhibitor, with respect to skin clearance and quality of life up to 24 wks in patients with moderate-to-severe psoriasis in IXORA-S1.Objectives:  The  objective  of  this  analysis  was  to  compare  the cumulative	benefits	of	ixekizumab	versus	ustekinumab	at	12	and	24 weeks of treatment in IXORA-S, with respect to skin clearance, itching, health-related quality of life (HRQoL), and pain.Methods: In the IXORA-S trial, patients were randomized (1:1) to receive either IXE (160-mg starting dose, then 80-mg every 2 wks for 12 wks followed by 80-mg every 4 wks; n = 136) or UST (45–mg/90-mg weight-based dosing per label; n = 166) through 52 wks. Data at week 12 and week 24 were used in this post-hoc analysis.	At	wks	2,	4,	and	every	4	wks	thereafter,	clinical	benefits	were measured using percentage improvements in Psoriasis Area and Severity Index (PASI 75/90/100); the Itch Numeric Rating Scale (NRS; 0 = no itch, 10 = worst itch imaginable); and Skin Pain VAS (0 = no pain, 100 = maximum pain). Health-related quality of	life	(HRQoL)	benefit	was	measured	at	wks	2,	4,	12,	and	24	using the Dermatology Life Quality Index (DLQI) [DLQI score  =  0.1	 indicates	 no	 effect	 on	 patient’s	 life].	 Total	 benefits	 -	 PASI	75/90/100; itch NRS = 0; DLQI = 0.1; Pain VAS 0 – were used to determine the area-under-the-curve (AUC) of responders for each outcome at 12 and 24 weeks. Missing values were imputed using non-responder imputation (NRI). AUC results, capturing the rapid and sustained treatment response, were normalized as a percentage of	maximum	possible	(0–100%)	AUC.	The	clinical	benefit	ratios	between IXE vs UST were calculated for each outcome to show relative	cumulative	benefit.Results:  At	 12	 wks,	 the	 normalized	 cumulative	 clinical	 benefit	with IXE vs UST, respectively, was 58.2% and 32.9% (PASI75); 36.7% and 15.6% (PASI90); 14.2% and 4.0% (PASI100); 25.3% and 14.3% (itch); 36.0% and 23.7% (pain); and 44.9% and 25.2% (DLQI).	Cumulative	clinical	benefits	at	week	24	for	IXE	and	UST,	respectively, were 74.3% and 54.3% (PASI75), 58.1% and 32.3% (PASI90), 29.0% and 12.2% (PASI100); 33.5% and 22.1% (itch); 42.7% and 30.6% (pain); and 54.3% and 37.0% (DLQI). At 12 wks, clinical	benefit	ratios	(IXE/UST)	for	PASI	75/90/100	were	1.77,	2.36, and 3.52; 1.51 for pain; and 1.78 for both itch and DLQI. At 24 wks, the ratios were 1.37, 1.80, 2.38 (PASI 75/90/100), 1.52 (itch), 1.39 (pain) and 1.47 (DLQI).Conclusions: Cumulative	benefits	measured	by	PASI,	itch,	pain,	and DLQI responders were greater for IXE vs. UST following 12 and	24	wks	of	treatment.	Long-term	cumulative	benefits	will	be	addressed upon publication of Week 52 results from the IXORA-S trial.Reich K, et al. Br J Dermatol. 2017;177(4):1014-1023.Previously presented at AAD, San Diego, CA; February 16 – 20, 2018. </t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="inlineStr">
+        <is>
+          <t>Wei Shen</t>
+        </is>
+      </c>
+      <c r="B194" s="2" t="inlineStr">
+        <is>
+          <t>Oregon Medical Research Center, DermEdge Research, Eli Lilly and Company, University Hospital Frankfurt</t>
+        </is>
+      </c>
+      <c r="C194" s="2" t="inlineStr"/>
+      <c r="D194" s="2" t="inlineStr">
+        <is>
+          <t>P137</t>
+        </is>
+      </c>
+      <c r="E194" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IXEKIZUMAB PROVIDES GREATER CUMULA TIVE BENEFITS VERSUS USTEKINUMAB OVER 24 WEEKS FOR PATIENTS WITH MODERATE­TO­SEVERE PSORIASIS IN A RANDOMIZED, DOUBLE­BLIND PHASE 3B CLINICAL TRIAL </t>
+        </is>
+      </c>
+      <c r="F194" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">56Introduction:  Ixekizumab,	 a	 high-affinity	 monoclonal	 antibody	that selectively targets IL-17A, was shown to be superior to ustekinumab, an IL-12/23 inhibitor, with respect to skin clearance and quality of life up to 24 wks in patients with moderate-to-severe psoriasis in IXORA-S1.Objectives:  The  objective  of  this  analysis  was  to  compare  the cumulative	benefits	of	ixekizumab	versus	ustekinumab	at	12	and	24 weeks of treatment in IXORA-S, with respect to skin clearance, itching, health-related quality of life (HRQoL), and pain.Methods: In the IXORA-S trial, patients were randomized (1:1) to receive either IXE (160-mg starting dose, then 80-mg every 2 wks for 12 wks followed by 80-mg every 4 wks; n = 136) or UST (45–mg/90-mg weight-based dosing per label; n = 166) through 52 wks. Data at week 12 and week 24 were used in this post-hoc analysis.	At	wks	2,	4,	and	every	4	wks	thereafter,	clinical	benefits	were measured using percentage improvements in Psoriasis Area and Severity Index (PASI 75/90/100); the Itch Numeric Rating Scale (NRS; 0 = no itch, 10 = worst itch imaginable); and Skin Pain VAS (0 = no pain, 100 = maximum pain). Health-related quality of	life	(HRQoL)	benefit	was	measured	at	wks	2,	4,	12,	and	24	using the Dermatology Life Quality Index (DLQI) [DLQI score  =  0.1	 indicates	 no	 effect	 on	 patient’s	 life].	 Total	 benefits	 -	 PASI	75/90/100; itch NRS = 0; DLQI = 0.1; Pain VAS 0 – were used to determine the area-under-the-curve (AUC) of responders for each outcome at 12 and 24 weeks. Missing values were imputed using non-responder imputation (NRI). AUC results, capturing the rapid and sustained treatment response, were normalized as a percentage of	maximum	possible	(0–100%)	AUC.	The	clinical	benefit	ratios	between IXE vs UST were calculated for each outcome to show relative	cumulative	benefit.Results:  At	 12	 wks,	 the	 normalized	 cumulative	 clinical	 benefit	with IXE vs UST, respectively, was 58.2% and 32.9% (PASI75); 36.7% and 15.6% (PASI90); 14.2% and 4.0% (PASI100); 25.3% and 14.3% (itch); 36.0% and 23.7% (pain); and 44.9% and 25.2% (DLQI).	Cumulative	clinical	benefits	at	week	24	for	IXE	and	UST,	respectively, were 74.3% and 54.3% (PASI75), 58.1% and 32.3% (PASI90), 29.0% and 12.2% (PASI100); 33.5% and 22.1% (itch); 42.7% and 30.6% (pain); and 54.3% and 37.0% (DLQI). At 12 wks, clinical	benefit	ratios	(IXE/UST)	for	PASI	75/90/100	were	1.77,	2.36, and 3.52; 1.51 for pain; and 1.78 for both itch and DLQI. At 24 wks, the ratios were 1.37, 1.80, 2.38 (PASI 75/90/100), 1.52 (itch), 1.39 (pain) and 1.47 (DLQI).Conclusions: Cumulative	benefits	measured	by	PASI,	itch,	pain,	and DLQI responders were greater for IXE vs. UST following 12 and	24	wks	of	treatment.	Long-term	cumulative	benefits	will	be	addressed upon publication of Week 52 results from the IXORA-S trial.Reich K, et al. Br J Dermatol. 2017;177(4):1014-1023.Previously presented at AAD, San Diego, CA; February 16 – 20, 2018. </t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="inlineStr">
+        <is>
+          <t>David Shrom</t>
+        </is>
+      </c>
+      <c r="B195" s="2" t="inlineStr">
+        <is>
+          <t>Oregon Medical Research Center, DermEdge Research, Eli Lilly and Company, University Hospital Frankfurt</t>
+        </is>
+      </c>
+      <c r="C195" s="2" t="inlineStr"/>
+      <c r="D195" s="2" t="inlineStr">
+        <is>
+          <t>P137</t>
+        </is>
+      </c>
+      <c r="E195" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IXEKIZUMAB PROVIDES GREATER CUMULA TIVE BENEFITS VERSUS USTEKINUMAB OVER 24 WEEKS FOR PATIENTS WITH MODERATE­TO­SEVERE PSORIASIS IN A RANDOMIZED, DOUBLE­BLIND PHASE 3B CLINICAL TRIAL </t>
+        </is>
+      </c>
+      <c r="F195" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">56Introduction:  Ixekizumab,	 a	 high-affinity	 monoclonal	 antibody	that selectively targets IL-17A, was shown to be superior to ustekinumab, an IL-12/23 inhibitor, with respect to skin clearance and quality of life up to 24 wks in patients with moderate-to-severe psoriasis in IXORA-S1.Objectives:  The  objective  of  this  analysis  was  to  compare  the cumulative	benefits	of	ixekizumab	versus	ustekinumab	at	12	and	24 weeks of treatment in IXORA-S, with respect to skin clearance, itching, health-related quality of life (HRQoL), and pain.Methods: In the IXORA-S trial, patients were randomized (1:1) to receive either IXE (160-mg starting dose, then 80-mg every 2 wks for 12 wks followed by 80-mg every 4 wks; n = 136) or UST (45–mg/90-mg weight-based dosing per label; n = 166) through 52 wks. Data at week 12 and week 24 were used in this post-hoc analysis.	At	wks	2,	4,	and	every	4	wks	thereafter,	clinical	benefits	were measured using percentage improvements in Psoriasis Area and Severity Index (PASI 75/90/100); the Itch Numeric Rating Scale (NRS; 0 = no itch, 10 = worst itch imaginable); and Skin Pain VAS (0 = no pain, 100 = maximum pain). Health-related quality of	life	(HRQoL)	benefit	was	measured	at	wks	2,	4,	12,	and	24	using the Dermatology Life Quality Index (DLQI) [DLQI score  =  0.1	 indicates	 no	 effect	 on	 patient’s	 life].	 Total	 benefits	 -	 PASI	75/90/100; itch NRS = 0; DLQI = 0.1; Pain VAS 0 – were used to determine the area-under-the-curve (AUC) of responders for each outcome at 12 and 24 weeks. Missing values were imputed using non-responder imputation (NRI). AUC results, capturing the rapid and sustained treatment response, were normalized as a percentage of	maximum	possible	(0–100%)	AUC.	The	clinical	benefit	ratios	between IXE vs UST were calculated for each outcome to show relative	cumulative	benefit.Results:  At	 12	 wks,	 the	 normalized	 cumulative	 clinical	 benefit	with IXE vs UST, respectively, was 58.2% and 32.9% (PASI75); 36.7% and 15.6% (PASI90); 14.2% and 4.0% (PASI100); 25.3% and 14.3% (itch); 36.0% and 23.7% (pain); and 44.9% and 25.2% (DLQI).	Cumulative	clinical	benefits	at	week	24	for	IXE	and	UST,	respectively, were 74.3% and 54.3% (PASI75), 58.1% and 32.3% (PASI90), 29.0% and 12.2% (PASI100); 33.5% and 22.1% (itch); 42.7% and 30.6% (pain); and 54.3% and 37.0% (DLQI). At 12 wks, clinical	benefit	ratios	(IXE/UST)	for	PASI	75/90/100	were	1.77,	2.36, and 3.52; 1.51 for pain; and 1.78 for both itch and DLQI. At 24 wks, the ratios were 1.37, 1.80, 2.38 (PASI 75/90/100), 1.52 (itch), 1.39 (pain) and 1.47 (DLQI).Conclusions: Cumulative	benefits	measured	by	PASI,	itch,	pain,	and DLQI responders were greater for IXE vs. UST following 12 and	24	wks	of	treatment.	Long-term	cumulative	benefits	will	be	addressed upon publication of Week 52 results from the IXORA-S trial.Reich K, et al. Br J Dermatol. 2017;177(4):1014-1023.Previously presented at AAD, San Diego, CA; February 16 – 20, 2018. </t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="inlineStr">
+        <is>
+          <t>Martin Dossen-bach</t>
+        </is>
+      </c>
+      <c r="B196" s="2" t="inlineStr">
+        <is>
+          <t>Oregon Medical Research Center, DermEdge Research, Eli Lilly and Company, University Hospital Frankfurt</t>
+        </is>
+      </c>
+      <c r="C196" s="2" t="inlineStr"/>
+      <c r="D196" s="2" t="inlineStr">
+        <is>
+          <t>P137</t>
+        </is>
+      </c>
+      <c r="E196" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IXEKIZUMAB PROVIDES GREATER CUMULA TIVE BENEFITS VERSUS USTEKINUMAB OVER 24 WEEKS FOR PATIENTS WITH MODERATE­TO­SEVERE PSORIASIS IN A RANDOMIZED, DOUBLE­BLIND PHASE 3B CLINICAL TRIAL </t>
+        </is>
+      </c>
+      <c r="F196" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">56Introduction:  Ixekizumab,	 a	 high-affinity	 monoclonal	 antibody	that selectively targets IL-17A, was shown to be superior to ustekinumab, an IL-12/23 inhibitor, with respect to skin clearance and quality of life up to 24 wks in patients with moderate-to-severe psoriasis in IXORA-S1.Objectives:  The  objective  of  this  analysis  was  to  compare  the cumulative	benefits	of	ixekizumab	versus	ustekinumab	at	12	and	24 weeks of treatment in IXORA-S, with respect to skin clearance, itching, health-related quality of life (HRQoL), and pain.Methods: In the IXORA-S trial, patients were randomized (1:1) to receive either IXE (160-mg starting dose, then 80-mg every 2 wks for 12 wks followed by 80-mg every 4 wks; n = 136) or UST (45–mg/90-mg weight-based dosing per label; n = 166) through 52 wks. Data at week 12 and week 24 were used in this post-hoc analysis.	At	wks	2,	4,	and	every	4	wks	thereafter,	clinical	benefits	were measured using percentage improvements in Psoriasis Area and Severity Index (PASI 75/90/100); the Itch Numeric Rating Scale (NRS; 0 = no itch, 10 = worst itch imaginable); and Skin Pain VAS (0 = no pain, 100 = maximum pain). Health-related quality of	life	(HRQoL)	benefit	was	measured	at	wks	2,	4,	12,	and	24	using the Dermatology Life Quality Index (DLQI) [DLQI score  =  0.1	 indicates	 no	 effect	 on	 patient’s	 life].	 Total	 benefits	 -	 PASI	75/90/100; itch NRS = 0; DLQI = 0.1; Pain VAS 0 – were used to determine the area-under-the-curve (AUC) of responders for each outcome at 12 and 24 weeks. Missing values were imputed using non-responder imputation (NRI). AUC results, capturing the rapid and sustained treatment response, were normalized as a percentage of	maximum	possible	(0–100%)	AUC.	The	clinical	benefit	ratios	between IXE vs UST were calculated for each outcome to show relative	cumulative	benefit.Results:  At	 12	 wks,	 the	 normalized	 cumulative	 clinical	 benefit	with IXE vs UST, respectively, was 58.2% and 32.9% (PASI75); 36.7% and 15.6% (PASI90); 14.2% and 4.0% (PASI100); 25.3% and 14.3% (itch); 36.0% and 23.7% (pain); and 44.9% and 25.2% (DLQI).	Cumulative	clinical	benefits	at	week	24	for	IXE	and	UST,	respectively, were 74.3% and 54.3% (PASI75), 58.1% and 32.3% (PASI90), 29.0% and 12.2% (PASI100); 33.5% and 22.1% (itch); 42.7% and 30.6% (pain); and 54.3% and 37.0% (DLQI). At 12 wks, clinical	benefit	ratios	(IXE/UST)	for	PASI	75/90/100	were	1.77,	2.36, and 3.52; 1.51 for pain; and 1.78 for both itch and DLQI. At 24 wks, the ratios were 1.37, 1.80, 2.38 (PASI 75/90/100), 1.52 (itch), 1.39 (pain) and 1.47 (DLQI).Conclusions: Cumulative	benefits	measured	by	PASI,	itch,	pain,	and DLQI responders were greater for IXE vs. UST following 12 and	24	wks	of	treatment.	Long-term	cumulative	benefits	will	be	addressed upon publication of Week 52 results from the IXORA-S trial.Reich K, et al. Br J Dermatol. 2017;177(4):1014-1023.Previously presented at AAD, San Diego, CA; February 16 – 20, 2018. </t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="inlineStr">
+        <is>
+          <t>Andreas Pinter</t>
+        </is>
+      </c>
+      <c r="B197" s="2" t="inlineStr">
+        <is>
+          <t>Oregon Medical Research Center, DermEdge Research, Eli Lilly and Company, University Hospital Frankfurt</t>
+        </is>
+      </c>
+      <c r="C197" s="2" t="inlineStr"/>
+      <c r="D197" s="2" t="inlineStr">
+        <is>
+          <t>P137</t>
+        </is>
+      </c>
+      <c r="E197" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IXEKIZUMAB PROVIDES GREATER CUMULA TIVE BENEFITS VERSUS USTEKINUMAB OVER 24 WEEKS FOR PATIENTS WITH MODERATE­TO­SEVERE PSORIASIS IN A RANDOMIZED, DOUBLE­BLIND PHASE 3B CLINICAL TRIAL </t>
+        </is>
+      </c>
+      <c r="F197" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">56Introduction:  Ixekizumab,	 a	 high-affinity	 monoclonal	 antibody	that selectively targets IL-17A, was shown to be superior to ustekinumab, an IL-12/23 inhibitor, with respect to skin clearance and quality of life up to 24 wks in patients with moderate-to-severe psoriasis in IXORA-S1.Objectives:  The  objective  of  this  analysis  was  to  compare  the cumulative	benefits	of	ixekizumab	versus	ustekinumab	at	12	and	24 weeks of treatment in IXORA-S, with respect to skin clearance, itching, health-related quality of life (HRQoL), and pain.Methods: In the IXORA-S trial, patients were randomized (1:1) to receive either IXE (160-mg starting dose, then 80-mg every 2 wks for 12 wks followed by 80-mg every 4 wks; n = 136) or UST (45–mg/90-mg weight-based dosing per label; n = 166) through 52 wks. Data at week 12 and week 24 were used in this post-hoc analysis.	At	wks	2,	4,	and	every	4	wks	thereafter,	clinical	benefits	were measured using percentage improvements in Psoriasis Area and Severity Index (PASI 75/90/100); the Itch Numeric Rating Scale (NRS; 0 = no itch, 10 = worst itch imaginable); and Skin Pain VAS (0 = no pain, 100 = maximum pain). Health-related quality of	life	(HRQoL)	benefit	was	measured	at	wks	2,	4,	12,	and	24	using the Dermatology Life Quality Index (DLQI) [DLQI score  =  0.1	 indicates	 no	 effect	 on	 patient’s	 life].	 Total	 benefits	 -	 PASI	75/90/100; itch NRS = 0; DLQI = 0.1; Pain VAS 0 – were used to determine the area-under-the-curve (AUC) of responders for each outcome at 12 and 24 weeks. Missing values were imputed using non-responder imputation (NRI). AUC results, capturing the rapid and sustained treatment response, were normalized as a percentage of	maximum	possible	(0–100%)	AUC.	The	clinical	benefit	ratios	between IXE vs UST were calculated for each outcome to show relative	cumulative	benefit.Results:  At	 12	 wks,	 the	 normalized	 cumulative	 clinical	 benefit	with IXE vs UST, respectively, was 58.2% and 32.9% (PASI75); 36.7% and 15.6% (PASI90); 14.2% and 4.0% (PASI100); 25.3% and 14.3% (itch); 36.0% and 23.7% (pain); and 44.9% and 25.2% (DLQI).	Cumulative	clinical	benefits	at	week	24	for	IXE	and	UST,	respectively, were 74.3% and 54.3% (PASI75), 58.1% and 32.3% (PASI90), 29.0% and 12.2% (PASI100); 33.5% and 22.1% (itch); 42.7% and 30.6% (pain); and 54.3% and 37.0% (DLQI). At 12 wks, clinical	benefit	ratios	(IXE/UST)	for	PASI	75/90/100	were	1.77,	2.36, and 3.52; 1.51 for pain; and 1.78 for both itch and DLQI. At 24 wks, the ratios were 1.37, 1.80, 2.38 (PASI 75/90/100), 1.52 (itch), 1.39 (pain) and 1.47 (DLQI).Conclusions: Cumulative	benefits	measured	by	PASI,	itch,	pain,	and DLQI responders were greater for IXE vs. UST following 12 and	24	wks	of	treatment.	Long-term	cumulative	benefits	will	be	addressed upon publication of Week 52 results from the IXORA-S trial.Reich K, et al. Br J Dermatol. 2017;177(4):1014-1023.Previously presented at AAD, San Diego, CA; February 16 – 20, 2018. </t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="inlineStr">
+        <is>
+          <t>Nicolai Böhme</t>
+        </is>
+      </c>
+      <c r="B198" s="2" t="inlineStr">
+        <is>
+          <t>Healthcare at Home Deutschland GmbH, Weinheim, Rheumapraxis, Lud-wigslust, Rheumapraxis Ruhr, Herne, Rheumatologie in Neuss, Neuss, Rheumatologikum Hannover, Hannover, UCB Pharma GmbH</t>
+        </is>
+      </c>
+      <c r="C198" s="2" t="inlineStr">
+        <is>
+          <t>Monheim am Rhein, Germany</t>
+        </is>
+      </c>
+      <c r="D198" s="2" t="inlineStr">
+        <is>
+          <t>P138</t>
+        </is>
+      </c>
+      <c r="E198" s="2" t="inlineStr">
+        <is>
+          <t>COACH@HOME: A SUPPORT PROGRAM FOR PATIENTS TREATED WITH CERTOLIZUMAB PEGOL</t>
+        </is>
+      </c>
+      <c r="F198" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Introduction: Coach@home (c@h) is a German support program for certolizumab pegol (CZP)-treated patients (pts) with rheumatic diseases, including psoriatic arthritis (PsA). Eight coaching calls are offered over one year, scheduled around critical milestones on the therapeutic journey. These are made by trained nurses, who offer support and information about both the pt’s disease and its treatment with CZP.Objectives: To assess the baseline characteristics of PsA pts subscribed to c@h, and the level of pt satisfaction with the program across indications (Sep 2017 data cut).Methods: c@h was launched in Jun 2014, and is available to pts who are prescribed CZP according to the local product label. Pts must	be	CZP-naïve	when	subscribed	to	the	program,	and	pt	consent	is required prior to subscription by the treating physician. There are no additional criteria for enrolment, although the program must be recommended to the pt by the treating physician. Pt satisfaction across indications (PsA, rheumatoid arthritis and axial spondyloarthritis) was measured at program completion or discontinuation using the net promoter score (NPS), which has previously been used for this purpose.1 The NPS is derived by asking pts to state the likelihood that they would recommend c@h to others (on a 0–10 scale). Rankings of 9–10 are considered ‘promoters’, 7–8 ‘passives’,  and  0–6  ‘detractors’.  Subtracting  the  percentage  of detractors from that of promoters yields the NPS.Results: A cumulative total of 136 PsA pts had been registered to c@h by Sep 2017. Mean age at baseline was 52 years; the majority were female (69%). Prior biological DMARD exposure was 24%. The most common topics discussed on calls were treatment adherence (290 calls), CZP maintenance dose (284 calls) and syringe disposal  (201  calls). The  average  length  per  call  was  15.7  min (SD: 5.33) at the end of Week 0 (total: 135 calls), and 14.6 min (SD: 6.59) at the end of Week 52 (45 calls).Across indications, a cumulative total of 272/655 pts had either completed the coaching period (n = 70) or discontinued (n = 202) by 28 Sep 2017, of whom 106 rated the program. Of these, 87.5% gave promoter scores, 10.4% passive, and 3.8% detractor, yielding an NPS of 83.7. The program was still ongoing at the time of this data cut.Conclusions: c@h offers support and guidance to CZP-treated pts in Germany. Feedback from pts willing to provide a rating (39%) indicates a high level of satisfaction with the program.1. Hamilton DF. Bone Joint J 2014;96-B(5):622–8.Acknowledgements: c@h is performed by Healthcare@home Deutschland GmbH, funded by UCB Pharma, led by Elke Zeise and managed by Karen Thiel and Manh Dan Nguyen. We thank the patients and their caregivers in addition to the investigators and their teams who contributed to this program. Editorial services were provided by Costello Medical. </t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="inlineStr">
+        <is>
+          <t>Ann-Dörthe Holst</t>
+        </is>
+      </c>
+      <c r="B199" s="2" t="inlineStr">
+        <is>
+          <t>Healthcare at Home Deutschland GmbH, Weinheim, Rheumapraxis, Lud-wigslust, Rheumapraxis Ruhr, Herne, Rheumatologie in Neuss, Neuss, Rheumatologikum Hannover, Hannover, UCB Pharma GmbH</t>
+        </is>
+      </c>
+      <c r="C199" s="2" t="inlineStr">
+        <is>
+          <t>Monheim am Rhein, Germany</t>
+        </is>
+      </c>
+      <c r="D199" s="2" t="inlineStr">
+        <is>
+          <t>P138</t>
+        </is>
+      </c>
+      <c r="E199" s="2" t="inlineStr">
+        <is>
+          <t>COACH@HOME: A SUPPORT PROGRAM FOR PATIENTS TREATED WITH CERTOLIZUMAB PEGOL</t>
+        </is>
+      </c>
+      <c r="F199" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Introduction: Coach@home (c@h) is a German support program for certolizumab pegol (CZP)-treated patients (pts) with rheumatic diseases, including psoriatic arthritis (PsA). Eight coaching calls are offered over one year, scheduled around critical milestones on the therapeutic journey. These are made by trained nurses, who offer support and information about both the pt’s disease and its treatment with CZP.Objectives: To assess the baseline characteristics of PsA pts subscribed to c@h, and the level of pt satisfaction with the program across indications (Sep 2017 data cut).Methods: c@h was launched in Jun 2014, and is available to pts who are prescribed CZP according to the local product label. Pts must	be	CZP-naïve	when	subscribed	to	the	program,	and	pt	consent	is required prior to subscription by the treating physician. There are no additional criteria for enrolment, although the program must be recommended to the pt by the treating physician. Pt satisfaction across indications (PsA, rheumatoid arthritis and axial spondyloarthritis) was measured at program completion or discontinuation using the net promoter score (NPS), which has previously been used for this purpose.1 The NPS is derived by asking pts to state the likelihood that they would recommend c@h to others (on a 0–10 scale). Rankings of 9–10 are considered ‘promoters’, 7–8 ‘passives’,  and  0–6  ‘detractors’.  Subtracting  the  percentage  of detractors from that of promoters yields the NPS.Results: A cumulative total of 136 PsA pts had been registered to c@h by Sep 2017. Mean age at baseline was 52 years; the majority were female (69%). Prior biological DMARD exposure was 24%. The most common topics discussed on calls were treatment adherence (290 calls), CZP maintenance dose (284 calls) and syringe disposal  (201  calls). The  average  length  per  call  was  15.7  min (SD: 5.33) at the end of Week 0 (total: 135 calls), and 14.6 min (SD: 6.59) at the end of Week 52 (45 calls).Across indications, a cumulative total of 272/655 pts had either completed the coaching period (n = 70) or discontinued (n = 202) by 28 Sep 2017, of whom 106 rated the program. Of these, 87.5% gave promoter scores, 10.4% passive, and 3.8% detractor, yielding an NPS of 83.7. The program was still ongoing at the time of this data cut.Conclusions: c@h offers support and guidance to CZP-treated pts in Germany. Feedback from pts willing to provide a rating (39%) indicates a high level of satisfaction with the program.1. Hamilton DF. Bone Joint J 2014;96-B(5):622–8.Acknowledgements: c@h is performed by Healthcare@home Deutschland GmbH, funded by UCB Pharma, led by Elke Zeise and managed by Karen Thiel and Manh Dan Nguyen. We thank the patients and their caregivers in addition to the investigators and their teams who contributed to this program. Editorial services were provided by Costello Medical. </t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="inlineStr">
+        <is>
+          <t>Friedrich Dybowski</t>
+        </is>
+      </c>
+      <c r="B200" s="2" t="inlineStr">
+        <is>
+          <t>Healthcare at Home Deutschland GmbH, Weinheim, Rheumapraxis, Lud-wigslust, Rheumapraxis Ruhr, Herne, Rheumatologie in Neuss, Neuss, Rheumatologikum Hannover, Hannover, UCB Pharma GmbH</t>
+        </is>
+      </c>
+      <c r="C200" s="2" t="inlineStr">
+        <is>
+          <t>Monheim am Rhein, Germany</t>
+        </is>
+      </c>
+      <c r="D200" s="2" t="inlineStr">
+        <is>
+          <t>P138</t>
+        </is>
+      </c>
+      <c r="E200" s="2" t="inlineStr">
+        <is>
+          <t>COACH@HOME: A SUPPORT PROGRAM FOR PATIENTS TREATED WITH CERTOLIZUMAB PEGOL</t>
+        </is>
+      </c>
+      <c r="F200" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Introduction: Coach@home (c@h) is a German support program for certolizumab pegol (CZP)-treated patients (pts) with rheumatic diseases, including psoriatic arthritis (PsA). Eight coaching calls are offered over one year, scheduled around critical milestones on the therapeutic journey. These are made by trained nurses, who offer support and information about both the pt’s disease and its treatment with CZP.Objectives: To assess the baseline characteristics of PsA pts subscribed to c@h, and the level of pt satisfaction with the program across indications (Sep 2017 data cut).Methods: c@h was launched in Jun 2014, and is available to pts who are prescribed CZP according to the local product label. Pts must	be	CZP-naïve	when	subscribed	to	the	program,	and	pt	consent	is required prior to subscription by the treating physician. There are no additional criteria for enrolment, although the program must be recommended to the pt by the treating physician. Pt satisfaction across indications (PsA, rheumatoid arthritis and axial spondyloarthritis) was measured at program completion or discontinuation using the net promoter score (NPS), which has previously been used for this purpose.1 The NPS is derived by asking pts to state the likelihood that they would recommend c@h to others (on a 0–10 scale). Rankings of 9–10 are considered ‘promoters’, 7–8 ‘passives’,  and  0–6  ‘detractors’.  Subtracting  the  percentage  of detractors from that of promoters yields the NPS.Results: A cumulative total of 136 PsA pts had been registered to c@h by Sep 2017. Mean age at baseline was 52 years; the majority were female (69%). Prior biological DMARD exposure was 24%. The most common topics discussed on calls were treatment adherence (290 calls), CZP maintenance dose (284 calls) and syringe disposal  (201  calls). The  average  length  per  call  was  15.7  min (SD: 5.33) at the end of Week 0 (total: 135 calls), and 14.6 min (SD: 6.59) at the end of Week 52 (45 calls).Across indications, a cumulative total of 272/655 pts had either completed the coaching period (n = 70) or discontinued (n = 202) by 28 Sep 2017, of whom 106 rated the program. Of these, 87.5% gave promoter scores, 10.4% passive, and 3.8% detractor, yielding an NPS of 83.7. The program was still ongoing at the time of this data cut.Conclusions: c@h offers support and guidance to CZP-treated pts in Germany. Feedback from pts willing to provide a rating (39%) indicates a high level of satisfaction with the program.1. Hamilton DF. Bone Joint J 2014;96-B(5):622–8.Acknowledgements: c@h is performed by Healthcare@home Deutschland GmbH, funded by UCB Pharma, led by Elke Zeise and managed by Karen Thiel and Manh Dan Nguyen. We thank the patients and their caregivers in addition to the investigators and their teams who contributed to this program. Editorial services were provided by Costello Medical. </t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="inlineStr">
+        <is>
+          <t>Chris-toph Volberg</t>
+        </is>
+      </c>
+      <c r="B201" s="2" t="inlineStr">
+        <is>
+          <t>Healthcare at Home Deutschland GmbH, Weinheim, Rheumapraxis, Lud-wigslust, Rheumapraxis Ruhr, Herne, Rheumatologie in Neuss, Neuss, Rheumatologikum Hannover, Hannover, UCB Pharma GmbH</t>
+        </is>
+      </c>
+      <c r="C201" s="2" t="inlineStr">
+        <is>
+          <t>Monheim am Rhein, Germany</t>
+        </is>
+      </c>
+      <c r="D201" s="2" t="inlineStr">
+        <is>
+          <t>P138</t>
+        </is>
+      </c>
+      <c r="E201" s="2" t="inlineStr">
+        <is>
+          <t>COACH@HOME: A SUPPORT PROGRAM FOR PATIENTS TREATED WITH CERTOLIZUMAB PEGOL</t>
+        </is>
+      </c>
+      <c r="F201" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Introduction: Coach@home (c@h) is a German support program for certolizumab pegol (CZP)-treated patients (pts) with rheumatic diseases, including psoriatic arthritis (PsA). Eight coaching calls are offered over one year, scheduled around critical milestones on the therapeutic journey. These are made by trained nurses, who offer support and information about both the pt’s disease and its treatment with CZP.Objectives: To assess the baseline characteristics of PsA pts subscribed to c@h, and the level of pt satisfaction with the program across indications (Sep 2017 data cut).Methods: c@h was launched in Jun 2014, and is available to pts who are prescribed CZP according to the local product label. Pts must	be	CZP-naïve	when	subscribed	to	the	program,	and	pt	consent	is required prior to subscription by the treating physician. There are no additional criteria for enrolment, although the program must be recommended to the pt by the treating physician. Pt satisfaction across indications (PsA, rheumatoid arthritis and axial spondyloarthritis) was measured at program completion or discontinuation using the net promoter score (NPS), which has previously been used for this purpose.1 The NPS is derived by asking pts to state the likelihood that they would recommend c@h to others (on a 0–10 scale). Rankings of 9–10 are considered ‘promoters’, 7–8 ‘passives’,  and  0–6  ‘detractors’.  Subtracting  the  percentage  of detractors from that of promoters yields the NPS.Results: A cumulative total of 136 PsA pts had been registered to c@h by Sep 2017. Mean age at baseline was 52 years; the majority were female (69%). Prior biological DMARD exposure was 24%. The most common topics discussed on calls were treatment adherence (290 calls), CZP maintenance dose (284 calls) and syringe disposal  (201  calls). The  average  length  per  call  was  15.7  min (SD: 5.33) at the end of Week 0 (total: 135 calls), and 14.6 min (SD: 6.59) at the end of Week 52 (45 calls).Across indications, a cumulative total of 272/655 pts had either completed the coaching period (n = 70) or discontinued (n = 202) by 28 Sep 2017, of whom 106 rated the program. Of these, 87.5% gave promoter scores, 10.4% passive, and 3.8% detractor, yielding an NPS of 83.7. The program was still ongoing at the time of this data cut.Conclusions: c@h offers support and guidance to CZP-treated pts in Germany. Feedback from pts willing to provide a rating (39%) indicates a high level of satisfaction with the program.1. Hamilton DF. Bone Joint J 2014;96-B(5):622–8.Acknowledgements: c@h is performed by Healthcare@home Deutschland GmbH, funded by UCB Pharma, led by Elke Zeise and managed by Karen Thiel and Manh Dan Nguyen. We thank the patients and their caregivers in addition to the investigators and their teams who contributed to this program. Editorial services were provided by Costello Medical. </t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="inlineStr">
+        <is>
+          <t>Hans-Georg Pott</t>
+        </is>
+      </c>
+      <c r="B202" s="2" t="inlineStr">
+        <is>
+          <t>Healthcare at Home Deutschland GmbH, Weinheim, Rheumapraxis, Lud-wigslust, Rheumapraxis Ruhr, Herne, Rheumatologie in Neuss, Neuss, Rheumatologikum Hannover, Hannover, UCB Pharma GmbH</t>
+        </is>
+      </c>
+      <c r="C202" s="2" t="inlineStr">
+        <is>
+          <t>Monheim am Rhein, Germany</t>
+        </is>
+      </c>
+      <c r="D202" s="2" t="inlineStr">
+        <is>
+          <t>P138</t>
+        </is>
+      </c>
+      <c r="E202" s="2" t="inlineStr">
+        <is>
+          <t>COACH@HOME: A SUPPORT PROGRAM FOR PATIENTS TREATED WITH CERTOLIZUMAB PEGOL</t>
+        </is>
+      </c>
+      <c r="F202" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Introduction: Coach@home (c@h) is a German support program for certolizumab pegol (CZP)-treated patients (pts) with rheumatic diseases, including psoriatic arthritis (PsA). Eight coaching calls are offered over one year, scheduled around critical milestones on the therapeutic journey. These are made by trained nurses, who offer support and information about both the pt’s disease and its treatment with CZP.Objectives: To assess the baseline characteristics of PsA pts subscribed to c@h, and the level of pt satisfaction with the program across indications (Sep 2017 data cut).Methods: c@h was launched in Jun 2014, and is available to pts who are prescribed CZP according to the local product label. Pts must	be	CZP-naïve	when	subscribed	to	the	program,	and	pt	consent	is required prior to subscription by the treating physician. There are no additional criteria for enrolment, although the program must be recommended to the pt by the treating physician. Pt satisfaction across indications (PsA, rheumatoid arthritis and axial spondyloarthritis) was measured at program completion or discontinuation using the net promoter score (NPS), which has previously been used for this purpose.1 The NPS is derived by asking pts to state the likelihood that they would recommend c@h to others (on a 0–10 scale). Rankings of 9–10 are considered ‘promoters’, 7–8 ‘passives’,  and  0–6  ‘detractors’.  Subtracting  the  percentage  of detractors from that of promoters yields the NPS.Results: A cumulative total of 136 PsA pts had been registered to c@h by Sep 2017. Mean age at baseline was 52 years; the majority were female (69%). Prior biological DMARD exposure was 24%. The most common topics discussed on calls were treatment adherence (290 calls), CZP maintenance dose (284 calls) and syringe disposal  (201  calls). The  average  length  per  call  was  15.7  min (SD: 5.33) at the end of Week 0 (total: 135 calls), and 14.6 min (SD: 6.59) at the end of Week 52 (45 calls).Across indications, a cumulative total of 272/655 pts had either completed the coaching period (n = 70) or discontinued (n = 202) by 28 Sep 2017, of whom 106 rated the program. Of these, 87.5% gave promoter scores, 10.4% passive, and 3.8% detractor, yielding an NPS of 83.7. The program was still ongoing at the time of this data cut.Conclusions: c@h offers support and guidance to CZP-treated pts in Germany. Feedback from pts willing to provide a rating (39%) indicates a high level of satisfaction with the program.1. Hamilton DF. Bone Joint J 2014;96-B(5):622–8.Acknowledgements: c@h is performed by Healthcare@home Deutschland GmbH, funded by UCB Pharma, led by Elke Zeise and managed by Karen Thiel and Manh Dan Nguyen. We thank the patients and their caregivers in addition to the investigators and their teams who contributed to this program. Editorial services were provided by Costello Medical. </t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="inlineStr">
+        <is>
+          <t>Udo Lendl</t>
+        </is>
+      </c>
+      <c r="B203" s="2" t="inlineStr">
+        <is>
+          <t>Healthcare at Home Deutschland GmbH, Weinheim, Rheumapraxis, Lud-wigslust, Rheumapraxis Ruhr, Herne, Rheumatologie in Neuss, Neuss, Rheumatologikum Hannover, Hannover, UCB Pharma GmbH</t>
+        </is>
+      </c>
+      <c r="C203" s="2" t="inlineStr">
+        <is>
+          <t>Monheim am Rhein, Germany</t>
+        </is>
+      </c>
+      <c r="D203" s="2" t="inlineStr">
+        <is>
+          <t>P138</t>
+        </is>
+      </c>
+      <c r="E203" s="2" t="inlineStr">
+        <is>
+          <t>COACH@HOME: A SUPPORT PROGRAM FOR PATIENTS TREATED WITH CERTOLIZUMAB PEGOL</t>
+        </is>
+      </c>
+      <c r="F203" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Introduction: Coach@home (c@h) is a German support program for certolizumab pegol (CZP)-treated patients (pts) with rheumatic diseases, including psoriatic arthritis (PsA). Eight coaching calls are offered over one year, scheduled around critical milestones on the therapeutic journey. These are made by trained nurses, who offer support and information about both the pt’s disease and its treatment with CZP.Objectives: To assess the baseline characteristics of PsA pts subscribed to c@h, and the level of pt satisfaction with the program across indications (Sep 2017 data cut).Methods: c@h was launched in Jun 2014, and is available to pts who are prescribed CZP according to the local product label. Pts must	be	CZP-naïve	when	subscribed	to	the	program,	and	pt	consent	is required prior to subscription by the treating physician. There are no additional criteria for enrolment, although the program must be recommended to the pt by the treating physician. Pt satisfaction across indications (PsA, rheumatoid arthritis and axial spondyloarthritis) was measured at program completion or discontinuation using the net promoter score (NPS), which has previously been used for this purpose.1 The NPS is derived by asking pts to state the likelihood that they would recommend c@h to others (on a 0–10 scale). Rankings of 9–10 are considered ‘promoters’, 7–8 ‘passives’,  and  0–6  ‘detractors’.  Subtracting  the  percentage  of detractors from that of promoters yields the NPS.Results: A cumulative total of 136 PsA pts had been registered to c@h by Sep 2017. Mean age at baseline was 52 years; the majority were female (69%). Prior biological DMARD exposure was 24%. The most common topics discussed on calls were treatment adherence (290 calls), CZP maintenance dose (284 calls) and syringe disposal  (201  calls). The  average  length  per  call  was  15.7  min (SD: 5.33) at the end of Week 0 (total: 135 calls), and 14.6 min (SD: 6.59) at the end of Week 52 (45 calls).Across indications, a cumulative total of 272/655 pts had either completed the coaching period (n = 70) or discontinued (n = 202) by 28 Sep 2017, of whom 106 rated the program. Of these, 87.5% gave promoter scores, 10.4% passive, and 3.8% detractor, yielding an NPS of 83.7. The program was still ongoing at the time of this data cut.Conclusions: c@h offers support and guidance to CZP-treated pts in Germany. Feedback from pts willing to provide a rating (39%) indicates a high level of satisfaction with the program.1. Hamilton DF. Bone Joint J 2014;96-B(5):622–8.Acknowledgements: c@h is performed by Healthcare@home Deutschland GmbH, funded by UCB Pharma, led by Elke Zeise and managed by Karen Thiel and Manh Dan Nguyen. We thank the patients and their caregivers in addition to the investigators and their teams who contributed to this program. Editorial services were provided by Costello Medical. </t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="inlineStr">
+        <is>
+          <t>Mark Lebwohl</t>
+        </is>
+      </c>
+      <c r="B204" s="2" t="inlineStr">
+        <is>
+          <t>Icahn School of Medicine at Mount Sinai, New York, NY, Eastern Virginia Medical School, Norfolk, VA, National Psoriasis Foundation, Portland, OR, UCB Pharma, Smyrna</t>
+        </is>
+      </c>
+      <c r="C204" s="2" t="inlineStr">
+        <is>
+          <t>GA, USA</t>
+        </is>
+      </c>
+      <c r="D204" s="2" t="inlineStr">
+        <is>
+          <t>P139</t>
+        </is>
+      </c>
+      <c r="E204" s="2" t="inlineStr">
+        <is>
+          <t>A COMPREHENSIVE SURVEY ASSESSING THE FAMILY PLANNING NEEDS OF WOMEN WITH PSORIASIS</t>
+        </is>
+      </c>
+      <c r="F204" s="2" t="inlineStr">
+        <is>
+          <t>Introduction: Psoriasis (PS) in women often overlaps with their peak  reproductive  years.  Data  on  the  family  planning  (FP)  experience  of  patients  (pts)  are  therefore  needed  to  optimize  PS management.Objectives:  To  report  the  results  of  a  survey  evaluating  the  FP needs of women with PS.Methods: Women of childbearing potential (WoCP; aged 18–45) diagnosed with PS (including pts with psoriatic arthritis), were recruited  to  complete  a  96-question  web-based  survey  on  SurveyGizmo®.	The	survey	included	questions	on	pts’	experience,	concerns and educational needs, and was disseminated using eblasts (the National Psoriasis Foundation, Advance E-News, and TalkPsoriasis.org mailing lists) and social media (Facebook and Twitter). Responses were collected Dec 2017–Feb 2018.Results: Of 141 pts completing the survey, 91 (65%) were planning to conceive (PTC), and 66 (47%) had experienced pregnancy (EP) within the last 5 years. Prescribed systemic medications were being used by 40% of pts PTC and 12% of pts who had EP. Only 41%  pts  who  had  EP  informed  the  healthcare  provider  (HCP) treating their PS of their pregnancy right away, while 21% did not notify them at all.While PTC, most pts who had not EP (88%), sought FP advice from the internet; only 21% had consulted the HCP treating their PS, compared to 55% of pts who had EP. Of the 96 pts who discussed FP with the HCP treating their PS, just 7% said this was initiated by the	HCP.	Pts	PTC	were	most	influenced	by	their	personal	network	(e.g. family), but of pts who had EP, 41% said the HCP treating their	PS	was	one	of	the	most	influential	types	of	support	in	their	FP decisions. Pts reported wanting information on the impact of PS	and	treatments	on	their	baby,	the	heritability	of	PS,	and	flare	management during pregnancy. During pregnancy, 65% pts who had EP stopped treatment (of any type), 79% of whom did so out of fear of harming their baby. In 40% cases where pts had stopped all and any treatment for PSO, the decision was initiated by the pt, and in 47%, by their PS treatment provider. Of pts who stopped treatment, 44% experienced a worsening in the severity of their PS,	 yet	 most	 pts	 do/did	 not	 have	 a	 plan	 for	 flare	 management	during pregnancy (PTC: 69%; EP: 65%). Many pts stopping all treatment had not been advised on restarting treatment post-partum (PTC: 42%; EP: 23%).Conclusions: Many WoCP with PS take systemic medications but many do not discuss FP with their PS treatment provider, and if they do, the discussion is rarely initiated by the HCP. PS treatment providers  should  prioritize  discussing  FP,  and  plan  treatment around and during pregnancy. The educational needs of WoCP with	PS	include	the	impact	of	treatment	on	their	baby,	flare	management during pregnancy, and restarting treatment post-partum.Acknowledgements: This study was funded by UCB Pharma. The survey was conducted by the National Psoriasis Foundation. We thank the patients who contributed to this study. Editorial services were provided by Costello Medical.</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="inlineStr">
+        <is>
+          <t>Abby S Van Voorhees</t>
+        </is>
+      </c>
+      <c r="B205" s="2" t="inlineStr">
+        <is>
+          <t>Icahn School of Medicine at Mount Sinai, New York, NY, Eastern Virginia Medical School, Norfolk, VA, National Psoriasis Foundation, Portland, OR, UCB Pharma, Smyrna</t>
+        </is>
+      </c>
+      <c r="C205" s="2" t="inlineStr">
+        <is>
+          <t>GA, USA</t>
+        </is>
+      </c>
+      <c r="D205" s="2" t="inlineStr">
+        <is>
+          <t>P139</t>
+        </is>
+      </c>
+      <c r="E205" s="2" t="inlineStr">
+        <is>
+          <t>A COMPREHENSIVE SURVEY ASSESSING THE FAMILY PLANNING NEEDS OF WOMEN WITH PSORIASIS</t>
+        </is>
+      </c>
+      <c r="F205" s="2" t="inlineStr">
+        <is>
+          <t>Introduction: Psoriasis (PS) in women often overlaps with their peak  reproductive  years.  Data  on  the  family  planning  (FP)  experience  of  patients  (pts)  are  therefore  needed  to  optimize  PS management.Objectives:  To  report  the  results  of  a  survey  evaluating  the  FP needs of women with PS.Methods: Women of childbearing potential (WoCP; aged 18–45) diagnosed with PS (including pts with psoriatic arthritis), were recruited  to  complete  a  96-question  web-based  survey  on  SurveyGizmo®.	The	survey	included	questions	on	pts’	experience,	concerns and educational needs, and was disseminated using eblasts (the National Psoriasis Foundation, Advance E-News, and TalkPsoriasis.org mailing lists) and social media (Facebook and Twitter). Responses were collected Dec 2017–Feb 2018.Results: Of 141 pts completing the survey, 91 (65%) were planning to conceive (PTC), and 66 (47%) had experienced pregnancy (EP) within the last 5 years. Prescribed systemic medications were being used by 40% of pts PTC and 12% of pts who had EP. Only 41%  pts  who  had  EP  informed  the  healthcare  provider  (HCP) treating their PS of their pregnancy right away, while 21% did not notify them at all.While PTC, most pts who had not EP (88%), sought FP advice from the internet; only 21% had consulted the HCP treating their PS, compared to 55% of pts who had EP. Of the 96 pts who discussed FP with the HCP treating their PS, just 7% said this was initiated by the	HCP.	Pts	PTC	were	most	influenced	by	their	personal	network	(e.g. family), but of pts who had EP, 41% said the HCP treating their	PS	was	one	of	the	most	influential	types	of	support	in	their	FP decisions. Pts reported wanting information on the impact of PS	and	treatments	on	their	baby,	the	heritability	of	PS,	and	flare	management during pregnancy. During pregnancy, 65% pts who had EP stopped treatment (of any type), 79% of whom did so out of fear of harming their baby. In 40% cases where pts had stopped all and any treatment for PSO, the decision was initiated by the pt, and in 47%, by their PS treatment provider. Of pts who stopped treatment, 44% experienced a worsening in the severity of their PS,	 yet	 most	 pts	 do/did	 not	 have	 a	 plan	 for	 flare	 management	during pregnancy (PTC: 69%; EP: 65%). Many pts stopping all treatment had not been advised on restarting treatment post-partum (PTC: 42%; EP: 23%).Conclusions: Many WoCP with PS take systemic medications but many do not discuss FP with their PS treatment provider, and if they do, the discussion is rarely initiated by the HCP. PS treatment providers  should  prioritize  discussing  FP,  and  plan  treatment around and during pregnancy. The educational needs of WoCP with	PS	include	the	impact	of	treatment	on	their	baby,	flare	management during pregnancy, and restarting treatment post-partum.Acknowledgements: This study was funded by UCB Pharma. The survey was conducted by the National Psoriasis Foundation. We thank the patients who contributed to this study. Editorial services were provided by Costello Medical.</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="inlineStr">
+        <is>
+          <t>Michael Siegel</t>
+        </is>
+      </c>
+      <c r="B206" s="2" t="inlineStr">
+        <is>
+          <t>Icahn School of Medicine at Mount Sinai, New York, NY, Eastern Virginia Medical School, Norfolk, VA, National Psoriasis Foundation, Portland, OR, UCB Pharma, Smyrna</t>
+        </is>
+      </c>
+      <c r="C206" s="2" t="inlineStr">
+        <is>
+          <t>GA, USA</t>
+        </is>
+      </c>
+      <c r="D206" s="2" t="inlineStr">
+        <is>
+          <t>P139</t>
+        </is>
+      </c>
+      <c r="E206" s="2" t="inlineStr">
+        <is>
+          <t>A COMPREHENSIVE SURVEY ASSESSING THE FAMILY PLANNING NEEDS OF WOMEN WITH PSORIASIS</t>
+        </is>
+      </c>
+      <c r="F206" s="2" t="inlineStr">
+        <is>
+          <t>Introduction: Psoriasis (PS) in women often overlaps with their peak  reproductive  years.  Data  on  the  family  planning  (FP)  experience  of  patients  (pts)  are  therefore  needed  to  optimize  PS management.Objectives:  To  report  the  results  of  a  survey  evaluating  the  FP needs of women with PS.Methods: Women of childbearing potential (WoCP; aged 18–45) diagnosed with PS (including pts with psoriatic arthritis), were recruited  to  complete  a  96-question  web-based  survey  on  SurveyGizmo®.	The	survey	included	questions	on	pts’	experience,	concerns and educational needs, and was disseminated using eblasts (the National Psoriasis Foundation, Advance E-News, and TalkPsoriasis.org mailing lists) and social media (Facebook and Twitter). Responses were collected Dec 2017–Feb 2018.Results: Of 141 pts completing the survey, 91 (65%) were planning to conceive (PTC), and 66 (47%) had experienced pregnancy (EP) within the last 5 years. Prescribed systemic medications were being used by 40% of pts PTC and 12% of pts who had EP. Only 41%  pts  who  had  EP  informed  the  healthcare  provider  (HCP) treating their PS of their pregnancy right away, while 21% did not notify them at all.While PTC, most pts who had not EP (88%), sought FP advice from the internet; only 21% had consulted the HCP treating their PS, compared to 55% of pts who had EP. Of the 96 pts who discussed FP with the HCP treating their PS, just 7% said this was initiated by the	HCP.	Pts	PTC	were	most	influenced	by	their	personal	network	(e.g. family), but of pts who had EP, 41% said the HCP treating their	PS	was	one	of	the	most	influential	types	of	support	in	their	FP decisions. Pts reported wanting information on the impact of PS	and	treatments	on	their	baby,	the	heritability	of	PS,	and	flare	management during pregnancy. During pregnancy, 65% pts who had EP stopped treatment (of any type), 79% of whom did so out of fear of harming their baby. In 40% cases where pts had stopped all and any treatment for PSO, the decision was initiated by the pt, and in 47%, by their PS treatment provider. Of pts who stopped treatment, 44% experienced a worsening in the severity of their PS,	 yet	 most	 pts	 do/did	 not	 have	 a	 plan	 for	 flare	 management	during pregnancy (PTC: 69%; EP: 65%). Many pts stopping all treatment had not been advised on restarting treatment post-partum (PTC: 42%; EP: 23%).Conclusions: Many WoCP with PS take systemic medications but many do not discuss FP with their PS treatment provider, and if they do, the discussion is rarely initiated by the HCP. PS treatment providers  should  prioritize  discussing  FP,  and  plan  treatment around and during pregnancy. The educational needs of WoCP with	PS	include	the	impact	of	treatment	on	their	baby,	flare	management during pregnancy, and restarting treatment post-partum.Acknowledgements: This study was funded by UCB Pharma. The survey was conducted by the National Psoriasis Foundation. We thank the patients who contributed to this study. Editorial services were provided by Costello Medical.</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="inlineStr">
+        <is>
+          <t>Lindsey Shankle</t>
+        </is>
+      </c>
+      <c r="B207" s="2" t="inlineStr">
+        <is>
+          <t>Icahn School of Medicine at Mount Sinai, New York, NY, Eastern Virginia Medical School, Norfolk, VA, National Psoriasis Foundation, Portland, OR, UCB Pharma, Smyrna</t>
+        </is>
+      </c>
+      <c r="C207" s="2" t="inlineStr">
+        <is>
+          <t>GA, USA</t>
+        </is>
+      </c>
+      <c r="D207" s="2" t="inlineStr">
+        <is>
+          <t>P139</t>
+        </is>
+      </c>
+      <c r="E207" s="2" t="inlineStr">
+        <is>
+          <t>A COMPREHENSIVE SURVEY ASSESSING THE FAMILY PLANNING NEEDS OF WOMEN WITH PSORIASIS</t>
+        </is>
+      </c>
+      <c r="F207" s="2" t="inlineStr">
+        <is>
+          <t>Introduction: Psoriasis (PS) in women often overlaps with their peak  reproductive  years.  Data  on  the  family  planning  (FP)  experience  of  patients  (pts)  are  therefore  needed  to  optimize  PS management.Objectives:  To  report  the  results  of  a  survey  evaluating  the  FP needs of women with PS.Methods: Women of childbearing potential (WoCP; aged 18–45) diagnosed with PS (including pts with psoriatic arthritis), were recruited  to  complete  a  96-question  web-based  survey  on  SurveyGizmo®.	The	survey	included	questions	on	pts’	experience,	concerns and educational needs, and was disseminated using eblasts (the National Psoriasis Foundation, Advance E-News, and TalkPsoriasis.org mailing lists) and social media (Facebook and Twitter). Responses were collected Dec 2017–Feb 2018.Results: Of 141 pts completing the survey, 91 (65%) were planning to conceive (PTC), and 66 (47%) had experienced pregnancy (EP) within the last 5 years. Prescribed systemic medications were being used by 40% of pts PTC and 12% of pts who had EP. Only 41%  pts  who  had  EP  informed  the  healthcare  provider  (HCP) treating their PS of their pregnancy right away, while 21% did not notify them at all.While PTC, most pts who had not EP (88%), sought FP advice from the internet; only 21% had consulted the HCP treating their PS, compared to 55% of pts who had EP. Of the 96 pts who discussed FP with the HCP treating their PS, just 7% said this was initiated by the	HCP.	Pts	PTC	were	most	influenced	by	their	personal	network	(e.g. family), but of pts who had EP, 41% said the HCP treating their	PS	was	one	of	the	most	influential	types	of	support	in	their	FP decisions. Pts reported wanting information on the impact of PS	and	treatments	on	their	baby,	the	heritability	of	PS,	and	flare	management during pregnancy. During pregnancy, 65% pts who had EP stopped treatment (of any type), 79% of whom did so out of fear of harming their baby. In 40% cases where pts had stopped all and any treatment for PSO, the decision was initiated by the pt, and in 47%, by their PS treatment provider. Of pts who stopped treatment, 44% experienced a worsening in the severity of their PS,	 yet	 most	 pts	 do/did	 not	 have	 a	 plan	 for	 flare	 management	during pregnancy (PTC: 69%; EP: 65%). Many pts stopping all treatment had not been advised on restarting treatment post-partum (PTC: 42%; EP: 23%).Conclusions: Many WoCP with PS take systemic medications but many do not discuss FP with their PS treatment provider, and if they do, the discussion is rarely initiated by the HCP. PS treatment providers  should  prioritize  discussing  FP,  and  plan  treatment around and during pregnancy. The educational needs of WoCP with	PS	include	the	impact	of	treatment	on	their	baby,	flare	management during pregnancy, and restarting treatment post-partum.Acknowledgements: This study was funded by UCB Pharma. The survey was conducted by the National Psoriasis Foundation. We thank the patients who contributed to this study. Editorial services were provided by Costello Medical.</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="inlineStr">
+        <is>
+          <t>Lisa Pisenti</t>
+        </is>
+      </c>
+      <c r="B208" s="2" t="inlineStr">
+        <is>
+          <t>Icahn School of Medicine at Mount Sinai, New York, NY, Eastern Virginia Medical School, Norfolk, VA, National Psoriasis Foundation, Portland, OR, UCB Pharma, Smyrna</t>
+        </is>
+      </c>
+      <c r="C208" s="2" t="inlineStr">
+        <is>
+          <t>GA, USA</t>
+        </is>
+      </c>
+      <c r="D208" s="2" t="inlineStr">
+        <is>
+          <t>P139</t>
+        </is>
+      </c>
+      <c r="E208" s="2" t="inlineStr">
+        <is>
+          <t>A COMPREHENSIVE SURVEY ASSESSING THE FAMILY PLANNING NEEDS OF WOMEN WITH PSORIASIS</t>
+        </is>
+      </c>
+      <c r="F208" s="2" t="inlineStr">
+        <is>
+          <t>Introduction: Psoriasis (PS) in women often overlaps with their peak  reproductive  years.  Data  on  the  family  planning  (FP)  experience  of  patients  (pts)  are  therefore  needed  to  optimize  PS management.Objectives:  To  report  the  results  of  a  survey  evaluating  the  FP needs of women with PS.Methods: Women of childbearing potential (WoCP; aged 18–45) diagnosed with PS (including pts with psoriatic arthritis), were recruited  to  complete  a  96-question  web-based  survey  on  SurveyGizmo®.	The	survey	included	questions	on	pts’	experience,	concerns and educational needs, and was disseminated using eblasts (the National Psoriasis Foundation, Advance E-News, and TalkPsoriasis.org mailing lists) and social media (Facebook and Twitter). Responses were collected Dec 2017–Feb 2018.Results: Of 141 pts completing the survey, 91 (65%) were planning to conceive (PTC), and 66 (47%) had experienced pregnancy (EP) within the last 5 years. Prescribed systemic medications were being used by 40% of pts PTC and 12% of pts who had EP. Only 41%  pts  who  had  EP  informed  the  healthcare  provider  (HCP) treating their PS of their pregnancy right away, while 21% did not notify them at all.While PTC, most pts who had not EP (88%), sought FP advice from the internet; only 21% had consulted the HCP treating their PS, compared to 55% of pts who had EP. Of the 96 pts who discussed FP with the HCP treating their PS, just 7% said this was initiated by the	HCP.	Pts	PTC	were	most	influenced	by	their	personal	network	(e.g. family), but of pts who had EP, 41% said the HCP treating their	PS	was	one	of	the	most	influential	types	of	support	in	their	FP decisions. Pts reported wanting information on the impact of PS	and	treatments	on	their	baby,	the	heritability	of	PS,	and	flare	management during pregnancy. During pregnancy, 65% pts who had EP stopped treatment (of any type), 79% of whom did so out of fear of harming their baby. In 40% cases where pts had stopped all and any treatment for PSO, the decision was initiated by the pt, and in 47%, by their PS treatment provider. Of pts who stopped treatment, 44% experienced a worsening in the severity of their PS,	 yet	 most	 pts	 do/did	 not	 have	 a	 plan	 for	 flare	 management	during pregnancy (PTC: 69%; EP: 65%). Many pts stopping all treatment had not been advised on restarting treatment post-partum (PTC: 42%; EP: 23%).Conclusions: Many WoCP with PS take systemic medications but many do not discuss FP with their PS treatment provider, and if they do, the discussion is rarely initiated by the HCP. PS treatment providers  should  prioritize  discussing  FP,  and  plan  treatment around and during pregnancy. The educational needs of WoCP with	PS	include	the	impact	of	treatment	on	their	baby,	flare	management during pregnancy, and restarting treatment post-partum.Acknowledgements: This study was funded by UCB Pharma. The survey was conducted by the National Psoriasis Foundation. We thank the patients who contributed to this study. Editorial services were provided by Costello Medical.</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="inlineStr">
+        <is>
+          <t>Mohamed Yassine</t>
+        </is>
+      </c>
+      <c r="B209" s="2" t="inlineStr">
+        <is>
+          <t>Icahn School of Medicine at Mount Sinai, New York, NY, Eastern Virginia Medical School, Norfolk, VA, National Psoriasis Foundation, Portland, OR, UCB Pharma, Smyrna</t>
+        </is>
+      </c>
+      <c r="C209" s="2" t="inlineStr">
+        <is>
+          <t>GA, USA</t>
+        </is>
+      </c>
+      <c r="D209" s="2" t="inlineStr">
+        <is>
+          <t>P139</t>
+        </is>
+      </c>
+      <c r="E209" s="2" t="inlineStr">
+        <is>
+          <t>A COMPREHENSIVE SURVEY ASSESSING THE FAMILY PLANNING NEEDS OF WOMEN WITH PSORIASIS</t>
+        </is>
+      </c>
+      <c r="F209" s="2" t="inlineStr">
+        <is>
+          <t>Introduction: Psoriasis (PS) in women often overlaps with their peak  reproductive  years.  Data  on  the  family  planning  (FP)  experience  of  patients  (pts)  are  therefore  needed  to  optimize  PS management.Objectives:  To  report  the  results  of  a  survey  evaluating  the  FP needs of women with PS.Methods: Women of childbearing potential (WoCP; aged 18–45) diagnosed with PS (including pts with psoriatic arthritis), were recruited  to  complete  a  96-question  web-based  survey  on  SurveyGizmo®.	The	survey	included	questions	on	pts’	experience,	concerns and educational needs, and was disseminated using eblasts (the National Psoriasis Foundation, Advance E-News, and TalkPsoriasis.org mailing lists) and social media (Facebook and Twitter). Responses were collected Dec 2017–Feb 2018.Results: Of 141 pts completing the survey, 91 (65%) were planning to conceive (PTC), and 66 (47%) had experienced pregnancy (EP) within the last 5 years. Prescribed systemic medications were being used by 40% of pts PTC and 12% of pts who had EP. Only 41%  pts  who  had  EP  informed  the  healthcare  provider  (HCP) treating their PS of their pregnancy right away, while 21% did not notify them at all.While PTC, most pts who had not EP (88%), sought FP advice from the internet; only 21% had consulted the HCP treating their PS, compared to 55% of pts who had EP. Of the 96 pts who discussed FP with the HCP treating their PS, just 7% said this was initiated by the	HCP.	Pts	PTC	were	most	influenced	by	their	personal	network	(e.g. family), but of pts who had EP, 41% said the HCP treating their	PS	was	one	of	the	most	influential	types	of	support	in	their	FP decisions. Pts reported wanting information on the impact of PS	and	treatments	on	their	baby,	the	heritability	of	PS,	and	flare	management during pregnancy. During pregnancy, 65% pts who had EP stopped treatment (of any type), 79% of whom did so out of fear of harming their baby. In 40% cases where pts had stopped all and any treatment for PSO, the decision was initiated by the pt, and in 47%, by their PS treatment provider. Of pts who stopped treatment, 44% experienced a worsening in the severity of their PS,	 yet	 most	 pts	 do/did	 not	 have	 a	 plan	 for	 flare	 management	during pregnancy (PTC: 69%; EP: 65%). Many pts stopping all treatment had not been advised on restarting treatment post-partum (PTC: 42%; EP: 23%).Conclusions: Many WoCP with PS take systemic medications but many do not discuss FP with their PS treatment provider, and if they do, the discussion is rarely initiated by the HCP. PS treatment providers  should  prioritize  discussing  FP,  and  plan  treatment around and during pregnancy. The educational needs of WoCP with	PS	include	the	impact	of	treatment	on	their	baby,	flare	management during pregnancy, and restarting treatment post-partum.Acknowledgements: This study was funded by UCB Pharma. The survey was conducted by the National Psoriasis Foundation. We thank the patients who contributed to this study. Editorial services were provided by Costello Medical.</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="inlineStr">
+        <is>
+          <t>Caitriona Ryan</t>
+        </is>
+      </c>
+      <c r="B210" s="2" t="inlineStr">
+        <is>
+          <t>Blackrock Clinic, Dublin, Ireland and University College, Dublin, Ireland, UCB Pharma, Brussels, Belgium, Cello Health</t>
+        </is>
+      </c>
+      <c r="C210" s="2" t="inlineStr">
+        <is>
+          <t>London, UK</t>
+        </is>
+      </c>
+      <c r="D210" s="2" t="inlineStr">
+        <is>
+          <t>P140</t>
+        </is>
+      </c>
+      <c r="E210" s="2" t="inlineStr">
+        <is>
+          <t>THE PSYCHOSOCIAL IMPACT OF PSORIASIS: DIFFERENTIAL EXPERIENCES OF MEN AND WOMEN IN EARLY ADULTHOOD</t>
+        </is>
+      </c>
+      <c r="F210" s="2" t="inlineStr">
+        <is>
+          <t>Introduction:  Plaque  psoriasis  (PSO)  can  have  a  profound  impact on patients’ (pts’) psychosocial wellbeing, leading to selfconsciousness,  embarrassment,  depression,  social  isolation  and stigmatization.  However,  little  is  known  of  how  the  impact  of disease differs between genders. Objective:To evaluate differences in the psychosocial impact of PSO on quality of life in men and women in early adulthood. Methods: Pts	aged	≥18	in	the	US,	Canada,	France,	Germany	and	Italy  without  a  diagnosis  of  psoriatic  arthritis  were  invited  to complete a postal survey (Oct 2016–Jan 2017), in the ratio 3:1 as  being  treated  with  advanced  therapy  (biologic/apremilast), or eligible for but not yet receiving advanced therapy. Answers were given on 5- or 7-point Likert Scale. Percentages shown are proportions of pts responding using either of the two responses indicating greatest impact of disease. Data are presented for pts in early	adulthood	(18–45	years),[1]	stratified	by	gender.	Results: 63 women and 73 men completed the survey; mean age was 35 and 36 years, respectively, mean age at diagnosis was 28 for both genders. Disease distribution was similar between genders, although women reported more severe disease affecting their arms and  males  reported  more  severe  scalp  disease. Whilst  physical impacts of disease were similar ( ≤ 2 pts reported severe problems with walking, washing/dressing, carrying out housework/family/leisure activities or daily work), a higher proportion of women (14% vs 4%) reported severe/extreme pain or discomfort. Both 57genders were more concerned by appearance (women: 73%, men: 63%) than pain (women: 43%, men: 34%). A higher proportion of women than men were concerned by their appearance  (73%  vs  63%),  reported  a  greater  impact  on  their choice  of  clothing  (37%  vs  21%),  and  always/usually  tried  to cover their skin (27% vs 16%). Similarly, psychosocial effects of disease tended to be greater in women: 16% women vs 8% men reported severe/extreme anxiety or depression; 29% women vs 18% men suffered sexually/in achieving intimacy. Similar proportions had suffered at work (women: 11%, men: 16%), while a higher proportion of women (6%) than men (3%) struggled to live	their	lives	as	they	did	prior	to	their	diagnosis.	These	findings	have been corroborated by ethnography studies.Conclusion:  Despite  similar  clinical  manifestations  of  PSO, women in early adulthood tended to report a greater impact of their disease on their lives, both physically, in terms of pain, and psychosocially, in terms of effects on relationships and impact on their daily lives. Physician awareness of such gender differences in the impact of the disease on patients’ lives would encourage a  more  holistic  approach  to  discussing  treatment  options  with their patients.1. A Conception of Adult Development. Daniel J. Levinson. 1986. American Psychologist vol. 41, No. 1, 3-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="inlineStr">
+        <is>
+          <t>Carl Vandeloo</t>
+        </is>
+      </c>
+      <c r="B211" s="2" t="inlineStr">
+        <is>
+          <t>Blackrock Clinic, Dublin, Ireland and University College, Dublin, Ireland, UCB Pharma, Brussels, Belgium, Cello Health</t>
+        </is>
+      </c>
+      <c r="C211" s="2" t="inlineStr">
+        <is>
+          <t>London, UK</t>
+        </is>
+      </c>
+      <c r="D211" s="2" t="inlineStr">
+        <is>
+          <t>P140</t>
+        </is>
+      </c>
+      <c r="E211" s="2" t="inlineStr">
+        <is>
+          <t>THE PSYCHOSOCIAL IMPACT OF PSORIASIS: DIFFERENTIAL EXPERIENCES OF MEN AND WOMEN IN EARLY ADULTHOOD</t>
+        </is>
+      </c>
+      <c r="F211" s="2" t="inlineStr">
+        <is>
+          <t>Introduction:  Plaque  psoriasis  (PSO)  can  have  a  profound  impact on patients’ (pts’) psychosocial wellbeing, leading to selfconsciousness,  embarrassment,  depression,  social  isolation  and stigmatization.  However,  little  is  known  of  how  the  impact  of disease differs between genders. Objective:To evaluate differences in the psychosocial impact of PSO on quality of life in men and women in early adulthood. Methods: Pts	aged	≥18	in	the	US,	Canada,	France,	Germany	and	Italy  without  a  diagnosis  of  psoriatic  arthritis  were  invited  to complete a postal survey (Oct 2016–Jan 2017), in the ratio 3:1 as  being  treated  with  advanced  therapy  (biologic/apremilast), or eligible for but not yet receiving advanced therapy. Answers were given on 5- or 7-point Likert Scale. Percentages shown are proportions of pts responding using either of the two responses indicating greatest impact of disease. Data are presented for pts in early	adulthood	(18–45	years),[1]	stratified	by	gender.	Results: 63 women and 73 men completed the survey; mean age was 35 and 36 years, respectively, mean age at diagnosis was 28 for both genders. Disease distribution was similar between genders, although women reported more severe disease affecting their arms and  males  reported  more  severe  scalp  disease. Whilst  physical impacts of disease were similar ( ≤ 2 pts reported severe problems with walking, washing/dressing, carrying out housework/family/leisure activities or daily work), a higher proportion of women (14% vs 4%) reported severe/extreme pain or discomfort. Both 57genders were more concerned by appearance (women: 73%, men: 63%) than pain (women: 43%, men: 34%). A higher proportion of women than men were concerned by their appearance  (73%  vs  63%),  reported  a  greater  impact  on  their choice  of  clothing  (37%  vs  21%),  and  always/usually  tried  to cover their skin (27% vs 16%). Similarly, psychosocial effects of disease tended to be greater in women: 16% women vs 8% men reported severe/extreme anxiety or depression; 29% women vs 18% men suffered sexually/in achieving intimacy. Similar proportions had suffered at work (women: 11%, men: 16%), while a higher proportion of women (6%) than men (3%) struggled to live	their	lives	as	they	did	prior	to	their	diagnosis.	These	findings	have been corroborated by ethnography studies.Conclusion:  Despite  similar  clinical  manifestations  of  PSO, women in early adulthood tended to report a greater impact of their disease on their lives, both physically, in terms of pain, and psychosocially, in terms of effects on relationships and impact on their daily lives. Physician awareness of such gender differences in the impact of the disease on patients’ lives would encourage a  more  holistic  approach  to  discussing  treatment  options  with their patients.1. A Conception of Adult Development. Daniel J. Levinson. 1986. American Psychologist vol. 41, No. 1, 3-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="inlineStr">
+        <is>
+          <t>Duncan Munro</t>
+        </is>
+      </c>
+      <c r="B212" s="2" t="inlineStr">
+        <is>
+          <t>Blackrock Clinic, Dublin, Ireland and University College, Dublin, Ireland, UCB Pharma, Brussels, Belgium, Cello Health</t>
+        </is>
+      </c>
+      <c r="C212" s="2" t="inlineStr">
+        <is>
+          <t>London, UK</t>
+        </is>
+      </c>
+      <c r="D212" s="2" t="inlineStr">
+        <is>
+          <t>P140</t>
+        </is>
+      </c>
+      <c r="E212" s="2" t="inlineStr">
+        <is>
+          <t>THE PSYCHOSOCIAL IMPACT OF PSORIASIS: DIFFERENTIAL EXPERIENCES OF MEN AND WOMEN IN EARLY ADULTHOOD</t>
+        </is>
+      </c>
+      <c r="F212" s="2" t="inlineStr">
+        <is>
+          <t>Introduction:  Plaque  psoriasis  (PSO)  can  have  a  profound  impact on patients’ (pts’) psychosocial wellbeing, leading to selfconsciousness,  embarrassment,  depression,  social  isolation  and stigmatization.  However,  little  is  known  of  how  the  impact  of disease differs between genders. Objective:To evaluate differences in the psychosocial impact of PSO on quality of life in men and women in early adulthood. Methods: Pts	aged	≥18	in	the	US,	Canada,	France,	Germany	and	Italy  without  a  diagnosis  of  psoriatic  arthritis  were  invited  to complete a postal survey (Oct 2016–Jan 2017), in the ratio 3:1 as  being  treated  with  advanced  therapy  (biologic/apremilast), or eligible for but not yet receiving advanced therapy. Answers were given on 5- or 7-point Likert Scale. Percentages shown are proportions of pts responding using either of the two responses indicating greatest impact of disease. Data are presented for pts in early	adulthood	(18–45	years),[1]	stratified	by	gender.	Results: 63 women and 73 men completed the survey; mean age was 35 and 36 years, respectively, mean age at diagnosis was 28 for both genders. Disease distribution was similar between genders, although women reported more severe disease affecting their arms and  males  reported  more  severe  scalp  disease. Whilst  physical impacts of disease were similar ( ≤ 2 pts reported severe problems with walking, washing/dressing, carrying out housework/family/leisure activities or daily work), a higher proportion of women (14% vs 4%) reported severe/extreme pain or discomfort. Both 57genders were more concerned by appearance (women: 73%, men: 63%) than pain (women: 43%, men: 34%). A higher proportion of women than men were concerned by their appearance  (73%  vs  63%),  reported  a  greater  impact  on  their choice  of  clothing  (37%  vs  21%),  and  always/usually  tried  to cover their skin (27% vs 16%). Similarly, psychosocial effects of disease tended to be greater in women: 16% women vs 8% men reported severe/extreme anxiety or depression; 29% women vs 18% men suffered sexually/in achieving intimacy. Similar proportions had suffered at work (women: 11%, men: 16%), while a higher proportion of women (6%) than men (3%) struggled to live	their	lives	as	they	did	prior	to	their	diagnosis.	These	findings	have been corroborated by ethnography studies.Conclusion:  Despite  similar  clinical  manifestations  of  PSO, women in early adulthood tended to report a greater impact of their disease on their lives, both physically, in terms of pain, and psychosocially, in terms of effects on relationships and impact on their daily lives. Physician awareness of such gender differences in the impact of the disease on patients’ lives would encourage a  more  holistic  approach  to  discussing  treatment  options  with their patients.1. A Conception of Adult Development. Daniel J. Levinson. 1986. American Psychologist vol. 41, No. 1, 3-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="inlineStr">
+        <is>
+          <t>Alvaro Arjona</t>
+        </is>
+      </c>
+      <c r="B213" s="2" t="inlineStr">
+        <is>
+          <t>Blackrock Clinic, Dublin, Ireland and University College, Dublin, Ireland, UCB Pharma, Brussels, Belgium, Cello Health</t>
+        </is>
+      </c>
+      <c r="C213" s="2" t="inlineStr">
+        <is>
+          <t>London, UK</t>
+        </is>
+      </c>
+      <c r="D213" s="2" t="inlineStr">
+        <is>
+          <t>P140</t>
+        </is>
+      </c>
+      <c r="E213" s="2" t="inlineStr">
+        <is>
+          <t>THE PSYCHOSOCIAL IMPACT OF PSORIASIS: DIFFERENTIAL EXPERIENCES OF MEN AND WOMEN IN EARLY ADULTHOOD</t>
+        </is>
+      </c>
+      <c r="F213" s="2" t="inlineStr">
+        <is>
+          <t>Introduction:  Plaque  psoriasis  (PSO)  can  have  a  profound  impact on patients’ (pts’) psychosocial wellbeing, leading to selfconsciousness,  embarrassment,  depression,  social  isolation  and stigmatization.  However,  little  is  known  of  how  the  impact  of disease differs between genders. Objective:To evaluate differences in the psychosocial impact of PSO on quality of life in men and women in early adulthood. Methods: Pts	aged	≥18	in	the	US,	Canada,	France,	Germany	and	Italy  without  a  diagnosis  of  psoriatic  arthritis  were  invited  to complete a postal survey (Oct 2016–Jan 2017), in the ratio 3:1 as  being  treated  with  advanced  therapy  (biologic/apremilast), or eligible for but not yet receiving advanced therapy. Answers were given on 5- or 7-point Likert Scale. Percentages shown are proportions of pts responding using either of the two responses indicating greatest impact of disease. Data are presented for pts in early	adulthood	(18–45	years),[1]	stratified	by	gender.	Results: 63 women and 73 men completed the survey; mean age was 35 and 36 years, respectively, mean age at diagnosis was 28 for both genders. Disease distribution was similar between genders, although women reported more severe disease affecting their arms and  males  reported  more  severe  scalp  disease. Whilst  physical impacts of disease were similar ( ≤ 2 pts reported severe problems with walking, washing/dressing, carrying out housework/family/leisure activities or daily work), a higher proportion of women (14% vs 4%) reported severe/extreme pain or discomfort. Both 57genders were more concerned by appearance (women: 73%, men: 63%) than pain (women: 43%, men: 34%). A higher proportion of women than men were concerned by their appearance  (73%  vs  63%),  reported  a  greater  impact  on  their choice  of  clothing  (37%  vs  21%),  and  always/usually  tried  to cover their skin (27% vs 16%). Similarly, psychosocial effects of disease tended to be greater in women: 16% women vs 8% men reported severe/extreme anxiety or depression; 29% women vs 18% men suffered sexually/in achieving intimacy. Similar proportions had suffered at work (women: 11%, men: 16%), while a higher proportion of women (6%) than men (3%) struggled to live	their	lives	as	they	did	prior	to	their	diagnosis.	These	findings	have been corroborated by ethnography studies.Conclusion:  Despite  similar  clinical  manifestations  of  PSO, women in early adulthood tended to report a greater impact of their disease on their lives, both physically, in terms of pain, and psychosocially, in terms of effects on relationships and impact on their daily lives. Physician awareness of such gender differences in the impact of the disease on patients’ lives would encourage a  more  holistic  approach  to  discussing  treatment  options  with their patients.1. A Conception of Adult Development. Daniel J. Levinson. 1986. American Psychologist vol. 41, No. 1, 3-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="inlineStr">
+        <is>
+          <t>Diamant Thaçi</t>
+        </is>
+      </c>
+      <c r="B214" s="2" t="inlineStr">
+        <is>
+          <t>University Hospital of Schleswig-Holstein Campus Lübeck, Lübeck, Ger-many, Department of Dermatology, New York Medical College at Met-ropolitan Hospital, NY, NY, SCIderm Research Institute, Hamburg, and Dermatologikum Berlin, Germany, Psoriasis Treatment Center of Central New Jersey, East Windsor, NJ, UCB Pharma, Raleigh, NC, USA, UCB Pharma, Brussels, Belgium, Niepubliczny Zakład Opieki Zdrowotnej mul-tiMedica</t>
+        </is>
+      </c>
+      <c r="C214" s="2" t="inlineStr">
+        <is>
+          <t>Wrocław, Poland</t>
+        </is>
+      </c>
+      <c r="D214" s="2" t="inlineStr">
+        <is>
+          <t>P141</t>
+        </is>
+      </c>
+      <c r="E214" s="2" t="inlineStr">
+        <is>
+          <t>CERTOLIZUMAB PEGOL IMPROVES PATIENT­REPORTED OUTCOMES IN CHRONIC PLAQUE PSORIASIS OVER 1 YEAR</t>
+        </is>
+      </c>
+      <c r="F214" s="2" t="inlineStr">
+        <is>
+          <t>Introduction: Certolizumab pegol (CZP) is an Fc-free, PEGylated, anti-TNF biologic. Here we present patient (pt)-reported quality of life (QoL), work productivity and social activities over 48 weeks of CZP treatment.Materials/Methods:  Data  were  pooled  from  CIMPASI-1 (NCT02326298) and CIMPASI-2 (NCT02326272) phase 3 trials of	adults	with	PSO	≥6	months	(psoriasis	area	and	severity	index	[PASI]	≥12,	affected	body	surface	area	[BSA]	≥10%,	physician’s	global	assessment	[PGA]	≥3/5).	Pts	were	randomized	to	CZP	400	mg every 2 weeks (Q2W), CZP 200 mg Q2W (following 400 mg loading dose at Weeks 0, 2, 4), or placebo (PBO) Q2W for 16 weeks. Week 16 CZP-treated PASI 50 responders continued initial blinded treatment to Week 48 (PBO-treated PASI 50 responders are not included). PASI 50 non-responders at Weeks 32, 40 and 48 were discontinued.Mean change from baseline (CFB) in Dermatology Life Quality Index (DLQI), rates for DLQI minimally clinically important difference	(MCID;	≥4-point	improvement)	and	DLQI	remission	(score	of 0/1), and CFB in Work Productivity and Activity Impairment (WPAI)	PSO-specific	at	Weeks	16	and	48	were	assessed.	Negative	CFB	 for	 DLQI	 and	 WPAI	 signifies	 improvement.	 CFB	 DLQI	analyses used last observation carried forward (LOCF) imputation for missing data, DLQI MCID and remission analyses used nonresponder imputation, WPAI analyses used last observation carried forward imputation at Week 16 and observed data at Week 48.Results: At Week 16, CZP pts showed greater improvements in DLQI vs PBO, and higher proportions achieved DLQI MCID and DLQI remission (Table). Improvements were maintained to Week 48 in CZP-treated pts who continued treatment (Table). Improve58ments in work productivity and reductions in activity impairment were seen with both CZP doses vs PBO; and were maintained to Week 48 in patients remaining in the trial. (Table).Conclusions: Treatment with CZP was associated with improvements in QoL, work productivity and social activities vs PBO at Week 16, which was maintained to Week 48 in patients remaining in the trials.Table. Improvements in DLQI and WPAI at Weeks 16 and 48PBO(n = 100)Week 16CZP 400 mg Q2W(n = 175)Week 48Week 16CZP 200 mg Q2W(n = 186)Week 48Week 16DLQI-9.8 (7.0)Mean CFB (SD)135 (77.5)MCID, n (%)DLQI 0/1, n (%)84 (48.0)WPAI Domains, mean change from baseline (SD)4.7 (22.7)Absenteeism-3.1 (6.7)41 (41.0)7 (7.0)2.9 (22.1)Presenteeism0.7 (21.8)-12.9 (25.2)Work productivity loss4.8 (28.5)-9.0 (32.7)-10.3 (7.5)121 (69.1)90 (51.4)-10.0 (8.2)131 (70.4)87 (46.8)-9.7 (8.4)113 (60.8)78 (41.9)-0.1 (17.5)[n = 96]-17.0 (26.1)[n = 96]-16.4 (28.9)[n = 96]-28.6 (28.9)[n = 129]0.7 (21.7)-9.6 (25.3)-9.0 (31.5)2.6 (15.6)[n = 89]-9.9 (27.1)[n = 89]-8.0 (30.1)[n = 89][n = 132]Activity impairment-1.5 (25.3)-23.9 (28.3)-21.0 (31.9) -23.9 (29.4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="inlineStr">
+        <is>
+          <t>Alice B Gottlieb</t>
+        </is>
+      </c>
+      <c r="B215" s="2" t="inlineStr">
+        <is>
+          <t>University Hospital of Schleswig-Holstein Campus Lübeck, Lübeck, Ger-many, Department of Dermatology, New York Medical College at Met-ropolitan Hospital, NY, NY, SCIderm Research Institute, Hamburg, and Dermatologikum Berlin, Germany, Psoriasis Treatment Center of Central New Jersey, East Windsor, NJ, UCB Pharma, Raleigh, NC, USA, UCB Pharma, Brussels, Belgium, Niepubliczny Zakład Opieki Zdrowotnej mul-tiMedica</t>
+        </is>
+      </c>
+      <c r="C215" s="2" t="inlineStr">
+        <is>
+          <t>Wrocław, Poland</t>
+        </is>
+      </c>
+      <c r="D215" s="2" t="inlineStr">
+        <is>
+          <t>P141</t>
+        </is>
+      </c>
+      <c r="E215" s="2" t="inlineStr">
+        <is>
+          <t>CERTOLIZUMAB PEGOL IMPROVES PATIENT­REPORTED OUTCOMES IN CHRONIC PLAQUE PSORIASIS OVER 1 YEAR</t>
+        </is>
+      </c>
+      <c r="F215" s="2" t="inlineStr">
+        <is>
+          <t>Introduction: Certolizumab pegol (CZP) is an Fc-free, PEGylated, anti-TNF biologic. Here we present patient (pt)-reported quality of life (QoL), work productivity and social activities over 48 weeks of CZP treatment.Materials/Methods:  Data  were  pooled  from  CIMPASI-1 (NCT02326298) and CIMPASI-2 (NCT02326272) phase 3 trials of	adults	with	PSO	≥6	months	(psoriasis	area	and	severity	index	[PASI]	≥12,	affected	body	surface	area	[BSA]	≥10%,	physician’s	global	assessment	[PGA]	≥3/5).	Pts	were	randomized	to	CZP	400	mg every 2 weeks (Q2W), CZP 200 mg Q2W (following 400 mg loading dose at Weeks 0, 2, 4), or placebo (PBO) Q2W for 16 weeks. Week 16 CZP-treated PASI 50 responders continued initial blinded treatment to Week 48 (PBO-treated PASI 50 responders are not included). PASI 50 non-responders at Weeks 32, 40 and 48 were discontinued.Mean change from baseline (CFB) in Dermatology Life Quality Index (DLQI), rates for DLQI minimally clinically important difference	(MCID;	≥4-point	improvement)	and	DLQI	remission	(score	of 0/1), and CFB in Work Productivity and Activity Impairment (WPAI)	PSO-specific	at	Weeks	16	and	48	were	assessed.	Negative	CFB	 for	 DLQI	 and	 WPAI	 signifies	 improvement.	 CFB	 DLQI	analyses used last observation carried forward (LOCF) imputation for missing data, DLQI MCID and remission analyses used nonresponder imputation, WPAI analyses used last observation carried forward imputation at Week 16 and observed data at Week 48.Results: At Week 16, CZP pts showed greater improvements in DLQI vs PBO, and higher proportions achieved DLQI MCID and DLQI remission (Table). Improvements were maintained to Week 48 in CZP-treated pts who continued treatment (Table). Improve58ments in work productivity and reductions in activity impairment were seen with both CZP doses vs PBO; and were maintained to Week 48 in patients remaining in the trial. (Table).Conclusions: Treatment with CZP was associated with improvements in QoL, work productivity and social activities vs PBO at Week 16, which was maintained to Week 48 in patients remaining in the trials.Table. Improvements in DLQI and WPAI at Weeks 16 and 48PBO(n = 100)Week 16CZP 400 mg Q2W(n = 175)Week 48Week 16CZP 200 mg Q2W(n = 186)Week 48Week 16DLQI-9.8 (7.0)Mean CFB (SD)135 (77.5)MCID, n (%)DLQI 0/1, n (%)84 (48.0)WPAI Domains, mean change from baseline (SD)4.7 (22.7)Absenteeism-3.1 (6.7)41 (41.0)7 (7.0)2.9 (22.1)Presenteeism0.7 (21.8)-12.9 (25.2)Work productivity loss4.8 (28.5)-9.0 (32.7)-10.3 (7.5)121 (69.1)90 (51.4)-10.0 (8.2)131 (70.4)87 (46.8)-9.7 (8.4)113 (60.8)78 (41.9)-0.1 (17.5)[n = 96]-17.0 (26.1)[n = 96]-16.4 (28.9)[n = 96]-28.6 (28.9)[n = 129]0.7 (21.7)-9.6 (25.3)-9.0 (31.5)2.6 (15.6)[n = 89]-9.9 (27.1)[n = 89]-8.0 (30.1)[n = 89][n = 132]Activity impairment-1.5 (25.3)-23.9 (28.3)-21.0 (31.9) -23.9 (29.4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="inlineStr">
+        <is>
+          <t>Kristian Reich</t>
+        </is>
+      </c>
+      <c r="B216" s="2" t="inlineStr">
+        <is>
+          <t>University Hospital of Schleswig-Holstein Campus Lübeck, Lübeck, Ger-many, Department of Dermatology, New York Medical College at Met-ropolitan Hospital, NY, NY, SCIderm Research Institute, Hamburg, and Dermatologikum Berlin, Germany, Psoriasis Treatment Center of Central New Jersey, East Windsor, NJ, UCB Pharma, Raleigh, NC, USA, UCB Pharma, Brussels, Belgium, Niepubliczny Zakład Opieki Zdrowotnej mul-tiMedica</t>
+        </is>
+      </c>
+      <c r="C216" s="2" t="inlineStr">
+        <is>
+          <t>Wrocław, Poland</t>
+        </is>
+      </c>
+      <c r="D216" s="2" t="inlineStr">
+        <is>
+          <t>P141</t>
+        </is>
+      </c>
+      <c r="E216" s="2" t="inlineStr">
+        <is>
+          <t>CERTOLIZUMAB PEGOL IMPROVES PATIENT­REPORTED OUTCOMES IN CHRONIC PLAQUE PSORIASIS OVER 1 YEAR</t>
+        </is>
+      </c>
+      <c r="F216" s="2" t="inlineStr">
+        <is>
+          <t>Introduction: Certolizumab pegol (CZP) is an Fc-free, PEGylated, anti-TNF biologic. Here we present patient (pt)-reported quality of life (QoL), work productivity and social activities over 48 weeks of CZP treatment.Materials/Methods:  Data  were  pooled  from  CIMPASI-1 (NCT02326298) and CIMPASI-2 (NCT02326272) phase 3 trials of	adults	with	PSO	≥6	months	(psoriasis	area	and	severity	index	[PASI]	≥12,	affected	body	surface	area	[BSA]	≥10%,	physician’s	global	assessment	[PGA]	≥3/5).	Pts	were	randomized	to	CZP	400	mg every 2 weeks (Q2W), CZP 200 mg Q2W (following 400 mg loading dose at Weeks 0, 2, 4), or placebo (PBO) Q2W for 16 weeks. Week 16 CZP-treated PASI 50 responders continued initial blinded treatment to Week 48 (PBO-treated PASI 50 responders are not included). PASI 50 non-responders at Weeks 32, 40 and 48 were discontinued.Mean change from baseline (CFB) in Dermatology Life Quality Index (DLQI), rates for DLQI minimally clinically important difference	(MCID;	≥4-point	improvement)	and	DLQI	remission	(score	of 0/1), and CFB in Work Productivity and Activity Impairment (WPAI)	PSO-specific	at	Weeks	16	and	48	were	assessed.	Negative	CFB	 for	 DLQI	 and	 WPAI	 signifies	 improvement.	 CFB	 DLQI	analyses used last observation carried forward (LOCF) imputation for missing data, DLQI MCID and remission analyses used nonresponder imputation, WPAI analyses used last observation carried forward imputation at Week 16 and observed data at Week 48.Results: At Week 16, CZP pts showed greater improvements in DLQI vs PBO, and higher proportions achieved DLQI MCID and DLQI remission (Table). Improvements were maintained to Week 48 in CZP-treated pts who continued treatment (Table). Improve58ments in work productivity and reductions in activity impairment were seen with both CZP doses vs PBO; and were maintained to Week 48 in patients remaining in the trial. (Table).Conclusions: Treatment with CZP was associated with improvements in QoL, work productivity and social activities vs PBO at Week 16, which was maintained to Week 48 in patients remaining in the trials.Table. Improvements in DLQI and WPAI at Weeks 16 and 48PBO(n = 100)Week 16CZP 400 mg Q2W(n = 175)Week 48Week 16CZP 200 mg Q2W(n = 186)Week 48Week 16DLQI-9.8 (7.0)Mean CFB (SD)135 (77.5)MCID, n (%)DLQI 0/1, n (%)84 (48.0)WPAI Domains, mean change from baseline (SD)4.7 (22.7)Absenteeism-3.1 (6.7)41 (41.0)7 (7.0)2.9 (22.1)Presenteeism0.7 (21.8)-12.9 (25.2)Work productivity loss4.8 (28.5)-9.0 (32.7)-10.3 (7.5)121 (69.1)90 (51.4)-10.0 (8.2)131 (70.4)87 (46.8)-9.7 (8.4)113 (60.8)78 (41.9)-0.1 (17.5)[n = 96]-17.0 (26.1)[n = 96]-16.4 (28.9)[n = 96]-28.6 (28.9)[n = 129]0.7 (21.7)-9.6 (25.3)-9.0 (31.5)2.6 (15.6)[n = 89]-9.9 (27.1)[n = 89]-8.0 (30.1)[n = 89][n = 132]Activity impairment-1.5 (25.3)-23.9 (28.3)-21.0 (31.9) -23.9 (29.4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="inlineStr">
+        <is>
+          <t>Jerry Bagel</t>
+        </is>
+      </c>
+      <c r="B217" s="2" t="inlineStr">
+        <is>
+          <t>University Hospital of Schleswig-Holstein Campus Lübeck, Lübeck, Ger-many, Department of Dermatology, New York Medical College at Met-ropolitan Hospital, NY, NY, SCIderm Research Institute, Hamburg, and Dermatologikum Berlin, Germany, Psoriasis Treatment Center of Central New Jersey, East Windsor, NJ, UCB Pharma, Raleigh, NC, USA, UCB Pharma, Brussels, Belgium, Niepubliczny Zakład Opieki Zdrowotnej mul-tiMedica</t>
+        </is>
+      </c>
+      <c r="C217" s="2" t="inlineStr">
+        <is>
+          <t>Wrocław, Poland</t>
+        </is>
+      </c>
+      <c r="D217" s="2" t="inlineStr">
+        <is>
+          <t>P141</t>
+        </is>
+      </c>
+      <c r="E217" s="2" t="inlineStr">
+        <is>
+          <t>CERTOLIZUMAB PEGOL IMPROVES PATIENT­REPORTED OUTCOMES IN CHRONIC PLAQUE PSORIASIS OVER 1 YEAR</t>
+        </is>
+      </c>
+      <c r="F217" s="2" t="inlineStr">
+        <is>
+          <t>Introduction: Certolizumab pegol (CZP) is an Fc-free, PEGylated, anti-TNF biologic. Here we present patient (pt)-reported quality of life (QoL), work productivity and social activities over 48 weeks of CZP treatment.Materials/Methods:  Data  were  pooled  from  CIMPASI-1 (NCT02326298) and CIMPASI-2 (NCT02326272) phase 3 trials of	adults	with	PSO	≥6	months	(psoriasis	area	and	severity	index	[PASI]	≥12,	affected	body	surface	area	[BSA]	≥10%,	physician’s	global	assessment	[PGA]	≥3/5).	Pts	were	randomized	to	CZP	400	mg every 2 weeks (Q2W), CZP 200 mg Q2W (following 400 mg loading dose at Weeks 0, 2, 4), or placebo (PBO) Q2W for 16 weeks. Week 16 CZP-treated PASI 50 responders continued initial blinded treatment to Week 48 (PBO-treated PASI 50 responders are not included). PASI 50 non-responders at Weeks 32, 40 and 48 were discontinued.Mean change from baseline (CFB) in Dermatology Life Quality Index (DLQI), rates for DLQI minimally clinically important difference	(MCID;	≥4-point	improvement)	and	DLQI	remission	(score	of 0/1), and CFB in Work Productivity and Activity Impairment (WPAI)	PSO-specific	at	Weeks	16	and	48	were	assessed.	Negative	CFB	 for	 DLQI	 and	 WPAI	 signifies	 improvement.	 CFB	 DLQI	analyses used last observation carried forward (LOCF) imputation for missing data, DLQI MCID and remission analyses used nonresponder imputation, WPAI analyses used last observation carried forward imputation at Week 16 and observed data at Week 48.Results: At Week 16, CZP pts showed greater improvements in DLQI vs PBO, and higher proportions achieved DLQI MCID and DLQI remission (Table). Improvements were maintained to Week 48 in CZP-treated pts who continued treatment (Table). Improve58ments in work productivity and reductions in activity impairment were seen with both CZP doses vs PBO; and were maintained to Week 48 in patients remaining in the trial. (Table).Conclusions: Treatment with CZP was associated with improvements in QoL, work productivity and social activities vs PBO at Week 16, which was maintained to Week 48 in patients remaining in the trials.Table. Improvements in DLQI and WPAI at Weeks 16 and 48PBO(n = 100)Week 16CZP 400 mg Q2W(n = 175)Week 48Week 16CZP 200 mg Q2W(n = 186)Week 48Week 16DLQI-9.8 (7.0)Mean CFB (SD)135 (77.5)MCID, n (%)DLQI 0/1, n (%)84 (48.0)WPAI Domains, mean change from baseline (SD)4.7 (22.7)Absenteeism-3.1 (6.7)41 (41.0)7 (7.0)2.9 (22.1)Presenteeism0.7 (21.8)-12.9 (25.2)Work productivity loss4.8 (28.5)-9.0 (32.7)-10.3 (7.5)121 (69.1)90 (51.4)-10.0 (8.2)131 (70.4)87 (46.8)-9.7 (8.4)113 (60.8)78 (41.9)-0.1 (17.5)[n = 96]-17.0 (26.1)[n = 96]-16.4 (28.9)[n = 96]-28.6 (28.9)[n = 129]0.7 (21.7)-9.6 (25.3)-9.0 (31.5)2.6 (15.6)[n = 89]-9.9 (27.1)[n = 89]-8.0 (30.1)[n = 89][n = 132]Activity impairment-1.5 (25.3)-23.9 (28.3)-21.0 (31.9) -23.9 (29.4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="inlineStr">
+        <is>
+          <t>Luke Peterson</t>
+        </is>
+      </c>
+      <c r="B218" s="2" t="inlineStr">
+        <is>
+          <t>University Hospital of Schleswig-Holstein Campus Lübeck, Lübeck, Ger-many, Department of Dermatology, New York Medical College at Met-ropolitan Hospital, NY, NY, SCIderm Research Institute, Hamburg, and Dermatologikum Berlin, Germany, Psoriasis Treatment Center of Central New Jersey, East Windsor, NJ, UCB Pharma, Raleigh, NC, USA, UCB Pharma, Brussels, Belgium, Niepubliczny Zakład Opieki Zdrowotnej mul-tiMedica</t>
+        </is>
+      </c>
+      <c r="C218" s="2" t="inlineStr">
+        <is>
+          <t>Wrocław, Poland</t>
+        </is>
+      </c>
+      <c r="D218" s="2" t="inlineStr">
+        <is>
+          <t>P141</t>
+        </is>
+      </c>
+      <c r="E218" s="2" t="inlineStr">
+        <is>
+          <t>CERTOLIZUMAB PEGOL IMPROVES PATIENT­REPORTED OUTCOMES IN CHRONIC PLAQUE PSORIASIS OVER 1 YEAR</t>
+        </is>
+      </c>
+      <c r="F218" s="2" t="inlineStr">
+        <is>
+          <t>Introduction: Certolizumab pegol (CZP) is an Fc-free, PEGylated, anti-TNF biologic. Here we present patient (pt)-reported quality of life (QoL), work productivity and social activities over 48 weeks of CZP treatment.Materials/Methods:  Data  were  pooled  from  CIMPASI-1 (NCT02326298) and CIMPASI-2 (NCT02326272) phase 3 trials of	adults	with	PSO	≥6	months	(psoriasis	area	and	severity	index	[PASI]	≥12,	affected	body	surface	area	[BSA]	≥10%,	physician’s	global	assessment	[PGA]	≥3/5).	Pts	were	randomized	to	CZP	400	mg every 2 weeks (Q2W), CZP 200 mg Q2W (following 400 mg loading dose at Weeks 0, 2, 4), or placebo (PBO) Q2W for 16 weeks. Week 16 CZP-treated PASI 50 responders continued initial blinded treatment to Week 48 (PBO-treated PASI 50 responders are not included). PASI 50 non-responders at Weeks 32, 40 and 48 were discontinued.Mean change from baseline (CFB) in Dermatology Life Quality Index (DLQI), rates for DLQI minimally clinically important difference	(MCID;	≥4-point	improvement)	and	DLQI	remission	(score	of 0/1), and CFB in Work Productivity and Activity Impairment (WPAI)	PSO-specific	at	Weeks	16	and	48	were	assessed.	Negative	CFB	 for	 DLQI	 and	 WPAI	 signifies	 improvement.	 CFB	 DLQI	analyses used last observation carried forward (LOCF) imputation for missing data, DLQI MCID and remission analyses used nonresponder imputation, WPAI analyses used last observation carried forward imputation at Week 16 and observed data at Week 48.Results: At Week 16, CZP pts showed greater improvements in DLQI vs PBO, and higher proportions achieved DLQI MCID and DLQI remission (Table). Improvements were maintained to Week 48 in CZP-treated pts who continued treatment (Table). Improve58ments in work productivity and reductions in activity impairment were seen with both CZP doses vs PBO; and were maintained to Week 48 in patients remaining in the trial. (Table).Conclusions: Treatment with CZP was associated with improvements in QoL, work productivity and social activities vs PBO at Week 16, which was maintained to Week 48 in patients remaining in the trials.Table. Improvements in DLQI and WPAI at Weeks 16 and 48PBO(n = 100)Week 16CZP 400 mg Q2W(n = 175)Week 48Week 16CZP 200 mg Q2W(n = 186)Week 48Week 16DLQI-9.8 (7.0)Mean CFB (SD)135 (77.5)MCID, n (%)DLQI 0/1, n (%)84 (48.0)WPAI Domains, mean change from baseline (SD)4.7 (22.7)Absenteeism-3.1 (6.7)41 (41.0)7 (7.0)2.9 (22.1)Presenteeism0.7 (21.8)-12.9 (25.2)Work productivity loss4.8 (28.5)-9.0 (32.7)-10.3 (7.5)121 (69.1)90 (51.4)-10.0 (8.2)131 (70.4)87 (46.8)-9.7 (8.4)113 (60.8)78 (41.9)-0.1 (17.5)[n = 96]-17.0 (26.1)[n = 96]-16.4 (28.9)[n = 96]-28.6 (28.9)[n = 129]0.7 (21.7)-9.6 (25.3)-9.0 (31.5)2.6 (15.6)[n = 89]-9.9 (27.1)[n = 89]-8.0 (30.1)[n = 89][n = 132]Activity impairment-1.5 (25.3)-23.9 (28.3)-21.0 (31.9) -23.9 (29.4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="inlineStr">
+        <is>
+          <t>Oana Purcaru</t>
+        </is>
+      </c>
+      <c r="B219" s="2" t="inlineStr">
+        <is>
+          <t>University Hospital of Schleswig-Holstein Campus Lübeck, Lübeck, Ger-many, Department of Dermatology, New York Medical College at Met-ropolitan Hospital, NY, NY, SCIderm Research Institute, Hamburg, and Dermatologikum Berlin, Germany, Psoriasis Treatment Center of Central New Jersey, East Windsor, NJ, UCB Pharma, Raleigh, NC, USA, UCB Pharma, Brussels, Belgium, Niepubliczny Zakład Opieki Zdrowotnej mul-tiMedica</t>
+        </is>
+      </c>
+      <c r="C219" s="2" t="inlineStr">
+        <is>
+          <t>Wrocław, Poland</t>
+        </is>
+      </c>
+      <c r="D219" s="2" t="inlineStr">
+        <is>
+          <t>P141</t>
+        </is>
+      </c>
+      <c r="E219" s="2" t="inlineStr">
+        <is>
+          <t>CERTOLIZUMAB PEGOL IMPROVES PATIENT­REPORTED OUTCOMES IN CHRONIC PLAQUE PSORIASIS OVER 1 YEAR</t>
+        </is>
+      </c>
+      <c r="F219" s="2" t="inlineStr">
+        <is>
+          <t>Introduction: Certolizumab pegol (CZP) is an Fc-free, PEGylated, anti-TNF biologic. Here we present patient (pt)-reported quality of life (QoL), work productivity and social activities over 48 weeks of CZP treatment.Materials/Methods:  Data  were  pooled  from  CIMPASI-1 (NCT02326298) and CIMPASI-2 (NCT02326272) phase 3 trials of	adults	with	PSO	≥6	months	(psoriasis	area	and	severity	index	[PASI]	≥12,	affected	body	surface	area	[BSA]	≥10%,	physician’s	global	assessment	[PGA]	≥3/5).	Pts	were	randomized	to	CZP	400	mg every 2 weeks (Q2W), CZP 200 mg Q2W (following 400 mg loading dose at Weeks 0, 2, 4), or placebo (PBO) Q2W for 16 weeks. Week 16 CZP-treated PASI 50 responders continued initial blinded treatment to Week 48 (PBO-treated PASI 50 responders are not included). PASI 50 non-responders at Weeks 32, 40 and 48 were discontinued.Mean change from baseline (CFB) in Dermatology Life Quality Index (DLQI), rates for DLQI minimally clinically important difference	(MCID;	≥4-point	improvement)	and	DLQI	remission	(score	of 0/1), and CFB in Work Productivity and Activity Impairment (WPAI)	PSO-specific	at	Weeks	16	and	48	were	assessed.	Negative	CFB	 for	 DLQI	 and	 WPAI	 signifies	 improvement.	 CFB	 DLQI	analyses used last observation carried forward (LOCF) imputation for missing data, DLQI MCID and remission analyses used nonresponder imputation, WPAI analyses used last observation carried forward imputation at Week 16 and observed data at Week 48.Results: At Week 16, CZP pts showed greater improvements in DLQI vs PBO, and higher proportions achieved DLQI MCID and DLQI remission (Table). Improvements were maintained to Week 48 in CZP-treated pts who continued treatment (Table). Improve58ments in work productivity and reductions in activity impairment were seen with both CZP doses vs PBO; and were maintained to Week 48 in patients remaining in the trial. (Table).Conclusions: Treatment with CZP was associated with improvements in QoL, work productivity and social activities vs PBO at Week 16, which was maintained to Week 48 in patients remaining in the trials.Table. Improvements in DLQI and WPAI at Weeks 16 and 48PBO(n = 100)Week 16CZP 400 mg Q2W(n = 175)Week 48Week 16CZP 200 mg Q2W(n = 186)Week 48Week 16DLQI-9.8 (7.0)Mean CFB (SD)135 (77.5)MCID, n (%)DLQI 0/1, n (%)84 (48.0)WPAI Domains, mean change from baseline (SD)4.7 (22.7)Absenteeism-3.1 (6.7)41 (41.0)7 (7.0)2.9 (22.1)Presenteeism0.7 (21.8)-12.9 (25.2)Work productivity loss4.8 (28.5)-9.0 (32.7)-10.3 (7.5)121 (69.1)90 (51.4)-10.0 (8.2)131 (70.4)87 (46.8)-9.7 (8.4)113 (60.8)78 (41.9)-0.1 (17.5)[n = 96]-17.0 (26.1)[n = 96]-16.4 (28.9)[n = 96]-28.6 (28.9)[n = 129]0.7 (21.7)-9.6 (25.3)-9.0 (31.5)2.6 (15.6)[n = 89]-9.9 (27.1)[n = 89]-8.0 (30.1)[n = 89][n = 132]Activity impairment-1.5 (25.3)-23.9 (28.3)-21.0 (31.9) -23.9 (29.4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="inlineStr">
+        <is>
+          <t>Jolanta Węgłowska</t>
+        </is>
+      </c>
+      <c r="B220" s="2" t="inlineStr">
+        <is>
+          <t>University Hospital of Schleswig-Holstein Campus Lübeck, Lübeck, Ger-many, Department of Dermatology, New York Medical College at Met-ropolitan Hospital, NY, NY, SCIderm Research Institute, Hamburg, and Dermatologikum Berlin, Germany, Psoriasis Treatment Center of Central New Jersey, East Windsor, NJ, UCB Pharma, Raleigh, NC, USA, UCB Pharma, Brussels, Belgium, Niepubliczny Zakład Opieki Zdrowotnej mul-tiMedica</t>
+        </is>
+      </c>
+      <c r="C220" s="2" t="inlineStr">
+        <is>
+          <t>Wrocław, Poland</t>
+        </is>
+      </c>
+      <c r="D220" s="2" t="inlineStr">
+        <is>
+          <t>P141</t>
+        </is>
+      </c>
+      <c r="E220" s="2" t="inlineStr">
+        <is>
+          <t>CERTOLIZUMAB PEGOL IMPROVES PATIENT­REPORTED OUTCOMES IN CHRONIC PLAQUE PSORIASIS OVER 1 YEAR</t>
+        </is>
+      </c>
+      <c r="F220" s="2" t="inlineStr">
+        <is>
+          <t>Introduction: Certolizumab pegol (CZP) is an Fc-free, PEGylated, anti-TNF biologic. Here we present patient (pt)-reported quality of life (QoL), work productivity and social activities over 48 weeks of CZP treatment.Materials/Methods:  Data  were  pooled  from  CIMPASI-1 (NCT02326298) and CIMPASI-2 (NCT02326272) phase 3 trials of	adults	with	PSO	≥6	months	(psoriasis	area	and	severity	index	[PASI]	≥12,	affected	body	surface	area	[BSA]	≥10%,	physician’s	global	assessment	[PGA]	≥3/5).	Pts	were	randomized	to	CZP	400	mg every 2 weeks (Q2W), CZP 200 mg Q2W (following 400 mg loading dose at Weeks 0, 2, 4), or placebo (PBO) Q2W for 16 weeks. Week 16 CZP-treated PASI 50 responders continued initial blinded treatment to Week 48 (PBO-treated PASI 50 responders are not included). PASI 50 non-responders at Weeks 32, 40 and 48 were discontinued.Mean change from baseline (CFB) in Dermatology Life Quality Index (DLQI), rates for DLQI minimally clinically important difference	(MCID;	≥4-point	improvement)	and	DLQI	remission	(score	of 0/1), and CFB in Work Productivity and Activity Impairment (WPAI)	PSO-specific	at	Weeks	16	and	48	were	assessed.	Negative	CFB	 for	 DLQI	 and	 WPAI	 signifies	 improvement.	 CFB	 DLQI	analyses used last observation carried forward (LOCF) imputation for missing data, DLQI MCID and remission analyses used nonresponder imputation, WPAI analyses used last observation carried forward imputation at Week 16 and observed data at Week 48.Results: At Week 16, CZP pts showed greater improvements in DLQI vs PBO, and higher proportions achieved DLQI MCID and DLQI remission (Table). Improvements were maintained to Week 48 in CZP-treated pts who continued treatment (Table). Improve58ments in work productivity and reductions in activity impairment were seen with both CZP doses vs PBO; and were maintained to Week 48 in patients remaining in the trial. (Table).Conclusions: Treatment with CZP was associated with improvements in QoL, work productivity and social activities vs PBO at Week 16, which was maintained to Week 48 in patients remaining in the trials.Table. Improvements in DLQI and WPAI at Weeks 16 and 48PBO(n = 100)Week 16CZP 400 mg Q2W(n = 175)Week 48Week 16CZP 200 mg Q2W(n = 186)Week 48Week 16DLQI-9.8 (7.0)Mean CFB (SD)135 (77.5)MCID, n (%)DLQI 0/1, n (%)84 (48.0)WPAI Domains, mean change from baseline (SD)4.7 (22.7)Absenteeism-3.1 (6.7)41 (41.0)7 (7.0)2.9 (22.1)Presenteeism0.7 (21.8)-12.9 (25.2)Work productivity loss4.8 (28.5)-9.0 (32.7)-10.3 (7.5)121 (69.1)90 (51.4)-10.0 (8.2)131 (70.4)87 (46.8)-9.7 (8.4)113 (60.8)78 (41.9)-0.1 (17.5)[n = 96]-17.0 (26.1)[n = 96]-16.4 (28.9)[n = 96]-28.6 (28.9)[n = 129]0.7 (21.7)-9.6 (25.3)-9.0 (31.5)2.6 (15.6)[n = 89]-9.9 (27.1)[n = 89]-8.0 (30.1)[n = 89][n = 132]Activity impairment-1.5 (25.3)-23.9 (28.3)-21.0 (31.9) -23.9 (29.4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="inlineStr">
+        <is>
+          <t>Matthias Augustin</t>
+        </is>
+      </c>
+      <c r="B221" s="2" t="inlineStr">
+        <is>
+          <t>University Medical Center Hamburg-Eppendorf, University Gera, BVDD, University of Leipzig, University Hospital Kiel, University Med-ical Center Leipzig, University Munich, University Bonn, Dermatology Breitbart, University Kiel</t>
+        </is>
+      </c>
+      <c r="C221" s="2" t="inlineStr"/>
+      <c r="D221" s="2" t="inlineStr">
+        <is>
+          <t>P142</t>
+        </is>
+      </c>
+      <c r="E221" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TRANSLATING WHO RESOLUTION INTO THE PUBLIC: THE GERMAN PROGRAM AGAINST STIGMATIZATION OF PEOPLE WITH CHRONIC VISIBLE SKIN DISEASES </t>
+        </is>
+      </c>
+      <c r="F221" s="2" t="inlineStr">
+        <is>
+          <t>Introduction:  The  WHO  resolution  2014  raised  fundamental demands for the health care system to increase the awareness for patients with chronic skin diseases such as psoriasis, including its fight	against	stigmatization.	Single	member	states	were	encouraged	to take action on all levels, including public awareness campaigns. After a period of refusal, the German ministry of health approved a project submitted by German dermatologists, patient groups and further experts to develop interventions against stigmatization. evaluate public interventions against stigmatization of people with visible skin diseases.Methods: The project consist of three phases. Within a one-year period  current  research  will  be  processed  through  a  systematic literature search; recommendations for intervention formats will be derived. The consecutive 18 months involve the development of	defined	intervention	formats.	The	interventions	are	supposed	to  focus  on  locations  of  stigma  and  encounters  of  stigmatizing with stigmatized persons.Results: The application has been approved and is funded by the German ministry of health for a period of three years throughout the  years  2018  to  2021.  The  project  group  consists  of  25  dermatology-,  science-  and  patient-experts  who  work  in  operative groups in order to develop the content and the intervention format. In doing so, different levels of the stigmatization process, namely stereotypes, prejudice, discrimination are considered as important aspects and will be accounted for in the development of the intervention. First results of the literature review imply that people with visible skin disease such as psoriasis are affected by stigmatization in several dimensions and strategies for reducing the stigma are required.Conclusion: Following the WHO resolution, this project is an example for successful project initiation of an interdisciplinary team to develop and implement an intervention against stigmatization. First outcomes will be a comprehensive review of papers derived from the systematic literature search in May 2018.</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="inlineStr">
+        <is>
+          <t>Claudia Luck-Sikorski</t>
+        </is>
+      </c>
+      <c r="B222" s="2" t="inlineStr">
+        <is>
+          <t>University Medical Center Hamburg-Eppendorf, University Gera, BVDD, University of Leipzig, University Hospital Kiel, University Med-ical Center Leipzig, University Munich, University Bonn, Dermatology Breitbart, University Kiel</t>
+        </is>
+      </c>
+      <c r="C222" s="2" t="inlineStr"/>
+      <c r="D222" s="2" t="inlineStr">
+        <is>
+          <t>P142</t>
+        </is>
+      </c>
+      <c r="E222" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TRANSLATING WHO RESOLUTION INTO THE PUBLIC: THE GERMAN PROGRAM AGAINST STIGMATIZATION OF PEOPLE WITH CHRONIC VISIBLE SKIN DISEASES </t>
+        </is>
+      </c>
+      <c r="F222" s="2" t="inlineStr">
+        <is>
+          <t>Introduction:  The  WHO  resolution  2014  raised  fundamental demands for the health care system to increase the awareness for patients with chronic skin diseases such as psoriasis, including its fight	against	stigmatization.	Single	member	states	were	encouraged	to take action on all levels, including public awareness campaigns. After a period of refusal, the German ministry of health approved a project submitted by German dermatologists, patient groups and further experts to develop interventions against stigmatization. evaluate public interventions against stigmatization of people with visible skin diseases.Methods: The project consist of three phases. Within a one-year period  current  research  will  be  processed  through  a  systematic literature search; recommendations for intervention formats will be derived. The consecutive 18 months involve the development of	defined	intervention	formats.	The	interventions	are	supposed	to  focus  on  locations  of  stigma  and  encounters  of  stigmatizing with stigmatized persons.Results: The application has been approved and is funded by the German ministry of health for a period of three years throughout the  years  2018  to  2021.  The  project  group  consists  of  25  dermatology-,  science-  and  patient-experts  who  work  in  operative groups in order to develop the content and the intervention format. In doing so, different levels of the stigmatization process, namely stereotypes, prejudice, discrimination are considered as important aspects and will be accounted for in the development of the intervention. First results of the literature review imply that people with visible skin disease such as psoriasis are affected by stigmatization in several dimensions and strategies for reducing the stigma are required.Conclusion: Following the WHO resolution, this project is an example for successful project initiation of an interdisciplinary team to develop and implement an intervention against stigmatization. First outcomes will be a comprehensive review of papers derived from the systematic literature search in May 2018.</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="inlineStr">
+        <is>
+          <t>Rachel Sommer</t>
+        </is>
+      </c>
+      <c r="B223" s="2" t="inlineStr">
+        <is>
+          <t>University Medical Center Hamburg-Eppendorf, University Gera, BVDD, University of Leipzig, University Hospital Kiel, University Med-ical Center Leipzig, University Munich, University Bonn, Dermatology Breitbart, University Kiel</t>
+        </is>
+      </c>
+      <c r="C223" s="2" t="inlineStr"/>
+      <c r="D223" s="2" t="inlineStr">
+        <is>
+          <t>P142</t>
+        </is>
+      </c>
+      <c r="E223" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TRANSLATING WHO RESOLUTION INTO THE PUBLIC: THE GERMAN PROGRAM AGAINST STIGMATIZATION OF PEOPLE WITH CHRONIC VISIBLE SKIN DISEASES </t>
+        </is>
+      </c>
+      <c r="F223" s="2" t="inlineStr">
+        <is>
+          <t>Introduction:  The  WHO  resolution  2014  raised  fundamental demands for the health care system to increase the awareness for patients with chronic skin diseases such as psoriasis, including its fight	against	stigmatization.	Single	member	states	were	encouraged	to take action on all levels, including public awareness campaigns. After a period of refusal, the German ministry of health approved a project submitted by German dermatologists, patient groups and further experts to develop interventions against stigmatization. evaluate public interventions against stigmatization of people with visible skin diseases.Methods: The project consist of three phases. Within a one-year period  current  research  will  be  processed  through  a  systematic literature search; recommendations for intervention formats will be derived. The consecutive 18 months involve the development of	defined	intervention	formats.	The	interventions	are	supposed	to  focus  on  locations  of  stigma  and  encounters  of  stigmatizing with stigmatized persons.Results: The application has been approved and is funded by the German ministry of health for a period of three years throughout the  years  2018  to  2021.  The  project  group  consists  of  25  dermatology-,  science-  and  patient-experts  who  work  in  operative groups in order to develop the content and the intervention format. In doing so, different levels of the stigmatization process, namely stereotypes, prejudice, discrimination are considered as important aspects and will be accounted for in the development of the intervention. First results of the literature review imply that people with visible skin disease such as psoriasis are affected by stigmatization in several dimensions and strategies for reducing the stigma are required.Conclusion: Following the WHO resolution, this project is an example for successful project initiation of an interdisciplinary team to develop and implement an intervention against stigmatization. First outcomes will be a comprehensive review of papers derived from the systematic literature search in May 2018.</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="inlineStr">
+        <is>
+          <t>Ja-nine Topp</t>
+        </is>
+      </c>
+      <c r="B224" s="2" t="inlineStr">
+        <is>
+          <t>University Medical Center Hamburg-Eppendorf, University Gera, BVDD, University of Leipzig, University Hospital Kiel, University Med-ical Center Leipzig, University Munich, University Bonn, Dermatology Breitbart, University Kiel</t>
+        </is>
+      </c>
+      <c r="C224" s="2" t="inlineStr"/>
+      <c r="D224" s="2" t="inlineStr">
+        <is>
+          <t>P142</t>
+        </is>
+      </c>
+      <c r="E224" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TRANSLATING WHO RESOLUTION INTO THE PUBLIC: THE GERMAN PROGRAM AGAINST STIGMATIZATION OF PEOPLE WITH CHRONIC VISIBLE SKIN DISEASES </t>
+        </is>
+      </c>
+      <c r="F224" s="2" t="inlineStr">
+        <is>
+          <t>Introduction:  The  WHO  resolution  2014  raised  fundamental demands for the health care system to increase the awareness for patients with chronic skin diseases such as psoriasis, including its fight	against	stigmatization.	Single	member	states	were	encouraged	to take action on all levels, including public awareness campaigns. After a period of refusal, the German ministry of health approved a project submitted by German dermatologists, patient groups and further experts to develop interventions against stigmatization. evaluate public interventions against stigmatization of people with visible skin diseases.Methods: The project consist of three phases. Within a one-year period  current  research  will  be  processed  through  a  systematic literature search; recommendations for intervention formats will be derived. The consecutive 18 months involve the development of	defined	intervention	formats.	The	interventions	are	supposed	to  focus  on  locations  of  stigma  and  encounters  of  stigmatizing with stigmatized persons.Results: The application has been approved and is funded by the German ministry of health for a period of three years throughout the  years  2018  to  2021.  The  project  group  consists  of  25  dermatology-,  science-  and  patient-experts  who  work  in  operative groups in order to develop the content and the intervention format. In doing so, different levels of the stigmatization process, namely stereotypes, prejudice, discrimination are considered as important aspects and will be accounted for in the development of the intervention. First results of the literature review imply that people with visible skin disease such as psoriasis are affected by stigmatization in several dimensions and strategies for reducing the stigma are required.Conclusion: Following the WHO resolution, this project is an example for successful project initiation of an interdisciplinary team to develop and implement an intervention against stigmatization. First outcomes will be a comprehensive review of papers derived from the systematic literature search in May 2018.</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="inlineStr">
+        <is>
+          <t>Ines Schaefer</t>
+        </is>
+      </c>
+      <c r="B225" s="2" t="inlineStr">
+        <is>
+          <t>University Medical Center Hamburg-Eppendorf, University Gera, BVDD, University of Leipzig, University Hospital Kiel, University Med-ical Center Leipzig, University Munich, University Bonn, Dermatology Breitbart, University Kiel</t>
+        </is>
+      </c>
+      <c r="C225" s="2" t="inlineStr"/>
+      <c r="D225" s="2" t="inlineStr">
+        <is>
+          <t>P142</t>
+        </is>
+      </c>
+      <c r="E225" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TRANSLATING WHO RESOLUTION INTO THE PUBLIC: THE GERMAN PROGRAM AGAINST STIGMATIZATION OF PEOPLE WITH CHRONIC VISIBLE SKIN DISEASES </t>
+        </is>
+      </c>
+      <c r="F225" s="2" t="inlineStr">
+        <is>
+          <t>Introduction:  The  WHO  resolution  2014  raised  fundamental demands for the health care system to increase the awareness for patients with chronic skin diseases such as psoriasis, including its fight	against	stigmatization.	Single	member	states	were	encouraged	to take action on all levels, including public awareness campaigns. After a period of refusal, the German ministry of health approved a project submitted by German dermatologists, patient groups and further experts to develop interventions against stigmatization. evaluate public interventions against stigmatization of people with visible skin diseases.Methods: The project consist of three phases. Within a one-year period  current  research  will  be  processed  through  a  systematic literature search; recommendations for intervention formats will be derived. The consecutive 18 months involve the development of	defined	intervention	formats.	The	interventions	are	supposed	to  focus  on  locations  of  stigma  and  encounters  of  stigmatizing with stigmatized persons.Results: The application has been approved and is funded by the German ministry of health for a period of three years throughout the  years  2018  to  2021.  The  project  group  consists  of  25  dermatology-,  science-  and  patient-experts  who  work  in  operative groups in order to develop the content and the intervention format. In doing so, different levels of the stigmatization process, namely stereotypes, prejudice, discrimination are considered as important aspects and will be accounted for in the development of the intervention. First results of the literature review imply that people with visible skin disease such as psoriasis are affected by stigmatization in several dimensions and strategies for reducing the stigma are required.Conclusion: Following the WHO resolution, this project is an example for successful project initiation of an interdisciplinary team to develop and implement an intervention against stigmatization. First outcomes will be a comprehensive review of papers derived from the systematic literature search in May 2018.</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="inlineStr">
+        <is>
+          <t>Marc Radtke</t>
+        </is>
+      </c>
+      <c r="B226" s="2" t="inlineStr">
+        <is>
+          <t>University Medical Center Hamburg-Eppendorf, University Gera, BVDD, University of Leipzig, University Hospital Kiel, University Med-ical Center Leipzig, University Munich, University Bonn, Dermatology Breitbart, University Kiel</t>
+        </is>
+      </c>
+      <c r="C226" s="2" t="inlineStr"/>
+      <c r="D226" s="2" t="inlineStr">
+        <is>
+          <t>P142</t>
+        </is>
+      </c>
+      <c r="E226" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TRANSLATING WHO RESOLUTION INTO THE PUBLIC: THE GERMAN PROGRAM AGAINST STIGMATIZATION OF PEOPLE WITH CHRONIC VISIBLE SKIN DISEASES </t>
+        </is>
+      </c>
+      <c r="F226" s="2" t="inlineStr">
+        <is>
+          <t>Introduction:  The  WHO  resolution  2014  raised  fundamental demands for the health care system to increase the awareness for patients with chronic skin diseases such as psoriasis, including its fight	against	stigmatization.	Single	member	states	were	encouraged	to take action on all levels, including public awareness campaigns. After a period of refusal, the German ministry of health approved a project submitted by German dermatologists, patient groups and further experts to develop interventions against stigmatization. evaluate public interventions against stigmatization of people with visible skin diseases.Methods: The project consist of three phases. Within a one-year period  current  research  will  be  processed  through  a  systematic literature search; recommendations for intervention formats will be derived. The consecutive 18 months involve the development of	defined	intervention	formats.	The	interventions	are	supposed	to  focus  on  locations  of  stigma  and  encounters  of  stigmatizing with stigmatized persons.Results: The application has been approved and is funded by the German ministry of health for a period of three years throughout the  years  2018  to  2021.  The  project  group  consists  of  25  dermatology-,  science-  and  patient-experts  who  work  in  operative groups in order to develop the content and the intervention format. In doing so, different levels of the stigmatization process, namely stereotypes, prejudice, discrimination are considered as important aspects and will be accounted for in the development of the intervention. First results of the literature review imply that people with visible skin disease such as psoriasis are affected by stigmatization in several dimensions and strategies for reducing the stigma are required.Conclusion: Following the WHO resolution, this project is an example for successful project initiation of an interdisciplinary team to develop and implement an intervention against stigmatization. First outcomes will be a comprehensive review of papers derived from the systematic literature search in May 2018.</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="inlineStr">
+        <is>
+          <t>Sophie Schlette</t>
+        </is>
+      </c>
+      <c r="B227" s="2" t="inlineStr">
+        <is>
+          <t>University Medical Center Hamburg-Eppendorf, University Gera, BVDD, University of Leipzig, University Hospital Kiel, University Med-ical Center Leipzig, University Munich, University Bonn, Dermatology Breitbart, University Kiel</t>
+        </is>
+      </c>
+      <c r="C227" s="2" t="inlineStr"/>
+      <c r="D227" s="2" t="inlineStr">
+        <is>
+          <t>P142</t>
+        </is>
+      </c>
+      <c r="E227" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TRANSLATING WHO RESOLUTION INTO THE PUBLIC: THE GERMAN PROGRAM AGAINST STIGMATIZATION OF PEOPLE WITH CHRONIC VISIBLE SKIN DISEASES </t>
+        </is>
+      </c>
+      <c r="F227" s="2" t="inlineStr">
+        <is>
+          <t>Introduction:  The  WHO  resolution  2014  raised  fundamental demands for the health care system to increase the awareness for patients with chronic skin diseases such as psoriasis, including its fight	against	stigmatization.	Single	member	states	were	encouraged	to take action on all levels, including public awareness campaigns. After a period of refusal, the German ministry of health approved a project submitted by German dermatologists, patient groups and further experts to develop interventions against stigmatization. evaluate public interventions against stigmatization of people with visible skin diseases.Methods: The project consist of three phases. Within a one-year period  current  research  will  be  processed  through  a  systematic literature search; recommendations for intervention formats will be derived. The consecutive 18 months involve the development of	defined	intervention	formats.	The	interventions	are	supposed	to  focus  on  locations  of  stigma  and  encounters  of  stigmatizing with stigmatized persons.Results: The application has been approved and is funded by the German ministry of health for a period of three years throughout the  years  2018  to  2021.  The  project  group  consists  of  25  dermatology-,  science-  and  patient-experts  who  work  in  operative groups in order to develop the content and the intervention format. In doing so, different levels of the stigmatization process, namely stereotypes, prejudice, discrimination are considered as important aspects and will be accounted for in the development of the intervention. First results of the literature review imply that people with visible skin disease such as psoriasis are affected by stigmatization in several dimensions and strategies for reducing the stigma are required.Conclusion: Following the WHO resolution, this project is an example for successful project initiation of an interdisciplinary team to develop and implement an intervention against stigmatization. First outcomes will be a comprehensive review of papers derived from the systematic literature search in May 2018.</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="inlineStr">
+        <is>
+          <t>Nata-scha Weinberger</t>
+        </is>
+      </c>
+      <c r="B228" s="2" t="inlineStr">
+        <is>
+          <t>University Medical Center Hamburg-Eppendorf, University Gera, BVDD, University of Leipzig, University Hospital Kiel, University Med-ical Center Leipzig, University Munich, University Bonn, Dermatology Breitbart, University Kiel</t>
+        </is>
+      </c>
+      <c r="C228" s="2" t="inlineStr"/>
+      <c r="D228" s="2" t="inlineStr">
+        <is>
+          <t>P142</t>
+        </is>
+      </c>
+      <c r="E228" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TRANSLATING WHO RESOLUTION INTO THE PUBLIC: THE GERMAN PROGRAM AGAINST STIGMATIZATION OF PEOPLE WITH CHRONIC VISIBLE SKIN DISEASES </t>
+        </is>
+      </c>
+      <c r="F228" s="2" t="inlineStr">
+        <is>
+          <t>Introduction:  The  WHO  resolution  2014  raised  fundamental demands for the health care system to increase the awareness for patients with chronic skin diseases such as psoriasis, including its fight	against	stigmatization.	Single	member	states	were	encouraged	to take action on all levels, including public awareness campaigns. After a period of refusal, the German ministry of health approved a project submitted by German dermatologists, patient groups and further experts to develop interventions against stigmatization. evaluate public interventions against stigmatization of people with visible skin diseases.Methods: The project consist of three phases. Within a one-year period  current  research  will  be  processed  through  a  systematic literature search; recommendations for intervention formats will be derived. The consecutive 18 months involve the development of	defined	intervention	formats.	The	interventions	are	supposed	to  focus  on  locations  of  stigma  and  encounters  of  stigmatizing with stigmatized persons.Results: The application has been approved and is funded by the German ministry of health for a period of three years throughout the  years  2018  to  2021.  The  project  group  consists  of  25  dermatology-,  science-  and  patient-experts  who  work  in  operative groups in order to develop the content and the intervention format. In doing so, different levels of the stigmatization process, namely stereotypes, prejudice, discrimination are considered as important aspects and will be accounted for in the development of the intervention. First results of the literature review imply that people with visible skin disease such as psoriasis are affected by stigmatization in several dimensions and strategies for reducing the stigma are required.Conclusion: Following the WHO resolution, this project is an example for successful project initiation of an interdisciplinary team to develop and implement an intervention against stigmatization. First outcomes will be a comprehensive review of papers derived from the systematic literature search in May 2018.</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="inlineStr">
+        <is>
+          <t>Regina Spreckelsen</t>
+        </is>
+      </c>
+      <c r="B229" s="2" t="inlineStr">
+        <is>
+          <t>University Medical Center Hamburg-Eppendorf, University Gera, BVDD, University of Leipzig, University Hospital Kiel, University Med-ical Center Leipzig, University Munich, University Bonn, Dermatology Breitbart, University Kiel</t>
+        </is>
+      </c>
+      <c r="C229" s="2" t="inlineStr"/>
+      <c r="D229" s="2" t="inlineStr">
+        <is>
+          <t>P142</t>
+        </is>
+      </c>
+      <c r="E229" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TRANSLATING WHO RESOLUTION INTO THE PUBLIC: THE GERMAN PROGRAM AGAINST STIGMATIZATION OF PEOPLE WITH CHRONIC VISIBLE SKIN DISEASES </t>
+        </is>
+      </c>
+      <c r="F229" s="2" t="inlineStr">
+        <is>
+          <t>Introduction:  The  WHO  resolution  2014  raised  fundamental demands for the health care system to increase the awareness for patients with chronic skin diseases such as psoriasis, including its fight	against	stigmatization.	Single	member	states	were	encouraged	to take action on all levels, including public awareness campaigns. After a period of refusal, the German ministry of health approved a project submitted by German dermatologists, patient groups and further experts to develop interventions against stigmatization. evaluate public interventions against stigmatization of people with visible skin diseases.Methods: The project consist of three phases. Within a one-year period  current  research  will  be  processed  through  a  systematic literature search; recommendations for intervention formats will be derived. The consecutive 18 months involve the development of	defined	intervention	formats.	The	interventions	are	supposed	to  focus  on  locations  of  stigma  and  encounters  of  stigmatizing with stigmatized persons.Results: The application has been approved and is funded by the German ministry of health for a period of three years throughout the  years  2018  to  2021.  The  project  group  consists  of  25  dermatology-,  science-  and  patient-experts  who  work  in  operative groups in order to develop the content and the intervention format. In doing so, different levels of the stigmatization process, namely stereotypes, prejudice, discrimination are considered as important aspects and will be accounted for in the development of the intervention. First results of the literature review imply that people with visible skin disease such as psoriasis are affected by stigmatization in several dimensions and strategies for reducing the stigma are required.Conclusion: Following the WHO resolution, this project is an example for successful project initiation of an interdisciplinary team to develop and implement an intervention against stigmatization. First outcomes will be a comprehensive review of papers derived from the systematic literature search in May 2018.</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="inlineStr">
+        <is>
+          <t>Anja Hilbert</t>
+        </is>
+      </c>
+      <c r="B230" s="2" t="inlineStr">
+        <is>
+          <t>University Medical Center Hamburg-Eppendorf, University Gera, BVDD, University of Leipzig, University Hospital Kiel, University Med-ical Center Leipzig, University Munich, University Bonn, Dermatology Breitbart, University Kiel</t>
+        </is>
+      </c>
+      <c r="C230" s="2" t="inlineStr"/>
+      <c r="D230" s="2" t="inlineStr">
+        <is>
+          <t>P142</t>
+        </is>
+      </c>
+      <c r="E230" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TRANSLATING WHO RESOLUTION INTO THE PUBLIC: THE GERMAN PROGRAM AGAINST STIGMATIZATION OF PEOPLE WITH CHRONIC VISIBLE SKIN DISEASES </t>
+        </is>
+      </c>
+      <c r="F230" s="2" t="inlineStr">
+        <is>
+          <t>Introduction:  The  WHO  resolution  2014  raised  fundamental demands for the health care system to increase the awareness for patients with chronic skin diseases such as psoriasis, including its fight	against	stigmatization.	Single	member	states	were	encouraged	to take action on all levels, including public awareness campaigns. After a period of refusal, the German ministry of health approved a project submitted by German dermatologists, patient groups and further experts to develop interventions against stigmatization. evaluate public interventions against stigmatization of people with visible skin diseases.Methods: The project consist of three phases. Within a one-year period  current  research  will  be  processed  through  a  systematic literature search; recommendations for intervention formats will be derived. The consecutive 18 months involve the development of	defined	intervention	formats.	The	interventions	are	supposed	to  focus  on  locations  of  stigma  and  encounters  of  stigmatizing with stigmatized persons.Results: The application has been approved and is funded by the German ministry of health for a period of three years throughout the  years  2018  to  2021.  The  project  group  consists  of  25  dermatology-,  science-  and  patient-experts  who  work  in  operative groups in order to develop the content and the intervention format. In doing so, different levels of the stigmatization process, namely stereotypes, prejudice, discrimination are considered as important aspects and will be accounted for in the development of the intervention. First results of the literature review imply that people with visible skin disease such as psoriasis are affected by stigmatization in several dimensions and strategies for reducing the stigma are required.Conclusion: Following the WHO resolution, this project is an example for successful project initiation of an interdisciplinary team to develop and implement an intervention against stigmatization. First outcomes will be a comprehensive review of papers derived from the systematic literature search in May 2018.</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="inlineStr">
+        <is>
+          <t>Alexander Zink</t>
+        </is>
+      </c>
+      <c r="B231" s="2" t="inlineStr">
+        <is>
+          <t>University Medical Center Hamburg-Eppendorf, University Gera, BVDD, University of Leipzig, University Hospital Kiel, University Med-ical Center Leipzig, University Munich, University Bonn, Dermatology Breitbart, University Kiel</t>
+        </is>
+      </c>
+      <c r="C231" s="2" t="inlineStr"/>
+      <c r="D231" s="2" t="inlineStr">
+        <is>
+          <t>P142</t>
+        </is>
+      </c>
+      <c r="E231" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TRANSLATING WHO RESOLUTION INTO THE PUBLIC: THE GERMAN PROGRAM AGAINST STIGMATIZATION OF PEOPLE WITH CHRONIC VISIBLE SKIN DISEASES </t>
+        </is>
+      </c>
+      <c r="F231" s="2" t="inlineStr">
+        <is>
+          <t>Introduction:  The  WHO  resolution  2014  raised  fundamental demands for the health care system to increase the awareness for patients with chronic skin diseases such as psoriasis, including its fight	against	stigmatization.	Single	member	states	were	encouraged	to take action on all levels, including public awareness campaigns. After a period of refusal, the German ministry of health approved a project submitted by German dermatologists, patient groups and further experts to develop interventions against stigmatization. evaluate public interventions against stigmatization of people with visible skin diseases.Methods: The project consist of three phases. Within a one-year period  current  research  will  be  processed  through  a  systematic literature search; recommendations for intervention formats will be derived. The consecutive 18 months involve the development of	defined	intervention	formats.	The	interventions	are	supposed	to  focus  on  locations  of  stigma  and  encounters  of  stigmatizing with stigmatized persons.Results: The application has been approved and is funded by the German ministry of health for a period of three years throughout the  years  2018  to  2021.  The  project  group  consists  of  25  dermatology-,  science-  and  patient-experts  who  work  in  operative groups in order to develop the content and the intervention format. In doing so, different levels of the stigmatization process, namely stereotypes, prejudice, discrimination are considered as important aspects and will be accounted for in the development of the intervention. First results of the literature review imply that people with visible skin disease such as psoriasis are affected by stigmatization in several dimensions and strategies for reducing the stigma are required.Conclusion: Following the WHO resolution, this project is an example for successful project initiation of an interdisciplinary team to develop and implement an intervention against stigmatization. First outcomes will be a comprehensive review of papers derived from the systematic literature search in May 2018.</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="inlineStr">
+        <is>
+          <t>Dagmar Wilsmann-Theis</t>
+        </is>
+      </c>
+      <c r="B232" s="2" t="inlineStr">
+        <is>
+          <t>University Medical Center Hamburg-Eppendorf, University Gera, BVDD, University of Leipzig, University Hospital Kiel, University Med-ical Center Leipzig, University Munich, University Bonn, Dermatology Breitbart, University Kiel</t>
+        </is>
+      </c>
+      <c r="C232" s="2" t="inlineStr"/>
+      <c r="D232" s="2" t="inlineStr">
+        <is>
+          <t>P142</t>
+        </is>
+      </c>
+      <c r="E232" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TRANSLATING WHO RESOLUTION INTO THE PUBLIC: THE GERMAN PROGRAM AGAINST STIGMATIZATION OF PEOPLE WITH CHRONIC VISIBLE SKIN DISEASES </t>
+        </is>
+      </c>
+      <c r="F232" s="2" t="inlineStr">
+        <is>
+          <t>Introduction:  The  WHO  resolution  2014  raised  fundamental demands for the health care system to increase the awareness for patients with chronic skin diseases such as psoriasis, including its fight	against	stigmatization.	Single	member	states	were	encouraged	to take action on all levels, including public awareness campaigns. After a period of refusal, the German ministry of health approved a project submitted by German dermatologists, patient groups and further experts to develop interventions against stigmatization. evaluate public interventions against stigmatization of people with visible skin diseases.Methods: The project consist of three phases. Within a one-year period  current  research  will  be  processed  through  a  systematic literature search; recommendations for intervention formats will be derived. The consecutive 18 months involve the development of	defined	intervention	formats.	The	interventions	are	supposed	to  focus  on  locations  of  stigma  and  encounters  of  stigmatizing with stigmatized persons.Results: The application has been approved and is funded by the German ministry of health for a period of three years throughout the  years  2018  to  2021.  The  project  group  consists  of  25  dermatology-,  science-  and  patient-experts  who  work  in  operative groups in order to develop the content and the intervention format. In doing so, different levels of the stigmatization process, namely stereotypes, prejudice, discrimination are considered as important aspects and will be accounted for in the development of the intervention. First results of the literature review imply that people with visible skin disease such as psoriasis are affected by stigmatization in several dimensions and strategies for reducing the stigma are required.Conclusion: Following the WHO resolution, this project is an example for successful project initiation of an interdisciplinary team to develop and implement an intervention against stigmatization. First outcomes will be a comprehensive review of papers derived from the systematic literature search in May 2018.</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="inlineStr">
+        <is>
+          <t>Eckardt Breitbart</t>
+        </is>
+      </c>
+      <c r="B233" s="2" t="inlineStr">
+        <is>
+          <t>University Medical Center Hamburg-Eppendorf, University Gera, BVDD, University of Leipzig, University Hospital Kiel, University Med-ical Center Leipzig, University Munich, University Bonn, Dermatology Breitbart, University Kiel</t>
+        </is>
+      </c>
+      <c r="C233" s="2" t="inlineStr"/>
+      <c r="D233" s="2" t="inlineStr">
+        <is>
+          <t>P142</t>
+        </is>
+      </c>
+      <c r="E233" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TRANSLATING WHO RESOLUTION INTO THE PUBLIC: THE GERMAN PROGRAM AGAINST STIGMATIZATION OF PEOPLE WITH CHRONIC VISIBLE SKIN DISEASES </t>
+        </is>
+      </c>
+      <c r="F233" s="2" t="inlineStr">
+        <is>
+          <t>Introduction:  The  WHO  resolution  2014  raised  fundamental demands for the health care system to increase the awareness for patients with chronic skin diseases such as psoriasis, including its fight	against	stigmatization.	Single	member	states	were	encouraged	to take action on all levels, including public awareness campaigns. After a period of refusal, the German ministry of health approved a project submitted by German dermatologists, patient groups and further experts to develop interventions against stigmatization. evaluate public interventions against stigmatization of people with visible skin diseases.Methods: The project consist of three phases. Within a one-year period  current  research  will  be  processed  through  a  systematic literature search; recommendations for intervention formats will be derived. The consecutive 18 months involve the development of	defined	intervention	formats.	The	interventions	are	supposed	to  focus  on  locations  of  stigma  and  encounters  of  stigmatizing with stigmatized persons.Results: The application has been approved and is funded by the German ministry of health for a period of three years throughout the  years  2018  to  2021.  The  project  group  consists  of  25  dermatology-,  science-  and  patient-experts  who  work  in  operative groups in order to develop the content and the intervention format. In doing so, different levels of the stigmatization process, namely stereotypes, prejudice, discrimination are considered as important aspects and will be accounted for in the development of the intervention. First results of the literature review imply that people with visible skin disease such as psoriasis are affected by stigmatization in several dimensions and strategies for reducing the stigma are required.Conclusion: Following the WHO resolution, this project is an example for successful project initiation of an interdisciplinary team to develop and implement an intervention against stigmatization. First outcomes will be a comprehensive review of papers derived from the systematic literature search in May 2018.</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="inlineStr">
+        <is>
+          <t>Ulrich Mro-wietz</t>
+        </is>
+      </c>
+      <c r="B234" s="2" t="inlineStr">
+        <is>
+          <t>University Medical Center Hamburg-Eppendorf, University Gera, BVDD, University of Leipzig, University Hospital Kiel, University Med-ical Center Leipzig, University Munich, University Bonn, Dermatology Breitbart, University Kiel</t>
+        </is>
+      </c>
+      <c r="C234" s="2" t="inlineStr"/>
+      <c r="D234" s="2" t="inlineStr">
+        <is>
+          <t>P142</t>
+        </is>
+      </c>
+      <c r="E234" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TRANSLATING WHO RESOLUTION INTO THE PUBLIC: THE GERMAN PROGRAM AGAINST STIGMATIZATION OF PEOPLE WITH CHRONIC VISIBLE SKIN DISEASES </t>
+        </is>
+      </c>
+      <c r="F234" s="2" t="inlineStr">
+        <is>
+          <t>Introduction:  The  WHO  resolution  2014  raised  fundamental demands for the health care system to increase the awareness for patients with chronic skin diseases such as psoriasis, including its fight	against	stigmatization.	Single	member	states	were	encouraged	to take action on all levels, including public awareness campaigns. After a period of refusal, the German ministry of health approved a project submitted by German dermatologists, patient groups and further experts to develop interventions against stigmatization. evaluate public interventions against stigmatization of people with visible skin diseases.Methods: The project consist of three phases. Within a one-year period  current  research  will  be  processed  through  a  systematic literature search; recommendations for intervention formats will be derived. The consecutive 18 months involve the development of	defined	intervention	formats.	The	interventions	are	supposed	to  focus  on  locations  of  stigma  and  encounters  of  stigmatizing with stigmatized persons.Results: The application has been approved and is funded by the German ministry of health for a period of three years throughout the  years  2018  to  2021.  The  project  group  consists  of  25  dermatology-,  science-  and  patient-experts  who  work  in  operative groups in order to develop the content and the intervention format. In doing so, different levels of the stigmatization process, namely stereotypes, prejudice, discrimination are considered as important aspects and will be accounted for in the development of the intervention. First results of the literature review imply that people with visible skin disease such as psoriasis are affected by stigmatization in several dimensions and strategies for reducing the stigma are required.Conclusion: Following the WHO resolution, this project is an example for successful project initiation of an interdisciplinary team to develop and implement an intervention against stigmatization. First outcomes will be a comprehensive review of papers derived from the systematic literature search in May 2018.</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="inlineStr">
+        <is>
+          <t>Matthias Augustin</t>
+        </is>
+      </c>
+      <c r="B235" s="2" t="inlineStr">
+        <is>
+          <t>University Medical Center Hamburg, Institute for Health Services Re-search in Dermatology and Nursing (IVDP), International Alliance of Dermatology Patient Organisations – IADPO, University of Cardiff</t>
+        </is>
+      </c>
+      <c r="C235" s="2" t="inlineStr"/>
+      <c r="D235" s="2" t="inlineStr">
+        <is>
+          <t>P143</t>
+        </is>
+      </c>
+      <c r="E235" s="2" t="inlineStr">
+        <is>
+          <t>THE GLOBAL RESEARCH ON THE IMPACT OF DERMATOLOGICAL DISEASES (GRIDD)</t>
+        </is>
+      </c>
+      <c r="F235" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Introduction: The Global Research on the Impact of Dermatological	Diseases	(GRIDD)	project	will	be	the	first	global	patientinitiated  and  patient-led  impact  research  study  in  dermatology. By including the patient perspective stringently into the burden metrics,	this	will	be	the	first	program	to	systematically	challenge	the current Global Burden of Disease concept, which markedly underestimates the patient burden of skin diseases. Objective:The  objective  of  the  GRIDD  research  project  is  to develop a comprehensive measure of the impact of living with skin diseases instruments by country, regionally and worldwide. The  global  instrument,  developed  with  patient  organisations, will capture patient experiences, including the extent of disease impact and burden for patients and their families, for generic (i.e. all	dermatological	diseases)	and	specific	dermatological	disease	including psoriasis assessment worldwide. Materials + Methods: Development of the comprehensive measure of impact of disease will be based on a novel methodology with several phases. Phase 1 will systematically review existing measures of the life impact of skin diseases and conduct a patientcentered	item	identification	exercise.	Phase	2	will	be	informed	by	Phase 1 data and will focus on instrument development: develop the  wording  for  items  (i.e.  impact  categories)  and  appropriate item scaling. This measure will describe the impact on life which may include economic; psychological and social impacts. Phase 3 describes the acquisition of real world data to further test the validity and acceptability of the new measure. Lastly, phase 4 and 5 include dissemination and launch of data, the new measure and an implementation strategy to increase uptake of the measure.Results: GRIDD	has	assembled	a	scientific	advisory	board	representing different regions worldwide. Currently, we are collaborating with over 100 patient associations in 32 countries worldwide, with more than 26 disease areas. Industry funding has been secured from	five	different	companies	for	the	first	phase	and	a	portion	of	phase 2. The GRIDD research team, including researcher from the University Medical Center in Hamburg and University of Cardiff, met in 2017 to start phases 1 and 2. The systematic literature review on “Existing patient-centred outcome measures currently used in dermatology” is currently underway.Conclusion:  This  novel  patient-centric  methodology  will  complement  existing  concepts  of  evaluating  patient  perspective  in dermatology. GRIDD will provide an extended patient view for better decision making in dermatology on a global and country level. It supports local, regional and international attempts to create awareness, better position psoriasis and other skin diseases and encourage decision-makers and stakeholders to include dermatological diseases in their policies. </t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="inlineStr">
+        <is>
+          <t>Nirohshah Suthakharan</t>
+        </is>
+      </c>
+      <c r="B236" s="2" t="inlineStr">
+        <is>
+          <t>University Medical Center Hamburg, Institute for Health Services Re-search in Dermatology and Nursing (IVDP), International Alliance of Dermatology Patient Organisations – IADPO, University of Cardiff</t>
+        </is>
+      </c>
+      <c r="C236" s="2" t="inlineStr"/>
+      <c r="D236" s="2" t="inlineStr">
+        <is>
+          <t>P143</t>
+        </is>
+      </c>
+      <c r="E236" s="2" t="inlineStr">
+        <is>
+          <t>THE GLOBAL RESEARCH ON THE IMPACT OF DERMATOLOGICAL DISEASES (GRIDD)</t>
+        </is>
+      </c>
+      <c r="F236" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Introduction: The Global Research on the Impact of Dermatological	Diseases	(GRIDD)	project	will	be	the	first	global	patientinitiated  and  patient-led  impact  research  study  in  dermatology. By including the patient perspective stringently into the burden metrics,	this	will	be	the	first	program	to	systematically	challenge	the current Global Burden of Disease concept, which markedly underestimates the patient burden of skin diseases. Objective:The  objective  of  the  GRIDD  research  project  is  to develop a comprehensive measure of the impact of living with skin diseases instruments by country, regionally and worldwide. The  global  instrument,  developed  with  patient  organisations, will capture patient experiences, including the extent of disease impact and burden for patients and their families, for generic (i.e. all	dermatological	diseases)	and	specific	dermatological	disease	including psoriasis assessment worldwide. Materials + Methods: Development of the comprehensive measure of impact of disease will be based on a novel methodology with several phases. Phase 1 will systematically review existing measures of the life impact of skin diseases and conduct a patientcentered	item	identification	exercise.	Phase	2	will	be	informed	by	Phase 1 data and will focus on instrument development: develop the  wording  for  items  (i.e.  impact  categories)  and  appropriate item scaling. This measure will describe the impact on life which may include economic; psychological and social impacts. Phase 3 describes the acquisition of real world data to further test the validity and acceptability of the new measure. Lastly, phase 4 and 5 include dissemination and launch of data, the new measure and an implementation strategy to increase uptake of the measure.Results: GRIDD	has	assembled	a	scientific	advisory	board	representing different regions worldwide. Currently, we are collaborating with over 100 patient associations in 32 countries worldwide, with more than 26 disease areas. Industry funding has been secured from	five	different	companies	for	the	first	phase	and	a	portion	of	phase 2. The GRIDD research team, including researcher from the University Medical Center in Hamburg and University of Cardiff, met in 2017 to start phases 1 and 2. The systematic literature review on “Existing patient-centred outcome measures currently used in dermatology” is currently underway.Conclusion:  This  novel  patient-centric  methodology  will  complement  existing  concepts  of  evaluating  patient  perspective  in dermatology. GRIDD will provide an extended patient view for better decision making in dermatology on a global and country level. It supports local, regional and international attempts to create awareness, better position psoriasis and other skin diseases and encourage decision-makers and stakeholders to include dermatological diseases in their policies. </t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="inlineStr">
+        <is>
+          <t>Christine Janus</t>
+        </is>
+      </c>
+      <c r="B237" s="2" t="inlineStr">
+        <is>
+          <t>University Medical Center Hamburg, Institute for Health Services Re-search in Dermatology and Nursing (IVDP), International Alliance of Dermatology Patient Organisations – IADPO, University of Cardiff</t>
+        </is>
+      </c>
+      <c r="C237" s="2" t="inlineStr"/>
+      <c r="D237" s="2" t="inlineStr">
+        <is>
+          <t>P143</t>
+        </is>
+      </c>
+      <c r="E237" s="2" t="inlineStr">
+        <is>
+          <t>THE GLOBAL RESEARCH ON THE IMPACT OF DERMATOLOGICAL DISEASES (GRIDD)</t>
+        </is>
+      </c>
+      <c r="F237" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Introduction: The Global Research on the Impact of Dermatological	Diseases	(GRIDD)	project	will	be	the	first	global	patientinitiated  and  patient-led  impact  research  study  in  dermatology. By including the patient perspective stringently into the burden metrics,	this	will	be	the	first	program	to	systematically	challenge	the current Global Burden of Disease concept, which markedly underestimates the patient burden of skin diseases. Objective:The  objective  of  the  GRIDD  research  project  is  to develop a comprehensive measure of the impact of living with skin diseases instruments by country, regionally and worldwide. The  global  instrument,  developed  with  patient  organisations, will capture patient experiences, including the extent of disease impact and burden for patients and their families, for generic (i.e. all	dermatological	diseases)	and	specific	dermatological	disease	including psoriasis assessment worldwide. Materials + Methods: Development of the comprehensive measure of impact of disease will be based on a novel methodology with several phases. Phase 1 will systematically review existing measures of the life impact of skin diseases and conduct a patientcentered	item	identification	exercise.	Phase	2	will	be	informed	by	Phase 1 data and will focus on instrument development: develop the  wording  for  items  (i.e.  impact  categories)  and  appropriate item scaling. This measure will describe the impact on life which may include economic; psychological and social impacts. Phase 3 describes the acquisition of real world data to further test the validity and acceptability of the new measure. Lastly, phase 4 and 5 include dissemination and launch of data, the new measure and an implementation strategy to increase uptake of the measure.Results: GRIDD	has	assembled	a	scientific	advisory	board	representing different regions worldwide. Currently, we are collaborating with over 100 patient associations in 32 countries worldwide, with more than 26 disease areas. Industry funding has been secured from	five	different	companies	for	the	first	phase	and	a	portion	of	phase 2. The GRIDD research team, including researcher from the University Medical Center in Hamburg and University of Cardiff, met in 2017 to start phases 1 and 2. The systematic literature review on “Existing patient-centred outcome measures currently used in dermatology” is currently underway.Conclusion:  This  novel  patient-centric  methodology  will  complement  existing  concepts  of  evaluating  patient  perspective  in dermatology. GRIDD will provide an extended patient view for better decision making in dermatology on a global and country level. It supports local, regional and international attempts to create awareness, better position psoriasis and other skin diseases and encourage decision-makers and stakeholders to include dermatological diseases in their policies. </t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="inlineStr">
+        <is>
+          <t>Jennifer Austin</t>
+        </is>
+      </c>
+      <c r="B238" s="2" t="inlineStr">
+        <is>
+          <t>University Medical Center Hamburg, Institute for Health Services Re-search in Dermatology and Nursing (IVDP), International Alliance of Dermatology Patient Organisations – IADPO, University of Cardiff</t>
+        </is>
+      </c>
+      <c r="C238" s="2" t="inlineStr"/>
+      <c r="D238" s="2" t="inlineStr">
+        <is>
+          <t>P143</t>
+        </is>
+      </c>
+      <c r="E238" s="2" t="inlineStr">
+        <is>
+          <t>THE GLOBAL RESEARCH ON THE IMPACT OF DERMATOLOGICAL DISEASES (GRIDD)</t>
+        </is>
+      </c>
+      <c r="F238" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Introduction: The Global Research on the Impact of Dermatological	Diseases	(GRIDD)	project	will	be	the	first	global	patientinitiated  and  patient-led  impact  research  study  in  dermatology. By including the patient perspective stringently into the burden metrics,	this	will	be	the	first	program	to	systematically	challenge	the current Global Burden of Disease concept, which markedly underestimates the patient burden of skin diseases. Objective:The  objective  of  the  GRIDD  research  project  is  to develop a comprehensive measure of the impact of living with skin diseases instruments by country, regionally and worldwide. The  global  instrument,  developed  with  patient  organisations, will capture patient experiences, including the extent of disease impact and burden for patients and their families, for generic (i.e. all	dermatological	diseases)	and	specific	dermatological	disease	including psoriasis assessment worldwide. Materials + Methods: Development of the comprehensive measure of impact of disease will be based on a novel methodology with several phases. Phase 1 will systematically review existing measures of the life impact of skin diseases and conduct a patientcentered	item	identification	exercise.	Phase	2	will	be	informed	by	Phase 1 data and will focus on instrument development: develop the  wording  for  items  (i.e.  impact  categories)  and  appropriate item scaling. This measure will describe the impact on life which may include economic; psychological and social impacts. Phase 3 describes the acquisition of real world data to further test the validity and acceptability of the new measure. Lastly, phase 4 and 5 include dissemination and launch of data, the new measure and an implementation strategy to increase uptake of the measure.Results: GRIDD	has	assembled	a	scientific	advisory	board	representing different regions worldwide. Currently, we are collaborating with over 100 patient associations in 32 countries worldwide, with more than 26 disease areas. Industry funding has been secured from	five	different	companies	for	the	first	phase	and	a	portion	of	phase 2. The GRIDD research team, including researcher from the University Medical Center in Hamburg and University of Cardiff, met in 2017 to start phases 1 and 2. The systematic literature review on “Existing patient-centred outcome measures currently used in dermatology” is currently underway.Conclusion:  This  novel  patient-centric  methodology  will  complement  existing  concepts  of  evaluating  patient  perspective  in dermatology. GRIDD will provide an extended patient view for better decision making in dermatology on a global and country level. It supports local, regional and international attempts to create awareness, better position psoriasis and other skin diseases and encourage decision-makers and stakeholders to include dermatological diseases in their policies. </t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="inlineStr">
+        <is>
+          <t>Christine Bundy</t>
+        </is>
+      </c>
+      <c r="B239" s="2" t="inlineStr">
+        <is>
+          <t>University Medical Center Hamburg, Institute for Health Services Re-search in Dermatology and Nursing (IVDP), International Alliance of Dermatology Patient Organisations – IADPO, University of Cardiff</t>
+        </is>
+      </c>
+      <c r="C239" s="2" t="inlineStr"/>
+      <c r="D239" s="2" t="inlineStr">
+        <is>
+          <t>P143</t>
+        </is>
+      </c>
+      <c r="E239" s="2" t="inlineStr">
+        <is>
+          <t>THE GLOBAL RESEARCH ON THE IMPACT OF DERMATOLOGICAL DISEASES (GRIDD)</t>
+        </is>
+      </c>
+      <c r="F239" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Introduction: The Global Research on the Impact of Dermatological	Diseases	(GRIDD)	project	will	be	the	first	global	patientinitiated  and  patient-led  impact  research  study  in  dermatology. By including the patient perspective stringently into the burden metrics,	this	will	be	the	first	program	to	systematically	challenge	the current Global Burden of Disease concept, which markedly underestimates the patient burden of skin diseases. Objective:The  objective  of  the  GRIDD  research  project  is  to develop a comprehensive measure of the impact of living with skin diseases instruments by country, regionally and worldwide. The  global  instrument,  developed  with  patient  organisations, will capture patient experiences, including the extent of disease impact and burden for patients and their families, for generic (i.e. all	dermatological	diseases)	and	specific	dermatological	disease	including psoriasis assessment worldwide. Materials + Methods: Development of the comprehensive measure of impact of disease will be based on a novel methodology with several phases. Phase 1 will systematically review existing measures of the life impact of skin diseases and conduct a patientcentered	item	identification	exercise.	Phase	2	will	be	informed	by	Phase 1 data and will focus on instrument development: develop the  wording  for  items  (i.e.  impact  categories)  and  appropriate item scaling. This measure will describe the impact on life which may include economic; psychological and social impacts. Phase 3 describes the acquisition of real world data to further test the validity and acceptability of the new measure. Lastly, phase 4 and 5 include dissemination and launch of data, the new measure and an implementation strategy to increase uptake of the measure.Results: GRIDD	has	assembled	a	scientific	advisory	board	representing different regions worldwide. Currently, we are collaborating with over 100 patient associations in 32 countries worldwide, with more than 26 disease areas. Industry funding has been secured from	five	different	companies	for	the	first	phase	and	a	portion	of	phase 2. The GRIDD research team, including researcher from the University Medical Center in Hamburg and University of Cardiff, met in 2017 to start phases 1 and 2. The systematic literature review on “Existing patient-centred outcome measures currently used in dermatology” is currently underway.Conclusion:  This  novel  patient-centric  methodology  will  complement  existing  concepts  of  evaluating  patient  perspective  in dermatology. GRIDD will provide an extended patient view for better decision making in dermatology on a global and country level. It supports local, regional and international attempts to create awareness, better position psoriasis and other skin diseases and encourage decision-makers and stakeholders to include dermatological diseases in their policies. </t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="inlineStr">
+        <is>
+          <t>Rachael Pattinson</t>
+        </is>
+      </c>
+      <c r="B240" s="2" t="inlineStr">
+        <is>
+          <t>University Medical Center Hamburg, Institute for Health Services Re-search in Dermatology and Nursing (IVDP), International Alliance of Dermatology Patient Organisations – IADPO, University of Cardiff</t>
+        </is>
+      </c>
+      <c r="C240" s="2" t="inlineStr"/>
+      <c r="D240" s="2" t="inlineStr">
+        <is>
+          <t>P143</t>
+        </is>
+      </c>
+      <c r="E240" s="2" t="inlineStr">
+        <is>
+          <t>THE GLOBAL RESEARCH ON THE IMPACT OF DERMATOLOGICAL DISEASES (GRIDD)</t>
+        </is>
+      </c>
+      <c r="F240" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Introduction: The Global Research on the Impact of Dermatological	Diseases	(GRIDD)	project	will	be	the	first	global	patientinitiated  and  patient-led  impact  research  study  in  dermatology. By including the patient perspective stringently into the burden metrics,	this	will	be	the	first	program	to	systematically	challenge	the current Global Burden of Disease concept, which markedly underestimates the patient burden of skin diseases. Objective:The  objective  of  the  GRIDD  research  project  is  to develop a comprehensive measure of the impact of living with skin diseases instruments by country, regionally and worldwide. The  global  instrument,  developed  with  patient  organisations, will capture patient experiences, including the extent of disease impact and burden for patients and their families, for generic (i.e. all	dermatological	diseases)	and	specific	dermatological	disease	including psoriasis assessment worldwide. Materials + Methods: Development of the comprehensive measure of impact of disease will be based on a novel methodology with several phases. Phase 1 will systematically review existing measures of the life impact of skin diseases and conduct a patientcentered	item	identification	exercise.	Phase	2	will	be	informed	by	Phase 1 data and will focus on instrument development: develop the  wording  for  items  (i.e.  impact  categories)  and  appropriate item scaling. This measure will describe the impact on life which may include economic; psychological and social impacts. Phase 3 describes the acquisition of real world data to further test the validity and acceptability of the new measure. Lastly, phase 4 and 5 include dissemination and launch of data, the new measure and an implementation strategy to increase uptake of the measure.Results: GRIDD	has	assembled	a	scientific	advisory	board	representing different regions worldwide. Currently, we are collaborating with over 100 patient associations in 32 countries worldwide, with more than 26 disease areas. Industry funding has been secured from	five	different	companies	for	the	first	phase	and	a	portion	of	phase 2. The GRIDD research team, including researcher from the University Medical Center in Hamburg and University of Cardiff, met in 2017 to start phases 1 and 2. The systematic literature review on “Existing patient-centred outcome measures currently used in dermatology” is currently underway.Conclusion:  This  novel  patient-centric  methodology  will  complement  existing  concepts  of  evaluating  patient  perspective  in dermatology. GRIDD will provide an extended patient view for better decision making in dermatology on a global and country level. It supports local, regional and international attempts to create awareness, better position psoriasis and other skin diseases and encourage decision-makers and stakeholders to include dermatological diseases in their policies. </t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="inlineStr">
+        <is>
+          <t>Mohamad Goldust</t>
+        </is>
+      </c>
+      <c r="B241" s="2" t="inlineStr">
+        <is>
+          <t>Mazandaran University of Medical Sciences, Tabriz University of Medi-cal Sciences</t>
+        </is>
+      </c>
+      <c r="C241" s="2" t="inlineStr"/>
+      <c r="D241" s="2" t="inlineStr">
+        <is>
+          <t>P144</t>
+        </is>
+      </c>
+      <c r="E241" s="2" t="inlineStr">
+        <is>
+          <t>TREATMENT OF NAIL PSORIASIS WITH DIFFE RENT PULSE DURATIONS OF PULSED DYE LASER</t>
+        </is>
+      </c>
+      <c r="F241" s="2" t="inlineStr">
+        <is>
+          <t>Background:  There  are  different  treatment  modalities  for  nail psoriasis but the treatment of choice is still controversial. Laser therapy opened new windows for treatment of nail psoriasis (1,2).Objective:The	aim	of	this	study	was	to	evaluate	the	efficacy	of	different pulse durations in the treatment of nail psoriasis with the 595-nm PDL to determine the optimal pulse duration.Methods: In	this	clinical	trial	study,	120	patients	with	bilateral	fingernail psoriasis were evaluated. PDL was applied on the proximal and lateral nailfolds based on random assignment. 240 nails were treated with 6-millisecond pulse duration and 9 J/cm(2) whereas 240 nails were treated with 0.45-millisecond pulse duration and 6 J/cm(2). Nail Psoriasis Severity Index (NAPSI) was used to assess the clinical outcome from pretreatment and posttreatment photographs.Results:  After	 6	 months	 of	 first	 treatment,	 there	 was	 a	 significant  reduction  in  overall  NAPSI,  nail  matrix  NAPSI,  and  nail bed  NAPSI  scores  from  baseline  in  both  groups;  however,  no significant	difference	was	found	between	the	two	pulse	duration	groups. Side effects were mild including transient petechiae and hyperpigmentation.Conclusion: PDL was found to be an effective and well-tolerated option in the treatment of nail psoriasis. This study demonstrated that both the longer 6-millisecond and shorter 0.45-millisecond pulses of PDL (595 nm) have been clinically proven to be effective for the treatment of nail matrix and nail bed psoriasis.1. Al-Mutairi  N,  Nour  T, Al-Rqobah  D.  Onychomycosis  in  patients  of nail psoriasis on biologic therapy: a randomized, prospective open label study	comparing	Etanercept,	Infliximab	and	Adalimumab.	Expert	Opin	Biol Ther 2013;13(5):625-629.2. Radtke MA, Beikert FC, Augustin M. Nail psoriasis - a treatment challenge. J Dtsch Dermatol Ges 2013;11(3):203-219.</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="inlineStr">
+        <is>
+          <t>Maruska Marovt</t>
+        </is>
+      </c>
+      <c r="B242" s="2" t="inlineStr">
+        <is>
+          <t>University Medical Centre Maribor</t>
+        </is>
+      </c>
+      <c r="C242" s="2" t="inlineStr">
+        <is>
+          <t>Maribor, Slovenia</t>
+        </is>
+      </c>
+      <c r="D242" s="2" t="inlineStr">
+        <is>
+          <t>P145</t>
+        </is>
+      </c>
+      <c r="E242" s="2" t="inlineStr">
+        <is>
+          <t>NEUTROPENIA IN A PSORIASIS PATIENT: SECU­KINUMAB OR MICRONUTRIENT DEFICIENCY?</t>
+        </is>
+      </c>
+      <c r="F242" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We report a case of severe neutropenia in a psoriasis patient, which developed three months after discontinuation of secukinumab. She had gastric bypass surgery a few years ago and was intermittently treated	due	to	iron	deficiency	anemia.	According	to	the	suggested	approach to the adult with unexplained neutropenia (1) a range of  diagnostic  tests  were  performed  and  no  abnormalities  were noticed.  Neutropenia  still  persists,  however  the  patient  hasn’t had any complications. Neutropenia was reported infrequently in subjects with moderate to severe psoriasis receiving secukinumab in a pooled analysis of 10 phase II and III clinical studies (2). Most were grades 1 or 2. Grade 3 neutropenia was uncommon and not associated with serious infections, and no grade 4 neutropenia was recorded.	Deficiencies	of	dietary	vitamins	and	minerals	typically	cause neutropenia in association with other cytopenias. Patients who  have  undergone  bariatric  surgery  require  lifelong  vitamin and mineral supplementation. Severe neutropenia in our patient could be due to combination of secukinumab and micronutrient deficiency,	however	exact	etiology	remains	unclear.Berliner N (2018). Approach to the adult with unexplained neutropenia. In Newburger P (Ed.), UpToDate. Retrieved February 19, 2018, from https://www.uptodate.com/contents/approach-to-the-adult-with-unexplainedneutropeniaVan	de	Kerkhof	PC,	Griffiths	CE,	Reich	K,	Leonardi	CL,	Blauvelt	A,	Tsai	TF, et al. Secukinumab long-term safety experience: A pooled analysis of 10 phase II and III clinical studies in patients with moderate to severe plaque psoriasis. J Am Acad Dermatol 2016 Jul;75(1):83-98.e4. </t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="inlineStr">
+        <is>
+          <t>Katarina Trcko</t>
+        </is>
+      </c>
+      <c r="B243" s="2" t="inlineStr">
+        <is>
+          <t>University Medical Centre Maribor</t>
+        </is>
+      </c>
+      <c r="C243" s="2" t="inlineStr">
+        <is>
+          <t>Maribor, Slovenia</t>
+        </is>
+      </c>
+      <c r="D243" s="2" t="inlineStr">
+        <is>
+          <t>P145</t>
+        </is>
+      </c>
+      <c r="E243" s="2" t="inlineStr">
+        <is>
+          <t>NEUTROPENIA IN A PSORIASIS PATIENT: SECU­KINUMAB OR MICRONUTRIENT DEFICIENCY?</t>
+        </is>
+      </c>
+      <c r="F243" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We report a case of severe neutropenia in a psoriasis patient, which developed three months after discontinuation of secukinumab. She had gastric bypass surgery a few years ago and was intermittently treated	due	to	iron	deficiency	anemia.	According	to	the	suggested	approach to the adult with unexplained neutropenia (1) a range of  diagnostic  tests  were  performed  and  no  abnormalities  were noticed.  Neutropenia  still  persists,  however  the  patient  hasn’t had any complications. Neutropenia was reported infrequently in subjects with moderate to severe psoriasis receiving secukinumab in a pooled analysis of 10 phase II and III clinical studies (2). Most were grades 1 or 2. Grade 3 neutropenia was uncommon and not associated with serious infections, and no grade 4 neutropenia was recorded.	Deficiencies	of	dietary	vitamins	and	minerals	typically	cause neutropenia in association with other cytopenias. Patients who  have  undergone  bariatric  surgery  require  lifelong  vitamin and mineral supplementation. Severe neutropenia in our patient could be due to combination of secukinumab and micronutrient deficiency,	however	exact	etiology	remains	unclear.Berliner N (2018). Approach to the adult with unexplained neutropenia. In Newburger P (Ed.), UpToDate. Retrieved February 19, 2018, from https://www.uptodate.com/contents/approach-to-the-adult-with-unexplainedneutropeniaVan	de	Kerkhof	PC,	Griffiths	CE,	Reich	K,	Leonardi	CL,	Blauvelt	A,	Tsai	TF, et al. Secukinumab long-term safety experience: A pooled analysis of 10 phase II and III clinical studies in patients with moderate to severe plaque psoriasis. J Am Acad Dermatol 2016 Jul;75(1):83-98.e4. </t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="inlineStr">
+        <is>
+          <t>Pij B. Marko</t>
+        </is>
+      </c>
+      <c r="B244" s="2" t="inlineStr">
+        <is>
+          <t>University Medical Centre Maribor</t>
+        </is>
+      </c>
+      <c r="C244" s="2" t="inlineStr">
+        <is>
+          <t>Maribor, Slovenia</t>
+        </is>
+      </c>
+      <c r="D244" s="2" t="inlineStr">
+        <is>
+          <t>P145</t>
+        </is>
+      </c>
+      <c r="E244" s="2" t="inlineStr">
+        <is>
+          <t>NEUTROPENIA IN A PSORIASIS PATIENT: SECU­KINUMAB OR MICRONUTRIENT DEFICIENCY?</t>
+        </is>
+      </c>
+      <c r="F244" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We report a case of severe neutropenia in a psoriasis patient, which developed three months after discontinuation of secukinumab. She had gastric bypass surgery a few years ago and was intermittently treated	due	to	iron	deficiency	anemia.	According	to	the	suggested	approach to the adult with unexplained neutropenia (1) a range of  diagnostic  tests  were  performed  and  no  abnormalities  were noticed.  Neutropenia  still  persists,  however  the  patient  hasn’t had any complications. Neutropenia was reported infrequently in subjects with moderate to severe psoriasis receiving secukinumab in a pooled analysis of 10 phase II and III clinical studies (2). Most were grades 1 or 2. Grade 3 neutropenia was uncommon and not associated with serious infections, and no grade 4 neutropenia was recorded.	Deficiencies	of	dietary	vitamins	and	minerals	typically	cause neutropenia in association with other cytopenias. Patients who  have  undergone  bariatric  surgery  require  lifelong  vitamin and mineral supplementation. Severe neutropenia in our patient could be due to combination of secukinumab and micronutrient deficiency,	however	exact	etiology	remains	unclear.Berliner N (2018). Approach to the adult with unexplained neutropenia. In Newburger P (Ed.), UpToDate. Retrieved February 19, 2018, from https://www.uptodate.com/contents/approach-to-the-adult-with-unexplainedneutropeniaVan	de	Kerkhof	PC,	Griffiths	CE,	Reich	K,	Leonardi	CL,	Blauvelt	A,	Tsai	TF, et al. Secukinumab long-term safety experience: A pooled analysis of 10 phase II and III clinical studies in patients with moderate to severe plaque psoriasis. J Am Acad Dermatol 2016 Jul;75(1):83-98.e4. </t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="inlineStr">
+        <is>
+          <t>Julia Wiedemann</t>
+        </is>
+      </c>
+      <c r="B245" s="2" t="inlineStr">
+        <is>
+          <t>GSI Helmholtzzentrum für Schwerionenforschung, University of Applied Sciences</t>
+        </is>
+      </c>
+      <c r="C245" s="2" t="inlineStr">
+        <is>
+          <t>Darmstadt, Germany</t>
+        </is>
+      </c>
+      <c r="D245" s="2" t="inlineStr">
+        <is>
+          <t>P146</t>
+        </is>
+      </c>
+      <c r="E245" s="2" t="inlineStr">
+        <is>
+          <t>ESTABLISHMENT OF A PSORIATIC SKIN MODEL FOR Α-IRRADIATION</t>
+        </is>
+      </c>
+      <c r="F245" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">59Introduction: Psoriasis is on the indication list for therapy in radon galleries (1). Radon is a radioactive noble gas evaporating from rocks. It is absorbed through skin or lung epithelium during inhalation.	Radon	decays	in	the	tissue	under	emission	of	α-particles.	The  estimated  dose  received  during  a  radon  therapy  is  in  the order of 1.2 mSv which corresponds to the annual background irradiation	caused	by	radon.	Chronic	inflammatory	diseases	such	as rheumatoid arthritis are treated with radon and pain reduction and  improvement  of  mobility  are  reported  (2).  Positive  effects are also reported for psoriasis, but sparely documented. However, for	both	diseases	the	mechanisms	underlying	the	clinical	benefit	are unknown.Objectives:  To  investigate  effects  of  radon  treatment  we  have established a cellular model for psoriasis which can be used for irradiation	with	α-particles.	The	requirements	in	using	α-particles	are	specific	due	to	their	short	range.Methods:  Special  rings  stringed  with  a  2  µm  oxygen  plasma treated	boPET	foil	are	used	to	facilitate	α-irradiation	and	growth	of NHEK (normal human epidermal keratinocytes). Cells were cultured in rings or culture dishes for 24 hours and induced with IL-17,	IL-22	and	TNF-α.	Supernatants	and	cells	for	protein	and	mRNA extraction were collected 24 hours after induction. ELISA, qPCR and Western Blot analysis was performed.Results:  We  could  show  that  it  is  possible  to  culture  primary keratinocytes on plasma treated boPET foil with a similar morphology to cells cultured in cell culture dishes. Furthermore, the selected	cytokines	are	able	to	significantly	induce	psoriasis-related	markers like IL-19 and BDEF2 on mRNA level and the release of the cytokine IL-6. Testing if culturing of NHEK on the treated boPET	foil	alone	has	an	inflammatory	effect	revealed	no	significant	differences in the expression or release of markers compared to cells cultured in cell culture dishes.Conclusion: We conclude that the plasma treated boPET foil is a promising	tool	for	a	setup,	which	enables	α-irradiation	of	monolayer cell cultures. The induction of a psoriasis-like phenotype with cytokines leads to an enhancement of relevant markers.Gasteiner Kur- Reha- und Heilstollen-Betriebsges.m.b.H. www.gasteinerheilstollen.comCucu	et	al;	Front	Immunol.	2017;	8:	882.;	doi:	10.3389/fimmu.2017.00882This work is supported by the Forschungsinstitut Bad Gastein (FOI-15/08031WIE), EURADON, the Radon Gallery of Bad Gastein and GREWIS (02NUK017A) </t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="inlineStr">
+        <is>
+          <t>Valeria Grünebaum</t>
+        </is>
+      </c>
+      <c r="B246" s="2" t="inlineStr">
+        <is>
+          <t>GSI Helmholtzzentrum für Schwerionenforschung, University of Applied Sciences</t>
+        </is>
+      </c>
+      <c r="C246" s="2" t="inlineStr">
+        <is>
+          <t>Darmstadt, Germany</t>
+        </is>
+      </c>
+      <c r="D246" s="2" t="inlineStr">
+        <is>
+          <t>P146</t>
+        </is>
+      </c>
+      <c r="E246" s="2" t="inlineStr">
+        <is>
+          <t>ESTABLISHMENT OF A PSORIATIC SKIN MODEL FOR Α-IRRADIATION</t>
+        </is>
+      </c>
+      <c r="F246" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">59Introduction: Psoriasis is on the indication list for therapy in radon galleries (1). Radon is a radioactive noble gas evaporating from rocks. It is absorbed through skin or lung epithelium during inhalation.	Radon	decays	in	the	tissue	under	emission	of	α-particles.	The  estimated  dose  received  during  a  radon  therapy  is  in  the order of 1.2 mSv which corresponds to the annual background irradiation	caused	by	radon.	Chronic	inflammatory	diseases	such	as rheumatoid arthritis are treated with radon and pain reduction and  improvement  of  mobility  are  reported  (2).  Positive  effects are also reported for psoriasis, but sparely documented. However, for	both	diseases	the	mechanisms	underlying	the	clinical	benefit	are unknown.Objectives:  To  investigate  effects  of  radon  treatment  we  have established a cellular model for psoriasis which can be used for irradiation	with	α-particles.	The	requirements	in	using	α-particles	are	specific	due	to	their	short	range.Methods:  Special  rings  stringed  with  a  2  µm  oxygen  plasma treated	boPET	foil	are	used	to	facilitate	α-irradiation	and	growth	of NHEK (normal human epidermal keratinocytes). Cells were cultured in rings or culture dishes for 24 hours and induced with IL-17,	IL-22	and	TNF-α.	Supernatants	and	cells	for	protein	and	mRNA extraction were collected 24 hours after induction. ELISA, qPCR and Western Blot analysis was performed.Results:  We  could  show  that  it  is  possible  to  culture  primary keratinocytes on plasma treated boPET foil with a similar morphology to cells cultured in cell culture dishes. Furthermore, the selected	cytokines	are	able	to	significantly	induce	psoriasis-related	markers like IL-19 and BDEF2 on mRNA level and the release of the cytokine IL-6. Testing if culturing of NHEK on the treated boPET	foil	alone	has	an	inflammatory	effect	revealed	no	significant	differences in the expression or release of markers compared to cells cultured in cell culture dishes.Conclusion: We conclude that the plasma treated boPET foil is a promising	tool	for	a	setup,	which	enables	α-irradiation	of	monolayer cell cultures. The induction of a psoriasis-like phenotype with cytokines leads to an enhancement of relevant markers.Gasteiner Kur- Reha- und Heilstollen-Betriebsges.m.b.H. www.gasteinerheilstollen.comCucu	et	al;	Front	Immunol.	2017;	8:	882.;	doi:	10.3389/fimmu.2017.00882This work is supported by the Forschungsinstitut Bad Gastein (FOI-15/08031WIE), EURADON, the Radon Gallery of Bad Gastein and GREWIS (02NUK017A) </t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="inlineStr">
+        <is>
+          <t>Claudius Witzler</t>
+        </is>
+      </c>
+      <c r="B247" s="2" t="inlineStr">
+        <is>
+          <t>GSI Helmholtzzentrum für Schwerionenforschung, University of Applied Sciences</t>
+        </is>
+      </c>
+      <c r="C247" s="2" t="inlineStr">
+        <is>
+          <t>Darmstadt, Germany</t>
+        </is>
+      </c>
+      <c r="D247" s="2" t="inlineStr">
+        <is>
+          <t>P146</t>
+        </is>
+      </c>
+      <c r="E247" s="2" t="inlineStr">
+        <is>
+          <t>ESTABLISHMENT OF A PSORIATIC SKIN MODEL FOR Α-IRRADIATION</t>
+        </is>
+      </c>
+      <c r="F247" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">59Introduction: Psoriasis is on the indication list for therapy in radon galleries (1). Radon is a radioactive noble gas evaporating from rocks. It is absorbed through skin or lung epithelium during inhalation.	Radon	decays	in	the	tissue	under	emission	of	α-particles.	The  estimated  dose  received  during  a  radon  therapy  is  in  the order of 1.2 mSv which corresponds to the annual background irradiation	caused	by	radon.	Chronic	inflammatory	diseases	such	as rheumatoid arthritis are treated with radon and pain reduction and  improvement  of  mobility  are  reported  (2).  Positive  effects are also reported for psoriasis, but sparely documented. However, for	both	diseases	the	mechanisms	underlying	the	clinical	benefit	are unknown.Objectives:  To  investigate  effects  of  radon  treatment  we  have established a cellular model for psoriasis which can be used for irradiation	with	α-particles.	The	requirements	in	using	α-particles	are	specific	due	to	their	short	range.Methods:  Special  rings  stringed  with  a  2  µm  oxygen  plasma treated	boPET	foil	are	used	to	facilitate	α-irradiation	and	growth	of NHEK (normal human epidermal keratinocytes). Cells were cultured in rings or culture dishes for 24 hours and induced with IL-17,	IL-22	and	TNF-α.	Supernatants	and	cells	for	protein	and	mRNA extraction were collected 24 hours after induction. ELISA, qPCR and Western Blot analysis was performed.Results:  We  could  show  that  it  is  possible  to  culture  primary keratinocytes on plasma treated boPET foil with a similar morphology to cells cultured in cell culture dishes. Furthermore, the selected	cytokines	are	able	to	significantly	induce	psoriasis-related	markers like IL-19 and BDEF2 on mRNA level and the release of the cytokine IL-6. Testing if culturing of NHEK on the treated boPET	foil	alone	has	an	inflammatory	effect	revealed	no	significant	differences in the expression or release of markers compared to cells cultured in cell culture dishes.Conclusion: We conclude that the plasma treated boPET foil is a promising	tool	for	a	setup,	which	enables	α-irradiation	of	monolayer cell cultures. The induction of a psoriasis-like phenotype with cytokines leads to an enhancement of relevant markers.Gasteiner Kur- Reha- und Heilstollen-Betriebsges.m.b.H. www.gasteinerheilstollen.comCucu	et	al;	Front	Immunol.	2017;	8:	882.;	doi:	10.3389/fimmu.2017.00882This work is supported by the Forschungsinstitut Bad Gastein (FOI-15/08031WIE), EURADON, the Radon Gallery of Bad Gastein and GREWIS (02NUK017A) </t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="inlineStr">
+        <is>
+          <t>Maxi-milian Dornhecker</t>
+        </is>
+      </c>
+      <c r="B248" s="2" t="inlineStr">
+        <is>
+          <t>GSI Helmholtzzentrum für Schwerionenforschung, University of Applied Sciences</t>
+        </is>
+      </c>
+      <c r="C248" s="2" t="inlineStr">
+        <is>
+          <t>Darmstadt, Germany</t>
+        </is>
+      </c>
+      <c r="D248" s="2" t="inlineStr">
+        <is>
+          <t>P146</t>
+        </is>
+      </c>
+      <c r="E248" s="2" t="inlineStr">
+        <is>
+          <t>ESTABLISHMENT OF A PSORIATIC SKIN MODEL FOR Α-IRRADIATION</t>
+        </is>
+      </c>
+      <c r="F248" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">59Introduction: Psoriasis is on the indication list for therapy in radon galleries (1). Radon is a radioactive noble gas evaporating from rocks. It is absorbed through skin or lung epithelium during inhalation.	Radon	decays	in	the	tissue	under	emission	of	α-particles.	The  estimated  dose  received  during  a  radon  therapy  is  in  the order of 1.2 mSv which corresponds to the annual background irradiation	caused	by	radon.	Chronic	inflammatory	diseases	such	as rheumatoid arthritis are treated with radon and pain reduction and  improvement  of  mobility  are  reported  (2).  Positive  effects are also reported for psoriasis, but sparely documented. However, for	both	diseases	the	mechanisms	underlying	the	clinical	benefit	are unknown.Objectives:  To  investigate  effects  of  radon  treatment  we  have established a cellular model for psoriasis which can be used for irradiation	with	α-particles.	The	requirements	in	using	α-particles	are	specific	due	to	their	short	range.Methods:  Special  rings  stringed  with  a  2  µm  oxygen  plasma treated	boPET	foil	are	used	to	facilitate	α-irradiation	and	growth	of NHEK (normal human epidermal keratinocytes). Cells were cultured in rings or culture dishes for 24 hours and induced with IL-17,	IL-22	and	TNF-α.	Supernatants	and	cells	for	protein	and	mRNA extraction were collected 24 hours after induction. ELISA, qPCR and Western Blot analysis was performed.Results:  We  could  show  that  it  is  possible  to  culture  primary keratinocytes on plasma treated boPET foil with a similar morphology to cells cultured in cell culture dishes. Furthermore, the selected	cytokines	are	able	to	significantly	induce	psoriasis-related	markers like IL-19 and BDEF2 on mRNA level and the release of the cytokine IL-6. Testing if culturing of NHEK on the treated boPET	foil	alone	has	an	inflammatory	effect	revealed	no	significant	differences in the expression or release of markers compared to cells cultured in cell culture dishes.Conclusion: We conclude that the plasma treated boPET foil is a promising	tool	for	a	setup,	which	enables	α-irradiation	of	monolayer cell cultures. The induction of a psoriasis-like phenotype with cytokines leads to an enhancement of relevant markers.Gasteiner Kur- Reha- und Heilstollen-Betriebsges.m.b.H. www.gasteinerheilstollen.comCucu	et	al;	Front	Immunol.	2017;	8:	882.;	doi:	10.3389/fimmu.2017.00882This work is supported by the Forschungsinstitut Bad Gastein (FOI-15/08031WIE), EURADON, the Radon Gallery of Bad Gastein and GREWIS (02NUK017A) </t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="inlineStr">
+        <is>
+          <t>Sylvie Lerchl</t>
+        </is>
+      </c>
+      <c r="B249" s="2" t="inlineStr">
+        <is>
+          <t>GSI Helmholtzzentrum für Schwerionenforschung, University of Applied Sciences</t>
+        </is>
+      </c>
+      <c r="C249" s="2" t="inlineStr">
+        <is>
+          <t>Darmstadt, Germany</t>
+        </is>
+      </c>
+      <c r="D249" s="2" t="inlineStr">
+        <is>
+          <t>P146</t>
+        </is>
+      </c>
+      <c r="E249" s="2" t="inlineStr">
+        <is>
+          <t>ESTABLISHMENT OF A PSORIATIC SKIN MODEL FOR Α-IRRADIATION</t>
+        </is>
+      </c>
+      <c r="F249" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">59Introduction: Psoriasis is on the indication list for therapy in radon galleries (1). Radon is a radioactive noble gas evaporating from rocks. It is absorbed through skin or lung epithelium during inhalation.	Radon	decays	in	the	tissue	under	emission	of	α-particles.	The  estimated  dose  received  during  a  radon  therapy  is  in  the order of 1.2 mSv which corresponds to the annual background irradiation	caused	by	radon.	Chronic	inflammatory	diseases	such	as rheumatoid arthritis are treated with radon and pain reduction and  improvement  of  mobility  are  reported  (2).  Positive  effects are also reported for psoriasis, but sparely documented. However, for	both	diseases	the	mechanisms	underlying	the	clinical	benefit	are unknown.Objectives:  To  investigate  effects  of  radon  treatment  we  have established a cellular model for psoriasis which can be used for irradiation	with	α-particles.	The	requirements	in	using	α-particles	are	specific	due	to	their	short	range.Methods:  Special  rings  stringed  with  a  2  µm  oxygen  plasma treated	boPET	foil	are	used	to	facilitate	α-irradiation	and	growth	of NHEK (normal human epidermal keratinocytes). Cells were cultured in rings or culture dishes for 24 hours and induced with IL-17,	IL-22	and	TNF-α.	Supernatants	and	cells	for	protein	and	mRNA extraction were collected 24 hours after induction. ELISA, qPCR and Western Blot analysis was performed.Results:  We  could  show  that  it  is  possible  to  culture  primary keratinocytes on plasma treated boPET foil with a similar morphology to cells cultured in cell culture dishes. Furthermore, the selected	cytokines	are	able	to	significantly	induce	psoriasis-related	markers like IL-19 and BDEF2 on mRNA level and the release of the cytokine IL-6. Testing if culturing of NHEK on the treated boPET	foil	alone	has	an	inflammatory	effect	revealed	no	significant	differences in the expression or release of markers compared to cells cultured in cell culture dishes.Conclusion: We conclude that the plasma treated boPET foil is a promising	tool	for	a	setup,	which	enables	α-irradiation	of	monolayer cell cultures. The induction of a psoriasis-like phenotype with cytokines leads to an enhancement of relevant markers.Gasteiner Kur- Reha- und Heilstollen-Betriebsges.m.b.H. www.gasteinerheilstollen.comCucu	et	al;	Front	Immunol.	2017;	8:	882.;	doi:	10.3389/fimmu.2017.00882This work is supported by the Forschungsinstitut Bad Gastein (FOI-15/08031WIE), EURADON, the Radon Gallery of Bad Gastein and GREWIS (02NUK017A) </t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="inlineStr">
+        <is>
+          <t>Claudia Fournier</t>
+        </is>
+      </c>
+      <c r="B250" s="2" t="inlineStr">
+        <is>
+          <t>GSI Helmholtzzentrum für Schwerionenforschung, University of Applied Sciences</t>
+        </is>
+      </c>
+      <c r="C250" s="2" t="inlineStr">
+        <is>
+          <t>Darmstadt, Germany</t>
+        </is>
+      </c>
+      <c r="D250" s="2" t="inlineStr">
+        <is>
+          <t>P146</t>
+        </is>
+      </c>
+      <c r="E250" s="2" t="inlineStr">
+        <is>
+          <t>ESTABLISHMENT OF A PSORIATIC SKIN MODEL FOR Α-IRRADIATION</t>
+        </is>
+      </c>
+      <c r="F250" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">59Introduction: Psoriasis is on the indication list for therapy in radon galleries (1). Radon is a radioactive noble gas evaporating from rocks. It is absorbed through skin or lung epithelium during inhalation.	Radon	decays	in	the	tissue	under	emission	of	α-particles.	The  estimated  dose  received  during  a  radon  therapy  is  in  the order of 1.2 mSv which corresponds to the annual background irradiation	caused	by	radon.	Chronic	inflammatory	diseases	such	as rheumatoid arthritis are treated with radon and pain reduction and  improvement  of  mobility  are  reported  (2).  Positive  effects are also reported for psoriasis, but sparely documented. However, for	both	diseases	the	mechanisms	underlying	the	clinical	benefit	are unknown.Objectives:  To  investigate  effects  of  radon  treatment  we  have established a cellular model for psoriasis which can be used for irradiation	with	α-particles.	The	requirements	in	using	α-particles	are	specific	due	to	their	short	range.Methods:  Special  rings  stringed  with  a  2  µm  oxygen  plasma treated	boPET	foil	are	used	to	facilitate	α-irradiation	and	growth	of NHEK (normal human epidermal keratinocytes). Cells were cultured in rings or culture dishes for 24 hours and induced with IL-17,	IL-22	and	TNF-α.	Supernatants	and	cells	for	protein	and	mRNA extraction were collected 24 hours after induction. ELISA, qPCR and Western Blot analysis was performed.Results:  We  could  show  that  it  is  possible  to  culture  primary keratinocytes on plasma treated boPET foil with a similar morphology to cells cultured in cell culture dishes. Furthermore, the selected	cytokines	are	able	to	significantly	induce	psoriasis-related	markers like IL-19 and BDEF2 on mRNA level and the release of the cytokine IL-6. Testing if culturing of NHEK on the treated boPET	foil	alone	has	an	inflammatory	effect	revealed	no	significant	differences in the expression or release of markers compared to cells cultured in cell culture dishes.Conclusion: We conclude that the plasma treated boPET foil is a promising	tool	for	a	setup,	which	enables	α-irradiation	of	monolayer cell cultures. The induction of a psoriasis-like phenotype with cytokines leads to an enhancement of relevant markers.Gasteiner Kur- Reha- und Heilstollen-Betriebsges.m.b.H. www.gasteinerheilstollen.comCucu	et	al;	Front	Immunol.	2017;	8:	882.;	doi:	10.3389/fimmu.2017.00882This work is supported by the Forschungsinstitut Bad Gastein (FOI-15/08031WIE), EURADON, the Radon Gallery of Bad Gastein and GREWIS (02NUK017A) </t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="2" t="inlineStr"/>
+      <c r="B251" s="2" t="inlineStr">
+        <is>
+          <t>Dermatology Department University Clinical Center of Sarajevo</t>
+        </is>
+      </c>
+      <c r="C251" s="2" t="inlineStr"/>
+      <c r="D251" s="2" t="inlineStr">
+        <is>
+          <t>P147</t>
+        </is>
+      </c>
+      <c r="E251" s="2" t="inlineStr">
+        <is>
+          <t>THE HISTORY OF PSORIASIS</t>
+        </is>
+      </c>
+      <c r="F251" s="2" t="inlineStr">
+        <is>
+          <t>Selma PoparicMany	ancient	texts,	including	the	Bible,	mention	people	afflicted	with diseases and symptoms very much like psoriasis. Ancient Egyptians wrote about a salve made with various herbs that would be	spread	on	the	skin,	after	which	the	afflicted	person	would	be	instructed to sit in the sun to bring relief to symptoms that seem to	 point	 to	 psoriasis.	 The	Arabian	 physicians	 perhaps	 first	 distinguished psoriasis from other skin diseases already in the 8th century	A.D.,	but	the	first	written	description	of	psoriasis	appears	during the Roman Empire in the 1st century AD in the books of A. Cornelius Celsus » De re medica libri octo». Galen (131–201 AD) of	Pergamon,	physician	of	some	Roman	imperators,	was	the	first	who used the term psoriasis, but only for an itchy, scaly eruption of the eyelids and scrotum, that was probably seborrheic dermatitis.Unfortunately, little was known about the origin of the disease for hundreds of years, in the darkness of the Middle Age - a period of stagnation, and many psoriasis sufferers were thought at the time to have leprosy. Because so little was known about contraction 60and treatment, psoriasis patients were often separated from the general population for fear of them contaminating others. People with psoriasis – thousands in medieval Europe – were forced to warn others of their arrival by ringing a clapper.It wasn’t until the early 1800’s that psoriasis was determined to be a condition separate from leprosy. In the cultural movement of Renaissance some authors mentioned the diseases psora and lepra in their books. In the 18th century hospitals or dispensaries were opened only for treatment of skin or venereal diseases giving to the physicians the opportunity to study more cases of skin diseases and psoriasis as well, while the end of the 19th century psoriatic micro morphology was already described. In 20th century many authors studied the genetic alteration, and today there is undisputed evidence that the disease is multifactorial.Psoriasis,	as	a	common	disease,	has	a	significant	socio-economic	impact on the individual and on the society. Last decades numerous immunological  researches  accumulate  evidence  of  presence  of alteration of the innate and adaptive immune response in psoriatic patients. This imply a primary disregulation of the immune system and permitts a better understanding and new insight in the pathogenesis and as well new possibilities in the management of psoriasis.This  article  shows  a  retrospective  view  of  development  of  our knowledge on psoriasis through history.</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="2" t="inlineStr">
+        <is>
+          <t>Mia Schneeweiss</t>
+        </is>
+      </c>
+      <c r="B252" s="2" t="inlineStr">
+        <is>
+          <t>Brigham and Women’s Hospital</t>
+        </is>
+      </c>
+      <c r="C252" s="2" t="inlineStr">
+        <is>
+          <t>Brigham and Women’s Hospital</t>
+        </is>
+      </c>
+      <c r="D252" s="2" t="inlineStr">
+        <is>
+          <t>P148</t>
+        </is>
+      </c>
+      <c r="E252" s="2" t="inlineStr">
+        <is>
+          <t>COMORBIDITIES AND TREATMENTS IN PATIENTS WITH INVERSE PSORIASIS</t>
+        </is>
+      </c>
+      <c r="F252" s="2" t="inlineStr">
+        <is>
+          <t>Introduction: Inverse (intertriginous) psoriasis is an underdiagnosed, often untreated phenotype of psoriasis (PsO) with a high burden of illness. Inverse PsO may occur in up to 23% of subjects with psoriasis, higher than previously reported.Objectives:  To  characterize  the  frequency  of  inverse  PsO  and patient characteristics and their treatment in a large commercial insurance claims database.Methods: We used longitudinal claims data from commercially insured patients in the US between 10/2015 and 12/2016 to identify adults	with	a	diagnosis	of	flexural	psoriasis	(ICD-10-CM:	L40.8,	“other	psoriasis”	which	is	“recommended	to	be	used	for	flexural	PsO”) associated with an outpatient or inpatient encounter. A 180day	enrollment	period	was	required	before	the	first	diagnosis	of	AD. Among those diagnosed we computed the risk of initiating immunomodulating medications during the following 6 months. All analyses were conducted using the Aetion Evidence Platform.Results: Of 1.5million patients with at least one code for PsO, after excluding patients with concomitant other autoimmune conditions, we	identified	5,310	patients	with	an	ICD-10	code	of	L40.8	used	for	inverse PsO (4/1,000) with a median age of 52 years and an equal gender distribution. Half of the patients were 41–60 years old.Of  those,  0.3%  generalized  pustular,  0.5%  guttate,  and  0.2% pustulosis palmaris et plantaris. Prevalent comorbidities included depression (7%), anxiety (6.5%), and cardiovascular conditions (5%).  20%  received  antidepressants. Within  180  days  after  the diagnosis	of	flexural	PsO,	81%	were	using	high-potency	topical	corticosteroids, 66% phototherapy, 8.6% calcipotriene, 5.6% ustekinumab, 7.2% methotrexate, 7.3% adalimumab, 3.3% etanercept, 1.3%	acitretin,	0.8%	infliximab,	0.9%	Cyclosporine,	0.1%	Sulfasalazine, 0.02% topical tacrolimus, 0.5% topical pimecrolimus.In patients 60+, 83% used high-potency topical corticosteroids, 7.8% phototherapy, 8.8% calcipotriene, 3.1% ustekinumab, 6.9% methotrexate, 4.8% adalimumab, 2.9% etanercept, 1.5% acitretin, 0.5%	infliximab,	0.9%	Cyclosporine,	0.6%	topical	pimecrolimus.Limitations: Although the ICD-10-CM code L40.8 is recommended	for	flexural	PsO,	its	sensitivity/specificity	for	validating	cases	of	flexural	PsO	has	not	been	established,	it	may	not	encompass	all aspects of inverse/intertiginous disease and the code may be highly underutilized.Conclusions:  Using  the  code  ICD-10-CM  L40.8,  which  is  recommended	to	be	used	for	inverse	“flexural”	PsO	leads	to	lower	prevalence  estimates  of  inverse  PsO  than  previously  reported; this  underscores  the  known  underreporting  and  underdiagnosis of  this  condition. Among  those  patients  diagnosed  and  coded, most received topical corticosteroids and/or phototherapy, others received calcipotriene, ustekinumab, methotrexate, adalimumab, etanercept, and acitretin. Further work is needed to understand how	 best	 to	 capture	 inverse	 (intertriginous)	 /	 flexural	 psoriasis	for clinical research work.</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="2" t="inlineStr">
+        <is>
+          <t>Joseph Merola</t>
+        </is>
+      </c>
+      <c r="B253" s="2" t="inlineStr">
+        <is>
+          <t>Brigham and Women’s Hospital</t>
+        </is>
+      </c>
+      <c r="C253" s="2" t="inlineStr">
+        <is>
+          <t>Brigham and Women’s Hospital</t>
+        </is>
+      </c>
+      <c r="D253" s="2" t="inlineStr">
+        <is>
+          <t>P148</t>
+        </is>
+      </c>
+      <c r="E253" s="2" t="inlineStr">
+        <is>
+          <t>COMORBIDITIES AND TREATMENTS IN PATIENTS WITH INVERSE PSORIASIS</t>
+        </is>
+      </c>
+      <c r="F253" s="2" t="inlineStr">
+        <is>
+          <t>Introduction: Inverse (intertriginous) psoriasis is an underdiagnosed, often untreated phenotype of psoriasis (PsO) with a high burden of illness. Inverse PsO may occur in up to 23% of subjects with psoriasis, higher than previously reported.Objectives:  To  characterize  the  frequency  of  inverse  PsO  and patient characteristics and their treatment in a large commercial insurance claims database.Methods: We used longitudinal claims data from commercially insured patients in the US between 10/2015 and 12/2016 to identify adults	with	a	diagnosis	of	flexural	psoriasis	(ICD-10-CM:	L40.8,	“other	psoriasis”	which	is	“recommended	to	be	used	for	flexural	PsO”) associated with an outpatient or inpatient encounter. A 180day	enrollment	period	was	required	before	the	first	diagnosis	of	AD. Among those diagnosed we computed the risk of initiating immunomodulating medications during the following 6 months. All analyses were conducted using the Aetion Evidence Platform.Results: Of 1.5million patients with at least one code for PsO, after excluding patients with concomitant other autoimmune conditions, we	identified	5,310	patients	with	an	ICD-10	code	of	L40.8	used	for	inverse PsO (4/1,000) with a median age of 52 years and an equal gender distribution. Half of the patients were 41–60 years old.Of  those,  0.3%  generalized  pustular,  0.5%  guttate,  and  0.2% pustulosis palmaris et plantaris. Prevalent comorbidities included depression (7%), anxiety (6.5%), and cardiovascular conditions (5%).  20%  received  antidepressants. Within  180  days  after  the diagnosis	of	flexural	PsO,	81%	were	using	high-potency	topical	corticosteroids, 66% phototherapy, 8.6% calcipotriene, 5.6% ustekinumab, 7.2% methotrexate, 7.3% adalimumab, 3.3% etanercept, 1.3%	acitretin,	0.8%	infliximab,	0.9%	Cyclosporine,	0.1%	Sulfasalazine, 0.02% topical tacrolimus, 0.5% topical pimecrolimus.In patients 60+, 83% used high-potency topical corticosteroids, 7.8% phototherapy, 8.8% calcipotriene, 3.1% ustekinumab, 6.9% methotrexate, 4.8% adalimumab, 2.9% etanercept, 1.5% acitretin, 0.5%	infliximab,	0.9%	Cyclosporine,	0.6%	topical	pimecrolimus.Limitations: Although the ICD-10-CM code L40.8 is recommended	for	flexural	PsO,	its	sensitivity/specificity	for	validating	cases	of	flexural	PsO	has	not	been	established,	it	may	not	encompass	all aspects of inverse/intertiginous disease and the code may be highly underutilized.Conclusions:  Using  the  code  ICD-10-CM  L40.8,  which  is  recommended	to	be	used	for	inverse	“flexural”	PsO	leads	to	lower	prevalence  estimates  of  inverse  PsO  than  previously  reported; this  underscores  the  known  underreporting  and  underdiagnosis of  this  condition. Among  those  patients  diagnosed  and  coded, most received topical corticosteroids and/or phototherapy, others received calcipotriene, ustekinumab, methotrexate, adalimumab, etanercept, and acitretin. Further work is needed to understand how	 best	 to	 capture	 inverse	 (intertriginous)	 /	 flexural	 psoriasis	for clinical research work.</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="2" t="inlineStr">
+        <is>
+          <t>Lourdes Perez-Chada</t>
+        </is>
+      </c>
+      <c r="B254" s="2" t="inlineStr">
+        <is>
+          <t>Harvard Medical School - Brigham and Women’s Hospital</t>
+        </is>
+      </c>
+      <c r="C254" s="2" t="inlineStr">
+        <is>
+          <t>Harvard Medical School - Brigham and Women’s Hospital</t>
+        </is>
+      </c>
+      <c r="D254" s="2" t="inlineStr">
+        <is>
+          <t>P150</t>
+        </is>
+      </c>
+      <c r="E254" s="2" t="inlineStr">
+        <is>
+          <t>DEVELOPMENT OF THE “PSO SLEEPY­Q” AND THE “PSA SLEEPY­Q”: TWO QUESTIONNAIRES TO CHARACTERIZE SLEEP IN PATIENTS WITH PSORIATIC DISEASE</t>
+        </is>
+      </c>
+      <c r="F254" s="2" t="inlineStr">
+        <is>
+          <t>Introduction: Substantial evidence suggests that psoriasis (PsO) and  psoriatic  arthritis  (PsA)  are  independently  associated  with sleep disturbance, which may result in serious health consequences including cardiovascular events and mortality. However, the validity of the sleep measures used in these studies is unknown as they have not been validated in patients with psoriatic disease or included psoriatic patients during their development process. There	 is	 a	 need	 for	 validated	 disease-specific	 Patient-Reported	Outcome Measures (PROMs) to accurately characterize sleep in this population and to measure the effect of psoriatic therapies on sleep disturbance. Objectives: This study aimed to develop and establish the content validity  of  2  new  sleep  PROMs:  the  “PsO  Sleepy-Q”  and  the “PsA Sleepy-Q”.Methods:  Following  FDA  PROM-development  guidance,  our study:  (i)	 hypothesized	 a	 conceptual	 framework	 and	 identified	domains  through  literature  review  and  patient  semi-structured interviews using a saturation model (n = 30); (ii) rated domains for  importance  by  patients  (n = 42)  and  an  international  expert panel including dermatologists, rheumatologists and sleep experts (n = 45); (iii)	selected	final	domains	based	of	the	patients’	preference; (iv) generated item pools and the preliminary versions of the instruments. Results: Psoriatic patients reported that sleep maintenance, adequacy, quantity and quality were the most important aspects of disordered sleep. Regarding causes of disturbed sleep: itch, skin and  joint  pain,  stiffness,  taking  care  of  psoriatic  lesions  before bedtime, worsening of psoriatic symptoms at night, feeling uncomfortable in bed due to PsA and sleep apneawere the most outstanding factors selected. Finally, patients reported that disturbed sleep may increase psoriatic signs and symptomsas well as fatigue, cognitive impairment and psychological stress. Overall, patients with PsA expressed a higher burden of sleep disturbance compared to patients with PsO. Preliminary versions of the “PsO SleepyQ” and “PsA Sleepy-Q” including 18 and 24 items, respectively, were created. These questionnaires intend to measure the degree of sleep disturbance, the potential causes of sleep disturbance and the impairment related to sleep disturbance.Conclusion: This study establishes the content validity of the “PsO Sleepy-Q” and “PsA Sleepy-Q”, two patient-derived PROMs to characterize sleep in patients with psoriatic disease in research and clinical settings. These questionnaires will undergo cognitive debriefing	 and	 further	 psychometric	 testing	 to	 define	 the	 final	instrument forms.</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="2" t="inlineStr">
+        <is>
+          <t>Florentina-Silvia Delli</t>
+        </is>
+      </c>
+      <c r="B255" s="2" t="inlineStr">
+        <is>
+          <t>State Hospital for Skin and Venereal Diseases - Hippokratia General Hos-pital</t>
+        </is>
+      </c>
+      <c r="C255" s="2" t="inlineStr">
+        <is>
+          <t>Thessaloniki, Greece</t>
+        </is>
+      </c>
+      <c r="D255" s="2" t="inlineStr">
+        <is>
+          <t>P151</t>
+        </is>
+      </c>
+      <c r="E255" s="2" t="inlineStr">
+        <is>
+          <t>UNSTABLE FORMS OF PSORIASIS – INDICATOR OF AN INTERMEDIATE STATE OF SYSTEMIC DISEASE</t>
+        </is>
+      </c>
+      <c r="F255" s="2" t="inlineStr">
+        <is>
+          <t>Introduction: Erytrodermic psoriasis, inverse psoriasis and generalized pustular psoriasis are considered three particular clinical forms of psoriasis.Objectives: We present two clinical cases in which it is discussed the possibility of considering these clinical pictures as a manifestation of the immunological switch of psoriasis from an organ-target (skin or joint) disease, to a systemic form of psoriasis.Methods: A 22-year-old-man with erythodermic psoriasis and a history of inverse psoriasis since childhood was successfully treated with 60 mg acitretin, until the diagnosis of psoriatic arthritis at the age of 26. The presence of arthritis determined us to change the therapy. Secukinumab at the classic therapeutic scheme is keeping the patient’s skin clean of psoriatic lesions, except from the armpits, and without any arthritic symptoms. A 75-year-old-woman with psoriatic arthritis and hyperkeratotic palms and soles nonspecific	lesions,	under	infliximab	therapy	presented	generalized	pustular psoriasis. After 3 months of acitretin 40mg and etanercept at the classic dose, the patient remains free of any symptoms. Conclusions: The majority of psoriasis studies focus on chronic plaque psoriasis. We sustain the opinion that the above unstable forms of psoriasis, usually impossible to diagnose by other specialities than Dermatology, should be consider the main step in multidisciplinary approach of psoriasis as a systemic disease.1.Kivelevitch D et al. Pharmacotheraputic approaches for treating psoriasis	 in	 difficult-to	 treat	 areas.	 ExpertOpinPharmacother	 2018	April;	19(6); 561-5752.Sano S et al. Guselkumab, a human interleukin-23 monoclonal antibody in	Japanise	patients	with	generalized	pustular	psoriasis:	efficacy	and	safety	analyses of a 52-week, phase 3, multicentre, open-label study. JDermatol 2018 May; 45(5): 529-5393.Cafaro	G,	McInnes	IB.	Psoriatic	arthritis:	tissue-directed	inflammation?	ClinRheumatol 2018 Apr; 37(4): 859-868.</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="2" t="inlineStr">
+        <is>
+          <t>Estela M Malatesta</t>
+        </is>
+      </c>
+      <c r="B256" s="2" t="inlineStr">
+        <is>
+          <t>Dermatologist and Psychiatrist, Doctor. Arturo Ameghino Mental Health Centre, Buenos Aires</t>
+        </is>
+      </c>
+      <c r="C256" s="2" t="inlineStr">
+        <is>
+          <t>Argentina. President of ADEPSI, Academy of Der-matology and Psychiatry</t>
+        </is>
+      </c>
+      <c r="D256" s="2" t="inlineStr">
+        <is>
+          <t>P152</t>
+        </is>
+      </c>
+      <c r="E256" s="2" t="inlineStr">
+        <is>
+          <t>COULD BIOLOGICAL AGENTS FOSTER SUICIDE THROUGH ITS POTENTIAL ANTIDEPRESSANT MECHANISM? A PSYCHODERMATOLOGICAL APPROACH</t>
+        </is>
+      </c>
+      <c r="F256" s="2" t="inlineStr">
+        <is>
+          <t>Introduction:  Depression  and  Psoriasis  are  associated  in  up  to 60% of the cases, with an increased risk of attempted and completed suicide in patients with severe forms of the disease. Bipolar Disorder is a biological condition that affects between 2 and 5% of the population, being an important cause of disability in the world. In spite of this, Bipolar Disorder is often underdiagnosed as Unipolar Depression, which increases the possibility of prescribing errors, as it occurs when administering only antidepressant agents without accompanying them with mood stabilizers, fostering the appearance of episodes of inverse polarity (SWITCHING) which, in turn, raises the risk of suicide.Objectives: The “Cytokine Hypothesis” as a cause of depression suggests the association between the immune system and depression through the induction of the indolamine 2, 3- dioxygenase enzyme. The objectives of the poster are:•	To	raise	the	need	for	new	studies	to	confirm	this	hypothesis	as	well  as  the  antidepressant  effect  of  biological  agents  and  their potential ability to cause a shift into mania.61•	To	deepen	the	criteria	for	patient	selection	for	both	scientific	and	therapeutic protocols.Methods: This poster reviews the literature for evidence that while biological agents could improve the mood of patients with psoriasis treated with these drugs, this same favourable antidepressant effect on humor may trigger a switch of mood into mania, favouring attempted and completed suicide in undiagnosed bipolar patients treated for psoriasis with IL17-TNF alpha cytokine blockers.Results:	Evidence	gathered	so	far	suggests	that	common	inflammatory  processes  could  underpin  both  bipolar  and  psoriasis. The current literature is lacking of longitudinal and mechanistic studies, as well as comparison studies to explore the magnitude of this relation.Conclusion: Considering both bipolar disorder and psoriasis as a multi-system disorder should help us understand the common physiopathology of this comorbidity so as not to see them as separated disorders. Consequently, it is vital to emphasize the importance of the initial psychiatric evaluation for a correct psychiatric/ clinical diagnosis for patients with Psoriasis to be both admitted to a strict control protocol and treated with biological agents.</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="2" t="inlineStr">
+        <is>
+          <t>T Norgren</t>
+        </is>
+      </c>
+      <c r="B257" s="2" t="inlineStr">
+        <is>
+          <t>Psoriasisförbundet</t>
+        </is>
+      </c>
+      <c r="C257" s="2" t="inlineStr">
+        <is>
+          <t>Stockholm, Sweden</t>
+        </is>
+      </c>
+      <c r="D257" s="2" t="inlineStr">
+        <is>
+          <t>P153</t>
+        </is>
+      </c>
+      <c r="E257" s="2" t="inlineStr">
+        <is>
+          <t>FROM A SWEDISH ONLINE SURVEY ON PSORIATIC ARTHRITIS AND PSORIASIS WITH JOINT PAIN</t>
+        </is>
+      </c>
+      <c r="F257" s="2" t="inlineStr">
+        <is>
+          <t>TREATING THE PAIN, NOT THE PROBLEM? RESULTS Introduction: Psoriatic	arthritis	(PsA)	is	a	chronic	inflammatory	disease associated with psoriasis, that can cause pain, swelling and, if untreated, severe joint destruction and disability. The knowledge about PsA among both the public and healthcare providers is limited, leading to both underdiagnosis and undertreatment. To raise awareness of PsA and gather relevant data, the Swedish Psoriasis Association  (Psoriasisförbundet)  and  the  Swedish  Rheumatism Association  (Reumatikerförbundet)  initiated  an  educational awareness campaign on a well-visited online health information platform, which also featured a survey on healthcare experiences and Quality of Life.Objectives:  The  purpose  of  the  survey  was  to  identify  gaps  or discrepancies in the healthcare provided for individuals diagnosed with PsA and for individuals with psoriasis and joint pain consistent with a PsA diagnosis, as well as understanding the impact on QoL for both groups.Methods:  The  survey  consisted  of  two  questionnaires,  one  for individuals diagnosed with PsA, group A, and one for individuals diagnosed with psoriasis who have joint pain consistent with a  PsA  diagnosis  (using  CASPAR  criteria  as  reference),  group B. The survey was open from April 6 2017 to March 31 2018. The total number of respondents in group A was 5 201, and in group  B  11  272.  It  was  not  mandatory  to  answer  all  questions in the survey. One section of the survey focussed on prescribed medication,	to	specifically	identify	discrepancies	in	the	treatment	of the diagnosed (A) and undiagnosed (B) groups. Limitations: self-reported  diagnosis,  possible  to  take  survey  multiple  times using different devices.Results: In response to the question “Which medication has been prescribed for your joint pain during the past year?” 23.91% of group  B  (214  of  895)  answered  that  they  had  been  prescribed opioid pain medication for their joint pain. In group A only 4.61% of the respondents (73 out of 1 582) were prescribed opioid pain medication for their PsA.Conclusions: The results show a large discrepancy between the groups in the prescription of opioid pain medication. The results suggest that individuals with psoriasis that have joint pain consistent with a PsA diagnosis are being over-prescribed potentially addictive pain medication rather than receiving treatment for their underlying	condition	or	inflammatory	symptoms	apart	from	pain.	62As early diagnosis and effective treatment is vital to slow down disease progression, individuals with psoriasis as well as healthcare providers need to be educated on symptoms and diagnosis criteria of PsA to prevent undertreatment or treatment that may even be harmful.Disclosure:  Project  platform  and  consultancy  services  were  provided by health portal company Netdoktor. The project received funding from Novartis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="2" t="inlineStr">
+        <is>
+          <t>B Bohannan</t>
+        </is>
+      </c>
+      <c r="B258" s="2" t="inlineStr">
+        <is>
+          <t>Psoriasisförbundet</t>
+        </is>
+      </c>
+      <c r="C258" s="2" t="inlineStr">
+        <is>
+          <t>Stockholm, Sweden</t>
+        </is>
+      </c>
+      <c r="D258" s="2" t="inlineStr">
+        <is>
+          <t>P153</t>
+        </is>
+      </c>
+      <c r="E258" s="2" t="inlineStr">
+        <is>
+          <t>FROM A SWEDISH ONLINE SURVEY ON PSORIATIC ARTHRITIS AND PSORIASIS WITH JOINT PAIN</t>
+        </is>
+      </c>
+      <c r="F258" s="2" t="inlineStr">
+        <is>
+          <t>TREATING THE PAIN, NOT THE PROBLEM? RESULTS Introduction: Psoriatic	arthritis	(PsA)	is	a	chronic	inflammatory	disease associated with psoriasis, that can cause pain, swelling and, if untreated, severe joint destruction and disability. The knowledge about PsA among both the public and healthcare providers is limited, leading to both underdiagnosis and undertreatment. To raise awareness of PsA and gather relevant data, the Swedish Psoriasis Association  (Psoriasisförbundet)  and  the  Swedish  Rheumatism Association  (Reumatikerförbundet)  initiated  an  educational awareness campaign on a well-visited online health information platform, which also featured a survey on healthcare experiences and Quality of Life.Objectives:  The  purpose  of  the  survey  was  to  identify  gaps  or discrepancies in the healthcare provided for individuals diagnosed with PsA and for individuals with psoriasis and joint pain consistent with a PsA diagnosis, as well as understanding the impact on QoL for both groups.Methods:  The  survey  consisted  of  two  questionnaires,  one  for individuals diagnosed with PsA, group A, and one for individuals diagnosed with psoriasis who have joint pain consistent with a  PsA  diagnosis  (using  CASPAR  criteria  as  reference),  group B. The survey was open from April 6 2017 to March 31 2018. The total number of respondents in group A was 5 201, and in group  B  11  272.  It  was  not  mandatory  to  answer  all  questions in the survey. One section of the survey focussed on prescribed medication,	to	specifically	identify	discrepancies	in	the	treatment	of the diagnosed (A) and undiagnosed (B) groups. Limitations: self-reported  diagnosis,  possible  to  take  survey  multiple  times using different devices.Results: In response to the question “Which medication has been prescribed for your joint pain during the past year?” 23.91% of group  B  (214  of  895)  answered  that  they  had  been  prescribed opioid pain medication for their joint pain. In group A only 4.61% of the respondents (73 out of 1 582) were prescribed opioid pain medication for their PsA.Conclusions: The results show a large discrepancy between the groups in the prescription of opioid pain medication. The results suggest that individuals with psoriasis that have joint pain consistent with a PsA diagnosis are being over-prescribed potentially addictive pain medication rather than receiving treatment for their underlying	condition	or	inflammatory	symptoms	apart	from	pain.	62As early diagnosis and effective treatment is vital to slow down disease progression, individuals with psoriasis as well as healthcare providers need to be educated on symptoms and diagnosis criteria of PsA to prevent undertreatment or treatment that may even be harmful.Disclosure:  Project  platform  and  consultancy  services  were  provided by health portal company Netdoktor. The project received funding from Novartis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="2" t="inlineStr">
+        <is>
+          <t>Lourdes Perez Chada</t>
+        </is>
+      </c>
+      <c r="B259" s="2" t="inlineStr">
+        <is>
+          <t>Harvard Medical School-Brigham and Women’s Hospital</t>
+        </is>
+      </c>
+      <c r="C259" s="2" t="inlineStr">
+        <is>
+          <t>Harvard Medical School-Brigham and Women’s Hospital</t>
+        </is>
+      </c>
+      <c r="D259" s="2" t="inlineStr">
+        <is>
+          <t>P154</t>
+        </is>
+      </c>
+      <c r="E259" s="2" t="inlineStr">
+        <is>
+          <t>AN INTERNATIONAL DELPHI SURVEY TO DEFINE SCREENING FOR PSORIATIC ARTHRITIS AND MEASUREMENT OF PSORIATIC ARTHRITIS SYMPTOMS IN PSORIASIS CLINICAL TRIALS</t>
+        </is>
+      </c>
+      <c r="F259" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Introduction: The International Dermatology Outcome Measures (IDEOM) group was established to standardize patient-centered outcome measures to improve the assessment of treatment response	and	disease	course	in	dermatology.	To	define	the	measurement	set	for	psoriasis,	IDEOM	has	initially	defined	a	set	of	domains	to	be measured in all psoriasis clinical trials representing a “Core Domain Set”. “Psoriatic arthritis (PsA) Symptoms” is part of this set.Objectives: To achieve consensus on whether patients enrolling in	a	psoriasis	clinical	trial	should	first	be	screened	for	PsA	and	then with which measure their PsA symptoms should be assessed.Methods:  Following  the  OMERACT  (Outcome  Measures  in Rheumatology)  Filter  2.0,  the  COSMIN  guidelines,  and  based upon the feedback from a consensus meeting held at the IDEOM 2017 Annual Meeting, we conducted an international, multidisciplinary and multi-stakeholder on-line Delphi survey. The survey was organized into 3 parts in which participants were asked to (1) vote on the role of PsA screening in psoriasis trials, (2) vote on  the  quality  (measurement  properties)  of  4  patient-reported instruments:  Patient  Global  (PG)-arthritis  associated  to  a  pain assessment tool, PG-Psoriatic Arthritis (PG-PsA) associated to a pain assessment tool, Routine Assessment of Patient Index Data-3 (RAPID3), and Psoriatic Arthritis Impact of Disease 9 (PsAID9), and (3) rank these instruments in order of importance. Additionally, respondents were invited to provide feedback on the survey.Results: A total of n = 293, n = 233 and n = 218 subjects completed the  PsA  screening,  instrument  quality  assessment,  and  ranking sections of the survey, respectively. The group was comprised of rheumatologists (44.5%), dermatologists (26%), patients (7.5%), industry partners (8.9%), dermatologist-rheumatologists (5.1%), and patient association representatives (3.4%). Results showed that 90%of participants agreed that all patients enrolling in a psoriasis trial  should  be  screened  for  PsA.  Regarding  the  quality  of  the instruments,	only	the	PsAID9reached	the	pre-specified	endpoint	of  &gt; 70% with agreement that the instrument has good-to-excellent validity, feasibility, reliability and responsiveness;  &lt; 15% agreed that the quality of the instrument is poor or that there is not enough information to make an informed decision. In the ranking exercise, PsAID9	was	the	first	choice(voted	by	48%	of	respondents)	and	RAPID3  represented  an  acceptable  alternative  second  choice (voted by 33% of respondents).Conclusion: In this Delphi study, most participants agreed that all psoriasis trial participants should be screened for PsA. Regarding the measurement set for “PsA Symptoms”, PsAID9 was selected as the most appropriate measure, while RAPID3 could be an acceptable alternative to PsAID9. This will be followed by a workshop at the IDEOM and GRAPPA 2018 annual meetings to review discussion points as well as any need for a second Delphi round. </t>
         </is>
       </c>
     </row>
